--- a/Portugal Segunda Liga/Portugal Segunda Liga.xlsx
+++ b/Portugal Segunda Liga/Portugal Segunda Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1900" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1896" uniqueCount="57">
   <si>
     <t>id</t>
   </si>
@@ -112,10 +112,10 @@
     <t>SC Farense</t>
   </si>
   <si>
-    <t>CD Mafra</t>
+    <t>SCU Torreense</t>
   </si>
   <si>
-    <t>SCU Torreense</t>
+    <t>CD Mafra</t>
   </si>
   <si>
     <t>Sporting Covilha</t>
@@ -546,7 +546,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC377"/>
+  <dimension ref="A1:AC376"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -910,7 +910,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5266496</v>
+        <v>5265388</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -925,73 +925,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K5">
-        <v>1.833</v>
+        <v>2.2</v>
       </c>
       <c r="L5">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M5">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="N5">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="O5">
         <v>3.5</v>
       </c>
       <c r="P5">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q5">
         <v>-0.5</v>
       </c>
       <c r="R5">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S5">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T5">
         <v>2.5</v>
       </c>
       <c r="U5">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V5">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y5">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
         <v>-1</v>
       </c>
       <c r="AA5">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -999,7 +999,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5265388</v>
+        <v>5266496</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1014,73 +1014,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K6">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="L6">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M6">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="N6">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="O6">
         <v>3.5</v>
       </c>
       <c r="P6">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q6">
         <v>-0.5</v>
       </c>
       <c r="R6">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S6">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T6">
         <v>2.5</v>
       </c>
       <c r="U6">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V6">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z6">
         <v>-1</v>
       </c>
       <c r="AA6">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB6">
         <v>-1</v>
       </c>
       <c r="AC6">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1459,7 +1459,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H11">
         <v>4</v>
@@ -1548,7 +1548,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -2435,7 +2435,7 @@
         <v>44947.52083333334</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G22" t="s">
         <v>40</v>
@@ -2969,7 +2969,7 @@
         <v>44949.625</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G28" t="s">
         <v>42</v>
@@ -3058,7 +3058,7 @@
         <v>44955.33333333334</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G29" t="s">
         <v>31</v>
@@ -3414,7 +3414,7 @@
         <v>44955.52083333334</v>
       </c>
       <c r="F33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G33" t="s">
         <v>45</v>
@@ -4114,7 +4114,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>5265414</v>
+        <v>5266489</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4126,73 +4126,73 @@
         <v>44961.52083333334</v>
       </c>
       <c r="F41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G41" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K41">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="L41">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M41">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="N41">
-        <v>2.45</v>
+        <v>1.6</v>
       </c>
       <c r="O41">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P41">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="Q41">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R41">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S41">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T41">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U41">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V41">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W41">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z41">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB41">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AC41">
         <v>-1</v>
@@ -4203,7 +4203,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>5266489</v>
+        <v>5265414</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4215,73 +4215,73 @@
         <v>44961.52083333334</v>
       </c>
       <c r="F42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H42">
+        <v>3</v>
+      </c>
+      <c r="I42">
         <v>1</v>
       </c>
-      <c r="I42">
-        <v>2</v>
-      </c>
       <c r="J42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K42">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="L42">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M42">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="N42">
-        <v>1.6</v>
+        <v>2.45</v>
       </c>
       <c r="O42">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P42">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="Q42">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R42">
+        <v>1.825</v>
+      </c>
+      <c r="S42">
+        <v>1.975</v>
+      </c>
+      <c r="T42">
+        <v>2.25</v>
+      </c>
+      <c r="U42">
+        <v>2.025</v>
+      </c>
+      <c r="V42">
         <v>1.775</v>
       </c>
-      <c r="S42">
-        <v>2.025</v>
-      </c>
-      <c r="T42">
-        <v>2.5</v>
-      </c>
-      <c r="U42">
-        <v>1.925</v>
-      </c>
-      <c r="V42">
-        <v>1.875</v>
-      </c>
       <c r="W42">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA42">
+        <v>-1</v>
+      </c>
+      <c r="AB42">
         <v>1.025</v>
-      </c>
-      <c r="AB42">
-        <v>0.925</v>
       </c>
       <c r="AC42">
         <v>-1</v>
@@ -4307,7 +4307,7 @@
         <v>39</v>
       </c>
       <c r="G43" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4381,7 +4381,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>5265413</v>
+        <v>5263141</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4393,76 +4393,76 @@
         <v>44962.45833333334</v>
       </c>
       <c r="F44" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G44" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44">
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K44">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="L44">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M44">
         <v>2.5</v>
       </c>
       <c r="N44">
-        <v>2.375</v>
+        <v>2.55</v>
       </c>
       <c r="O44">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P44">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q44">
         <v>0</v>
       </c>
       <c r="R44">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S44">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T44">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U44">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V44">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W44">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z44">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB44">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4470,7 +4470,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>5263141</v>
+        <v>5265413</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4482,76 +4482,76 @@
         <v>44962.45833333334</v>
       </c>
       <c r="F45" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G45" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45">
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K45">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="L45">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M45">
         <v>2.5</v>
       </c>
       <c r="N45">
-        <v>2.55</v>
+        <v>2.375</v>
       </c>
       <c r="O45">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P45">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="Q45">
         <v>0</v>
       </c>
       <c r="R45">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S45">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T45">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U45">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V45">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W45">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA45">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC45">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4660,7 +4660,7 @@
         <v>44967.625</v>
       </c>
       <c r="F47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G47" t="s">
         <v>38</v>
@@ -5283,7 +5283,7 @@
         <v>44970.625</v>
       </c>
       <c r="F54" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G54" t="s">
         <v>43</v>
@@ -6072,7 +6072,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>5265428</v>
+        <v>5265427</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6084,7 +6084,7 @@
         <v>44976.52083333334</v>
       </c>
       <c r="F63" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G63" t="s">
         <v>32</v>
@@ -6093,67 +6093,67 @@
         <v>1</v>
       </c>
       <c r="I63">
+        <v>2</v>
+      </c>
+      <c r="J63" t="s">
+        <v>54</v>
+      </c>
+      <c r="K63">
+        <v>2.15</v>
+      </c>
+      <c r="L63">
+        <v>3.2</v>
+      </c>
+      <c r="M63">
+        <v>3.2</v>
+      </c>
+      <c r="N63">
+        <v>2.5</v>
+      </c>
+      <c r="O63">
+        <v>3.3</v>
+      </c>
+      <c r="P63">
+        <v>2.4</v>
+      </c>
+      <c r="Q63">
         <v>0</v>
       </c>
-      <c r="J63" t="s">
-        <v>55</v>
-      </c>
-      <c r="K63">
-        <v>1.909</v>
-      </c>
-      <c r="L63">
-        <v>3.25</v>
-      </c>
-      <c r="M63">
-        <v>3.75</v>
-      </c>
-      <c r="N63">
-        <v>1.833</v>
-      </c>
-      <c r="O63">
-        <v>3.4</v>
-      </c>
-      <c r="P63">
-        <v>4</v>
-      </c>
-      <c r="Q63">
-        <v>-0.5</v>
-      </c>
       <c r="R63">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S63">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T63">
         <v>2.5</v>
       </c>
       <c r="U63">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V63">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W63">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z63">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC63">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6161,7 +6161,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>5265427</v>
+        <v>5265428</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6173,7 +6173,7 @@
         <v>44976.52083333334</v>
       </c>
       <c r="F64" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G64" t="s">
         <v>33</v>
@@ -6182,67 +6182,67 @@
         <v>1</v>
       </c>
       <c r="I64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K64">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="L64">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M64">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N64">
-        <v>2.5</v>
+        <v>1.833</v>
       </c>
       <c r="O64">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P64">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="Q64">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R64">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S64">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T64">
         <v>2.5</v>
       </c>
       <c r="U64">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V64">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W64">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA64">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC64">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6351,7 +6351,7 @@
         <v>44982.33333333334</v>
       </c>
       <c r="F66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G66" t="s">
         <v>30</v>
@@ -6618,7 +6618,7 @@
         <v>44983.33333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G69" t="s">
         <v>42</v>
@@ -7051,7 +7051,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>5265440</v>
+        <v>5265438</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7063,76 +7063,76 @@
         <v>44989.33333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G74" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K74">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="L74">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M74">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="N74">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="O74">
         <v>3.4</v>
       </c>
       <c r="P74">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="Q74">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R74">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S74">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T74">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U74">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V74">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W74">
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y74">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
         <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB74">
         <v>-1</v>
       </c>
       <c r="AC74">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7140,7 +7140,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>5265438</v>
+        <v>5265440</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7152,76 +7152,76 @@
         <v>44989.33333333334</v>
       </c>
       <c r="F75" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G75" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K75">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="L75">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M75">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="N75">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="O75">
         <v>3.4</v>
       </c>
       <c r="P75">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="Q75">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R75">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S75">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T75">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U75">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V75">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W75">
         <v>-1</v>
       </c>
       <c r="X75">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z75">
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB75">
         <v>-1</v>
       </c>
       <c r="AC75">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7333,7 +7333,7 @@
         <v>37</v>
       </c>
       <c r="G77" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7674,7 +7674,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>5265435</v>
+        <v>5266482</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7686,76 +7686,76 @@
         <v>44990.52083333334</v>
       </c>
       <c r="F81" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G81" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81">
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K81">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="L81">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M81">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="N81">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="O81">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P81">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q81">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R81">
+        <v>2</v>
+      </c>
+      <c r="S81">
+        <v>1.8</v>
+      </c>
+      <c r="T81">
+        <v>2.25</v>
+      </c>
+      <c r="U81">
         <v>1.775</v>
       </c>
-      <c r="S81">
+      <c r="V81">
         <v>2.025</v>
       </c>
-      <c r="T81">
-        <v>2.5</v>
-      </c>
-      <c r="U81">
-        <v>1.9</v>
-      </c>
-      <c r="V81">
-        <v>1.9</v>
-      </c>
       <c r="W81">
         <v>-1</v>
       </c>
       <c r="X81">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y81">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z81">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA81">
-        <v>0.5125</v>
+        <v>0.8</v>
       </c>
       <c r="AB81">
         <v>-1</v>
       </c>
       <c r="AC81">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7763,7 +7763,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>5266482</v>
+        <v>5265435</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7775,76 +7775,76 @@
         <v>44990.52083333334</v>
       </c>
       <c r="F82" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82">
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K82">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="L82">
+        <v>3.3</v>
+      </c>
+      <c r="M82">
+        <v>3.3</v>
+      </c>
+      <c r="N82">
+        <v>2</v>
+      </c>
+      <c r="O82">
         <v>3.4</v>
       </c>
-      <c r="M82">
-        <v>4</v>
-      </c>
-      <c r="N82">
-        <v>1.75</v>
-      </c>
-      <c r="O82">
-        <v>3.5</v>
-      </c>
       <c r="P82">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q82">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R82">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S82">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T82">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U82">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V82">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W82">
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y82">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA82">
-        <v>0.8</v>
+        <v>0.5125</v>
       </c>
       <c r="AB82">
         <v>-1</v>
       </c>
       <c r="AC82">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -8131,7 +8131,7 @@
         <v>44996.45833333334</v>
       </c>
       <c r="F86" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G86" t="s">
         <v>44</v>
@@ -8398,7 +8398,7 @@
         <v>44997.45833333334</v>
       </c>
       <c r="F89" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G89" t="s">
         <v>30</v>
@@ -8475,7 +8475,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>5266479</v>
+        <v>5265446</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8487,76 +8487,76 @@
         <v>44997.52083333334</v>
       </c>
       <c r="F90" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G90" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K90">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="L90">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M90">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="N90">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="O90">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P90">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="Q90">
         <v>0.25</v>
       </c>
       <c r="R90">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S90">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T90">
         <v>2.25</v>
       </c>
       <c r="U90">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V90">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W90">
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y90">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA90">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB90">
         <v>-0.5</v>
       </c>
       <c r="AC90">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8564,7 +8564,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>5265446</v>
+        <v>5266479</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8576,76 +8576,76 @@
         <v>44997.52083333334</v>
       </c>
       <c r="F91" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G91" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J91" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K91">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="L91">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M91">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="N91">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="O91">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P91">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="Q91">
         <v>0.25</v>
       </c>
       <c r="R91">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S91">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T91">
         <v>2.25</v>
       </c>
       <c r="U91">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V91">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z91">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB91">
         <v>-0.5</v>
       </c>
       <c r="AC91">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8668,7 +8668,7 @@
         <v>36</v>
       </c>
       <c r="G92" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8935,7 +8935,7 @@
         <v>37</v>
       </c>
       <c r="G95" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -9555,7 +9555,7 @@
         <v>45017.36458333334</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G102" t="s">
         <v>35</v>
@@ -9825,7 +9825,7 @@
         <v>46</v>
       </c>
       <c r="G105" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -10448,7 +10448,7 @@
         <v>36</v>
       </c>
       <c r="G112" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H112">
         <v>2</v>
@@ -10789,7 +10789,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>5265465</v>
+        <v>5265464</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10801,13 +10801,13 @@
         <v>45024.47916666666</v>
       </c>
       <c r="F116" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G116" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I116">
         <v>1</v>
@@ -10816,43 +10816,43 @@
         <v>55</v>
       </c>
       <c r="K116">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L116">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M116">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N116">
-        <v>2.55</v>
+        <v>1.666</v>
       </c>
       <c r="O116">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P116">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="Q116">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R116">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S116">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T116">
         <v>2.25</v>
       </c>
       <c r="U116">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V116">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W116">
-        <v>1.55</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X116">
         <v>-1</v>
@@ -10861,13 +10861,13 @@
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA116">
         <v>-1</v>
       </c>
       <c r="AB116">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC116">
         <v>-1</v>
@@ -10878,7 +10878,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>5265464</v>
+        <v>5263148</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10890,28 +10890,28 @@
         <v>45024.47916666666</v>
       </c>
       <c r="F117" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G117" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H117">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J117" t="s">
         <v>55</v>
       </c>
       <c r="K117">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="L117">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M117">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N117">
         <v>1.666</v>
@@ -10920,25 +10920,25 @@
         <v>3.6</v>
       </c>
       <c r="P117">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="Q117">
         <v>-0.75</v>
       </c>
       <c r="R117">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S117">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T117">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U117">
+        <v>1.85</v>
+      </c>
+      <c r="V117">
         <v>1.95</v>
-      </c>
-      <c r="V117">
-        <v>1.85</v>
       </c>
       <c r="W117">
         <v>0.6659999999999999</v>
@@ -10950,13 +10950,13 @@
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA117">
         <v>-1</v>
       </c>
       <c r="AB117">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC117">
         <v>-1</v>
@@ -10967,7 +10967,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>5263148</v>
+        <v>5265465</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10979,58 +10979,58 @@
         <v>45024.47916666666</v>
       </c>
       <c r="F118" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G118" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H118">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J118" t="s">
         <v>55</v>
       </c>
       <c r="K118">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="L118">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="M118">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="N118">
-        <v>1.666</v>
+        <v>2.55</v>
       </c>
       <c r="O118">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P118">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q118">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R118">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S118">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T118">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U118">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V118">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W118">
-        <v>0.6659999999999999</v>
+        <v>1.55</v>
       </c>
       <c r="X118">
         <v>-1</v>
@@ -11039,13 +11039,13 @@
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA118">
         <v>-1</v>
       </c>
       <c r="AB118">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC118">
         <v>-1</v>
@@ -11335,10 +11335,10 @@
         <v>45031.47916666666</v>
       </c>
       <c r="F122" t="s">
+        <v>33</v>
+      </c>
+      <c r="G122" t="s">
         <v>32</v>
-      </c>
-      <c r="G122" t="s">
-        <v>33</v>
       </c>
       <c r="H122">
         <v>1</v>
@@ -12047,7 +12047,7 @@
         <v>45038.41666666666</v>
       </c>
       <c r="F130" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G130" t="s">
         <v>29</v>
@@ -12584,7 +12584,7 @@
         <v>34</v>
       </c>
       <c r="G136" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H136">
         <v>1</v>
@@ -12762,7 +12762,7 @@
         <v>41</v>
       </c>
       <c r="G138" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H138">
         <v>2</v>
@@ -13029,7 +13029,7 @@
         <v>29</v>
       </c>
       <c r="G141" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -13560,7 +13560,7 @@
         <v>45052.29166666666</v>
       </c>
       <c r="F147" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G147" t="s">
         <v>41</v>
@@ -13916,7 +13916,7 @@
         <v>45053.29166666666</v>
       </c>
       <c r="F151" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G151" t="s">
         <v>40</v>
@@ -14364,7 +14364,7 @@
         <v>46</v>
       </c>
       <c r="G156" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H156">
         <v>2</v>
@@ -14987,7 +14987,7 @@
         <v>45</v>
       </c>
       <c r="G163" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H163">
         <v>3</v>
@@ -15607,7 +15607,7 @@
         <v>45067.41666666666</v>
       </c>
       <c r="F170" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G170" t="s">
         <v>38</v>
@@ -15696,7 +15696,7 @@
         <v>45067.47916666666</v>
       </c>
       <c r="F171" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G171" t="s">
         <v>39</v>
@@ -15966,7 +15966,7 @@
         <v>42</v>
       </c>
       <c r="G174" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H174">
         <v>4</v>
@@ -16322,7 +16322,7 @@
         <v>40</v>
       </c>
       <c r="G178" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H178">
         <v>1</v>
@@ -16930,7 +16930,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6893285</v>
+        <v>6893191</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16942,10 +16942,10 @@
         <v>45151.29166666666</v>
       </c>
       <c r="F185" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G185" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="H185">
         <v>1</v>
@@ -16957,61 +16957,61 @@
         <v>56</v>
       </c>
       <c r="K185">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="L185">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M185">
         <v>3.6</v>
       </c>
       <c r="N185">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="O185">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P185">
+        <v>4.2</v>
+      </c>
+      <c r="Q185">
+        <v>-0.75</v>
+      </c>
+      <c r="R185">
+        <v>1.95</v>
+      </c>
+      <c r="S185">
+        <v>1.85</v>
+      </c>
+      <c r="T185">
+        <v>2.5</v>
+      </c>
+      <c r="U185">
+        <v>1.975</v>
+      </c>
+      <c r="V185">
+        <v>1.825</v>
+      </c>
+      <c r="W185">
+        <v>-1</v>
+      </c>
+      <c r="X185">
         <v>2.75</v>
       </c>
-      <c r="Q185">
-        <v>-0.25</v>
-      </c>
-      <c r="R185">
-        <v>2</v>
-      </c>
-      <c r="S185">
-        <v>1.8</v>
-      </c>
-      <c r="T185">
-        <v>2.25</v>
-      </c>
-      <c r="U185">
-        <v>1.8</v>
-      </c>
-      <c r="V185">
-        <v>2</v>
-      </c>
-      <c r="W185">
-        <v>-1</v>
-      </c>
-      <c r="X185">
-        <v>2.3</v>
-      </c>
       <c r="Y185">
         <v>-1</v>
       </c>
       <c r="Z185">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA185">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB185">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC185">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17019,7 +17019,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6893191</v>
+        <v>6893285</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17031,10 +17031,10 @@
         <v>45151.29166666666</v>
       </c>
       <c r="F186" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G186" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="H186">
         <v>1</v>
@@ -17046,61 +17046,61 @@
         <v>56</v>
       </c>
       <c r="K186">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="L186">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M186">
         <v>3.6</v>
       </c>
       <c r="N186">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="O186">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P186">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q186">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R186">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S186">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T186">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U186">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V186">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W186">
         <v>-1</v>
       </c>
       <c r="X186">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="Y186">
         <v>-1</v>
       </c>
       <c r="Z186">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA186">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AB186">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC186">
-        <v>0.825</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17212,7 +17212,7 @@
         <v>35</v>
       </c>
       <c r="G188" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H188">
         <v>3</v>
@@ -17390,7 +17390,7 @@
         <v>49</v>
       </c>
       <c r="G190" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H190">
         <v>2</v>
@@ -17565,7 +17565,7 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F192" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G192" t="s">
         <v>47</v>
@@ -18099,7 +18099,7 @@
         <v>45159.61458333334</v>
       </c>
       <c r="F198" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G198" t="s">
         <v>43</v>
@@ -18458,7 +18458,7 @@
         <v>53</v>
       </c>
       <c r="G202" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H202">
         <v>1</v>
@@ -18903,7 +18903,7 @@
         <v>48</v>
       </c>
       <c r="G207" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H207">
         <v>0</v>
@@ -19167,7 +19167,7 @@
         <v>45171.29166666666</v>
       </c>
       <c r="F210" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G210" t="s">
         <v>44</v>
@@ -19612,7 +19612,7 @@
         <v>45172.29166666666</v>
       </c>
       <c r="F215" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G215" t="s">
         <v>45</v>
@@ -20327,7 +20327,7 @@
         <v>37</v>
       </c>
       <c r="G223" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H223">
         <v>2</v>
@@ -20594,7 +20594,7 @@
         <v>35</v>
       </c>
       <c r="G226" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H226">
         <v>0</v>
@@ -20861,7 +20861,7 @@
         <v>50</v>
       </c>
       <c r="G229" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H229">
         <v>1</v>
@@ -21392,7 +21392,7 @@
         <v>45201.67708333334</v>
       </c>
       <c r="F235" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G235" t="s">
         <v>53</v>
@@ -21840,7 +21840,7 @@
         <v>44</v>
       </c>
       <c r="G240" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H240">
         <v>2</v>
@@ -21926,7 +21926,7 @@
         <v>45207.29166666666</v>
       </c>
       <c r="F241" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G241" t="s">
         <v>51</v>
@@ -22285,7 +22285,7 @@
         <v>39</v>
       </c>
       <c r="G245" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H245">
         <v>1</v>
@@ -22371,7 +22371,7 @@
         <v>45227.29166666666</v>
       </c>
       <c r="F246" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G246" t="s">
         <v>47</v>
@@ -23071,7 +23071,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>6893126</v>
+        <v>6893574</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -23083,34 +23083,34 @@
         <v>45234.33333333334</v>
       </c>
       <c r="F254" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G254" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H254">
+        <v>2</v>
+      </c>
+      <c r="I254">
         <v>0</v>
       </c>
-      <c r="I254">
-        <v>1</v>
-      </c>
       <c r="J254" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K254">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L254">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M254">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="N254">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="O254">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P254">
         <v>3.8</v>
@@ -23119,40 +23119,40 @@
         <v>-0.5</v>
       </c>
       <c r="R254">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S254">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T254">
         <v>2.5</v>
       </c>
       <c r="U254">
+        <v>1.825</v>
+      </c>
+      <c r="V254">
         <v>1.975</v>
       </c>
-      <c r="V254">
-        <v>1.825</v>
-      </c>
       <c r="W254">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X254">
         <v>-1</v>
       </c>
       <c r="Y254">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z254">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA254">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB254">
         <v>-1</v>
       </c>
       <c r="AC254">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="255" spans="1:29">
@@ -23160,7 +23160,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>6893574</v>
+        <v>6893126</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23172,34 +23172,34 @@
         <v>45234.33333333334</v>
       </c>
       <c r="F255" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G255" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J255" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K255">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L255">
+        <v>3.4</v>
+      </c>
+      <c r="M255">
+        <v>3.8</v>
+      </c>
+      <c r="N255">
+        <v>1.8</v>
+      </c>
+      <c r="O255">
         <v>3.3</v>
-      </c>
-      <c r="M255">
-        <v>3.2</v>
-      </c>
-      <c r="N255">
-        <v>1.727</v>
-      </c>
-      <c r="O255">
-        <v>3.6</v>
       </c>
       <c r="P255">
         <v>3.8</v>
@@ -23208,40 +23208,40 @@
         <v>-0.5</v>
       </c>
       <c r="R255">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S255">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T255">
         <v>2.5</v>
       </c>
       <c r="U255">
+        <v>1.975</v>
+      </c>
+      <c r="V255">
         <v>1.825</v>
       </c>
-      <c r="V255">
-        <v>1.975</v>
-      </c>
       <c r="W255">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X255">
         <v>-1</v>
       </c>
       <c r="Y255">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z255">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA255">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB255">
         <v>-1</v>
       </c>
       <c r="AC255">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="256" spans="1:29">
@@ -23709,7 +23709,7 @@
         <v>37</v>
       </c>
       <c r="G261" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H261">
         <v>1</v>
@@ -24329,10 +24329,10 @@
         <v>45242.33333333334</v>
       </c>
       <c r="F268" t="s">
+        <v>32</v>
+      </c>
+      <c r="G268" t="s">
         <v>33</v>
-      </c>
-      <c r="G268" t="s">
-        <v>32</v>
       </c>
       <c r="H268">
         <v>0</v>
@@ -24685,7 +24685,7 @@
         <v>45248.33333333334</v>
       </c>
       <c r="F272" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G272" t="s">
         <v>52</v>
@@ -25222,7 +25222,7 @@
         <v>50</v>
       </c>
       <c r="G278" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H278">
         <v>1</v>
@@ -25931,7 +25931,7 @@
         <v>45263.33333333334</v>
       </c>
       <c r="F286" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G286" t="s">
         <v>29</v>
@@ -26201,7 +26201,7 @@
         <v>42</v>
       </c>
       <c r="G289" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H289">
         <v>3</v>
@@ -26290,7 +26290,7 @@
         <v>51</v>
       </c>
       <c r="G290" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H290">
         <v>1</v>
@@ -26821,7 +26821,7 @@
         <v>45270.33333333334</v>
       </c>
       <c r="F296" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G296" t="s">
         <v>30</v>
@@ -27091,7 +27091,7 @@
         <v>30</v>
       </c>
       <c r="G299" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H299">
         <v>0</v>
@@ -27803,7 +27803,7 @@
         <v>45</v>
       </c>
       <c r="G307" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H307">
         <v>1</v>
@@ -27889,7 +27889,7 @@
         <v>45281.625</v>
       </c>
       <c r="F308" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G308" t="s">
         <v>52</v>
@@ -28690,7 +28690,7 @@
         <v>45291.33333333334</v>
       </c>
       <c r="F317" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G317" t="s">
         <v>48</v>
@@ -28960,7 +28960,7 @@
         <v>49</v>
       </c>
       <c r="G320" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H320">
         <v>0</v>
@@ -29494,7 +29494,7 @@
         <v>42</v>
       </c>
       <c r="G326" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H326">
         <v>3</v>
@@ -30203,7 +30203,7 @@
         <v>45306.65625</v>
       </c>
       <c r="F334" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G334" t="s">
         <v>43</v>
@@ -30292,7 +30292,7 @@
         <v>45306.73958333334</v>
       </c>
       <c r="F335" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G335" t="s">
         <v>39</v>
@@ -30470,7 +30470,7 @@
         <v>45311.33333333334</v>
       </c>
       <c r="F337" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G337" t="s">
         <v>35</v>
@@ -30915,7 +30915,7 @@
         <v>45312.52083333334</v>
       </c>
       <c r="F342" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G342" t="s">
         <v>49</v>
@@ -31185,7 +31185,7 @@
         <v>47</v>
       </c>
       <c r="G345" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H345">
         <v>0</v>
@@ -31452,7 +31452,7 @@
         <v>43</v>
       </c>
       <c r="G348" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H348">
         <v>2</v>
@@ -31983,7 +31983,7 @@
         <v>45324.73958333334</v>
       </c>
       <c r="F354" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G354" t="s">
         <v>53</v>
@@ -32161,7 +32161,7 @@
         <v>45325.45833333334</v>
       </c>
       <c r="F356" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G356" t="s">
         <v>48</v>
@@ -32520,7 +32520,7 @@
         <v>45</v>
       </c>
       <c r="G360" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H360">
         <v>1</v>
@@ -33143,7 +33143,7 @@
         <v>44</v>
       </c>
       <c r="G367" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H367">
         <v>1</v>
@@ -33395,7 +33395,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>6893602</v>
+        <v>6893601</v>
       </c>
       <c r="C370" t="s">
         <v>28</v>
@@ -33404,49 +33404,49 @@
         <v>28</v>
       </c>
       <c r="E370" s="2">
-        <v>45339.33333333334</v>
+        <v>45339.45833333334</v>
       </c>
       <c r="F370" t="s">
         <v>32</v>
       </c>
       <c r="G370" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K370">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="L370">
         <v>3</v>
       </c>
       <c r="M370">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="N370">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="O370">
         <v>3</v>
       </c>
       <c r="P370">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q370">
         <v>-0.25</v>
       </c>
       <c r="R370">
-        <v>2.05</v>
+        <v>2.125</v>
       </c>
       <c r="S370">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T370">
         <v>2.25</v>
       </c>
       <c r="U370">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V370">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W370">
         <v>0</v>
@@ -33469,7 +33469,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>6893601</v>
+        <v>6899171</v>
       </c>
       <c r="C371" t="s">
         <v>28</v>
@@ -33478,49 +33478,49 @@
         <v>28</v>
       </c>
       <c r="E371" s="2">
-        <v>45339.45833333334</v>
+        <v>45339.52083333334</v>
       </c>
       <c r="F371" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="G371" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="K371">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="L371">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M371">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="N371">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="O371">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P371">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q371">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R371">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="S371">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T371">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U371">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V371">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W371">
         <v>0</v>
@@ -33543,7 +33543,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>6899171</v>
+        <v>6899170</v>
       </c>
       <c r="C372" t="s">
         <v>28</v>
@@ -33552,49 +33552,49 @@
         <v>28</v>
       </c>
       <c r="E372" s="2">
-        <v>45339.52083333334</v>
+        <v>45339.625</v>
       </c>
       <c r="F372" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G372" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="K372">
-        <v>1.85</v>
+        <v>1.571</v>
       </c>
       <c r="L372">
         <v>3.5</v>
       </c>
       <c r="M372">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="N372">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="O372">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P372">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q372">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R372">
+        <v>1.9</v>
+      </c>
+      <c r="S372">
+        <v>1.95</v>
+      </c>
+      <c r="T372">
+        <v>2.25</v>
+      </c>
+      <c r="U372">
         <v>1.875</v>
       </c>
-      <c r="S372">
+      <c r="V372">
         <v>1.975</v>
-      </c>
-      <c r="T372">
-        <v>2.5</v>
-      </c>
-      <c r="U372">
-        <v>1.95</v>
-      </c>
-      <c r="V372">
-        <v>1.9</v>
       </c>
       <c r="W372">
         <v>0</v>
@@ -33617,7 +33617,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>6899170</v>
+        <v>6893202</v>
       </c>
       <c r="C373" t="s">
         <v>28</v>
@@ -33626,49 +33626,49 @@
         <v>28</v>
       </c>
       <c r="E373" s="2">
-        <v>45339.625</v>
+        <v>45340.33333333334</v>
       </c>
       <c r="F373" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="G373" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K373">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L373">
         <v>3.5</v>
       </c>
       <c r="M373">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="N373">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="O373">
         <v>3.6</v>
       </c>
       <c r="P373">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="Q373">
         <v>-0.75</v>
       </c>
       <c r="R373">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S373">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="T373">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U373">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V373">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W373">
         <v>0</v>
@@ -33691,7 +33691,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>6893202</v>
+        <v>6893164</v>
       </c>
       <c r="C374" t="s">
         <v>28</v>
@@ -33700,49 +33700,49 @@
         <v>28</v>
       </c>
       <c r="E374" s="2">
-        <v>45340.33333333334</v>
+        <v>45340.45833333334</v>
       </c>
       <c r="F374" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G374" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K374">
-        <v>1.727</v>
+        <v>3.4</v>
       </c>
       <c r="L374">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="M374">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="N374">
-        <v>1.65</v>
+        <v>4</v>
       </c>
       <c r="O374">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P374">
-        <v>4.75</v>
+        <v>1.95</v>
       </c>
       <c r="Q374">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R374">
+        <v>1.8</v>
+      </c>
+      <c r="S374">
+        <v>2.05</v>
+      </c>
+      <c r="T374">
+        <v>2</v>
+      </c>
+      <c r="U374">
+        <v>1.975</v>
+      </c>
+      <c r="V374">
         <v>1.875</v>
-      </c>
-      <c r="S374">
-        <v>1.975</v>
-      </c>
-      <c r="T374">
-        <v>2.25</v>
-      </c>
-      <c r="U374">
-        <v>1.825</v>
-      </c>
-      <c r="V374">
-        <v>2.025</v>
       </c>
       <c r="W374">
         <v>0</v>
@@ -33765,7 +33765,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>6893164</v>
+        <v>6893165</v>
       </c>
       <c r="C375" t="s">
         <v>28</v>
@@ -33774,49 +33774,49 @@
         <v>28</v>
       </c>
       <c r="E375" s="2">
-        <v>45340.45833333334</v>
+        <v>45340.52083333334</v>
       </c>
       <c r="F375" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G375" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="K375">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L375">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="M375">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="N375">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="O375">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P375">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="Q375">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R375">
+        <v>2.05</v>
+      </c>
+      <c r="S375">
         <v>1.8</v>
       </c>
-      <c r="S375">
-        <v>2.05</v>
-      </c>
       <c r="T375">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U375">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V375">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W375">
         <v>0</v>
@@ -33839,7 +33839,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>6893165</v>
+        <v>6899276</v>
       </c>
       <c r="C376" t="s">
         <v>28</v>
@@ -33848,49 +33848,49 @@
         <v>28</v>
       </c>
       <c r="E376" s="2">
-        <v>45340.52083333334</v>
+        <v>45341.625</v>
       </c>
       <c r="F376" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G376" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="K376">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="L376">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M376">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="N376">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="O376">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P376">
-        <v>2.45</v>
+        <v>1.833</v>
       </c>
       <c r="Q376">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R376">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S376">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T376">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U376">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V376">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W376">
         <v>0</v>
@@ -33905,80 +33905,6 @@
         <v>0</v>
       </c>
       <c r="AA376">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="377" spans="1:29">
-      <c r="A377" s="1">
-        <v>375</v>
-      </c>
-      <c r="B377">
-        <v>6899276</v>
-      </c>
-      <c r="C377" t="s">
-        <v>28</v>
-      </c>
-      <c r="D377" t="s">
-        <v>28</v>
-      </c>
-      <c r="E377" s="2">
-        <v>45341.625</v>
-      </c>
-      <c r="F377" t="s">
-        <v>52</v>
-      </c>
-      <c r="G377" t="s">
-        <v>48</v>
-      </c>
-      <c r="K377">
-        <v>4</v>
-      </c>
-      <c r="L377">
-        <v>3.4</v>
-      </c>
-      <c r="M377">
-        <v>1.8</v>
-      </c>
-      <c r="N377">
-        <v>3.8</v>
-      </c>
-      <c r="O377">
-        <v>3.4</v>
-      </c>
-      <c r="P377">
-        <v>1.833</v>
-      </c>
-      <c r="Q377">
-        <v>0.5</v>
-      </c>
-      <c r="R377">
-        <v>1.95</v>
-      </c>
-      <c r="S377">
-        <v>1.9</v>
-      </c>
-      <c r="T377">
-        <v>2.25</v>
-      </c>
-      <c r="U377">
-        <v>1.8</v>
-      </c>
-      <c r="V377">
-        <v>2.05</v>
-      </c>
-      <c r="W377">
-        <v>0</v>
-      </c>
-      <c r="X377">
-        <v>0</v>
-      </c>
-      <c r="Y377">
-        <v>0</v>
-      </c>
-      <c r="Z377">
-        <v>0</v>
-      </c>
-      <c r="AA377">
         <v>0</v>
       </c>
     </row>

--- a/Portugal Segunda Liga/Portugal Segunda Liga.xlsx
+++ b/Portugal Segunda Liga/Portugal Segunda Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1896" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1884" uniqueCount="57">
   <si>
     <t>id</t>
   </si>
@@ -112,10 +112,10 @@
     <t>SC Farense</t>
   </si>
   <si>
-    <t>SCU Torreense</t>
+    <t>CD Mafra</t>
   </si>
   <si>
-    <t>CD Mafra</t>
+    <t>SCU Torreense</t>
   </si>
   <si>
     <t>Sporting Covilha</t>
@@ -546,7 +546,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC376"/>
+  <dimension ref="A1:AC373"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -910,7 +910,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5265388</v>
+        <v>5266496</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -925,73 +925,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K5">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="L5">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M5">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="N5">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="O5">
         <v>3.5</v>
       </c>
       <c r="P5">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q5">
         <v>-0.5</v>
       </c>
       <c r="R5">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S5">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T5">
         <v>2.5</v>
       </c>
       <c r="U5">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V5">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z5">
         <v>-1</v>
       </c>
       <c r="AA5">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -999,7 +999,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5266496</v>
+        <v>5265388</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1014,73 +1014,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K6">
-        <v>1.833</v>
+        <v>2.2</v>
       </c>
       <c r="L6">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M6">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="N6">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="O6">
         <v>3.5</v>
       </c>
       <c r="P6">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q6">
         <v>-0.5</v>
       </c>
       <c r="R6">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S6">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T6">
         <v>2.5</v>
       </c>
       <c r="U6">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V6">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y6">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
         <v>-1</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB6">
         <v>-1</v>
       </c>
       <c r="AC6">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1459,7 +1459,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>4</v>
@@ -1548,7 +1548,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -2435,7 +2435,7 @@
         <v>44947.52083333334</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G22" t="s">
         <v>40</v>
@@ -2969,7 +2969,7 @@
         <v>44949.625</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G28" t="s">
         <v>42</v>
@@ -3058,7 +3058,7 @@
         <v>44955.33333333334</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G29" t="s">
         <v>31</v>
@@ -3414,7 +3414,7 @@
         <v>44955.52083333334</v>
       </c>
       <c r="F33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G33" t="s">
         <v>45</v>
@@ -4114,7 +4114,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>5266489</v>
+        <v>5265414</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4126,73 +4126,73 @@
         <v>44961.52083333334</v>
       </c>
       <c r="F41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H41">
+        <v>3</v>
+      </c>
+      <c r="I41">
         <v>1</v>
       </c>
-      <c r="I41">
-        <v>2</v>
-      </c>
       <c r="J41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K41">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="L41">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M41">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="N41">
-        <v>1.6</v>
+        <v>2.45</v>
       </c>
       <c r="O41">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P41">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="Q41">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R41">
+        <v>1.825</v>
+      </c>
+      <c r="S41">
+        <v>1.975</v>
+      </c>
+      <c r="T41">
+        <v>2.25</v>
+      </c>
+      <c r="U41">
+        <v>2.025</v>
+      </c>
+      <c r="V41">
         <v>1.775</v>
       </c>
-      <c r="S41">
-        <v>2.025</v>
-      </c>
-      <c r="T41">
-        <v>2.5</v>
-      </c>
-      <c r="U41">
-        <v>1.925</v>
-      </c>
-      <c r="V41">
-        <v>1.875</v>
-      </c>
       <c r="W41">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA41">
+        <v>-1</v>
+      </c>
+      <c r="AB41">
         <v>1.025</v>
-      </c>
-      <c r="AB41">
-        <v>0.925</v>
       </c>
       <c r="AC41">
         <v>-1</v>
@@ -4203,7 +4203,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>5265414</v>
+        <v>5266489</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4215,73 +4215,73 @@
         <v>44961.52083333334</v>
       </c>
       <c r="F42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G42" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K42">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="L42">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M42">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="N42">
-        <v>2.45</v>
+        <v>1.6</v>
       </c>
       <c r="O42">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P42">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="Q42">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R42">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S42">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T42">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U42">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V42">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W42">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z42">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB42">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AC42">
         <v>-1</v>
@@ -4307,7 +4307,7 @@
         <v>39</v>
       </c>
       <c r="G43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4381,7 +4381,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>5263141</v>
+        <v>5265413</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4393,76 +4393,76 @@
         <v>44962.45833333334</v>
       </c>
       <c r="F44" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G44" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44">
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K44">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="L44">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M44">
         <v>2.5</v>
       </c>
       <c r="N44">
-        <v>2.55</v>
+        <v>2.375</v>
       </c>
       <c r="O44">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P44">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="Q44">
         <v>0</v>
       </c>
       <c r="R44">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S44">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T44">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U44">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V44">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W44">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA44">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC44">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4470,7 +4470,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>5265413</v>
+        <v>5263141</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4482,76 +4482,76 @@
         <v>44962.45833333334</v>
       </c>
       <c r="F45" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G45" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45">
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K45">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="L45">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M45">
         <v>2.5</v>
       </c>
       <c r="N45">
-        <v>2.375</v>
+        <v>2.55</v>
       </c>
       <c r="O45">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P45">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q45">
         <v>0</v>
       </c>
       <c r="R45">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S45">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T45">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U45">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V45">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W45">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z45">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB45">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4660,7 +4660,7 @@
         <v>44967.625</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G47" t="s">
         <v>38</v>
@@ -5283,7 +5283,7 @@
         <v>44970.625</v>
       </c>
       <c r="F54" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G54" t="s">
         <v>43</v>
@@ -6087,7 +6087,7 @@
         <v>35</v>
       </c>
       <c r="G63" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6176,7 +6176,7 @@
         <v>31</v>
       </c>
       <c r="G64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6351,7 +6351,7 @@
         <v>44982.33333333334</v>
       </c>
       <c r="F66" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G66" t="s">
         <v>30</v>
@@ -6618,7 +6618,7 @@
         <v>44983.33333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G69" t="s">
         <v>42</v>
@@ -6784,7 +6784,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>5266483</v>
+        <v>5265433</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6796,76 +6796,76 @@
         <v>44983.45833333334</v>
       </c>
       <c r="F71" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G71" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71">
         <v>0</v>
       </c>
-      <c r="I71">
-        <v>1</v>
-      </c>
       <c r="J71" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K71">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="L71">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M71">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="N71">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="O71">
         <v>3.2</v>
       </c>
       <c r="P71">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q71">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R71">
+        <v>1.975</v>
+      </c>
+      <c r="S71">
+        <v>1.825</v>
+      </c>
+      <c r="T71">
+        <v>2</v>
+      </c>
+      <c r="U71">
         <v>1.75</v>
       </c>
-      <c r="S71">
+      <c r="V71">
         <v>2.05</v>
       </c>
-      <c r="T71">
-        <v>2.5</v>
-      </c>
-      <c r="U71">
-        <v>2.025</v>
-      </c>
-      <c r="V71">
-        <v>1.775</v>
-      </c>
       <c r="W71">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA71">
+        <v>-1</v>
+      </c>
+      <c r="AB71">
+        <v>-1</v>
+      </c>
+      <c r="AC71">
         <v>1.05</v>
-      </c>
-      <c r="AB71">
-        <v>-1</v>
-      </c>
-      <c r="AC71">
-        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6873,7 +6873,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>5265433</v>
+        <v>5266483</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6885,76 +6885,76 @@
         <v>44983.45833333334</v>
       </c>
       <c r="F72" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G72" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
         <v>1</v>
       </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
       <c r="J72" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K72">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="L72">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M72">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="N72">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="O72">
         <v>3.2</v>
       </c>
       <c r="P72">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="Q72">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R72">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S72">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T72">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U72">
+        <v>2.025</v>
+      </c>
+      <c r="V72">
+        <v>1.775</v>
+      </c>
+      <c r="W72">
+        <v>-1</v>
+      </c>
+      <c r="X72">
+        <v>-1</v>
+      </c>
+      <c r="Y72">
         <v>1.75</v>
       </c>
-      <c r="V72">
-        <v>2.05</v>
-      </c>
-      <c r="W72">
-        <v>2.25</v>
-      </c>
-      <c r="X72">
-        <v>-1</v>
-      </c>
-      <c r="Y72">
-        <v>-1</v>
-      </c>
       <c r="Z72">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA72">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB72">
         <v>-1</v>
       </c>
       <c r="AC72">
-        <v>1.05</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -7051,7 +7051,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>5265438</v>
+        <v>5265440</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7063,76 +7063,76 @@
         <v>44989.33333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G74" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K74">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="L74">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M74">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="N74">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="O74">
         <v>3.4</v>
       </c>
       <c r="P74">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="Q74">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R74">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S74">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T74">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U74">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V74">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W74">
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z74">
         <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB74">
         <v>-1</v>
       </c>
       <c r="AC74">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7140,7 +7140,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>5265440</v>
+        <v>5265438</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7152,76 +7152,76 @@
         <v>44989.33333333334</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G75" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K75">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="L75">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M75">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="N75">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="O75">
         <v>3.4</v>
       </c>
       <c r="P75">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="Q75">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R75">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S75">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T75">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U75">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V75">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W75">
         <v>-1</v>
       </c>
       <c r="X75">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y75">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB75">
         <v>-1</v>
       </c>
       <c r="AC75">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7333,7 +7333,7 @@
         <v>37</v>
       </c>
       <c r="G77" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7674,7 +7674,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>5266482</v>
+        <v>5265435</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7686,76 +7686,76 @@
         <v>44990.52083333334</v>
       </c>
       <c r="F81" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81">
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K81">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="L81">
+        <v>3.3</v>
+      </c>
+      <c r="M81">
+        <v>3.3</v>
+      </c>
+      <c r="N81">
+        <v>2</v>
+      </c>
+      <c r="O81">
         <v>3.4</v>
       </c>
-      <c r="M81">
-        <v>4</v>
-      </c>
-      <c r="N81">
-        <v>1.75</v>
-      </c>
-      <c r="O81">
-        <v>3.5</v>
-      </c>
       <c r="P81">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q81">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R81">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S81">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T81">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U81">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V81">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W81">
         <v>-1</v>
       </c>
       <c r="X81">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y81">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA81">
-        <v>0.8</v>
+        <v>0.5125</v>
       </c>
       <c r="AB81">
         <v>-1</v>
       </c>
       <c r="AC81">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7763,7 +7763,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>5265435</v>
+        <v>5266482</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7775,76 +7775,76 @@
         <v>44990.52083333334</v>
       </c>
       <c r="F82" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G82" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82">
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K82">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="L82">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M82">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="N82">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="O82">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P82">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q82">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R82">
+        <v>2</v>
+      </c>
+      <c r="S82">
+        <v>1.8</v>
+      </c>
+      <c r="T82">
+        <v>2.25</v>
+      </c>
+      <c r="U82">
         <v>1.775</v>
       </c>
-      <c r="S82">
+      <c r="V82">
         <v>2.025</v>
       </c>
-      <c r="T82">
-        <v>2.5</v>
-      </c>
-      <c r="U82">
-        <v>1.9</v>
-      </c>
-      <c r="V82">
-        <v>1.9</v>
-      </c>
       <c r="W82">
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z82">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
-        <v>0.5125</v>
+        <v>0.8</v>
       </c>
       <c r="AB82">
         <v>-1</v>
       </c>
       <c r="AC82">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -8131,7 +8131,7 @@
         <v>44996.45833333334</v>
       </c>
       <c r="F86" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G86" t="s">
         <v>44</v>
@@ -8398,7 +8398,7 @@
         <v>44997.45833333334</v>
       </c>
       <c r="F89" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G89" t="s">
         <v>30</v>
@@ -8475,7 +8475,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>5265446</v>
+        <v>5266479</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8487,76 +8487,76 @@
         <v>44997.52083333334</v>
       </c>
       <c r="F90" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G90" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K90">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="L90">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M90">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="N90">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="O90">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P90">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="Q90">
         <v>0.25</v>
       </c>
       <c r="R90">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S90">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T90">
         <v>2.25</v>
       </c>
       <c r="U90">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V90">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W90">
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z90">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB90">
         <v>-0.5</v>
       </c>
       <c r="AC90">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8564,7 +8564,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>5266479</v>
+        <v>5265446</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8576,76 +8576,76 @@
         <v>44997.52083333334</v>
       </c>
       <c r="F91" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G91" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K91">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="L91">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M91">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="N91">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="O91">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P91">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="Q91">
         <v>0.25</v>
       </c>
       <c r="R91">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S91">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T91">
         <v>2.25</v>
       </c>
       <c r="U91">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V91">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y91">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA91">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB91">
         <v>-0.5</v>
       </c>
       <c r="AC91">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8668,7 +8668,7 @@
         <v>36</v>
       </c>
       <c r="G92" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8935,7 +8935,7 @@
         <v>37</v>
       </c>
       <c r="G95" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -9555,7 +9555,7 @@
         <v>45017.36458333334</v>
       </c>
       <c r="F102" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G102" t="s">
         <v>35</v>
@@ -9825,7 +9825,7 @@
         <v>46</v>
       </c>
       <c r="G105" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -10448,7 +10448,7 @@
         <v>36</v>
       </c>
       <c r="G112" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H112">
         <v>2</v>
@@ -10801,7 +10801,7 @@
         <v>45024.47916666666</v>
       </c>
       <c r="F116" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G116" t="s">
         <v>34</v>
@@ -11335,10 +11335,10 @@
         <v>45031.47916666666</v>
       </c>
       <c r="F122" t="s">
+        <v>32</v>
+      </c>
+      <c r="G122" t="s">
         <v>33</v>
-      </c>
-      <c r="G122" t="s">
-        <v>32</v>
       </c>
       <c r="H122">
         <v>1</v>
@@ -12047,7 +12047,7 @@
         <v>45038.41666666666</v>
       </c>
       <c r="F130" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G130" t="s">
         <v>29</v>
@@ -12584,7 +12584,7 @@
         <v>34</v>
       </c>
       <c r="G136" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H136">
         <v>1</v>
@@ -12762,7 +12762,7 @@
         <v>41</v>
       </c>
       <c r="G138" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H138">
         <v>2</v>
@@ -13029,7 +13029,7 @@
         <v>29</v>
       </c>
       <c r="G141" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -13560,7 +13560,7 @@
         <v>45052.29166666666</v>
       </c>
       <c r="F147" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G147" t="s">
         <v>41</v>
@@ -13916,7 +13916,7 @@
         <v>45053.29166666666</v>
       </c>
       <c r="F151" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G151" t="s">
         <v>40</v>
@@ -14364,7 +14364,7 @@
         <v>46</v>
       </c>
       <c r="G156" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H156">
         <v>2</v>
@@ -14987,7 +14987,7 @@
         <v>45</v>
       </c>
       <c r="G163" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H163">
         <v>3</v>
@@ -15607,7 +15607,7 @@
         <v>45067.41666666666</v>
       </c>
       <c r="F170" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G170" t="s">
         <v>38</v>
@@ -15696,7 +15696,7 @@
         <v>45067.47916666666</v>
       </c>
       <c r="F171" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G171" t="s">
         <v>39</v>
@@ -15966,7 +15966,7 @@
         <v>42</v>
       </c>
       <c r="G174" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H174">
         <v>4</v>
@@ -16322,7 +16322,7 @@
         <v>40</v>
       </c>
       <c r="G178" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H178">
         <v>1</v>
@@ -17212,7 +17212,7 @@
         <v>35</v>
       </c>
       <c r="G188" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H188">
         <v>3</v>
@@ -17390,7 +17390,7 @@
         <v>49</v>
       </c>
       <c r="G190" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H190">
         <v>2</v>
@@ -17565,7 +17565,7 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F192" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G192" t="s">
         <v>47</v>
@@ -18099,7 +18099,7 @@
         <v>45159.61458333334</v>
       </c>
       <c r="F198" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G198" t="s">
         <v>43</v>
@@ -18458,7 +18458,7 @@
         <v>53</v>
       </c>
       <c r="G202" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H202">
         <v>1</v>
@@ -18903,7 +18903,7 @@
         <v>48</v>
       </c>
       <c r="G207" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H207">
         <v>0</v>
@@ -19167,7 +19167,7 @@
         <v>45171.29166666666</v>
       </c>
       <c r="F210" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G210" t="s">
         <v>44</v>
@@ -19612,7 +19612,7 @@
         <v>45172.29166666666</v>
       </c>
       <c r="F215" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G215" t="s">
         <v>45</v>
@@ -20327,7 +20327,7 @@
         <v>37</v>
       </c>
       <c r="G223" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H223">
         <v>2</v>
@@ -20594,7 +20594,7 @@
         <v>35</v>
       </c>
       <c r="G226" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H226">
         <v>0</v>
@@ -20861,7 +20861,7 @@
         <v>50</v>
       </c>
       <c r="G229" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H229">
         <v>1</v>
@@ -21392,7 +21392,7 @@
         <v>45201.67708333334</v>
       </c>
       <c r="F235" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G235" t="s">
         <v>53</v>
@@ -21840,7 +21840,7 @@
         <v>44</v>
       </c>
       <c r="G240" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H240">
         <v>2</v>
@@ -21926,7 +21926,7 @@
         <v>45207.29166666666</v>
       </c>
       <c r="F241" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G241" t="s">
         <v>51</v>
@@ -22285,7 +22285,7 @@
         <v>39</v>
       </c>
       <c r="G245" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H245">
         <v>1</v>
@@ -22371,7 +22371,7 @@
         <v>45227.29166666666</v>
       </c>
       <c r="F246" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G246" t="s">
         <v>47</v>
@@ -23071,7 +23071,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>6893574</v>
+        <v>6893126</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -23083,34 +23083,34 @@
         <v>45234.33333333334</v>
       </c>
       <c r="F254" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G254" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J254" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K254">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L254">
+        <v>3.4</v>
+      </c>
+      <c r="M254">
+        <v>3.8</v>
+      </c>
+      <c r="N254">
+        <v>1.8</v>
+      </c>
+      <c r="O254">
         <v>3.3</v>
-      </c>
-      <c r="M254">
-        <v>3.2</v>
-      </c>
-      <c r="N254">
-        <v>1.727</v>
-      </c>
-      <c r="O254">
-        <v>3.6</v>
       </c>
       <c r="P254">
         <v>3.8</v>
@@ -23119,40 +23119,40 @@
         <v>-0.5</v>
       </c>
       <c r="R254">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S254">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T254">
         <v>2.5</v>
       </c>
       <c r="U254">
+        <v>1.975</v>
+      </c>
+      <c r="V254">
         <v>1.825</v>
       </c>
-      <c r="V254">
-        <v>1.975</v>
-      </c>
       <c r="W254">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X254">
         <v>-1</v>
       </c>
       <c r="Y254">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z254">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA254">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB254">
         <v>-1</v>
       </c>
       <c r="AC254">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="255" spans="1:29">
@@ -23160,7 +23160,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>6893126</v>
+        <v>6893574</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23172,34 +23172,34 @@
         <v>45234.33333333334</v>
       </c>
       <c r="F255" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G255" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H255">
+        <v>2</v>
+      </c>
+      <c r="I255">
         <v>0</v>
       </c>
-      <c r="I255">
-        <v>1</v>
-      </c>
       <c r="J255" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K255">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L255">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M255">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="N255">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="O255">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P255">
         <v>3.8</v>
@@ -23208,40 +23208,40 @@
         <v>-0.5</v>
       </c>
       <c r="R255">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S255">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T255">
         <v>2.5</v>
       </c>
       <c r="U255">
+        <v>1.825</v>
+      </c>
+      <c r="V255">
         <v>1.975</v>
       </c>
-      <c r="V255">
-        <v>1.825</v>
-      </c>
       <c r="W255">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X255">
         <v>-1</v>
       </c>
       <c r="Y255">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z255">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA255">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB255">
         <v>-1</v>
       </c>
       <c r="AC255">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="256" spans="1:29">
@@ -23709,7 +23709,7 @@
         <v>37</v>
       </c>
       <c r="G261" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H261">
         <v>1</v>
@@ -24329,10 +24329,10 @@
         <v>45242.33333333334</v>
       </c>
       <c r="F268" t="s">
+        <v>33</v>
+      </c>
+      <c r="G268" t="s">
         <v>32</v>
-      </c>
-      <c r="G268" t="s">
-        <v>33</v>
       </c>
       <c r="H268">
         <v>0</v>
@@ -24685,7 +24685,7 @@
         <v>45248.33333333334</v>
       </c>
       <c r="F272" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G272" t="s">
         <v>52</v>
@@ -25222,7 +25222,7 @@
         <v>50</v>
       </c>
       <c r="G278" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H278">
         <v>1</v>
@@ -25931,7 +25931,7 @@
         <v>45263.33333333334</v>
       </c>
       <c r="F286" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G286" t="s">
         <v>29</v>
@@ -26201,7 +26201,7 @@
         <v>42</v>
       </c>
       <c r="G289" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H289">
         <v>3</v>
@@ -26290,7 +26290,7 @@
         <v>51</v>
       </c>
       <c r="G290" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H290">
         <v>1</v>
@@ -26821,7 +26821,7 @@
         <v>45270.33333333334</v>
       </c>
       <c r="F296" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G296" t="s">
         <v>30</v>
@@ -27091,7 +27091,7 @@
         <v>30</v>
       </c>
       <c r="G299" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H299">
         <v>0</v>
@@ -27803,7 +27803,7 @@
         <v>45</v>
       </c>
       <c r="G307" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H307">
         <v>1</v>
@@ -27889,7 +27889,7 @@
         <v>45281.625</v>
       </c>
       <c r="F308" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G308" t="s">
         <v>52</v>
@@ -28233,7 +28233,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>6893140</v>
+        <v>6893139</v>
       </c>
       <c r="C312" t="s">
         <v>28</v>
@@ -28245,55 +28245,55 @@
         <v>45290.33333333334</v>
       </c>
       <c r="F312" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G312" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I312">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J312" t="s">
         <v>54</v>
       </c>
       <c r="K312">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="L312">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M312">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="N312">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="O312">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P312">
-        <v>3.25</v>
+        <v>2.45</v>
       </c>
       <c r="Q312">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R312">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S312">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T312">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U312">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V312">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W312">
         <v>-1</v>
@@ -28302,16 +28302,16 @@
         <v>-1</v>
       </c>
       <c r="Y312">
-        <v>2.25</v>
+        <v>1.45</v>
       </c>
       <c r="Z312">
         <v>-1</v>
       </c>
       <c r="AA312">
-        <v>1.025</v>
+        <v>0.75</v>
       </c>
       <c r="AB312">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC312">
         <v>-1</v>
@@ -28322,7 +28322,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>6893139</v>
+        <v>6893140</v>
       </c>
       <c r="C313" t="s">
         <v>28</v>
@@ -28334,55 +28334,55 @@
         <v>45290.33333333334</v>
       </c>
       <c r="F313" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G313" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H313">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I313">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J313" t="s">
         <v>54</v>
       </c>
       <c r="K313">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="L313">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M313">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="N313">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="O313">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P313">
-        <v>2.45</v>
+        <v>3.25</v>
       </c>
       <c r="Q313">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R313">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S313">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T313">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U313">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V313">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W313">
         <v>-1</v>
@@ -28391,16 +28391,16 @@
         <v>-1</v>
       </c>
       <c r="Y313">
-        <v>1.45</v>
+        <v>2.25</v>
       </c>
       <c r="Z313">
         <v>-1</v>
       </c>
       <c r="AA313">
-        <v>0.75</v>
+        <v>1.025</v>
       </c>
       <c r="AB313">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC313">
         <v>-1</v>
@@ -28690,7 +28690,7 @@
         <v>45291.33333333334</v>
       </c>
       <c r="F317" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G317" t="s">
         <v>48</v>
@@ -28945,7 +28945,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>6893143</v>
+        <v>6893589</v>
       </c>
       <c r="C320" t="s">
         <v>28</v>
@@ -28957,76 +28957,76 @@
         <v>45297.52083333334</v>
       </c>
       <c r="F320" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G320" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320">
         <v>1</v>
       </c>
       <c r="J320" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K320">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L320">
         <v>3.5</v>
       </c>
       <c r="M320">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="N320">
-        <v>1.6</v>
+        <v>1.571</v>
       </c>
       <c r="O320">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P320">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q320">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R320">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S320">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T320">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U320">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V320">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W320">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X320">
         <v>-1</v>
       </c>
       <c r="Y320">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z320">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA320">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB320">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC320">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="321" spans="1:29">
@@ -29034,7 +29034,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>6893589</v>
+        <v>6893143</v>
       </c>
       <c r="C321" t="s">
         <v>28</v>
@@ -29046,76 +29046,76 @@
         <v>45297.52083333334</v>
       </c>
       <c r="F321" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="G321" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321">
         <v>1</v>
       </c>
       <c r="J321" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K321">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="L321">
         <v>3.5</v>
       </c>
       <c r="M321">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="N321">
-        <v>1.571</v>
+        <v>1.6</v>
       </c>
       <c r="O321">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P321">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q321">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R321">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S321">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T321">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U321">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V321">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W321">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X321">
         <v>-1</v>
       </c>
       <c r="Y321">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z321">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA321">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB321">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC321">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="322" spans="1:29">
@@ -29494,7 +29494,7 @@
         <v>42</v>
       </c>
       <c r="G326" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H326">
         <v>3</v>
@@ -30203,7 +30203,7 @@
         <v>45306.65625</v>
       </c>
       <c r="F334" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G334" t="s">
         <v>43</v>
@@ -30292,7 +30292,7 @@
         <v>45306.73958333334</v>
       </c>
       <c r="F335" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G335" t="s">
         <v>39</v>
@@ -30470,7 +30470,7 @@
         <v>45311.33333333334</v>
       </c>
       <c r="F337" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G337" t="s">
         <v>35</v>
@@ -30915,7 +30915,7 @@
         <v>45312.52083333334</v>
       </c>
       <c r="F342" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G342" t="s">
         <v>49</v>
@@ -31185,7 +31185,7 @@
         <v>47</v>
       </c>
       <c r="G345" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H345">
         <v>0</v>
@@ -31452,7 +31452,7 @@
         <v>43</v>
       </c>
       <c r="G348" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H348">
         <v>2</v>
@@ -31983,7 +31983,7 @@
         <v>45324.73958333334</v>
       </c>
       <c r="F354" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G354" t="s">
         <v>53</v>
@@ -32161,7 +32161,7 @@
         <v>45325.45833333334</v>
       </c>
       <c r="F356" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G356" t="s">
         <v>48</v>
@@ -32520,7 +32520,7 @@
         <v>45</v>
       </c>
       <c r="G360" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H360">
         <v>1</v>
@@ -33143,7 +33143,7 @@
         <v>44</v>
       </c>
       <c r="G367" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H367">
         <v>1</v>
@@ -33395,7 +33395,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>6893601</v>
+        <v>6893202</v>
       </c>
       <c r="C370" t="s">
         <v>28</v>
@@ -33404,49 +33404,49 @@
         <v>28</v>
       </c>
       <c r="E370" s="2">
-        <v>45339.45833333334</v>
+        <v>45340.33333333334</v>
       </c>
       <c r="F370" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G370" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="K370">
-        <v>2.45</v>
+        <v>1.727</v>
       </c>
       <c r="L370">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M370">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="N370">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="O370">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="P370">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="Q370">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R370">
-        <v>2.125</v>
+        <v>1.8</v>
       </c>
       <c r="S370">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="T370">
         <v>2.25</v>
       </c>
       <c r="U370">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V370">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W370">
         <v>0</v>
@@ -33469,7 +33469,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>6899171</v>
+        <v>6893164</v>
       </c>
       <c r="C371" t="s">
         <v>28</v>
@@ -33478,49 +33478,49 @@
         <v>28</v>
       </c>
       <c r="E371" s="2">
-        <v>45339.52083333334</v>
+        <v>45340.45833333334</v>
       </c>
       <c r="F371" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G371" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="K371">
-        <v>1.85</v>
+        <v>3.4</v>
       </c>
       <c r="L371">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="M371">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="N371">
+        <v>4</v>
+      </c>
+      <c r="O371">
+        <v>3</v>
+      </c>
+      <c r="P371">
+        <v>1.95</v>
+      </c>
+      <c r="Q371">
+        <v>0.5</v>
+      </c>
+      <c r="R371">
         <v>1.8</v>
       </c>
-      <c r="O371">
-        <v>3.5</v>
-      </c>
-      <c r="P371">
-        <v>3.8</v>
-      </c>
-      <c r="Q371">
-        <v>-0.5</v>
-      </c>
-      <c r="R371">
+      <c r="S371">
+        <v>2.05</v>
+      </c>
+      <c r="T371">
+        <v>2</v>
+      </c>
+      <c r="U371">
+        <v>1.975</v>
+      </c>
+      <c r="V371">
         <v>1.875</v>
-      </c>
-      <c r="S371">
-        <v>1.975</v>
-      </c>
-      <c r="T371">
-        <v>2.5</v>
-      </c>
-      <c r="U371">
-        <v>1.95</v>
-      </c>
-      <c r="V371">
-        <v>1.9</v>
       </c>
       <c r="W371">
         <v>0</v>
@@ -33543,7 +33543,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>6899170</v>
+        <v>6893165</v>
       </c>
       <c r="C372" t="s">
         <v>28</v>
@@ -33552,49 +33552,49 @@
         <v>28</v>
       </c>
       <c r="E372" s="2">
-        <v>45339.625</v>
+        <v>45340.52083333334</v>
       </c>
       <c r="F372" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G372" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="K372">
-        <v>1.571</v>
+        <v>3.2</v>
       </c>
       <c r="L372">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M372">
-        <v>5.25</v>
+        <v>2.15</v>
       </c>
       <c r="N372">
-        <v>1.65</v>
+        <v>2.8</v>
       </c>
       <c r="O372">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P372">
-        <v>4.75</v>
+        <v>2.4</v>
       </c>
       <c r="Q372">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R372">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="S372">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T372">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U372">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V372">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W372">
         <v>0</v>
@@ -33617,7 +33617,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>6893202</v>
+        <v>6899276</v>
       </c>
       <c r="C373" t="s">
         <v>28</v>
@@ -33626,49 +33626,49 @@
         <v>28</v>
       </c>
       <c r="E373" s="2">
-        <v>45340.33333333334</v>
+        <v>45341.625</v>
       </c>
       <c r="F373" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="G373" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K373">
-        <v>1.727</v>
+        <v>4</v>
       </c>
       <c r="L373">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M373">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="N373">
-        <v>1.65</v>
+        <v>3.8</v>
       </c>
       <c r="O373">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P373">
-        <v>4.75</v>
+        <v>1.833</v>
       </c>
       <c r="Q373">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R373">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S373">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T373">
         <v>2.25</v>
       </c>
       <c r="U373">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V373">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W373">
         <v>0</v>
@@ -33683,228 +33683,6 @@
         <v>0</v>
       </c>
       <c r="AA373">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="374" spans="1:29">
-      <c r="A374" s="1">
-        <v>372</v>
-      </c>
-      <c r="B374">
-        <v>6893164</v>
-      </c>
-      <c r="C374" t="s">
-        <v>28</v>
-      </c>
-      <c r="D374" t="s">
-        <v>28</v>
-      </c>
-      <c r="E374" s="2">
-        <v>45340.45833333334</v>
-      </c>
-      <c r="F374" t="s">
-        <v>39</v>
-      </c>
-      <c r="G374" t="s">
-        <v>49</v>
-      </c>
-      <c r="K374">
-        <v>3.4</v>
-      </c>
-      <c r="L374">
-        <v>2.875</v>
-      </c>
-      <c r="M374">
-        <v>2.2</v>
-      </c>
-      <c r="N374">
-        <v>4</v>
-      </c>
-      <c r="O374">
-        <v>3</v>
-      </c>
-      <c r="P374">
-        <v>1.95</v>
-      </c>
-      <c r="Q374">
-        <v>0.5</v>
-      </c>
-      <c r="R374">
-        <v>1.8</v>
-      </c>
-      <c r="S374">
-        <v>2.05</v>
-      </c>
-      <c r="T374">
-        <v>2</v>
-      </c>
-      <c r="U374">
-        <v>1.975</v>
-      </c>
-      <c r="V374">
-        <v>1.875</v>
-      </c>
-      <c r="W374">
-        <v>0</v>
-      </c>
-      <c r="X374">
-        <v>0</v>
-      </c>
-      <c r="Y374">
-        <v>0</v>
-      </c>
-      <c r="Z374">
-        <v>0</v>
-      </c>
-      <c r="AA374">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="375" spans="1:29">
-      <c r="A375" s="1">
-        <v>373</v>
-      </c>
-      <c r="B375">
-        <v>6893165</v>
-      </c>
-      <c r="C375" t="s">
-        <v>28</v>
-      </c>
-      <c r="D375" t="s">
-        <v>28</v>
-      </c>
-      <c r="E375" s="2">
-        <v>45340.52083333334</v>
-      </c>
-      <c r="F375" t="s">
-        <v>42</v>
-      </c>
-      <c r="G375" t="s">
-        <v>43</v>
-      </c>
-      <c r="K375">
-        <v>3.2</v>
-      </c>
-      <c r="L375">
-        <v>3.25</v>
-      </c>
-      <c r="M375">
-        <v>2.15</v>
-      </c>
-      <c r="N375">
-        <v>2.7</v>
-      </c>
-      <c r="O375">
-        <v>3.2</v>
-      </c>
-      <c r="P375">
-        <v>2.45</v>
-      </c>
-      <c r="Q375">
-        <v>0</v>
-      </c>
-      <c r="R375">
-        <v>2.05</v>
-      </c>
-      <c r="S375">
-        <v>1.8</v>
-      </c>
-      <c r="T375">
-        <v>2.5</v>
-      </c>
-      <c r="U375">
-        <v>2.025</v>
-      </c>
-      <c r="V375">
-        <v>1.825</v>
-      </c>
-      <c r="W375">
-        <v>0</v>
-      </c>
-      <c r="X375">
-        <v>0</v>
-      </c>
-      <c r="Y375">
-        <v>0</v>
-      </c>
-      <c r="Z375">
-        <v>0</v>
-      </c>
-      <c r="AA375">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="376" spans="1:29">
-      <c r="A376" s="1">
-        <v>374</v>
-      </c>
-      <c r="B376">
-        <v>6899276</v>
-      </c>
-      <c r="C376" t="s">
-        <v>28</v>
-      </c>
-      <c r="D376" t="s">
-        <v>28</v>
-      </c>
-      <c r="E376" s="2">
-        <v>45341.625</v>
-      </c>
-      <c r="F376" t="s">
-        <v>52</v>
-      </c>
-      <c r="G376" t="s">
-        <v>48</v>
-      </c>
-      <c r="K376">
-        <v>4</v>
-      </c>
-      <c r="L376">
-        <v>3.4</v>
-      </c>
-      <c r="M376">
-        <v>1.8</v>
-      </c>
-      <c r="N376">
-        <v>3.8</v>
-      </c>
-      <c r="O376">
-        <v>3.4</v>
-      </c>
-      <c r="P376">
-        <v>1.833</v>
-      </c>
-      <c r="Q376">
-        <v>0.5</v>
-      </c>
-      <c r="R376">
-        <v>1.95</v>
-      </c>
-      <c r="S376">
-        <v>1.9</v>
-      </c>
-      <c r="T376">
-        <v>2.25</v>
-      </c>
-      <c r="U376">
-        <v>1.8</v>
-      </c>
-      <c r="V376">
-        <v>2.05</v>
-      </c>
-      <c r="W376">
-        <v>0</v>
-      </c>
-      <c r="X376">
-        <v>0</v>
-      </c>
-      <c r="Y376">
-        <v>0</v>
-      </c>
-      <c r="Z376">
-        <v>0</v>
-      </c>
-      <c r="AA376">
         <v>0</v>
       </c>
     </row>

--- a/Portugal Segunda Liga/Portugal Segunda Liga.xlsx
+++ b/Portugal Segunda Liga/Portugal Segunda Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1884" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1907" uniqueCount="57">
   <si>
     <t>id</t>
   </si>
@@ -112,19 +112,19 @@
     <t>SC Farense</t>
   </si>
   <si>
-    <t>CD Mafra</t>
+    <t>SCU Torreense</t>
   </si>
   <si>
-    <t>SCU Torreense</t>
+    <t>CD Mafra</t>
   </si>
   <si>
     <t>Sporting Covilha</t>
   </si>
   <si>
-    <t>Benfica B</t>
+    <t>Estrela</t>
   </si>
   <si>
-    <t>Estrela</t>
+    <t>Benfica B</t>
   </si>
   <si>
     <t>Tondela</t>
@@ -546,7 +546,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC373"/>
+  <dimension ref="A1:AC377"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -910,7 +910,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5266496</v>
+        <v>5265388</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -925,73 +925,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K5">
-        <v>1.833</v>
+        <v>2.2</v>
       </c>
       <c r="L5">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M5">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="N5">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="O5">
         <v>3.5</v>
       </c>
       <c r="P5">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q5">
         <v>-0.5</v>
       </c>
       <c r="R5">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S5">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T5">
         <v>2.5</v>
       </c>
       <c r="U5">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V5">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y5">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
         <v>-1</v>
       </c>
       <c r="AA5">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -999,7 +999,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5265388</v>
+        <v>5266496</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1014,73 +1014,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K6">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="L6">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M6">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="N6">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="O6">
         <v>3.5</v>
       </c>
       <c r="P6">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q6">
         <v>-0.5</v>
       </c>
       <c r="R6">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S6">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T6">
         <v>2.5</v>
       </c>
       <c r="U6">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V6">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z6">
         <v>-1</v>
       </c>
       <c r="AA6">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB6">
         <v>-1</v>
       </c>
       <c r="AC6">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1177,7 +1177,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5265383</v>
+        <v>5263138</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1192,70 +1192,70 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K8">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L8">
         <v>3.25</v>
       </c>
       <c r="M8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N8">
-        <v>2.625</v>
+        <v>1.45</v>
       </c>
       <c r="O8">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P8">
-        <v>2.55</v>
+        <v>6.5</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R8">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S8">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T8">
         <v>2.5</v>
       </c>
       <c r="U8">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V8">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W8">
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y8">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
         <v>-1</v>
       </c>
       <c r="AA8">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AB8">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AC8">
         <v>-1</v>
@@ -1266,7 +1266,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5263138</v>
+        <v>5265383</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1281,70 +1281,70 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K9">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L9">
         <v>3.25</v>
       </c>
       <c r="M9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N9">
-        <v>1.45</v>
+        <v>2.625</v>
       </c>
       <c r="O9">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P9">
-        <v>6.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q9">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S9">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T9">
         <v>2.5</v>
       </c>
       <c r="U9">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V9">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z9">
         <v>-1</v>
       </c>
       <c r="AA9">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AB9">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AC9">
         <v>-1</v>
@@ -1459,7 +1459,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H11">
         <v>4</v>
@@ -1548,7 +1548,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1904,7 +1904,7 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -2082,7 +2082,7 @@
         <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H18">
         <v>5</v>
@@ -2423,7 +2423,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5263140</v>
+        <v>5265395</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2435,76 +2435,76 @@
         <v>44947.52083333334</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G22" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K22">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L22">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M22">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="N22">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="O22">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P22">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q22">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R22">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S22">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T22">
         <v>2.5</v>
       </c>
       <c r="U22">
+        <v>1.975</v>
+      </c>
+      <c r="V22">
+        <v>1.825</v>
+      </c>
+      <c r="W22">
+        <v>-1</v>
+      </c>
+      <c r="X22">
+        <v>-1</v>
+      </c>
+      <c r="Y22">
         <v>1.9</v>
       </c>
-      <c r="V22">
-        <v>1.9</v>
-      </c>
-      <c r="W22">
-        <v>0.75</v>
-      </c>
-      <c r="X22">
-        <v>-1</v>
-      </c>
-      <c r="Y22">
-        <v>-1</v>
-      </c>
       <c r="Z22">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC22">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2512,7 +2512,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5265395</v>
+        <v>5263140</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2524,76 +2524,76 @@
         <v>44947.52083333334</v>
       </c>
       <c r="F23" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K23">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L23">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M23">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="N23">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="O23">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P23">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="Q23">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R23">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S23">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T23">
         <v>2.5</v>
       </c>
       <c r="U23">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V23">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA23">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2791,7 +2791,7 @@
         <v>44948.45833333334</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G26" t="s">
         <v>44</v>
@@ -2880,7 +2880,7 @@
         <v>44948.52083333334</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G27" t="s">
         <v>39</v>
@@ -2969,7 +2969,7 @@
         <v>44949.625</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G28" t="s">
         <v>42</v>
@@ -3058,7 +3058,7 @@
         <v>44955.33333333334</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G29" t="s">
         <v>31</v>
@@ -3224,7 +3224,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5265515</v>
+        <v>5266491</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3236,46 +3236,46 @@
         <v>44955.45833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G31" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="J31" t="s">
+        <v>54</v>
+      </c>
+      <c r="K31">
+        <v>2.8</v>
+      </c>
+      <c r="L31">
+        <v>3.2</v>
+      </c>
+      <c r="M31">
+        <v>2.375</v>
+      </c>
+      <c r="N31">
+        <v>2.6</v>
+      </c>
+      <c r="O31">
+        <v>3.1</v>
+      </c>
+      <c r="P31">
+        <v>2.6</v>
+      </c>
+      <c r="Q31">
         <v>0</v>
-      </c>
-      <c r="J31" t="s">
-        <v>55</v>
-      </c>
-      <c r="K31">
-        <v>1.8</v>
-      </c>
-      <c r="L31">
-        <v>3.3</v>
-      </c>
-      <c r="M31">
-        <v>4.2</v>
-      </c>
-      <c r="N31">
-        <v>1.833</v>
-      </c>
-      <c r="O31">
-        <v>3.3</v>
-      </c>
-      <c r="P31">
-        <v>4</v>
-      </c>
-      <c r="Q31">
-        <v>-0.5</v>
       </c>
       <c r="R31">
         <v>1.9</v>
       </c>
       <c r="S31">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T31">
         <v>2.25</v>
@@ -3284,28 +3284,28 @@
         <v>1.9</v>
       </c>
       <c r="V31">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W31">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z31">
+        <v>-1</v>
+      </c>
+      <c r="AA31">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA31">
-        <v>-1</v>
-      </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC31">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3313,7 +3313,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5266491</v>
+        <v>5265515</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3325,46 +3325,46 @@
         <v>44955.45833333334</v>
       </c>
       <c r="F32" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K32">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="L32">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M32">
-        <v>2.375</v>
+        <v>4.2</v>
       </c>
       <c r="N32">
-        <v>2.6</v>
+        <v>1.833</v>
       </c>
       <c r="O32">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P32">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R32">
         <v>1.9</v>
       </c>
       <c r="S32">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T32">
         <v>2.25</v>
@@ -3373,28 +3373,28 @@
         <v>1.9</v>
       </c>
       <c r="V32">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W32">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA32">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3414,7 +3414,7 @@
         <v>44955.52083333334</v>
       </c>
       <c r="F33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G33" t="s">
         <v>45</v>
@@ -3503,7 +3503,7 @@
         <v>44955.52083333334</v>
       </c>
       <c r="F34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G34" t="s">
         <v>42</v>
@@ -3773,7 +3773,7 @@
         <v>30</v>
       </c>
       <c r="G37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H37">
         <v>2</v>
@@ -3862,7 +3862,7 @@
         <v>31</v>
       </c>
       <c r="G38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H38">
         <v>2</v>
@@ -4129,7 +4129,7 @@
         <v>43</v>
       </c>
       <c r="G41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H41">
         <v>3</v>
@@ -4307,7 +4307,7 @@
         <v>39</v>
       </c>
       <c r="G43" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4381,7 +4381,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>5265413</v>
+        <v>5263141</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4393,76 +4393,76 @@
         <v>44962.45833333334</v>
       </c>
       <c r="F44" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G44" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44">
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K44">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="L44">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M44">
         <v>2.5</v>
       </c>
       <c r="N44">
-        <v>2.375</v>
+        <v>2.55</v>
       </c>
       <c r="O44">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P44">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q44">
         <v>0</v>
       </c>
       <c r="R44">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S44">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T44">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U44">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V44">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W44">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z44">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB44">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4470,7 +4470,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>5263141</v>
+        <v>5265413</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4482,76 +4482,76 @@
         <v>44962.45833333334</v>
       </c>
       <c r="F45" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G45" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45">
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K45">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="L45">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M45">
         <v>2.5</v>
       </c>
       <c r="N45">
-        <v>2.55</v>
+        <v>2.375</v>
       </c>
       <c r="O45">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P45">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="Q45">
         <v>0</v>
       </c>
       <c r="R45">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S45">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T45">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U45">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V45">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W45">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA45">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC45">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4660,7 +4660,7 @@
         <v>44967.625</v>
       </c>
       <c r="F47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G47" t="s">
         <v>38</v>
@@ -4838,10 +4838,10 @@
         <v>44968.45833333334</v>
       </c>
       <c r="F49" t="s">
+        <v>35</v>
+      </c>
+      <c r="G49" t="s">
         <v>36</v>
-      </c>
-      <c r="G49" t="s">
-        <v>35</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -4915,7 +4915,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5263142</v>
+        <v>5265420</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4927,43 +4927,43 @@
         <v>44968.52083333334</v>
       </c>
       <c r="F50" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G50" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
         <v>0</v>
       </c>
-      <c r="I50">
-        <v>1</v>
-      </c>
       <c r="J50" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K50">
-        <v>1.666</v>
+        <v>4</v>
       </c>
       <c r="L50">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M50">
-        <v>4.75</v>
+        <v>1.833</v>
       </c>
       <c r="N50">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="O50">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P50">
-        <v>4.333</v>
+        <v>2.2</v>
       </c>
       <c r="Q50">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R50">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S50">
         <v>1.975</v>
@@ -4972,31 +4972,31 @@
         <v>2</v>
       </c>
       <c r="U50">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V50">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="W50">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA50">
+        <v>-1</v>
+      </c>
+      <c r="AB50">
+        <v>-1</v>
+      </c>
+      <c r="AC50">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB50">
-        <v>-1</v>
-      </c>
-      <c r="AC50">
-        <v>1.1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5004,7 +5004,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5265420</v>
+        <v>5263142</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5016,43 +5016,43 @@
         <v>44968.52083333334</v>
       </c>
       <c r="F51" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G51" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
         <v>1</v>
       </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
       <c r="J51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K51">
-        <v>4</v>
+        <v>1.666</v>
       </c>
       <c r="L51">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M51">
-        <v>1.833</v>
+        <v>4.75</v>
       </c>
       <c r="N51">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="O51">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P51">
-        <v>2.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q51">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R51">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S51">
         <v>1.975</v>
@@ -5061,31 +5061,31 @@
         <v>2</v>
       </c>
       <c r="U51">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V51">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="W51">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z51">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB51">
         <v>-1</v>
       </c>
       <c r="AC51">
-        <v>0.9750000000000001</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5283,7 +5283,7 @@
         <v>44970.625</v>
       </c>
       <c r="F54" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G54" t="s">
         <v>43</v>
@@ -5731,7 +5731,7 @@
         <v>44</v>
       </c>
       <c r="G59" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -6084,10 +6084,10 @@
         <v>44976.52083333334</v>
       </c>
       <c r="F63" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6176,7 +6176,7 @@
         <v>31</v>
       </c>
       <c r="G64" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6351,7 +6351,7 @@
         <v>44982.33333333334</v>
       </c>
       <c r="F66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G66" t="s">
         <v>30</v>
@@ -6443,7 +6443,7 @@
         <v>29</v>
       </c>
       <c r="G67" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -6618,7 +6618,7 @@
         <v>44983.33333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G69" t="s">
         <v>42</v>
@@ -6784,7 +6784,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>5265433</v>
+        <v>5266483</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6796,76 +6796,76 @@
         <v>44983.45833333334</v>
       </c>
       <c r="F71" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G71" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
         <v>1</v>
       </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
       <c r="J71" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K71">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="L71">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M71">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="N71">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="O71">
         <v>3.2</v>
       </c>
       <c r="P71">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="Q71">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R71">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S71">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T71">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U71">
+        <v>2.025</v>
+      </c>
+      <c r="V71">
+        <v>1.775</v>
+      </c>
+      <c r="W71">
+        <v>-1</v>
+      </c>
+      <c r="X71">
+        <v>-1</v>
+      </c>
+      <c r="Y71">
         <v>1.75</v>
       </c>
-      <c r="V71">
-        <v>2.05</v>
-      </c>
-      <c r="W71">
-        <v>2.25</v>
-      </c>
-      <c r="X71">
-        <v>-1</v>
-      </c>
-      <c r="Y71">
-        <v>-1</v>
-      </c>
       <c r="Z71">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB71">
         <v>-1</v>
       </c>
       <c r="AC71">
-        <v>1.05</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6873,7 +6873,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>5266483</v>
+        <v>5265433</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6885,76 +6885,76 @@
         <v>44983.45833333334</v>
       </c>
       <c r="F72" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G72" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72">
         <v>0</v>
       </c>
-      <c r="I72">
-        <v>1</v>
-      </c>
       <c r="J72" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K72">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="L72">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M72">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="N72">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="O72">
         <v>3.2</v>
       </c>
       <c r="P72">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q72">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R72">
+        <v>1.975</v>
+      </c>
+      <c r="S72">
+        <v>1.825</v>
+      </c>
+      <c r="T72">
+        <v>2</v>
+      </c>
+      <c r="U72">
         <v>1.75</v>
       </c>
-      <c r="S72">
+      <c r="V72">
         <v>2.05</v>
       </c>
-      <c r="T72">
-        <v>2.5</v>
-      </c>
-      <c r="U72">
-        <v>2.025</v>
-      </c>
-      <c r="V72">
-        <v>1.775</v>
-      </c>
       <c r="W72">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA72">
+        <v>-1</v>
+      </c>
+      <c r="AB72">
+        <v>-1</v>
+      </c>
+      <c r="AC72">
         <v>1.05</v>
-      </c>
-      <c r="AB72">
-        <v>-1</v>
-      </c>
-      <c r="AC72">
-        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6974,7 +6974,7 @@
         <v>44983.52083333334</v>
       </c>
       <c r="F73" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G73" t="s">
         <v>37</v>
@@ -7051,7 +7051,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>5265440</v>
+        <v>5265438</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7063,76 +7063,76 @@
         <v>44989.33333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G74" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K74">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="L74">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M74">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="N74">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="O74">
         <v>3.4</v>
       </c>
       <c r="P74">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="Q74">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R74">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S74">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T74">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U74">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V74">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W74">
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y74">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
         <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB74">
         <v>-1</v>
       </c>
       <c r="AC74">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7140,7 +7140,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>5265438</v>
+        <v>5265440</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7152,76 +7152,76 @@
         <v>44989.33333333334</v>
       </c>
       <c r="F75" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G75" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K75">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="L75">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M75">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="N75">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="O75">
         <v>3.4</v>
       </c>
       <c r="P75">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="Q75">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R75">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S75">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T75">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U75">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V75">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W75">
         <v>-1</v>
       </c>
       <c r="X75">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z75">
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB75">
         <v>-1</v>
       </c>
       <c r="AC75">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7333,7 +7333,7 @@
         <v>37</v>
       </c>
       <c r="G77" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7511,7 +7511,7 @@
         <v>30</v>
       </c>
       <c r="G79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -7689,7 +7689,7 @@
         <v>44</v>
       </c>
       <c r="G81" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -8131,7 +8131,7 @@
         <v>44996.45833333334</v>
       </c>
       <c r="F86" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G86" t="s">
         <v>44</v>
@@ -8312,7 +8312,7 @@
         <v>34</v>
       </c>
       <c r="G88" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H88">
         <v>2</v>
@@ -8398,7 +8398,7 @@
         <v>44997.45833333334</v>
       </c>
       <c r="F89" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G89" t="s">
         <v>30</v>
@@ -8579,7 +8579,7 @@
         <v>29</v>
       </c>
       <c r="G91" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8665,10 +8665,10 @@
         <v>45003.33333333334</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G92" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8920,7 +8920,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>5265450</v>
+        <v>5935501</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8932,76 +8932,76 @@
         <v>45004.33333333334</v>
       </c>
       <c r="F95" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G95" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K95">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L95">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M95">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="N95">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O95">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P95">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="Q95">
         <v>-0.25</v>
       </c>
       <c r="R95">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S95">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T95">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U95">
         <v>1.95</v>
       </c>
       <c r="V95">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W95">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA95">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC95">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9009,7 +9009,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>5935501</v>
+        <v>5265450</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9021,76 +9021,76 @@
         <v>45004.33333333334</v>
       </c>
       <c r="F96" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G96" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K96">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L96">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M96">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="N96">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O96">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P96">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="Q96">
         <v>-0.25</v>
       </c>
       <c r="R96">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S96">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T96">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U96">
         <v>1.95</v>
       </c>
       <c r="V96">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W96">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z96">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC96">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9555,10 +9555,10 @@
         <v>45017.36458333334</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G102" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -9825,7 +9825,7 @@
         <v>46</v>
       </c>
       <c r="G105" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -10003,7 +10003,7 @@
         <v>34</v>
       </c>
       <c r="G107" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -10445,10 +10445,10 @@
         <v>45023.47916666666</v>
       </c>
       <c r="F112" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G112" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H112">
         <v>2</v>
@@ -10534,7 +10534,7 @@
         <v>45024.29166666666</v>
       </c>
       <c r="F113" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G113" t="s">
         <v>46</v>
@@ -10789,7 +10789,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>5265464</v>
+        <v>5265465</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10801,13 +10801,13 @@
         <v>45024.47916666666</v>
       </c>
       <c r="F116" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G116" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H116">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I116">
         <v>1</v>
@@ -10816,43 +10816,43 @@
         <v>55</v>
       </c>
       <c r="K116">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L116">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M116">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="N116">
-        <v>1.666</v>
+        <v>2.55</v>
       </c>
       <c r="O116">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P116">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="Q116">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R116">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S116">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T116">
         <v>2.25</v>
       </c>
       <c r="U116">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V116">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W116">
-        <v>0.6659999999999999</v>
+        <v>1.55</v>
       </c>
       <c r="X116">
         <v>-1</v>
@@ -10861,13 +10861,13 @@
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA116">
         <v>-1</v>
       </c>
       <c r="AB116">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AC116">
         <v>-1</v>
@@ -10967,7 +10967,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>5265465</v>
+        <v>5265464</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10979,13 +10979,13 @@
         <v>45024.47916666666</v>
       </c>
       <c r="F118" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G118" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I118">
         <v>1</v>
@@ -10994,43 +10994,43 @@
         <v>55</v>
       </c>
       <c r="K118">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L118">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M118">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N118">
-        <v>2.55</v>
+        <v>1.666</v>
       </c>
       <c r="O118">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P118">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="Q118">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R118">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S118">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T118">
         <v>2.25</v>
       </c>
       <c r="U118">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V118">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W118">
-        <v>1.55</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X118">
         <v>-1</v>
@@ -11039,13 +11039,13 @@
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA118">
         <v>-1</v>
       </c>
       <c r="AB118">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC118">
         <v>-1</v>
@@ -11323,7 +11323,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>5265474</v>
+        <v>5265471</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11335,58 +11335,58 @@
         <v>45031.47916666666</v>
       </c>
       <c r="F122" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G122" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I122">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J122" t="s">
         <v>55</v>
       </c>
       <c r="K122">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="L122">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M122">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="N122">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="O122">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P122">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q122">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R122">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S122">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T122">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U122">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V122">
         <v>1.875</v>
       </c>
       <c r="W122">
-        <v>1.1</v>
+        <v>0.95</v>
       </c>
       <c r="X122">
         <v>-1</v>
@@ -11395,16 +11395,16 @@
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA122">
         <v>-1</v>
       </c>
       <c r="AB122">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC122">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11412,7 +11412,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>5265471</v>
+        <v>5265474</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11424,58 +11424,58 @@
         <v>45031.47916666666</v>
       </c>
       <c r="F123" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G123" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H123">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I123">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J123" t="s">
         <v>55</v>
       </c>
       <c r="K123">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="L123">
+        <v>3.2</v>
+      </c>
+      <c r="M123">
+        <v>3.3</v>
+      </c>
+      <c r="N123">
+        <v>2.1</v>
+      </c>
+      <c r="O123">
+        <v>3.2</v>
+      </c>
+      <c r="P123">
         <v>3.4</v>
       </c>
-      <c r="M123">
-        <v>4</v>
-      </c>
-      <c r="N123">
+      <c r="Q123">
+        <v>-0.25</v>
+      </c>
+      <c r="R123">
+        <v>1.9</v>
+      </c>
+      <c r="S123">
         <v>1.95</v>
       </c>
-      <c r="O123">
-        <v>3.5</v>
-      </c>
-      <c r="P123">
-        <v>3.5</v>
-      </c>
-      <c r="Q123">
-        <v>-0.5</v>
-      </c>
-      <c r="R123">
+      <c r="T123">
+        <v>2.25</v>
+      </c>
+      <c r="U123">
         <v>1.975</v>
-      </c>
-      <c r="S123">
-        <v>1.825</v>
-      </c>
-      <c r="T123">
-        <v>2.5</v>
-      </c>
-      <c r="U123">
-        <v>1.925</v>
       </c>
       <c r="V123">
         <v>1.875</v>
       </c>
       <c r="W123">
-        <v>0.95</v>
+        <v>1.1</v>
       </c>
       <c r="X123">
         <v>-1</v>
@@ -11484,16 +11484,16 @@
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA123">
         <v>-1</v>
       </c>
       <c r="AB123">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC123">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11516,7 +11516,7 @@
         <v>38</v>
       </c>
       <c r="G124" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H124">
         <v>7</v>
@@ -11783,7 +11783,7 @@
         <v>41</v>
       </c>
       <c r="G127" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -12047,7 +12047,7 @@
         <v>45038.41666666666</v>
       </c>
       <c r="F130" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G130" t="s">
         <v>29</v>
@@ -12314,7 +12314,7 @@
         <v>45039.41666666666</v>
       </c>
       <c r="F133" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G133" t="s">
         <v>46</v>
@@ -12492,7 +12492,7 @@
         <v>45040.58333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G135" t="s">
         <v>40</v>
@@ -12584,7 +12584,7 @@
         <v>34</v>
       </c>
       <c r="G136" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H136">
         <v>1</v>
@@ -12673,7 +12673,7 @@
         <v>45</v>
       </c>
       <c r="G137" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H137">
         <v>1</v>
@@ -12747,7 +12747,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>5265486</v>
+        <v>5265483</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12759,76 +12759,76 @@
         <v>45045.29166666666</v>
       </c>
       <c r="F138" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G138" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I138">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J138" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K138">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L138">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M138">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="N138">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="O138">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P138">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q138">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R138">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S138">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T138">
         <v>2.25</v>
       </c>
       <c r="U138">
+        <v>1.775</v>
+      </c>
+      <c r="V138">
         <v>2.025</v>
       </c>
-      <c r="V138">
-        <v>1.775</v>
-      </c>
       <c r="W138">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X138">
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z138">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA138">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB138">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC138">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12836,7 +12836,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>5265483</v>
+        <v>5265486</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12848,76 +12848,76 @@
         <v>45045.29166666666</v>
       </c>
       <c r="F139" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G139" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I139">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K139">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="L139">
+        <v>3.1</v>
+      </c>
+      <c r="M139">
         <v>3.2</v>
       </c>
-      <c r="M139">
-        <v>2.375</v>
-      </c>
       <c r="N139">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="O139">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P139">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q139">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R139">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S139">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T139">
         <v>2.25</v>
       </c>
       <c r="U139">
+        <v>2.025</v>
+      </c>
+      <c r="V139">
         <v>1.775</v>
       </c>
-      <c r="V139">
-        <v>2.025</v>
-      </c>
       <c r="W139">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA139">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC139">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -13029,7 +13029,7 @@
         <v>29</v>
       </c>
       <c r="G141" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -13296,7 +13296,7 @@
         <v>39</v>
       </c>
       <c r="G144" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -13560,7 +13560,7 @@
         <v>45052.29166666666</v>
       </c>
       <c r="F147" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G147" t="s">
         <v>41</v>
@@ -13827,7 +13827,7 @@
         <v>45052.58333333334</v>
       </c>
       <c r="F150" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G150" t="s">
         <v>38</v>
@@ -13916,7 +13916,7 @@
         <v>45053.29166666666</v>
       </c>
       <c r="F151" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G151" t="s">
         <v>40</v>
@@ -14005,7 +14005,7 @@
         <v>45053.29166666666</v>
       </c>
       <c r="F152" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G152" t="s">
         <v>43</v>
@@ -14275,7 +14275,7 @@
         <v>40</v>
       </c>
       <c r="G155" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -14364,7 +14364,7 @@
         <v>46</v>
       </c>
       <c r="G156" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H156">
         <v>2</v>
@@ -14453,7 +14453,7 @@
         <v>42</v>
       </c>
       <c r="G157" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H157">
         <v>1</v>
@@ -14987,7 +14987,7 @@
         <v>45</v>
       </c>
       <c r="G163" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H163">
         <v>3</v>
@@ -15061,7 +15061,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>5499375</v>
+        <v>5484709</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15073,76 +15073,76 @@
         <v>45065.58333333334</v>
       </c>
       <c r="F164" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G164" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J164" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K164">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="L164">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M164">
+        <v>1.833</v>
+      </c>
+      <c r="N164">
+        <v>4.2</v>
+      </c>
+      <c r="O164">
+        <v>3.6</v>
+      </c>
+      <c r="P164">
+        <v>1.727</v>
+      </c>
+      <c r="Q164">
+        <v>0.5</v>
+      </c>
+      <c r="R164">
+        <v>2.1</v>
+      </c>
+      <c r="S164">
+        <v>1.775</v>
+      </c>
+      <c r="T164">
         <v>2.75</v>
       </c>
-      <c r="N164">
-        <v>2.3</v>
-      </c>
-      <c r="O164">
-        <v>3</v>
-      </c>
-      <c r="P164">
-        <v>2.875</v>
-      </c>
-      <c r="Q164">
-        <v>-0.25</v>
-      </c>
-      <c r="R164">
-        <v>2.05</v>
-      </c>
-      <c r="S164">
-        <v>1.75</v>
-      </c>
-      <c r="T164">
-        <v>2.25</v>
-      </c>
       <c r="U164">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V164">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W164">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X164">
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z164">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA164">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB164">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC164">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15150,7 +15150,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>5484709</v>
+        <v>5499375</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15162,76 +15162,76 @@
         <v>45065.58333333334</v>
       </c>
       <c r="F165" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G165" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H165">
+        <v>2</v>
+      </c>
+      <c r="I165">
         <v>0</v>
       </c>
-      <c r="I165">
-        <v>1</v>
-      </c>
       <c r="J165" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K165">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="L165">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M165">
-        <v>1.833</v>
+        <v>2.75</v>
       </c>
       <c r="N165">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="O165">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P165">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="Q165">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R165">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S165">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="T165">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U165">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V165">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W165">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X165">
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z165">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA165">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB165">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC165">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15518,7 +15518,7 @@
         <v>45067.29166666666</v>
       </c>
       <c r="F169" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G169" t="s">
         <v>43</v>
@@ -15607,7 +15607,7 @@
         <v>45067.41666666666</v>
       </c>
       <c r="F170" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G170" t="s">
         <v>38</v>
@@ -15696,7 +15696,7 @@
         <v>45067.47916666666</v>
       </c>
       <c r="F171" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G171" t="s">
         <v>39</v>
@@ -15966,7 +15966,7 @@
         <v>42</v>
       </c>
       <c r="G174" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H174">
         <v>4</v>
@@ -16055,7 +16055,7 @@
         <v>39</v>
       </c>
       <c r="G175" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H175">
         <v>2</v>
@@ -16144,7 +16144,7 @@
         <v>44</v>
       </c>
       <c r="G176" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H176">
         <v>3</v>
@@ -16307,7 +16307,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>5544758</v>
+        <v>5537439</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16319,73 +16319,73 @@
         <v>45074.47916666666</v>
       </c>
       <c r="F178" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G178" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I178">
         <v>2</v>
       </c>
       <c r="J178" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K178">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="L178">
         <v>3.4</v>
       </c>
       <c r="M178">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N178">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="O178">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P178">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q178">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R178">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S178">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T178">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U178">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V178">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W178">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X178">
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z178">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA178">
-        <v>0.8500000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AB178">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC178">
         <v>-1</v>
@@ -16396,7 +16396,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>5537439</v>
+        <v>5534133</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16408,76 +16408,76 @@
         <v>45074.47916666666</v>
       </c>
       <c r="F179" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G179" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H179">
+        <v>1</v>
+      </c>
+      <c r="I179">
+        <v>1</v>
+      </c>
+      <c r="J179" t="s">
+        <v>56</v>
+      </c>
+      <c r="K179">
+        <v>2.2</v>
+      </c>
+      <c r="L179">
+        <v>3.25</v>
+      </c>
+      <c r="M179">
         <v>3</v>
       </c>
-      <c r="I179">
-        <v>2</v>
-      </c>
-      <c r="J179" t="s">
-        <v>55</v>
-      </c>
-      <c r="K179">
-        <v>1.95</v>
-      </c>
-      <c r="L179">
+      <c r="N179">
+        <v>3.5</v>
+      </c>
+      <c r="O179">
         <v>3.4</v>
       </c>
-      <c r="M179">
-        <v>3.4</v>
-      </c>
-      <c r="N179">
-        <v>1.65</v>
-      </c>
-      <c r="O179">
-        <v>4</v>
-      </c>
       <c r="P179">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="Q179">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R179">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S179">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T179">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U179">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V179">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W179">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X179">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
+        <v>0.8</v>
+      </c>
+      <c r="AA179">
+        <v>-1</v>
+      </c>
+      <c r="AB179">
         <v>-0.5</v>
       </c>
-      <c r="AA179">
-        <v>0.45</v>
-      </c>
-      <c r="AB179">
-        <v>0.875</v>
-      </c>
       <c r="AC179">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16485,7 +16485,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>5534133</v>
+        <v>5544758</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16497,76 +16497,76 @@
         <v>45074.47916666666</v>
       </c>
       <c r="F180" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G180" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H180">
         <v>1</v>
       </c>
       <c r="I180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J180" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K180">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L180">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M180">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="N180">
+        <v>1.7</v>
+      </c>
+      <c r="O180">
+        <v>3.6</v>
+      </c>
+      <c r="P180">
+        <v>4.5</v>
+      </c>
+      <c r="Q180">
+        <v>-0.75</v>
+      </c>
+      <c r="R180">
+        <v>1.95</v>
+      </c>
+      <c r="S180">
+        <v>1.85</v>
+      </c>
+      <c r="T180">
+        <v>2.5</v>
+      </c>
+      <c r="U180">
+        <v>1.825</v>
+      </c>
+      <c r="V180">
+        <v>1.975</v>
+      </c>
+      <c r="W180">
+        <v>-1</v>
+      </c>
+      <c r="X180">
+        <v>-1</v>
+      </c>
+      <c r="Y180">
         <v>3.5</v>
       </c>
-      <c r="O180">
-        <v>3.4</v>
-      </c>
-      <c r="P180">
-        <v>1.909</v>
-      </c>
-      <c r="Q180">
-        <v>0.5</v>
-      </c>
-      <c r="R180">
-        <v>1.8</v>
-      </c>
-      <c r="S180">
-        <v>2</v>
-      </c>
-      <c r="T180">
-        <v>2.25</v>
-      </c>
-      <c r="U180">
-        <v>1.8</v>
-      </c>
-      <c r="V180">
-        <v>2</v>
-      </c>
-      <c r="W180">
-        <v>-1</v>
-      </c>
-      <c r="X180">
-        <v>2.4</v>
-      </c>
-      <c r="Y180">
-        <v>-1</v>
-      </c>
       <c r="Z180">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA180">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB180">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC180">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -17209,10 +17209,10 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F188" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G188" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H188">
         <v>3</v>
@@ -17390,7 +17390,7 @@
         <v>49</v>
       </c>
       <c r="G190" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H190">
         <v>2</v>
@@ -17565,7 +17565,7 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F192" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G192" t="s">
         <v>47</v>
@@ -17657,7 +17657,7 @@
         <v>51</v>
       </c>
       <c r="G193" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H193">
         <v>3</v>
@@ -18099,7 +18099,7 @@
         <v>45159.61458333334</v>
       </c>
       <c r="F198" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G198" t="s">
         <v>43</v>
@@ -18458,7 +18458,7 @@
         <v>53</v>
       </c>
       <c r="G202" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H202">
         <v>1</v>
@@ -18811,7 +18811,7 @@
         <v>45165.47916666666</v>
       </c>
       <c r="F206" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G206" t="s">
         <v>50</v>
@@ -18903,7 +18903,7 @@
         <v>48</v>
       </c>
       <c r="G207" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H207">
         <v>0</v>
@@ -19167,7 +19167,7 @@
         <v>45171.29166666666</v>
       </c>
       <c r="F210" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G210" t="s">
         <v>44</v>
@@ -19333,7 +19333,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7140182</v>
+        <v>6893107</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19345,76 +19345,76 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F212" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G212" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J212" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K212">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="L212">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M212">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="N212">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="O212">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="P212">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q212">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R212">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S212">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T212">
         <v>2.25</v>
       </c>
       <c r="U212">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V212">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W212">
         <v>-1</v>
       </c>
       <c r="X212">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y212">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z212">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA212">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB212">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC212">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19422,7 +19422,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6893107</v>
+        <v>7140182</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19434,76 +19434,76 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F213" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G213" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I213">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J213" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K213">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="L213">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M213">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="N213">
+        <v>2.3</v>
+      </c>
+      <c r="O213">
         <v>2.9</v>
       </c>
-      <c r="O213">
-        <v>3.5</v>
-      </c>
       <c r="P213">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q213">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R213">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S213">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T213">
         <v>2.25</v>
       </c>
       <c r="U213">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V213">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W213">
         <v>-1</v>
       </c>
       <c r="X213">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y213">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z213">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA213">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB213">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC213">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19612,7 +19612,7 @@
         <v>45172.29166666666</v>
       </c>
       <c r="F215" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G215" t="s">
         <v>45</v>
@@ -19704,7 +19704,7 @@
         <v>29</v>
       </c>
       <c r="G216" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H216">
         <v>1</v>
@@ -19956,7 +19956,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6899208</v>
+        <v>6899293</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19968,76 +19968,76 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F219" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G219" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H219">
+        <v>2</v>
+      </c>
+      <c r="I219">
         <v>0</v>
       </c>
-      <c r="I219">
-        <v>2</v>
-      </c>
       <c r="J219" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K219">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="L219">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M219">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="N219">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="O219">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P219">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="Q219">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R219">
         <v>2.05</v>
       </c>
       <c r="S219">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T219">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U219">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V219">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W219">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X219">
         <v>-1</v>
       </c>
       <c r="Y219">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z219">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA219">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB219">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC219">
-        <v>0.5125</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20045,7 +20045,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6899293</v>
+        <v>6899208</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20057,76 +20057,76 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F220" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G220" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J220" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K220">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="L220">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M220">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="N220">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="O220">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P220">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q220">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R220">
         <v>2.05</v>
       </c>
       <c r="S220">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T220">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U220">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V220">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W220">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X220">
         <v>-1</v>
       </c>
       <c r="Y220">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z220">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA220">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB220">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC220">
-        <v>0.8500000000000001</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20327,7 +20327,7 @@
         <v>37</v>
       </c>
       <c r="G223" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H223">
         <v>2</v>
@@ -20591,10 +20591,10 @@
         <v>45186.58333333334</v>
       </c>
       <c r="F226" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G226" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H226">
         <v>0</v>
@@ -20683,7 +20683,7 @@
         <v>52</v>
       </c>
       <c r="G227" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H227">
         <v>1</v>
@@ -20861,7 +20861,7 @@
         <v>50</v>
       </c>
       <c r="G229" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H229">
         <v>1</v>
@@ -21392,7 +21392,7 @@
         <v>45201.67708333334</v>
       </c>
       <c r="F235" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G235" t="s">
         <v>53</v>
@@ -21825,7 +21825,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>6893569</v>
+        <v>6899203</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21837,46 +21837,46 @@
         <v>45207.29166666666</v>
       </c>
       <c r="F240" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G240" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I240">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J240" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K240">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L240">
         <v>3.3</v>
       </c>
       <c r="M240">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="N240">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="O240">
         <v>3.3</v>
       </c>
       <c r="P240">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="Q240">
         <v>0</v>
       </c>
       <c r="R240">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S240">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T240">
         <v>2.5</v>
@@ -21888,19 +21888,19 @@
         <v>1.85</v>
       </c>
       <c r="W240">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X240">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y240">
         <v>-1</v>
       </c>
       <c r="Z240">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA240">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB240">
         <v>0.95</v>
@@ -21914,7 +21914,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6899203</v>
+        <v>6893569</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21926,46 +21926,46 @@
         <v>45207.29166666666</v>
       </c>
       <c r="F241" t="s">
+        <v>44</v>
+      </c>
+      <c r="G241" t="s">
         <v>32</v>
       </c>
-      <c r="G241" t="s">
-        <v>51</v>
-      </c>
       <c r="H241">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I241">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J241" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K241">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L241">
         <v>3.3</v>
       </c>
       <c r="M241">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="N241">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="O241">
         <v>3.3</v>
       </c>
       <c r="P241">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q241">
         <v>0</v>
       </c>
       <c r="R241">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S241">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T241">
         <v>2.5</v>
@@ -21977,19 +21977,19 @@
         <v>1.85</v>
       </c>
       <c r="W241">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X241">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y241">
         <v>-1</v>
       </c>
       <c r="Z241">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA241">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB241">
         <v>0.95</v>
@@ -22104,7 +22104,7 @@
         <v>45207.58333333334</v>
       </c>
       <c r="F243" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G243" t="s">
         <v>42</v>
@@ -22285,7 +22285,7 @@
         <v>39</v>
       </c>
       <c r="G245" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H245">
         <v>1</v>
@@ -22371,7 +22371,7 @@
         <v>45227.29166666666</v>
       </c>
       <c r="F246" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G246" t="s">
         <v>47</v>
@@ -22819,7 +22819,7 @@
         <v>49</v>
       </c>
       <c r="G251" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H251">
         <v>1</v>
@@ -23083,7 +23083,7 @@
         <v>45234.33333333334</v>
       </c>
       <c r="F254" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G254" t="s">
         <v>29</v>
@@ -23439,7 +23439,7 @@
         <v>45234.625</v>
       </c>
       <c r="F258" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G258" t="s">
         <v>39</v>
@@ -23709,7 +23709,7 @@
         <v>37</v>
       </c>
       <c r="G261" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H261">
         <v>1</v>
@@ -24329,10 +24329,10 @@
         <v>45242.33333333334</v>
       </c>
       <c r="F268" t="s">
+        <v>32</v>
+      </c>
+      <c r="G268" t="s">
         <v>33</v>
-      </c>
-      <c r="G268" t="s">
-        <v>32</v>
       </c>
       <c r="H268">
         <v>0</v>
@@ -24599,7 +24599,7 @@
         <v>30</v>
       </c>
       <c r="G271" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H271">
         <v>1</v>
@@ -24685,7 +24685,7 @@
         <v>45248.33333333334</v>
       </c>
       <c r="F272" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G272" t="s">
         <v>52</v>
@@ -25222,7 +25222,7 @@
         <v>50</v>
       </c>
       <c r="G278" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H278">
         <v>1</v>
@@ -25397,7 +25397,7 @@
         <v>45255.625</v>
       </c>
       <c r="F280" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G280" t="s">
         <v>45</v>
@@ -25845,7 +25845,7 @@
         <v>48</v>
       </c>
       <c r="G285" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H285">
         <v>1</v>
@@ -25931,7 +25931,7 @@
         <v>45263.33333333334</v>
       </c>
       <c r="F286" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G286" t="s">
         <v>29</v>
@@ -26201,7 +26201,7 @@
         <v>42</v>
       </c>
       <c r="G289" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H289">
         <v>3</v>
@@ -26290,7 +26290,7 @@
         <v>51</v>
       </c>
       <c r="G290" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H290">
         <v>1</v>
@@ -26364,7 +26364,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>6893133</v>
+        <v>7559095</v>
       </c>
       <c r="C291" t="s">
         <v>28</v>
@@ -26376,73 +26376,73 @@
         <v>45269.33333333334</v>
       </c>
       <c r="F291" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G291" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H291">
         <v>2</v>
       </c>
       <c r="I291">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J291" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K291">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="L291">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M291">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="N291">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="O291">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P291">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="Q291">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R291">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S291">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T291">
         <v>2.25</v>
       </c>
       <c r="U291">
+        <v>1.775</v>
+      </c>
+      <c r="V291">
         <v>2.025</v>
       </c>
-      <c r="V291">
-        <v>1.825</v>
-      </c>
       <c r="W291">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X291">
         <v>-1</v>
       </c>
       <c r="Y291">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z291">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA291">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB291">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC291">
         <v>-1</v>
@@ -26453,7 +26453,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>7559095</v>
+        <v>6893133</v>
       </c>
       <c r="C292" t="s">
         <v>28</v>
@@ -26465,73 +26465,73 @@
         <v>45269.33333333334</v>
       </c>
       <c r="F292" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G292" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H292">
         <v>2</v>
       </c>
       <c r="I292">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J292" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K292">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="L292">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M292">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="N292">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O292">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P292">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="Q292">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R292">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S292">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T292">
         <v>2.25</v>
       </c>
       <c r="U292">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="V292">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W292">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X292">
         <v>-1</v>
       </c>
       <c r="Y292">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z292">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA292">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB292">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AC292">
         <v>-1</v>
@@ -26732,7 +26732,7 @@
         <v>45269.625</v>
       </c>
       <c r="F295" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G295" t="s">
         <v>43</v>
@@ -26821,7 +26821,7 @@
         <v>45270.33333333334</v>
       </c>
       <c r="F296" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G296" t="s">
         <v>30</v>
@@ -27091,7 +27091,7 @@
         <v>30</v>
       </c>
       <c r="G299" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H299">
         <v>0</v>
@@ -27711,7 +27711,7 @@
         <v>45277.52083333334</v>
       </c>
       <c r="F306" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G306" t="s">
         <v>37</v>
@@ -27803,7 +27803,7 @@
         <v>45</v>
       </c>
       <c r="G307" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H307">
         <v>1</v>
@@ -27889,7 +27889,7 @@
         <v>45281.625</v>
       </c>
       <c r="F308" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G308" t="s">
         <v>52</v>
@@ -28233,7 +28233,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>6893139</v>
+        <v>6893140</v>
       </c>
       <c r="C312" t="s">
         <v>28</v>
@@ -28245,55 +28245,55 @@
         <v>45290.33333333334</v>
       </c>
       <c r="F312" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G312" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H312">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I312">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J312" t="s">
         <v>54</v>
       </c>
       <c r="K312">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="L312">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M312">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="N312">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="O312">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P312">
-        <v>2.45</v>
+        <v>3.25</v>
       </c>
       <c r="Q312">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R312">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S312">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T312">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U312">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V312">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W312">
         <v>-1</v>
@@ -28302,16 +28302,16 @@
         <v>-1</v>
       </c>
       <c r="Y312">
-        <v>1.45</v>
+        <v>2.25</v>
       </c>
       <c r="Z312">
         <v>-1</v>
       </c>
       <c r="AA312">
-        <v>0.75</v>
+        <v>1.025</v>
       </c>
       <c r="AB312">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC312">
         <v>-1</v>
@@ -28322,7 +28322,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>6893140</v>
+        <v>6893139</v>
       </c>
       <c r="C313" t="s">
         <v>28</v>
@@ -28334,55 +28334,55 @@
         <v>45290.33333333334</v>
       </c>
       <c r="F313" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G313" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I313">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J313" t="s">
         <v>54</v>
       </c>
       <c r="K313">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="L313">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M313">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="N313">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="O313">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P313">
-        <v>3.25</v>
+        <v>2.45</v>
       </c>
       <c r="Q313">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R313">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S313">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T313">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U313">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V313">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W313">
         <v>-1</v>
@@ -28391,16 +28391,16 @@
         <v>-1</v>
       </c>
       <c r="Y313">
-        <v>2.25</v>
+        <v>1.45</v>
       </c>
       <c r="Z313">
         <v>-1</v>
       </c>
       <c r="AA313">
-        <v>1.025</v>
+        <v>0.75</v>
       </c>
       <c r="AB313">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC313">
         <v>-1</v>
@@ -28515,7 +28515,7 @@
         <v>47</v>
       </c>
       <c r="G315" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H315">
         <v>2</v>
@@ -28690,7 +28690,7 @@
         <v>45291.33333333334</v>
       </c>
       <c r="F317" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G317" t="s">
         <v>48</v>
@@ -28957,7 +28957,7 @@
         <v>45297.52083333334</v>
       </c>
       <c r="F320" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G320" t="s">
         <v>53</v>
@@ -29049,7 +29049,7 @@
         <v>49</v>
       </c>
       <c r="G321" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H321">
         <v>0</v>
@@ -29494,7 +29494,7 @@
         <v>42</v>
       </c>
       <c r="G326" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H326">
         <v>3</v>
@@ -30028,7 +30028,7 @@
         <v>44</v>
       </c>
       <c r="G332" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H332">
         <v>0</v>
@@ -30203,7 +30203,7 @@
         <v>45306.65625</v>
       </c>
       <c r="F334" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G334" t="s">
         <v>43</v>
@@ -30292,7 +30292,7 @@
         <v>45306.73958333334</v>
       </c>
       <c r="F335" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G335" t="s">
         <v>39</v>
@@ -30470,10 +30470,10 @@
         <v>45311.33333333334</v>
       </c>
       <c r="F337" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G337" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H337">
         <v>1</v>
@@ -30915,7 +30915,7 @@
         <v>45312.52083333334</v>
       </c>
       <c r="F342" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G342" t="s">
         <v>49</v>
@@ -31185,7 +31185,7 @@
         <v>47</v>
       </c>
       <c r="G345" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H345">
         <v>0</v>
@@ -31452,7 +31452,7 @@
         <v>43</v>
       </c>
       <c r="G348" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H348">
         <v>2</v>
@@ -31627,7 +31627,7 @@
         <v>45320.54166666666</v>
       </c>
       <c r="F350" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G350" t="s">
         <v>51</v>
@@ -31983,7 +31983,7 @@
         <v>45324.73958333334</v>
       </c>
       <c r="F354" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G354" t="s">
         <v>53</v>
@@ -32161,7 +32161,7 @@
         <v>45325.45833333334</v>
       </c>
       <c r="F356" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G356" t="s">
         <v>48</v>
@@ -32342,7 +32342,7 @@
         <v>50</v>
       </c>
       <c r="G358" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H358">
         <v>3</v>
@@ -32520,7 +32520,7 @@
         <v>45</v>
       </c>
       <c r="G360" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H360">
         <v>1</v>
@@ -32784,7 +32784,7 @@
         <v>45332.52083333334</v>
       </c>
       <c r="F363" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G363" t="s">
         <v>29</v>
@@ -33039,7 +33039,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>6893600</v>
+        <v>6893598</v>
       </c>
       <c r="C366" t="s">
         <v>28</v>
@@ -33051,76 +33051,76 @@
         <v>45333.52083333334</v>
       </c>
       <c r="F366" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G366" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I366">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J366" t="s">
         <v>56</v>
       </c>
       <c r="K366">
-        <v>3.8</v>
+        <v>2.05</v>
       </c>
       <c r="L366">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M366">
+        <v>3.4</v>
+      </c>
+      <c r="N366">
+        <v>1.909</v>
+      </c>
+      <c r="O366">
+        <v>3.5</v>
+      </c>
+      <c r="P366">
+        <v>3.75</v>
+      </c>
+      <c r="Q366">
+        <v>-0.5</v>
+      </c>
+      <c r="R366">
+        <v>1.9</v>
+      </c>
+      <c r="S366">
+        <v>1.9</v>
+      </c>
+      <c r="T366">
+        <v>2.5</v>
+      </c>
+      <c r="U366">
+        <v>1.85</v>
+      </c>
+      <c r="V366">
         <v>1.95</v>
       </c>
-      <c r="N366">
-        <v>3.5</v>
-      </c>
-      <c r="O366">
-        <v>3.3</v>
-      </c>
-      <c r="P366">
-        <v>2.05</v>
-      </c>
-      <c r="Q366">
-        <v>0.25</v>
-      </c>
-      <c r="R366">
-        <v>2.05</v>
-      </c>
-      <c r="S366">
-        <v>1.8</v>
-      </c>
-      <c r="T366">
-        <v>2.25</v>
-      </c>
-      <c r="U366">
-        <v>1.95</v>
-      </c>
-      <c r="V366">
-        <v>1.9</v>
-      </c>
       <c r="W366">
         <v>-1</v>
       </c>
       <c r="X366">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Y366">
         <v>-1</v>
       </c>
       <c r="Z366">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA366">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB366">
         <v>-1</v>
       </c>
       <c r="AC366">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="367" spans="1:29">
@@ -33128,7 +33128,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>6893598</v>
+        <v>6893600</v>
       </c>
       <c r="C367" t="s">
         <v>28</v>
@@ -33140,76 +33140,76 @@
         <v>45333.52083333334</v>
       </c>
       <c r="F367" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G367" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H367">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I367">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J367" t="s">
         <v>56</v>
       </c>
       <c r="K367">
+        <v>3.8</v>
+      </c>
+      <c r="L367">
+        <v>3.3</v>
+      </c>
+      <c r="M367">
+        <v>1.95</v>
+      </c>
+      <c r="N367">
+        <v>3.5</v>
+      </c>
+      <c r="O367">
+        <v>3.3</v>
+      </c>
+      <c r="P367">
         <v>2.05</v>
       </c>
-      <c r="L367">
-        <v>3.4</v>
-      </c>
-      <c r="M367">
-        <v>3.4</v>
-      </c>
-      <c r="N367">
-        <v>1.909</v>
-      </c>
-      <c r="O367">
-        <v>3.5</v>
-      </c>
-      <c r="P367">
-        <v>3.75</v>
-      </c>
       <c r="Q367">
+        <v>0.25</v>
+      </c>
+      <c r="R367">
+        <v>2.05</v>
+      </c>
+      <c r="S367">
+        <v>1.8</v>
+      </c>
+      <c r="T367">
+        <v>2.25</v>
+      </c>
+      <c r="U367">
+        <v>1.95</v>
+      </c>
+      <c r="V367">
+        <v>1.9</v>
+      </c>
+      <c r="W367">
+        <v>-1</v>
+      </c>
+      <c r="X367">
+        <v>2.3</v>
+      </c>
+      <c r="Y367">
+        <v>-1</v>
+      </c>
+      <c r="Z367">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="AA367">
         <v>-0.5</v>
       </c>
-      <c r="R367">
-        <v>1.9</v>
-      </c>
-      <c r="S367">
-        <v>1.9</v>
-      </c>
-      <c r="T367">
-        <v>2.5</v>
-      </c>
-      <c r="U367">
-        <v>1.85</v>
-      </c>
-      <c r="V367">
-        <v>1.95</v>
-      </c>
-      <c r="W367">
-        <v>-1</v>
-      </c>
-      <c r="X367">
-        <v>2.5</v>
-      </c>
-      <c r="Y367">
-        <v>-1</v>
-      </c>
-      <c r="Z367">
-        <v>-1</v>
-      </c>
-      <c r="AA367">
+      <c r="AB367">
+        <v>-1</v>
+      </c>
+      <c r="AC367">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB367">
-        <v>-1</v>
-      </c>
-      <c r="AC367">
-        <v>0.95</v>
       </c>
     </row>
     <row r="368" spans="1:29">
@@ -33395,7 +33395,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>6893202</v>
+        <v>6893602</v>
       </c>
       <c r="C370" t="s">
         <v>28</v>
@@ -33404,64 +33404,79 @@
         <v>28</v>
       </c>
       <c r="E370" s="2">
-        <v>45340.33333333334</v>
+        <v>45339.33333333334</v>
       </c>
       <c r="F370" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G370" t="s">
-        <v>45</v>
+        <v>37</v>
+      </c>
+      <c r="H370">
+        <v>1</v>
+      </c>
+      <c r="I370">
+        <v>3</v>
+      </c>
+      <c r="J370" t="s">
+        <v>54</v>
       </c>
       <c r="K370">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="L370">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M370">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="N370">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="O370">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="P370">
-        <v>5.25</v>
+        <v>2.9</v>
       </c>
       <c r="Q370">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R370">
-        <v>1.8</v>
+        <v>2.125</v>
       </c>
       <c r="S370">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="T370">
         <v>2.25</v>
       </c>
       <c r="U370">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V370">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W370">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X370">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y370">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="Z370">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA370">
-        <v>0</v>
+        <v>0.75</v>
+      </c>
+      <c r="AB370">
+        <v>1</v>
+      </c>
+      <c r="AC370">
+        <v>-1</v>
       </c>
     </row>
     <row r="371" spans="1:29">
@@ -33469,7 +33484,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>6893164</v>
+        <v>6893601</v>
       </c>
       <c r="C371" t="s">
         <v>28</v>
@@ -33478,64 +33493,79 @@
         <v>28</v>
       </c>
       <c r="E371" s="2">
-        <v>45340.45833333334</v>
+        <v>45339.45833333334</v>
       </c>
       <c r="F371" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G371" t="s">
-        <v>49</v>
+        <v>36</v>
+      </c>
+      <c r="H371">
+        <v>3</v>
+      </c>
+      <c r="I371">
+        <v>1</v>
+      </c>
+      <c r="J371" t="s">
+        <v>55</v>
       </c>
       <c r="K371">
-        <v>3.4</v>
+        <v>2.45</v>
       </c>
       <c r="L371">
+        <v>3</v>
+      </c>
+      <c r="M371">
         <v>2.875</v>
       </c>
-      <c r="M371">
-        <v>2.2</v>
-      </c>
       <c r="N371">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="O371">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P371">
-        <v>1.95</v>
+        <v>2.7</v>
       </c>
       <c r="Q371">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R371">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S371">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T371">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U371">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V371">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W371">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="X371">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y371">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z371">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA371">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB371">
+        <v>1.025</v>
+      </c>
+      <c r="AC371">
+        <v>-1</v>
       </c>
     </row>
     <row r="372" spans="1:29">
@@ -33543,7 +33573,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>6893165</v>
+        <v>6899171</v>
       </c>
       <c r="C372" t="s">
         <v>28</v>
@@ -33552,64 +33582,79 @@
         <v>28</v>
       </c>
       <c r="E372" s="2">
-        <v>45340.52083333334</v>
+        <v>45339.52083333334</v>
       </c>
       <c r="F372" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G372" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="H372">
+        <v>1</v>
+      </c>
+      <c r="I372">
+        <v>0</v>
+      </c>
+      <c r="J372" t="s">
+        <v>55</v>
       </c>
       <c r="K372">
-        <v>3.2</v>
+        <v>1.85</v>
       </c>
       <c r="L372">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M372">
-        <v>2.15</v>
+        <v>3.75</v>
       </c>
       <c r="N372">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="O372">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P372">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q372">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R372">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S372">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T372">
         <v>2.5</v>
       </c>
       <c r="U372">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V372">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W372">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X372">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y372">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z372">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA372">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB372">
+        <v>-1</v>
+      </c>
+      <c r="AC372">
+        <v>0.925</v>
       </c>
     </row>
     <row r="373" spans="1:29">
@@ -33617,7 +33662,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>6899276</v>
+        <v>6899170</v>
       </c>
       <c r="C373" t="s">
         <v>28</v>
@@ -33626,63 +33671,419 @@
         <v>28</v>
       </c>
       <c r="E373" s="2">
-        <v>45341.625</v>
+        <v>45339.625</v>
       </c>
       <c r="F373" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G373" t="s">
-        <v>48</v>
+        <v>53</v>
+      </c>
+      <c r="H373">
+        <v>4</v>
+      </c>
+      <c r="I373">
+        <v>2</v>
+      </c>
+      <c r="J373" t="s">
+        <v>55</v>
       </c>
       <c r="K373">
-        <v>4</v>
+        <v>1.571</v>
       </c>
       <c r="L373">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M373">
-        <v>1.8</v>
+        <v>5.25</v>
       </c>
       <c r="N373">
-        <v>3.8</v>
+        <v>1.533</v>
       </c>
       <c r="O373">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P373">
-        <v>1.833</v>
+        <v>5.75</v>
       </c>
       <c r="Q373">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R373">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S373">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T373">
         <v>2.25</v>
       </c>
       <c r="U373">
+        <v>1.825</v>
+      </c>
+      <c r="V373">
+        <v>2.025</v>
+      </c>
+      <c r="W373">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="X373">
+        <v>-1</v>
+      </c>
+      <c r="Y373">
+        <v>-1</v>
+      </c>
+      <c r="Z373">
+        <v>1</v>
+      </c>
+      <c r="AA373">
+        <v>-1</v>
+      </c>
+      <c r="AB373">
+        <v>0.825</v>
+      </c>
+      <c r="AC373">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:29">
+      <c r="A374" s="1">
+        <v>372</v>
+      </c>
+      <c r="B374">
+        <v>6893202</v>
+      </c>
+      <c r="C374" t="s">
+        <v>28</v>
+      </c>
+      <c r="D374" t="s">
+        <v>28</v>
+      </c>
+      <c r="E374" s="2">
+        <v>45340.33333333334</v>
+      </c>
+      <c r="F374" t="s">
+        <v>30</v>
+      </c>
+      <c r="G374" t="s">
+        <v>45</v>
+      </c>
+      <c r="H374">
+        <v>2</v>
+      </c>
+      <c r="I374">
+        <v>2</v>
+      </c>
+      <c r="J374" t="s">
+        <v>56</v>
+      </c>
+      <c r="K374">
+        <v>1.727</v>
+      </c>
+      <c r="L374">
+        <v>3.5</v>
+      </c>
+      <c r="M374">
+        <v>4.5</v>
+      </c>
+      <c r="N374">
+        <v>1.65</v>
+      </c>
+      <c r="O374">
+        <v>3.6</v>
+      </c>
+      <c r="P374">
+        <v>5</v>
+      </c>
+      <c r="Q374">
+        <v>-0.75</v>
+      </c>
+      <c r="R374">
+        <v>1.825</v>
+      </c>
+      <c r="S374">
+        <v>1.975</v>
+      </c>
+      <c r="T374">
+        <v>2.25</v>
+      </c>
+      <c r="U374">
+        <v>1.85</v>
+      </c>
+      <c r="V374">
+        <v>1.95</v>
+      </c>
+      <c r="W374">
+        <v>-1</v>
+      </c>
+      <c r="X374">
+        <v>2.6</v>
+      </c>
+      <c r="Y374">
+        <v>-1</v>
+      </c>
+      <c r="Z374">
+        <v>-1</v>
+      </c>
+      <c r="AA374">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB374">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC374">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:29">
+      <c r="A375" s="1">
+        <v>373</v>
+      </c>
+      <c r="B375">
+        <v>6893164</v>
+      </c>
+      <c r="C375" t="s">
+        <v>28</v>
+      </c>
+      <c r="D375" t="s">
+        <v>28</v>
+      </c>
+      <c r="E375" s="2">
+        <v>45340.45833333334</v>
+      </c>
+      <c r="F375" t="s">
+        <v>39</v>
+      </c>
+      <c r="G375" t="s">
+        <v>49</v>
+      </c>
+      <c r="H375">
+        <v>1</v>
+      </c>
+      <c r="I375">
+        <v>2</v>
+      </c>
+      <c r="J375" t="s">
+        <v>54</v>
+      </c>
+      <c r="K375">
+        <v>3.4</v>
+      </c>
+      <c r="L375">
+        <v>2.875</v>
+      </c>
+      <c r="M375">
+        <v>2.2</v>
+      </c>
+      <c r="N375">
+        <v>4</v>
+      </c>
+      <c r="O375">
+        <v>3</v>
+      </c>
+      <c r="P375">
+        <v>1.95</v>
+      </c>
+      <c r="Q375">
+        <v>0.5</v>
+      </c>
+      <c r="R375">
+        <v>1.825</v>
+      </c>
+      <c r="S375">
+        <v>2.025</v>
+      </c>
+      <c r="T375">
+        <v>2</v>
+      </c>
+      <c r="U375">
+        <v>1.975</v>
+      </c>
+      <c r="V375">
+        <v>1.875</v>
+      </c>
+      <c r="W375">
+        <v>-1</v>
+      </c>
+      <c r="X375">
+        <v>-1</v>
+      </c>
+      <c r="Y375">
+        <v>0.95</v>
+      </c>
+      <c r="Z375">
+        <v>-1</v>
+      </c>
+      <c r="AA375">
+        <v>1.025</v>
+      </c>
+      <c r="AB375">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC375">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:29">
+      <c r="A376" s="1">
+        <v>374</v>
+      </c>
+      <c r="B376">
+        <v>6893165</v>
+      </c>
+      <c r="C376" t="s">
+        <v>28</v>
+      </c>
+      <c r="D376" t="s">
+        <v>28</v>
+      </c>
+      <c r="E376" s="2">
+        <v>45340.52083333334</v>
+      </c>
+      <c r="F376" t="s">
+        <v>42</v>
+      </c>
+      <c r="G376" t="s">
+        <v>43</v>
+      </c>
+      <c r="H376">
+        <v>2</v>
+      </c>
+      <c r="I376">
+        <v>1</v>
+      </c>
+      <c r="J376" t="s">
+        <v>55</v>
+      </c>
+      <c r="K376">
+        <v>3.2</v>
+      </c>
+      <c r="L376">
+        <v>3.25</v>
+      </c>
+      <c r="M376">
+        <v>2.15</v>
+      </c>
+      <c r="N376">
+        <v>3.1</v>
+      </c>
+      <c r="O376">
+        <v>3.3</v>
+      </c>
+      <c r="P376">
+        <v>2.2</v>
+      </c>
+      <c r="Q376">
+        <v>0.25</v>
+      </c>
+      <c r="R376">
+        <v>1.9</v>
+      </c>
+      <c r="S376">
+        <v>1.9</v>
+      </c>
+      <c r="T376">
+        <v>2.5</v>
+      </c>
+      <c r="U376">
+        <v>1.875</v>
+      </c>
+      <c r="V376">
+        <v>1.925</v>
+      </c>
+      <c r="W376">
+        <v>2.1</v>
+      </c>
+      <c r="X376">
+        <v>-1</v>
+      </c>
+      <c r="Y376">
+        <v>-1</v>
+      </c>
+      <c r="Z376">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA376">
+        <v>-1</v>
+      </c>
+      <c r="AB376">
+        <v>0.875</v>
+      </c>
+      <c r="AC376">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:29">
+      <c r="A377" s="1">
+        <v>375</v>
+      </c>
+      <c r="B377">
+        <v>6899276</v>
+      </c>
+      <c r="C377" t="s">
+        <v>28</v>
+      </c>
+      <c r="D377" t="s">
+        <v>28</v>
+      </c>
+      <c r="E377" s="2">
+        <v>45341.625</v>
+      </c>
+      <c r="F377" t="s">
+        <v>52</v>
+      </c>
+      <c r="G377" t="s">
+        <v>48</v>
+      </c>
+      <c r="K377">
+        <v>4</v>
+      </c>
+      <c r="L377">
+        <v>3.4</v>
+      </c>
+      <c r="M377">
         <v>1.8</v>
       </c>
-      <c r="V373">
-        <v>2.05</v>
-      </c>
-      <c r="W373">
+      <c r="N377">
+        <v>4.2</v>
+      </c>
+      <c r="O377">
+        <v>3.5</v>
+      </c>
+      <c r="P377">
+        <v>1.727</v>
+      </c>
+      <c r="Q377">
+        <v>0.75</v>
+      </c>
+      <c r="R377">
+        <v>1.85</v>
+      </c>
+      <c r="S377">
+        <v>2</v>
+      </c>
+      <c r="T377">
+        <v>2.5</v>
+      </c>
+      <c r="U377">
+        <v>2.025</v>
+      </c>
+      <c r="V377">
+        <v>1.825</v>
+      </c>
+      <c r="W377">
         <v>0</v>
       </c>
-      <c r="X373">
+      <c r="X377">
         <v>0</v>
       </c>
-      <c r="Y373">
+      <c r="Y377">
         <v>0</v>
       </c>
-      <c r="Z373">
+      <c r="Z377">
         <v>0</v>
       </c>
-      <c r="AA373">
+      <c r="AA377">
         <v>0</v>
       </c>
     </row>

--- a/Portugal Segunda Liga/Portugal Segunda Liga.xlsx
+++ b/Portugal Segunda Liga/Portugal Segunda Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1907" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1936" uniqueCount="57">
   <si>
     <t>id</t>
   </si>
@@ -112,19 +112,19 @@
     <t>SC Farense</t>
   </si>
   <si>
-    <t>SCU Torreense</t>
+    <t>CD Mafra</t>
   </si>
   <si>
-    <t>CD Mafra</t>
+    <t>SCU Torreense</t>
   </si>
   <si>
     <t>Sporting Covilha</t>
   </si>
   <si>
-    <t>Estrela</t>
+    <t>Benfica B</t>
   </si>
   <si>
-    <t>Benfica B</t>
+    <t>Estrela</t>
   </si>
   <si>
     <t>Tondela</t>
@@ -546,7 +546,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC377"/>
+  <dimension ref="A1:AC384"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -910,7 +910,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5265388</v>
+        <v>5266496</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -925,73 +925,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K5">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="L5">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M5">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="N5">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="O5">
         <v>3.5</v>
       </c>
       <c r="P5">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q5">
         <v>-0.5</v>
       </c>
       <c r="R5">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S5">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T5">
         <v>2.5</v>
       </c>
       <c r="U5">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V5">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z5">
         <v>-1</v>
       </c>
       <c r="AA5">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -999,7 +999,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5266496</v>
+        <v>5265388</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1014,73 +1014,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K6">
-        <v>1.833</v>
+        <v>2.2</v>
       </c>
       <c r="L6">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M6">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="N6">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="O6">
         <v>3.5</v>
       </c>
       <c r="P6">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q6">
         <v>-0.5</v>
       </c>
       <c r="R6">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S6">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T6">
         <v>2.5</v>
       </c>
       <c r="U6">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V6">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y6">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
         <v>-1</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB6">
         <v>-1</v>
       </c>
       <c r="AC6">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1177,7 +1177,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5263138</v>
+        <v>5265383</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1192,70 +1192,70 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K8">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L8">
         <v>3.25</v>
       </c>
       <c r="M8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N8">
-        <v>1.45</v>
+        <v>2.625</v>
       </c>
       <c r="O8">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P8">
-        <v>6.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S8">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T8">
         <v>2.5</v>
       </c>
       <c r="U8">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V8">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W8">
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z8">
         <v>-1</v>
       </c>
       <c r="AA8">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AB8">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AC8">
         <v>-1</v>
@@ -1266,7 +1266,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5265383</v>
+        <v>5263138</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1281,70 +1281,70 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K9">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L9">
         <v>3.25</v>
       </c>
       <c r="M9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N9">
-        <v>2.625</v>
+        <v>1.45</v>
       </c>
       <c r="O9">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P9">
-        <v>2.55</v>
+        <v>6.5</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R9">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S9">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T9">
         <v>2.5</v>
       </c>
       <c r="U9">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V9">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y9">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
         <v>-1</v>
       </c>
       <c r="AA9">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AB9">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AC9">
         <v>-1</v>
@@ -1459,7 +1459,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>4</v>
@@ -1548,7 +1548,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1904,7 +1904,7 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1978,7 +1978,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5265513</v>
+        <v>5265391</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1990,76 +1990,76 @@
         <v>44941.52083333334</v>
       </c>
       <c r="F17" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K17">
-        <v>2.05</v>
+        <v>1.727</v>
       </c>
       <c r="L17">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M17">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N17">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="O17">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P17">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="Q17">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R17">
+        <v>1.875</v>
+      </c>
+      <c r="S17">
         <v>1.925</v>
       </c>
-      <c r="S17">
+      <c r="T17">
+        <v>2.75</v>
+      </c>
+      <c r="U17">
+        <v>1.925</v>
+      </c>
+      <c r="V17">
         <v>1.875</v>
       </c>
-      <c r="T17">
-        <v>2.25</v>
-      </c>
-      <c r="U17">
-        <v>1.85</v>
-      </c>
-      <c r="V17">
-        <v>1.95</v>
-      </c>
       <c r="W17">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X17">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA17">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC17">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2067,7 +2067,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5265391</v>
+        <v>5265513</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2079,76 +2079,76 @@
         <v>44941.52083333334</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K18">
-        <v>1.727</v>
+        <v>2.05</v>
       </c>
       <c r="L18">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M18">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N18">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="O18">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P18">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="Q18">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R18">
+        <v>1.925</v>
+      </c>
+      <c r="S18">
         <v>1.875</v>
       </c>
-      <c r="S18">
-        <v>1.925</v>
-      </c>
       <c r="T18">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U18">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V18">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W18">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X18">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB18">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC18">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2423,7 +2423,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5265395</v>
+        <v>5263140</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2435,76 +2435,76 @@
         <v>44947.52083333334</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K22">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L22">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M22">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="N22">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="O22">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P22">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="Q22">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R22">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S22">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T22">
         <v>2.5</v>
       </c>
       <c r="U22">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V22">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W22">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA22">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2512,7 +2512,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5263140</v>
+        <v>5265395</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2524,76 +2524,76 @@
         <v>44947.52083333334</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G23" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K23">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L23">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M23">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="N23">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="O23">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P23">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q23">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R23">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S23">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T23">
         <v>2.5</v>
       </c>
       <c r="U23">
+        <v>1.975</v>
+      </c>
+      <c r="V23">
+        <v>1.825</v>
+      </c>
+      <c r="W23">
+        <v>-1</v>
+      </c>
+      <c r="X23">
+        <v>-1</v>
+      </c>
+      <c r="Y23">
         <v>1.9</v>
       </c>
-      <c r="V23">
-        <v>1.9</v>
-      </c>
-      <c r="W23">
-        <v>0.75</v>
-      </c>
-      <c r="X23">
-        <v>-1</v>
-      </c>
-      <c r="Y23">
-        <v>-1</v>
-      </c>
       <c r="Z23">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC23">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2791,7 +2791,7 @@
         <v>44948.45833333334</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G26" t="s">
         <v>44</v>
@@ -2880,7 +2880,7 @@
         <v>44948.52083333334</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G27" t="s">
         <v>39</v>
@@ -2969,7 +2969,7 @@
         <v>44949.625</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G28" t="s">
         <v>42</v>
@@ -3058,7 +3058,7 @@
         <v>44955.33333333334</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G29" t="s">
         <v>31</v>
@@ -3224,7 +3224,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5266491</v>
+        <v>5265515</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3236,46 +3236,46 @@
         <v>44955.45833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G31" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K31">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="L31">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M31">
-        <v>2.375</v>
+        <v>4.2</v>
       </c>
       <c r="N31">
-        <v>2.6</v>
+        <v>1.833</v>
       </c>
       <c r="O31">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P31">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R31">
         <v>1.9</v>
       </c>
       <c r="S31">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T31">
         <v>2.25</v>
@@ -3284,28 +3284,28 @@
         <v>1.9</v>
       </c>
       <c r="V31">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA31">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC31">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3313,7 +3313,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5265515</v>
+        <v>5266491</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3325,46 +3325,46 @@
         <v>44955.45833333334</v>
       </c>
       <c r="F32" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G32" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32">
+        <v>2</v>
+      </c>
+      <c r="J32" t="s">
+        <v>54</v>
+      </c>
+      <c r="K32">
+        <v>2.8</v>
+      </c>
+      <c r="L32">
+        <v>3.2</v>
+      </c>
+      <c r="M32">
+        <v>2.375</v>
+      </c>
+      <c r="N32">
+        <v>2.6</v>
+      </c>
+      <c r="O32">
+        <v>3.1</v>
+      </c>
+      <c r="P32">
+        <v>2.6</v>
+      </c>
+      <c r="Q32">
         <v>0</v>
-      </c>
-      <c r="J32" t="s">
-        <v>55</v>
-      </c>
-      <c r="K32">
-        <v>1.8</v>
-      </c>
-      <c r="L32">
-        <v>3.3</v>
-      </c>
-      <c r="M32">
-        <v>4.2</v>
-      </c>
-      <c r="N32">
-        <v>1.833</v>
-      </c>
-      <c r="O32">
-        <v>3.3</v>
-      </c>
-      <c r="P32">
-        <v>4</v>
-      </c>
-      <c r="Q32">
-        <v>-0.5</v>
       </c>
       <c r="R32">
         <v>1.9</v>
       </c>
       <c r="S32">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T32">
         <v>2.25</v>
@@ -3373,28 +3373,28 @@
         <v>1.9</v>
       </c>
       <c r="V32">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W32">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z32">
+        <v>-1</v>
+      </c>
+      <c r="AA32">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA32">
-        <v>-1</v>
-      </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC32">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3414,7 +3414,7 @@
         <v>44955.52083333334</v>
       </c>
       <c r="F33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G33" t="s">
         <v>45</v>
@@ -3503,7 +3503,7 @@
         <v>44955.52083333334</v>
       </c>
       <c r="F34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G34" t="s">
         <v>42</v>
@@ -3773,7 +3773,7 @@
         <v>30</v>
       </c>
       <c r="G37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H37">
         <v>2</v>
@@ -3862,7 +3862,7 @@
         <v>31</v>
       </c>
       <c r="G38" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H38">
         <v>2</v>
@@ -4129,7 +4129,7 @@
         <v>43</v>
       </c>
       <c r="G41" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H41">
         <v>3</v>
@@ -4307,7 +4307,7 @@
         <v>39</v>
       </c>
       <c r="G43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4381,7 +4381,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>5263141</v>
+        <v>5265413</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4393,76 +4393,76 @@
         <v>44962.45833333334</v>
       </c>
       <c r="F44" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G44" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44">
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K44">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="L44">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M44">
         <v>2.5</v>
       </c>
       <c r="N44">
-        <v>2.55</v>
+        <v>2.375</v>
       </c>
       <c r="O44">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P44">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="Q44">
         <v>0</v>
       </c>
       <c r="R44">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S44">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T44">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U44">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V44">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W44">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA44">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC44">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4470,7 +4470,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>5265413</v>
+        <v>5263141</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4482,76 +4482,76 @@
         <v>44962.45833333334</v>
       </c>
       <c r="F45" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G45" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45">
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K45">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="L45">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M45">
         <v>2.5</v>
       </c>
       <c r="N45">
-        <v>2.375</v>
+        <v>2.55</v>
       </c>
       <c r="O45">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P45">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q45">
         <v>0</v>
       </c>
       <c r="R45">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S45">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T45">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U45">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V45">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W45">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z45">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB45">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4660,7 +4660,7 @@
         <v>44967.625</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G47" t="s">
         <v>38</v>
@@ -4838,10 +4838,10 @@
         <v>44968.45833333334</v>
       </c>
       <c r="F49" t="s">
+        <v>36</v>
+      </c>
+      <c r="G49" t="s">
         <v>35</v>
-      </c>
-      <c r="G49" t="s">
-        <v>36</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -5271,7 +5271,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>5265419</v>
+        <v>5266486</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5283,73 +5283,73 @@
         <v>44970.625</v>
       </c>
       <c r="F54" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G54" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J54" t="s">
         <v>56</v>
       </c>
       <c r="K54">
-        <v>1.85</v>
+        <v>2.6</v>
       </c>
       <c r="L54">
         <v>3.2</v>
       </c>
       <c r="M54">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N54">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="O54">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P54">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q54">
+        <v>0.25</v>
+      </c>
+      <c r="R54">
+        <v>1.825</v>
+      </c>
+      <c r="S54">
+        <v>1.975</v>
+      </c>
+      <c r="T54">
+        <v>2.25</v>
+      </c>
+      <c r="U54">
+        <v>1.925</v>
+      </c>
+      <c r="V54">
+        <v>1.875</v>
+      </c>
+      <c r="W54">
+        <v>-1</v>
+      </c>
+      <c r="X54">
+        <v>2</v>
+      </c>
+      <c r="Y54">
+        <v>-1</v>
+      </c>
+      <c r="Z54">
+        <v>0.4125</v>
+      </c>
+      <c r="AA54">
         <v>-0.5</v>
       </c>
-      <c r="R54">
-        <v>1.975</v>
-      </c>
-      <c r="S54">
-        <v>1.825</v>
-      </c>
-      <c r="T54">
-        <v>2.5</v>
-      </c>
-      <c r="U54">
-        <v>1.9</v>
-      </c>
-      <c r="V54">
-        <v>1.9</v>
-      </c>
-      <c r="W54">
-        <v>-1</v>
-      </c>
-      <c r="X54">
-        <v>2.3</v>
-      </c>
-      <c r="Y54">
-        <v>-1</v>
-      </c>
-      <c r="Z54">
-        <v>-1</v>
-      </c>
-      <c r="AA54">
-        <v>0.825</v>
-      </c>
       <c r="AB54">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC54">
         <v>-1</v>
@@ -5360,7 +5360,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>5266486</v>
+        <v>5265419</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5372,73 +5372,73 @@
         <v>44970.625</v>
       </c>
       <c r="F55" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G55" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J55" t="s">
         <v>56</v>
       </c>
       <c r="K55">
-        <v>2.6</v>
+        <v>1.85</v>
       </c>
       <c r="L55">
         <v>3.2</v>
       </c>
       <c r="M55">
+        <v>4</v>
+      </c>
+      <c r="N55">
+        <v>1.909</v>
+      </c>
+      <c r="O55">
+        <v>3.3</v>
+      </c>
+      <c r="P55">
+        <v>3.75</v>
+      </c>
+      <c r="Q55">
+        <v>-0.5</v>
+      </c>
+      <c r="R55">
+        <v>1.975</v>
+      </c>
+      <c r="S55">
+        <v>1.825</v>
+      </c>
+      <c r="T55">
         <v>2.5</v>
       </c>
-      <c r="N55">
-        <v>3.1</v>
-      </c>
-      <c r="O55">
-        <v>3</v>
-      </c>
-      <c r="P55">
-        <v>2.15</v>
-      </c>
-      <c r="Q55">
-        <v>0.25</v>
-      </c>
-      <c r="R55">
-        <v>1.825</v>
-      </c>
-      <c r="S55">
-        <v>1.975</v>
-      </c>
-      <c r="T55">
-        <v>2.25</v>
-      </c>
       <c r="U55">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V55">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="Y55">
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB55">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC55">
         <v>-1</v>
@@ -5731,7 +5731,7 @@
         <v>44</v>
       </c>
       <c r="G59" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -6084,10 +6084,10 @@
         <v>44976.52083333334</v>
       </c>
       <c r="F63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G63" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6176,7 +6176,7 @@
         <v>31</v>
       </c>
       <c r="G64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6351,7 +6351,7 @@
         <v>44982.33333333334</v>
       </c>
       <c r="F66" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G66" t="s">
         <v>30</v>
@@ -6443,7 +6443,7 @@
         <v>29</v>
       </c>
       <c r="G67" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -6606,7 +6606,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>5265429</v>
+        <v>5265516</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6618,37 +6618,37 @@
         <v>44983.33333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G69" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H69">
         <v>1</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J69" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K69">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="L69">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M69">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="N69">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O69">
         <v>3</v>
       </c>
       <c r="P69">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q69">
         <v>-0.25</v>
@@ -6657,37 +6657,37 @@
         <v>2</v>
       </c>
       <c r="S69">
+        <v>1.8</v>
+      </c>
+      <c r="T69">
+        <v>2.25</v>
+      </c>
+      <c r="U69">
+        <v>1.95</v>
+      </c>
+      <c r="V69">
         <v>1.85</v>
       </c>
-      <c r="T69">
-        <v>2.5</v>
-      </c>
-      <c r="U69">
-        <v>2.125</v>
-      </c>
-      <c r="V69">
-        <v>1.75</v>
-      </c>
       <c r="W69">
         <v>-1</v>
       </c>
       <c r="X69">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y69">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z69">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC69">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6695,7 +6695,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>5265516</v>
+        <v>5265429</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6707,37 +6707,37 @@
         <v>44983.33333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G70" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H70">
         <v>1</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K70">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="L70">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M70">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="N70">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O70">
         <v>3</v>
       </c>
       <c r="P70">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Q70">
         <v>-0.25</v>
@@ -6746,37 +6746,37 @@
         <v>2</v>
       </c>
       <c r="S70">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T70">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U70">
-        <v>1.95</v>
+        <v>2.125</v>
       </c>
       <c r="V70">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="W70">
         <v>-1</v>
       </c>
       <c r="X70">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y70">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA70">
-        <v>0.8</v>
+        <v>0.425</v>
       </c>
       <c r="AB70">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6974,7 +6974,7 @@
         <v>44983.52083333334</v>
       </c>
       <c r="F73" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G73" t="s">
         <v>37</v>
@@ -7051,7 +7051,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>5265438</v>
+        <v>5265440</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7063,76 +7063,76 @@
         <v>44989.33333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G74" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K74">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="L74">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M74">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="N74">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="O74">
         <v>3.4</v>
       </c>
       <c r="P74">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="Q74">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R74">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S74">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T74">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U74">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V74">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W74">
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z74">
         <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB74">
         <v>-1</v>
       </c>
       <c r="AC74">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7140,7 +7140,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>5265440</v>
+        <v>5265438</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7152,76 +7152,76 @@
         <v>44989.33333333334</v>
       </c>
       <c r="F75" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G75" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K75">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="L75">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M75">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="N75">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="O75">
         <v>3.4</v>
       </c>
       <c r="P75">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="Q75">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R75">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S75">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T75">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U75">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V75">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W75">
         <v>-1</v>
       </c>
       <c r="X75">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y75">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB75">
         <v>-1</v>
       </c>
       <c r="AC75">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7333,7 +7333,7 @@
         <v>37</v>
       </c>
       <c r="G77" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7511,7 +7511,7 @@
         <v>30</v>
       </c>
       <c r="G79" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -7689,7 +7689,7 @@
         <v>44</v>
       </c>
       <c r="G81" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -8030,7 +8030,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>5263145</v>
+        <v>5265444</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8042,19 +8042,19 @@
         <v>44996.45833333334</v>
       </c>
       <c r="F85" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G85" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K85">
         <v>2.375</v>
@@ -8066,49 +8066,49 @@
         <v>2.75</v>
       </c>
       <c r="N85">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="O85">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P85">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="Q85">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R85">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S85">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T85">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U85">
+        <v>1.85</v>
+      </c>
+      <c r="V85">
         <v>1.95</v>
       </c>
-      <c r="V85">
-        <v>1.85</v>
-      </c>
       <c r="W85">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X85">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA85">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC85">
         <v>-1</v>
@@ -8119,7 +8119,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>5265444</v>
+        <v>5263145</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8131,19 +8131,19 @@
         <v>44996.45833333334</v>
       </c>
       <c r="F86" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G86" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H86">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J86" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K86">
         <v>2.375</v>
@@ -8155,49 +8155,49 @@
         <v>2.75</v>
       </c>
       <c r="N86">
+        <v>2</v>
+      </c>
+      <c r="O86">
+        <v>3.3</v>
+      </c>
+      <c r="P86">
+        <v>3.4</v>
+      </c>
+      <c r="Q86">
+        <v>-0.5</v>
+      </c>
+      <c r="R86">
+        <v>2</v>
+      </c>
+      <c r="S86">
+        <v>1.8</v>
+      </c>
+      <c r="T86">
         <v>2.5</v>
       </c>
-      <c r="O86">
-        <v>3.25</v>
-      </c>
-      <c r="P86">
-        <v>2.55</v>
-      </c>
-      <c r="Q86">
-        <v>0</v>
-      </c>
-      <c r="R86">
-        <v>1.9</v>
-      </c>
-      <c r="S86">
-        <v>1.9</v>
-      </c>
-      <c r="T86">
-        <v>2.25</v>
-      </c>
       <c r="U86">
+        <v>1.95</v>
+      </c>
+      <c r="V86">
         <v>1.85</v>
       </c>
-      <c r="V86">
-        <v>1.95</v>
-      </c>
       <c r="W86">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X86">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB86">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC86">
         <v>-1</v>
@@ -8312,7 +8312,7 @@
         <v>34</v>
       </c>
       <c r="G88" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H88">
         <v>2</v>
@@ -8398,7 +8398,7 @@
         <v>44997.45833333334</v>
       </c>
       <c r="F89" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G89" t="s">
         <v>30</v>
@@ -8579,7 +8579,7 @@
         <v>29</v>
       </c>
       <c r="G91" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8665,10 +8665,10 @@
         <v>45003.33333333334</v>
       </c>
       <c r="F92" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G92" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8932,7 +8932,7 @@
         <v>45004.33333333334</v>
       </c>
       <c r="F95" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G95" t="s">
         <v>45</v>
@@ -9024,7 +9024,7 @@
         <v>37</v>
       </c>
       <c r="G96" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -9555,10 +9555,10 @@
         <v>45017.36458333334</v>
       </c>
       <c r="F102" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G102" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -9825,7 +9825,7 @@
         <v>46</v>
       </c>
       <c r="G105" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -10003,7 +10003,7 @@
         <v>34</v>
       </c>
       <c r="G107" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -10445,10 +10445,10 @@
         <v>45023.47916666666</v>
       </c>
       <c r="F112" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G112" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H112">
         <v>2</v>
@@ -10522,7 +10522,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>5266474</v>
+        <v>5265463</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10534,76 +10534,76 @@
         <v>45024.29166666666</v>
       </c>
       <c r="F113" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G113" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H113">
+        <v>2</v>
+      </c>
+      <c r="I113">
         <v>0</v>
       </c>
-      <c r="I113">
-        <v>1</v>
-      </c>
       <c r="J113" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K113">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="L113">
+        <v>3.2</v>
+      </c>
+      <c r="M113">
         <v>3.5</v>
       </c>
-      <c r="M113">
-        <v>3.4</v>
-      </c>
       <c r="N113">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O113">
+        <v>3.25</v>
+      </c>
+      <c r="P113">
         <v>3.5</v>
-      </c>
-      <c r="P113">
-        <v>3.2</v>
       </c>
       <c r="Q113">
         <v>-0.25</v>
       </c>
       <c r="R113">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S113">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T113">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U113">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V113">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W113">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA113">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB113">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC113">
-        <v>0.825</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10611,7 +10611,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>5265463</v>
+        <v>5266474</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10623,76 +10623,76 @@
         <v>45024.29166666666</v>
       </c>
       <c r="F114" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G114" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K114">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="L114">
+        <v>3.5</v>
+      </c>
+      <c r="M114">
+        <v>3.4</v>
+      </c>
+      <c r="N114">
+        <v>2</v>
+      </c>
+      <c r="O114">
+        <v>3.5</v>
+      </c>
+      <c r="P114">
         <v>3.2</v>
-      </c>
-      <c r="M114">
-        <v>3.5</v>
-      </c>
-      <c r="N114">
-        <v>2.05</v>
-      </c>
-      <c r="O114">
-        <v>3.25</v>
-      </c>
-      <c r="P114">
-        <v>3.5</v>
       </c>
       <c r="Q114">
         <v>-0.25</v>
       </c>
       <c r="R114">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S114">
+        <v>2.05</v>
+      </c>
+      <c r="T114">
+        <v>2.75</v>
+      </c>
+      <c r="U114">
         <v>2.025</v>
       </c>
-      <c r="T114">
-        <v>2.25</v>
-      </c>
-      <c r="U114">
-        <v>1.85</v>
-      </c>
       <c r="V114">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W114">
+        <v>-1</v>
+      </c>
+      <c r="X114">
+        <v>-1</v>
+      </c>
+      <c r="Y114">
+        <v>2.2</v>
+      </c>
+      <c r="Z114">
+        <v>-1</v>
+      </c>
+      <c r="AA114">
         <v>1.05</v>
       </c>
-      <c r="X114">
-        <v>-1</v>
-      </c>
-      <c r="Y114">
-        <v>-1</v>
-      </c>
-      <c r="Z114">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AA114">
-        <v>-1</v>
-      </c>
       <c r="AB114">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC114">
-        <v>0.475</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10789,7 +10789,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>5265465</v>
+        <v>5265464</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10801,13 +10801,13 @@
         <v>45024.47916666666</v>
       </c>
       <c r="F116" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G116" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I116">
         <v>1</v>
@@ -10816,43 +10816,43 @@
         <v>55</v>
       </c>
       <c r="K116">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L116">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M116">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N116">
-        <v>2.55</v>
+        <v>1.666</v>
       </c>
       <c r="O116">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P116">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="Q116">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R116">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S116">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T116">
         <v>2.25</v>
       </c>
       <c r="U116">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V116">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W116">
-        <v>1.55</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X116">
         <v>-1</v>
@@ -10861,13 +10861,13 @@
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA116">
         <v>-1</v>
       </c>
       <c r="AB116">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC116">
         <v>-1</v>
@@ -10878,7 +10878,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>5263148</v>
+        <v>5265465</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10890,58 +10890,58 @@
         <v>45024.47916666666</v>
       </c>
       <c r="F117" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G117" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H117">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J117" t="s">
         <v>55</v>
       </c>
       <c r="K117">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="L117">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="M117">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="N117">
-        <v>1.666</v>
+        <v>2.55</v>
       </c>
       <c r="O117">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P117">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q117">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R117">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S117">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T117">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U117">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V117">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W117">
-        <v>0.6659999999999999</v>
+        <v>1.55</v>
       </c>
       <c r="X117">
         <v>-1</v>
@@ -10950,13 +10950,13 @@
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA117">
         <v>-1</v>
       </c>
       <c r="AB117">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC117">
         <v>-1</v>
@@ -10967,7 +10967,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>5265464</v>
+        <v>5263148</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10979,28 +10979,28 @@
         <v>45024.47916666666</v>
       </c>
       <c r="F118" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G118" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H118">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J118" t="s">
         <v>55</v>
       </c>
       <c r="K118">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="L118">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M118">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N118">
         <v>1.666</v>
@@ -11009,25 +11009,25 @@
         <v>3.6</v>
       </c>
       <c r="P118">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="Q118">
         <v>-0.75</v>
       </c>
       <c r="R118">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S118">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T118">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U118">
+        <v>1.85</v>
+      </c>
+      <c r="V118">
         <v>1.95</v>
-      </c>
-      <c r="V118">
-        <v>1.85</v>
       </c>
       <c r="W118">
         <v>0.6659999999999999</v>
@@ -11039,13 +11039,13 @@
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA118">
         <v>-1</v>
       </c>
       <c r="AB118">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC118">
         <v>-1</v>
@@ -11323,7 +11323,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>5265471</v>
+        <v>5265474</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11335,58 +11335,58 @@
         <v>45031.47916666666</v>
       </c>
       <c r="F122" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G122" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H122">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I122">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J122" t="s">
         <v>55</v>
       </c>
       <c r="K122">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="L122">
+        <v>3.2</v>
+      </c>
+      <c r="M122">
+        <v>3.3</v>
+      </c>
+      <c r="N122">
+        <v>2.1</v>
+      </c>
+      <c r="O122">
+        <v>3.2</v>
+      </c>
+      <c r="P122">
         <v>3.4</v>
       </c>
-      <c r="M122">
-        <v>4</v>
-      </c>
-      <c r="N122">
+      <c r="Q122">
+        <v>-0.25</v>
+      </c>
+      <c r="R122">
+        <v>1.9</v>
+      </c>
+      <c r="S122">
         <v>1.95</v>
       </c>
-      <c r="O122">
-        <v>3.5</v>
-      </c>
-      <c r="P122">
-        <v>3.5</v>
-      </c>
-      <c r="Q122">
-        <v>-0.5</v>
-      </c>
-      <c r="R122">
+      <c r="T122">
+        <v>2.25</v>
+      </c>
+      <c r="U122">
         <v>1.975</v>
-      </c>
-      <c r="S122">
-        <v>1.825</v>
-      </c>
-      <c r="T122">
-        <v>2.5</v>
-      </c>
-      <c r="U122">
-        <v>1.925</v>
       </c>
       <c r="V122">
         <v>1.875</v>
       </c>
       <c r="W122">
-        <v>0.95</v>
+        <v>1.1</v>
       </c>
       <c r="X122">
         <v>-1</v>
@@ -11395,16 +11395,16 @@
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA122">
         <v>-1</v>
       </c>
       <c r="AB122">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC122">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11412,7 +11412,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>5265474</v>
+        <v>5265471</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11424,58 +11424,58 @@
         <v>45031.47916666666</v>
       </c>
       <c r="F123" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G123" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J123" t="s">
         <v>55</v>
       </c>
       <c r="K123">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="L123">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M123">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="N123">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="O123">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P123">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q123">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R123">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S123">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T123">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U123">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V123">
         <v>1.875</v>
       </c>
       <c r="W123">
-        <v>1.1</v>
+        <v>0.95</v>
       </c>
       <c r="X123">
         <v>-1</v>
@@ -11484,16 +11484,16 @@
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA123">
         <v>-1</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC123">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11516,7 +11516,7 @@
         <v>38</v>
       </c>
       <c r="G124" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H124">
         <v>7</v>
@@ -11783,7 +11783,7 @@
         <v>41</v>
       </c>
       <c r="G127" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -12047,7 +12047,7 @@
         <v>45038.41666666666</v>
       </c>
       <c r="F130" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G130" t="s">
         <v>29</v>
@@ -12314,7 +12314,7 @@
         <v>45039.41666666666</v>
       </c>
       <c r="F133" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G133" t="s">
         <v>46</v>
@@ -12480,7 +12480,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>5263150</v>
+        <v>5265480</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12492,76 +12492,76 @@
         <v>45040.58333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G135" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J135" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K135">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="L135">
+        <v>3.1</v>
+      </c>
+      <c r="M135">
+        <v>2.25</v>
+      </c>
+      <c r="N135">
         <v>3.2</v>
       </c>
-      <c r="M135">
-        <v>3.3</v>
-      </c>
-      <c r="N135">
-        <v>1.85</v>
-      </c>
       <c r="O135">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P135">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q135">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R135">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S135">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T135">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U135">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V135">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W135">
         <v>-1</v>
       </c>
       <c r="X135">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z135">
         <v>-1</v>
       </c>
       <c r="AA135">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC135">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12569,7 +12569,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>5265480</v>
+        <v>5263150</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12581,76 +12581,76 @@
         <v>45040.58333333334</v>
       </c>
       <c r="F136" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G136" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K136">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="L136">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M136">
+        <v>3.3</v>
+      </c>
+      <c r="N136">
+        <v>1.85</v>
+      </c>
+      <c r="O136">
+        <v>3.25</v>
+      </c>
+      <c r="P136">
+        <v>3.75</v>
+      </c>
+      <c r="Q136">
+        <v>-0.5</v>
+      </c>
+      <c r="R136">
+        <v>1.95</v>
+      </c>
+      <c r="S136">
+        <v>1.9</v>
+      </c>
+      <c r="T136">
+        <v>2.75</v>
+      </c>
+      <c r="U136">
+        <v>1.9</v>
+      </c>
+      <c r="V136">
+        <v>1.95</v>
+      </c>
+      <c r="W136">
+        <v>-1</v>
+      </c>
+      <c r="X136">
         <v>2.25</v>
       </c>
-      <c r="N136">
-        <v>3.2</v>
-      </c>
-      <c r="O136">
-        <v>3</v>
-      </c>
-      <c r="P136">
-        <v>2.15</v>
-      </c>
-      <c r="Q136">
-        <v>0.25</v>
-      </c>
-      <c r="R136">
-        <v>1.825</v>
-      </c>
-      <c r="S136">
-        <v>1.975</v>
-      </c>
-      <c r="T136">
-        <v>2.25</v>
-      </c>
-      <c r="U136">
-        <v>1.775</v>
-      </c>
-      <c r="V136">
-        <v>2.025</v>
-      </c>
-      <c r="W136">
-        <v>-1</v>
-      </c>
-      <c r="X136">
-        <v>-1</v>
-      </c>
       <c r="Y136">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
         <v>-1</v>
       </c>
       <c r="AA136">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB136">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC136">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12673,7 +12673,7 @@
         <v>45</v>
       </c>
       <c r="G137" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H137">
         <v>1</v>
@@ -12747,7 +12747,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>5265483</v>
+        <v>5265486</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12759,76 +12759,76 @@
         <v>45045.29166666666</v>
       </c>
       <c r="F138" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G138" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I138">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K138">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="L138">
+        <v>3.1</v>
+      </c>
+      <c r="M138">
         <v>3.2</v>
       </c>
-      <c r="M138">
-        <v>2.375</v>
-      </c>
       <c r="N138">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="O138">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P138">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q138">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R138">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S138">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T138">
         <v>2.25</v>
       </c>
       <c r="U138">
+        <v>2.025</v>
+      </c>
+      <c r="V138">
         <v>1.775</v>
       </c>
-      <c r="V138">
-        <v>2.025</v>
-      </c>
       <c r="W138">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X138">
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA138">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB138">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC138">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12836,7 +12836,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>5265486</v>
+        <v>5265483</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12848,76 +12848,76 @@
         <v>45045.29166666666</v>
       </c>
       <c r="F139" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G139" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I139">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J139" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K139">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L139">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M139">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="N139">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="O139">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P139">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q139">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R139">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S139">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T139">
         <v>2.25</v>
       </c>
       <c r="U139">
+        <v>1.775</v>
+      </c>
+      <c r="V139">
         <v>2.025</v>
       </c>
-      <c r="V139">
-        <v>1.775</v>
-      </c>
       <c r="W139">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z139">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB139">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC139">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -13014,7 +13014,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>5265487</v>
+        <v>5266467</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13026,55 +13026,55 @@
         <v>45046.29166666666</v>
       </c>
       <c r="F141" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G141" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H141">
         <v>0</v>
       </c>
       <c r="I141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J141" t="s">
         <v>54</v>
       </c>
       <c r="K141">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="L141">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M141">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="N141">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="O141">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P141">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="Q141">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R141">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S141">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T141">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U141">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V141">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W141">
         <v>-1</v>
@@ -13083,19 +13083,19 @@
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="Z141">
         <v>-1</v>
       </c>
       <c r="AA141">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB141">
         <v>-1</v>
       </c>
       <c r="AC141">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13103,7 +13103,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>5266467</v>
+        <v>5265487</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13115,55 +13115,55 @@
         <v>45046.29166666666</v>
       </c>
       <c r="F142" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G142" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H142">
         <v>0</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J142" t="s">
         <v>54</v>
       </c>
       <c r="K142">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="L142">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M142">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="N142">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="O142">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P142">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Q142">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R142">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S142">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T142">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U142">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V142">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W142">
         <v>-1</v>
@@ -13172,19 +13172,19 @@
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="Z142">
         <v>-1</v>
       </c>
       <c r="AA142">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB142">
         <v>-1</v>
       </c>
       <c r="AC142">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13296,7 +13296,7 @@
         <v>39</v>
       </c>
       <c r="G144" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -13560,7 +13560,7 @@
         <v>45052.29166666666</v>
       </c>
       <c r="F147" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G147" t="s">
         <v>41</v>
@@ -13827,7 +13827,7 @@
         <v>45052.58333333334</v>
       </c>
       <c r="F150" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G150" t="s">
         <v>38</v>
@@ -13904,7 +13904,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>5422914</v>
+        <v>5422910</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13916,76 +13916,76 @@
         <v>45053.29166666666</v>
       </c>
       <c r="F151" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G151" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I151">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J151" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K151">
+        <v>2</v>
+      </c>
+      <c r="L151">
+        <v>3.5</v>
+      </c>
+      <c r="M151">
+        <v>3.25</v>
+      </c>
+      <c r="N151">
+        <v>1.909</v>
+      </c>
+      <c r="O151">
+        <v>3.6</v>
+      </c>
+      <c r="P151">
+        <v>3.5</v>
+      </c>
+      <c r="Q151">
+        <v>-0.5</v>
+      </c>
+      <c r="R151">
+        <v>1.925</v>
+      </c>
+      <c r="S151">
+        <v>1.875</v>
+      </c>
+      <c r="T151">
+        <v>2.75</v>
+      </c>
+      <c r="U151">
         <v>1.8</v>
       </c>
-      <c r="L151">
-        <v>3.4</v>
-      </c>
-      <c r="M151">
-        <v>4</v>
-      </c>
-      <c r="N151">
-        <v>2.1</v>
-      </c>
-      <c r="O151">
-        <v>3.1</v>
-      </c>
-      <c r="P151">
-        <v>3.1</v>
-      </c>
-      <c r="Q151">
-        <v>-0.25</v>
-      </c>
-      <c r="R151">
-        <v>1.9</v>
-      </c>
-      <c r="S151">
-        <v>1.9</v>
-      </c>
-      <c r="T151">
-        <v>2.25</v>
-      </c>
-      <c r="U151">
-        <v>1.9</v>
-      </c>
       <c r="V151">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W151">
         <v>-1</v>
       </c>
       <c r="X151">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y151">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z151">
+        <v>-1</v>
+      </c>
+      <c r="AA151">
+        <v>0.875</v>
+      </c>
+      <c r="AB151">
+        <v>0.4</v>
+      </c>
+      <c r="AC151">
         <v>-0.5</v>
-      </c>
-      <c r="AA151">
-        <v>0.45</v>
-      </c>
-      <c r="AB151">
-        <v>-1</v>
-      </c>
-      <c r="AC151">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13993,7 +13993,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>5422910</v>
+        <v>5422914</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -14005,76 +14005,76 @@
         <v>45053.29166666666</v>
       </c>
       <c r="F152" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G152" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J152" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K152">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L152">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M152">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="N152">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="O152">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P152">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q152">
+        <v>-0.25</v>
+      </c>
+      <c r="R152">
+        <v>1.9</v>
+      </c>
+      <c r="S152">
+        <v>1.9</v>
+      </c>
+      <c r="T152">
+        <v>2.25</v>
+      </c>
+      <c r="U152">
+        <v>1.9</v>
+      </c>
+      <c r="V152">
+        <v>1.9</v>
+      </c>
+      <c r="W152">
+        <v>-1</v>
+      </c>
+      <c r="X152">
+        <v>2.1</v>
+      </c>
+      <c r="Y152">
+        <v>-1</v>
+      </c>
+      <c r="Z152">
         <v>-0.5</v>
       </c>
-      <c r="R152">
-        <v>1.925</v>
-      </c>
-      <c r="S152">
-        <v>1.875</v>
-      </c>
-      <c r="T152">
-        <v>2.75</v>
-      </c>
-      <c r="U152">
-        <v>1.8</v>
-      </c>
-      <c r="V152">
-        <v>2</v>
-      </c>
-      <c r="W152">
-        <v>-1</v>
-      </c>
-      <c r="X152">
-        <v>-1</v>
-      </c>
-      <c r="Y152">
-        <v>2.5</v>
-      </c>
-      <c r="Z152">
-        <v>-1</v>
-      </c>
       <c r="AA152">
-        <v>0.875</v>
+        <v>0.45</v>
       </c>
       <c r="AB152">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC152">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14275,7 +14275,7 @@
         <v>40</v>
       </c>
       <c r="G155" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -14364,7 +14364,7 @@
         <v>46</v>
       </c>
       <c r="G156" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H156">
         <v>2</v>
@@ -14453,7 +14453,7 @@
         <v>42</v>
       </c>
       <c r="G157" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H157">
         <v>1</v>
@@ -14987,7 +14987,7 @@
         <v>45</v>
       </c>
       <c r="G163" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H163">
         <v>3</v>
@@ -15061,7 +15061,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>5484709</v>
+        <v>5499375</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15073,76 +15073,76 @@
         <v>45065.58333333334</v>
       </c>
       <c r="F164" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G164" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H164">
+        <v>2</v>
+      </c>
+      <c r="I164">
         <v>0</v>
       </c>
-      <c r="I164">
-        <v>1</v>
-      </c>
       <c r="J164" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K164">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="L164">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M164">
-        <v>1.833</v>
+        <v>2.75</v>
       </c>
       <c r="N164">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="O164">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P164">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="Q164">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R164">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S164">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="T164">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U164">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V164">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W164">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X164">
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z164">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA164">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB164">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC164">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15150,7 +15150,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>5499375</v>
+        <v>5484709</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15162,76 +15162,76 @@
         <v>45065.58333333334</v>
       </c>
       <c r="F165" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G165" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K165">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="L165">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M165">
+        <v>1.833</v>
+      </c>
+      <c r="N165">
+        <v>4.2</v>
+      </c>
+      <c r="O165">
+        <v>3.6</v>
+      </c>
+      <c r="P165">
+        <v>1.727</v>
+      </c>
+      <c r="Q165">
+        <v>0.5</v>
+      </c>
+      <c r="R165">
+        <v>2.1</v>
+      </c>
+      <c r="S165">
+        <v>1.775</v>
+      </c>
+      <c r="T165">
         <v>2.75</v>
       </c>
-      <c r="N165">
-        <v>2.3</v>
-      </c>
-      <c r="O165">
-        <v>3</v>
-      </c>
-      <c r="P165">
-        <v>2.875</v>
-      </c>
-      <c r="Q165">
-        <v>-0.25</v>
-      </c>
-      <c r="R165">
-        <v>2.05</v>
-      </c>
-      <c r="S165">
-        <v>1.75</v>
-      </c>
-      <c r="T165">
-        <v>2.25</v>
-      </c>
       <c r="U165">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V165">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W165">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X165">
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z165">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA165">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB165">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC165">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15518,7 +15518,7 @@
         <v>45067.29166666666</v>
       </c>
       <c r="F169" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G169" t="s">
         <v>43</v>
@@ -15607,7 +15607,7 @@
         <v>45067.41666666666</v>
       </c>
       <c r="F170" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G170" t="s">
         <v>38</v>
@@ -15696,7 +15696,7 @@
         <v>45067.47916666666</v>
       </c>
       <c r="F171" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G171" t="s">
         <v>39</v>
@@ -15966,7 +15966,7 @@
         <v>42</v>
       </c>
       <c r="G174" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H174">
         <v>4</v>
@@ -16055,7 +16055,7 @@
         <v>39</v>
       </c>
       <c r="G175" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H175">
         <v>2</v>
@@ -16144,7 +16144,7 @@
         <v>44</v>
       </c>
       <c r="G176" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H176">
         <v>3</v>
@@ -16307,7 +16307,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>5537439</v>
+        <v>5544758</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16319,73 +16319,73 @@
         <v>45074.47916666666</v>
       </c>
       <c r="F178" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G178" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H178">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I178">
         <v>2</v>
       </c>
       <c r="J178" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K178">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="L178">
         <v>3.4</v>
       </c>
       <c r="M178">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N178">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="O178">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P178">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="Q178">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R178">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S178">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T178">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U178">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V178">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W178">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X178">
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z178">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA178">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB178">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC178">
         <v>-1</v>
@@ -16396,7 +16396,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>5534133</v>
+        <v>5537439</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16408,76 +16408,76 @@
         <v>45074.47916666666</v>
       </c>
       <c r="F179" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G179" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K179">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L179">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M179">
+        <v>3.4</v>
+      </c>
+      <c r="N179">
+        <v>1.65</v>
+      </c>
+      <c r="O179">
+        <v>4</v>
+      </c>
+      <c r="P179">
+        <v>4.333</v>
+      </c>
+      <c r="Q179">
+        <v>-1.25</v>
+      </c>
+      <c r="R179">
+        <v>1.9</v>
+      </c>
+      <c r="S179">
+        <v>1.9</v>
+      </c>
+      <c r="T179">
         <v>3</v>
       </c>
-      <c r="N179">
-        <v>3.5</v>
-      </c>
-      <c r="O179">
-        <v>3.4</v>
-      </c>
-      <c r="P179">
-        <v>1.909</v>
-      </c>
-      <c r="Q179">
-        <v>0.5</v>
-      </c>
-      <c r="R179">
-        <v>1.8</v>
-      </c>
-      <c r="S179">
-        <v>2</v>
-      </c>
-      <c r="T179">
-        <v>2.25</v>
-      </c>
       <c r="U179">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V179">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W179">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X179">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA179">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB179">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC179">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16485,7 +16485,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>5544758</v>
+        <v>5534133</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16497,76 +16497,76 @@
         <v>45074.47916666666</v>
       </c>
       <c r="F180" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G180" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H180">
         <v>1</v>
       </c>
       <c r="I180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K180">
+        <v>2.2</v>
+      </c>
+      <c r="L180">
+        <v>3.25</v>
+      </c>
+      <c r="M180">
+        <v>3</v>
+      </c>
+      <c r="N180">
+        <v>3.5</v>
+      </c>
+      <c r="O180">
+        <v>3.4</v>
+      </c>
+      <c r="P180">
         <v>1.909</v>
       </c>
-      <c r="L180">
-        <v>3.4</v>
-      </c>
-      <c r="M180">
-        <v>3.6</v>
-      </c>
-      <c r="N180">
-        <v>1.7</v>
-      </c>
-      <c r="O180">
-        <v>3.6</v>
-      </c>
-      <c r="P180">
-        <v>4.5</v>
-      </c>
       <c r="Q180">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R180">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S180">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T180">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U180">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V180">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W180">
         <v>-1</v>
       </c>
       <c r="X180">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y180">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z180">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA180">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB180">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC180">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -17209,10 +17209,10 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F188" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G188" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H188">
         <v>3</v>
@@ -17390,7 +17390,7 @@
         <v>49</v>
       </c>
       <c r="G190" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H190">
         <v>2</v>
@@ -17565,7 +17565,7 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F192" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G192" t="s">
         <v>47</v>
@@ -17657,7 +17657,7 @@
         <v>51</v>
       </c>
       <c r="G193" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H193">
         <v>3</v>
@@ -18099,7 +18099,7 @@
         <v>45159.61458333334</v>
       </c>
       <c r="F198" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G198" t="s">
         <v>43</v>
@@ -18458,7 +18458,7 @@
         <v>53</v>
       </c>
       <c r="G202" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H202">
         <v>1</v>
@@ -18811,7 +18811,7 @@
         <v>45165.47916666666</v>
       </c>
       <c r="F206" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G206" t="s">
         <v>50</v>
@@ -18903,7 +18903,7 @@
         <v>48</v>
       </c>
       <c r="G207" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H207">
         <v>0</v>
@@ -19167,7 +19167,7 @@
         <v>45171.29166666666</v>
       </c>
       <c r="F210" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G210" t="s">
         <v>44</v>
@@ -19612,7 +19612,7 @@
         <v>45172.29166666666</v>
       </c>
       <c r="F215" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G215" t="s">
         <v>45</v>
@@ -19704,7 +19704,7 @@
         <v>29</v>
       </c>
       <c r="G216" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H216">
         <v>1</v>
@@ -19956,7 +19956,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6899293</v>
+        <v>6899208</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19968,76 +19968,76 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F219" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G219" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J219" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K219">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="L219">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M219">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="N219">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="O219">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P219">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q219">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R219">
         <v>2.05</v>
       </c>
       <c r="S219">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T219">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U219">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V219">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W219">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X219">
         <v>-1</v>
       </c>
       <c r="Y219">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z219">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA219">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB219">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC219">
-        <v>0.8500000000000001</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20045,7 +20045,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6899208</v>
+        <v>6899293</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20057,76 +20057,76 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F220" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G220" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H220">
+        <v>2</v>
+      </c>
+      <c r="I220">
         <v>0</v>
       </c>
-      <c r="I220">
-        <v>2</v>
-      </c>
       <c r="J220" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K220">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="L220">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M220">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="N220">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="O220">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P220">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="Q220">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R220">
         <v>2.05</v>
       </c>
       <c r="S220">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T220">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U220">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V220">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W220">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X220">
         <v>-1</v>
       </c>
       <c r="Y220">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z220">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA220">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB220">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC220">
-        <v>0.5125</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20327,7 +20327,7 @@
         <v>37</v>
       </c>
       <c r="G223" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H223">
         <v>2</v>
@@ -20591,10 +20591,10 @@
         <v>45186.58333333334</v>
       </c>
       <c r="F226" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G226" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H226">
         <v>0</v>
@@ -20683,7 +20683,7 @@
         <v>52</v>
       </c>
       <c r="G227" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H227">
         <v>1</v>
@@ -20861,7 +20861,7 @@
         <v>50</v>
       </c>
       <c r="G229" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H229">
         <v>1</v>
@@ -21392,7 +21392,7 @@
         <v>45201.67708333334</v>
       </c>
       <c r="F235" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G235" t="s">
         <v>53</v>
@@ -21837,7 +21837,7 @@
         <v>45207.29166666666</v>
       </c>
       <c r="F240" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G240" t="s">
         <v>51</v>
@@ -21929,7 +21929,7 @@
         <v>44</v>
       </c>
       <c r="G241" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H241">
         <v>2</v>
@@ -22104,7 +22104,7 @@
         <v>45207.58333333334</v>
       </c>
       <c r="F243" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G243" t="s">
         <v>42</v>
@@ -22285,7 +22285,7 @@
         <v>39</v>
       </c>
       <c r="G245" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H245">
         <v>1</v>
@@ -22371,7 +22371,7 @@
         <v>45227.29166666666</v>
       </c>
       <c r="F246" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G246" t="s">
         <v>47</v>
@@ -22819,7 +22819,7 @@
         <v>49</v>
       </c>
       <c r="G251" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H251">
         <v>1</v>
@@ -23083,7 +23083,7 @@
         <v>45234.33333333334</v>
       </c>
       <c r="F254" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G254" t="s">
         <v>29</v>
@@ -23338,7 +23338,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>6893125</v>
+        <v>6893124</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -23350,76 +23350,76 @@
         <v>45234.625</v>
       </c>
       <c r="F257" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G257" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H257">
         <v>1</v>
       </c>
       <c r="I257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J257" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K257">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="L257">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M257">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="N257">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="O257">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P257">
+        <v>2.9</v>
+      </c>
+      <c r="Q257">
+        <v>-0.25</v>
+      </c>
+      <c r="R257">
+        <v>1.95</v>
+      </c>
+      <c r="S257">
+        <v>1.85</v>
+      </c>
+      <c r="T257">
         <v>2.5</v>
       </c>
-      <c r="Q257">
-        <v>0</v>
-      </c>
-      <c r="R257">
+      <c r="U257">
         <v>1.9</v>
       </c>
-      <c r="S257">
+      <c r="V257">
         <v>1.9</v>
       </c>
-      <c r="T257">
-        <v>2.25</v>
-      </c>
-      <c r="U257">
-        <v>1.875</v>
-      </c>
-      <c r="V257">
-        <v>1.925</v>
-      </c>
       <c r="W257">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X257">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y257">
         <v>-1</v>
       </c>
       <c r="Z257">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA257">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB257">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC257">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="258" spans="1:29">
@@ -23427,7 +23427,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>6893124</v>
+        <v>6893125</v>
       </c>
       <c r="C258" t="s">
         <v>28</v>
@@ -23439,76 +23439,76 @@
         <v>45234.625</v>
       </c>
       <c r="F258" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G258" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H258">
         <v>1</v>
       </c>
       <c r="I258">
+        <v>1</v>
+      </c>
+      <c r="J258" t="s">
+        <v>56</v>
+      </c>
+      <c r="K258">
+        <v>2.8</v>
+      </c>
+      <c r="L258">
+        <v>3.1</v>
+      </c>
+      <c r="M258">
+        <v>2.3</v>
+      </c>
+      <c r="N258">
+        <v>2.6</v>
+      </c>
+      <c r="O258">
+        <v>3</v>
+      </c>
+      <c r="P258">
+        <v>2.5</v>
+      </c>
+      <c r="Q258">
         <v>0</v>
       </c>
-      <c r="J258" t="s">
-        <v>55</v>
-      </c>
-      <c r="K258">
-        <v>2.05</v>
-      </c>
-      <c r="L258">
-        <v>3.3</v>
-      </c>
-      <c r="M258">
-        <v>3</v>
-      </c>
-      <c r="N258">
-        <v>2.15</v>
-      </c>
-      <c r="O258">
-        <v>3.25</v>
-      </c>
-      <c r="P258">
-        <v>2.9</v>
-      </c>
-      <c r="Q258">
-        <v>-0.25</v>
-      </c>
       <c r="R258">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S258">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T258">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U258">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V258">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W258">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X258">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y258">
         <v>-1</v>
       </c>
       <c r="Z258">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA258">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB258">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC258">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="259" spans="1:29">
@@ -23709,7 +23709,7 @@
         <v>37</v>
       </c>
       <c r="G261" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H261">
         <v>1</v>
@@ -24329,10 +24329,10 @@
         <v>45242.33333333334</v>
       </c>
       <c r="F268" t="s">
+        <v>33</v>
+      </c>
+      <c r="G268" t="s">
         <v>32</v>
-      </c>
-      <c r="G268" t="s">
-        <v>33</v>
       </c>
       <c r="H268">
         <v>0</v>
@@ -24599,7 +24599,7 @@
         <v>30</v>
       </c>
       <c r="G271" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H271">
         <v>1</v>
@@ -24685,7 +24685,7 @@
         <v>45248.33333333334</v>
       </c>
       <c r="F272" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G272" t="s">
         <v>52</v>
@@ -25222,7 +25222,7 @@
         <v>50</v>
       </c>
       <c r="G278" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H278">
         <v>1</v>
@@ -25397,7 +25397,7 @@
         <v>45255.625</v>
       </c>
       <c r="F280" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G280" t="s">
         <v>45</v>
@@ -25845,7 +25845,7 @@
         <v>48</v>
       </c>
       <c r="G285" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H285">
         <v>1</v>
@@ -25931,7 +25931,7 @@
         <v>45263.33333333334</v>
       </c>
       <c r="F286" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G286" t="s">
         <v>29</v>
@@ -26201,7 +26201,7 @@
         <v>42</v>
       </c>
       <c r="G289" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H289">
         <v>3</v>
@@ -26290,7 +26290,7 @@
         <v>51</v>
       </c>
       <c r="G290" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H290">
         <v>1</v>
@@ -26364,7 +26364,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>7559095</v>
+        <v>6893133</v>
       </c>
       <c r="C291" t="s">
         <v>28</v>
@@ -26376,73 +26376,73 @@
         <v>45269.33333333334</v>
       </c>
       <c r="F291" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G291" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H291">
         <v>2</v>
       </c>
       <c r="I291">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J291" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K291">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="L291">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M291">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="N291">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O291">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P291">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="Q291">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R291">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S291">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T291">
         <v>2.25</v>
       </c>
       <c r="U291">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="V291">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W291">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X291">
         <v>-1</v>
       </c>
       <c r="Y291">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z291">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA291">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB291">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AC291">
         <v>-1</v>
@@ -26453,7 +26453,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>6893133</v>
+        <v>7559095</v>
       </c>
       <c r="C292" t="s">
         <v>28</v>
@@ -26465,73 +26465,73 @@
         <v>45269.33333333334</v>
       </c>
       <c r="F292" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G292" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H292">
         <v>2</v>
       </c>
       <c r="I292">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J292" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K292">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="L292">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M292">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="N292">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="O292">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P292">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="Q292">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R292">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S292">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T292">
         <v>2.25</v>
       </c>
       <c r="U292">
+        <v>1.775</v>
+      </c>
+      <c r="V292">
         <v>2.025</v>
       </c>
-      <c r="V292">
-        <v>1.825</v>
-      </c>
       <c r="W292">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X292">
         <v>-1</v>
       </c>
       <c r="Y292">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z292">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA292">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB292">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC292">
         <v>-1</v>
@@ -26732,7 +26732,7 @@
         <v>45269.625</v>
       </c>
       <c r="F295" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G295" t="s">
         <v>43</v>
@@ -26821,7 +26821,7 @@
         <v>45270.33333333334</v>
       </c>
       <c r="F296" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G296" t="s">
         <v>30</v>
@@ -27091,7 +27091,7 @@
         <v>30</v>
       </c>
       <c r="G299" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H299">
         <v>0</v>
@@ -27711,7 +27711,7 @@
         <v>45277.52083333334</v>
       </c>
       <c r="F306" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G306" t="s">
         <v>37</v>
@@ -27803,7 +27803,7 @@
         <v>45</v>
       </c>
       <c r="G307" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H307">
         <v>1</v>
@@ -27889,7 +27889,7 @@
         <v>45281.625</v>
       </c>
       <c r="F308" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G308" t="s">
         <v>52</v>
@@ -28233,7 +28233,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>6893140</v>
+        <v>6893139</v>
       </c>
       <c r="C312" t="s">
         <v>28</v>
@@ -28245,55 +28245,55 @@
         <v>45290.33333333334</v>
       </c>
       <c r="F312" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G312" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I312">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J312" t="s">
         <v>54</v>
       </c>
       <c r="K312">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="L312">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M312">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="N312">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="O312">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P312">
-        <v>3.25</v>
+        <v>2.45</v>
       </c>
       <c r="Q312">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R312">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S312">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T312">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U312">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V312">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W312">
         <v>-1</v>
@@ -28302,16 +28302,16 @@
         <v>-1</v>
       </c>
       <c r="Y312">
-        <v>2.25</v>
+        <v>1.45</v>
       </c>
       <c r="Z312">
         <v>-1</v>
       </c>
       <c r="AA312">
-        <v>1.025</v>
+        <v>0.75</v>
       </c>
       <c r="AB312">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC312">
         <v>-1</v>
@@ -28322,7 +28322,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>6893139</v>
+        <v>6893140</v>
       </c>
       <c r="C313" t="s">
         <v>28</v>
@@ -28334,55 +28334,55 @@
         <v>45290.33333333334</v>
       </c>
       <c r="F313" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G313" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H313">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I313">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J313" t="s">
         <v>54</v>
       </c>
       <c r="K313">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="L313">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M313">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="N313">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="O313">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P313">
-        <v>2.45</v>
+        <v>3.25</v>
       </c>
       <c r="Q313">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R313">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S313">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T313">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U313">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V313">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W313">
         <v>-1</v>
@@ -28391,16 +28391,16 @@
         <v>-1</v>
       </c>
       <c r="Y313">
-        <v>1.45</v>
+        <v>2.25</v>
       </c>
       <c r="Z313">
         <v>-1</v>
       </c>
       <c r="AA313">
-        <v>0.75</v>
+        <v>1.025</v>
       </c>
       <c r="AB313">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC313">
         <v>-1</v>
@@ -28411,7 +28411,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>6893587</v>
+        <v>6893141</v>
       </c>
       <c r="C314" t="s">
         <v>28</v>
@@ -28423,76 +28423,76 @@
         <v>45290.45833333334</v>
       </c>
       <c r="F314" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G314" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H314">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I314">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J314" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K314">
-        <v>1.65</v>
+        <v>1.909</v>
       </c>
       <c r="L314">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M314">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N314">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="O314">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P314">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q314">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R314">
+        <v>1.825</v>
+      </c>
+      <c r="S314">
+        <v>2.025</v>
+      </c>
+      <c r="T314">
+        <v>2.25</v>
+      </c>
+      <c r="U314">
+        <v>1.975</v>
+      </c>
+      <c r="V314">
         <v>1.875</v>
       </c>
-      <c r="S314">
-        <v>1.925</v>
-      </c>
-      <c r="T314">
-        <v>2.5</v>
-      </c>
-      <c r="U314">
-        <v>1.85</v>
-      </c>
-      <c r="V314">
-        <v>1.95</v>
-      </c>
       <c r="W314">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X314">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y314">
         <v>-1</v>
       </c>
       <c r="Z314">
-        <v>0.4375</v>
+        <v>-0.5</v>
       </c>
       <c r="AA314">
-        <v>-0.5</v>
+        <v>0.5125</v>
       </c>
       <c r="AB314">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC314">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="315" spans="1:29">
@@ -28500,7 +28500,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>6893141</v>
+        <v>6893587</v>
       </c>
       <c r="C315" t="s">
         <v>28</v>
@@ -28512,76 +28512,76 @@
         <v>45290.45833333334</v>
       </c>
       <c r="F315" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G315" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I315">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J315" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K315">
-        <v>1.909</v>
+        <v>1.65</v>
       </c>
       <c r="L315">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M315">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N315">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="O315">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P315">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q315">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R315">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S315">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T315">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U315">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V315">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W315">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X315">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y315">
         <v>-1</v>
       </c>
       <c r="Z315">
+        <v>0.4375</v>
+      </c>
+      <c r="AA315">
         <v>-0.5</v>
       </c>
-      <c r="AA315">
-        <v>0.5125</v>
-      </c>
       <c r="AB315">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC315">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="316" spans="1:29">
@@ -28690,7 +28690,7 @@
         <v>45291.33333333334</v>
       </c>
       <c r="F317" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G317" t="s">
         <v>48</v>
@@ -28945,7 +28945,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>6893589</v>
+        <v>6893143</v>
       </c>
       <c r="C320" t="s">
         <v>28</v>
@@ -28957,76 +28957,76 @@
         <v>45297.52083333334</v>
       </c>
       <c r="F320" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G320" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320">
         <v>1</v>
       </c>
       <c r="J320" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K320">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="L320">
         <v>3.5</v>
       </c>
       <c r="M320">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="N320">
-        <v>1.571</v>
+        <v>1.6</v>
       </c>
       <c r="O320">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P320">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q320">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R320">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S320">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T320">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U320">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V320">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W320">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X320">
         <v>-1</v>
       </c>
       <c r="Y320">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z320">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA320">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB320">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC320">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="321" spans="1:29">
@@ -29034,7 +29034,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>6893143</v>
+        <v>6893589</v>
       </c>
       <c r="C321" t="s">
         <v>28</v>
@@ -29046,76 +29046,76 @@
         <v>45297.52083333334</v>
       </c>
       <c r="F321" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G321" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321">
         <v>1</v>
       </c>
       <c r="J321" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K321">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L321">
         <v>3.5</v>
       </c>
       <c r="M321">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="N321">
-        <v>1.6</v>
+        <v>1.571</v>
       </c>
       <c r="O321">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P321">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q321">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R321">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S321">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T321">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U321">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V321">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W321">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X321">
         <v>-1</v>
       </c>
       <c r="Y321">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z321">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA321">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB321">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC321">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="322" spans="1:29">
@@ -29123,7 +29123,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>6899181</v>
+        <v>6893145</v>
       </c>
       <c r="C322" t="s">
         <v>28</v>
@@ -29135,76 +29135,76 @@
         <v>45297.625</v>
       </c>
       <c r="F322" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G322" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H322">
         <v>1</v>
       </c>
       <c r="I322">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J322" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K322">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="L322">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M322">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="N322">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O322">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P322">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q322">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R322">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S322">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T322">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U322">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V322">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W322">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X322">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y322">
         <v>-1</v>
       </c>
       <c r="Z322">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA322">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB322">
         <v>-1</v>
       </c>
       <c r="AC322">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="323" spans="1:29">
@@ -29212,7 +29212,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>6893145</v>
+        <v>6899181</v>
       </c>
       <c r="C323" t="s">
         <v>28</v>
@@ -29224,76 +29224,76 @@
         <v>45297.625</v>
       </c>
       <c r="F323" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G323" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="H323">
         <v>1</v>
       </c>
       <c r="I323">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J323" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K323">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="L323">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M323">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N323">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O323">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P323">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q323">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R323">
+        <v>2.025</v>
+      </c>
+      <c r="S323">
+        <v>1.775</v>
+      </c>
+      <c r="T323">
+        <v>2.25</v>
+      </c>
+      <c r="U323">
+        <v>1.975</v>
+      </c>
+      <c r="V323">
         <v>1.825</v>
       </c>
-      <c r="S323">
-        <v>1.975</v>
-      </c>
-      <c r="T323">
-        <v>2.5</v>
-      </c>
-      <c r="U323">
-        <v>1.875</v>
-      </c>
-      <c r="V323">
-        <v>1.925</v>
-      </c>
       <c r="W323">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X323">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y323">
         <v>-1</v>
       </c>
       <c r="Z323">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA323">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB323">
         <v>-1</v>
       </c>
       <c r="AC323">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="324" spans="1:29">
@@ -29494,7 +29494,7 @@
         <v>42</v>
       </c>
       <c r="G326" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H326">
         <v>3</v>
@@ -29924,7 +29924,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>6899180</v>
+        <v>6893591</v>
       </c>
       <c r="C331" t="s">
         <v>28</v>
@@ -29936,76 +29936,76 @@
         <v>45305.52083333334</v>
       </c>
       <c r="F331" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G331" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H331">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I331">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J331" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K331">
-        <v>1.833</v>
+        <v>1.75</v>
       </c>
       <c r="L331">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M331">
         <v>4.333</v>
       </c>
       <c r="N331">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="O331">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P331">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q331">
         <v>-0.5</v>
       </c>
       <c r="R331">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S331">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T331">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U331">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V331">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="W331">
         <v>-1</v>
       </c>
       <c r="X331">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y331">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z331">
         <v>-1</v>
       </c>
       <c r="AA331">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB331">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AC331">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="332" spans="1:29">
@@ -30013,7 +30013,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>6893591</v>
+        <v>6899180</v>
       </c>
       <c r="C332" t="s">
         <v>28</v>
@@ -30025,76 +30025,76 @@
         <v>45305.52083333334</v>
       </c>
       <c r="F332" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G332" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I332">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J332" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K332">
-        <v>1.75</v>
+        <v>1.833</v>
       </c>
       <c r="L332">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M332">
         <v>4.333</v>
       </c>
       <c r="N332">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="O332">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P332">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q332">
         <v>-0.5</v>
       </c>
       <c r="R332">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S332">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T332">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U332">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V332">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="W332">
         <v>-1</v>
       </c>
       <c r="X332">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y332">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z332">
         <v>-1</v>
       </c>
       <c r="AA332">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB332">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AC332">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="333" spans="1:29">
@@ -30203,7 +30203,7 @@
         <v>45306.65625</v>
       </c>
       <c r="F334" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G334" t="s">
         <v>43</v>
@@ -30292,7 +30292,7 @@
         <v>45306.73958333334</v>
       </c>
       <c r="F335" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G335" t="s">
         <v>39</v>
@@ -30470,10 +30470,10 @@
         <v>45311.33333333334</v>
       </c>
       <c r="F337" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G337" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H337">
         <v>1</v>
@@ -30915,7 +30915,7 @@
         <v>45312.52083333334</v>
       </c>
       <c r="F342" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G342" t="s">
         <v>49</v>
@@ -31185,7 +31185,7 @@
         <v>47</v>
       </c>
       <c r="G345" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H345">
         <v>0</v>
@@ -31452,7 +31452,7 @@
         <v>43</v>
       </c>
       <c r="G348" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H348">
         <v>2</v>
@@ -31627,7 +31627,7 @@
         <v>45320.54166666666</v>
       </c>
       <c r="F350" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G350" t="s">
         <v>51</v>
@@ -31983,7 +31983,7 @@
         <v>45324.73958333334</v>
       </c>
       <c r="F354" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G354" t="s">
         <v>53</v>
@@ -32161,7 +32161,7 @@
         <v>45325.45833333334</v>
       </c>
       <c r="F356" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G356" t="s">
         <v>48</v>
@@ -32342,7 +32342,7 @@
         <v>50</v>
       </c>
       <c r="G358" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H358">
         <v>3</v>
@@ -32520,7 +32520,7 @@
         <v>45</v>
       </c>
       <c r="G360" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H360">
         <v>1</v>
@@ -32784,7 +32784,7 @@
         <v>45332.52083333334</v>
       </c>
       <c r="F363" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G363" t="s">
         <v>29</v>
@@ -33054,7 +33054,7 @@
         <v>44</v>
       </c>
       <c r="G366" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H366">
         <v>1</v>
@@ -33407,7 +33407,7 @@
         <v>45339.33333333334</v>
       </c>
       <c r="F370" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G370" t="s">
         <v>37</v>
@@ -33496,10 +33496,10 @@
         <v>45339.45833333334</v>
       </c>
       <c r="F371" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G371" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H371">
         <v>3</v>
@@ -34035,6 +34035,15 @@
       <c r="G377" t="s">
         <v>48</v>
       </c>
+      <c r="H377">
+        <v>2</v>
+      </c>
+      <c r="I377">
+        <v>3</v>
+      </c>
+      <c r="J377" t="s">
+        <v>54</v>
+      </c>
       <c r="K377">
         <v>4</v>
       </c>
@@ -34045,45 +34054,569 @@
         <v>1.8</v>
       </c>
       <c r="N377">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="O377">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P377">
-        <v>1.727</v>
+        <v>1.666</v>
       </c>
       <c r="Q377">
         <v>0.75</v>
       </c>
       <c r="R377">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S377">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T377">
         <v>2.5</v>
       </c>
       <c r="U377">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V377">
         <v>1.825</v>
       </c>
       <c r="W377">
+        <v>-1</v>
+      </c>
+      <c r="X377">
+        <v>-1</v>
+      </c>
+      <c r="Y377">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="Z377">
+        <v>-0.5</v>
+      </c>
+      <c r="AA377">
+        <v>0.4875</v>
+      </c>
+      <c r="AB377">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC377">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:29">
+      <c r="A378" s="1">
+        <v>376</v>
+      </c>
+      <c r="B378">
+        <v>7833920</v>
+      </c>
+      <c r="C378" t="s">
+        <v>28</v>
+      </c>
+      <c r="D378" t="s">
+        <v>28</v>
+      </c>
+      <c r="E378" s="2">
+        <v>45343.625</v>
+      </c>
+      <c r="F378" t="s">
+        <v>42</v>
+      </c>
+      <c r="G378" t="s">
+        <v>30</v>
+      </c>
+      <c r="K378">
+        <v>2.7</v>
+      </c>
+      <c r="L378">
+        <v>3.1</v>
+      </c>
+      <c r="M378">
+        <v>2.35</v>
+      </c>
+      <c r="N378">
+        <v>2.5</v>
+      </c>
+      <c r="O378">
+        <v>3.2</v>
+      </c>
+      <c r="P378">
+        <v>2.6</v>
+      </c>
+      <c r="Q378">
         <v>0</v>
       </c>
-      <c r="X377">
+      <c r="R378">
+        <v>1.875</v>
+      </c>
+      <c r="S378">
+        <v>1.975</v>
+      </c>
+      <c r="T378">
+        <v>2.25</v>
+      </c>
+      <c r="U378">
+        <v>1.925</v>
+      </c>
+      <c r="V378">
+        <v>1.925</v>
+      </c>
+      <c r="W378">
         <v>0</v>
       </c>
-      <c r="Y377">
+      <c r="X378">
         <v>0</v>
       </c>
-      <c r="Z377">
+      <c r="Y378">
         <v>0</v>
       </c>
-      <c r="AA377">
+      <c r="Z378">
+        <v>0</v>
+      </c>
+      <c r="AA378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:29">
+      <c r="A379" s="1">
+        <v>377</v>
+      </c>
+      <c r="B379">
+        <v>6899169</v>
+      </c>
+      <c r="C379" t="s">
+        <v>28</v>
+      </c>
+      <c r="D379" t="s">
+        <v>28</v>
+      </c>
+      <c r="E379" s="2">
+        <v>45346.33333333334</v>
+      </c>
+      <c r="F379" t="s">
+        <v>37</v>
+      </c>
+      <c r="G379" t="s">
+        <v>51</v>
+      </c>
+      <c r="K379">
+        <v>2.2</v>
+      </c>
+      <c r="L379">
+        <v>3.1</v>
+      </c>
+      <c r="M379">
+        <v>3.2</v>
+      </c>
+      <c r="N379">
+        <v>2.2</v>
+      </c>
+      <c r="O379">
+        <v>3.1</v>
+      </c>
+      <c r="P379">
+        <v>3.2</v>
+      </c>
+      <c r="Q379">
+        <v>-0.25</v>
+      </c>
+      <c r="R379">
+        <v>1.975</v>
+      </c>
+      <c r="S379">
+        <v>1.875</v>
+      </c>
+      <c r="T379">
+        <v>2.25</v>
+      </c>
+      <c r="U379">
+        <v>1.95</v>
+      </c>
+      <c r="V379">
+        <v>1.9</v>
+      </c>
+      <c r="W379">
+        <v>0</v>
+      </c>
+      <c r="X379">
+        <v>0</v>
+      </c>
+      <c r="Y379">
+        <v>0</v>
+      </c>
+      <c r="Z379">
+        <v>0</v>
+      </c>
+      <c r="AA379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:29">
+      <c r="A380" s="1">
+        <v>378</v>
+      </c>
+      <c r="B380">
+        <v>6893168</v>
+      </c>
+      <c r="C380" t="s">
+        <v>28</v>
+      </c>
+      <c r="D380" t="s">
+        <v>28</v>
+      </c>
+      <c r="E380" s="2">
+        <v>45346.45833333334</v>
+      </c>
+      <c r="F380" t="s">
+        <v>49</v>
+      </c>
+      <c r="G380" t="s">
+        <v>45</v>
+      </c>
+      <c r="K380">
+        <v>1.4</v>
+      </c>
+      <c r="L380">
+        <v>4.5</v>
+      </c>
+      <c r="M380">
+        <v>7</v>
+      </c>
+      <c r="N380">
+        <v>1.4</v>
+      </c>
+      <c r="O380">
+        <v>4.5</v>
+      </c>
+      <c r="P380">
+        <v>7</v>
+      </c>
+      <c r="Q380">
+        <v>-1.25</v>
+      </c>
+      <c r="R380">
+        <v>1.975</v>
+      </c>
+      <c r="S380">
+        <v>1.875</v>
+      </c>
+      <c r="T380">
+        <v>2.5</v>
+      </c>
+      <c r="U380">
+        <v>1.925</v>
+      </c>
+      <c r="V380">
+        <v>1.925</v>
+      </c>
+      <c r="W380">
+        <v>0</v>
+      </c>
+      <c r="X380">
+        <v>0</v>
+      </c>
+      <c r="Y380">
+        <v>0</v>
+      </c>
+      <c r="Z380">
+        <v>0</v>
+      </c>
+      <c r="AA380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:29">
+      <c r="A381" s="1">
+        <v>379</v>
+      </c>
+      <c r="B381">
+        <v>6893167</v>
+      </c>
+      <c r="C381" t="s">
+        <v>28</v>
+      </c>
+      <c r="D381" t="s">
+        <v>28</v>
+      </c>
+      <c r="E381" s="2">
+        <v>45346.52083333334</v>
+      </c>
+      <c r="F381" t="s">
+        <v>44</v>
+      </c>
+      <c r="G381" t="s">
+        <v>29</v>
+      </c>
+      <c r="K381">
+        <v>1.833</v>
+      </c>
+      <c r="L381">
+        <v>3.4</v>
+      </c>
+      <c r="M381">
+        <v>4.333</v>
+      </c>
+      <c r="N381">
+        <v>1.833</v>
+      </c>
+      <c r="O381">
+        <v>3.4</v>
+      </c>
+      <c r="P381">
+        <v>4.333</v>
+      </c>
+      <c r="Q381">
+        <v>-0.5</v>
+      </c>
+      <c r="R381">
+        <v>1.85</v>
+      </c>
+      <c r="S381">
+        <v>2</v>
+      </c>
+      <c r="T381">
+        <v>2.25</v>
+      </c>
+      <c r="U381">
+        <v>1.825</v>
+      </c>
+      <c r="V381">
+        <v>2.025</v>
+      </c>
+      <c r="W381">
+        <v>0</v>
+      </c>
+      <c r="X381">
+        <v>0</v>
+      </c>
+      <c r="Y381">
+        <v>0</v>
+      </c>
+      <c r="Z381">
+        <v>0</v>
+      </c>
+      <c r="AA381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:29">
+      <c r="A382" s="1">
+        <v>380</v>
+      </c>
+      <c r="B382">
+        <v>6893169</v>
+      </c>
+      <c r="C382" t="s">
+        <v>28</v>
+      </c>
+      <c r="D382" t="s">
+        <v>28</v>
+      </c>
+      <c r="E382" s="2">
+        <v>45346.52083333334</v>
+      </c>
+      <c r="F382" t="s">
+        <v>43</v>
+      </c>
+      <c r="G382" t="s">
+        <v>39</v>
+      </c>
+      <c r="K382">
+        <v>1.75</v>
+      </c>
+      <c r="L382">
+        <v>3.4</v>
+      </c>
+      <c r="M382">
+        <v>4.5</v>
+      </c>
+      <c r="N382">
+        <v>1.8</v>
+      </c>
+      <c r="O382">
+        <v>3.4</v>
+      </c>
+      <c r="P382">
+        <v>4.5</v>
+      </c>
+      <c r="Q382">
+        <v>-0.5</v>
+      </c>
+      <c r="R382">
+        <v>1.8</v>
+      </c>
+      <c r="S382">
+        <v>2.05</v>
+      </c>
+      <c r="T382">
+        <v>2.5</v>
+      </c>
+      <c r="U382">
+        <v>2.05</v>
+      </c>
+      <c r="V382">
+        <v>1.8</v>
+      </c>
+      <c r="W382">
+        <v>0</v>
+      </c>
+      <c r="X382">
+        <v>0</v>
+      </c>
+      <c r="Y382">
+        <v>0</v>
+      </c>
+      <c r="Z382">
+        <v>0</v>
+      </c>
+      <c r="AA382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:29">
+      <c r="A383" s="1">
+        <v>381</v>
+      </c>
+      <c r="B383">
+        <v>6899168</v>
+      </c>
+      <c r="C383" t="s">
+        <v>28</v>
+      </c>
+      <c r="D383" t="s">
+        <v>28</v>
+      </c>
+      <c r="E383" s="2">
+        <v>45347.33333333334</v>
+      </c>
+      <c r="F383" t="s">
+        <v>32</v>
+      </c>
+      <c r="G383" t="s">
+        <v>50</v>
+      </c>
+      <c r="K383">
+        <v>2.8</v>
+      </c>
+      <c r="L383">
+        <v>3.2</v>
+      </c>
+      <c r="M383">
+        <v>2.375</v>
+      </c>
+      <c r="N383">
+        <v>2.8</v>
+      </c>
+      <c r="O383">
+        <v>3.2</v>
+      </c>
+      <c r="P383">
+        <v>2.375</v>
+      </c>
+      <c r="Q383">
+        <v>0</v>
+      </c>
+      <c r="R383">
+        <v>2.1</v>
+      </c>
+      <c r="S383">
+        <v>1.775</v>
+      </c>
+      <c r="T383">
+        <v>2.25</v>
+      </c>
+      <c r="U383">
+        <v>1.925</v>
+      </c>
+      <c r="V383">
+        <v>1.925</v>
+      </c>
+      <c r="W383">
+        <v>0</v>
+      </c>
+      <c r="X383">
+        <v>0</v>
+      </c>
+      <c r="Y383">
+        <v>0</v>
+      </c>
+      <c r="Z383">
+        <v>0</v>
+      </c>
+      <c r="AA383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:29">
+      <c r="A384" s="1">
+        <v>382</v>
+      </c>
+      <c r="B384">
+        <v>6893604</v>
+      </c>
+      <c r="C384" t="s">
+        <v>28</v>
+      </c>
+      <c r="D384" t="s">
+        <v>28</v>
+      </c>
+      <c r="E384" s="2">
+        <v>45347.45833333334</v>
+      </c>
+      <c r="F384" t="s">
+        <v>53</v>
+      </c>
+      <c r="G384" t="s">
+        <v>33</v>
+      </c>
+      <c r="K384">
+        <v>3.1</v>
+      </c>
+      <c r="L384">
+        <v>3.2</v>
+      </c>
+      <c r="M384">
+        <v>2.2</v>
+      </c>
+      <c r="N384">
+        <v>3.1</v>
+      </c>
+      <c r="O384">
+        <v>3.2</v>
+      </c>
+      <c r="P384">
+        <v>2.2</v>
+      </c>
+      <c r="Q384">
+        <v>0.25</v>
+      </c>
+      <c r="R384">
+        <v>1.9</v>
+      </c>
+      <c r="S384">
+        <v>1.95</v>
+      </c>
+      <c r="T384">
+        <v>2.25</v>
+      </c>
+      <c r="U384">
+        <v>1.95</v>
+      </c>
+      <c r="V384">
+        <v>1.9</v>
+      </c>
+      <c r="W384">
+        <v>0</v>
+      </c>
+      <c r="X384">
+        <v>0</v>
+      </c>
+      <c r="Y384">
+        <v>0</v>
+      </c>
+      <c r="Z384">
+        <v>0</v>
+      </c>
+      <c r="AA384">
         <v>0</v>
       </c>
     </row>

--- a/Portugal Segunda Liga/Portugal Segunda Liga.xlsx
+++ b/Portugal Segunda Liga/Portugal Segunda Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1936" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1952" uniqueCount="57">
   <si>
     <t>id</t>
   </si>
@@ -546,7 +546,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC384"/>
+  <dimension ref="A1:AC388"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2423,7 +2423,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5263140</v>
+        <v>5265395</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2435,76 +2435,76 @@
         <v>44947.52083333334</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G22" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K22">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L22">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M22">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="N22">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="O22">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P22">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q22">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R22">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S22">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T22">
         <v>2.5</v>
       </c>
       <c r="U22">
+        <v>1.975</v>
+      </c>
+      <c r="V22">
+        <v>1.825</v>
+      </c>
+      <c r="W22">
+        <v>-1</v>
+      </c>
+      <c r="X22">
+        <v>-1</v>
+      </c>
+      <c r="Y22">
         <v>1.9</v>
       </c>
-      <c r="V22">
-        <v>1.9</v>
-      </c>
-      <c r="W22">
-        <v>0.75</v>
-      </c>
-      <c r="X22">
-        <v>-1</v>
-      </c>
-      <c r="Y22">
-        <v>-1</v>
-      </c>
       <c r="Z22">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC22">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2512,7 +2512,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5265395</v>
+        <v>5263140</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2524,76 +2524,76 @@
         <v>44947.52083333334</v>
       </c>
       <c r="F23" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K23">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L23">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M23">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="N23">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="O23">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P23">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="Q23">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R23">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S23">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T23">
         <v>2.5</v>
       </c>
       <c r="U23">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V23">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA23">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2690,7 +2690,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5265399</v>
+        <v>5265394</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2702,76 +2702,76 @@
         <v>44948.45833333334</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G25" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K25">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="L25">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M25">
+        <v>2.625</v>
+      </c>
+      <c r="N25">
+        <v>2.9</v>
+      </c>
+      <c r="O25">
+        <v>3.5</v>
+      </c>
+      <c r="P25">
+        <v>2.25</v>
+      </c>
+      <c r="Q25">
+        <v>0.25</v>
+      </c>
+      <c r="R25">
+        <v>1.825</v>
+      </c>
+      <c r="S25">
+        <v>1.975</v>
+      </c>
+      <c r="T25">
+        <v>2.75</v>
+      </c>
+      <c r="U25">
+        <v>1.775</v>
+      </c>
+      <c r="V25">
+        <v>2.025</v>
+      </c>
+      <c r="W25">
+        <v>-1</v>
+      </c>
+      <c r="X25">
         <v>2.5</v>
       </c>
-      <c r="N25">
-        <v>2.6</v>
-      </c>
-      <c r="O25">
-        <v>3</v>
-      </c>
-      <c r="P25">
-        <v>2.7</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>1.85</v>
-      </c>
-      <c r="S25">
-        <v>1.95</v>
-      </c>
-      <c r="T25">
-        <v>2.25</v>
-      </c>
-      <c r="U25">
-        <v>1.925</v>
-      </c>
-      <c r="V25">
-        <v>1.875</v>
-      </c>
-      <c r="W25">
-        <v>1.6</v>
-      </c>
-      <c r="X25">
-        <v>-1</v>
-      </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AA25">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB25">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC25">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2779,7 +2779,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5265394</v>
+        <v>5265399</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2791,76 +2791,76 @@
         <v>44948.45833333334</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G26" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K26">
-        <v>2.45</v>
+        <v>2.8</v>
       </c>
       <c r="L26">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M26">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="N26">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="O26">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P26">
+        <v>2.7</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>1.85</v>
+      </c>
+      <c r="S26">
+        <v>1.95</v>
+      </c>
+      <c r="T26">
         <v>2.25</v>
       </c>
-      <c r="Q26">
-        <v>0.25</v>
-      </c>
-      <c r="R26">
-        <v>1.825</v>
-      </c>
-      <c r="S26">
-        <v>1.975</v>
-      </c>
-      <c r="T26">
-        <v>2.75</v>
-      </c>
       <c r="U26">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V26">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X26">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y26">
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA26">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB26">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -3224,7 +3224,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5265515</v>
+        <v>5266491</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3236,46 +3236,46 @@
         <v>44955.45833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G31" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K31">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="L31">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M31">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="N31">
-        <v>1.833</v>
+        <v>2.6</v>
       </c>
       <c r="O31">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P31">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="Q31">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R31">
         <v>1.9</v>
       </c>
       <c r="S31">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T31">
         <v>2.25</v>
@@ -3284,28 +3284,28 @@
         <v>1.9</v>
       </c>
       <c r="V31">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W31">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z31">
+        <v>-1</v>
+      </c>
+      <c r="AA31">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA31">
-        <v>-1</v>
-      </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC31">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3313,7 +3313,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5266491</v>
+        <v>5265515</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3325,46 +3325,46 @@
         <v>44955.45833333334</v>
       </c>
       <c r="F32" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K32">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="L32">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M32">
-        <v>2.375</v>
+        <v>4.2</v>
       </c>
       <c r="N32">
-        <v>2.6</v>
+        <v>1.833</v>
       </c>
       <c r="O32">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P32">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R32">
         <v>1.9</v>
       </c>
       <c r="S32">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T32">
         <v>2.25</v>
@@ -3373,28 +3373,28 @@
         <v>1.9</v>
       </c>
       <c r="V32">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W32">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA32">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -4381,7 +4381,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>5265413</v>
+        <v>5263141</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4393,76 +4393,76 @@
         <v>44962.45833333334</v>
       </c>
       <c r="F44" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G44" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44">
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K44">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="L44">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M44">
         <v>2.5</v>
       </c>
       <c r="N44">
-        <v>2.375</v>
+        <v>2.55</v>
       </c>
       <c r="O44">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P44">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q44">
         <v>0</v>
       </c>
       <c r="R44">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S44">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T44">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U44">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V44">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W44">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z44">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB44">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4470,7 +4470,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>5263141</v>
+        <v>5265413</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4482,76 +4482,76 @@
         <v>44962.45833333334</v>
       </c>
       <c r="F45" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G45" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45">
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K45">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="L45">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M45">
         <v>2.5</v>
       </c>
       <c r="N45">
-        <v>2.55</v>
+        <v>2.375</v>
       </c>
       <c r="O45">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P45">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="Q45">
         <v>0</v>
       </c>
       <c r="R45">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S45">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T45">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U45">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V45">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W45">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA45">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC45">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -5271,7 +5271,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>5266486</v>
+        <v>5265419</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5283,73 +5283,73 @@
         <v>44970.625</v>
       </c>
       <c r="F54" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G54" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J54" t="s">
         <v>56</v>
       </c>
       <c r="K54">
-        <v>2.6</v>
+        <v>1.85</v>
       </c>
       <c r="L54">
         <v>3.2</v>
       </c>
       <c r="M54">
+        <v>4</v>
+      </c>
+      <c r="N54">
+        <v>1.909</v>
+      </c>
+      <c r="O54">
+        <v>3.3</v>
+      </c>
+      <c r="P54">
+        <v>3.75</v>
+      </c>
+      <c r="Q54">
+        <v>-0.5</v>
+      </c>
+      <c r="R54">
+        <v>1.975</v>
+      </c>
+      <c r="S54">
+        <v>1.825</v>
+      </c>
+      <c r="T54">
         <v>2.5</v>
       </c>
-      <c r="N54">
-        <v>3.1</v>
-      </c>
-      <c r="O54">
-        <v>3</v>
-      </c>
-      <c r="P54">
-        <v>2.15</v>
-      </c>
-      <c r="Q54">
-        <v>0.25</v>
-      </c>
-      <c r="R54">
-        <v>1.825</v>
-      </c>
-      <c r="S54">
-        <v>1.975</v>
-      </c>
-      <c r="T54">
-        <v>2.25</v>
-      </c>
       <c r="U54">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V54">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="Y54">
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB54">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC54">
         <v>-1</v>
@@ -5360,7 +5360,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>5265419</v>
+        <v>5266486</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5372,73 +5372,73 @@
         <v>44970.625</v>
       </c>
       <c r="F55" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G55" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J55" t="s">
         <v>56</v>
       </c>
       <c r="K55">
-        <v>1.85</v>
+        <v>2.6</v>
       </c>
       <c r="L55">
         <v>3.2</v>
       </c>
       <c r="M55">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N55">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="O55">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P55">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q55">
+        <v>0.25</v>
+      </c>
+      <c r="R55">
+        <v>1.825</v>
+      </c>
+      <c r="S55">
+        <v>1.975</v>
+      </c>
+      <c r="T55">
+        <v>2.25</v>
+      </c>
+      <c r="U55">
+        <v>1.925</v>
+      </c>
+      <c r="V55">
+        <v>1.875</v>
+      </c>
+      <c r="W55">
+        <v>-1</v>
+      </c>
+      <c r="X55">
+        <v>2</v>
+      </c>
+      <c r="Y55">
+        <v>-1</v>
+      </c>
+      <c r="Z55">
+        <v>0.4125</v>
+      </c>
+      <c r="AA55">
         <v>-0.5</v>
       </c>
-      <c r="R55">
-        <v>1.975</v>
-      </c>
-      <c r="S55">
-        <v>1.825</v>
-      </c>
-      <c r="T55">
-        <v>2.5</v>
-      </c>
-      <c r="U55">
-        <v>1.9</v>
-      </c>
-      <c r="V55">
-        <v>1.9</v>
-      </c>
-      <c r="W55">
-        <v>-1</v>
-      </c>
-      <c r="X55">
-        <v>2.3</v>
-      </c>
-      <c r="Y55">
-        <v>-1</v>
-      </c>
-      <c r="Z55">
-        <v>-1</v>
-      </c>
-      <c r="AA55">
-        <v>0.825</v>
-      </c>
       <c r="AB55">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC55">
         <v>-1</v>
@@ -6606,7 +6606,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>5265516</v>
+        <v>5265429</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6618,37 +6618,37 @@
         <v>44983.33333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G69" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H69">
         <v>1</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K69">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="L69">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M69">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="N69">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O69">
         <v>3</v>
       </c>
       <c r="P69">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Q69">
         <v>-0.25</v>
@@ -6657,37 +6657,37 @@
         <v>2</v>
       </c>
       <c r="S69">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T69">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U69">
-        <v>1.95</v>
+        <v>2.125</v>
       </c>
       <c r="V69">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="W69">
         <v>-1</v>
       </c>
       <c r="X69">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y69">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA69">
-        <v>0.8</v>
+        <v>0.425</v>
       </c>
       <c r="AB69">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6695,7 +6695,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>5265429</v>
+        <v>5265516</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6707,37 +6707,37 @@
         <v>44983.33333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G70" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H70">
         <v>1</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K70">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="L70">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M70">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="N70">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O70">
         <v>3</v>
       </c>
       <c r="P70">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q70">
         <v>-0.25</v>
@@ -6746,37 +6746,37 @@
         <v>2</v>
       </c>
       <c r="S70">
+        <v>1.8</v>
+      </c>
+      <c r="T70">
+        <v>2.25</v>
+      </c>
+      <c r="U70">
+        <v>1.95</v>
+      </c>
+      <c r="V70">
         <v>1.85</v>
       </c>
-      <c r="T70">
-        <v>2.5</v>
-      </c>
-      <c r="U70">
-        <v>2.125</v>
-      </c>
-      <c r="V70">
-        <v>1.75</v>
-      </c>
       <c r="W70">
         <v>-1</v>
       </c>
       <c r="X70">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y70">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z70">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC70">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -7496,7 +7496,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>5265436</v>
+        <v>5265437</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7508,46 +7508,46 @@
         <v>44990.45833333334</v>
       </c>
       <c r="F79" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G79" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K79">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="L79">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M79">
+        <v>3.8</v>
+      </c>
+      <c r="N79">
+        <v>1.95</v>
+      </c>
+      <c r="O79">
         <v>3.4</v>
       </c>
-      <c r="N79">
-        <v>2.2</v>
-      </c>
-      <c r="O79">
-        <v>3.2</v>
-      </c>
       <c r="P79">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q79">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R79">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S79">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T79">
         <v>2.5</v>
@@ -7559,19 +7559,19 @@
         <v>1.825</v>
       </c>
       <c r="W79">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X79">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y79">
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA79">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB79">
         <v>-1</v>
@@ -7585,7 +7585,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>5265437</v>
+        <v>5265436</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7597,46 +7597,46 @@
         <v>44990.45833333334</v>
       </c>
       <c r="F80" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G80" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K80">
+        <v>2.05</v>
+      </c>
+      <c r="L80">
+        <v>3.2</v>
+      </c>
+      <c r="M80">
+        <v>3.4</v>
+      </c>
+      <c r="N80">
+        <v>2.2</v>
+      </c>
+      <c r="O80">
+        <v>3.2</v>
+      </c>
+      <c r="P80">
+        <v>3</v>
+      </c>
+      <c r="Q80">
+        <v>-0.25</v>
+      </c>
+      <c r="R80">
+        <v>1.95</v>
+      </c>
+      <c r="S80">
         <v>1.85</v>
-      </c>
-      <c r="L80">
-        <v>3.4</v>
-      </c>
-      <c r="M80">
-        <v>3.8</v>
-      </c>
-      <c r="N80">
-        <v>1.95</v>
-      </c>
-      <c r="O80">
-        <v>3.4</v>
-      </c>
-      <c r="P80">
-        <v>3.4</v>
-      </c>
-      <c r="Q80">
-        <v>-0.5</v>
-      </c>
-      <c r="R80">
-        <v>2</v>
-      </c>
-      <c r="S80">
-        <v>1.8</v>
       </c>
       <c r="T80">
         <v>2.5</v>
@@ -7648,19 +7648,19 @@
         <v>1.825</v>
       </c>
       <c r="W80">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X80">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y80">
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA80">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB80">
         <v>-1</v>
@@ -8030,7 +8030,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>5265444</v>
+        <v>5263145</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8042,19 +8042,19 @@
         <v>44996.45833333334</v>
       </c>
       <c r="F85" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G85" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K85">
         <v>2.375</v>
@@ -8066,49 +8066,49 @@
         <v>2.75</v>
       </c>
       <c r="N85">
+        <v>2</v>
+      </c>
+      <c r="O85">
+        <v>3.3</v>
+      </c>
+      <c r="P85">
+        <v>3.4</v>
+      </c>
+      <c r="Q85">
+        <v>-0.5</v>
+      </c>
+      <c r="R85">
+        <v>2</v>
+      </c>
+      <c r="S85">
+        <v>1.8</v>
+      </c>
+      <c r="T85">
         <v>2.5</v>
       </c>
-      <c r="O85">
-        <v>3.25</v>
-      </c>
-      <c r="P85">
-        <v>2.55</v>
-      </c>
-      <c r="Q85">
-        <v>0</v>
-      </c>
-      <c r="R85">
-        <v>1.9</v>
-      </c>
-      <c r="S85">
-        <v>1.9</v>
-      </c>
-      <c r="T85">
-        <v>2.25</v>
-      </c>
       <c r="U85">
+        <v>1.95</v>
+      </c>
+      <c r="V85">
         <v>1.85</v>
       </c>
-      <c r="V85">
-        <v>1.95</v>
-      </c>
       <c r="W85">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X85">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB85">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC85">
         <v>-1</v>
@@ -8119,7 +8119,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>5263145</v>
+        <v>5265444</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8131,19 +8131,19 @@
         <v>44996.45833333334</v>
       </c>
       <c r="F86" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G86" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K86">
         <v>2.375</v>
@@ -8155,49 +8155,49 @@
         <v>2.75</v>
       </c>
       <c r="N86">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="O86">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P86">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="Q86">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R86">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S86">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T86">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U86">
+        <v>1.85</v>
+      </c>
+      <c r="V86">
         <v>1.95</v>
       </c>
-      <c r="V86">
-        <v>1.85</v>
-      </c>
       <c r="W86">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X86">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA86">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC86">
         <v>-1</v>
@@ -8475,7 +8475,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>5266479</v>
+        <v>5265446</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8487,76 +8487,76 @@
         <v>44997.52083333334</v>
       </c>
       <c r="F90" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G90" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K90">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="L90">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M90">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="N90">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="O90">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P90">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="Q90">
         <v>0.25</v>
       </c>
       <c r="R90">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S90">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T90">
         <v>2.25</v>
       </c>
       <c r="U90">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V90">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W90">
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y90">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA90">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB90">
         <v>-0.5</v>
       </c>
       <c r="AC90">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8564,7 +8564,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>5265446</v>
+        <v>5266479</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8576,76 +8576,76 @@
         <v>44997.52083333334</v>
       </c>
       <c r="F91" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G91" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J91" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K91">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="L91">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M91">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="N91">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="O91">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P91">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="Q91">
         <v>0.25</v>
       </c>
       <c r="R91">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S91">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T91">
         <v>2.25</v>
       </c>
       <c r="U91">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V91">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z91">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB91">
         <v>-0.5</v>
       </c>
       <c r="AC91">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -9810,7 +9810,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6450996</v>
+        <v>6450995</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9822,13 +9822,13 @@
         <v>45018.29166666666</v>
       </c>
       <c r="F105" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G105" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I105">
         <v>3</v>
@@ -9846,32 +9846,32 @@
         <v>2.5</v>
       </c>
       <c r="N105">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="O105">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P105">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="Q105">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R105">
+        <v>2.025</v>
+      </c>
+      <c r="S105">
+        <v>1.775</v>
+      </c>
+      <c r="T105">
+        <v>2.5</v>
+      </c>
+      <c r="U105">
         <v>1.95</v>
       </c>
-      <c r="S105">
+      <c r="V105">
         <v>1.85</v>
       </c>
-      <c r="T105">
-        <v>2.25</v>
-      </c>
-      <c r="U105">
-        <v>1.975</v>
-      </c>
-      <c r="V105">
-        <v>1.825</v>
-      </c>
       <c r="W105">
         <v>-1</v>
       </c>
@@ -9879,16 +9879,16 @@
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>1.45</v>
+        <v>0.95</v>
       </c>
       <c r="Z105">
         <v>-1</v>
       </c>
       <c r="AA105">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB105">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC105">
         <v>-1</v>
@@ -9899,7 +9899,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6450995</v>
+        <v>6450996</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9911,13 +9911,13 @@
         <v>45018.29166666666</v>
       </c>
       <c r="F106" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G106" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106">
         <v>3</v>
@@ -9935,31 +9935,31 @@
         <v>2.5</v>
       </c>
       <c r="N106">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="O106">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P106">
+        <v>2.45</v>
+      </c>
+      <c r="Q106">
+        <v>0</v>
+      </c>
+      <c r="R106">
         <v>1.95</v>
       </c>
-      <c r="Q106">
-        <v>0.25</v>
-      </c>
-      <c r="R106">
-        <v>2.025</v>
-      </c>
       <c r="S106">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T106">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U106">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V106">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W106">
         <v>-1</v>
@@ -9968,16 +9968,16 @@
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>0.95</v>
+        <v>1.45</v>
       </c>
       <c r="Z106">
         <v>-1</v>
       </c>
       <c r="AA106">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB106">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC106">
         <v>-1</v>
@@ -10878,7 +10878,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>5265465</v>
+        <v>5263148</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10890,58 +10890,58 @@
         <v>45024.47916666666</v>
       </c>
       <c r="F117" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G117" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J117" t="s">
         <v>55</v>
       </c>
       <c r="K117">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="L117">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="M117">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="N117">
-        <v>2.55</v>
+        <v>1.666</v>
       </c>
       <c r="O117">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P117">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="Q117">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R117">
+        <v>1.875</v>
+      </c>
+      <c r="S117">
+        <v>1.925</v>
+      </c>
+      <c r="T117">
+        <v>2.5</v>
+      </c>
+      <c r="U117">
         <v>1.85</v>
       </c>
-      <c r="S117">
+      <c r="V117">
         <v>1.95</v>
       </c>
-      <c r="T117">
-        <v>2.25</v>
-      </c>
-      <c r="U117">
-        <v>2.025</v>
-      </c>
-      <c r="V117">
-        <v>1.775</v>
-      </c>
       <c r="W117">
-        <v>1.55</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X117">
         <v>-1</v>
@@ -10950,13 +10950,13 @@
         <v>-1</v>
       </c>
       <c r="Z117">
+        <v>0.875</v>
+      </c>
+      <c r="AA117">
+        <v>-1</v>
+      </c>
+      <c r="AB117">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA117">
-        <v>-1</v>
-      </c>
-      <c r="AB117">
-        <v>1.025</v>
       </c>
       <c r="AC117">
         <v>-1</v>
@@ -10967,7 +10967,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>5263148</v>
+        <v>5265465</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10979,58 +10979,58 @@
         <v>45024.47916666666</v>
       </c>
       <c r="F118" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G118" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H118">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J118" t="s">
         <v>55</v>
       </c>
       <c r="K118">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="L118">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="M118">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="N118">
-        <v>1.666</v>
+        <v>2.55</v>
       </c>
       <c r="O118">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P118">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q118">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R118">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S118">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T118">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U118">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V118">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W118">
-        <v>0.6659999999999999</v>
+        <v>1.55</v>
       </c>
       <c r="X118">
         <v>-1</v>
@@ -11039,13 +11039,13 @@
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA118">
         <v>-1</v>
       </c>
       <c r="AB118">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC118">
         <v>-1</v>
@@ -12480,7 +12480,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>5265480</v>
+        <v>5263150</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12492,76 +12492,76 @@
         <v>45040.58333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G135" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K135">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="L135">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M135">
+        <v>3.3</v>
+      </c>
+      <c r="N135">
+        <v>1.85</v>
+      </c>
+      <c r="O135">
+        <v>3.25</v>
+      </c>
+      <c r="P135">
+        <v>3.75</v>
+      </c>
+      <c r="Q135">
+        <v>-0.5</v>
+      </c>
+      <c r="R135">
+        <v>1.95</v>
+      </c>
+      <c r="S135">
+        <v>1.9</v>
+      </c>
+      <c r="T135">
+        <v>2.75</v>
+      </c>
+      <c r="U135">
+        <v>1.9</v>
+      </c>
+      <c r="V135">
+        <v>1.95</v>
+      </c>
+      <c r="W135">
+        <v>-1</v>
+      </c>
+      <c r="X135">
         <v>2.25</v>
       </c>
-      <c r="N135">
-        <v>3.2</v>
-      </c>
-      <c r="O135">
-        <v>3</v>
-      </c>
-      <c r="P135">
-        <v>2.15</v>
-      </c>
-      <c r="Q135">
-        <v>0.25</v>
-      </c>
-      <c r="R135">
-        <v>1.825</v>
-      </c>
-      <c r="S135">
-        <v>1.975</v>
-      </c>
-      <c r="T135">
-        <v>2.25</v>
-      </c>
-      <c r="U135">
-        <v>1.775</v>
-      </c>
-      <c r="V135">
-        <v>2.025</v>
-      </c>
-      <c r="W135">
-        <v>-1</v>
-      </c>
-      <c r="X135">
-        <v>-1</v>
-      </c>
       <c r="Y135">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
         <v>-1</v>
       </c>
       <c r="AA135">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB135">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC135">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12569,7 +12569,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>5263150</v>
+        <v>5265480</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12581,76 +12581,76 @@
         <v>45040.58333333334</v>
       </c>
       <c r="F136" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G136" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K136">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="L136">
+        <v>3.1</v>
+      </c>
+      <c r="M136">
+        <v>2.25</v>
+      </c>
+      <c r="N136">
         <v>3.2</v>
       </c>
-      <c r="M136">
-        <v>3.3</v>
-      </c>
-      <c r="N136">
-        <v>1.85</v>
-      </c>
       <c r="O136">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P136">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q136">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R136">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S136">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T136">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U136">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V136">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W136">
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z136">
         <v>-1</v>
       </c>
       <c r="AA136">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC136">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -13014,7 +13014,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>5266467</v>
+        <v>5265487</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13026,55 +13026,55 @@
         <v>45046.29166666666</v>
       </c>
       <c r="F141" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G141" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H141">
         <v>0</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J141" t="s">
         <v>54</v>
       </c>
       <c r="K141">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="L141">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M141">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="N141">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="O141">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P141">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Q141">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R141">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S141">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T141">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U141">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V141">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W141">
         <v>-1</v>
@@ -13083,19 +13083,19 @@
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="Z141">
         <v>-1</v>
       </c>
       <c r="AA141">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB141">
         <v>-1</v>
       </c>
       <c r="AC141">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13103,7 +13103,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>5265487</v>
+        <v>5266467</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13115,55 +13115,55 @@
         <v>45046.29166666666</v>
       </c>
       <c r="F142" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G142" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H142">
         <v>0</v>
       </c>
       <c r="I142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J142" t="s">
         <v>54</v>
       </c>
       <c r="K142">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="L142">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M142">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="N142">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="O142">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P142">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="Q142">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R142">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S142">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T142">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U142">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V142">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W142">
         <v>-1</v>
@@ -13172,19 +13172,19 @@
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="Z142">
         <v>-1</v>
       </c>
       <c r="AA142">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB142">
         <v>-1</v>
       </c>
       <c r="AC142">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13904,7 +13904,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>5422910</v>
+        <v>5422914</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13916,76 +13916,76 @@
         <v>45053.29166666666</v>
       </c>
       <c r="F151" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G151" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J151" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K151">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L151">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M151">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="N151">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="O151">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P151">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q151">
+        <v>-0.25</v>
+      </c>
+      <c r="R151">
+        <v>1.9</v>
+      </c>
+      <c r="S151">
+        <v>1.9</v>
+      </c>
+      <c r="T151">
+        <v>2.25</v>
+      </c>
+      <c r="U151">
+        <v>1.9</v>
+      </c>
+      <c r="V151">
+        <v>1.9</v>
+      </c>
+      <c r="W151">
+        <v>-1</v>
+      </c>
+      <c r="X151">
+        <v>2.1</v>
+      </c>
+      <c r="Y151">
+        <v>-1</v>
+      </c>
+      <c r="Z151">
         <v>-0.5</v>
       </c>
-      <c r="R151">
-        <v>1.925</v>
-      </c>
-      <c r="S151">
-        <v>1.875</v>
-      </c>
-      <c r="T151">
-        <v>2.75</v>
-      </c>
-      <c r="U151">
-        <v>1.8</v>
-      </c>
-      <c r="V151">
-        <v>2</v>
-      </c>
-      <c r="W151">
-        <v>-1</v>
-      </c>
-      <c r="X151">
-        <v>-1</v>
-      </c>
-      <c r="Y151">
-        <v>2.5</v>
-      </c>
-      <c r="Z151">
-        <v>-1</v>
-      </c>
       <c r="AA151">
-        <v>0.875</v>
+        <v>0.45</v>
       </c>
       <c r="AB151">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC151">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13993,7 +13993,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>5422914</v>
+        <v>5422910</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -14005,76 +14005,76 @@
         <v>45053.29166666666</v>
       </c>
       <c r="F152" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G152" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I152">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K152">
+        <v>2</v>
+      </c>
+      <c r="L152">
+        <v>3.5</v>
+      </c>
+      <c r="M152">
+        <v>3.25</v>
+      </c>
+      <c r="N152">
+        <v>1.909</v>
+      </c>
+      <c r="O152">
+        <v>3.6</v>
+      </c>
+      <c r="P152">
+        <v>3.5</v>
+      </c>
+      <c r="Q152">
+        <v>-0.5</v>
+      </c>
+      <c r="R152">
+        <v>1.925</v>
+      </c>
+      <c r="S152">
+        <v>1.875</v>
+      </c>
+      <c r="T152">
+        <v>2.75</v>
+      </c>
+      <c r="U152">
         <v>1.8</v>
       </c>
-      <c r="L152">
-        <v>3.4</v>
-      </c>
-      <c r="M152">
-        <v>4</v>
-      </c>
-      <c r="N152">
-        <v>2.1</v>
-      </c>
-      <c r="O152">
-        <v>3.1</v>
-      </c>
-      <c r="P152">
-        <v>3.1</v>
-      </c>
-      <c r="Q152">
-        <v>-0.25</v>
-      </c>
-      <c r="R152">
-        <v>1.9</v>
-      </c>
-      <c r="S152">
-        <v>1.9</v>
-      </c>
-      <c r="T152">
-        <v>2.25</v>
-      </c>
-      <c r="U152">
-        <v>1.9</v>
-      </c>
       <c r="V152">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W152">
         <v>-1</v>
       </c>
       <c r="X152">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y152">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z152">
+        <v>-1</v>
+      </c>
+      <c r="AA152">
+        <v>0.875</v>
+      </c>
+      <c r="AB152">
+        <v>0.4</v>
+      </c>
+      <c r="AC152">
         <v>-0.5</v>
-      </c>
-      <c r="AA152">
-        <v>0.45</v>
-      </c>
-      <c r="AB152">
-        <v>-1</v>
-      </c>
-      <c r="AC152">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14705,7 +14705,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>5470311</v>
+        <v>5470312</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14717,58 +14717,58 @@
         <v>45060.47916666666</v>
       </c>
       <c r="F160" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G160" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H160">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I160">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J160" t="s">
         <v>55</v>
       </c>
       <c r="K160">
-        <v>2.15</v>
+        <v>1.533</v>
       </c>
       <c r="L160">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M160">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="N160">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="O160">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P160">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q160">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R160">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S160">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T160">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U160">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V160">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W160">
-        <v>0.95</v>
+        <v>0.7</v>
       </c>
       <c r="X160">
         <v>-1</v>
@@ -14777,13 +14777,13 @@
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA160">
         <v>-1</v>
       </c>
       <c r="AB160">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC160">
         <v>-1</v>
@@ -14794,7 +14794,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>5470312</v>
+        <v>5470311</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14806,58 +14806,58 @@
         <v>45060.47916666666</v>
       </c>
       <c r="F161" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G161" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H161">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J161" t="s">
         <v>55</v>
       </c>
       <c r="K161">
-        <v>1.533</v>
+        <v>2.15</v>
       </c>
       <c r="L161">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M161">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="N161">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="O161">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P161">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="Q161">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R161">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S161">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T161">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U161">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V161">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W161">
-        <v>0.7</v>
+        <v>0.95</v>
       </c>
       <c r="X161">
         <v>-1</v>
@@ -14866,13 +14866,13 @@
         <v>-1</v>
       </c>
       <c r="Z161">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA161">
         <v>-1</v>
       </c>
       <c r="AB161">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC161">
         <v>-1</v>
@@ -15061,7 +15061,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>5499375</v>
+        <v>5484709</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15073,76 +15073,76 @@
         <v>45065.58333333334</v>
       </c>
       <c r="F164" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G164" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J164" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K164">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="L164">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M164">
+        <v>1.833</v>
+      </c>
+      <c r="N164">
+        <v>4.2</v>
+      </c>
+      <c r="O164">
+        <v>3.6</v>
+      </c>
+      <c r="P164">
+        <v>1.727</v>
+      </c>
+      <c r="Q164">
+        <v>0.5</v>
+      </c>
+      <c r="R164">
+        <v>2.1</v>
+      </c>
+      <c r="S164">
+        <v>1.775</v>
+      </c>
+      <c r="T164">
         <v>2.75</v>
       </c>
-      <c r="N164">
-        <v>2.3</v>
-      </c>
-      <c r="O164">
-        <v>3</v>
-      </c>
-      <c r="P164">
-        <v>2.875</v>
-      </c>
-      <c r="Q164">
-        <v>-0.25</v>
-      </c>
-      <c r="R164">
-        <v>2.05</v>
-      </c>
-      <c r="S164">
-        <v>1.75</v>
-      </c>
-      <c r="T164">
-        <v>2.25</v>
-      </c>
       <c r="U164">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V164">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W164">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X164">
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z164">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA164">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB164">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC164">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15150,7 +15150,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>5484709</v>
+        <v>5499375</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15162,76 +15162,76 @@
         <v>45065.58333333334</v>
       </c>
       <c r="F165" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G165" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J165" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K165">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="L165">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M165">
-        <v>1.833</v>
+        <v>2.75</v>
       </c>
       <c r="N165">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="O165">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P165">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="Q165">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R165">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S165">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="T165">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U165">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V165">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W165">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X165">
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z165">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA165">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB165">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC165">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -16307,7 +16307,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>5544758</v>
+        <v>5534133</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16319,76 +16319,76 @@
         <v>45074.47916666666</v>
       </c>
       <c r="F178" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G178" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H178">
         <v>1</v>
       </c>
       <c r="I178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J178" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K178">
+        <v>2.2</v>
+      </c>
+      <c r="L178">
+        <v>3.25</v>
+      </c>
+      <c r="M178">
+        <v>3</v>
+      </c>
+      <c r="N178">
+        <v>3.5</v>
+      </c>
+      <c r="O178">
+        <v>3.4</v>
+      </c>
+      <c r="P178">
         <v>1.909</v>
       </c>
-      <c r="L178">
-        <v>3.4</v>
-      </c>
-      <c r="M178">
-        <v>3.6</v>
-      </c>
-      <c r="N178">
-        <v>1.7</v>
-      </c>
-      <c r="O178">
-        <v>3.6</v>
-      </c>
-      <c r="P178">
-        <v>4.5</v>
-      </c>
       <c r="Q178">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R178">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S178">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T178">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U178">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V178">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W178">
         <v>-1</v>
       </c>
       <c r="X178">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y178">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z178">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA178">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB178">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC178">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16396,7 +16396,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>5537439</v>
+        <v>5544758</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16408,73 +16408,73 @@
         <v>45074.47916666666</v>
       </c>
       <c r="F179" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G179" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H179">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I179">
         <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K179">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="L179">
         <v>3.4</v>
       </c>
       <c r="M179">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N179">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="O179">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P179">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="Q179">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R179">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S179">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T179">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U179">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V179">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W179">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X179">
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z179">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA179">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB179">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC179">
         <v>-1</v>
@@ -16485,7 +16485,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>5534133</v>
+        <v>5537439</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16497,76 +16497,76 @@
         <v>45074.47916666666</v>
       </c>
       <c r="F180" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G180" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J180" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K180">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L180">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M180">
+        <v>3.4</v>
+      </c>
+      <c r="N180">
+        <v>1.65</v>
+      </c>
+      <c r="O180">
+        <v>4</v>
+      </c>
+      <c r="P180">
+        <v>4.333</v>
+      </c>
+      <c r="Q180">
+        <v>-1.25</v>
+      </c>
+      <c r="R180">
+        <v>1.9</v>
+      </c>
+      <c r="S180">
+        <v>1.9</v>
+      </c>
+      <c r="T180">
         <v>3</v>
       </c>
-      <c r="N180">
-        <v>3.5</v>
-      </c>
-      <c r="O180">
-        <v>3.4</v>
-      </c>
-      <c r="P180">
-        <v>1.909</v>
-      </c>
-      <c r="Q180">
-        <v>0.5</v>
-      </c>
-      <c r="R180">
-        <v>1.8</v>
-      </c>
-      <c r="S180">
-        <v>2</v>
-      </c>
-      <c r="T180">
-        <v>2.25</v>
-      </c>
       <c r="U180">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V180">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W180">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X180">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y180">
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA180">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB180">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC180">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -18532,7 +18532,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6893102</v>
+        <v>6899210</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18544,13 +18544,13 @@
         <v>45165.29166666666</v>
       </c>
       <c r="F203" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G203" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H203">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I203">
         <v>1</v>
@@ -18559,31 +18559,31 @@
         <v>55</v>
       </c>
       <c r="K203">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L203">
         <v>3.25</v>
       </c>
       <c r="M203">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N203">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="O203">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P203">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q203">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R203">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S203">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T203">
         <v>2.5</v>
@@ -18592,10 +18592,10 @@
         <v>2.025</v>
       </c>
       <c r="V203">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W203">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="X203">
         <v>-1</v>
@@ -18604,7 +18604,7 @@
         <v>-1</v>
       </c>
       <c r="Z203">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA203">
         <v>-1</v>
@@ -18621,7 +18621,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6899210</v>
+        <v>6893102</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18633,13 +18633,13 @@
         <v>45165.29166666666</v>
       </c>
       <c r="F204" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G204" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I204">
         <v>1</v>
@@ -18648,31 +18648,31 @@
         <v>55</v>
       </c>
       <c r="K204">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L204">
         <v>3.25</v>
       </c>
       <c r="M204">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N204">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="O204">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P204">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q204">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R204">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S204">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T204">
         <v>2.5</v>
@@ -18681,10 +18681,10 @@
         <v>2.025</v>
       </c>
       <c r="V204">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W204">
-        <v>1.45</v>
+        <v>1.25</v>
       </c>
       <c r="X204">
         <v>-1</v>
@@ -18693,7 +18693,7 @@
         <v>-1</v>
       </c>
       <c r="Z204">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AA204">
         <v>-1</v>
@@ -19333,7 +19333,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6893107</v>
+        <v>7140182</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19345,76 +19345,76 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F212" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G212" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I212">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J212" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K212">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="L212">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M212">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="N212">
+        <v>2.3</v>
+      </c>
+      <c r="O212">
         <v>2.9</v>
       </c>
-      <c r="O212">
-        <v>3.5</v>
-      </c>
       <c r="P212">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q212">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R212">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S212">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T212">
         <v>2.25</v>
       </c>
       <c r="U212">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V212">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W212">
         <v>-1</v>
       </c>
       <c r="X212">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y212">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z212">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA212">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB212">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC212">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19422,7 +19422,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7140182</v>
+        <v>6893107</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19434,76 +19434,76 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F213" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G213" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J213" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K213">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="L213">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M213">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="N213">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="O213">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="P213">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q213">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R213">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S213">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T213">
         <v>2.25</v>
       </c>
       <c r="U213">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V213">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W213">
         <v>-1</v>
       </c>
       <c r="X213">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y213">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z213">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA213">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB213">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC213">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -23071,7 +23071,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>6893126</v>
+        <v>6893574</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -23083,34 +23083,34 @@
         <v>45234.33333333334</v>
       </c>
       <c r="F254" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G254" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J254" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K254">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L254">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M254">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="N254">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="O254">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P254">
         <v>3.8</v>
@@ -23119,40 +23119,40 @@
         <v>-0.5</v>
       </c>
       <c r="R254">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S254">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T254">
         <v>2.5</v>
       </c>
       <c r="U254">
+        <v>1.825</v>
+      </c>
+      <c r="V254">
         <v>1.975</v>
       </c>
-      <c r="V254">
-        <v>1.825</v>
-      </c>
       <c r="W254">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X254">
         <v>-1</v>
       </c>
       <c r="Y254">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z254">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA254">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB254">
         <v>-1</v>
       </c>
       <c r="AC254">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="255" spans="1:29">
@@ -23160,7 +23160,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>6893574</v>
+        <v>6893126</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23172,34 +23172,34 @@
         <v>45234.33333333334</v>
       </c>
       <c r="F255" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G255" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J255" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K255">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L255">
+        <v>3.4</v>
+      </c>
+      <c r="M255">
+        <v>3.8</v>
+      </c>
+      <c r="N255">
+        <v>1.8</v>
+      </c>
+      <c r="O255">
         <v>3.3</v>
-      </c>
-      <c r="M255">
-        <v>3.2</v>
-      </c>
-      <c r="N255">
-        <v>1.727</v>
-      </c>
-      <c r="O255">
-        <v>3.6</v>
       </c>
       <c r="P255">
         <v>3.8</v>
@@ -23208,40 +23208,40 @@
         <v>-0.5</v>
       </c>
       <c r="R255">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S255">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T255">
         <v>2.5</v>
       </c>
       <c r="U255">
+        <v>1.975</v>
+      </c>
+      <c r="V255">
         <v>1.825</v>
       </c>
-      <c r="V255">
-        <v>1.975</v>
-      </c>
       <c r="W255">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X255">
         <v>-1</v>
       </c>
       <c r="Y255">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z255">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA255">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB255">
         <v>-1</v>
       </c>
       <c r="AC255">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="256" spans="1:29">
@@ -23338,7 +23338,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>6893124</v>
+        <v>6893125</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -23350,76 +23350,76 @@
         <v>45234.625</v>
       </c>
       <c r="F257" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G257" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H257">
         <v>1</v>
       </c>
       <c r="I257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J257" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K257">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="L257">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M257">
+        <v>2.3</v>
+      </c>
+      <c r="N257">
+        <v>2.6</v>
+      </c>
+      <c r="O257">
         <v>3</v>
       </c>
-      <c r="N257">
-        <v>2.15</v>
-      </c>
-      <c r="O257">
-        <v>3.25</v>
-      </c>
       <c r="P257">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="Q257">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R257">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S257">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T257">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U257">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V257">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W257">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X257">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y257">
         <v>-1</v>
       </c>
       <c r="Z257">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA257">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB257">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC257">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="258" spans="1:29">
@@ -23427,7 +23427,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>6893125</v>
+        <v>6893124</v>
       </c>
       <c r="C258" t="s">
         <v>28</v>
@@ -23439,76 +23439,76 @@
         <v>45234.625</v>
       </c>
       <c r="F258" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G258" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H258">
         <v>1</v>
       </c>
       <c r="I258">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J258" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K258">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="L258">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M258">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="N258">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="O258">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P258">
+        <v>2.9</v>
+      </c>
+      <c r="Q258">
+        <v>-0.25</v>
+      </c>
+      <c r="R258">
+        <v>1.95</v>
+      </c>
+      <c r="S258">
+        <v>1.85</v>
+      </c>
+      <c r="T258">
         <v>2.5</v>
       </c>
-      <c r="Q258">
-        <v>0</v>
-      </c>
-      <c r="R258">
+      <c r="U258">
         <v>1.9</v>
       </c>
-      <c r="S258">
+      <c r="V258">
         <v>1.9</v>
       </c>
-      <c r="T258">
-        <v>2.25</v>
-      </c>
-      <c r="U258">
-        <v>1.875</v>
-      </c>
-      <c r="V258">
-        <v>1.925</v>
-      </c>
       <c r="W258">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X258">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y258">
         <v>-1</v>
       </c>
       <c r="Z258">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA258">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB258">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC258">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="259" spans="1:29">
@@ -28233,7 +28233,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>6893139</v>
+        <v>6893140</v>
       </c>
       <c r="C312" t="s">
         <v>28</v>
@@ -28245,55 +28245,55 @@
         <v>45290.33333333334</v>
       </c>
       <c r="F312" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G312" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H312">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I312">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J312" t="s">
         <v>54</v>
       </c>
       <c r="K312">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="L312">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M312">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="N312">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="O312">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P312">
-        <v>2.45</v>
+        <v>3.25</v>
       </c>
       <c r="Q312">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R312">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S312">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T312">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U312">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V312">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W312">
         <v>-1</v>
@@ -28302,16 +28302,16 @@
         <v>-1</v>
       </c>
       <c r="Y312">
-        <v>1.45</v>
+        <v>2.25</v>
       </c>
       <c r="Z312">
         <v>-1</v>
       </c>
       <c r="AA312">
-        <v>0.75</v>
+        <v>1.025</v>
       </c>
       <c r="AB312">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC312">
         <v>-1</v>
@@ -28322,7 +28322,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>6893140</v>
+        <v>6893139</v>
       </c>
       <c r="C313" t="s">
         <v>28</v>
@@ -28334,55 +28334,55 @@
         <v>45290.33333333334</v>
       </c>
       <c r="F313" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G313" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I313">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J313" t="s">
         <v>54</v>
       </c>
       <c r="K313">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="L313">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M313">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="N313">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="O313">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P313">
-        <v>3.25</v>
+        <v>2.45</v>
       </c>
       <c r="Q313">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R313">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S313">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T313">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U313">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V313">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W313">
         <v>-1</v>
@@ -28391,16 +28391,16 @@
         <v>-1</v>
       </c>
       <c r="Y313">
-        <v>2.25</v>
+        <v>1.45</v>
       </c>
       <c r="Z313">
         <v>-1</v>
       </c>
       <c r="AA313">
-        <v>1.025</v>
+        <v>0.75</v>
       </c>
       <c r="AB313">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC313">
         <v>-1</v>
@@ -28411,7 +28411,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>6893141</v>
+        <v>6893587</v>
       </c>
       <c r="C314" t="s">
         <v>28</v>
@@ -28423,76 +28423,76 @@
         <v>45290.45833333334</v>
       </c>
       <c r="F314" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G314" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I314">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J314" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K314">
-        <v>1.909</v>
+        <v>1.65</v>
       </c>
       <c r="L314">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M314">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N314">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="O314">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P314">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q314">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R314">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S314">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T314">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U314">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V314">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W314">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X314">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y314">
         <v>-1</v>
       </c>
       <c r="Z314">
+        <v>0.4375</v>
+      </c>
+      <c r="AA314">
         <v>-0.5</v>
       </c>
-      <c r="AA314">
-        <v>0.5125</v>
-      </c>
       <c r="AB314">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC314">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="315" spans="1:29">
@@ -28500,7 +28500,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>6893587</v>
+        <v>6893141</v>
       </c>
       <c r="C315" t="s">
         <v>28</v>
@@ -28512,76 +28512,76 @@
         <v>45290.45833333334</v>
       </c>
       <c r="F315" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G315" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H315">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I315">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J315" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K315">
-        <v>1.65</v>
+        <v>1.909</v>
       </c>
       <c r="L315">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M315">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N315">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="O315">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P315">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q315">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R315">
+        <v>1.825</v>
+      </c>
+      <c r="S315">
+        <v>2.025</v>
+      </c>
+      <c r="T315">
+        <v>2.25</v>
+      </c>
+      <c r="U315">
+        <v>1.975</v>
+      </c>
+      <c r="V315">
         <v>1.875</v>
       </c>
-      <c r="S315">
-        <v>1.925</v>
-      </c>
-      <c r="T315">
-        <v>2.5</v>
-      </c>
-      <c r="U315">
-        <v>1.85</v>
-      </c>
-      <c r="V315">
-        <v>1.95</v>
-      </c>
       <c r="W315">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X315">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y315">
         <v>-1</v>
       </c>
       <c r="Z315">
-        <v>0.4375</v>
+        <v>-0.5</v>
       </c>
       <c r="AA315">
-        <v>-0.5</v>
+        <v>0.5125</v>
       </c>
       <c r="AB315">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC315">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="316" spans="1:29">
@@ -29123,7 +29123,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>6893145</v>
+        <v>6899181</v>
       </c>
       <c r="C322" t="s">
         <v>28</v>
@@ -29135,76 +29135,76 @@
         <v>45297.625</v>
       </c>
       <c r="F322" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G322" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="H322">
         <v>1</v>
       </c>
       <c r="I322">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J322" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K322">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="L322">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M322">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N322">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O322">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P322">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q322">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R322">
+        <v>2.025</v>
+      </c>
+      <c r="S322">
+        <v>1.775</v>
+      </c>
+      <c r="T322">
+        <v>2.25</v>
+      </c>
+      <c r="U322">
+        <v>1.975</v>
+      </c>
+      <c r="V322">
         <v>1.825</v>
       </c>
-      <c r="S322">
-        <v>1.975</v>
-      </c>
-      <c r="T322">
-        <v>2.5</v>
-      </c>
-      <c r="U322">
-        <v>1.875</v>
-      </c>
-      <c r="V322">
-        <v>1.925</v>
-      </c>
       <c r="W322">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X322">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y322">
         <v>-1</v>
       </c>
       <c r="Z322">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA322">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB322">
         <v>-1</v>
       </c>
       <c r="AC322">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="323" spans="1:29">
@@ -29212,7 +29212,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>6899181</v>
+        <v>6893145</v>
       </c>
       <c r="C323" t="s">
         <v>28</v>
@@ -29224,76 +29224,76 @@
         <v>45297.625</v>
       </c>
       <c r="F323" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G323" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H323">
         <v>1</v>
       </c>
       <c r="I323">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J323" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K323">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="L323">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M323">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="N323">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O323">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P323">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q323">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R323">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S323">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T323">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U323">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V323">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W323">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X323">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y323">
         <v>-1</v>
       </c>
       <c r="Z323">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA323">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB323">
         <v>-1</v>
       </c>
       <c r="AC323">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="324" spans="1:29">
@@ -33039,7 +33039,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>6893598</v>
+        <v>6893600</v>
       </c>
       <c r="C366" t="s">
         <v>28</v>
@@ -33051,76 +33051,76 @@
         <v>45333.52083333334</v>
       </c>
       <c r="F366" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G366" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H366">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I366">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J366" t="s">
         <v>56</v>
       </c>
       <c r="K366">
+        <v>3.8</v>
+      </c>
+      <c r="L366">
+        <v>3.3</v>
+      </c>
+      <c r="M366">
+        <v>1.95</v>
+      </c>
+      <c r="N366">
+        <v>3.5</v>
+      </c>
+      <c r="O366">
+        <v>3.3</v>
+      </c>
+      <c r="P366">
         <v>2.05</v>
       </c>
-      <c r="L366">
-        <v>3.4</v>
-      </c>
-      <c r="M366">
-        <v>3.4</v>
-      </c>
-      <c r="N366">
-        <v>1.909</v>
-      </c>
-      <c r="O366">
-        <v>3.5</v>
-      </c>
-      <c r="P366">
-        <v>3.75</v>
-      </c>
       <c r="Q366">
+        <v>0.25</v>
+      </c>
+      <c r="R366">
+        <v>2.05</v>
+      </c>
+      <c r="S366">
+        <v>1.8</v>
+      </c>
+      <c r="T366">
+        <v>2.25</v>
+      </c>
+      <c r="U366">
+        <v>1.95</v>
+      </c>
+      <c r="V366">
+        <v>1.9</v>
+      </c>
+      <c r="W366">
+        <v>-1</v>
+      </c>
+      <c r="X366">
+        <v>2.3</v>
+      </c>
+      <c r="Y366">
+        <v>-1</v>
+      </c>
+      <c r="Z366">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="AA366">
         <v>-0.5</v>
       </c>
-      <c r="R366">
-        <v>1.9</v>
-      </c>
-      <c r="S366">
-        <v>1.9</v>
-      </c>
-      <c r="T366">
-        <v>2.5</v>
-      </c>
-      <c r="U366">
-        <v>1.85</v>
-      </c>
-      <c r="V366">
-        <v>1.95</v>
-      </c>
-      <c r="W366">
-        <v>-1</v>
-      </c>
-      <c r="X366">
-        <v>2.5</v>
-      </c>
-      <c r="Y366">
-        <v>-1</v>
-      </c>
-      <c r="Z366">
-        <v>-1</v>
-      </c>
-      <c r="AA366">
+      <c r="AB366">
+        <v>-1</v>
+      </c>
+      <c r="AC366">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB366">
-        <v>-1</v>
-      </c>
-      <c r="AC366">
-        <v>0.95</v>
       </c>
     </row>
     <row r="367" spans="1:29">
@@ -33128,7 +33128,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>6893600</v>
+        <v>6893598</v>
       </c>
       <c r="C367" t="s">
         <v>28</v>
@@ -33140,76 +33140,76 @@
         <v>45333.52083333334</v>
       </c>
       <c r="F367" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G367" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I367">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J367" t="s">
         <v>56</v>
       </c>
       <c r="K367">
-        <v>3.8</v>
+        <v>2.05</v>
       </c>
       <c r="L367">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M367">
+        <v>3.4</v>
+      </c>
+      <c r="N367">
+        <v>1.909</v>
+      </c>
+      <c r="O367">
+        <v>3.5</v>
+      </c>
+      <c r="P367">
+        <v>3.75</v>
+      </c>
+      <c r="Q367">
+        <v>-0.5</v>
+      </c>
+      <c r="R367">
+        <v>1.9</v>
+      </c>
+      <c r="S367">
+        <v>1.9</v>
+      </c>
+      <c r="T367">
+        <v>2.5</v>
+      </c>
+      <c r="U367">
+        <v>1.85</v>
+      </c>
+      <c r="V367">
         <v>1.95</v>
       </c>
-      <c r="N367">
-        <v>3.5</v>
-      </c>
-      <c r="O367">
-        <v>3.3</v>
-      </c>
-      <c r="P367">
-        <v>2.05</v>
-      </c>
-      <c r="Q367">
-        <v>0.25</v>
-      </c>
-      <c r="R367">
-        <v>2.05</v>
-      </c>
-      <c r="S367">
-        <v>1.8</v>
-      </c>
-      <c r="T367">
-        <v>2.25</v>
-      </c>
-      <c r="U367">
-        <v>1.95</v>
-      </c>
-      <c r="V367">
-        <v>1.9</v>
-      </c>
       <c r="W367">
         <v>-1</v>
       </c>
       <c r="X367">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Y367">
         <v>-1</v>
       </c>
       <c r="Z367">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA367">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB367">
         <v>-1</v>
       </c>
       <c r="AC367">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="368" spans="1:29">
@@ -34134,22 +34134,22 @@
         <v>2.35</v>
       </c>
       <c r="N378">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O378">
         <v>3.2</v>
       </c>
       <c r="P378">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="Q378">
         <v>0</v>
       </c>
       <c r="R378">
+        <v>1.975</v>
+      </c>
+      <c r="S378">
         <v>1.875</v>
-      </c>
-      <c r="S378">
-        <v>1.975</v>
       </c>
       <c r="T378">
         <v>2.25</v>
@@ -34229,10 +34229,10 @@
         <v>2.25</v>
       </c>
       <c r="U379">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V379">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W379">
         <v>0</v>
@@ -34294,10 +34294,10 @@
         <v>-1.25</v>
       </c>
       <c r="R380">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S380">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T380">
         <v>2.5</v>
@@ -34329,7 +34329,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>6893167</v>
+        <v>6893168</v>
       </c>
       <c r="C381" t="s">
         <v>28</v>
@@ -34338,49 +34338,49 @@
         <v>28</v>
       </c>
       <c r="E381" s="2">
-        <v>45346.52083333334</v>
+        <v>45346.45833333334</v>
       </c>
       <c r="F381" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G381" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="K381">
-        <v>1.833</v>
+        <v>1.4</v>
       </c>
       <c r="L381">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M381">
-        <v>4.333</v>
+        <v>7</v>
       </c>
       <c r="N381">
-        <v>1.833</v>
+        <v>1.4</v>
       </c>
       <c r="O381">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P381">
-        <v>4.333</v>
+        <v>7</v>
       </c>
       <c r="Q381">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R381">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S381">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T381">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U381">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V381">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W381">
         <v>0</v>
@@ -34403,7 +34403,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>6893169</v>
+        <v>6893167</v>
       </c>
       <c r="C382" t="s">
         <v>28</v>
@@ -34415,22 +34415,22 @@
         <v>45346.52083333334</v>
       </c>
       <c r="F382" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G382" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K382">
-        <v>1.75</v>
+        <v>1.833</v>
       </c>
       <c r="L382">
         <v>3.4</v>
       </c>
       <c r="M382">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="N382">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O382">
         <v>3.4</v>
@@ -34439,22 +34439,22 @@
         <v>4.5</v>
       </c>
       <c r="Q382">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R382">
+        <v>2.05</v>
+      </c>
+      <c r="S382">
         <v>1.8</v>
       </c>
-      <c r="S382">
-        <v>2.05</v>
-      </c>
       <c r="T382">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U382">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V382">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W382">
         <v>0</v>
@@ -34477,7 +34477,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>6899168</v>
+        <v>6893169</v>
       </c>
       <c r="C383" t="s">
         <v>28</v>
@@ -34486,49 +34486,49 @@
         <v>28</v>
       </c>
       <c r="E383" s="2">
-        <v>45347.33333333334</v>
+        <v>45346.52083333334</v>
       </c>
       <c r="F383" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G383" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="K383">
-        <v>2.8</v>
+        <v>1.75</v>
       </c>
       <c r="L383">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M383">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="N383">
-        <v>2.8</v>
+        <v>1.75</v>
       </c>
       <c r="O383">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P383">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="Q383">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R383">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S383">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T383">
         <v>2.25</v>
       </c>
       <c r="U383">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V383">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W383">
         <v>0</v>
@@ -34551,72 +34551,368 @@
         <v>382</v>
       </c>
       <c r="B384">
+        <v>6893603</v>
+      </c>
+      <c r="C384" t="s">
+        <v>28</v>
+      </c>
+      <c r="D384" t="s">
+        <v>28</v>
+      </c>
+      <c r="E384" s="2">
+        <v>45346.625</v>
+      </c>
+      <c r="F384" t="s">
+        <v>35</v>
+      </c>
+      <c r="G384" t="s">
+        <v>52</v>
+      </c>
+      <c r="K384">
+        <v>1.666</v>
+      </c>
+      <c r="L384">
+        <v>3.75</v>
+      </c>
+      <c r="M384">
+        <v>4.75</v>
+      </c>
+      <c r="N384">
+        <v>1.666</v>
+      </c>
+      <c r="O384">
+        <v>3.75</v>
+      </c>
+      <c r="P384">
+        <v>4.75</v>
+      </c>
+      <c r="Q384">
+        <v>-0.75</v>
+      </c>
+      <c r="R384">
+        <v>1.875</v>
+      </c>
+      <c r="S384">
+        <v>1.975</v>
+      </c>
+      <c r="T384">
+        <v>2.5</v>
+      </c>
+      <c r="U384">
+        <v>1.9</v>
+      </c>
+      <c r="V384">
+        <v>1.95</v>
+      </c>
+      <c r="W384">
+        <v>0</v>
+      </c>
+      <c r="X384">
+        <v>0</v>
+      </c>
+      <c r="Y384">
+        <v>0</v>
+      </c>
+      <c r="Z384">
+        <v>0</v>
+      </c>
+      <c r="AA384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:27">
+      <c r="A385" s="1">
+        <v>383</v>
+      </c>
+      <c r="B385">
+        <v>6899168</v>
+      </c>
+      <c r="C385" t="s">
+        <v>28</v>
+      </c>
+      <c r="D385" t="s">
+        <v>28</v>
+      </c>
+      <c r="E385" s="2">
+        <v>45347.33333333334</v>
+      </c>
+      <c r="F385" t="s">
+        <v>32</v>
+      </c>
+      <c r="G385" t="s">
+        <v>50</v>
+      </c>
+      <c r="K385">
+        <v>2.8</v>
+      </c>
+      <c r="L385">
+        <v>3.2</v>
+      </c>
+      <c r="M385">
+        <v>2.375</v>
+      </c>
+      <c r="N385">
+        <v>2.875</v>
+      </c>
+      <c r="O385">
+        <v>3.2</v>
+      </c>
+      <c r="P385">
+        <v>2.375</v>
+      </c>
+      <c r="Q385">
+        <v>0.25</v>
+      </c>
+      <c r="R385">
+        <v>1.775</v>
+      </c>
+      <c r="S385">
+        <v>2.1</v>
+      </c>
+      <c r="T385">
+        <v>2.25</v>
+      </c>
+      <c r="U385">
+        <v>1.925</v>
+      </c>
+      <c r="V385">
+        <v>1.925</v>
+      </c>
+      <c r="W385">
+        <v>0</v>
+      </c>
+      <c r="X385">
+        <v>0</v>
+      </c>
+      <c r="Y385">
+        <v>0</v>
+      </c>
+      <c r="Z385">
+        <v>0</v>
+      </c>
+      <c r="AA385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:27">
+      <c r="A386" s="1">
+        <v>384</v>
+      </c>
+      <c r="B386">
         <v>6893604</v>
       </c>
-      <c r="C384" t="s">
-        <v>28</v>
-      </c>
-      <c r="D384" t="s">
-        <v>28</v>
-      </c>
-      <c r="E384" s="2">
+      <c r="C386" t="s">
+        <v>28</v>
+      </c>
+      <c r="D386" t="s">
+        <v>28</v>
+      </c>
+      <c r="E386" s="2">
         <v>45347.45833333334</v>
       </c>
-      <c r="F384" t="s">
+      <c r="F386" t="s">
         <v>53</v>
       </c>
-      <c r="G384" t="s">
+      <c r="G386" t="s">
         <v>33</v>
       </c>
-      <c r="K384">
+      <c r="K386">
         <v>3.1</v>
       </c>
-      <c r="L384">
+      <c r="L386">
         <v>3.2</v>
       </c>
-      <c r="M384">
+      <c r="M386">
         <v>2.2</v>
       </c>
-      <c r="N384">
+      <c r="N386">
         <v>3.1</v>
       </c>
-      <c r="O384">
+      <c r="O386">
         <v>3.2</v>
       </c>
-      <c r="P384">
+      <c r="P386">
         <v>2.2</v>
       </c>
-      <c r="Q384">
+      <c r="Q386">
         <v>0.25</v>
       </c>
-      <c r="R384">
+      <c r="R386">
         <v>1.9</v>
       </c>
-      <c r="S384">
+      <c r="S386">
         <v>1.95</v>
       </c>
-      <c r="T384">
+      <c r="T386">
         <v>2.25</v>
       </c>
-      <c r="U384">
+      <c r="U386">
+        <v>1.975</v>
+      </c>
+      <c r="V386">
+        <v>1.875</v>
+      </c>
+      <c r="W386">
+        <v>0</v>
+      </c>
+      <c r="X386">
+        <v>0</v>
+      </c>
+      <c r="Y386">
+        <v>0</v>
+      </c>
+      <c r="Z386">
+        <v>0</v>
+      </c>
+      <c r="AA386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:27">
+      <c r="A387" s="1">
+        <v>385</v>
+      </c>
+      <c r="B387">
+        <v>6893166</v>
+      </c>
+      <c r="C387" t="s">
+        <v>28</v>
+      </c>
+      <c r="D387" t="s">
+        <v>28</v>
+      </c>
+      <c r="E387" s="2">
+        <v>45348.625</v>
+      </c>
+      <c r="F387" t="s">
+        <v>47</v>
+      </c>
+      <c r="G387" t="s">
+        <v>42</v>
+      </c>
+      <c r="K387">
+        <v>1.8</v>
+      </c>
+      <c r="L387">
+        <v>3.3</v>
+      </c>
+      <c r="M387">
+        <v>4.5</v>
+      </c>
+      <c r="N387">
+        <v>1.8</v>
+      </c>
+      <c r="O387">
+        <v>3.3</v>
+      </c>
+      <c r="P387">
+        <v>4.5</v>
+      </c>
+      <c r="Q387">
+        <v>-0.5</v>
+      </c>
+      <c r="R387">
+        <v>1.825</v>
+      </c>
+      <c r="S387">
+        <v>2.025</v>
+      </c>
+      <c r="T387">
+        <v>2.25</v>
+      </c>
+      <c r="U387">
+        <v>1.925</v>
+      </c>
+      <c r="V387">
+        <v>1.925</v>
+      </c>
+      <c r="W387">
+        <v>0</v>
+      </c>
+      <c r="X387">
+        <v>0</v>
+      </c>
+      <c r="Y387">
+        <v>0</v>
+      </c>
+      <c r="Z387">
+        <v>0</v>
+      </c>
+      <c r="AA387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:27">
+      <c r="A388" s="1">
+        <v>386</v>
+      </c>
+      <c r="B388">
+        <v>6899275</v>
+      </c>
+      <c r="C388" t="s">
+        <v>28</v>
+      </c>
+      <c r="D388" t="s">
+        <v>28</v>
+      </c>
+      <c r="E388" s="2">
+        <v>45349.71875</v>
+      </c>
+      <c r="F388" t="s">
+        <v>48</v>
+      </c>
+      <c r="G388" t="s">
+        <v>30</v>
+      </c>
+      <c r="K388">
+        <v>2</v>
+      </c>
+      <c r="L388">
+        <v>3.25</v>
+      </c>
+      <c r="M388">
+        <v>3.6</v>
+      </c>
+      <c r="N388">
+        <v>2</v>
+      </c>
+      <c r="O388">
+        <v>3.25</v>
+      </c>
+      <c r="P388">
+        <v>3.6</v>
+      </c>
+      <c r="Q388">
+        <v>-0.5</v>
+      </c>
+      <c r="R388">
+        <v>2.05</v>
+      </c>
+      <c r="S388">
+        <v>1.8</v>
+      </c>
+      <c r="T388">
+        <v>2.25</v>
+      </c>
+      <c r="U388">
+        <v>1.9</v>
+      </c>
+      <c r="V388">
         <v>1.95</v>
       </c>
-      <c r="V384">
-        <v>1.9</v>
-      </c>
-      <c r="W384">
-        <v>0</v>
-      </c>
-      <c r="X384">
-        <v>0</v>
-      </c>
-      <c r="Y384">
-        <v>0</v>
-      </c>
-      <c r="Z384">
-        <v>0</v>
-      </c>
-      <c r="AA384">
+      <c r="W388">
+        <v>0</v>
+      </c>
+      <c r="X388">
+        <v>0</v>
+      </c>
+      <c r="Y388">
+        <v>0</v>
+      </c>
+      <c r="Z388">
+        <v>0</v>
+      </c>
+      <c r="AA388">
         <v>0</v>
       </c>
     </row>

--- a/Portugal Segunda Liga/Portugal Segunda Liga.xlsx
+++ b/Portugal Segunda Liga/Portugal Segunda Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1952" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1949" uniqueCount="57">
   <si>
     <t>id</t>
   </si>
@@ -546,7 +546,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC388"/>
+  <dimension ref="A1:AC387"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3224,7 +3224,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5266491</v>
+        <v>5265515</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3236,46 +3236,46 @@
         <v>44955.45833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G31" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K31">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="L31">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M31">
-        <v>2.375</v>
+        <v>4.2</v>
       </c>
       <c r="N31">
-        <v>2.6</v>
+        <v>1.833</v>
       </c>
       <c r="O31">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P31">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R31">
         <v>1.9</v>
       </c>
       <c r="S31">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T31">
         <v>2.25</v>
@@ -3284,28 +3284,28 @@
         <v>1.9</v>
       </c>
       <c r="V31">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA31">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC31">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3313,7 +3313,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5265515</v>
+        <v>5266491</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3325,46 +3325,46 @@
         <v>44955.45833333334</v>
       </c>
       <c r="F32" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G32" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32">
+        <v>2</v>
+      </c>
+      <c r="J32" t="s">
+        <v>54</v>
+      </c>
+      <c r="K32">
+        <v>2.8</v>
+      </c>
+      <c r="L32">
+        <v>3.2</v>
+      </c>
+      <c r="M32">
+        <v>2.375</v>
+      </c>
+      <c r="N32">
+        <v>2.6</v>
+      </c>
+      <c r="O32">
+        <v>3.1</v>
+      </c>
+      <c r="P32">
+        <v>2.6</v>
+      </c>
+      <c r="Q32">
         <v>0</v>
-      </c>
-      <c r="J32" t="s">
-        <v>55</v>
-      </c>
-      <c r="K32">
-        <v>1.8</v>
-      </c>
-      <c r="L32">
-        <v>3.3</v>
-      </c>
-      <c r="M32">
-        <v>4.2</v>
-      </c>
-      <c r="N32">
-        <v>1.833</v>
-      </c>
-      <c r="O32">
-        <v>3.3</v>
-      </c>
-      <c r="P32">
-        <v>4</v>
-      </c>
-      <c r="Q32">
-        <v>-0.5</v>
       </c>
       <c r="R32">
         <v>1.9</v>
       </c>
       <c r="S32">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T32">
         <v>2.25</v>
@@ -3373,28 +3373,28 @@
         <v>1.9</v>
       </c>
       <c r="V32">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W32">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z32">
+        <v>-1</v>
+      </c>
+      <c r="AA32">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA32">
-        <v>-1</v>
-      </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC32">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -4114,7 +4114,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>5265414</v>
+        <v>5266489</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4126,73 +4126,73 @@
         <v>44961.52083333334</v>
       </c>
       <c r="F41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G41" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K41">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="L41">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M41">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="N41">
-        <v>2.45</v>
+        <v>1.6</v>
       </c>
       <c r="O41">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P41">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="Q41">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R41">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S41">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T41">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U41">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V41">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W41">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z41">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB41">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AC41">
         <v>-1</v>
@@ -4203,7 +4203,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>5266489</v>
+        <v>5265414</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4215,73 +4215,73 @@
         <v>44961.52083333334</v>
       </c>
       <c r="F42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H42">
+        <v>3</v>
+      </c>
+      <c r="I42">
         <v>1</v>
       </c>
-      <c r="I42">
-        <v>2</v>
-      </c>
       <c r="J42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K42">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="L42">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M42">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="N42">
-        <v>1.6</v>
+        <v>2.45</v>
       </c>
       <c r="O42">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P42">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="Q42">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R42">
+        <v>1.825</v>
+      </c>
+      <c r="S42">
+        <v>1.975</v>
+      </c>
+      <c r="T42">
+        <v>2.25</v>
+      </c>
+      <c r="U42">
+        <v>2.025</v>
+      </c>
+      <c r="V42">
         <v>1.775</v>
       </c>
-      <c r="S42">
-        <v>2.025</v>
-      </c>
-      <c r="T42">
-        <v>2.5</v>
-      </c>
-      <c r="U42">
-        <v>1.925</v>
-      </c>
-      <c r="V42">
-        <v>1.875</v>
-      </c>
       <c r="W42">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA42">
+        <v>-1</v>
+      </c>
+      <c r="AB42">
         <v>1.025</v>
-      </c>
-      <c r="AB42">
-        <v>0.925</v>
       </c>
       <c r="AC42">
         <v>-1</v>
@@ -4381,7 +4381,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>5263141</v>
+        <v>5265413</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4393,76 +4393,76 @@
         <v>44962.45833333334</v>
       </c>
       <c r="F44" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G44" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44">
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K44">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="L44">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M44">
         <v>2.5</v>
       </c>
       <c r="N44">
-        <v>2.55</v>
+        <v>2.375</v>
       </c>
       <c r="O44">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P44">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="Q44">
         <v>0</v>
       </c>
       <c r="R44">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S44">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T44">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U44">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V44">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W44">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA44">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC44">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4470,7 +4470,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>5265413</v>
+        <v>5263141</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4482,76 +4482,76 @@
         <v>44962.45833333334</v>
       </c>
       <c r="F45" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G45" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45">
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K45">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="L45">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M45">
         <v>2.5</v>
       </c>
       <c r="N45">
-        <v>2.375</v>
+        <v>2.55</v>
       </c>
       <c r="O45">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P45">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q45">
         <v>0</v>
       </c>
       <c r="R45">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S45">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T45">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U45">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V45">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W45">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z45">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB45">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4915,7 +4915,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5265420</v>
+        <v>5263142</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4927,43 +4927,43 @@
         <v>44968.52083333334</v>
       </c>
       <c r="F50" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G50" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
         <v>1</v>
       </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
       <c r="J50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K50">
-        <v>4</v>
+        <v>1.666</v>
       </c>
       <c r="L50">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M50">
-        <v>1.833</v>
+        <v>4.75</v>
       </c>
       <c r="N50">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="O50">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P50">
-        <v>2.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q50">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R50">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S50">
         <v>1.975</v>
@@ -4972,31 +4972,31 @@
         <v>2</v>
       </c>
       <c r="U50">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V50">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="W50">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z50">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB50">
         <v>-1</v>
       </c>
       <c r="AC50">
-        <v>0.9750000000000001</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5004,7 +5004,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5263142</v>
+        <v>5265420</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5016,43 +5016,43 @@
         <v>44968.52083333334</v>
       </c>
       <c r="F51" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G51" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
         <v>0</v>
       </c>
-      <c r="I51">
-        <v>1</v>
-      </c>
       <c r="J51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K51">
-        <v>1.666</v>
+        <v>4</v>
       </c>
       <c r="L51">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M51">
-        <v>4.75</v>
+        <v>1.833</v>
       </c>
       <c r="N51">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="O51">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P51">
-        <v>4.333</v>
+        <v>2.2</v>
       </c>
       <c r="Q51">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R51">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S51">
         <v>1.975</v>
@@ -5061,31 +5061,31 @@
         <v>2</v>
       </c>
       <c r="U51">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V51">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA51">
+        <v>-1</v>
+      </c>
+      <c r="AB51">
+        <v>-1</v>
+      </c>
+      <c r="AC51">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB51">
-        <v>-1</v>
-      </c>
-      <c r="AC51">
-        <v>1.1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5271,7 +5271,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>5265419</v>
+        <v>5266486</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5283,73 +5283,73 @@
         <v>44970.625</v>
       </c>
       <c r="F54" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G54" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J54" t="s">
         <v>56</v>
       </c>
       <c r="K54">
-        <v>1.85</v>
+        <v>2.6</v>
       </c>
       <c r="L54">
         <v>3.2</v>
       </c>
       <c r="M54">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N54">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="O54">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P54">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q54">
+        <v>0.25</v>
+      </c>
+      <c r="R54">
+        <v>1.825</v>
+      </c>
+      <c r="S54">
+        <v>1.975</v>
+      </c>
+      <c r="T54">
+        <v>2.25</v>
+      </c>
+      <c r="U54">
+        <v>1.925</v>
+      </c>
+      <c r="V54">
+        <v>1.875</v>
+      </c>
+      <c r="W54">
+        <v>-1</v>
+      </c>
+      <c r="X54">
+        <v>2</v>
+      </c>
+      <c r="Y54">
+        <v>-1</v>
+      </c>
+      <c r="Z54">
+        <v>0.4125</v>
+      </c>
+      <c r="AA54">
         <v>-0.5</v>
       </c>
-      <c r="R54">
-        <v>1.975</v>
-      </c>
-      <c r="S54">
-        <v>1.825</v>
-      </c>
-      <c r="T54">
-        <v>2.5</v>
-      </c>
-      <c r="U54">
-        <v>1.9</v>
-      </c>
-      <c r="V54">
-        <v>1.9</v>
-      </c>
-      <c r="W54">
-        <v>-1</v>
-      </c>
-      <c r="X54">
-        <v>2.3</v>
-      </c>
-      <c r="Y54">
-        <v>-1</v>
-      </c>
-      <c r="Z54">
-        <v>-1</v>
-      </c>
-      <c r="AA54">
-        <v>0.825</v>
-      </c>
       <c r="AB54">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC54">
         <v>-1</v>
@@ -5360,7 +5360,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>5266486</v>
+        <v>5265419</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5372,73 +5372,73 @@
         <v>44970.625</v>
       </c>
       <c r="F55" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G55" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J55" t="s">
         <v>56</v>
       </c>
       <c r="K55">
-        <v>2.6</v>
+        <v>1.85</v>
       </c>
       <c r="L55">
         <v>3.2</v>
       </c>
       <c r="M55">
+        <v>4</v>
+      </c>
+      <c r="N55">
+        <v>1.909</v>
+      </c>
+      <c r="O55">
+        <v>3.3</v>
+      </c>
+      <c r="P55">
+        <v>3.75</v>
+      </c>
+      <c r="Q55">
+        <v>-0.5</v>
+      </c>
+      <c r="R55">
+        <v>1.975</v>
+      </c>
+      <c r="S55">
+        <v>1.825</v>
+      </c>
+      <c r="T55">
         <v>2.5</v>
       </c>
-      <c r="N55">
-        <v>3.1</v>
-      </c>
-      <c r="O55">
-        <v>3</v>
-      </c>
-      <c r="P55">
-        <v>2.15</v>
-      </c>
-      <c r="Q55">
-        <v>0.25</v>
-      </c>
-      <c r="R55">
-        <v>1.825</v>
-      </c>
-      <c r="S55">
-        <v>1.975</v>
-      </c>
-      <c r="T55">
-        <v>2.25</v>
-      </c>
       <c r="U55">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V55">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="Y55">
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB55">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC55">
         <v>-1</v>
@@ -5716,7 +5716,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>5265423</v>
+        <v>5265426</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5728,10 +5728,10 @@
         <v>44975.52083333334</v>
       </c>
       <c r="F59" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G59" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -5743,40 +5743,40 @@
         <v>54</v>
       </c>
       <c r="K59">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="L59">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M59">
         <v>3</v>
       </c>
       <c r="N59">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="O59">
+        <v>2.875</v>
+      </c>
+      <c r="P59">
         <v>3.2</v>
       </c>
-      <c r="P59">
-        <v>2.55</v>
-      </c>
       <c r="Q59">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R59">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S59">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T59">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U59">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V59">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W59">
         <v>-1</v>
@@ -5785,16 +5785,16 @@
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>1.55</v>
+        <v>2.2</v>
       </c>
       <c r="Z59">
         <v>-1</v>
       </c>
       <c r="AA59">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB59">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC59">
         <v>-1</v>
@@ -5805,7 +5805,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>5265426</v>
+        <v>5265423</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5817,10 +5817,10 @@
         <v>44975.52083333334</v>
       </c>
       <c r="F60" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G60" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -5832,40 +5832,40 @@
         <v>54</v>
       </c>
       <c r="K60">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="L60">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M60">
         <v>3</v>
       </c>
       <c r="N60">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="O60">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="P60">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="Q60">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R60">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S60">
+        <v>1.925</v>
+      </c>
+      <c r="T60">
+        <v>2.25</v>
+      </c>
+      <c r="U60">
         <v>1.8</v>
       </c>
-      <c r="T60">
-        <v>2</v>
-      </c>
-      <c r="U60">
-        <v>1.975</v>
-      </c>
       <c r="V60">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W60">
         <v>-1</v>
@@ -5874,16 +5874,16 @@
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="Z60">
         <v>-1</v>
       </c>
       <c r="AA60">
+        <v>0.925</v>
+      </c>
+      <c r="AB60">
         <v>0.8</v>
-      </c>
-      <c r="AB60">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC60">
         <v>-1</v>
@@ -6606,7 +6606,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>5265429</v>
+        <v>5265516</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6618,37 +6618,37 @@
         <v>44983.33333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G69" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H69">
         <v>1</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J69" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K69">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="L69">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M69">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="N69">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O69">
         <v>3</v>
       </c>
       <c r="P69">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q69">
         <v>-0.25</v>
@@ -6657,37 +6657,37 @@
         <v>2</v>
       </c>
       <c r="S69">
+        <v>1.8</v>
+      </c>
+      <c r="T69">
+        <v>2.25</v>
+      </c>
+      <c r="U69">
+        <v>1.95</v>
+      </c>
+      <c r="V69">
         <v>1.85</v>
       </c>
-      <c r="T69">
-        <v>2.5</v>
-      </c>
-      <c r="U69">
-        <v>2.125</v>
-      </c>
-      <c r="V69">
-        <v>1.75</v>
-      </c>
       <c r="W69">
         <v>-1</v>
       </c>
       <c r="X69">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y69">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z69">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC69">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6695,7 +6695,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>5265516</v>
+        <v>5265429</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6707,37 +6707,37 @@
         <v>44983.33333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G70" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H70">
         <v>1</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K70">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="L70">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M70">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="N70">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O70">
         <v>3</v>
       </c>
       <c r="P70">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Q70">
         <v>-0.25</v>
@@ -6746,37 +6746,37 @@
         <v>2</v>
       </c>
       <c r="S70">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T70">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U70">
-        <v>1.95</v>
+        <v>2.125</v>
       </c>
       <c r="V70">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="W70">
         <v>-1</v>
       </c>
       <c r="X70">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y70">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA70">
-        <v>0.8</v>
+        <v>0.425</v>
       </c>
       <c r="AB70">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6784,7 +6784,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>5266483</v>
+        <v>5265433</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6796,76 +6796,76 @@
         <v>44983.45833333334</v>
       </c>
       <c r="F71" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G71" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71">
         <v>0</v>
       </c>
-      <c r="I71">
-        <v>1</v>
-      </c>
       <c r="J71" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K71">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="L71">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M71">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="N71">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="O71">
         <v>3.2</v>
       </c>
       <c r="P71">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q71">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R71">
+        <v>1.975</v>
+      </c>
+      <c r="S71">
+        <v>1.825</v>
+      </c>
+      <c r="T71">
+        <v>2</v>
+      </c>
+      <c r="U71">
         <v>1.75</v>
       </c>
-      <c r="S71">
+      <c r="V71">
         <v>2.05</v>
       </c>
-      <c r="T71">
-        <v>2.5</v>
-      </c>
-      <c r="U71">
-        <v>2.025</v>
-      </c>
-      <c r="V71">
-        <v>1.775</v>
-      </c>
       <c r="W71">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA71">
+        <v>-1</v>
+      </c>
+      <c r="AB71">
+        <v>-1</v>
+      </c>
+      <c r="AC71">
         <v>1.05</v>
-      </c>
-      <c r="AB71">
-        <v>-1</v>
-      </c>
-      <c r="AC71">
-        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6873,7 +6873,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>5265433</v>
+        <v>5266483</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6885,76 +6885,76 @@
         <v>44983.45833333334</v>
       </c>
       <c r="F72" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G72" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
         <v>1</v>
       </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
       <c r="J72" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K72">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="L72">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M72">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="N72">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="O72">
         <v>3.2</v>
       </c>
       <c r="P72">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="Q72">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R72">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S72">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T72">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U72">
+        <v>2.025</v>
+      </c>
+      <c r="V72">
+        <v>1.775</v>
+      </c>
+      <c r="W72">
+        <v>-1</v>
+      </c>
+      <c r="X72">
+        <v>-1</v>
+      </c>
+      <c r="Y72">
         <v>1.75</v>
       </c>
-      <c r="V72">
-        <v>2.05</v>
-      </c>
-      <c r="W72">
-        <v>2.25</v>
-      </c>
-      <c r="X72">
-        <v>-1</v>
-      </c>
-      <c r="Y72">
-        <v>-1</v>
-      </c>
       <c r="Z72">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA72">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB72">
         <v>-1</v>
       </c>
       <c r="AC72">
-        <v>1.05</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -7051,7 +7051,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>5265440</v>
+        <v>5265438</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7063,76 +7063,76 @@
         <v>44989.33333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G74" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K74">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="L74">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M74">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="N74">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="O74">
         <v>3.4</v>
       </c>
       <c r="P74">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="Q74">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R74">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S74">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T74">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U74">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V74">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W74">
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y74">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
         <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB74">
         <v>-1</v>
       </c>
       <c r="AC74">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7140,7 +7140,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>5265438</v>
+        <v>5265440</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7152,76 +7152,76 @@
         <v>44989.33333333334</v>
       </c>
       <c r="F75" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G75" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K75">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="L75">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M75">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="N75">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="O75">
         <v>3.4</v>
       </c>
       <c r="P75">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="Q75">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R75">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S75">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T75">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U75">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V75">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W75">
         <v>-1</v>
       </c>
       <c r="X75">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z75">
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB75">
         <v>-1</v>
       </c>
       <c r="AC75">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -8030,7 +8030,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>5263145</v>
+        <v>5265444</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8042,19 +8042,19 @@
         <v>44996.45833333334</v>
       </c>
       <c r="F85" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G85" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K85">
         <v>2.375</v>
@@ -8066,49 +8066,49 @@
         <v>2.75</v>
       </c>
       <c r="N85">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="O85">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P85">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="Q85">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R85">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S85">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T85">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U85">
+        <v>1.85</v>
+      </c>
+      <c r="V85">
         <v>1.95</v>
       </c>
-      <c r="V85">
-        <v>1.85</v>
-      </c>
       <c r="W85">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X85">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA85">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC85">
         <v>-1</v>
@@ -8119,7 +8119,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>5265444</v>
+        <v>5263145</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8131,19 +8131,19 @@
         <v>44996.45833333334</v>
       </c>
       <c r="F86" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G86" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H86">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J86" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K86">
         <v>2.375</v>
@@ -8155,49 +8155,49 @@
         <v>2.75</v>
       </c>
       <c r="N86">
+        <v>2</v>
+      </c>
+      <c r="O86">
+        <v>3.3</v>
+      </c>
+      <c r="P86">
+        <v>3.4</v>
+      </c>
+      <c r="Q86">
+        <v>-0.5</v>
+      </c>
+      <c r="R86">
+        <v>2</v>
+      </c>
+      <c r="S86">
+        <v>1.8</v>
+      </c>
+      <c r="T86">
         <v>2.5</v>
       </c>
-      <c r="O86">
-        <v>3.25</v>
-      </c>
-      <c r="P86">
-        <v>2.55</v>
-      </c>
-      <c r="Q86">
-        <v>0</v>
-      </c>
-      <c r="R86">
-        <v>1.9</v>
-      </c>
-      <c r="S86">
-        <v>1.9</v>
-      </c>
-      <c r="T86">
-        <v>2.25</v>
-      </c>
       <c r="U86">
+        <v>1.95</v>
+      </c>
+      <c r="V86">
         <v>1.85</v>
       </c>
-      <c r="V86">
-        <v>1.95</v>
-      </c>
       <c r="W86">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X86">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB86">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC86">
         <v>-1</v>
@@ -8475,7 +8475,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>5265446</v>
+        <v>5266479</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8487,76 +8487,76 @@
         <v>44997.52083333334</v>
       </c>
       <c r="F90" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G90" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K90">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="L90">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M90">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="N90">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="O90">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P90">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="Q90">
         <v>0.25</v>
       </c>
       <c r="R90">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S90">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T90">
         <v>2.25</v>
       </c>
       <c r="U90">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V90">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W90">
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z90">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB90">
         <v>-0.5</v>
       </c>
       <c r="AC90">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8564,7 +8564,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>5266479</v>
+        <v>5265446</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8576,76 +8576,76 @@
         <v>44997.52083333334</v>
       </c>
       <c r="F91" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G91" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K91">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="L91">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M91">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="N91">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="O91">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P91">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="Q91">
         <v>0.25</v>
       </c>
       <c r="R91">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S91">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T91">
         <v>2.25</v>
       </c>
       <c r="U91">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V91">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y91">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA91">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB91">
         <v>-0.5</v>
       </c>
       <c r="AC91">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -9810,7 +9810,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6450995</v>
+        <v>6450996</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9822,13 +9822,13 @@
         <v>45018.29166666666</v>
       </c>
       <c r="F105" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G105" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I105">
         <v>3</v>
@@ -9846,31 +9846,31 @@
         <v>2.5</v>
       </c>
       <c r="N105">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="O105">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P105">
+        <v>2.45</v>
+      </c>
+      <c r="Q105">
+        <v>0</v>
+      </c>
+      <c r="R105">
         <v>1.95</v>
       </c>
-      <c r="Q105">
-        <v>0.25</v>
-      </c>
-      <c r="R105">
-        <v>2.025</v>
-      </c>
       <c r="S105">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T105">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U105">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V105">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W105">
         <v>-1</v>
@@ -9879,16 +9879,16 @@
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>0.95</v>
+        <v>1.45</v>
       </c>
       <c r="Z105">
         <v>-1</v>
       </c>
       <c r="AA105">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB105">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC105">
         <v>-1</v>
@@ -9899,7 +9899,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6450996</v>
+        <v>6450995</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9911,13 +9911,13 @@
         <v>45018.29166666666</v>
       </c>
       <c r="F106" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G106" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I106">
         <v>3</v>
@@ -9935,32 +9935,32 @@
         <v>2.5</v>
       </c>
       <c r="N106">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="O106">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P106">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="Q106">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R106">
+        <v>2.025</v>
+      </c>
+      <c r="S106">
+        <v>1.775</v>
+      </c>
+      <c r="T106">
+        <v>2.5</v>
+      </c>
+      <c r="U106">
         <v>1.95</v>
       </c>
-      <c r="S106">
+      <c r="V106">
         <v>1.85</v>
       </c>
-      <c r="T106">
-        <v>2.25</v>
-      </c>
-      <c r="U106">
-        <v>1.975</v>
-      </c>
-      <c r="V106">
-        <v>1.825</v>
-      </c>
       <c r="W106">
         <v>-1</v>
       </c>
@@ -9968,16 +9968,16 @@
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>1.45</v>
+        <v>0.95</v>
       </c>
       <c r="Z106">
         <v>-1</v>
       </c>
       <c r="AA106">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB106">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC106">
         <v>-1</v>
@@ -14705,7 +14705,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>5470312</v>
+        <v>5470311</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14717,58 +14717,58 @@
         <v>45060.47916666666</v>
       </c>
       <c r="F160" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G160" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H160">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J160" t="s">
         <v>55</v>
       </c>
       <c r="K160">
-        <v>1.533</v>
+        <v>2.15</v>
       </c>
       <c r="L160">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M160">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="N160">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="O160">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P160">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="Q160">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R160">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S160">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T160">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U160">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V160">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W160">
-        <v>0.7</v>
+        <v>0.95</v>
       </c>
       <c r="X160">
         <v>-1</v>
@@ -14777,13 +14777,13 @@
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA160">
         <v>-1</v>
       </c>
       <c r="AB160">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC160">
         <v>-1</v>
@@ -14794,7 +14794,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>5470311</v>
+        <v>5470312</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14806,58 +14806,58 @@
         <v>45060.47916666666</v>
       </c>
       <c r="F161" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G161" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H161">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J161" t="s">
         <v>55</v>
       </c>
       <c r="K161">
-        <v>2.15</v>
+        <v>1.533</v>
       </c>
       <c r="L161">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M161">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="N161">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="O161">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P161">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q161">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R161">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S161">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T161">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U161">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V161">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W161">
-        <v>0.95</v>
+        <v>0.7</v>
       </c>
       <c r="X161">
         <v>-1</v>
@@ -14866,13 +14866,13 @@
         <v>-1</v>
       </c>
       <c r="Z161">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA161">
         <v>-1</v>
       </c>
       <c r="AB161">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC161">
         <v>-1</v>
@@ -15061,7 +15061,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>5484709</v>
+        <v>5499375</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15073,76 +15073,76 @@
         <v>45065.58333333334</v>
       </c>
       <c r="F164" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G164" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H164">
+        <v>2</v>
+      </c>
+      <c r="I164">
         <v>0</v>
       </c>
-      <c r="I164">
-        <v>1</v>
-      </c>
       <c r="J164" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K164">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="L164">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M164">
-        <v>1.833</v>
+        <v>2.75</v>
       </c>
       <c r="N164">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="O164">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P164">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="Q164">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R164">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S164">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="T164">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U164">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V164">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W164">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X164">
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z164">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA164">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB164">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC164">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15150,7 +15150,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>5499375</v>
+        <v>5484709</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15162,76 +15162,76 @@
         <v>45065.58333333334</v>
       </c>
       <c r="F165" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G165" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K165">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="L165">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M165">
+        <v>1.833</v>
+      </c>
+      <c r="N165">
+        <v>4.2</v>
+      </c>
+      <c r="O165">
+        <v>3.6</v>
+      </c>
+      <c r="P165">
+        <v>1.727</v>
+      </c>
+      <c r="Q165">
+        <v>0.5</v>
+      </c>
+      <c r="R165">
+        <v>2.1</v>
+      </c>
+      <c r="S165">
+        <v>1.775</v>
+      </c>
+      <c r="T165">
         <v>2.75</v>
       </c>
-      <c r="N165">
-        <v>2.3</v>
-      </c>
-      <c r="O165">
-        <v>3</v>
-      </c>
-      <c r="P165">
-        <v>2.875</v>
-      </c>
-      <c r="Q165">
-        <v>-0.25</v>
-      </c>
-      <c r="R165">
-        <v>2.05</v>
-      </c>
-      <c r="S165">
-        <v>1.75</v>
-      </c>
-      <c r="T165">
-        <v>2.25</v>
-      </c>
       <c r="U165">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V165">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W165">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X165">
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z165">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA165">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB165">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC165">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -18532,7 +18532,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6899210</v>
+        <v>6893102</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18544,13 +18544,13 @@
         <v>45165.29166666666</v>
       </c>
       <c r="F203" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G203" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I203">
         <v>1</v>
@@ -18559,31 +18559,31 @@
         <v>55</v>
       </c>
       <c r="K203">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L203">
         <v>3.25</v>
       </c>
       <c r="M203">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N203">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="O203">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P203">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q203">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R203">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S203">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T203">
         <v>2.5</v>
@@ -18592,10 +18592,10 @@
         <v>2.025</v>
       </c>
       <c r="V203">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W203">
-        <v>1.45</v>
+        <v>1.25</v>
       </c>
       <c r="X203">
         <v>-1</v>
@@ -18604,7 +18604,7 @@
         <v>-1</v>
       </c>
       <c r="Z203">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AA203">
         <v>-1</v>
@@ -18621,7 +18621,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6893102</v>
+        <v>6899210</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18633,13 +18633,13 @@
         <v>45165.29166666666</v>
       </c>
       <c r="F204" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G204" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H204">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I204">
         <v>1</v>
@@ -18648,31 +18648,31 @@
         <v>55</v>
       </c>
       <c r="K204">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L204">
         <v>3.25</v>
       </c>
       <c r="M204">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N204">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="O204">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P204">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q204">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R204">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S204">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T204">
         <v>2.5</v>
@@ -18681,10 +18681,10 @@
         <v>2.025</v>
       </c>
       <c r="V204">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W204">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="X204">
         <v>-1</v>
@@ -18693,7 +18693,7 @@
         <v>-1</v>
       </c>
       <c r="Z204">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA204">
         <v>-1</v>
@@ -19333,7 +19333,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7140182</v>
+        <v>6893107</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19345,76 +19345,76 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F212" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G212" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J212" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K212">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="L212">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M212">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="N212">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="O212">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="P212">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q212">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R212">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S212">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T212">
         <v>2.25</v>
       </c>
       <c r="U212">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V212">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W212">
         <v>-1</v>
       </c>
       <c r="X212">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y212">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z212">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA212">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB212">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC212">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19422,7 +19422,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6893107</v>
+        <v>7140182</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19434,76 +19434,76 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F213" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G213" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I213">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J213" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K213">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="L213">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M213">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="N213">
+        <v>2.3</v>
+      </c>
+      <c r="O213">
         <v>2.9</v>
       </c>
-      <c r="O213">
-        <v>3.5</v>
-      </c>
       <c r="P213">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q213">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R213">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S213">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T213">
         <v>2.25</v>
       </c>
       <c r="U213">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V213">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W213">
         <v>-1</v>
       </c>
       <c r="X213">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y213">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z213">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA213">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB213">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC213">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -23071,7 +23071,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>6893574</v>
+        <v>6893126</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -23083,34 +23083,34 @@
         <v>45234.33333333334</v>
       </c>
       <c r="F254" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G254" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J254" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K254">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L254">
+        <v>3.4</v>
+      </c>
+      <c r="M254">
+        <v>3.8</v>
+      </c>
+      <c r="N254">
+        <v>1.8</v>
+      </c>
+      <c r="O254">
         <v>3.3</v>
-      </c>
-      <c r="M254">
-        <v>3.2</v>
-      </c>
-      <c r="N254">
-        <v>1.727</v>
-      </c>
-      <c r="O254">
-        <v>3.6</v>
       </c>
       <c r="P254">
         <v>3.8</v>
@@ -23119,40 +23119,40 @@
         <v>-0.5</v>
       </c>
       <c r="R254">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S254">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T254">
         <v>2.5</v>
       </c>
       <c r="U254">
+        <v>1.975</v>
+      </c>
+      <c r="V254">
         <v>1.825</v>
       </c>
-      <c r="V254">
-        <v>1.975</v>
-      </c>
       <c r="W254">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X254">
         <v>-1</v>
       </c>
       <c r="Y254">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z254">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA254">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB254">
         <v>-1</v>
       </c>
       <c r="AC254">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="255" spans="1:29">
@@ -23160,7 +23160,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>6893126</v>
+        <v>6893574</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23172,34 +23172,34 @@
         <v>45234.33333333334</v>
       </c>
       <c r="F255" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G255" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H255">
+        <v>2</v>
+      </c>
+      <c r="I255">
         <v>0</v>
       </c>
-      <c r="I255">
-        <v>1</v>
-      </c>
       <c r="J255" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K255">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L255">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M255">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="N255">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="O255">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P255">
         <v>3.8</v>
@@ -23208,40 +23208,40 @@
         <v>-0.5</v>
       </c>
       <c r="R255">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S255">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T255">
         <v>2.5</v>
       </c>
       <c r="U255">
+        <v>1.825</v>
+      </c>
+      <c r="V255">
         <v>1.975</v>
       </c>
-      <c r="V255">
-        <v>1.825</v>
-      </c>
       <c r="W255">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X255">
         <v>-1</v>
       </c>
       <c r="Y255">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z255">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA255">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB255">
         <v>-1</v>
       </c>
       <c r="AC255">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="256" spans="1:29">
@@ -24317,7 +24317,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>6893576</v>
+        <v>6893577</v>
       </c>
       <c r="C268" t="s">
         <v>28</v>
@@ -24329,49 +24329,49 @@
         <v>45242.33333333334</v>
       </c>
       <c r="F268" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="G268" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I268">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J268" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K268">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="L268">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M268">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="N268">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="O268">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P268">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="Q268">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R268">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S268">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T268">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U268">
         <v>1.95</v>
@@ -24383,22 +24383,22 @@
         <v>-1</v>
       </c>
       <c r="X268">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y268">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z268">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA268">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB268">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC268">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="269" spans="1:29">
@@ -24406,7 +24406,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>6893577</v>
+        <v>6893576</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
@@ -24418,49 +24418,49 @@
         <v>45242.33333333334</v>
       </c>
       <c r="F269" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="G269" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H269">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I269">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J269" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K269">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="L269">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M269">
+        <v>3</v>
+      </c>
+      <c r="N269">
         <v>2.375</v>
       </c>
-      <c r="N269">
-        <v>3.4</v>
-      </c>
       <c r="O269">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P269">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="Q269">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R269">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S269">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T269">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U269">
         <v>1.95</v>
@@ -24472,22 +24472,22 @@
         <v>-1</v>
       </c>
       <c r="X269">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y269">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z269">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA269">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB269">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC269">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="270" spans="1:29">
@@ -26364,7 +26364,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>6893133</v>
+        <v>7559095</v>
       </c>
       <c r="C291" t="s">
         <v>28</v>
@@ -26376,73 +26376,73 @@
         <v>45269.33333333334</v>
       </c>
       <c r="F291" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G291" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H291">
         <v>2</v>
       </c>
       <c r="I291">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J291" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K291">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="L291">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M291">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="N291">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="O291">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P291">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="Q291">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R291">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S291">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T291">
         <v>2.25</v>
       </c>
       <c r="U291">
+        <v>1.775</v>
+      </c>
+      <c r="V291">
         <v>2.025</v>
       </c>
-      <c r="V291">
-        <v>1.825</v>
-      </c>
       <c r="W291">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X291">
         <v>-1</v>
       </c>
       <c r="Y291">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z291">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA291">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB291">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC291">
         <v>-1</v>
@@ -26453,7 +26453,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>7559095</v>
+        <v>6893133</v>
       </c>
       <c r="C292" t="s">
         <v>28</v>
@@ -26465,73 +26465,73 @@
         <v>45269.33333333334</v>
       </c>
       <c r="F292" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G292" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H292">
         <v>2</v>
       </c>
       <c r="I292">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J292" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K292">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="L292">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M292">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="N292">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O292">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P292">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="Q292">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R292">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S292">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T292">
         <v>2.25</v>
       </c>
       <c r="U292">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="V292">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W292">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X292">
         <v>-1</v>
       </c>
       <c r="Y292">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z292">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA292">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB292">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AC292">
         <v>-1</v>
@@ -28945,7 +28945,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>6893143</v>
+        <v>6893589</v>
       </c>
       <c r="C320" t="s">
         <v>28</v>
@@ -28957,76 +28957,76 @@
         <v>45297.52083333334</v>
       </c>
       <c r="F320" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G320" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320">
         <v>1</v>
       </c>
       <c r="J320" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K320">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L320">
         <v>3.5</v>
       </c>
       <c r="M320">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="N320">
-        <v>1.6</v>
+        <v>1.571</v>
       </c>
       <c r="O320">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P320">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q320">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R320">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S320">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T320">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U320">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V320">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W320">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X320">
         <v>-1</v>
       </c>
       <c r="Y320">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z320">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA320">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB320">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC320">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="321" spans="1:29">
@@ -29034,7 +29034,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>6893589</v>
+        <v>6893143</v>
       </c>
       <c r="C321" t="s">
         <v>28</v>
@@ -29046,76 +29046,76 @@
         <v>45297.52083333334</v>
       </c>
       <c r="F321" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="G321" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321">
         <v>1</v>
       </c>
       <c r="J321" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K321">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="L321">
         <v>3.5</v>
       </c>
       <c r="M321">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="N321">
-        <v>1.571</v>
+        <v>1.6</v>
       </c>
       <c r="O321">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P321">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q321">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R321">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S321">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T321">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U321">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V321">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W321">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X321">
         <v>-1</v>
       </c>
       <c r="Y321">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z321">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA321">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB321">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC321">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="322" spans="1:29">
@@ -29123,7 +29123,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>6899181</v>
+        <v>6893145</v>
       </c>
       <c r="C322" t="s">
         <v>28</v>
@@ -29135,76 +29135,76 @@
         <v>45297.625</v>
       </c>
       <c r="F322" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G322" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H322">
         <v>1</v>
       </c>
       <c r="I322">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J322" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K322">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="L322">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M322">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="N322">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O322">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P322">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q322">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R322">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S322">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T322">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U322">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V322">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W322">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X322">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y322">
         <v>-1</v>
       </c>
       <c r="Z322">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA322">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB322">
         <v>-1</v>
       </c>
       <c r="AC322">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="323" spans="1:29">
@@ -29212,7 +29212,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>6893145</v>
+        <v>6899181</v>
       </c>
       <c r="C323" t="s">
         <v>28</v>
@@ -29224,76 +29224,76 @@
         <v>45297.625</v>
       </c>
       <c r="F323" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G323" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="H323">
         <v>1</v>
       </c>
       <c r="I323">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J323" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K323">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="L323">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M323">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N323">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O323">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P323">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q323">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R323">
+        <v>2.025</v>
+      </c>
+      <c r="S323">
+        <v>1.775</v>
+      </c>
+      <c r="T323">
+        <v>2.25</v>
+      </c>
+      <c r="U323">
+        <v>1.975</v>
+      </c>
+      <c r="V323">
         <v>1.825</v>
       </c>
-      <c r="S323">
-        <v>1.975</v>
-      </c>
-      <c r="T323">
-        <v>2.5</v>
-      </c>
-      <c r="U323">
-        <v>1.875</v>
-      </c>
-      <c r="V323">
-        <v>1.925</v>
-      </c>
       <c r="W323">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X323">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y323">
         <v>-1</v>
       </c>
       <c r="Z323">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA323">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB323">
         <v>-1</v>
       </c>
       <c r="AC323">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="324" spans="1:29">
@@ -29924,7 +29924,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>6893591</v>
+        <v>6899180</v>
       </c>
       <c r="C331" t="s">
         <v>28</v>
@@ -29936,76 +29936,76 @@
         <v>45305.52083333334</v>
       </c>
       <c r="F331" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G331" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I331">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J331" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K331">
-        <v>1.75</v>
+        <v>1.833</v>
       </c>
       <c r="L331">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M331">
         <v>4.333</v>
       </c>
       <c r="N331">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="O331">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P331">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q331">
         <v>-0.5</v>
       </c>
       <c r="R331">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S331">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T331">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U331">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V331">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="W331">
         <v>-1</v>
       </c>
       <c r="X331">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y331">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z331">
         <v>-1</v>
       </c>
       <c r="AA331">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB331">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AC331">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="332" spans="1:29">
@@ -30013,7 +30013,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>6899180</v>
+        <v>6893591</v>
       </c>
       <c r="C332" t="s">
         <v>28</v>
@@ -30025,76 +30025,76 @@
         <v>45305.52083333334</v>
       </c>
       <c r="F332" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G332" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H332">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I332">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J332" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K332">
-        <v>1.833</v>
+        <v>1.75</v>
       </c>
       <c r="L332">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M332">
         <v>4.333</v>
       </c>
       <c r="N332">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="O332">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P332">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q332">
         <v>-0.5</v>
       </c>
       <c r="R332">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S332">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T332">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U332">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V332">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="W332">
         <v>-1</v>
       </c>
       <c r="X332">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y332">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z332">
         <v>-1</v>
       </c>
       <c r="AA332">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB332">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AC332">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="333" spans="1:29">
@@ -33039,7 +33039,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>6893600</v>
+        <v>6893598</v>
       </c>
       <c r="C366" t="s">
         <v>28</v>
@@ -33051,76 +33051,76 @@
         <v>45333.52083333334</v>
       </c>
       <c r="F366" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G366" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I366">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J366" t="s">
         <v>56</v>
       </c>
       <c r="K366">
-        <v>3.8</v>
+        <v>2.05</v>
       </c>
       <c r="L366">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M366">
+        <v>3.4</v>
+      </c>
+      <c r="N366">
+        <v>1.909</v>
+      </c>
+      <c r="O366">
+        <v>3.5</v>
+      </c>
+      <c r="P366">
+        <v>3.75</v>
+      </c>
+      <c r="Q366">
+        <v>-0.5</v>
+      </c>
+      <c r="R366">
+        <v>1.9</v>
+      </c>
+      <c r="S366">
+        <v>1.9</v>
+      </c>
+      <c r="T366">
+        <v>2.5</v>
+      </c>
+      <c r="U366">
+        <v>1.85</v>
+      </c>
+      <c r="V366">
         <v>1.95</v>
       </c>
-      <c r="N366">
-        <v>3.5</v>
-      </c>
-      <c r="O366">
-        <v>3.3</v>
-      </c>
-      <c r="P366">
-        <v>2.05</v>
-      </c>
-      <c r="Q366">
-        <v>0.25</v>
-      </c>
-      <c r="R366">
-        <v>2.05</v>
-      </c>
-      <c r="S366">
-        <v>1.8</v>
-      </c>
-      <c r="T366">
-        <v>2.25</v>
-      </c>
-      <c r="U366">
-        <v>1.95</v>
-      </c>
-      <c r="V366">
-        <v>1.9</v>
-      </c>
       <c r="W366">
         <v>-1</v>
       </c>
       <c r="X366">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Y366">
         <v>-1</v>
       </c>
       <c r="Z366">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA366">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB366">
         <v>-1</v>
       </c>
       <c r="AC366">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="367" spans="1:29">
@@ -33128,7 +33128,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>6893598</v>
+        <v>6893600</v>
       </c>
       <c r="C367" t="s">
         <v>28</v>
@@ -33140,76 +33140,76 @@
         <v>45333.52083333334</v>
       </c>
       <c r="F367" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G367" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H367">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I367">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J367" t="s">
         <v>56</v>
       </c>
       <c r="K367">
+        <v>3.8</v>
+      </c>
+      <c r="L367">
+        <v>3.3</v>
+      </c>
+      <c r="M367">
+        <v>1.95</v>
+      </c>
+      <c r="N367">
+        <v>3.5</v>
+      </c>
+      <c r="O367">
+        <v>3.3</v>
+      </c>
+      <c r="P367">
         <v>2.05</v>
       </c>
-      <c r="L367">
-        <v>3.4</v>
-      </c>
-      <c r="M367">
-        <v>3.4</v>
-      </c>
-      <c r="N367">
-        <v>1.909</v>
-      </c>
-      <c r="O367">
-        <v>3.5</v>
-      </c>
-      <c r="P367">
-        <v>3.75</v>
-      </c>
       <c r="Q367">
+        <v>0.25</v>
+      </c>
+      <c r="R367">
+        <v>2.05</v>
+      </c>
+      <c r="S367">
+        <v>1.8</v>
+      </c>
+      <c r="T367">
+        <v>2.25</v>
+      </c>
+      <c r="U367">
+        <v>1.95</v>
+      </c>
+      <c r="V367">
+        <v>1.9</v>
+      </c>
+      <c r="W367">
+        <v>-1</v>
+      </c>
+      <c r="X367">
+        <v>2.3</v>
+      </c>
+      <c r="Y367">
+        <v>-1</v>
+      </c>
+      <c r="Z367">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="AA367">
         <v>-0.5</v>
       </c>
-      <c r="R367">
-        <v>1.9</v>
-      </c>
-      <c r="S367">
-        <v>1.9</v>
-      </c>
-      <c r="T367">
-        <v>2.5</v>
-      </c>
-      <c r="U367">
-        <v>1.85</v>
-      </c>
-      <c r="V367">
-        <v>1.95</v>
-      </c>
-      <c r="W367">
-        <v>-1</v>
-      </c>
-      <c r="X367">
-        <v>2.5</v>
-      </c>
-      <c r="Y367">
-        <v>-1</v>
-      </c>
-      <c r="Z367">
-        <v>-1</v>
-      </c>
-      <c r="AA367">
+      <c r="AB367">
+        <v>-1</v>
+      </c>
+      <c r="AC367">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB367">
-        <v>-1</v>
-      </c>
-      <c r="AC367">
-        <v>0.95</v>
       </c>
     </row>
     <row r="368" spans="1:29">
@@ -34124,6 +34124,15 @@
       <c r="G378" t="s">
         <v>30</v>
       </c>
+      <c r="H378">
+        <v>0</v>
+      </c>
+      <c r="I378">
+        <v>3</v>
+      </c>
+      <c r="J378" t="s">
+        <v>54</v>
+      </c>
       <c r="K378">
         <v>2.7</v>
       </c>
@@ -34134,46 +34143,52 @@
         <v>2.35</v>
       </c>
       <c r="N378">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="O378">
         <v>3.2</v>
       </c>
       <c r="P378">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="Q378">
         <v>0</v>
       </c>
       <c r="R378">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S378">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T378">
         <v>2.25</v>
       </c>
       <c r="U378">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V378">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W378">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X378">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y378">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="Z378">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA378">
-        <v>0</v>
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB378">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC378">
+        <v>-1</v>
       </c>
     </row>
     <row r="379" spans="1:29">
@@ -34329,7 +34344,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>6893168</v>
+        <v>6893167</v>
       </c>
       <c r="C381" t="s">
         <v>28</v>
@@ -34338,49 +34353,49 @@
         <v>28</v>
       </c>
       <c r="E381" s="2">
-        <v>45346.45833333334</v>
+        <v>45346.52083333334</v>
       </c>
       <c r="F381" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G381" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="K381">
-        <v>1.4</v>
+        <v>1.833</v>
       </c>
       <c r="L381">
+        <v>3.4</v>
+      </c>
+      <c r="M381">
+        <v>4.333</v>
+      </c>
+      <c r="N381">
+        <v>1.75</v>
+      </c>
+      <c r="O381">
+        <v>3.4</v>
+      </c>
+      <c r="P381">
         <v>4.5</v>
       </c>
-      <c r="M381">
-        <v>7</v>
-      </c>
-      <c r="N381">
-        <v>1.4</v>
-      </c>
-      <c r="O381">
-        <v>4.5</v>
-      </c>
-      <c r="P381">
-        <v>7</v>
-      </c>
       <c r="Q381">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R381">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S381">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T381">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U381">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V381">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W381">
         <v>0</v>
@@ -34403,7 +34418,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>6893167</v>
+        <v>6893169</v>
       </c>
       <c r="C382" t="s">
         <v>28</v>
@@ -34415,19 +34430,19 @@
         <v>45346.52083333334</v>
       </c>
       <c r="F382" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G382" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K382">
-        <v>1.833</v>
+        <v>1.75</v>
       </c>
       <c r="L382">
         <v>3.4</v>
       </c>
       <c r="M382">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="N382">
         <v>1.75</v>
@@ -34436,25 +34451,25 @@
         <v>3.4</v>
       </c>
       <c r="P382">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q382">
         <v>-0.75</v>
       </c>
       <c r="R382">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S382">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T382">
         <v>2.25</v>
       </c>
       <c r="U382">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V382">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W382">
         <v>0</v>
@@ -34477,7 +34492,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>6893169</v>
+        <v>6893603</v>
       </c>
       <c r="C383" t="s">
         <v>28</v>
@@ -34486,28 +34501,28 @@
         <v>28</v>
       </c>
       <c r="E383" s="2">
-        <v>45346.52083333334</v>
+        <v>45346.625</v>
       </c>
       <c r="F383" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G383" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="K383">
-        <v>1.75</v>
+        <v>1.666</v>
       </c>
       <c r="L383">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M383">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="N383">
-        <v>1.75</v>
+        <v>1.666</v>
       </c>
       <c r="O383">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P383">
         <v>4.75</v>
@@ -34516,19 +34531,19 @@
         <v>-0.75</v>
       </c>
       <c r="R383">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S383">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T383">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U383">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V383">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W383">
         <v>0</v>
@@ -34551,7 +34566,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>6893603</v>
+        <v>6899168</v>
       </c>
       <c r="C384" t="s">
         <v>28</v>
@@ -34560,49 +34575,49 @@
         <v>28</v>
       </c>
       <c r="E384" s="2">
-        <v>45346.625</v>
+        <v>45347.33333333334</v>
       </c>
       <c r="F384" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G384" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K384">
-        <v>1.666</v>
+        <v>2.8</v>
       </c>
       <c r="L384">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M384">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="N384">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="O384">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P384">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q384">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R384">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S384">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="T384">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U384">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V384">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W384">
         <v>0</v>
@@ -34625,7 +34640,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>6899168</v>
+        <v>6893604</v>
       </c>
       <c r="C385" t="s">
         <v>28</v>
@@ -34634,49 +34649,49 @@
         <v>28</v>
       </c>
       <c r="E385" s="2">
-        <v>45347.33333333334</v>
+        <v>45347.45833333334</v>
       </c>
       <c r="F385" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="G385" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="K385">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="L385">
         <v>3.2</v>
       </c>
       <c r="M385">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="N385">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="O385">
         <v>3.2</v>
       </c>
       <c r="P385">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="Q385">
         <v>0.25</v>
       </c>
       <c r="R385">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S385">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T385">
         <v>2.25</v>
       </c>
       <c r="U385">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V385">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W385">
         <v>0</v>
@@ -34699,7 +34714,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>6893604</v>
+        <v>6893166</v>
       </c>
       <c r="C386" t="s">
         <v>28</v>
@@ -34708,49 +34723,49 @@
         <v>28</v>
       </c>
       <c r="E386" s="2">
-        <v>45347.45833333334</v>
+        <v>45348.625</v>
       </c>
       <c r="F386" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G386" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="K386">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="L386">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M386">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="N386">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="O386">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P386">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q386">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R386">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S386">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T386">
         <v>2.25</v>
       </c>
       <c r="U386">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V386">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W386">
         <v>0</v>
@@ -34773,7 +34788,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>6893166</v>
+        <v>6899275</v>
       </c>
       <c r="C387" t="s">
         <v>28</v>
@@ -34782,49 +34797,49 @@
         <v>28</v>
       </c>
       <c r="E387" s="2">
-        <v>45348.625</v>
+        <v>45349.71875</v>
       </c>
       <c r="F387" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G387" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="K387">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L387">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M387">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="N387">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="O387">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P387">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q387">
         <v>-0.5</v>
       </c>
       <c r="R387">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S387">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T387">
         <v>2.25</v>
       </c>
       <c r="U387">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V387">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W387">
         <v>0</v>
@@ -34839,80 +34854,6 @@
         <v>0</v>
       </c>
       <c r="AA387">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="388" spans="1:27">
-      <c r="A388" s="1">
-        <v>386</v>
-      </c>
-      <c r="B388">
-        <v>6899275</v>
-      </c>
-      <c r="C388" t="s">
-        <v>28</v>
-      </c>
-      <c r="D388" t="s">
-        <v>28</v>
-      </c>
-      <c r="E388" s="2">
-        <v>45349.71875</v>
-      </c>
-      <c r="F388" t="s">
-        <v>48</v>
-      </c>
-      <c r="G388" t="s">
-        <v>30</v>
-      </c>
-      <c r="K388">
-        <v>2</v>
-      </c>
-      <c r="L388">
-        <v>3.25</v>
-      </c>
-      <c r="M388">
-        <v>3.6</v>
-      </c>
-      <c r="N388">
-        <v>2</v>
-      </c>
-      <c r="O388">
-        <v>3.25</v>
-      </c>
-      <c r="P388">
-        <v>3.6</v>
-      </c>
-      <c r="Q388">
-        <v>-0.5</v>
-      </c>
-      <c r="R388">
-        <v>2.05</v>
-      </c>
-      <c r="S388">
-        <v>1.8</v>
-      </c>
-      <c r="T388">
-        <v>2.25</v>
-      </c>
-      <c r="U388">
-        <v>1.9</v>
-      </c>
-      <c r="V388">
-        <v>1.95</v>
-      </c>
-      <c r="W388">
-        <v>0</v>
-      </c>
-      <c r="X388">
-        <v>0</v>
-      </c>
-      <c r="Y388">
-        <v>0</v>
-      </c>
-      <c r="Z388">
-        <v>0</v>
-      </c>
-      <c r="AA388">
         <v>0</v>
       </c>
     </row>

--- a/Portugal Segunda Liga/Portugal Segunda Liga.xlsx
+++ b/Portugal Segunda Liga/Portugal Segunda Liga.xlsx
@@ -121,10 +121,10 @@
     <t>Sporting Covilha</t>
   </si>
   <si>
-    <t>Benfica B</t>
+    <t>Estrela</t>
   </si>
   <si>
-    <t>Estrela</t>
+    <t>Benfica B</t>
   </si>
   <si>
     <t>Tondela</t>
@@ -1177,7 +1177,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5265383</v>
+        <v>5263138</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1192,70 +1192,70 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K8">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L8">
         <v>3.25</v>
       </c>
       <c r="M8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N8">
-        <v>2.625</v>
+        <v>1.45</v>
       </c>
       <c r="O8">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P8">
-        <v>2.55</v>
+        <v>6.5</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R8">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S8">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T8">
         <v>2.5</v>
       </c>
       <c r="U8">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V8">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W8">
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y8">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
         <v>-1</v>
       </c>
       <c r="AA8">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AB8">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AC8">
         <v>-1</v>
@@ -1266,7 +1266,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5263138</v>
+        <v>5265383</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1281,70 +1281,70 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K9">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L9">
         <v>3.25</v>
       </c>
       <c r="M9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N9">
-        <v>1.45</v>
+        <v>2.625</v>
       </c>
       <c r="O9">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P9">
-        <v>6.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q9">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S9">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T9">
         <v>2.5</v>
       </c>
       <c r="U9">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V9">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z9">
         <v>-1</v>
       </c>
       <c r="AA9">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AB9">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AC9">
         <v>-1</v>
@@ -1904,7 +1904,7 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1993,7 +1993,7 @@
         <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H17">
         <v>5</v>
@@ -2423,7 +2423,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5265395</v>
+        <v>5263140</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2435,76 +2435,76 @@
         <v>44947.52083333334</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K22">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L22">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M22">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="N22">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="O22">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P22">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="Q22">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R22">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S22">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T22">
         <v>2.5</v>
       </c>
       <c r="U22">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V22">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W22">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA22">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2512,7 +2512,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5263140</v>
+        <v>5265395</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2524,76 +2524,76 @@
         <v>44947.52083333334</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G23" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K23">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L23">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M23">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="N23">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="O23">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P23">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q23">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R23">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S23">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T23">
         <v>2.5</v>
       </c>
       <c r="U23">
+        <v>1.975</v>
+      </c>
+      <c r="V23">
+        <v>1.825</v>
+      </c>
+      <c r="W23">
+        <v>-1</v>
+      </c>
+      <c r="X23">
+        <v>-1</v>
+      </c>
+      <c r="Y23">
         <v>1.9</v>
       </c>
-      <c r="V23">
-        <v>1.9</v>
-      </c>
-      <c r="W23">
-        <v>0.75</v>
-      </c>
-      <c r="X23">
-        <v>-1</v>
-      </c>
-      <c r="Y23">
-        <v>-1</v>
-      </c>
       <c r="Z23">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC23">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2702,7 +2702,7 @@
         <v>44948.45833333334</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G25" t="s">
         <v>44</v>
@@ -2880,7 +2880,7 @@
         <v>44948.52083333334</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G27" t="s">
         <v>39</v>
@@ -3224,7 +3224,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5265515</v>
+        <v>5266491</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3236,46 +3236,46 @@
         <v>44955.45833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G31" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="J31" t="s">
+        <v>54</v>
+      </c>
+      <c r="K31">
+        <v>2.8</v>
+      </c>
+      <c r="L31">
+        <v>3.2</v>
+      </c>
+      <c r="M31">
+        <v>2.375</v>
+      </c>
+      <c r="N31">
+        <v>2.6</v>
+      </c>
+      <c r="O31">
+        <v>3.1</v>
+      </c>
+      <c r="P31">
+        <v>2.6</v>
+      </c>
+      <c r="Q31">
         <v>0</v>
-      </c>
-      <c r="J31" t="s">
-        <v>55</v>
-      </c>
-      <c r="K31">
-        <v>1.8</v>
-      </c>
-      <c r="L31">
-        <v>3.3</v>
-      </c>
-      <c r="M31">
-        <v>4.2</v>
-      </c>
-      <c r="N31">
-        <v>1.833</v>
-      </c>
-      <c r="O31">
-        <v>3.3</v>
-      </c>
-      <c r="P31">
-        <v>4</v>
-      </c>
-      <c r="Q31">
-        <v>-0.5</v>
       </c>
       <c r="R31">
         <v>1.9</v>
       </c>
       <c r="S31">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T31">
         <v>2.25</v>
@@ -3284,28 +3284,28 @@
         <v>1.9</v>
       </c>
       <c r="V31">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W31">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z31">
+        <v>-1</v>
+      </c>
+      <c r="AA31">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA31">
-        <v>-1</v>
-      </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC31">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3313,7 +3313,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5266491</v>
+        <v>5265515</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3325,46 +3325,46 @@
         <v>44955.45833333334</v>
       </c>
       <c r="F32" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K32">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="L32">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M32">
-        <v>2.375</v>
+        <v>4.2</v>
       </c>
       <c r="N32">
-        <v>2.6</v>
+        <v>1.833</v>
       </c>
       <c r="O32">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P32">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R32">
         <v>1.9</v>
       </c>
       <c r="S32">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T32">
         <v>2.25</v>
@@ -3373,28 +3373,28 @@
         <v>1.9</v>
       </c>
       <c r="V32">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W32">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA32">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3402,7 +3402,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>5265404</v>
+        <v>5265406</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3414,73 +3414,73 @@
         <v>44955.52083333334</v>
       </c>
       <c r="F33" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K33">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="L33">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M33">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="N33">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="O33">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P33">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q33">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R33">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S33">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T33">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U33">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V33">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W33">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA33">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC33">
         <v>-1</v>
@@ -3491,7 +3491,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>5265406</v>
+        <v>5265404</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3503,73 +3503,73 @@
         <v>44955.52083333334</v>
       </c>
       <c r="F34" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G34" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H34">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K34">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="L34">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M34">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="N34">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="O34">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P34">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q34">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R34">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S34">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T34">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U34">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V34">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W34">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X34">
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z34">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA34">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB34">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC34">
         <v>-1</v>
@@ -3773,7 +3773,7 @@
         <v>30</v>
       </c>
       <c r="G37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H37">
         <v>2</v>
@@ -3862,7 +3862,7 @@
         <v>31</v>
       </c>
       <c r="G38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H38">
         <v>2</v>
@@ -4114,7 +4114,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>5266489</v>
+        <v>5265414</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4126,73 +4126,73 @@
         <v>44961.52083333334</v>
       </c>
       <c r="F41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H41">
+        <v>3</v>
+      </c>
+      <c r="I41">
         <v>1</v>
       </c>
-      <c r="I41">
-        <v>2</v>
-      </c>
       <c r="J41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K41">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="L41">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M41">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="N41">
-        <v>1.6</v>
+        <v>2.45</v>
       </c>
       <c r="O41">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P41">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="Q41">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R41">
+        <v>1.825</v>
+      </c>
+      <c r="S41">
+        <v>1.975</v>
+      </c>
+      <c r="T41">
+        <v>2.25</v>
+      </c>
+      <c r="U41">
+        <v>2.025</v>
+      </c>
+      <c r="V41">
         <v>1.775</v>
       </c>
-      <c r="S41">
-        <v>2.025</v>
-      </c>
-      <c r="T41">
-        <v>2.5</v>
-      </c>
-      <c r="U41">
-        <v>1.925</v>
-      </c>
-      <c r="V41">
-        <v>1.875</v>
-      </c>
       <c r="W41">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA41">
+        <v>-1</v>
+      </c>
+      <c r="AB41">
         <v>1.025</v>
-      </c>
-      <c r="AB41">
-        <v>0.925</v>
       </c>
       <c r="AC41">
         <v>-1</v>
@@ -4203,7 +4203,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>5265414</v>
+        <v>5266489</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4215,73 +4215,73 @@
         <v>44961.52083333334</v>
       </c>
       <c r="F42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G42" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K42">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="L42">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M42">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="N42">
-        <v>2.45</v>
+        <v>1.6</v>
       </c>
       <c r="O42">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P42">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="Q42">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R42">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S42">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T42">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U42">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V42">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W42">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z42">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB42">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AC42">
         <v>-1</v>
@@ -4393,7 +4393,7 @@
         <v>44962.45833333334</v>
       </c>
       <c r="F44" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G44" t="s">
         <v>37</v>
@@ -4838,10 +4838,10 @@
         <v>44968.45833333334</v>
       </c>
       <c r="F49" t="s">
+        <v>35</v>
+      </c>
+      <c r="G49" t="s">
         <v>36</v>
-      </c>
-      <c r="G49" t="s">
-        <v>35</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -4915,7 +4915,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5263142</v>
+        <v>5265420</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4927,43 +4927,43 @@
         <v>44968.52083333334</v>
       </c>
       <c r="F50" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G50" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
         <v>0</v>
       </c>
-      <c r="I50">
-        <v>1</v>
-      </c>
       <c r="J50" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K50">
-        <v>1.666</v>
+        <v>4</v>
       </c>
       <c r="L50">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M50">
-        <v>4.75</v>
+        <v>1.833</v>
       </c>
       <c r="N50">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="O50">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P50">
-        <v>4.333</v>
+        <v>2.2</v>
       </c>
       <c r="Q50">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R50">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S50">
         <v>1.975</v>
@@ -4972,31 +4972,31 @@
         <v>2</v>
       </c>
       <c r="U50">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V50">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="W50">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA50">
+        <v>-1</v>
+      </c>
+      <c r="AB50">
+        <v>-1</v>
+      </c>
+      <c r="AC50">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB50">
-        <v>-1</v>
-      </c>
-      <c r="AC50">
-        <v>1.1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5004,7 +5004,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5265420</v>
+        <v>5263142</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5016,43 +5016,43 @@
         <v>44968.52083333334</v>
       </c>
       <c r="F51" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G51" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
         <v>1</v>
       </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
       <c r="J51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K51">
-        <v>4</v>
+        <v>1.666</v>
       </c>
       <c r="L51">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M51">
-        <v>1.833</v>
+        <v>4.75</v>
       </c>
       <c r="N51">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="O51">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P51">
-        <v>2.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q51">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R51">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S51">
         <v>1.975</v>
@@ -5061,31 +5061,31 @@
         <v>2</v>
       </c>
       <c r="U51">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V51">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="W51">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z51">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB51">
         <v>-1</v>
       </c>
       <c r="AC51">
-        <v>0.9750000000000001</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5820,7 +5820,7 @@
         <v>44</v>
       </c>
       <c r="G60" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -6084,7 +6084,7 @@
         <v>44976.52083333334</v>
       </c>
       <c r="F63" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G63" t="s">
         <v>33</v>
@@ -6443,7 +6443,7 @@
         <v>29</v>
       </c>
       <c r="G67" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -6784,7 +6784,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>5265433</v>
+        <v>5266483</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6796,76 +6796,76 @@
         <v>44983.45833333334</v>
       </c>
       <c r="F71" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G71" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
         <v>1</v>
       </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
       <c r="J71" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K71">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="L71">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M71">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="N71">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="O71">
         <v>3.2</v>
       </c>
       <c r="P71">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="Q71">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R71">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S71">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T71">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U71">
+        <v>2.025</v>
+      </c>
+      <c r="V71">
+        <v>1.775</v>
+      </c>
+      <c r="W71">
+        <v>-1</v>
+      </c>
+      <c r="X71">
+        <v>-1</v>
+      </c>
+      <c r="Y71">
         <v>1.75</v>
       </c>
-      <c r="V71">
-        <v>2.05</v>
-      </c>
-      <c r="W71">
-        <v>2.25</v>
-      </c>
-      <c r="X71">
-        <v>-1</v>
-      </c>
-      <c r="Y71">
-        <v>-1</v>
-      </c>
       <c r="Z71">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB71">
         <v>-1</v>
       </c>
       <c r="AC71">
-        <v>1.05</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6873,7 +6873,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>5266483</v>
+        <v>5265433</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6885,76 +6885,76 @@
         <v>44983.45833333334</v>
       </c>
       <c r="F72" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G72" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72">
         <v>0</v>
       </c>
-      <c r="I72">
-        <v>1</v>
-      </c>
       <c r="J72" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K72">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="L72">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M72">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="N72">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="O72">
         <v>3.2</v>
       </c>
       <c r="P72">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q72">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R72">
+        <v>1.975</v>
+      </c>
+      <c r="S72">
+        <v>1.825</v>
+      </c>
+      <c r="T72">
+        <v>2</v>
+      </c>
+      <c r="U72">
         <v>1.75</v>
       </c>
-      <c r="S72">
+      <c r="V72">
         <v>2.05</v>
       </c>
-      <c r="T72">
-        <v>2.5</v>
-      </c>
-      <c r="U72">
-        <v>2.025</v>
-      </c>
-      <c r="V72">
-        <v>1.775</v>
-      </c>
       <c r="W72">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA72">
+        <v>-1</v>
+      </c>
+      <c r="AB72">
+        <v>-1</v>
+      </c>
+      <c r="AC72">
         <v>1.05</v>
-      </c>
-      <c r="AB72">
-        <v>-1</v>
-      </c>
-      <c r="AC72">
-        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6974,7 +6974,7 @@
         <v>44983.52083333334</v>
       </c>
       <c r="F73" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G73" t="s">
         <v>37</v>
@@ -7051,7 +7051,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>5265438</v>
+        <v>5265440</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7063,76 +7063,76 @@
         <v>44989.33333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G74" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K74">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="L74">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M74">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="N74">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="O74">
         <v>3.4</v>
       </c>
       <c r="P74">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="Q74">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R74">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S74">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T74">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U74">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V74">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W74">
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z74">
         <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB74">
         <v>-1</v>
       </c>
       <c r="AC74">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7140,7 +7140,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>5265440</v>
+        <v>5265438</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7152,76 +7152,76 @@
         <v>44989.33333333334</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G75" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K75">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="L75">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M75">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="N75">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="O75">
         <v>3.4</v>
       </c>
       <c r="P75">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="Q75">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R75">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S75">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T75">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U75">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V75">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W75">
         <v>-1</v>
       </c>
       <c r="X75">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y75">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB75">
         <v>-1</v>
       </c>
       <c r="AC75">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7600,7 +7600,7 @@
         <v>30</v>
       </c>
       <c r="G80" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7674,7 +7674,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>5265435</v>
+        <v>5266482</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7686,76 +7686,76 @@
         <v>44990.52083333334</v>
       </c>
       <c r="F81" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G81" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81">
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K81">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="L81">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M81">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="N81">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="O81">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P81">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q81">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R81">
+        <v>2</v>
+      </c>
+      <c r="S81">
+        <v>1.8</v>
+      </c>
+      <c r="T81">
+        <v>2.25</v>
+      </c>
+      <c r="U81">
         <v>1.775</v>
       </c>
-      <c r="S81">
+      <c r="V81">
         <v>2.025</v>
       </c>
-      <c r="T81">
-        <v>2.5</v>
-      </c>
-      <c r="U81">
-        <v>1.9</v>
-      </c>
-      <c r="V81">
-        <v>1.9</v>
-      </c>
       <c r="W81">
         <v>-1</v>
       </c>
       <c r="X81">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y81">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z81">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA81">
-        <v>0.5125</v>
+        <v>0.8</v>
       </c>
       <c r="AB81">
         <v>-1</v>
       </c>
       <c r="AC81">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7763,7 +7763,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>5266482</v>
+        <v>5265435</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7775,76 +7775,76 @@
         <v>44990.52083333334</v>
       </c>
       <c r="F82" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82">
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K82">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="L82">
+        <v>3.3</v>
+      </c>
+      <c r="M82">
+        <v>3.3</v>
+      </c>
+      <c r="N82">
+        <v>2</v>
+      </c>
+      <c r="O82">
         <v>3.4</v>
       </c>
-      <c r="M82">
-        <v>4</v>
-      </c>
-      <c r="N82">
-        <v>1.75</v>
-      </c>
-      <c r="O82">
-        <v>3.5</v>
-      </c>
       <c r="P82">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q82">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R82">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S82">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T82">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U82">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V82">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W82">
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y82">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA82">
-        <v>0.8</v>
+        <v>0.5125</v>
       </c>
       <c r="AB82">
         <v>-1</v>
       </c>
       <c r="AC82">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -8312,7 +8312,7 @@
         <v>34</v>
       </c>
       <c r="G88" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H88">
         <v>2</v>
@@ -8579,7 +8579,7 @@
         <v>29</v>
       </c>
       <c r="G91" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8665,7 +8665,7 @@
         <v>45003.33333333334</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G92" t="s">
         <v>33</v>
@@ -8920,7 +8920,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>5935501</v>
+        <v>5265450</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8932,76 +8932,76 @@
         <v>45004.33333333334</v>
       </c>
       <c r="F95" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G95" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K95">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L95">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M95">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="N95">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O95">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P95">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="Q95">
         <v>-0.25</v>
       </c>
       <c r="R95">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S95">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T95">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U95">
         <v>1.95</v>
       </c>
       <c r="V95">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W95">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z95">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC95">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9009,7 +9009,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>5265450</v>
+        <v>5935501</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9021,76 +9021,76 @@
         <v>45004.33333333334</v>
       </c>
       <c r="F96" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G96" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K96">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L96">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M96">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="N96">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O96">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P96">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="Q96">
         <v>-0.25</v>
       </c>
       <c r="R96">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S96">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T96">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U96">
         <v>1.95</v>
       </c>
       <c r="V96">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W96">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA96">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC96">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9558,7 +9558,7 @@
         <v>32</v>
       </c>
       <c r="G102" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -9810,7 +9810,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6450996</v>
+        <v>6450995</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9822,13 +9822,13 @@
         <v>45018.29166666666</v>
       </c>
       <c r="F105" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G105" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I105">
         <v>3</v>
@@ -9846,32 +9846,32 @@
         <v>2.5</v>
       </c>
       <c r="N105">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="O105">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P105">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="Q105">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R105">
+        <v>2.025</v>
+      </c>
+      <c r="S105">
+        <v>1.775</v>
+      </c>
+      <c r="T105">
+        <v>2.5</v>
+      </c>
+      <c r="U105">
         <v>1.95</v>
       </c>
-      <c r="S105">
+      <c r="V105">
         <v>1.85</v>
       </c>
-      <c r="T105">
-        <v>2.25</v>
-      </c>
-      <c r="U105">
-        <v>1.975</v>
-      </c>
-      <c r="V105">
-        <v>1.825</v>
-      </c>
       <c r="W105">
         <v>-1</v>
       </c>
@@ -9879,16 +9879,16 @@
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>1.45</v>
+        <v>0.95</v>
       </c>
       <c r="Z105">
         <v>-1</v>
       </c>
       <c r="AA105">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB105">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC105">
         <v>-1</v>
@@ -9899,7 +9899,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6450995</v>
+        <v>6450996</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9911,13 +9911,13 @@
         <v>45018.29166666666</v>
       </c>
       <c r="F106" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G106" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106">
         <v>3</v>
@@ -9935,31 +9935,31 @@
         <v>2.5</v>
       </c>
       <c r="N106">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="O106">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P106">
+        <v>2.45</v>
+      </c>
+      <c r="Q106">
+        <v>0</v>
+      </c>
+      <c r="R106">
         <v>1.95</v>
       </c>
-      <c r="Q106">
-        <v>0.25</v>
-      </c>
-      <c r="R106">
-        <v>2.025</v>
-      </c>
       <c r="S106">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T106">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U106">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V106">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W106">
         <v>-1</v>
@@ -9968,16 +9968,16 @@
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>0.95</v>
+        <v>1.45</v>
       </c>
       <c r="Z106">
         <v>-1</v>
       </c>
       <c r="AA106">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB106">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC106">
         <v>-1</v>
@@ -10003,7 +10003,7 @@
         <v>34</v>
       </c>
       <c r="G107" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>45023.47916666666</v>
       </c>
       <c r="F112" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G112" t="s">
         <v>32</v>
@@ -10522,7 +10522,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>5265463</v>
+        <v>5266474</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10534,76 +10534,76 @@
         <v>45024.29166666666</v>
       </c>
       <c r="F113" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G113" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K113">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="L113">
+        <v>3.5</v>
+      </c>
+      <c r="M113">
+        <v>3.4</v>
+      </c>
+      <c r="N113">
+        <v>2</v>
+      </c>
+      <c r="O113">
+        <v>3.5</v>
+      </c>
+      <c r="P113">
         <v>3.2</v>
-      </c>
-      <c r="M113">
-        <v>3.5</v>
-      </c>
-      <c r="N113">
-        <v>2.05</v>
-      </c>
-      <c r="O113">
-        <v>3.25</v>
-      </c>
-      <c r="P113">
-        <v>3.5</v>
       </c>
       <c r="Q113">
         <v>-0.25</v>
       </c>
       <c r="R113">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S113">
+        <v>2.05</v>
+      </c>
+      <c r="T113">
+        <v>2.75</v>
+      </c>
+      <c r="U113">
         <v>2.025</v>
       </c>
-      <c r="T113">
-        <v>2.25</v>
-      </c>
-      <c r="U113">
-        <v>1.85</v>
-      </c>
       <c r="V113">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W113">
+        <v>-1</v>
+      </c>
+      <c r="X113">
+        <v>-1</v>
+      </c>
+      <c r="Y113">
+        <v>2.2</v>
+      </c>
+      <c r="Z113">
+        <v>-1</v>
+      </c>
+      <c r="AA113">
         <v>1.05</v>
       </c>
-      <c r="X113">
-        <v>-1</v>
-      </c>
-      <c r="Y113">
-        <v>-1</v>
-      </c>
-      <c r="Z113">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AA113">
-        <v>-1</v>
-      </c>
       <c r="AB113">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC113">
-        <v>0.475</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10611,7 +10611,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>5266474</v>
+        <v>5265463</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10623,76 +10623,76 @@
         <v>45024.29166666666</v>
       </c>
       <c r="F114" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G114" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H114">
+        <v>2</v>
+      </c>
+      <c r="I114">
         <v>0</v>
       </c>
-      <c r="I114">
-        <v>1</v>
-      </c>
       <c r="J114" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K114">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="L114">
+        <v>3.2</v>
+      </c>
+      <c r="M114">
         <v>3.5</v>
       </c>
-      <c r="M114">
-        <v>3.4</v>
-      </c>
       <c r="N114">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O114">
+        <v>3.25</v>
+      </c>
+      <c r="P114">
         <v>3.5</v>
-      </c>
-      <c r="P114">
-        <v>3.2</v>
       </c>
       <c r="Q114">
         <v>-0.25</v>
       </c>
       <c r="R114">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S114">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T114">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U114">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V114">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W114">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z114">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA114">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC114">
-        <v>0.825</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -11516,7 +11516,7 @@
         <v>38</v>
       </c>
       <c r="G124" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H124">
         <v>7</v>
@@ -11783,7 +11783,7 @@
         <v>41</v>
       </c>
       <c r="G127" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -12314,7 +12314,7 @@
         <v>45039.41666666666</v>
       </c>
       <c r="F133" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G133" t="s">
         <v>46</v>
@@ -12492,7 +12492,7 @@
         <v>45040.58333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G135" t="s">
         <v>40</v>
@@ -12673,7 +12673,7 @@
         <v>45</v>
       </c>
       <c r="G137" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H137">
         <v>1</v>
@@ -13014,7 +13014,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>5265487</v>
+        <v>5266467</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13026,55 +13026,55 @@
         <v>45046.29166666666</v>
       </c>
       <c r="F141" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G141" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H141">
         <v>0</v>
       </c>
       <c r="I141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J141" t="s">
         <v>54</v>
       </c>
       <c r="K141">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="L141">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M141">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="N141">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="O141">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P141">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="Q141">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R141">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S141">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T141">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U141">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V141">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W141">
         <v>-1</v>
@@ -13083,19 +13083,19 @@
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="Z141">
         <v>-1</v>
       </c>
       <c r="AA141">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB141">
         <v>-1</v>
       </c>
       <c r="AC141">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13103,7 +13103,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>5266467</v>
+        <v>5265487</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13115,55 +13115,55 @@
         <v>45046.29166666666</v>
       </c>
       <c r="F142" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G142" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H142">
         <v>0</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J142" t="s">
         <v>54</v>
       </c>
       <c r="K142">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="L142">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M142">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="N142">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="O142">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P142">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Q142">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R142">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S142">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T142">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U142">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V142">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W142">
         <v>-1</v>
@@ -13172,19 +13172,19 @@
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="Z142">
         <v>-1</v>
       </c>
       <c r="AA142">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB142">
         <v>-1</v>
       </c>
       <c r="AC142">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13296,7 +13296,7 @@
         <v>39</v>
       </c>
       <c r="G144" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -13827,7 +13827,7 @@
         <v>45052.58333333334</v>
       </c>
       <c r="F150" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G150" t="s">
         <v>38</v>
@@ -14005,7 +14005,7 @@
         <v>45053.29166666666</v>
       </c>
       <c r="F152" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G152" t="s">
         <v>43</v>
@@ -14275,7 +14275,7 @@
         <v>40</v>
       </c>
       <c r="G155" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -14453,7 +14453,7 @@
         <v>42</v>
       </c>
       <c r="G157" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H157">
         <v>1</v>
@@ -15061,7 +15061,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>5499375</v>
+        <v>5484709</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15073,76 +15073,76 @@
         <v>45065.58333333334</v>
       </c>
       <c r="F164" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G164" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J164" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K164">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="L164">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M164">
+        <v>1.833</v>
+      </c>
+      <c r="N164">
+        <v>4.2</v>
+      </c>
+      <c r="O164">
+        <v>3.6</v>
+      </c>
+      <c r="P164">
+        <v>1.727</v>
+      </c>
+      <c r="Q164">
+        <v>0.5</v>
+      </c>
+      <c r="R164">
+        <v>2.1</v>
+      </c>
+      <c r="S164">
+        <v>1.775</v>
+      </c>
+      <c r="T164">
         <v>2.75</v>
       </c>
-      <c r="N164">
-        <v>2.3</v>
-      </c>
-      <c r="O164">
-        <v>3</v>
-      </c>
-      <c r="P164">
-        <v>2.875</v>
-      </c>
-      <c r="Q164">
-        <v>-0.25</v>
-      </c>
-      <c r="R164">
-        <v>2.05</v>
-      </c>
-      <c r="S164">
-        <v>1.75</v>
-      </c>
-      <c r="T164">
-        <v>2.25</v>
-      </c>
       <c r="U164">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V164">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W164">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X164">
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z164">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA164">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB164">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC164">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15150,7 +15150,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>5484709</v>
+        <v>5499375</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15162,76 +15162,76 @@
         <v>45065.58333333334</v>
       </c>
       <c r="F165" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G165" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H165">
+        <v>2</v>
+      </c>
+      <c r="I165">
         <v>0</v>
       </c>
-      <c r="I165">
-        <v>1</v>
-      </c>
       <c r="J165" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K165">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="L165">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M165">
-        <v>1.833</v>
+        <v>2.75</v>
       </c>
       <c r="N165">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="O165">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P165">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="Q165">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R165">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S165">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="T165">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U165">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V165">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W165">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X165">
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z165">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA165">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB165">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC165">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15518,7 +15518,7 @@
         <v>45067.29166666666</v>
       </c>
       <c r="F169" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G169" t="s">
         <v>43</v>
@@ -16055,7 +16055,7 @@
         <v>39</v>
       </c>
       <c r="G175" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H175">
         <v>2</v>
@@ -16144,7 +16144,7 @@
         <v>44</v>
       </c>
       <c r="G176" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H176">
         <v>3</v>
@@ -16396,7 +16396,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>5544758</v>
+        <v>5537439</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16408,73 +16408,73 @@
         <v>45074.47916666666</v>
       </c>
       <c r="F179" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G179" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I179">
         <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K179">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="L179">
         <v>3.4</v>
       </c>
       <c r="M179">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N179">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="O179">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P179">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q179">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R179">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S179">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T179">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U179">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V179">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W179">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X179">
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z179">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA179">
-        <v>0.8500000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AB179">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC179">
         <v>-1</v>
@@ -16485,7 +16485,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>5537439</v>
+        <v>5544758</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16497,73 +16497,73 @@
         <v>45074.47916666666</v>
       </c>
       <c r="F180" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G180" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H180">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I180">
         <v>2</v>
       </c>
       <c r="J180" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K180">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="L180">
         <v>3.4</v>
       </c>
       <c r="M180">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N180">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="O180">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P180">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="Q180">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R180">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S180">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T180">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U180">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V180">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W180">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z180">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA180">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB180">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC180">
         <v>-1</v>
@@ -16930,7 +16930,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6893191</v>
+        <v>6893285</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16942,10 +16942,10 @@
         <v>45151.29166666666</v>
       </c>
       <c r="F185" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G185" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="H185">
         <v>1</v>
@@ -16957,61 +16957,61 @@
         <v>56</v>
       </c>
       <c r="K185">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="L185">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M185">
         <v>3.6</v>
       </c>
       <c r="N185">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="O185">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P185">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q185">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R185">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S185">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T185">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U185">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V185">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W185">
         <v>-1</v>
       </c>
       <c r="X185">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="Y185">
         <v>-1</v>
       </c>
       <c r="Z185">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA185">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AB185">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC185">
-        <v>0.825</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17019,7 +17019,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6893285</v>
+        <v>6893191</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17031,10 +17031,10 @@
         <v>45151.29166666666</v>
       </c>
       <c r="F186" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G186" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="H186">
         <v>1</v>
@@ -17046,61 +17046,61 @@
         <v>56</v>
       </c>
       <c r="K186">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="L186">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M186">
         <v>3.6</v>
       </c>
       <c r="N186">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="O186">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P186">
+        <v>4.2</v>
+      </c>
+      <c r="Q186">
+        <v>-0.75</v>
+      </c>
+      <c r="R186">
+        <v>1.95</v>
+      </c>
+      <c r="S186">
+        <v>1.85</v>
+      </c>
+      <c r="T186">
+        <v>2.5</v>
+      </c>
+      <c r="U186">
+        <v>1.975</v>
+      </c>
+      <c r="V186">
+        <v>1.825</v>
+      </c>
+      <c r="W186">
+        <v>-1</v>
+      </c>
+      <c r="X186">
         <v>2.75</v>
       </c>
-      <c r="Q186">
-        <v>-0.25</v>
-      </c>
-      <c r="R186">
-        <v>2</v>
-      </c>
-      <c r="S186">
-        <v>1.8</v>
-      </c>
-      <c r="T186">
-        <v>2.25</v>
-      </c>
-      <c r="U186">
-        <v>1.8</v>
-      </c>
-      <c r="V186">
-        <v>2</v>
-      </c>
-      <c r="W186">
-        <v>-1</v>
-      </c>
-      <c r="X186">
-        <v>2.3</v>
-      </c>
       <c r="Y186">
         <v>-1</v>
       </c>
       <c r="Z186">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA186">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB186">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC186">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17209,7 +17209,7 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F188" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G188" t="s">
         <v>32</v>
@@ -17657,7 +17657,7 @@
         <v>51</v>
       </c>
       <c r="G193" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H193">
         <v>3</v>
@@ -18532,7 +18532,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6893102</v>
+        <v>6899210</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18544,13 +18544,13 @@
         <v>45165.29166666666</v>
       </c>
       <c r="F203" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G203" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H203">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I203">
         <v>1</v>
@@ -18559,31 +18559,31 @@
         <v>55</v>
       </c>
       <c r="K203">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L203">
         <v>3.25</v>
       </c>
       <c r="M203">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N203">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="O203">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P203">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q203">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R203">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S203">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T203">
         <v>2.5</v>
@@ -18592,10 +18592,10 @@
         <v>2.025</v>
       </c>
       <c r="V203">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W203">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="X203">
         <v>-1</v>
@@ -18604,7 +18604,7 @@
         <v>-1</v>
       </c>
       <c r="Z203">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA203">
         <v>-1</v>
@@ -18621,7 +18621,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6899210</v>
+        <v>6893102</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18633,13 +18633,13 @@
         <v>45165.29166666666</v>
       </c>
       <c r="F204" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G204" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I204">
         <v>1</v>
@@ -18648,31 +18648,31 @@
         <v>55</v>
       </c>
       <c r="K204">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L204">
         <v>3.25</v>
       </c>
       <c r="M204">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N204">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="O204">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P204">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q204">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R204">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S204">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T204">
         <v>2.5</v>
@@ -18681,10 +18681,10 @@
         <v>2.025</v>
       </c>
       <c r="V204">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W204">
-        <v>1.45</v>
+        <v>1.25</v>
       </c>
       <c r="X204">
         <v>-1</v>
@@ -18693,7 +18693,7 @@
         <v>-1</v>
       </c>
       <c r="Z204">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AA204">
         <v>-1</v>
@@ -18811,7 +18811,7 @@
         <v>45165.47916666666</v>
       </c>
       <c r="F206" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G206" t="s">
         <v>50</v>
@@ -19704,7 +19704,7 @@
         <v>29</v>
       </c>
       <c r="G216" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H216">
         <v>1</v>
@@ -19956,7 +19956,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6899208</v>
+        <v>6899293</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19968,76 +19968,76 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F219" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G219" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H219">
+        <v>2</v>
+      </c>
+      <c r="I219">
         <v>0</v>
       </c>
-      <c r="I219">
-        <v>2</v>
-      </c>
       <c r="J219" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K219">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="L219">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M219">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="N219">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="O219">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P219">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="Q219">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R219">
         <v>2.05</v>
       </c>
       <c r="S219">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T219">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U219">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V219">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W219">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X219">
         <v>-1</v>
       </c>
       <c r="Y219">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z219">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA219">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB219">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC219">
-        <v>0.5125</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20045,7 +20045,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6899293</v>
+        <v>6899208</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20057,76 +20057,76 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F220" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G220" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J220" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K220">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="L220">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M220">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="N220">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="O220">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P220">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q220">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R220">
         <v>2.05</v>
       </c>
       <c r="S220">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T220">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U220">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V220">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W220">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X220">
         <v>-1</v>
       </c>
       <c r="Y220">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z220">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA220">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB220">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC220">
-        <v>0.8500000000000001</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20591,7 +20591,7 @@
         <v>45186.58333333334</v>
       </c>
       <c r="F226" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G226" t="s">
         <v>33</v>
@@ -20683,7 +20683,7 @@
         <v>52</v>
       </c>
       <c r="G227" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H227">
         <v>1</v>
@@ -21825,7 +21825,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>6899203</v>
+        <v>6893569</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21837,46 +21837,46 @@
         <v>45207.29166666666</v>
       </c>
       <c r="F240" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G240" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="H240">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I240">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J240" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K240">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L240">
         <v>3.3</v>
       </c>
       <c r="M240">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="N240">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="O240">
         <v>3.3</v>
       </c>
       <c r="P240">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q240">
         <v>0</v>
       </c>
       <c r="R240">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S240">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T240">
         <v>2.5</v>
@@ -21888,19 +21888,19 @@
         <v>1.85</v>
       </c>
       <c r="W240">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X240">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y240">
         <v>-1</v>
       </c>
       <c r="Z240">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA240">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB240">
         <v>0.95</v>
@@ -21914,7 +21914,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6893569</v>
+        <v>6899203</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21926,46 +21926,46 @@
         <v>45207.29166666666</v>
       </c>
       <c r="F241" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G241" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I241">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J241" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K241">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L241">
         <v>3.3</v>
       </c>
       <c r="M241">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="N241">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="O241">
         <v>3.3</v>
       </c>
       <c r="P241">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="Q241">
         <v>0</v>
       </c>
       <c r="R241">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S241">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T241">
         <v>2.5</v>
@@ -21977,19 +21977,19 @@
         <v>1.85</v>
       </c>
       <c r="W241">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X241">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y241">
         <v>-1</v>
       </c>
       <c r="Z241">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA241">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB241">
         <v>0.95</v>
@@ -22104,7 +22104,7 @@
         <v>45207.58333333334</v>
       </c>
       <c r="F243" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G243" t="s">
         <v>42</v>
@@ -22819,7 +22819,7 @@
         <v>49</v>
       </c>
       <c r="G251" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H251">
         <v>1</v>
@@ -23439,7 +23439,7 @@
         <v>45234.625</v>
       </c>
       <c r="F258" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G258" t="s">
         <v>39</v>
@@ -24599,7 +24599,7 @@
         <v>30</v>
       </c>
       <c r="G271" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H271">
         <v>1</v>
@@ -25397,7 +25397,7 @@
         <v>45255.625</v>
       </c>
       <c r="F280" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G280" t="s">
         <v>45</v>
@@ -25845,7 +25845,7 @@
         <v>48</v>
       </c>
       <c r="G285" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H285">
         <v>1</v>
@@ -26364,7 +26364,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>7559095</v>
+        <v>6893133</v>
       </c>
       <c r="C291" t="s">
         <v>28</v>
@@ -26376,73 +26376,73 @@
         <v>45269.33333333334</v>
       </c>
       <c r="F291" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G291" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H291">
         <v>2</v>
       </c>
       <c r="I291">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J291" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K291">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="L291">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M291">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="N291">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O291">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P291">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="Q291">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R291">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S291">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T291">
         <v>2.25</v>
       </c>
       <c r="U291">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="V291">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W291">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X291">
         <v>-1</v>
       </c>
       <c r="Y291">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z291">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA291">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB291">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AC291">
         <v>-1</v>
@@ -26453,7 +26453,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>6893133</v>
+        <v>7559095</v>
       </c>
       <c r="C292" t="s">
         <v>28</v>
@@ -26465,73 +26465,73 @@
         <v>45269.33333333334</v>
       </c>
       <c r="F292" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G292" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H292">
         <v>2</v>
       </c>
       <c r="I292">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J292" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K292">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="L292">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M292">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="N292">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="O292">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P292">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="Q292">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R292">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S292">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T292">
         <v>2.25</v>
       </c>
       <c r="U292">
+        <v>1.775</v>
+      </c>
+      <c r="V292">
         <v>2.025</v>
       </c>
-      <c r="V292">
-        <v>1.825</v>
-      </c>
       <c r="W292">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X292">
         <v>-1</v>
       </c>
       <c r="Y292">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z292">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA292">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB292">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC292">
         <v>-1</v>
@@ -26732,7 +26732,7 @@
         <v>45269.625</v>
       </c>
       <c r="F295" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G295" t="s">
         <v>43</v>
@@ -27711,7 +27711,7 @@
         <v>45277.52083333334</v>
       </c>
       <c r="F306" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G306" t="s">
         <v>37</v>
@@ -28515,7 +28515,7 @@
         <v>47</v>
       </c>
       <c r="G315" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H315">
         <v>2</v>
@@ -28945,7 +28945,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>6893589</v>
+        <v>6893143</v>
       </c>
       <c r="C320" t="s">
         <v>28</v>
@@ -28957,76 +28957,76 @@
         <v>45297.52083333334</v>
       </c>
       <c r="F320" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="G320" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320">
         <v>1</v>
       </c>
       <c r="J320" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K320">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="L320">
         <v>3.5</v>
       </c>
       <c r="M320">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="N320">
-        <v>1.571</v>
+        <v>1.6</v>
       </c>
       <c r="O320">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P320">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q320">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R320">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S320">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T320">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U320">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V320">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W320">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X320">
         <v>-1</v>
       </c>
       <c r="Y320">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z320">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA320">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB320">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC320">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="321" spans="1:29">
@@ -29034,7 +29034,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>6893143</v>
+        <v>6893589</v>
       </c>
       <c r="C321" t="s">
         <v>28</v>
@@ -29046,76 +29046,76 @@
         <v>45297.52083333334</v>
       </c>
       <c r="F321" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G321" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321">
         <v>1</v>
       </c>
       <c r="J321" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K321">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L321">
         <v>3.5</v>
       </c>
       <c r="M321">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="N321">
-        <v>1.6</v>
+        <v>1.571</v>
       </c>
       <c r="O321">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P321">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q321">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R321">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S321">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T321">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U321">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V321">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W321">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X321">
         <v>-1</v>
       </c>
       <c r="Y321">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z321">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA321">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB321">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC321">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="322" spans="1:29">
@@ -29123,7 +29123,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>6893145</v>
+        <v>6899181</v>
       </c>
       <c r="C322" t="s">
         <v>28</v>
@@ -29135,76 +29135,76 @@
         <v>45297.625</v>
       </c>
       <c r="F322" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G322" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="H322">
         <v>1</v>
       </c>
       <c r="I322">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J322" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K322">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="L322">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M322">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N322">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O322">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P322">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q322">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R322">
+        <v>2.025</v>
+      </c>
+      <c r="S322">
+        <v>1.775</v>
+      </c>
+      <c r="T322">
+        <v>2.25</v>
+      </c>
+      <c r="U322">
+        <v>1.975</v>
+      </c>
+      <c r="V322">
         <v>1.825</v>
       </c>
-      <c r="S322">
-        <v>1.975</v>
-      </c>
-      <c r="T322">
-        <v>2.5</v>
-      </c>
-      <c r="U322">
-        <v>1.875</v>
-      </c>
-      <c r="V322">
-        <v>1.925</v>
-      </c>
       <c r="W322">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X322">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y322">
         <v>-1</v>
       </c>
       <c r="Z322">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA322">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB322">
         <v>-1</v>
       </c>
       <c r="AC322">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="323" spans="1:29">
@@ -29212,7 +29212,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>6899181</v>
+        <v>6893145</v>
       </c>
       <c r="C323" t="s">
         <v>28</v>
@@ -29224,76 +29224,76 @@
         <v>45297.625</v>
       </c>
       <c r="F323" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G323" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H323">
         <v>1</v>
       </c>
       <c r="I323">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J323" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K323">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="L323">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M323">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="N323">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O323">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P323">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q323">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R323">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S323">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T323">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U323">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V323">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W323">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X323">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y323">
         <v>-1</v>
       </c>
       <c r="Z323">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA323">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB323">
         <v>-1</v>
       </c>
       <c r="AC323">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="324" spans="1:29">
@@ -30028,7 +30028,7 @@
         <v>44</v>
       </c>
       <c r="G332" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H332">
         <v>0</v>
@@ -30473,7 +30473,7 @@
         <v>32</v>
       </c>
       <c r="G337" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H337">
         <v>1</v>
@@ -31627,7 +31627,7 @@
         <v>45320.54166666666</v>
       </c>
       <c r="F350" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G350" t="s">
         <v>51</v>
@@ -32342,7 +32342,7 @@
         <v>50</v>
       </c>
       <c r="G358" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H358">
         <v>3</v>
@@ -32784,7 +32784,7 @@
         <v>45332.52083333334</v>
       </c>
       <c r="F363" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G363" t="s">
         <v>29</v>
@@ -33499,7 +33499,7 @@
         <v>33</v>
       </c>
       <c r="G371" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H371">
         <v>3</v>
@@ -34223,22 +34223,22 @@
         <v>3.2</v>
       </c>
       <c r="N379">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O379">
         <v>3.1</v>
       </c>
       <c r="P379">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q379">
         <v>-0.25</v>
       </c>
       <c r="R379">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S379">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T379">
         <v>2.25</v>
@@ -34279,7 +34279,7 @@
         <v>28</v>
       </c>
       <c r="E380" s="2">
-        <v>45346.45833333334</v>
+        <v>45346.41666666666</v>
       </c>
       <c r="F380" t="s">
         <v>49</v>
@@ -34297,22 +34297,22 @@
         <v>7</v>
       </c>
       <c r="N380">
-        <v>1.4</v>
+        <v>1.363</v>
       </c>
       <c r="O380">
         <v>4.5</v>
       </c>
       <c r="P380">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Q380">
         <v>-1.25</v>
       </c>
       <c r="R380">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S380">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T380">
         <v>2.5</v>
@@ -34380,13 +34380,13 @@
         <v>4.5</v>
       </c>
       <c r="Q381">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R381">
+        <v>1.8</v>
+      </c>
+      <c r="S381">
         <v>2.05</v>
-      </c>
-      <c r="S381">
-        <v>1.8</v>
       </c>
       <c r="T381">
         <v>2.25</v>
@@ -34451,16 +34451,16 @@
         <v>3.4</v>
       </c>
       <c r="P382">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q382">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R382">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S382">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T382">
         <v>2.25</v>
@@ -34504,7 +34504,7 @@
         <v>45346.625</v>
       </c>
       <c r="F383" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G383" t="s">
         <v>52</v>
@@ -34593,31 +34593,31 @@
         <v>2.375</v>
       </c>
       <c r="N384">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="O384">
         <v>3.2</v>
       </c>
       <c r="P384">
-        <v>2.375</v>
+        <v>2.45</v>
       </c>
       <c r="Q384">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R384">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="S384">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="T384">
         <v>2.25</v>
       </c>
       <c r="U384">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V384">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W384">
         <v>0</v>
@@ -34667,22 +34667,22 @@
         <v>2.2</v>
       </c>
       <c r="N385">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="O385">
         <v>3.2</v>
       </c>
       <c r="P385">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q385">
         <v>0.25</v>
       </c>
       <c r="R385">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S385">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T385">
         <v>2.25</v>
@@ -34741,22 +34741,22 @@
         <v>4.5</v>
       </c>
       <c r="N386">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="O386">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P386">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q386">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R386">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S386">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T386">
         <v>2.25</v>
@@ -34815,10 +34815,10 @@
         <v>3.6</v>
       </c>
       <c r="N387">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O387">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P387">
         <v>3.6</v>
@@ -34827,19 +34827,19 @@
         <v>-0.5</v>
       </c>
       <c r="R387">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S387">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T387">
         <v>2.25</v>
       </c>
       <c r="U387">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V387">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W387">
         <v>0</v>

--- a/Portugal Segunda Liga/Portugal Segunda Liga.xlsx
+++ b/Portugal Segunda Liga/Portugal Segunda Liga.xlsx
@@ -112,10 +112,10 @@
     <t>SC Farense</t>
   </si>
   <si>
-    <t>CD Mafra</t>
+    <t>SCU Torreense</t>
   </si>
   <si>
-    <t>SCU Torreense</t>
+    <t>CD Mafra</t>
   </si>
   <si>
     <t>Sporting Covilha</t>
@@ -910,7 +910,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5266496</v>
+        <v>5265388</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -925,73 +925,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K5">
-        <v>1.833</v>
+        <v>2.2</v>
       </c>
       <c r="L5">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M5">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="N5">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="O5">
         <v>3.5</v>
       </c>
       <c r="P5">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q5">
         <v>-0.5</v>
       </c>
       <c r="R5">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S5">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T5">
         <v>2.5</v>
       </c>
       <c r="U5">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V5">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y5">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
         <v>-1</v>
       </c>
       <c r="AA5">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -999,7 +999,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5265388</v>
+        <v>5266496</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1014,73 +1014,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K6">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="L6">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M6">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="N6">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="O6">
         <v>3.5</v>
       </c>
       <c r="P6">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q6">
         <v>-0.5</v>
       </c>
       <c r="R6">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S6">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T6">
         <v>2.5</v>
       </c>
       <c r="U6">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V6">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z6">
         <v>-1</v>
       </c>
       <c r="AA6">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB6">
         <v>-1</v>
       </c>
       <c r="AC6">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1459,7 +1459,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H11">
         <v>4</v>
@@ -1548,7 +1548,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1978,7 +1978,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5265391</v>
+        <v>5265513</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1990,76 +1990,76 @@
         <v>44941.52083333334</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K17">
-        <v>1.727</v>
+        <v>2.05</v>
       </c>
       <c r="L17">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M17">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N17">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="O17">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P17">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="Q17">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R17">
+        <v>1.925</v>
+      </c>
+      <c r="S17">
         <v>1.875</v>
       </c>
-      <c r="S17">
-        <v>1.925</v>
-      </c>
       <c r="T17">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U17">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V17">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W17">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X17">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB17">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2067,7 +2067,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5265513</v>
+        <v>5265391</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2079,76 +2079,76 @@
         <v>44941.52083333334</v>
       </c>
       <c r="F18" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K18">
-        <v>2.05</v>
+        <v>1.727</v>
       </c>
       <c r="L18">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M18">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N18">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="O18">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P18">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="Q18">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R18">
+        <v>1.875</v>
+      </c>
+      <c r="S18">
         <v>1.925</v>
       </c>
-      <c r="S18">
+      <c r="T18">
+        <v>2.75</v>
+      </c>
+      <c r="U18">
+        <v>1.925</v>
+      </c>
+      <c r="V18">
         <v>1.875</v>
       </c>
-      <c r="T18">
-        <v>2.25</v>
-      </c>
-      <c r="U18">
-        <v>1.85</v>
-      </c>
-      <c r="V18">
-        <v>1.95</v>
-      </c>
       <c r="W18">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X18">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA18">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB18">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC18">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2435,7 +2435,7 @@
         <v>44947.52083333334</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G22" t="s">
         <v>40</v>
@@ -2969,7 +2969,7 @@
         <v>44949.625</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G28" t="s">
         <v>42</v>
@@ -3058,7 +3058,7 @@
         <v>44955.33333333334</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G29" t="s">
         <v>31</v>
@@ -3402,7 +3402,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>5265406</v>
+        <v>5265404</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3414,73 +3414,73 @@
         <v>44955.52083333334</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G33" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K33">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="L33">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M33">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="N33">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="O33">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P33">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q33">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R33">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S33">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T33">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U33">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V33">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W33">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z33">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB33">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC33">
         <v>-1</v>
@@ -3491,7 +3491,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>5265404</v>
+        <v>5265406</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3503,73 +3503,73 @@
         <v>44955.52083333334</v>
       </c>
       <c r="F34" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K34">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="L34">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M34">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="N34">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="O34">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P34">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q34">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R34">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S34">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T34">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U34">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V34">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W34">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X34">
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA34">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB34">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC34">
         <v>-1</v>
@@ -4129,7 +4129,7 @@
         <v>43</v>
       </c>
       <c r="G41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H41">
         <v>3</v>
@@ -4307,7 +4307,7 @@
         <v>39</v>
       </c>
       <c r="G43" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4381,7 +4381,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>5265413</v>
+        <v>5263141</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4393,76 +4393,76 @@
         <v>44962.45833333334</v>
       </c>
       <c r="F44" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G44" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44">
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K44">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="L44">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M44">
         <v>2.5</v>
       </c>
       <c r="N44">
-        <v>2.375</v>
+        <v>2.55</v>
       </c>
       <c r="O44">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P44">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q44">
         <v>0</v>
       </c>
       <c r="R44">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S44">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T44">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U44">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V44">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W44">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z44">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB44">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4470,7 +4470,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>5263141</v>
+        <v>5265413</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4482,76 +4482,76 @@
         <v>44962.45833333334</v>
       </c>
       <c r="F45" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G45" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45">
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K45">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="L45">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M45">
         <v>2.5</v>
       </c>
       <c r="N45">
-        <v>2.55</v>
+        <v>2.375</v>
       </c>
       <c r="O45">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P45">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="Q45">
         <v>0</v>
       </c>
       <c r="R45">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S45">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T45">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U45">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V45">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W45">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA45">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC45">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4660,7 +4660,7 @@
         <v>44967.625</v>
       </c>
       <c r="F47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G47" t="s">
         <v>38</v>
@@ -5372,7 +5372,7 @@
         <v>44970.625</v>
       </c>
       <c r="F55" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G55" t="s">
         <v>43</v>
@@ -6087,7 +6087,7 @@
         <v>36</v>
       </c>
       <c r="G63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6176,7 +6176,7 @@
         <v>31</v>
       </c>
       <c r="G64" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6351,7 +6351,7 @@
         <v>44982.33333333334</v>
       </c>
       <c r="F66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G66" t="s">
         <v>30</v>
@@ -6606,7 +6606,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>5265516</v>
+        <v>5265429</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6618,37 +6618,37 @@
         <v>44983.33333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G69" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H69">
         <v>1</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K69">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="L69">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M69">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="N69">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O69">
         <v>3</v>
       </c>
       <c r="P69">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Q69">
         <v>-0.25</v>
@@ -6657,37 +6657,37 @@
         <v>2</v>
       </c>
       <c r="S69">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T69">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U69">
-        <v>1.95</v>
+        <v>2.125</v>
       </c>
       <c r="V69">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="W69">
         <v>-1</v>
       </c>
       <c r="X69">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y69">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA69">
-        <v>0.8</v>
+        <v>0.425</v>
       </c>
       <c r="AB69">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6695,7 +6695,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>5265429</v>
+        <v>5265516</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6707,37 +6707,37 @@
         <v>44983.33333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G70" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H70">
         <v>1</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K70">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="L70">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M70">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="N70">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O70">
         <v>3</v>
       </c>
       <c r="P70">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q70">
         <v>-0.25</v>
@@ -6746,37 +6746,37 @@
         <v>2</v>
       </c>
       <c r="S70">
+        <v>1.8</v>
+      </c>
+      <c r="T70">
+        <v>2.25</v>
+      </c>
+      <c r="U70">
+        <v>1.95</v>
+      </c>
+      <c r="V70">
         <v>1.85</v>
       </c>
-      <c r="T70">
-        <v>2.5</v>
-      </c>
-      <c r="U70">
-        <v>2.125</v>
-      </c>
-      <c r="V70">
-        <v>1.75</v>
-      </c>
       <c r="W70">
         <v>-1</v>
       </c>
       <c r="X70">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y70">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z70">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC70">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6784,7 +6784,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>5266483</v>
+        <v>5265433</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6796,76 +6796,76 @@
         <v>44983.45833333334</v>
       </c>
       <c r="F71" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G71" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71">
         <v>0</v>
       </c>
-      <c r="I71">
-        <v>1</v>
-      </c>
       <c r="J71" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K71">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="L71">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M71">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="N71">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="O71">
         <v>3.2</v>
       </c>
       <c r="P71">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q71">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R71">
+        <v>1.975</v>
+      </c>
+      <c r="S71">
+        <v>1.825</v>
+      </c>
+      <c r="T71">
+        <v>2</v>
+      </c>
+      <c r="U71">
         <v>1.75</v>
       </c>
-      <c r="S71">
+      <c r="V71">
         <v>2.05</v>
       </c>
-      <c r="T71">
-        <v>2.5</v>
-      </c>
-      <c r="U71">
-        <v>2.025</v>
-      </c>
-      <c r="V71">
-        <v>1.775</v>
-      </c>
       <c r="W71">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA71">
+        <v>-1</v>
+      </c>
+      <c r="AB71">
+        <v>-1</v>
+      </c>
+      <c r="AC71">
         <v>1.05</v>
-      </c>
-      <c r="AB71">
-        <v>-1</v>
-      </c>
-      <c r="AC71">
-        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6873,7 +6873,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>5265433</v>
+        <v>5266483</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6885,76 +6885,76 @@
         <v>44983.45833333334</v>
       </c>
       <c r="F72" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G72" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
         <v>1</v>
       </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
       <c r="J72" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K72">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="L72">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M72">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="N72">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="O72">
         <v>3.2</v>
       </c>
       <c r="P72">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="Q72">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R72">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S72">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T72">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U72">
+        <v>2.025</v>
+      </c>
+      <c r="V72">
+        <v>1.775</v>
+      </c>
+      <c r="W72">
+        <v>-1</v>
+      </c>
+      <c r="X72">
+        <v>-1</v>
+      </c>
+      <c r="Y72">
         <v>1.75</v>
       </c>
-      <c r="V72">
-        <v>2.05</v>
-      </c>
-      <c r="W72">
-        <v>2.25</v>
-      </c>
-      <c r="X72">
-        <v>-1</v>
-      </c>
-      <c r="Y72">
-        <v>-1</v>
-      </c>
       <c r="Z72">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA72">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB72">
         <v>-1</v>
       </c>
       <c r="AC72">
-        <v>1.05</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -7333,7 +7333,7 @@
         <v>37</v>
       </c>
       <c r="G77" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7674,7 +7674,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>5266482</v>
+        <v>5265435</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7686,76 +7686,76 @@
         <v>44990.52083333334</v>
       </c>
       <c r="F81" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81">
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K81">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="L81">
+        <v>3.3</v>
+      </c>
+      <c r="M81">
+        <v>3.3</v>
+      </c>
+      <c r="N81">
+        <v>2</v>
+      </c>
+      <c r="O81">
         <v>3.4</v>
       </c>
-      <c r="M81">
-        <v>4</v>
-      </c>
-      <c r="N81">
-        <v>1.75</v>
-      </c>
-      <c r="O81">
-        <v>3.5</v>
-      </c>
       <c r="P81">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q81">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R81">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S81">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T81">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U81">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V81">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W81">
         <v>-1</v>
       </c>
       <c r="X81">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y81">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA81">
-        <v>0.8</v>
+        <v>0.5125</v>
       </c>
       <c r="AB81">
         <v>-1</v>
       </c>
       <c r="AC81">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7763,7 +7763,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>5265435</v>
+        <v>5266482</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7775,76 +7775,76 @@
         <v>44990.52083333334</v>
       </c>
       <c r="F82" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G82" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82">
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K82">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="L82">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M82">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="N82">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="O82">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P82">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q82">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R82">
+        <v>2</v>
+      </c>
+      <c r="S82">
+        <v>1.8</v>
+      </c>
+      <c r="T82">
+        <v>2.25</v>
+      </c>
+      <c r="U82">
         <v>1.775</v>
       </c>
-      <c r="S82">
+      <c r="V82">
         <v>2.025</v>
       </c>
-      <c r="T82">
-        <v>2.5</v>
-      </c>
-      <c r="U82">
-        <v>1.9</v>
-      </c>
-      <c r="V82">
-        <v>1.9</v>
-      </c>
       <c r="W82">
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z82">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
-        <v>0.5125</v>
+        <v>0.8</v>
       </c>
       <c r="AB82">
         <v>-1</v>
       </c>
       <c r="AC82">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -8030,7 +8030,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>5265444</v>
+        <v>5263145</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8042,19 +8042,19 @@
         <v>44996.45833333334</v>
       </c>
       <c r="F85" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G85" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K85">
         <v>2.375</v>
@@ -8066,49 +8066,49 @@
         <v>2.75</v>
       </c>
       <c r="N85">
+        <v>2</v>
+      </c>
+      <c r="O85">
+        <v>3.3</v>
+      </c>
+      <c r="P85">
+        <v>3.4</v>
+      </c>
+      <c r="Q85">
+        <v>-0.5</v>
+      </c>
+      <c r="R85">
+        <v>2</v>
+      </c>
+      <c r="S85">
+        <v>1.8</v>
+      </c>
+      <c r="T85">
         <v>2.5</v>
       </c>
-      <c r="O85">
-        <v>3.25</v>
-      </c>
-      <c r="P85">
-        <v>2.55</v>
-      </c>
-      <c r="Q85">
-        <v>0</v>
-      </c>
-      <c r="R85">
-        <v>1.9</v>
-      </c>
-      <c r="S85">
-        <v>1.9</v>
-      </c>
-      <c r="T85">
-        <v>2.25</v>
-      </c>
       <c r="U85">
+        <v>1.95</v>
+      </c>
+      <c r="V85">
         <v>1.85</v>
       </c>
-      <c r="V85">
-        <v>1.95</v>
-      </c>
       <c r="W85">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X85">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB85">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC85">
         <v>-1</v>
@@ -8119,7 +8119,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>5263145</v>
+        <v>5265444</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8131,19 +8131,19 @@
         <v>44996.45833333334</v>
       </c>
       <c r="F86" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G86" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K86">
         <v>2.375</v>
@@ -8155,49 +8155,49 @@
         <v>2.75</v>
       </c>
       <c r="N86">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="O86">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P86">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="Q86">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R86">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S86">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T86">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U86">
+        <v>1.85</v>
+      </c>
+      <c r="V86">
         <v>1.95</v>
       </c>
-      <c r="V86">
-        <v>1.85</v>
-      </c>
       <c r="W86">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X86">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA86">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC86">
         <v>-1</v>
@@ -8398,7 +8398,7 @@
         <v>44997.45833333334</v>
       </c>
       <c r="F89" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G89" t="s">
         <v>30</v>
@@ -8475,7 +8475,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>5266479</v>
+        <v>5265446</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8487,76 +8487,76 @@
         <v>44997.52083333334</v>
       </c>
       <c r="F90" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G90" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K90">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="L90">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M90">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="N90">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="O90">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P90">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="Q90">
         <v>0.25</v>
       </c>
       <c r="R90">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S90">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T90">
         <v>2.25</v>
       </c>
       <c r="U90">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V90">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W90">
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y90">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA90">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB90">
         <v>-0.5</v>
       </c>
       <c r="AC90">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8564,7 +8564,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>5265446</v>
+        <v>5266479</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8576,76 +8576,76 @@
         <v>44997.52083333334</v>
       </c>
       <c r="F91" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G91" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J91" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K91">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="L91">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M91">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="N91">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="O91">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P91">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="Q91">
         <v>0.25</v>
       </c>
       <c r="R91">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S91">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T91">
         <v>2.25</v>
       </c>
       <c r="U91">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V91">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z91">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB91">
         <v>-0.5</v>
       </c>
       <c r="AC91">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8668,7 +8668,7 @@
         <v>35</v>
       </c>
       <c r="G92" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8935,7 +8935,7 @@
         <v>37</v>
       </c>
       <c r="G95" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -9276,7 +9276,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>5266477</v>
+        <v>6395983</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9288,10 +9288,10 @@
         <v>45004.52083333334</v>
       </c>
       <c r="F99" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H99">
         <v>4</v>
@@ -9303,25 +9303,25 @@
         <v>55</v>
       </c>
       <c r="K99">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="L99">
+        <v>3.4</v>
+      </c>
+      <c r="M99">
         <v>3.6</v>
       </c>
-      <c r="M99">
-        <v>4.75</v>
-      </c>
       <c r="N99">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="O99">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P99">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q99">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R99">
         <v>2.025</v>
@@ -9330,16 +9330,16 @@
         <v>1.825</v>
       </c>
       <c r="T99">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U99">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V99">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W99">
-        <v>0.5</v>
+        <v>0.909</v>
       </c>
       <c r="X99">
         <v>-1</v>
@@ -9354,7 +9354,7 @@
         <v>-1</v>
       </c>
       <c r="AB99">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC99">
         <v>-1</v>
@@ -9365,7 +9365,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6395983</v>
+        <v>5266477</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9377,10 +9377,10 @@
         <v>45004.52083333334</v>
       </c>
       <c r="F100" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G100" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H100">
         <v>4</v>
@@ -9392,25 +9392,25 @@
         <v>55</v>
       </c>
       <c r="K100">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="L100">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M100">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="N100">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="O100">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P100">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="Q100">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R100">
         <v>2.025</v>
@@ -9419,16 +9419,16 @@
         <v>1.825</v>
       </c>
       <c r="T100">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U100">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V100">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W100">
-        <v>0.909</v>
+        <v>0.5</v>
       </c>
       <c r="X100">
         <v>-1</v>
@@ -9443,7 +9443,7 @@
         <v>-1</v>
       </c>
       <c r="AB100">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC100">
         <v>-1</v>
@@ -9555,7 +9555,7 @@
         <v>45017.36458333334</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G102" t="s">
         <v>36</v>
@@ -9810,7 +9810,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6450995</v>
+        <v>6450996</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9822,13 +9822,13 @@
         <v>45018.29166666666</v>
       </c>
       <c r="F105" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G105" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I105">
         <v>3</v>
@@ -9846,31 +9846,31 @@
         <v>2.5</v>
       </c>
       <c r="N105">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="O105">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P105">
+        <v>2.45</v>
+      </c>
+      <c r="Q105">
+        <v>0</v>
+      </c>
+      <c r="R105">
         <v>1.95</v>
       </c>
-      <c r="Q105">
-        <v>0.25</v>
-      </c>
-      <c r="R105">
-        <v>2.025</v>
-      </c>
       <c r="S105">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T105">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U105">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V105">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W105">
         <v>-1</v>
@@ -9879,16 +9879,16 @@
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>0.95</v>
+        <v>1.45</v>
       </c>
       <c r="Z105">
         <v>-1</v>
       </c>
       <c r="AA105">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB105">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC105">
         <v>-1</v>
@@ -9899,7 +9899,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6450996</v>
+        <v>6450995</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9911,13 +9911,13 @@
         <v>45018.29166666666</v>
       </c>
       <c r="F106" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G106" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I106">
         <v>3</v>
@@ -9935,32 +9935,32 @@
         <v>2.5</v>
       </c>
       <c r="N106">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="O106">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P106">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="Q106">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R106">
+        <v>2.025</v>
+      </c>
+      <c r="S106">
+        <v>1.775</v>
+      </c>
+      <c r="T106">
+        <v>2.5</v>
+      </c>
+      <c r="U106">
         <v>1.95</v>
       </c>
-      <c r="S106">
+      <c r="V106">
         <v>1.85</v>
       </c>
-      <c r="T106">
-        <v>2.25</v>
-      </c>
-      <c r="U106">
-        <v>1.975</v>
-      </c>
-      <c r="V106">
-        <v>1.825</v>
-      </c>
       <c r="W106">
         <v>-1</v>
       </c>
@@ -9968,16 +9968,16 @@
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>1.45</v>
+        <v>0.95</v>
       </c>
       <c r="Z106">
         <v>-1</v>
       </c>
       <c r="AA106">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB106">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC106">
         <v>-1</v>
@@ -10448,7 +10448,7 @@
         <v>35</v>
       </c>
       <c r="G112" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H112">
         <v>2</v>
@@ -10801,7 +10801,7 @@
         <v>45024.47916666666</v>
       </c>
       <c r="F116" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G116" t="s">
         <v>34</v>
@@ -11335,10 +11335,10 @@
         <v>45031.47916666666</v>
       </c>
       <c r="F122" t="s">
+        <v>33</v>
+      </c>
+      <c r="G122" t="s">
         <v>32</v>
-      </c>
-      <c r="G122" t="s">
-        <v>33</v>
       </c>
       <c r="H122">
         <v>1</v>
@@ -12047,7 +12047,7 @@
         <v>45038.41666666666</v>
       </c>
       <c r="F130" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G130" t="s">
         <v>29</v>
@@ -12584,7 +12584,7 @@
         <v>34</v>
       </c>
       <c r="G136" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H136">
         <v>1</v>
@@ -12747,7 +12747,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>5265486</v>
+        <v>5265483</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12759,76 +12759,76 @@
         <v>45045.29166666666</v>
       </c>
       <c r="F138" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G138" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I138">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J138" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K138">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L138">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M138">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="N138">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="O138">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P138">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q138">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R138">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S138">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T138">
         <v>2.25</v>
       </c>
       <c r="U138">
+        <v>1.775</v>
+      </c>
+      <c r="V138">
         <v>2.025</v>
       </c>
-      <c r="V138">
-        <v>1.775</v>
-      </c>
       <c r="W138">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X138">
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z138">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA138">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB138">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC138">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12836,7 +12836,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>5265483</v>
+        <v>5265486</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12848,76 +12848,76 @@
         <v>45045.29166666666</v>
       </c>
       <c r="F139" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G139" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I139">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K139">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="L139">
+        <v>3.1</v>
+      </c>
+      <c r="M139">
         <v>3.2</v>
       </c>
-      <c r="M139">
-        <v>2.375</v>
-      </c>
       <c r="N139">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="O139">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P139">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q139">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R139">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S139">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T139">
         <v>2.25</v>
       </c>
       <c r="U139">
+        <v>2.025</v>
+      </c>
+      <c r="V139">
         <v>1.775</v>
       </c>
-      <c r="V139">
-        <v>2.025</v>
-      </c>
       <c r="W139">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA139">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC139">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -13014,7 +13014,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>5266467</v>
+        <v>5265487</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13026,55 +13026,55 @@
         <v>45046.29166666666</v>
       </c>
       <c r="F141" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G141" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H141">
         <v>0</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J141" t="s">
         <v>54</v>
       </c>
       <c r="K141">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="L141">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M141">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="N141">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="O141">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P141">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Q141">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R141">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S141">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T141">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U141">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V141">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W141">
         <v>-1</v>
@@ -13083,19 +13083,19 @@
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="Z141">
         <v>-1</v>
       </c>
       <c r="AA141">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB141">
         <v>-1</v>
       </c>
       <c r="AC141">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13103,7 +13103,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>5265487</v>
+        <v>5266467</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13115,55 +13115,55 @@
         <v>45046.29166666666</v>
       </c>
       <c r="F142" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G142" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H142">
         <v>0</v>
       </c>
       <c r="I142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J142" t="s">
         <v>54</v>
       </c>
       <c r="K142">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="L142">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M142">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="N142">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="O142">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P142">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="Q142">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R142">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S142">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T142">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U142">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V142">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W142">
         <v>-1</v>
@@ -13172,19 +13172,19 @@
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="Z142">
         <v>-1</v>
       </c>
       <c r="AA142">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB142">
         <v>-1</v>
       </c>
       <c r="AC142">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13560,7 +13560,7 @@
         <v>45052.29166666666</v>
       </c>
       <c r="F147" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G147" t="s">
         <v>41</v>
@@ -13904,7 +13904,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>5422914</v>
+        <v>5422910</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13916,76 +13916,76 @@
         <v>45053.29166666666</v>
       </c>
       <c r="F151" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G151" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I151">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J151" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K151">
+        <v>2</v>
+      </c>
+      <c r="L151">
+        <v>3.5</v>
+      </c>
+      <c r="M151">
+        <v>3.25</v>
+      </c>
+      <c r="N151">
+        <v>1.909</v>
+      </c>
+      <c r="O151">
+        <v>3.6</v>
+      </c>
+      <c r="P151">
+        <v>3.5</v>
+      </c>
+      <c r="Q151">
+        <v>-0.5</v>
+      </c>
+      <c r="R151">
+        <v>1.925</v>
+      </c>
+      <c r="S151">
+        <v>1.875</v>
+      </c>
+      <c r="T151">
+        <v>2.75</v>
+      </c>
+      <c r="U151">
         <v>1.8</v>
       </c>
-      <c r="L151">
-        <v>3.4</v>
-      </c>
-      <c r="M151">
-        <v>4</v>
-      </c>
-      <c r="N151">
-        <v>2.1</v>
-      </c>
-      <c r="O151">
-        <v>3.1</v>
-      </c>
-      <c r="P151">
-        <v>3.1</v>
-      </c>
-      <c r="Q151">
-        <v>-0.25</v>
-      </c>
-      <c r="R151">
-        <v>1.9</v>
-      </c>
-      <c r="S151">
-        <v>1.9</v>
-      </c>
-      <c r="T151">
-        <v>2.25</v>
-      </c>
-      <c r="U151">
-        <v>1.9</v>
-      </c>
       <c r="V151">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W151">
         <v>-1</v>
       </c>
       <c r="X151">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y151">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z151">
+        <v>-1</v>
+      </c>
+      <c r="AA151">
+        <v>0.875</v>
+      </c>
+      <c r="AB151">
+        <v>0.4</v>
+      </c>
+      <c r="AC151">
         <v>-0.5</v>
-      </c>
-      <c r="AA151">
-        <v>0.45</v>
-      </c>
-      <c r="AB151">
-        <v>-1</v>
-      </c>
-      <c r="AC151">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13993,7 +13993,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>5422910</v>
+        <v>5422914</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -14005,76 +14005,76 @@
         <v>45053.29166666666</v>
       </c>
       <c r="F152" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G152" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J152" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K152">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L152">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M152">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="N152">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="O152">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P152">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q152">
+        <v>-0.25</v>
+      </c>
+      <c r="R152">
+        <v>1.9</v>
+      </c>
+      <c r="S152">
+        <v>1.9</v>
+      </c>
+      <c r="T152">
+        <v>2.25</v>
+      </c>
+      <c r="U152">
+        <v>1.9</v>
+      </c>
+      <c r="V152">
+        <v>1.9</v>
+      </c>
+      <c r="W152">
+        <v>-1</v>
+      </c>
+      <c r="X152">
+        <v>2.1</v>
+      </c>
+      <c r="Y152">
+        <v>-1</v>
+      </c>
+      <c r="Z152">
         <v>-0.5</v>
       </c>
-      <c r="R152">
-        <v>1.925</v>
-      </c>
-      <c r="S152">
-        <v>1.875</v>
-      </c>
-      <c r="T152">
-        <v>2.75</v>
-      </c>
-      <c r="U152">
-        <v>1.8</v>
-      </c>
-      <c r="V152">
-        <v>2</v>
-      </c>
-      <c r="W152">
-        <v>-1</v>
-      </c>
-      <c r="X152">
-        <v>-1</v>
-      </c>
-      <c r="Y152">
-        <v>2.5</v>
-      </c>
-      <c r="Z152">
-        <v>-1</v>
-      </c>
       <c r="AA152">
-        <v>0.875</v>
+        <v>0.45</v>
       </c>
       <c r="AB152">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC152">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14364,7 +14364,7 @@
         <v>46</v>
       </c>
       <c r="G156" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H156">
         <v>2</v>
@@ -14705,7 +14705,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>5470311</v>
+        <v>5470312</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14717,58 +14717,58 @@
         <v>45060.47916666666</v>
       </c>
       <c r="F160" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G160" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H160">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I160">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J160" t="s">
         <v>55</v>
       </c>
       <c r="K160">
-        <v>2.15</v>
+        <v>1.533</v>
       </c>
       <c r="L160">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M160">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="N160">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="O160">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P160">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q160">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R160">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S160">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T160">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U160">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V160">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W160">
-        <v>0.95</v>
+        <v>0.7</v>
       </c>
       <c r="X160">
         <v>-1</v>
@@ -14777,13 +14777,13 @@
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA160">
         <v>-1</v>
       </c>
       <c r="AB160">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC160">
         <v>-1</v>
@@ -14794,7 +14794,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>5470312</v>
+        <v>5470311</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14806,58 +14806,58 @@
         <v>45060.47916666666</v>
       </c>
       <c r="F161" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G161" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H161">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J161" t="s">
         <v>55</v>
       </c>
       <c r="K161">
-        <v>1.533</v>
+        <v>2.15</v>
       </c>
       <c r="L161">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M161">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="N161">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="O161">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P161">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="Q161">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R161">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S161">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T161">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U161">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V161">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W161">
-        <v>0.7</v>
+        <v>0.95</v>
       </c>
       <c r="X161">
         <v>-1</v>
@@ -14866,13 +14866,13 @@
         <v>-1</v>
       </c>
       <c r="Z161">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA161">
         <v>-1</v>
       </c>
       <c r="AB161">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC161">
         <v>-1</v>
@@ -14987,7 +14987,7 @@
         <v>45</v>
       </c>
       <c r="G163" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H163">
         <v>3</v>
@@ -15061,7 +15061,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>5484709</v>
+        <v>5499375</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15073,76 +15073,76 @@
         <v>45065.58333333334</v>
       </c>
       <c r="F164" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G164" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H164">
+        <v>2</v>
+      </c>
+      <c r="I164">
         <v>0</v>
       </c>
-      <c r="I164">
-        <v>1</v>
-      </c>
       <c r="J164" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K164">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="L164">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M164">
-        <v>1.833</v>
+        <v>2.75</v>
       </c>
       <c r="N164">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="O164">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P164">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="Q164">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R164">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S164">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="T164">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U164">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V164">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W164">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X164">
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z164">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA164">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB164">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC164">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15150,7 +15150,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>5499375</v>
+        <v>5484709</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15162,76 +15162,76 @@
         <v>45065.58333333334</v>
       </c>
       <c r="F165" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G165" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K165">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="L165">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M165">
+        <v>1.833</v>
+      </c>
+      <c r="N165">
+        <v>4.2</v>
+      </c>
+      <c r="O165">
+        <v>3.6</v>
+      </c>
+      <c r="P165">
+        <v>1.727</v>
+      </c>
+      <c r="Q165">
+        <v>0.5</v>
+      </c>
+      <c r="R165">
+        <v>2.1</v>
+      </c>
+      <c r="S165">
+        <v>1.775</v>
+      </c>
+      <c r="T165">
         <v>2.75</v>
       </c>
-      <c r="N165">
-        <v>2.3</v>
-      </c>
-      <c r="O165">
-        <v>3</v>
-      </c>
-      <c r="P165">
-        <v>2.875</v>
-      </c>
-      <c r="Q165">
-        <v>-0.25</v>
-      </c>
-      <c r="R165">
-        <v>2.05</v>
-      </c>
-      <c r="S165">
-        <v>1.75</v>
-      </c>
-      <c r="T165">
-        <v>2.25</v>
-      </c>
       <c r="U165">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V165">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W165">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X165">
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z165">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA165">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB165">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC165">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15607,7 +15607,7 @@
         <v>45067.41666666666</v>
       </c>
       <c r="F170" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G170" t="s">
         <v>38</v>
@@ -15696,7 +15696,7 @@
         <v>45067.47916666666</v>
       </c>
       <c r="F171" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G171" t="s">
         <v>39</v>
@@ -15966,7 +15966,7 @@
         <v>42</v>
       </c>
       <c r="G174" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H174">
         <v>4</v>
@@ -16307,7 +16307,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>5534133</v>
+        <v>5537439</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16319,76 +16319,76 @@
         <v>45074.47916666666</v>
       </c>
       <c r="F178" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G178" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J178" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K178">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L178">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M178">
+        <v>3.4</v>
+      </c>
+      <c r="N178">
+        <v>1.65</v>
+      </c>
+      <c r="O178">
+        <v>4</v>
+      </c>
+      <c r="P178">
+        <v>4.333</v>
+      </c>
+      <c r="Q178">
+        <v>-1.25</v>
+      </c>
+      <c r="R178">
+        <v>1.9</v>
+      </c>
+      <c r="S178">
+        <v>1.9</v>
+      </c>
+      <c r="T178">
         <v>3</v>
       </c>
-      <c r="N178">
-        <v>3.5</v>
-      </c>
-      <c r="O178">
-        <v>3.4</v>
-      </c>
-      <c r="P178">
-        <v>1.909</v>
-      </c>
-      <c r="Q178">
-        <v>0.5</v>
-      </c>
-      <c r="R178">
-        <v>1.8</v>
-      </c>
-      <c r="S178">
-        <v>2</v>
-      </c>
-      <c r="T178">
-        <v>2.25</v>
-      </c>
       <c r="U178">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V178">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W178">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X178">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y178">
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA178">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB178">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC178">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16396,7 +16396,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>5537439</v>
+        <v>5534133</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16408,76 +16408,76 @@
         <v>45074.47916666666</v>
       </c>
       <c r="F179" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G179" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H179">
+        <v>1</v>
+      </c>
+      <c r="I179">
+        <v>1</v>
+      </c>
+      <c r="J179" t="s">
+        <v>56</v>
+      </c>
+      <c r="K179">
+        <v>2.2</v>
+      </c>
+      <c r="L179">
+        <v>3.25</v>
+      </c>
+      <c r="M179">
         <v>3</v>
       </c>
-      <c r="I179">
-        <v>2</v>
-      </c>
-      <c r="J179" t="s">
-        <v>55</v>
-      </c>
-      <c r="K179">
-        <v>1.95</v>
-      </c>
-      <c r="L179">
+      <c r="N179">
+        <v>3.5</v>
+      </c>
+      <c r="O179">
         <v>3.4</v>
       </c>
-      <c r="M179">
-        <v>3.4</v>
-      </c>
-      <c r="N179">
-        <v>1.65</v>
-      </c>
-      <c r="O179">
-        <v>4</v>
-      </c>
       <c r="P179">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="Q179">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R179">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S179">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T179">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U179">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V179">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W179">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X179">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
+        <v>0.8</v>
+      </c>
+      <c r="AA179">
+        <v>-1</v>
+      </c>
+      <c r="AB179">
         <v>-0.5</v>
       </c>
-      <c r="AA179">
-        <v>0.45</v>
-      </c>
-      <c r="AB179">
-        <v>0.875</v>
-      </c>
       <c r="AC179">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16500,7 +16500,7 @@
         <v>40</v>
       </c>
       <c r="G180" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H180">
         <v>1</v>
@@ -17212,7 +17212,7 @@
         <v>36</v>
       </c>
       <c r="G188" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H188">
         <v>3</v>
@@ -17390,7 +17390,7 @@
         <v>49</v>
       </c>
       <c r="G190" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H190">
         <v>2</v>
@@ -17565,7 +17565,7 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F192" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G192" t="s">
         <v>47</v>
@@ -18099,7 +18099,7 @@
         <v>45159.61458333334</v>
       </c>
       <c r="F198" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G198" t="s">
         <v>43</v>
@@ -18458,7 +18458,7 @@
         <v>53</v>
       </c>
       <c r="G202" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H202">
         <v>1</v>
@@ -18903,7 +18903,7 @@
         <v>48</v>
       </c>
       <c r="G207" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H207">
         <v>0</v>
@@ -19167,7 +19167,7 @@
         <v>45171.29166666666</v>
       </c>
       <c r="F210" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G210" t="s">
         <v>44</v>
@@ -19333,7 +19333,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6893107</v>
+        <v>7140182</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19345,76 +19345,76 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F212" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G212" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I212">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J212" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K212">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="L212">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M212">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="N212">
+        <v>2.3</v>
+      </c>
+      <c r="O212">
         <v>2.9</v>
       </c>
-      <c r="O212">
-        <v>3.5</v>
-      </c>
       <c r="P212">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q212">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R212">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S212">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T212">
         <v>2.25</v>
       </c>
       <c r="U212">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V212">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W212">
         <v>-1</v>
       </c>
       <c r="X212">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y212">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z212">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA212">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB212">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC212">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19422,7 +19422,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7140182</v>
+        <v>6893107</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19434,76 +19434,76 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F213" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G213" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J213" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K213">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="L213">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M213">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="N213">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="O213">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="P213">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q213">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R213">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S213">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T213">
         <v>2.25</v>
       </c>
       <c r="U213">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V213">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W213">
         <v>-1</v>
       </c>
       <c r="X213">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y213">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z213">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA213">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB213">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC213">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19612,7 +19612,7 @@
         <v>45172.29166666666</v>
       </c>
       <c r="F215" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G215" t="s">
         <v>45</v>
@@ -20327,7 +20327,7 @@
         <v>37</v>
       </c>
       <c r="G223" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H223">
         <v>2</v>
@@ -20594,7 +20594,7 @@
         <v>36</v>
       </c>
       <c r="G226" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H226">
         <v>0</v>
@@ -20861,7 +20861,7 @@
         <v>50</v>
       </c>
       <c r="G229" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H229">
         <v>1</v>
@@ -21392,7 +21392,7 @@
         <v>45201.67708333334</v>
       </c>
       <c r="F235" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G235" t="s">
         <v>53</v>
@@ -21840,7 +21840,7 @@
         <v>44</v>
       </c>
       <c r="G240" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H240">
         <v>2</v>
@@ -21926,7 +21926,7 @@
         <v>45207.29166666666</v>
       </c>
       <c r="F241" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G241" t="s">
         <v>51</v>
@@ -22285,7 +22285,7 @@
         <v>39</v>
       </c>
       <c r="G245" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H245">
         <v>1</v>
@@ -22371,7 +22371,7 @@
         <v>45227.29166666666</v>
       </c>
       <c r="F246" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G246" t="s">
         <v>47</v>
@@ -23071,7 +23071,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>6893126</v>
+        <v>6893574</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -23083,34 +23083,34 @@
         <v>45234.33333333334</v>
       </c>
       <c r="F254" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G254" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H254">
+        <v>2</v>
+      </c>
+      <c r="I254">
         <v>0</v>
       </c>
-      <c r="I254">
-        <v>1</v>
-      </c>
       <c r="J254" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K254">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L254">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M254">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="N254">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="O254">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P254">
         <v>3.8</v>
@@ -23119,40 +23119,40 @@
         <v>-0.5</v>
       </c>
       <c r="R254">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S254">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T254">
         <v>2.5</v>
       </c>
       <c r="U254">
+        <v>1.825</v>
+      </c>
+      <c r="V254">
         <v>1.975</v>
       </c>
-      <c r="V254">
-        <v>1.825</v>
-      </c>
       <c r="W254">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X254">
         <v>-1</v>
       </c>
       <c r="Y254">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z254">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA254">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB254">
         <v>-1</v>
       </c>
       <c r="AC254">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="255" spans="1:29">
@@ -23160,7 +23160,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>6893574</v>
+        <v>6893126</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23172,34 +23172,34 @@
         <v>45234.33333333334</v>
       </c>
       <c r="F255" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G255" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J255" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K255">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L255">
+        <v>3.4</v>
+      </c>
+      <c r="M255">
+        <v>3.8</v>
+      </c>
+      <c r="N255">
+        <v>1.8</v>
+      </c>
+      <c r="O255">
         <v>3.3</v>
-      </c>
-      <c r="M255">
-        <v>3.2</v>
-      </c>
-      <c r="N255">
-        <v>1.727</v>
-      </c>
-      <c r="O255">
-        <v>3.6</v>
       </c>
       <c r="P255">
         <v>3.8</v>
@@ -23208,40 +23208,40 @@
         <v>-0.5</v>
       </c>
       <c r="R255">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S255">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T255">
         <v>2.5</v>
       </c>
       <c r="U255">
+        <v>1.975</v>
+      </c>
+      <c r="V255">
         <v>1.825</v>
       </c>
-      <c r="V255">
-        <v>1.975</v>
-      </c>
       <c r="W255">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X255">
         <v>-1</v>
       </c>
       <c r="Y255">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z255">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA255">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB255">
         <v>-1</v>
       </c>
       <c r="AC255">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="256" spans="1:29">
@@ -23338,7 +23338,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>6893125</v>
+        <v>6893124</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -23350,76 +23350,76 @@
         <v>45234.625</v>
       </c>
       <c r="F257" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G257" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H257">
         <v>1</v>
       </c>
       <c r="I257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J257" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K257">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="L257">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M257">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="N257">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="O257">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P257">
+        <v>2.9</v>
+      </c>
+      <c r="Q257">
+        <v>-0.25</v>
+      </c>
+      <c r="R257">
+        <v>1.95</v>
+      </c>
+      <c r="S257">
+        <v>1.85</v>
+      </c>
+      <c r="T257">
         <v>2.5</v>
       </c>
-      <c r="Q257">
-        <v>0</v>
-      </c>
-      <c r="R257">
+      <c r="U257">
         <v>1.9</v>
       </c>
-      <c r="S257">
+      <c r="V257">
         <v>1.9</v>
       </c>
-      <c r="T257">
-        <v>2.25</v>
-      </c>
-      <c r="U257">
-        <v>1.875</v>
-      </c>
-      <c r="V257">
-        <v>1.925</v>
-      </c>
       <c r="W257">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X257">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y257">
         <v>-1</v>
       </c>
       <c r="Z257">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA257">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB257">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC257">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="258" spans="1:29">
@@ -23427,7 +23427,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>6893124</v>
+        <v>6893125</v>
       </c>
       <c r="C258" t="s">
         <v>28</v>
@@ -23439,76 +23439,76 @@
         <v>45234.625</v>
       </c>
       <c r="F258" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G258" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H258">
         <v>1</v>
       </c>
       <c r="I258">
+        <v>1</v>
+      </c>
+      <c r="J258" t="s">
+        <v>56</v>
+      </c>
+      <c r="K258">
+        <v>2.8</v>
+      </c>
+      <c r="L258">
+        <v>3.1</v>
+      </c>
+      <c r="M258">
+        <v>2.3</v>
+      </c>
+      <c r="N258">
+        <v>2.6</v>
+      </c>
+      <c r="O258">
+        <v>3</v>
+      </c>
+      <c r="P258">
+        <v>2.5</v>
+      </c>
+      <c r="Q258">
         <v>0</v>
       </c>
-      <c r="J258" t="s">
-        <v>55</v>
-      </c>
-      <c r="K258">
-        <v>2.05</v>
-      </c>
-      <c r="L258">
-        <v>3.3</v>
-      </c>
-      <c r="M258">
-        <v>3</v>
-      </c>
-      <c r="N258">
-        <v>2.15</v>
-      </c>
-      <c r="O258">
-        <v>3.25</v>
-      </c>
-      <c r="P258">
-        <v>2.9</v>
-      </c>
-      <c r="Q258">
-        <v>-0.25</v>
-      </c>
       <c r="R258">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S258">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T258">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U258">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V258">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W258">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X258">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y258">
         <v>-1</v>
       </c>
       <c r="Z258">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA258">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB258">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC258">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="259" spans="1:29">
@@ -23709,7 +23709,7 @@
         <v>37</v>
       </c>
       <c r="G261" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H261">
         <v>1</v>
@@ -24317,7 +24317,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>6893577</v>
+        <v>6893576</v>
       </c>
       <c r="C268" t="s">
         <v>28</v>
@@ -24329,49 +24329,49 @@
         <v>45242.33333333334</v>
       </c>
       <c r="F268" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="G268" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H268">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I268">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J268" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K268">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="L268">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M268">
+        <v>3</v>
+      </c>
+      <c r="N268">
         <v>2.375</v>
       </c>
-      <c r="N268">
-        <v>3.4</v>
-      </c>
       <c r="O268">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P268">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="Q268">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R268">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S268">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T268">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U268">
         <v>1.95</v>
@@ -24383,22 +24383,22 @@
         <v>-1</v>
       </c>
       <c r="X268">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y268">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z268">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA268">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB268">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC268">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="269" spans="1:29">
@@ -24406,7 +24406,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>6893576</v>
+        <v>6893577</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
@@ -24418,49 +24418,49 @@
         <v>45242.33333333334</v>
       </c>
       <c r="F269" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="G269" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I269">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J269" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K269">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="L269">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M269">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="N269">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="O269">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P269">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="Q269">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R269">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S269">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T269">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U269">
         <v>1.95</v>
@@ -24472,22 +24472,22 @@
         <v>-1</v>
       </c>
       <c r="X269">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y269">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z269">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA269">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB269">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC269">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="270" spans="1:29">
@@ -24685,7 +24685,7 @@
         <v>45248.33333333334</v>
       </c>
       <c r="F272" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G272" t="s">
         <v>52</v>
@@ -25222,7 +25222,7 @@
         <v>50</v>
       </c>
       <c r="G278" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H278">
         <v>1</v>
@@ -25931,7 +25931,7 @@
         <v>45263.33333333334</v>
       </c>
       <c r="F286" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G286" t="s">
         <v>29</v>
@@ -26201,7 +26201,7 @@
         <v>42</v>
       </c>
       <c r="G289" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H289">
         <v>3</v>
@@ -26290,7 +26290,7 @@
         <v>51</v>
       </c>
       <c r="G290" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H290">
         <v>1</v>
@@ -26821,7 +26821,7 @@
         <v>45270.33333333334</v>
       </c>
       <c r="F296" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G296" t="s">
         <v>30</v>
@@ -27091,7 +27091,7 @@
         <v>30</v>
       </c>
       <c r="G299" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H299">
         <v>0</v>
@@ -27803,7 +27803,7 @@
         <v>45</v>
       </c>
       <c r="G307" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H307">
         <v>1</v>
@@ -27889,7 +27889,7 @@
         <v>45281.625</v>
       </c>
       <c r="F308" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G308" t="s">
         <v>52</v>
@@ -28233,7 +28233,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>6893140</v>
+        <v>6893139</v>
       </c>
       <c r="C312" t="s">
         <v>28</v>
@@ -28245,55 +28245,55 @@
         <v>45290.33333333334</v>
       </c>
       <c r="F312" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G312" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I312">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J312" t="s">
         <v>54</v>
       </c>
       <c r="K312">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="L312">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M312">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="N312">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="O312">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P312">
-        <v>3.25</v>
+        <v>2.45</v>
       </c>
       <c r="Q312">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R312">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S312">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T312">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U312">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V312">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W312">
         <v>-1</v>
@@ -28302,16 +28302,16 @@
         <v>-1</v>
       </c>
       <c r="Y312">
-        <v>2.25</v>
+        <v>1.45</v>
       </c>
       <c r="Z312">
         <v>-1</v>
       </c>
       <c r="AA312">
-        <v>1.025</v>
+        <v>0.75</v>
       </c>
       <c r="AB312">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC312">
         <v>-1</v>
@@ -28322,7 +28322,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>6893139</v>
+        <v>6893140</v>
       </c>
       <c r="C313" t="s">
         <v>28</v>
@@ -28334,55 +28334,55 @@
         <v>45290.33333333334</v>
       </c>
       <c r="F313" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G313" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H313">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I313">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J313" t="s">
         <v>54</v>
       </c>
       <c r="K313">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="L313">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M313">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="N313">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="O313">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P313">
-        <v>2.45</v>
+        <v>3.25</v>
       </c>
       <c r="Q313">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R313">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S313">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T313">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U313">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V313">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W313">
         <v>-1</v>
@@ -28391,16 +28391,16 @@
         <v>-1</v>
       </c>
       <c r="Y313">
-        <v>1.45</v>
+        <v>2.25</v>
       </c>
       <c r="Z313">
         <v>-1</v>
       </c>
       <c r="AA313">
-        <v>0.75</v>
+        <v>1.025</v>
       </c>
       <c r="AB313">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC313">
         <v>-1</v>
@@ -28411,7 +28411,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>6893587</v>
+        <v>6893141</v>
       </c>
       <c r="C314" t="s">
         <v>28</v>
@@ -28423,76 +28423,76 @@
         <v>45290.45833333334</v>
       </c>
       <c r="F314" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G314" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H314">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I314">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J314" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K314">
-        <v>1.65</v>
+        <v>1.909</v>
       </c>
       <c r="L314">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M314">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N314">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="O314">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P314">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q314">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R314">
+        <v>1.825</v>
+      </c>
+      <c r="S314">
+        <v>2.025</v>
+      </c>
+      <c r="T314">
+        <v>2.25</v>
+      </c>
+      <c r="U314">
+        <v>1.975</v>
+      </c>
+      <c r="V314">
         <v>1.875</v>
       </c>
-      <c r="S314">
-        <v>1.925</v>
-      </c>
-      <c r="T314">
-        <v>2.5</v>
-      </c>
-      <c r="U314">
-        <v>1.85</v>
-      </c>
-      <c r="V314">
-        <v>1.95</v>
-      </c>
       <c r="W314">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X314">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y314">
         <v>-1</v>
       </c>
       <c r="Z314">
-        <v>0.4375</v>
+        <v>-0.5</v>
       </c>
       <c r="AA314">
-        <v>-0.5</v>
+        <v>0.5125</v>
       </c>
       <c r="AB314">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC314">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="315" spans="1:29">
@@ -28500,7 +28500,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>6893141</v>
+        <v>6893587</v>
       </c>
       <c r="C315" t="s">
         <v>28</v>
@@ -28512,76 +28512,76 @@
         <v>45290.45833333334</v>
       </c>
       <c r="F315" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G315" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I315">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J315" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K315">
-        <v>1.909</v>
+        <v>1.65</v>
       </c>
       <c r="L315">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M315">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N315">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="O315">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P315">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q315">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R315">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S315">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T315">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U315">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V315">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W315">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X315">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y315">
         <v>-1</v>
       </c>
       <c r="Z315">
+        <v>0.4375</v>
+      </c>
+      <c r="AA315">
         <v>-0.5</v>
       </c>
-      <c r="AA315">
-        <v>0.5125</v>
-      </c>
       <c r="AB315">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC315">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="316" spans="1:29">
@@ -28690,7 +28690,7 @@
         <v>45291.33333333334</v>
       </c>
       <c r="F317" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G317" t="s">
         <v>48</v>
@@ -28945,7 +28945,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>6893143</v>
+        <v>6893589</v>
       </c>
       <c r="C320" t="s">
         <v>28</v>
@@ -28957,76 +28957,76 @@
         <v>45297.52083333334</v>
       </c>
       <c r="F320" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G320" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320">
         <v>1</v>
       </c>
       <c r="J320" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K320">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L320">
         <v>3.5</v>
       </c>
       <c r="M320">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="N320">
-        <v>1.6</v>
+        <v>1.571</v>
       </c>
       <c r="O320">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P320">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q320">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R320">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S320">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T320">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U320">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V320">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W320">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X320">
         <v>-1</v>
       </c>
       <c r="Y320">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z320">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA320">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB320">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC320">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="321" spans="1:29">
@@ -29034,7 +29034,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>6893589</v>
+        <v>6893143</v>
       </c>
       <c r="C321" t="s">
         <v>28</v>
@@ -29046,76 +29046,76 @@
         <v>45297.52083333334</v>
       </c>
       <c r="F321" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G321" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321">
         <v>1</v>
       </c>
       <c r="J321" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K321">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="L321">
         <v>3.5</v>
       </c>
       <c r="M321">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="N321">
-        <v>1.571</v>
+        <v>1.6</v>
       </c>
       <c r="O321">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P321">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q321">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R321">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S321">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T321">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U321">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V321">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W321">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X321">
         <v>-1</v>
       </c>
       <c r="Y321">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z321">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA321">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB321">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC321">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="322" spans="1:29">
@@ -29494,7 +29494,7 @@
         <v>42</v>
       </c>
       <c r="G326" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H326">
         <v>3</v>
@@ -29924,7 +29924,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>6899180</v>
+        <v>6893591</v>
       </c>
       <c r="C331" t="s">
         <v>28</v>
@@ -29936,76 +29936,76 @@
         <v>45305.52083333334</v>
       </c>
       <c r="F331" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G331" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H331">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I331">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J331" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K331">
-        <v>1.833</v>
+        <v>1.75</v>
       </c>
       <c r="L331">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M331">
         <v>4.333</v>
       </c>
       <c r="N331">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="O331">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P331">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q331">
         <v>-0.5</v>
       </c>
       <c r="R331">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S331">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T331">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U331">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V331">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="W331">
         <v>-1</v>
       </c>
       <c r="X331">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y331">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z331">
         <v>-1</v>
       </c>
       <c r="AA331">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB331">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AC331">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="332" spans="1:29">
@@ -30013,7 +30013,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>6893591</v>
+        <v>6899180</v>
       </c>
       <c r="C332" t="s">
         <v>28</v>
@@ -30025,76 +30025,76 @@
         <v>45305.52083333334</v>
       </c>
       <c r="F332" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G332" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I332">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J332" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K332">
-        <v>1.75</v>
+        <v>1.833</v>
       </c>
       <c r="L332">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M332">
         <v>4.333</v>
       </c>
       <c r="N332">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="O332">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P332">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q332">
         <v>-0.5</v>
       </c>
       <c r="R332">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S332">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T332">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U332">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V332">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="W332">
         <v>-1</v>
       </c>
       <c r="X332">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y332">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z332">
         <v>-1</v>
       </c>
       <c r="AA332">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB332">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AC332">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="333" spans="1:29">
@@ -30203,7 +30203,7 @@
         <v>45306.65625</v>
       </c>
       <c r="F334" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G334" t="s">
         <v>43</v>
@@ -30292,7 +30292,7 @@
         <v>45306.73958333334</v>
       </c>
       <c r="F335" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G335" t="s">
         <v>39</v>
@@ -30470,7 +30470,7 @@
         <v>45311.33333333334</v>
       </c>
       <c r="F337" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G337" t="s">
         <v>36</v>
@@ -30915,7 +30915,7 @@
         <v>45312.52083333334</v>
       </c>
       <c r="F342" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G342" t="s">
         <v>49</v>
@@ -31185,7 +31185,7 @@
         <v>47</v>
       </c>
       <c r="G345" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H345">
         <v>0</v>
@@ -31348,7 +31348,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>6893595</v>
+        <v>6893154</v>
       </c>
       <c r="C347" t="s">
         <v>28</v>
@@ -31360,40 +31360,40 @@
         <v>45319.52083333334</v>
       </c>
       <c r="F347" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G347" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="H347">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I347">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J347" t="s">
         <v>55</v>
       </c>
       <c r="K347">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="L347">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M347">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="N347">
-        <v>1.65</v>
+        <v>1.833</v>
       </c>
       <c r="O347">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P347">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q347">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R347">
         <v>1.85</v>
@@ -31402,16 +31402,16 @@
         <v>1.95</v>
       </c>
       <c r="T347">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U347">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V347">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W347">
-        <v>0.6499999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X347">
         <v>-1</v>
@@ -31426,10 +31426,10 @@
         <v>-1</v>
       </c>
       <c r="AB347">
-        <v>0.475</v>
+        <v>0.8</v>
       </c>
       <c r="AC347">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="348" spans="1:29">
@@ -31437,7 +31437,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>6893154</v>
+        <v>6893595</v>
       </c>
       <c r="C348" t="s">
         <v>28</v>
@@ -31449,40 +31449,40 @@
         <v>45319.52083333334</v>
       </c>
       <c r="F348" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G348" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I348">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J348" t="s">
         <v>55</v>
       </c>
       <c r="K348">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="L348">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M348">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="N348">
-        <v>1.833</v>
+        <v>1.65</v>
       </c>
       <c r="O348">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P348">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q348">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R348">
         <v>1.85</v>
@@ -31491,16 +31491,16 @@
         <v>1.95</v>
       </c>
       <c r="T348">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U348">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V348">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W348">
-        <v>0.833</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X348">
         <v>-1</v>
@@ -31515,10 +31515,10 @@
         <v>-1</v>
       </c>
       <c r="AB348">
-        <v>0.8</v>
+        <v>0.475</v>
       </c>
       <c r="AC348">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="349" spans="1:29">
@@ -31983,7 +31983,7 @@
         <v>45324.73958333334</v>
       </c>
       <c r="F354" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G354" t="s">
         <v>53</v>
@@ -32161,7 +32161,7 @@
         <v>45325.45833333334</v>
       </c>
       <c r="F356" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G356" t="s">
         <v>48</v>
@@ -32520,7 +32520,7 @@
         <v>45</v>
       </c>
       <c r="G360" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H360">
         <v>1</v>
@@ -33054,7 +33054,7 @@
         <v>44</v>
       </c>
       <c r="G366" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H366">
         <v>1</v>
@@ -33407,7 +33407,7 @@
         <v>45339.33333333334</v>
       </c>
       <c r="F370" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G370" t="s">
         <v>37</v>
@@ -33496,7 +33496,7 @@
         <v>45339.45833333334</v>
       </c>
       <c r="F371" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G371" t="s">
         <v>36</v>
@@ -34380,13 +34380,13 @@
         <v>4.5</v>
       </c>
       <c r="Q381">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R381">
+        <v>2.05</v>
+      </c>
+      <c r="S381">
         <v>1.8</v>
-      </c>
-      <c r="S381">
-        <v>2.05</v>
       </c>
       <c r="T381">
         <v>2.25</v>
@@ -34454,13 +34454,13 @@
         <v>4.5</v>
       </c>
       <c r="Q382">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R382">
+        <v>2.05</v>
+      </c>
+      <c r="S382">
         <v>1.8</v>
-      </c>
-      <c r="S382">
-        <v>2.05</v>
       </c>
       <c r="T382">
         <v>2.25</v>
@@ -34540,10 +34540,10 @@
         <v>2.5</v>
       </c>
       <c r="U383">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V383">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W383">
         <v>0</v>
@@ -34578,7 +34578,7 @@
         <v>45347.33333333334</v>
       </c>
       <c r="F384" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G384" t="s">
         <v>50</v>
@@ -34593,31 +34593,31 @@
         <v>2.375</v>
       </c>
       <c r="N384">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="O384">
         <v>3.2</v>
       </c>
       <c r="P384">
-        <v>2.45</v>
+        <v>2.625</v>
       </c>
       <c r="Q384">
         <v>0</v>
       </c>
       <c r="R384">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S384">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T384">
         <v>2.25</v>
       </c>
       <c r="U384">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V384">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W384">
         <v>0</v>
@@ -34655,7 +34655,7 @@
         <v>53</v>
       </c>
       <c r="G385" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K385">
         <v>3.1</v>

--- a/Portugal Segunda Liga/Portugal Segunda Liga.xlsx
+++ b/Portugal Segunda Liga/Portugal Segunda Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1949" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1945" uniqueCount="57">
   <si>
     <t>id</t>
   </si>
@@ -112,10 +112,10 @@
     <t>SC Farense</t>
   </si>
   <si>
-    <t>SCU Torreense</t>
+    <t>CD Mafra</t>
   </si>
   <si>
-    <t>CD Mafra</t>
+    <t>SCU Torreense</t>
   </si>
   <si>
     <t>Sporting Covilha</t>
@@ -546,7 +546,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC387"/>
+  <dimension ref="A1:AC386"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -910,7 +910,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5265388</v>
+        <v>5266496</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -925,73 +925,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K5">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="L5">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M5">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="N5">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="O5">
         <v>3.5</v>
       </c>
       <c r="P5">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q5">
         <v>-0.5</v>
       </c>
       <c r="R5">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S5">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T5">
         <v>2.5</v>
       </c>
       <c r="U5">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V5">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z5">
         <v>-1</v>
       </c>
       <c r="AA5">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -999,7 +999,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5266496</v>
+        <v>5265388</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1014,73 +1014,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K6">
-        <v>1.833</v>
+        <v>2.2</v>
       </c>
       <c r="L6">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M6">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="N6">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="O6">
         <v>3.5</v>
       </c>
       <c r="P6">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q6">
         <v>-0.5</v>
       </c>
       <c r="R6">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S6">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T6">
         <v>2.5</v>
       </c>
       <c r="U6">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V6">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y6">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
         <v>-1</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB6">
         <v>-1</v>
       </c>
       <c r="AC6">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1459,7 +1459,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>4</v>
@@ -1548,7 +1548,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -2423,7 +2423,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5263140</v>
+        <v>5265395</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2435,76 +2435,76 @@
         <v>44947.52083333334</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G22" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K22">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L22">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M22">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="N22">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="O22">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P22">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q22">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R22">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S22">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T22">
         <v>2.5</v>
       </c>
       <c r="U22">
+        <v>1.975</v>
+      </c>
+      <c r="V22">
+        <v>1.825</v>
+      </c>
+      <c r="W22">
+        <v>-1</v>
+      </c>
+      <c r="X22">
+        <v>-1</v>
+      </c>
+      <c r="Y22">
         <v>1.9</v>
       </c>
-      <c r="V22">
-        <v>1.9</v>
-      </c>
-      <c r="W22">
-        <v>0.75</v>
-      </c>
-      <c r="X22">
-        <v>-1</v>
-      </c>
-      <c r="Y22">
-        <v>-1</v>
-      </c>
       <c r="Z22">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC22">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2512,7 +2512,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5265395</v>
+        <v>5263140</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2524,76 +2524,76 @@
         <v>44947.52083333334</v>
       </c>
       <c r="F23" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K23">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L23">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M23">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="N23">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="O23">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P23">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="Q23">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R23">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S23">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T23">
         <v>2.5</v>
       </c>
       <c r="U23">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V23">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA23">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2969,7 +2969,7 @@
         <v>44949.625</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G28" t="s">
         <v>42</v>
@@ -3058,7 +3058,7 @@
         <v>44955.33333333334</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G29" t="s">
         <v>31</v>
@@ -3414,7 +3414,7 @@
         <v>44955.52083333334</v>
       </c>
       <c r="F33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G33" t="s">
         <v>45</v>
@@ -4129,7 +4129,7 @@
         <v>43</v>
       </c>
       <c r="G41" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H41">
         <v>3</v>
@@ -4307,7 +4307,7 @@
         <v>39</v>
       </c>
       <c r="G43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4660,7 +4660,7 @@
         <v>44967.625</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G47" t="s">
         <v>38</v>
@@ -5372,7 +5372,7 @@
         <v>44970.625</v>
       </c>
       <c r="F55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G55" t="s">
         <v>43</v>
@@ -6087,7 +6087,7 @@
         <v>36</v>
       </c>
       <c r="G63" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6176,7 +6176,7 @@
         <v>31</v>
       </c>
       <c r="G64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6351,7 +6351,7 @@
         <v>44982.33333333334</v>
       </c>
       <c r="F66" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G66" t="s">
         <v>30</v>
@@ -6618,7 +6618,7 @@
         <v>44983.33333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G69" t="s">
         <v>42</v>
@@ -7333,7 +7333,7 @@
         <v>37</v>
       </c>
       <c r="G77" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7689,7 +7689,7 @@
         <v>44</v>
       </c>
       <c r="G81" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -8131,7 +8131,7 @@
         <v>44996.45833333334</v>
       </c>
       <c r="F86" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G86" t="s">
         <v>44</v>
@@ -8398,7 +8398,7 @@
         <v>44997.45833333334</v>
       </c>
       <c r="F89" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G89" t="s">
         <v>30</v>
@@ -8668,7 +8668,7 @@
         <v>35</v>
       </c>
       <c r="G92" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8920,7 +8920,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>5265450</v>
+        <v>5935501</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8932,76 +8932,76 @@
         <v>45004.33333333334</v>
       </c>
       <c r="F95" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G95" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K95">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L95">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M95">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="N95">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O95">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P95">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="Q95">
         <v>-0.25</v>
       </c>
       <c r="R95">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S95">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T95">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U95">
         <v>1.95</v>
       </c>
       <c r="V95">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W95">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA95">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC95">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9009,7 +9009,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>5935501</v>
+        <v>5265450</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9021,76 +9021,76 @@
         <v>45004.33333333334</v>
       </c>
       <c r="F96" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G96" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K96">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L96">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M96">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="N96">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O96">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P96">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="Q96">
         <v>-0.25</v>
       </c>
       <c r="R96">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S96">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T96">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U96">
         <v>1.95</v>
       </c>
       <c r="V96">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W96">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z96">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC96">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9555,7 +9555,7 @@
         <v>45017.36458333334</v>
       </c>
       <c r="F102" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G102" t="s">
         <v>36</v>
@@ -9825,7 +9825,7 @@
         <v>46</v>
       </c>
       <c r="G105" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -10448,7 +10448,7 @@
         <v>35</v>
       </c>
       <c r="G112" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H112">
         <v>2</v>
@@ -10801,7 +10801,7 @@
         <v>45024.47916666666</v>
       </c>
       <c r="F116" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G116" t="s">
         <v>34</v>
@@ -11335,10 +11335,10 @@
         <v>45031.47916666666</v>
       </c>
       <c r="F122" t="s">
+        <v>32</v>
+      </c>
+      <c r="G122" t="s">
         <v>33</v>
-      </c>
-      <c r="G122" t="s">
-        <v>32</v>
       </c>
       <c r="H122">
         <v>1</v>
@@ -12047,7 +12047,7 @@
         <v>45038.41666666666</v>
       </c>
       <c r="F130" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G130" t="s">
         <v>29</v>
@@ -12480,7 +12480,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>5263150</v>
+        <v>5265480</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12492,76 +12492,76 @@
         <v>45040.58333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G135" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J135" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K135">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="L135">
+        <v>3.1</v>
+      </c>
+      <c r="M135">
+        <v>2.25</v>
+      </c>
+      <c r="N135">
         <v>3.2</v>
       </c>
-      <c r="M135">
-        <v>3.3</v>
-      </c>
-      <c r="N135">
-        <v>1.85</v>
-      </c>
       <c r="O135">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P135">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q135">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R135">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S135">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T135">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U135">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V135">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W135">
         <v>-1</v>
       </c>
       <c r="X135">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z135">
         <v>-1</v>
       </c>
       <c r="AA135">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC135">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12569,7 +12569,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>5265480</v>
+        <v>5263150</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12581,76 +12581,76 @@
         <v>45040.58333333334</v>
       </c>
       <c r="F136" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G136" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K136">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="L136">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M136">
+        <v>3.3</v>
+      </c>
+      <c r="N136">
+        <v>1.85</v>
+      </c>
+      <c r="O136">
+        <v>3.25</v>
+      </c>
+      <c r="P136">
+        <v>3.75</v>
+      </c>
+      <c r="Q136">
+        <v>-0.5</v>
+      </c>
+      <c r="R136">
+        <v>1.95</v>
+      </c>
+      <c r="S136">
+        <v>1.9</v>
+      </c>
+      <c r="T136">
+        <v>2.75</v>
+      </c>
+      <c r="U136">
+        <v>1.9</v>
+      </c>
+      <c r="V136">
+        <v>1.95</v>
+      </c>
+      <c r="W136">
+        <v>-1</v>
+      </c>
+      <c r="X136">
         <v>2.25</v>
       </c>
-      <c r="N136">
-        <v>3.2</v>
-      </c>
-      <c r="O136">
-        <v>3</v>
-      </c>
-      <c r="P136">
-        <v>2.15</v>
-      </c>
-      <c r="Q136">
-        <v>0.25</v>
-      </c>
-      <c r="R136">
-        <v>1.825</v>
-      </c>
-      <c r="S136">
-        <v>1.975</v>
-      </c>
-      <c r="T136">
-        <v>2.25</v>
-      </c>
-      <c r="U136">
-        <v>1.775</v>
-      </c>
-      <c r="V136">
-        <v>2.025</v>
-      </c>
-      <c r="W136">
-        <v>-1</v>
-      </c>
-      <c r="X136">
-        <v>-1</v>
-      </c>
       <c r="Y136">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
         <v>-1</v>
       </c>
       <c r="AA136">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB136">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC136">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12851,7 +12851,7 @@
         <v>41</v>
       </c>
       <c r="G139" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H139">
         <v>2</v>
@@ -13029,7 +13029,7 @@
         <v>29</v>
       </c>
       <c r="G141" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -13560,7 +13560,7 @@
         <v>45052.29166666666</v>
       </c>
       <c r="F147" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G147" t="s">
         <v>41</v>
@@ -14005,7 +14005,7 @@
         <v>45053.29166666666</v>
       </c>
       <c r="F152" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G152" t="s">
         <v>40</v>
@@ -14364,7 +14364,7 @@
         <v>46</v>
       </c>
       <c r="G156" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H156">
         <v>2</v>
@@ -14987,7 +14987,7 @@
         <v>45</v>
       </c>
       <c r="G163" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H163">
         <v>3</v>
@@ -15607,7 +15607,7 @@
         <v>45067.41666666666</v>
       </c>
       <c r="F170" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G170" t="s">
         <v>38</v>
@@ -15696,7 +15696,7 @@
         <v>45067.47916666666</v>
       </c>
       <c r="F171" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G171" t="s">
         <v>39</v>
@@ -15966,7 +15966,7 @@
         <v>42</v>
       </c>
       <c r="G174" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H174">
         <v>4</v>
@@ -16500,7 +16500,7 @@
         <v>40</v>
       </c>
       <c r="G180" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H180">
         <v>1</v>
@@ -17212,7 +17212,7 @@
         <v>36</v>
       </c>
       <c r="G188" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H188">
         <v>3</v>
@@ -17390,7 +17390,7 @@
         <v>49</v>
       </c>
       <c r="G190" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H190">
         <v>2</v>
@@ -17565,7 +17565,7 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F192" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G192" t="s">
         <v>47</v>
@@ -18099,7 +18099,7 @@
         <v>45159.61458333334</v>
       </c>
       <c r="F198" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G198" t="s">
         <v>43</v>
@@ -18458,7 +18458,7 @@
         <v>53</v>
       </c>
       <c r="G202" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H202">
         <v>1</v>
@@ -18532,7 +18532,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6899210</v>
+        <v>6893102</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18544,13 +18544,13 @@
         <v>45165.29166666666</v>
       </c>
       <c r="F203" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G203" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I203">
         <v>1</v>
@@ -18559,31 +18559,31 @@
         <v>55</v>
       </c>
       <c r="K203">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L203">
         <v>3.25</v>
       </c>
       <c r="M203">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N203">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="O203">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P203">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q203">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R203">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S203">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T203">
         <v>2.5</v>
@@ -18592,10 +18592,10 @@
         <v>2.025</v>
       </c>
       <c r="V203">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W203">
-        <v>1.45</v>
+        <v>1.25</v>
       </c>
       <c r="X203">
         <v>-1</v>
@@ -18604,7 +18604,7 @@
         <v>-1</v>
       </c>
       <c r="Z203">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AA203">
         <v>-1</v>
@@ -18621,7 +18621,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6893102</v>
+        <v>6899210</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18633,13 +18633,13 @@
         <v>45165.29166666666</v>
       </c>
       <c r="F204" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G204" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H204">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I204">
         <v>1</v>
@@ -18648,31 +18648,31 @@
         <v>55</v>
       </c>
       <c r="K204">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L204">
         <v>3.25</v>
       </c>
       <c r="M204">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N204">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="O204">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P204">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q204">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R204">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S204">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T204">
         <v>2.5</v>
@@ -18681,10 +18681,10 @@
         <v>2.025</v>
       </c>
       <c r="V204">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W204">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="X204">
         <v>-1</v>
@@ -18693,7 +18693,7 @@
         <v>-1</v>
       </c>
       <c r="Z204">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA204">
         <v>-1</v>
@@ -18903,7 +18903,7 @@
         <v>48</v>
       </c>
       <c r="G207" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H207">
         <v>0</v>
@@ -19167,7 +19167,7 @@
         <v>45171.29166666666</v>
       </c>
       <c r="F210" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G210" t="s">
         <v>44</v>
@@ -19333,7 +19333,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7140182</v>
+        <v>6893107</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19345,76 +19345,76 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F212" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G212" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J212" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K212">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="L212">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M212">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="N212">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="O212">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="P212">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q212">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R212">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S212">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T212">
         <v>2.25</v>
       </c>
       <c r="U212">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V212">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W212">
         <v>-1</v>
       </c>
       <c r="X212">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y212">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z212">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA212">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB212">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC212">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19422,7 +19422,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6893107</v>
+        <v>7140182</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19434,76 +19434,76 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F213" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G213" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I213">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J213" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K213">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="L213">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M213">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="N213">
+        <v>2.3</v>
+      </c>
+      <c r="O213">
         <v>2.9</v>
       </c>
-      <c r="O213">
-        <v>3.5</v>
-      </c>
       <c r="P213">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q213">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R213">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S213">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T213">
         <v>2.25</v>
       </c>
       <c r="U213">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V213">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W213">
         <v>-1</v>
       </c>
       <c r="X213">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y213">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z213">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA213">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB213">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC213">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19612,7 +19612,7 @@
         <v>45172.29166666666</v>
       </c>
       <c r="F215" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G215" t="s">
         <v>45</v>
@@ -20327,7 +20327,7 @@
         <v>37</v>
       </c>
       <c r="G223" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H223">
         <v>2</v>
@@ -20594,7 +20594,7 @@
         <v>36</v>
       </c>
       <c r="G226" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H226">
         <v>0</v>
@@ -20861,7 +20861,7 @@
         <v>50</v>
       </c>
       <c r="G229" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H229">
         <v>1</v>
@@ -21392,7 +21392,7 @@
         <v>45201.67708333334</v>
       </c>
       <c r="F235" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G235" t="s">
         <v>53</v>
@@ -21840,7 +21840,7 @@
         <v>44</v>
       </c>
       <c r="G240" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H240">
         <v>2</v>
@@ -21926,7 +21926,7 @@
         <v>45207.29166666666</v>
       </c>
       <c r="F241" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G241" t="s">
         <v>51</v>
@@ -22285,7 +22285,7 @@
         <v>39</v>
       </c>
       <c r="G245" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H245">
         <v>1</v>
@@ -22371,7 +22371,7 @@
         <v>45227.29166666666</v>
       </c>
       <c r="F246" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G246" t="s">
         <v>47</v>
@@ -23172,7 +23172,7 @@
         <v>45234.33333333334</v>
       </c>
       <c r="F255" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G255" t="s">
         <v>29</v>
@@ -23709,7 +23709,7 @@
         <v>37</v>
       </c>
       <c r="G261" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H261">
         <v>1</v>
@@ -24329,10 +24329,10 @@
         <v>45242.33333333334</v>
       </c>
       <c r="F268" t="s">
+        <v>33</v>
+      </c>
+      <c r="G268" t="s">
         <v>32</v>
-      </c>
-      <c r="G268" t="s">
-        <v>33</v>
       </c>
       <c r="H268">
         <v>0</v>
@@ -24685,7 +24685,7 @@
         <v>45248.33333333334</v>
       </c>
       <c r="F272" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G272" t="s">
         <v>52</v>
@@ -25222,7 +25222,7 @@
         <v>50</v>
       </c>
       <c r="G278" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H278">
         <v>1</v>
@@ -25931,7 +25931,7 @@
         <v>45263.33333333334</v>
       </c>
       <c r="F286" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G286" t="s">
         <v>29</v>
@@ -26201,7 +26201,7 @@
         <v>42</v>
       </c>
       <c r="G289" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H289">
         <v>3</v>
@@ -26290,7 +26290,7 @@
         <v>51</v>
       </c>
       <c r="G290" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H290">
         <v>1</v>
@@ -26821,7 +26821,7 @@
         <v>45270.33333333334</v>
       </c>
       <c r="F296" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G296" t="s">
         <v>30</v>
@@ -27091,7 +27091,7 @@
         <v>30</v>
       </c>
       <c r="G299" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H299">
         <v>0</v>
@@ -27803,7 +27803,7 @@
         <v>45</v>
       </c>
       <c r="G307" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H307">
         <v>1</v>
@@ -27889,7 +27889,7 @@
         <v>45281.625</v>
       </c>
       <c r="F308" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G308" t="s">
         <v>52</v>
@@ -28690,7 +28690,7 @@
         <v>45291.33333333334</v>
       </c>
       <c r="F317" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G317" t="s">
         <v>48</v>
@@ -29049,7 +29049,7 @@
         <v>49</v>
       </c>
       <c r="G321" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H321">
         <v>0</v>
@@ -29494,7 +29494,7 @@
         <v>42</v>
       </c>
       <c r="G326" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H326">
         <v>3</v>
@@ -29924,7 +29924,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>6893591</v>
+        <v>6899180</v>
       </c>
       <c r="C331" t="s">
         <v>28</v>
@@ -29936,76 +29936,76 @@
         <v>45305.52083333334</v>
       </c>
       <c r="F331" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G331" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I331">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J331" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K331">
-        <v>1.75</v>
+        <v>1.833</v>
       </c>
       <c r="L331">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M331">
         <v>4.333</v>
       </c>
       <c r="N331">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="O331">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P331">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q331">
         <v>-0.5</v>
       </c>
       <c r="R331">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S331">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T331">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U331">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V331">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="W331">
         <v>-1</v>
       </c>
       <c r="X331">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y331">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z331">
         <v>-1</v>
       </c>
       <c r="AA331">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB331">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AC331">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="332" spans="1:29">
@@ -30013,7 +30013,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>6899180</v>
+        <v>6893591</v>
       </c>
       <c r="C332" t="s">
         <v>28</v>
@@ -30025,76 +30025,76 @@
         <v>45305.52083333334</v>
       </c>
       <c r="F332" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G332" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H332">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I332">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J332" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K332">
-        <v>1.833</v>
+        <v>1.75</v>
       </c>
       <c r="L332">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M332">
         <v>4.333</v>
       </c>
       <c r="N332">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="O332">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P332">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q332">
         <v>-0.5</v>
       </c>
       <c r="R332">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S332">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T332">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U332">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V332">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="W332">
         <v>-1</v>
       </c>
       <c r="X332">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y332">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z332">
         <v>-1</v>
       </c>
       <c r="AA332">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB332">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AC332">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="333" spans="1:29">
@@ -30203,7 +30203,7 @@
         <v>45306.65625</v>
       </c>
       <c r="F334" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G334" t="s">
         <v>43</v>
@@ -30292,7 +30292,7 @@
         <v>45306.73958333334</v>
       </c>
       <c r="F335" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G335" t="s">
         <v>39</v>
@@ -30470,7 +30470,7 @@
         <v>45311.33333333334</v>
       </c>
       <c r="F337" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G337" t="s">
         <v>36</v>
@@ -30915,7 +30915,7 @@
         <v>45312.52083333334</v>
       </c>
       <c r="F342" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G342" t="s">
         <v>49</v>
@@ -31185,7 +31185,7 @@
         <v>47</v>
       </c>
       <c r="G345" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H345">
         <v>0</v>
@@ -31363,7 +31363,7 @@
         <v>43</v>
       </c>
       <c r="G347" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H347">
         <v>2</v>
@@ -31983,7 +31983,7 @@
         <v>45324.73958333334</v>
       </c>
       <c r="F354" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G354" t="s">
         <v>53</v>
@@ -32161,7 +32161,7 @@
         <v>45325.45833333334</v>
       </c>
       <c r="F356" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G356" t="s">
         <v>48</v>
@@ -32520,7 +32520,7 @@
         <v>45</v>
       </c>
       <c r="G360" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H360">
         <v>1</v>
@@ -33054,7 +33054,7 @@
         <v>44</v>
       </c>
       <c r="G366" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H366">
         <v>1</v>
@@ -33407,7 +33407,7 @@
         <v>45339.33333333334</v>
       </c>
       <c r="F370" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G370" t="s">
         <v>37</v>
@@ -33496,7 +33496,7 @@
         <v>45339.45833333334</v>
       </c>
       <c r="F371" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G371" t="s">
         <v>36</v>
@@ -34196,7 +34196,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>6899169</v>
+        <v>6893167</v>
       </c>
       <c r="C379" t="s">
         <v>28</v>
@@ -34205,49 +34205,49 @@
         <v>28</v>
       </c>
       <c r="E379" s="2">
-        <v>45346.33333333334</v>
+        <v>45346.52083333334</v>
       </c>
       <c r="F379" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G379" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="K379">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="L379">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M379">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="N379">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="O379">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P379">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q379">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R379">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S379">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T379">
         <v>2.25</v>
       </c>
       <c r="U379">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V379">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W379">
         <v>0</v>
@@ -34270,7 +34270,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>6893168</v>
+        <v>6893169</v>
       </c>
       <c r="C380" t="s">
         <v>28</v>
@@ -34279,49 +34279,49 @@
         <v>28</v>
       </c>
       <c r="E380" s="2">
-        <v>45346.41666666666</v>
+        <v>45346.52083333334</v>
       </c>
       <c r="F380" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G380" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="K380">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="L380">
+        <v>3.4</v>
+      </c>
+      <c r="M380">
         <v>4.5</v>
       </c>
-      <c r="M380">
-        <v>7</v>
-      </c>
       <c r="N380">
-        <v>1.363</v>
+        <v>1.666</v>
       </c>
       <c r="O380">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P380">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="Q380">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R380">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S380">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T380">
         <v>2.5</v>
       </c>
       <c r="U380">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V380">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W380">
         <v>0</v>
@@ -34344,7 +34344,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>6893167</v>
+        <v>6893603</v>
       </c>
       <c r="C381" t="s">
         <v>28</v>
@@ -34353,49 +34353,49 @@
         <v>28</v>
       </c>
       <c r="E381" s="2">
-        <v>45346.52083333334</v>
+        <v>45346.625</v>
       </c>
       <c r="F381" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G381" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="K381">
-        <v>1.833</v>
+        <v>1.666</v>
       </c>
       <c r="L381">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M381">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="N381">
-        <v>1.75</v>
+        <v>1.666</v>
       </c>
       <c r="O381">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P381">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q381">
         <v>-0.75</v>
       </c>
       <c r="R381">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S381">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T381">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U381">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V381">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W381">
         <v>0</v>
@@ -34418,7 +34418,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>6893169</v>
+        <v>6893603</v>
       </c>
       <c r="C382" t="s">
         <v>28</v>
@@ -34427,49 +34427,49 @@
         <v>28</v>
       </c>
       <c r="E382" s="2">
-        <v>45346.52083333334</v>
+        <v>45346.625</v>
       </c>
       <c r="F382" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G382" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="K382">
-        <v>1.75</v>
+        <v>1.666</v>
       </c>
       <c r="L382">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M382">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="N382">
-        <v>1.75</v>
+        <v>1.666</v>
       </c>
       <c r="O382">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P382">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q382">
         <v>-0.75</v>
       </c>
       <c r="R382">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S382">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T382">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U382">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V382">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W382">
         <v>0</v>
@@ -34492,7 +34492,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>6893603</v>
+        <v>6899168</v>
       </c>
       <c r="C383" t="s">
         <v>28</v>
@@ -34501,49 +34501,49 @@
         <v>28</v>
       </c>
       <c r="E383" s="2">
-        <v>45346.625</v>
+        <v>45347.33333333334</v>
       </c>
       <c r="F383" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G383" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K383">
-        <v>1.666</v>
+        <v>2.8</v>
       </c>
       <c r="L383">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M383">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="N383">
-        <v>1.666</v>
+        <v>2.75</v>
       </c>
       <c r="O383">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P383">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q383">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R383">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="S383">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T383">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U383">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V383">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W383">
         <v>0</v>
@@ -34566,7 +34566,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>6899168</v>
+        <v>6893604</v>
       </c>
       <c r="C384" t="s">
         <v>28</v>
@@ -34575,49 +34575,49 @@
         <v>28</v>
       </c>
       <c r="E384" s="2">
-        <v>45347.33333333334</v>
+        <v>45347.45833333334</v>
       </c>
       <c r="F384" t="s">
+        <v>53</v>
+      </c>
+      <c r="G384" t="s">
         <v>33</v>
       </c>
-      <c r="G384" t="s">
-        <v>50</v>
-      </c>
       <c r="K384">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="L384">
         <v>3.2</v>
       </c>
       <c r="M384">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="N384">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="O384">
         <v>3.2</v>
       </c>
       <c r="P384">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="Q384">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R384">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S384">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T384">
         <v>2.25</v>
       </c>
       <c r="U384">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V384">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W384">
         <v>0</v>
@@ -34640,7 +34640,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>6893604</v>
+        <v>6893166</v>
       </c>
       <c r="C385" t="s">
         <v>28</v>
@@ -34649,49 +34649,49 @@
         <v>28</v>
       </c>
       <c r="E385" s="2">
-        <v>45347.45833333334</v>
+        <v>45348.625</v>
       </c>
       <c r="F385" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G385" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="K385">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="L385">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M385">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="N385">
-        <v>2.9</v>
+        <v>1.727</v>
       </c>
       <c r="O385">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P385">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="Q385">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R385">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S385">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T385">
         <v>2.25</v>
       </c>
       <c r="U385">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V385">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W385">
         <v>0</v>
@@ -34714,7 +34714,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>6893166</v>
+        <v>6899275</v>
       </c>
       <c r="C386" t="s">
         <v>28</v>
@@ -34723,49 +34723,49 @@
         <v>28</v>
       </c>
       <c r="E386" s="2">
-        <v>45348.625</v>
+        <v>45349.71875</v>
       </c>
       <c r="F386" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G386" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="K386">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L386">
+        <v>3.25</v>
+      </c>
+      <c r="M386">
+        <v>3.6</v>
+      </c>
+      <c r="N386">
+        <v>1.95</v>
+      </c>
+      <c r="O386">
         <v>3.3</v>
       </c>
-      <c r="M386">
-        <v>4.5</v>
-      </c>
-      <c r="N386">
-        <v>1.727</v>
-      </c>
-      <c r="O386">
-        <v>3.4</v>
-      </c>
       <c r="P386">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="Q386">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R386">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S386">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T386">
         <v>2.25</v>
       </c>
       <c r="U386">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V386">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W386">
         <v>0</v>
@@ -34780,80 +34780,6 @@
         <v>0</v>
       </c>
       <c r="AA386">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="387" spans="1:27">
-      <c r="A387" s="1">
-        <v>385</v>
-      </c>
-      <c r="B387">
-        <v>6899275</v>
-      </c>
-      <c r="C387" t="s">
-        <v>28</v>
-      </c>
-      <c r="D387" t="s">
-        <v>28</v>
-      </c>
-      <c r="E387" s="2">
-        <v>45349.71875</v>
-      </c>
-      <c r="F387" t="s">
-        <v>48</v>
-      </c>
-      <c r="G387" t="s">
-        <v>30</v>
-      </c>
-      <c r="K387">
-        <v>2</v>
-      </c>
-      <c r="L387">
-        <v>3.25</v>
-      </c>
-      <c r="M387">
-        <v>3.6</v>
-      </c>
-      <c r="N387">
-        <v>1.95</v>
-      </c>
-      <c r="O387">
-        <v>3.3</v>
-      </c>
-      <c r="P387">
-        <v>3.6</v>
-      </c>
-      <c r="Q387">
-        <v>-0.5</v>
-      </c>
-      <c r="R387">
-        <v>2.025</v>
-      </c>
-      <c r="S387">
-        <v>1.825</v>
-      </c>
-      <c r="T387">
-        <v>2.25</v>
-      </c>
-      <c r="U387">
-        <v>1.875</v>
-      </c>
-      <c r="V387">
-        <v>1.975</v>
-      </c>
-      <c r="W387">
-        <v>0</v>
-      </c>
-      <c r="X387">
-        <v>0</v>
-      </c>
-      <c r="Y387">
-        <v>0</v>
-      </c>
-      <c r="Z387">
-        <v>0</v>
-      </c>
-      <c r="AA387">
         <v>0</v>
       </c>
     </row>

--- a/Portugal Segunda Liga/Portugal Segunda Liga.xlsx
+++ b/Portugal Segunda Liga/Portugal Segunda Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1945" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1954" uniqueCount="57">
   <si>
     <t>id</t>
   </si>
@@ -112,10 +112,10 @@
     <t>SC Farense</t>
   </si>
   <si>
-    <t>CD Mafra</t>
+    <t>SCU Torreense</t>
   </si>
   <si>
-    <t>SCU Torreense</t>
+    <t>CD Mafra</t>
   </si>
   <si>
     <t>Sporting Covilha</t>
@@ -546,7 +546,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC386"/>
+  <dimension ref="A1:AC387"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -910,7 +910,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5266496</v>
+        <v>5265388</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -925,73 +925,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K5">
-        <v>1.833</v>
+        <v>2.2</v>
       </c>
       <c r="L5">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M5">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="N5">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="O5">
         <v>3.5</v>
       </c>
       <c r="P5">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q5">
         <v>-0.5</v>
       </c>
       <c r="R5">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S5">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T5">
         <v>2.5</v>
       </c>
       <c r="U5">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V5">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y5">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
         <v>-1</v>
       </c>
       <c r="AA5">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -999,7 +999,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5265388</v>
+        <v>5266496</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1014,73 +1014,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K6">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="L6">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M6">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="N6">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="O6">
         <v>3.5</v>
       </c>
       <c r="P6">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q6">
         <v>-0.5</v>
       </c>
       <c r="R6">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S6">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T6">
         <v>2.5</v>
       </c>
       <c r="U6">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V6">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z6">
         <v>-1</v>
       </c>
       <c r="AA6">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB6">
         <v>-1</v>
       </c>
       <c r="AC6">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1459,7 +1459,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H11">
         <v>4</v>
@@ -1548,7 +1548,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1978,7 +1978,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5265513</v>
+        <v>5265391</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1990,76 +1990,76 @@
         <v>44941.52083333334</v>
       </c>
       <c r="F17" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K17">
-        <v>2.05</v>
+        <v>1.727</v>
       </c>
       <c r="L17">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M17">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N17">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="O17">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P17">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="Q17">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R17">
+        <v>1.875</v>
+      </c>
+      <c r="S17">
         <v>1.925</v>
       </c>
-      <c r="S17">
+      <c r="T17">
+        <v>2.75</v>
+      </c>
+      <c r="U17">
+        <v>1.925</v>
+      </c>
+      <c r="V17">
         <v>1.875</v>
       </c>
-      <c r="T17">
-        <v>2.25</v>
-      </c>
-      <c r="U17">
-        <v>1.85</v>
-      </c>
-      <c r="V17">
-        <v>1.95</v>
-      </c>
       <c r="W17">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X17">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA17">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC17">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2067,7 +2067,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5265391</v>
+        <v>5265513</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2079,76 +2079,76 @@
         <v>44941.52083333334</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K18">
-        <v>1.727</v>
+        <v>2.05</v>
       </c>
       <c r="L18">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M18">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N18">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="O18">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P18">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="Q18">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R18">
+        <v>1.925</v>
+      </c>
+      <c r="S18">
         <v>1.875</v>
       </c>
-      <c r="S18">
-        <v>1.925</v>
-      </c>
       <c r="T18">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U18">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V18">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W18">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X18">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB18">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC18">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2524,7 +2524,7 @@
         <v>44947.52083333334</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G23" t="s">
         <v>40</v>
@@ -2690,7 +2690,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5265394</v>
+        <v>5265399</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2702,76 +2702,76 @@
         <v>44948.45833333334</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G25" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K25">
-        <v>2.45</v>
+        <v>2.8</v>
       </c>
       <c r="L25">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M25">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="N25">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="O25">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P25">
+        <v>2.7</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>1.85</v>
+      </c>
+      <c r="S25">
+        <v>1.95</v>
+      </c>
+      <c r="T25">
         <v>2.25</v>
       </c>
-      <c r="Q25">
-        <v>0.25</v>
-      </c>
-      <c r="R25">
-        <v>1.825</v>
-      </c>
-      <c r="S25">
-        <v>1.975</v>
-      </c>
-      <c r="T25">
-        <v>2.75</v>
-      </c>
       <c r="U25">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V25">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W25">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X25">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA25">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB25">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC25">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2779,7 +2779,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5265399</v>
+        <v>5265394</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2791,76 +2791,76 @@
         <v>44948.45833333334</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K26">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="L26">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M26">
+        <v>2.625</v>
+      </c>
+      <c r="N26">
+        <v>2.9</v>
+      </c>
+      <c r="O26">
+        <v>3.5</v>
+      </c>
+      <c r="P26">
+        <v>2.25</v>
+      </c>
+      <c r="Q26">
+        <v>0.25</v>
+      </c>
+      <c r="R26">
+        <v>1.825</v>
+      </c>
+      <c r="S26">
+        <v>1.975</v>
+      </c>
+      <c r="T26">
+        <v>2.75</v>
+      </c>
+      <c r="U26">
+        <v>1.775</v>
+      </c>
+      <c r="V26">
+        <v>2.025</v>
+      </c>
+      <c r="W26">
+        <v>-1</v>
+      </c>
+      <c r="X26">
         <v>2.5</v>
       </c>
-      <c r="N26">
-        <v>2.6</v>
-      </c>
-      <c r="O26">
-        <v>3</v>
-      </c>
-      <c r="P26">
-        <v>2.7</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>1.85</v>
-      </c>
-      <c r="S26">
-        <v>1.95</v>
-      </c>
-      <c r="T26">
-        <v>2.25</v>
-      </c>
-      <c r="U26">
-        <v>1.925</v>
-      </c>
-      <c r="V26">
-        <v>1.875</v>
-      </c>
-      <c r="W26">
-        <v>1.6</v>
-      </c>
-      <c r="X26">
-        <v>-1</v>
-      </c>
       <c r="Y26">
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AA26">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC26">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2969,7 +2969,7 @@
         <v>44949.625</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G28" t="s">
         <v>42</v>
@@ -3058,7 +3058,7 @@
         <v>44955.33333333334</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G29" t="s">
         <v>31</v>
@@ -3414,7 +3414,7 @@
         <v>44955.52083333334</v>
       </c>
       <c r="F33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G33" t="s">
         <v>45</v>
@@ -4129,7 +4129,7 @@
         <v>43</v>
       </c>
       <c r="G41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H41">
         <v>3</v>
@@ -4307,7 +4307,7 @@
         <v>39</v>
       </c>
       <c r="G43" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4381,7 +4381,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>5263141</v>
+        <v>5265413</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4393,76 +4393,76 @@
         <v>44962.45833333334</v>
       </c>
       <c r="F44" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G44" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44">
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K44">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="L44">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M44">
         <v>2.5</v>
       </c>
       <c r="N44">
-        <v>2.55</v>
+        <v>2.375</v>
       </c>
       <c r="O44">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P44">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="Q44">
         <v>0</v>
       </c>
       <c r="R44">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S44">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T44">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U44">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V44">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W44">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA44">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC44">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4470,7 +4470,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>5265413</v>
+        <v>5263141</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4482,76 +4482,76 @@
         <v>44962.45833333334</v>
       </c>
       <c r="F45" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G45" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45">
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K45">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="L45">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M45">
         <v>2.5</v>
       </c>
       <c r="N45">
-        <v>2.375</v>
+        <v>2.55</v>
       </c>
       <c r="O45">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P45">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q45">
         <v>0</v>
       </c>
       <c r="R45">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S45">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T45">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U45">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V45">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W45">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z45">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB45">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4660,7 +4660,7 @@
         <v>44967.625</v>
       </c>
       <c r="F47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G47" t="s">
         <v>38</v>
@@ -4915,7 +4915,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5265420</v>
+        <v>5263142</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4927,43 +4927,43 @@
         <v>44968.52083333334</v>
       </c>
       <c r="F50" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G50" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
         <v>1</v>
       </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
       <c r="J50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K50">
-        <v>4</v>
+        <v>1.666</v>
       </c>
       <c r="L50">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M50">
-        <v>1.833</v>
+        <v>4.75</v>
       </c>
       <c r="N50">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="O50">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P50">
-        <v>2.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q50">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R50">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S50">
         <v>1.975</v>
@@ -4972,31 +4972,31 @@
         <v>2</v>
       </c>
       <c r="U50">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V50">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="W50">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z50">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB50">
         <v>-1</v>
       </c>
       <c r="AC50">
-        <v>0.9750000000000001</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5004,7 +5004,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5263142</v>
+        <v>5265420</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5016,43 +5016,43 @@
         <v>44968.52083333334</v>
       </c>
       <c r="F51" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G51" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
         <v>0</v>
       </c>
-      <c r="I51">
-        <v>1</v>
-      </c>
       <c r="J51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K51">
-        <v>1.666</v>
+        <v>4</v>
       </c>
       <c r="L51">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M51">
-        <v>4.75</v>
+        <v>1.833</v>
       </c>
       <c r="N51">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="O51">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P51">
-        <v>4.333</v>
+        <v>2.2</v>
       </c>
       <c r="Q51">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R51">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S51">
         <v>1.975</v>
@@ -5061,31 +5061,31 @@
         <v>2</v>
       </c>
       <c r="U51">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V51">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA51">
+        <v>-1</v>
+      </c>
+      <c r="AB51">
+        <v>-1</v>
+      </c>
+      <c r="AC51">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB51">
-        <v>-1</v>
-      </c>
-      <c r="AC51">
-        <v>1.1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5271,7 +5271,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>5266486</v>
+        <v>5265419</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5283,73 +5283,73 @@
         <v>44970.625</v>
       </c>
       <c r="F54" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G54" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J54" t="s">
         <v>56</v>
       </c>
       <c r="K54">
-        <v>2.6</v>
+        <v>1.85</v>
       </c>
       <c r="L54">
         <v>3.2</v>
       </c>
       <c r="M54">
+        <v>4</v>
+      </c>
+      <c r="N54">
+        <v>1.909</v>
+      </c>
+      <c r="O54">
+        <v>3.3</v>
+      </c>
+      <c r="P54">
+        <v>3.75</v>
+      </c>
+      <c r="Q54">
+        <v>-0.5</v>
+      </c>
+      <c r="R54">
+        <v>1.975</v>
+      </c>
+      <c r="S54">
+        <v>1.825</v>
+      </c>
+      <c r="T54">
         <v>2.5</v>
       </c>
-      <c r="N54">
-        <v>3.1</v>
-      </c>
-      <c r="O54">
-        <v>3</v>
-      </c>
-      <c r="P54">
-        <v>2.15</v>
-      </c>
-      <c r="Q54">
-        <v>0.25</v>
-      </c>
-      <c r="R54">
-        <v>1.825</v>
-      </c>
-      <c r="S54">
-        <v>1.975</v>
-      </c>
-      <c r="T54">
-        <v>2.25</v>
-      </c>
       <c r="U54">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V54">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="Y54">
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB54">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC54">
         <v>-1</v>
@@ -5360,7 +5360,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>5265419</v>
+        <v>5266486</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5372,73 +5372,73 @@
         <v>44970.625</v>
       </c>
       <c r="F55" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G55" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J55" t="s">
         <v>56</v>
       </c>
       <c r="K55">
-        <v>1.85</v>
+        <v>2.6</v>
       </c>
       <c r="L55">
         <v>3.2</v>
       </c>
       <c r="M55">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N55">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="O55">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P55">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q55">
+        <v>0.25</v>
+      </c>
+      <c r="R55">
+        <v>1.825</v>
+      </c>
+      <c r="S55">
+        <v>1.975</v>
+      </c>
+      <c r="T55">
+        <v>2.25</v>
+      </c>
+      <c r="U55">
+        <v>1.925</v>
+      </c>
+      <c r="V55">
+        <v>1.875</v>
+      </c>
+      <c r="W55">
+        <v>-1</v>
+      </c>
+      <c r="X55">
+        <v>2</v>
+      </c>
+      <c r="Y55">
+        <v>-1</v>
+      </c>
+      <c r="Z55">
+        <v>0.4125</v>
+      </c>
+      <c r="AA55">
         <v>-0.5</v>
       </c>
-      <c r="R55">
-        <v>1.975</v>
-      </c>
-      <c r="S55">
-        <v>1.825</v>
-      </c>
-      <c r="T55">
-        <v>2.5</v>
-      </c>
-      <c r="U55">
-        <v>1.9</v>
-      </c>
-      <c r="V55">
-        <v>1.9</v>
-      </c>
-      <c r="W55">
-        <v>-1</v>
-      </c>
-      <c r="X55">
-        <v>2.3</v>
-      </c>
-      <c r="Y55">
-        <v>-1</v>
-      </c>
-      <c r="Z55">
-        <v>-1</v>
-      </c>
-      <c r="AA55">
-        <v>0.825</v>
-      </c>
       <c r="AB55">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC55">
         <v>-1</v>
@@ -5716,7 +5716,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>5265426</v>
+        <v>5265423</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5728,10 +5728,10 @@
         <v>44975.52083333334</v>
       </c>
       <c r="F59" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G59" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -5743,40 +5743,40 @@
         <v>54</v>
       </c>
       <c r="K59">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="L59">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M59">
         <v>3</v>
       </c>
       <c r="N59">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="O59">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="P59">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="Q59">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R59">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S59">
+        <v>1.925</v>
+      </c>
+      <c r="T59">
+        <v>2.25</v>
+      </c>
+      <c r="U59">
         <v>1.8</v>
       </c>
-      <c r="T59">
-        <v>2</v>
-      </c>
-      <c r="U59">
-        <v>1.975</v>
-      </c>
       <c r="V59">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W59">
         <v>-1</v>
@@ -5785,16 +5785,16 @@
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="Z59">
         <v>-1</v>
       </c>
       <c r="AA59">
+        <v>0.925</v>
+      </c>
+      <c r="AB59">
         <v>0.8</v>
-      </c>
-      <c r="AB59">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC59">
         <v>-1</v>
@@ -5805,7 +5805,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>5265423</v>
+        <v>5265426</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5817,10 +5817,10 @@
         <v>44975.52083333334</v>
       </c>
       <c r="F60" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G60" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -5832,40 +5832,40 @@
         <v>54</v>
       </c>
       <c r="K60">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="L60">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M60">
         <v>3</v>
       </c>
       <c r="N60">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="O60">
+        <v>2.875</v>
+      </c>
+      <c r="P60">
         <v>3.2</v>
       </c>
-      <c r="P60">
-        <v>2.55</v>
-      </c>
       <c r="Q60">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R60">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S60">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T60">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U60">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V60">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W60">
         <v>-1</v>
@@ -5874,16 +5874,16 @@
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>1.55</v>
+        <v>2.2</v>
       </c>
       <c r="Z60">
         <v>-1</v>
       </c>
       <c r="AA60">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB60">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC60">
         <v>-1</v>
@@ -6072,7 +6072,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>5265427</v>
+        <v>5265428</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6084,7 +6084,7 @@
         <v>44976.52083333334</v>
       </c>
       <c r="F63" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G63" t="s">
         <v>33</v>
@@ -6093,67 +6093,67 @@
         <v>1</v>
       </c>
       <c r="I63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K63">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="L63">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M63">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N63">
-        <v>2.5</v>
+        <v>1.833</v>
       </c>
       <c r="O63">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P63">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="Q63">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R63">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S63">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T63">
         <v>2.5</v>
       </c>
       <c r="U63">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V63">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W63">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA63">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC63">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6161,7 +6161,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>5265428</v>
+        <v>5265427</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6173,7 +6173,7 @@
         <v>44976.52083333334</v>
       </c>
       <c r="F64" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G64" t="s">
         <v>32</v>
@@ -6182,67 +6182,67 @@
         <v>1</v>
       </c>
       <c r="I64">
+        <v>2</v>
+      </c>
+      <c r="J64" t="s">
+        <v>54</v>
+      </c>
+      <c r="K64">
+        <v>2.15</v>
+      </c>
+      <c r="L64">
+        <v>3.2</v>
+      </c>
+      <c r="M64">
+        <v>3.2</v>
+      </c>
+      <c r="N64">
+        <v>2.5</v>
+      </c>
+      <c r="O64">
+        <v>3.3</v>
+      </c>
+      <c r="P64">
+        <v>2.4</v>
+      </c>
+      <c r="Q64">
         <v>0</v>
       </c>
-      <c r="J64" t="s">
-        <v>55</v>
-      </c>
-      <c r="K64">
-        <v>1.909</v>
-      </c>
-      <c r="L64">
-        <v>3.25</v>
-      </c>
-      <c r="M64">
-        <v>3.75</v>
-      </c>
-      <c r="N64">
-        <v>1.833</v>
-      </c>
-      <c r="O64">
-        <v>3.4</v>
-      </c>
-      <c r="P64">
-        <v>4</v>
-      </c>
-      <c r="Q64">
-        <v>-0.5</v>
-      </c>
       <c r="R64">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S64">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T64">
         <v>2.5</v>
       </c>
       <c r="U64">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V64">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W64">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z64">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB64">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC64">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6351,7 +6351,7 @@
         <v>44982.33333333334</v>
       </c>
       <c r="F66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G66" t="s">
         <v>30</v>
@@ -6606,7 +6606,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>5265429</v>
+        <v>5265516</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6618,37 +6618,37 @@
         <v>44983.33333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G69" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H69">
         <v>1</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J69" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K69">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="L69">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M69">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="N69">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O69">
         <v>3</v>
       </c>
       <c r="P69">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q69">
         <v>-0.25</v>
@@ -6657,37 +6657,37 @@
         <v>2</v>
       </c>
       <c r="S69">
+        <v>1.8</v>
+      </c>
+      <c r="T69">
+        <v>2.25</v>
+      </c>
+      <c r="U69">
+        <v>1.95</v>
+      </c>
+      <c r="V69">
         <v>1.85</v>
       </c>
-      <c r="T69">
-        <v>2.5</v>
-      </c>
-      <c r="U69">
-        <v>2.125</v>
-      </c>
-      <c r="V69">
-        <v>1.75</v>
-      </c>
       <c r="W69">
         <v>-1</v>
       </c>
       <c r="X69">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y69">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z69">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC69">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6695,7 +6695,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>5265516</v>
+        <v>5265429</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6707,37 +6707,37 @@
         <v>44983.33333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G70" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H70">
         <v>1</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K70">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="L70">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M70">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="N70">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O70">
         <v>3</v>
       </c>
       <c r="P70">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Q70">
         <v>-0.25</v>
@@ -6746,37 +6746,37 @@
         <v>2</v>
       </c>
       <c r="S70">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T70">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U70">
-        <v>1.95</v>
+        <v>2.125</v>
       </c>
       <c r="V70">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="W70">
         <v>-1</v>
       </c>
       <c r="X70">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y70">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA70">
-        <v>0.8</v>
+        <v>0.425</v>
       </c>
       <c r="AB70">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -7333,7 +7333,7 @@
         <v>37</v>
       </c>
       <c r="G77" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7496,7 +7496,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>5265437</v>
+        <v>5265436</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7508,46 +7508,46 @@
         <v>44990.45833333334</v>
       </c>
       <c r="F79" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G79" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K79">
+        <v>2.05</v>
+      </c>
+      <c r="L79">
+        <v>3.2</v>
+      </c>
+      <c r="M79">
+        <v>3.4</v>
+      </c>
+      <c r="N79">
+        <v>2.2</v>
+      </c>
+      <c r="O79">
+        <v>3.2</v>
+      </c>
+      <c r="P79">
+        <v>3</v>
+      </c>
+      <c r="Q79">
+        <v>-0.25</v>
+      </c>
+      <c r="R79">
+        <v>1.95</v>
+      </c>
+      <c r="S79">
         <v>1.85</v>
-      </c>
-      <c r="L79">
-        <v>3.4</v>
-      </c>
-      <c r="M79">
-        <v>3.8</v>
-      </c>
-      <c r="N79">
-        <v>1.95</v>
-      </c>
-      <c r="O79">
-        <v>3.4</v>
-      </c>
-      <c r="P79">
-        <v>3.4</v>
-      </c>
-      <c r="Q79">
-        <v>-0.5</v>
-      </c>
-      <c r="R79">
-        <v>2</v>
-      </c>
-      <c r="S79">
-        <v>1.8</v>
       </c>
       <c r="T79">
         <v>2.5</v>
@@ -7559,19 +7559,19 @@
         <v>1.825</v>
       </c>
       <c r="W79">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X79">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y79">
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA79">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB79">
         <v>-1</v>
@@ -7585,7 +7585,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>5265436</v>
+        <v>5265437</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7597,46 +7597,46 @@
         <v>44990.45833333334</v>
       </c>
       <c r="F80" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G80" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K80">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="L80">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M80">
+        <v>3.8</v>
+      </c>
+      <c r="N80">
+        <v>1.95</v>
+      </c>
+      <c r="O80">
         <v>3.4</v>
       </c>
-      <c r="N80">
-        <v>2.2</v>
-      </c>
-      <c r="O80">
-        <v>3.2</v>
-      </c>
       <c r="P80">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q80">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R80">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S80">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T80">
         <v>2.5</v>
@@ -7648,19 +7648,19 @@
         <v>1.825</v>
       </c>
       <c r="W80">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X80">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y80">
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA80">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB80">
         <v>-1</v>
@@ -7689,7 +7689,7 @@
         <v>44</v>
       </c>
       <c r="G81" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -8030,7 +8030,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>5263145</v>
+        <v>5265444</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8042,19 +8042,19 @@
         <v>44996.45833333334</v>
       </c>
       <c r="F85" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G85" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K85">
         <v>2.375</v>
@@ -8066,49 +8066,49 @@
         <v>2.75</v>
       </c>
       <c r="N85">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="O85">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P85">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="Q85">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R85">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S85">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T85">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U85">
+        <v>1.85</v>
+      </c>
+      <c r="V85">
         <v>1.95</v>
       </c>
-      <c r="V85">
-        <v>1.85</v>
-      </c>
       <c r="W85">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X85">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA85">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC85">
         <v>-1</v>
@@ -8119,7 +8119,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>5265444</v>
+        <v>5263145</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8131,19 +8131,19 @@
         <v>44996.45833333334</v>
       </c>
       <c r="F86" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G86" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H86">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J86" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K86">
         <v>2.375</v>
@@ -8155,49 +8155,49 @@
         <v>2.75</v>
       </c>
       <c r="N86">
+        <v>2</v>
+      </c>
+      <c r="O86">
+        <v>3.3</v>
+      </c>
+      <c r="P86">
+        <v>3.4</v>
+      </c>
+      <c r="Q86">
+        <v>-0.5</v>
+      </c>
+      <c r="R86">
+        <v>2</v>
+      </c>
+      <c r="S86">
+        <v>1.8</v>
+      </c>
+      <c r="T86">
         <v>2.5</v>
       </c>
-      <c r="O86">
-        <v>3.25</v>
-      </c>
-      <c r="P86">
-        <v>2.55</v>
-      </c>
-      <c r="Q86">
-        <v>0</v>
-      </c>
-      <c r="R86">
-        <v>1.9</v>
-      </c>
-      <c r="S86">
-        <v>1.9</v>
-      </c>
-      <c r="T86">
-        <v>2.25</v>
-      </c>
       <c r="U86">
+        <v>1.95</v>
+      </c>
+      <c r="V86">
         <v>1.85</v>
       </c>
-      <c r="V86">
-        <v>1.95</v>
-      </c>
       <c r="W86">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X86">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB86">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC86">
         <v>-1</v>
@@ -8398,7 +8398,7 @@
         <v>44997.45833333334</v>
       </c>
       <c r="F89" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G89" t="s">
         <v>30</v>
@@ -8668,7 +8668,7 @@
         <v>35</v>
       </c>
       <c r="G92" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8920,7 +8920,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>5935501</v>
+        <v>5265450</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8932,76 +8932,76 @@
         <v>45004.33333333334</v>
       </c>
       <c r="F95" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G95" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K95">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L95">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M95">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="N95">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O95">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P95">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="Q95">
         <v>-0.25</v>
       </c>
       <c r="R95">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S95">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T95">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U95">
         <v>1.95</v>
       </c>
       <c r="V95">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W95">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z95">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC95">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9009,7 +9009,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>5265450</v>
+        <v>5935501</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9021,76 +9021,76 @@
         <v>45004.33333333334</v>
       </c>
       <c r="F96" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G96" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K96">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L96">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M96">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="N96">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O96">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P96">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="Q96">
         <v>-0.25</v>
       </c>
       <c r="R96">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S96">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T96">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U96">
         <v>1.95</v>
       </c>
       <c r="V96">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W96">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA96">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC96">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9555,7 +9555,7 @@
         <v>45017.36458333334</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G102" t="s">
         <v>36</v>
@@ -9810,7 +9810,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6450996</v>
+        <v>6450995</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9822,13 +9822,13 @@
         <v>45018.29166666666</v>
       </c>
       <c r="F105" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G105" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I105">
         <v>3</v>
@@ -9846,32 +9846,32 @@
         <v>2.5</v>
       </c>
       <c r="N105">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="O105">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P105">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="Q105">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R105">
+        <v>2.025</v>
+      </c>
+      <c r="S105">
+        <v>1.775</v>
+      </c>
+      <c r="T105">
+        <v>2.5</v>
+      </c>
+      <c r="U105">
         <v>1.95</v>
       </c>
-      <c r="S105">
+      <c r="V105">
         <v>1.85</v>
       </c>
-      <c r="T105">
-        <v>2.25</v>
-      </c>
-      <c r="U105">
-        <v>1.975</v>
-      </c>
-      <c r="V105">
-        <v>1.825</v>
-      </c>
       <c r="W105">
         <v>-1</v>
       </c>
@@ -9879,16 +9879,16 @@
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>1.45</v>
+        <v>0.95</v>
       </c>
       <c r="Z105">
         <v>-1</v>
       </c>
       <c r="AA105">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB105">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC105">
         <v>-1</v>
@@ -9899,7 +9899,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6450995</v>
+        <v>6450996</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9911,13 +9911,13 @@
         <v>45018.29166666666</v>
       </c>
       <c r="F106" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G106" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106">
         <v>3</v>
@@ -9935,31 +9935,31 @@
         <v>2.5</v>
       </c>
       <c r="N106">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="O106">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P106">
+        <v>2.45</v>
+      </c>
+      <c r="Q106">
+        <v>0</v>
+      </c>
+      <c r="R106">
         <v>1.95</v>
       </c>
-      <c r="Q106">
-        <v>0.25</v>
-      </c>
-      <c r="R106">
-        <v>2.025</v>
-      </c>
       <c r="S106">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T106">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U106">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V106">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W106">
         <v>-1</v>
@@ -9968,16 +9968,16 @@
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>0.95</v>
+        <v>1.45</v>
       </c>
       <c r="Z106">
         <v>-1</v>
       </c>
       <c r="AA106">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB106">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC106">
         <v>-1</v>
@@ -10448,7 +10448,7 @@
         <v>35</v>
       </c>
       <c r="G112" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H112">
         <v>2</v>
@@ -10789,7 +10789,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>5265464</v>
+        <v>5263148</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10801,28 +10801,28 @@
         <v>45024.47916666666</v>
       </c>
       <c r="F116" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G116" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H116">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J116" t="s">
         <v>55</v>
       </c>
       <c r="K116">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="L116">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M116">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N116">
         <v>1.666</v>
@@ -10831,25 +10831,25 @@
         <v>3.6</v>
       </c>
       <c r="P116">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="Q116">
         <v>-0.75</v>
       </c>
       <c r="R116">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S116">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T116">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U116">
+        <v>1.85</v>
+      </c>
+      <c r="V116">
         <v>1.95</v>
-      </c>
-      <c r="V116">
-        <v>1.85</v>
       </c>
       <c r="W116">
         <v>0.6659999999999999</v>
@@ -10861,13 +10861,13 @@
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA116">
         <v>-1</v>
       </c>
       <c r="AB116">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC116">
         <v>-1</v>
@@ -10878,7 +10878,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>5263148</v>
+        <v>5265464</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10890,28 +10890,28 @@
         <v>45024.47916666666</v>
       </c>
       <c r="F117" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G117" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H117">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J117" t="s">
         <v>55</v>
       </c>
       <c r="K117">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="L117">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M117">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N117">
         <v>1.666</v>
@@ -10920,25 +10920,25 @@
         <v>3.6</v>
       </c>
       <c r="P117">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q117">
         <v>-0.75</v>
       </c>
       <c r="R117">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S117">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T117">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U117">
+        <v>1.95</v>
+      </c>
+      <c r="V117">
         <v>1.85</v>
-      </c>
-      <c r="V117">
-        <v>1.95</v>
       </c>
       <c r="W117">
         <v>0.6659999999999999</v>
@@ -10950,13 +10950,13 @@
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA117">
         <v>-1</v>
       </c>
       <c r="AB117">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC117">
         <v>-1</v>
@@ -11323,7 +11323,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>5265474</v>
+        <v>5265471</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11335,58 +11335,58 @@
         <v>45031.47916666666</v>
       </c>
       <c r="F122" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G122" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I122">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J122" t="s">
         <v>55</v>
       </c>
       <c r="K122">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="L122">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M122">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="N122">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="O122">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P122">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q122">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R122">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S122">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T122">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U122">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V122">
         <v>1.875</v>
       </c>
       <c r="W122">
-        <v>1.1</v>
+        <v>0.95</v>
       </c>
       <c r="X122">
         <v>-1</v>
@@ -11395,16 +11395,16 @@
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA122">
         <v>-1</v>
       </c>
       <c r="AB122">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC122">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11412,7 +11412,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>5265471</v>
+        <v>5265474</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11424,58 +11424,58 @@
         <v>45031.47916666666</v>
       </c>
       <c r="F123" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G123" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H123">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I123">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J123" t="s">
         <v>55</v>
       </c>
       <c r="K123">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="L123">
+        <v>3.2</v>
+      </c>
+      <c r="M123">
+        <v>3.3</v>
+      </c>
+      <c r="N123">
+        <v>2.1</v>
+      </c>
+      <c r="O123">
+        <v>3.2</v>
+      </c>
+      <c r="P123">
         <v>3.4</v>
       </c>
-      <c r="M123">
-        <v>4</v>
-      </c>
-      <c r="N123">
+      <c r="Q123">
+        <v>-0.25</v>
+      </c>
+      <c r="R123">
+        <v>1.9</v>
+      </c>
+      <c r="S123">
         <v>1.95</v>
       </c>
-      <c r="O123">
-        <v>3.5</v>
-      </c>
-      <c r="P123">
-        <v>3.5</v>
-      </c>
-      <c r="Q123">
-        <v>-0.5</v>
-      </c>
-      <c r="R123">
+      <c r="T123">
+        <v>2.25</v>
+      </c>
+      <c r="U123">
         <v>1.975</v>
-      </c>
-      <c r="S123">
-        <v>1.825</v>
-      </c>
-      <c r="T123">
-        <v>2.5</v>
-      </c>
-      <c r="U123">
-        <v>1.925</v>
       </c>
       <c r="V123">
         <v>1.875</v>
       </c>
       <c r="W123">
-        <v>0.95</v>
+        <v>1.1</v>
       </c>
       <c r="X123">
         <v>-1</v>
@@ -11484,16 +11484,16 @@
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA123">
         <v>-1</v>
       </c>
       <c r="AB123">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC123">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -12047,7 +12047,7 @@
         <v>45038.41666666666</v>
       </c>
       <c r="F130" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G130" t="s">
         <v>29</v>
@@ -12495,7 +12495,7 @@
         <v>34</v>
       </c>
       <c r="G135" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -12747,7 +12747,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>5265483</v>
+        <v>5265486</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12759,76 +12759,76 @@
         <v>45045.29166666666</v>
       </c>
       <c r="F138" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G138" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I138">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K138">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="L138">
+        <v>3.1</v>
+      </c>
+      <c r="M138">
         <v>3.2</v>
       </c>
-      <c r="M138">
-        <v>2.375</v>
-      </c>
       <c r="N138">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="O138">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P138">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q138">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R138">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S138">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T138">
         <v>2.25</v>
       </c>
       <c r="U138">
+        <v>2.025</v>
+      </c>
+      <c r="V138">
         <v>1.775</v>
       </c>
-      <c r="V138">
-        <v>2.025</v>
-      </c>
       <c r="W138">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X138">
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA138">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB138">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC138">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12836,7 +12836,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>5265486</v>
+        <v>5265483</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12848,76 +12848,76 @@
         <v>45045.29166666666</v>
       </c>
       <c r="F139" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G139" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I139">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J139" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K139">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L139">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M139">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="N139">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="O139">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P139">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q139">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R139">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S139">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T139">
         <v>2.25</v>
       </c>
       <c r="U139">
+        <v>1.775</v>
+      </c>
+      <c r="V139">
         <v>2.025</v>
       </c>
-      <c r="V139">
-        <v>1.775</v>
-      </c>
       <c r="W139">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z139">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB139">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC139">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -13014,7 +13014,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>5265487</v>
+        <v>5266467</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13026,55 +13026,55 @@
         <v>45046.29166666666</v>
       </c>
       <c r="F141" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G141" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H141">
         <v>0</v>
       </c>
       <c r="I141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J141" t="s">
         <v>54</v>
       </c>
       <c r="K141">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="L141">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M141">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="N141">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="O141">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P141">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="Q141">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R141">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S141">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T141">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U141">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V141">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W141">
         <v>-1</v>
@@ -13083,19 +13083,19 @@
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="Z141">
         <v>-1</v>
       </c>
       <c r="AA141">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB141">
         <v>-1</v>
       </c>
       <c r="AC141">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13103,7 +13103,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>5266467</v>
+        <v>5265487</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13115,55 +13115,55 @@
         <v>45046.29166666666</v>
       </c>
       <c r="F142" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G142" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H142">
         <v>0</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J142" t="s">
         <v>54</v>
       </c>
       <c r="K142">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="L142">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M142">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="N142">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="O142">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P142">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Q142">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R142">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S142">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T142">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U142">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V142">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W142">
         <v>-1</v>
@@ -13172,19 +13172,19 @@
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="Z142">
         <v>-1</v>
       </c>
       <c r="AA142">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB142">
         <v>-1</v>
       </c>
       <c r="AC142">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13560,7 +13560,7 @@
         <v>45052.29166666666</v>
       </c>
       <c r="F147" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G147" t="s">
         <v>41</v>
@@ -13904,7 +13904,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>5422910</v>
+        <v>5422914</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13916,76 +13916,76 @@
         <v>45053.29166666666</v>
       </c>
       <c r="F151" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G151" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J151" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K151">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L151">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M151">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="N151">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="O151">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P151">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q151">
+        <v>-0.25</v>
+      </c>
+      <c r="R151">
+        <v>1.9</v>
+      </c>
+      <c r="S151">
+        <v>1.9</v>
+      </c>
+      <c r="T151">
+        <v>2.25</v>
+      </c>
+      <c r="U151">
+        <v>1.9</v>
+      </c>
+      <c r="V151">
+        <v>1.9</v>
+      </c>
+      <c r="W151">
+        <v>-1</v>
+      </c>
+      <c r="X151">
+        <v>2.1</v>
+      </c>
+      <c r="Y151">
+        <v>-1</v>
+      </c>
+      <c r="Z151">
         <v>-0.5</v>
       </c>
-      <c r="R151">
-        <v>1.925</v>
-      </c>
-      <c r="S151">
-        <v>1.875</v>
-      </c>
-      <c r="T151">
-        <v>2.75</v>
-      </c>
-      <c r="U151">
-        <v>1.8</v>
-      </c>
-      <c r="V151">
-        <v>2</v>
-      </c>
-      <c r="W151">
-        <v>-1</v>
-      </c>
-      <c r="X151">
-        <v>-1</v>
-      </c>
-      <c r="Y151">
-        <v>2.5</v>
-      </c>
-      <c r="Z151">
-        <v>-1</v>
-      </c>
       <c r="AA151">
-        <v>0.875</v>
+        <v>0.45</v>
       </c>
       <c r="AB151">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC151">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13993,7 +13993,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>5422914</v>
+        <v>5422910</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -14005,76 +14005,76 @@
         <v>45053.29166666666</v>
       </c>
       <c r="F152" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G152" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I152">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K152">
+        <v>2</v>
+      </c>
+      <c r="L152">
+        <v>3.5</v>
+      </c>
+      <c r="M152">
+        <v>3.25</v>
+      </c>
+      <c r="N152">
+        <v>1.909</v>
+      </c>
+      <c r="O152">
+        <v>3.6</v>
+      </c>
+      <c r="P152">
+        <v>3.5</v>
+      </c>
+      <c r="Q152">
+        <v>-0.5</v>
+      </c>
+      <c r="R152">
+        <v>1.925</v>
+      </c>
+      <c r="S152">
+        <v>1.875</v>
+      </c>
+      <c r="T152">
+        <v>2.75</v>
+      </c>
+      <c r="U152">
         <v>1.8</v>
       </c>
-      <c r="L152">
-        <v>3.4</v>
-      </c>
-      <c r="M152">
-        <v>4</v>
-      </c>
-      <c r="N152">
-        <v>2.1</v>
-      </c>
-      <c r="O152">
-        <v>3.1</v>
-      </c>
-      <c r="P152">
-        <v>3.1</v>
-      </c>
-      <c r="Q152">
-        <v>-0.25</v>
-      </c>
-      <c r="R152">
-        <v>1.9</v>
-      </c>
-      <c r="S152">
-        <v>1.9</v>
-      </c>
-      <c r="T152">
-        <v>2.25</v>
-      </c>
-      <c r="U152">
-        <v>1.9</v>
-      </c>
       <c r="V152">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W152">
         <v>-1</v>
       </c>
       <c r="X152">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y152">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z152">
+        <v>-1</v>
+      </c>
+      <c r="AA152">
+        <v>0.875</v>
+      </c>
+      <c r="AB152">
+        <v>0.4</v>
+      </c>
+      <c r="AC152">
         <v>-0.5</v>
-      </c>
-      <c r="AA152">
-        <v>0.45</v>
-      </c>
-      <c r="AB152">
-        <v>-1</v>
-      </c>
-      <c r="AC152">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14364,7 +14364,7 @@
         <v>46</v>
       </c>
       <c r="G156" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H156">
         <v>2</v>
@@ -14705,7 +14705,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>5470312</v>
+        <v>5470311</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14717,58 +14717,58 @@
         <v>45060.47916666666</v>
       </c>
       <c r="F160" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G160" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H160">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J160" t="s">
         <v>55</v>
       </c>
       <c r="K160">
-        <v>1.533</v>
+        <v>2.15</v>
       </c>
       <c r="L160">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M160">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="N160">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="O160">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P160">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="Q160">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R160">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S160">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T160">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U160">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V160">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W160">
-        <v>0.7</v>
+        <v>0.95</v>
       </c>
       <c r="X160">
         <v>-1</v>
@@ -14777,13 +14777,13 @@
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA160">
         <v>-1</v>
       </c>
       <c r="AB160">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC160">
         <v>-1</v>
@@ -14794,7 +14794,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>5470311</v>
+        <v>5470312</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14806,58 +14806,58 @@
         <v>45060.47916666666</v>
       </c>
       <c r="F161" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G161" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H161">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J161" t="s">
         <v>55</v>
       </c>
       <c r="K161">
-        <v>2.15</v>
+        <v>1.533</v>
       </c>
       <c r="L161">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M161">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="N161">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="O161">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P161">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q161">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R161">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S161">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T161">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U161">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V161">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W161">
-        <v>0.95</v>
+        <v>0.7</v>
       </c>
       <c r="X161">
         <v>-1</v>
@@ -14866,13 +14866,13 @@
         <v>-1</v>
       </c>
       <c r="Z161">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA161">
         <v>-1</v>
       </c>
       <c r="AB161">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC161">
         <v>-1</v>
@@ -14987,7 +14987,7 @@
         <v>45</v>
       </c>
       <c r="G163" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H163">
         <v>3</v>
@@ -15061,7 +15061,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>5499375</v>
+        <v>5484709</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15073,76 +15073,76 @@
         <v>45065.58333333334</v>
       </c>
       <c r="F164" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G164" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J164" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K164">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="L164">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M164">
+        <v>1.833</v>
+      </c>
+      <c r="N164">
+        <v>4.2</v>
+      </c>
+      <c r="O164">
+        <v>3.6</v>
+      </c>
+      <c r="P164">
+        <v>1.727</v>
+      </c>
+      <c r="Q164">
+        <v>0.5</v>
+      </c>
+      <c r="R164">
+        <v>2.1</v>
+      </c>
+      <c r="S164">
+        <v>1.775</v>
+      </c>
+      <c r="T164">
         <v>2.75</v>
       </c>
-      <c r="N164">
-        <v>2.3</v>
-      </c>
-      <c r="O164">
-        <v>3</v>
-      </c>
-      <c r="P164">
-        <v>2.875</v>
-      </c>
-      <c r="Q164">
-        <v>-0.25</v>
-      </c>
-      <c r="R164">
-        <v>2.05</v>
-      </c>
-      <c r="S164">
-        <v>1.75</v>
-      </c>
-      <c r="T164">
-        <v>2.25</v>
-      </c>
       <c r="U164">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V164">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W164">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X164">
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z164">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA164">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB164">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC164">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15150,7 +15150,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>5484709</v>
+        <v>5499375</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15162,76 +15162,76 @@
         <v>45065.58333333334</v>
       </c>
       <c r="F165" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G165" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H165">
+        <v>2</v>
+      </c>
+      <c r="I165">
         <v>0</v>
       </c>
-      <c r="I165">
-        <v>1</v>
-      </c>
       <c r="J165" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K165">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="L165">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M165">
-        <v>1.833</v>
+        <v>2.75</v>
       </c>
       <c r="N165">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="O165">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P165">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="Q165">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R165">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S165">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="T165">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U165">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V165">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W165">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X165">
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z165">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA165">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB165">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC165">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15607,7 +15607,7 @@
         <v>45067.41666666666</v>
       </c>
       <c r="F170" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G170" t="s">
         <v>38</v>
@@ -15696,7 +15696,7 @@
         <v>45067.47916666666</v>
       </c>
       <c r="F171" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G171" t="s">
         <v>39</v>
@@ -15966,7 +15966,7 @@
         <v>42</v>
       </c>
       <c r="G174" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H174">
         <v>4</v>
@@ -16307,7 +16307,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>5537439</v>
+        <v>5534133</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16319,76 +16319,76 @@
         <v>45074.47916666666</v>
       </c>
       <c r="F178" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G178" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H178">
+        <v>1</v>
+      </c>
+      <c r="I178">
+        <v>1</v>
+      </c>
+      <c r="J178" t="s">
+        <v>56</v>
+      </c>
+      <c r="K178">
+        <v>2.2</v>
+      </c>
+      <c r="L178">
+        <v>3.25</v>
+      </c>
+      <c r="M178">
         <v>3</v>
       </c>
-      <c r="I178">
-        <v>2</v>
-      </c>
-      <c r="J178" t="s">
-        <v>55</v>
-      </c>
-      <c r="K178">
-        <v>1.95</v>
-      </c>
-      <c r="L178">
+      <c r="N178">
+        <v>3.5</v>
+      </c>
+      <c r="O178">
         <v>3.4</v>
       </c>
-      <c r="M178">
-        <v>3.4</v>
-      </c>
-      <c r="N178">
-        <v>1.65</v>
-      </c>
-      <c r="O178">
-        <v>4</v>
-      </c>
       <c r="P178">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="Q178">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R178">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S178">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T178">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U178">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V178">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W178">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X178">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y178">
         <v>-1</v>
       </c>
       <c r="Z178">
+        <v>0.8</v>
+      </c>
+      <c r="AA178">
+        <v>-1</v>
+      </c>
+      <c r="AB178">
         <v>-0.5</v>
       </c>
-      <c r="AA178">
-        <v>0.45</v>
-      </c>
-      <c r="AB178">
-        <v>0.875</v>
-      </c>
       <c r="AC178">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16396,7 +16396,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>5534133</v>
+        <v>5544758</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16408,76 +16408,76 @@
         <v>45074.47916666666</v>
       </c>
       <c r="F179" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G179" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H179">
         <v>1</v>
       </c>
       <c r="I179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K179">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L179">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M179">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="N179">
+        <v>1.7</v>
+      </c>
+      <c r="O179">
+        <v>3.6</v>
+      </c>
+      <c r="P179">
+        <v>4.5</v>
+      </c>
+      <c r="Q179">
+        <v>-0.75</v>
+      </c>
+      <c r="R179">
+        <v>1.95</v>
+      </c>
+      <c r="S179">
+        <v>1.85</v>
+      </c>
+      <c r="T179">
+        <v>2.5</v>
+      </c>
+      <c r="U179">
+        <v>1.825</v>
+      </c>
+      <c r="V179">
+        <v>1.975</v>
+      </c>
+      <c r="W179">
+        <v>-1</v>
+      </c>
+      <c r="X179">
+        <v>-1</v>
+      </c>
+      <c r="Y179">
         <v>3.5</v>
       </c>
-      <c r="O179">
-        <v>3.4</v>
-      </c>
-      <c r="P179">
-        <v>1.909</v>
-      </c>
-      <c r="Q179">
-        <v>0.5</v>
-      </c>
-      <c r="R179">
-        <v>1.8</v>
-      </c>
-      <c r="S179">
-        <v>2</v>
-      </c>
-      <c r="T179">
-        <v>2.25</v>
-      </c>
-      <c r="U179">
-        <v>1.8</v>
-      </c>
-      <c r="V179">
-        <v>2</v>
-      </c>
-      <c r="W179">
-        <v>-1</v>
-      </c>
-      <c r="X179">
-        <v>2.4</v>
-      </c>
-      <c r="Y179">
-        <v>-1</v>
-      </c>
       <c r="Z179">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA179">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB179">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC179">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16485,7 +16485,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>5544758</v>
+        <v>5537439</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16497,73 +16497,73 @@
         <v>45074.47916666666</v>
       </c>
       <c r="F180" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G180" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I180">
         <v>2</v>
       </c>
       <c r="J180" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K180">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="L180">
         <v>3.4</v>
       </c>
       <c r="M180">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N180">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="O180">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P180">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q180">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R180">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S180">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T180">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U180">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V180">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W180">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z180">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA180">
-        <v>0.8500000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AB180">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC180">
         <v>-1</v>
@@ -17212,7 +17212,7 @@
         <v>36</v>
       </c>
       <c r="G188" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H188">
         <v>3</v>
@@ -17390,7 +17390,7 @@
         <v>49</v>
       </c>
       <c r="G190" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H190">
         <v>2</v>
@@ -17565,7 +17565,7 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F192" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G192" t="s">
         <v>47</v>
@@ -18099,7 +18099,7 @@
         <v>45159.61458333334</v>
       </c>
       <c r="F198" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G198" t="s">
         <v>43</v>
@@ -18458,7 +18458,7 @@
         <v>53</v>
       </c>
       <c r="G202" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H202">
         <v>1</v>
@@ -18903,7 +18903,7 @@
         <v>48</v>
       </c>
       <c r="G207" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H207">
         <v>0</v>
@@ -19167,7 +19167,7 @@
         <v>45171.29166666666</v>
       </c>
       <c r="F210" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G210" t="s">
         <v>44</v>
@@ -19612,7 +19612,7 @@
         <v>45172.29166666666</v>
       </c>
       <c r="F215" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G215" t="s">
         <v>45</v>
@@ -20327,7 +20327,7 @@
         <v>37</v>
       </c>
       <c r="G223" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H223">
         <v>2</v>
@@ -20594,7 +20594,7 @@
         <v>36</v>
       </c>
       <c r="G226" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H226">
         <v>0</v>
@@ -20861,7 +20861,7 @@
         <v>50</v>
       </c>
       <c r="G229" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H229">
         <v>1</v>
@@ -21392,7 +21392,7 @@
         <v>45201.67708333334</v>
       </c>
       <c r="F235" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G235" t="s">
         <v>53</v>
@@ -21840,7 +21840,7 @@
         <v>44</v>
       </c>
       <c r="G240" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H240">
         <v>2</v>
@@ -21926,7 +21926,7 @@
         <v>45207.29166666666</v>
       </c>
       <c r="F241" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G241" t="s">
         <v>51</v>
@@ -22285,7 +22285,7 @@
         <v>39</v>
       </c>
       <c r="G245" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H245">
         <v>1</v>
@@ -22371,7 +22371,7 @@
         <v>45227.29166666666</v>
       </c>
       <c r="F246" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G246" t="s">
         <v>47</v>
@@ -23172,7 +23172,7 @@
         <v>45234.33333333334</v>
       </c>
       <c r="F255" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G255" t="s">
         <v>29</v>
@@ -23709,7 +23709,7 @@
         <v>37</v>
       </c>
       <c r="G261" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H261">
         <v>1</v>
@@ -24329,10 +24329,10 @@
         <v>45242.33333333334</v>
       </c>
       <c r="F268" t="s">
+        <v>32</v>
+      </c>
+      <c r="G268" t="s">
         <v>33</v>
-      </c>
-      <c r="G268" t="s">
-        <v>32</v>
       </c>
       <c r="H268">
         <v>0</v>
@@ -24685,7 +24685,7 @@
         <v>45248.33333333334</v>
       </c>
       <c r="F272" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G272" t="s">
         <v>52</v>
@@ -25222,7 +25222,7 @@
         <v>50</v>
       </c>
       <c r="G278" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H278">
         <v>1</v>
@@ -25931,7 +25931,7 @@
         <v>45263.33333333334</v>
       </c>
       <c r="F286" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G286" t="s">
         <v>29</v>
@@ -26201,7 +26201,7 @@
         <v>42</v>
       </c>
       <c r="G289" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H289">
         <v>3</v>
@@ -26290,7 +26290,7 @@
         <v>51</v>
       </c>
       <c r="G290" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H290">
         <v>1</v>
@@ -26821,7 +26821,7 @@
         <v>45270.33333333334</v>
       </c>
       <c r="F296" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G296" t="s">
         <v>30</v>
@@ -27091,7 +27091,7 @@
         <v>30</v>
       </c>
       <c r="G299" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H299">
         <v>0</v>
@@ -27803,7 +27803,7 @@
         <v>45</v>
       </c>
       <c r="G307" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H307">
         <v>1</v>
@@ -27889,7 +27889,7 @@
         <v>45281.625</v>
       </c>
       <c r="F308" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G308" t="s">
         <v>52</v>
@@ -28690,7 +28690,7 @@
         <v>45291.33333333334</v>
       </c>
       <c r="F317" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G317" t="s">
         <v>48</v>
@@ -28945,7 +28945,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>6893589</v>
+        <v>6893143</v>
       </c>
       <c r="C320" t="s">
         <v>28</v>
@@ -28957,76 +28957,76 @@
         <v>45297.52083333334</v>
       </c>
       <c r="F320" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G320" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320">
         <v>1</v>
       </c>
       <c r="J320" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K320">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="L320">
         <v>3.5</v>
       </c>
       <c r="M320">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="N320">
-        <v>1.571</v>
+        <v>1.6</v>
       </c>
       <c r="O320">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P320">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q320">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R320">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S320">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T320">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U320">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V320">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W320">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X320">
         <v>-1</v>
       </c>
       <c r="Y320">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z320">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA320">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB320">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC320">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="321" spans="1:29">
@@ -29034,7 +29034,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>6893143</v>
+        <v>6893589</v>
       </c>
       <c r="C321" t="s">
         <v>28</v>
@@ -29046,76 +29046,76 @@
         <v>45297.52083333334</v>
       </c>
       <c r="F321" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G321" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321">
         <v>1</v>
       </c>
       <c r="J321" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K321">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L321">
         <v>3.5</v>
       </c>
       <c r="M321">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="N321">
-        <v>1.6</v>
+        <v>1.571</v>
       </c>
       <c r="O321">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P321">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q321">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R321">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S321">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T321">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U321">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V321">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W321">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X321">
         <v>-1</v>
       </c>
       <c r="Y321">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z321">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA321">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB321">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC321">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="322" spans="1:29">
@@ -29123,7 +29123,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>6899181</v>
+        <v>6893145</v>
       </c>
       <c r="C322" t="s">
         <v>28</v>
@@ -29135,76 +29135,76 @@
         <v>45297.625</v>
       </c>
       <c r="F322" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G322" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H322">
         <v>1</v>
       </c>
       <c r="I322">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J322" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K322">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="L322">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M322">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="N322">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O322">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P322">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q322">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R322">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S322">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T322">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U322">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V322">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W322">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X322">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y322">
         <v>-1</v>
       </c>
       <c r="Z322">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA322">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB322">
         <v>-1</v>
       </c>
       <c r="AC322">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="323" spans="1:29">
@@ -29212,7 +29212,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>6893145</v>
+        <v>6899181</v>
       </c>
       <c r="C323" t="s">
         <v>28</v>
@@ -29224,76 +29224,76 @@
         <v>45297.625</v>
       </c>
       <c r="F323" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G323" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="H323">
         <v>1</v>
       </c>
       <c r="I323">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J323" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K323">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="L323">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M323">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N323">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O323">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P323">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q323">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R323">
+        <v>2.025</v>
+      </c>
+      <c r="S323">
+        <v>1.775</v>
+      </c>
+      <c r="T323">
+        <v>2.25</v>
+      </c>
+      <c r="U323">
+        <v>1.975</v>
+      </c>
+      <c r="V323">
         <v>1.825</v>
       </c>
-      <c r="S323">
-        <v>1.975</v>
-      </c>
-      <c r="T323">
-        <v>2.5</v>
-      </c>
-      <c r="U323">
-        <v>1.875</v>
-      </c>
-      <c r="V323">
-        <v>1.925</v>
-      </c>
       <c r="W323">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X323">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y323">
         <v>-1</v>
       </c>
       <c r="Z323">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA323">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB323">
         <v>-1</v>
       </c>
       <c r="AC323">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="324" spans="1:29">
@@ -29494,7 +29494,7 @@
         <v>42</v>
       </c>
       <c r="G326" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H326">
         <v>3</v>
@@ -29924,7 +29924,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>6899180</v>
+        <v>6893591</v>
       </c>
       <c r="C331" t="s">
         <v>28</v>
@@ -29936,76 +29936,76 @@
         <v>45305.52083333334</v>
       </c>
       <c r="F331" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G331" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H331">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I331">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J331" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K331">
-        <v>1.833</v>
+        <v>1.75</v>
       </c>
       <c r="L331">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M331">
         <v>4.333</v>
       </c>
       <c r="N331">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="O331">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P331">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q331">
         <v>-0.5</v>
       </c>
       <c r="R331">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S331">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T331">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U331">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V331">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="W331">
         <v>-1</v>
       </c>
       <c r="X331">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y331">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z331">
         <v>-1</v>
       </c>
       <c r="AA331">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB331">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AC331">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="332" spans="1:29">
@@ -30013,7 +30013,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>6893591</v>
+        <v>6899180</v>
       </c>
       <c r="C332" t="s">
         <v>28</v>
@@ -30025,76 +30025,76 @@
         <v>45305.52083333334</v>
       </c>
       <c r="F332" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G332" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I332">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J332" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K332">
-        <v>1.75</v>
+        <v>1.833</v>
       </c>
       <c r="L332">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M332">
         <v>4.333</v>
       </c>
       <c r="N332">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="O332">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P332">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q332">
         <v>-0.5</v>
       </c>
       <c r="R332">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S332">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T332">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U332">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V332">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="W332">
         <v>-1</v>
       </c>
       <c r="X332">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y332">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z332">
         <v>-1</v>
       </c>
       <c r="AA332">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB332">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AC332">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="333" spans="1:29">
@@ -30203,7 +30203,7 @@
         <v>45306.65625</v>
       </c>
       <c r="F334" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G334" t="s">
         <v>43</v>
@@ -30292,7 +30292,7 @@
         <v>45306.73958333334</v>
       </c>
       <c r="F335" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G335" t="s">
         <v>39</v>
@@ -30470,7 +30470,7 @@
         <v>45311.33333333334</v>
       </c>
       <c r="F337" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G337" t="s">
         <v>36</v>
@@ -30915,7 +30915,7 @@
         <v>45312.52083333334</v>
       </c>
       <c r="F342" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G342" t="s">
         <v>49</v>
@@ -31185,7 +31185,7 @@
         <v>47</v>
       </c>
       <c r="G345" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H345">
         <v>0</v>
@@ -31348,7 +31348,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>6893154</v>
+        <v>6893595</v>
       </c>
       <c r="C347" t="s">
         <v>28</v>
@@ -31360,40 +31360,40 @@
         <v>45319.52083333334</v>
       </c>
       <c r="F347" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G347" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I347">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J347" t="s">
         <v>55</v>
       </c>
       <c r="K347">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="L347">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M347">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="N347">
-        <v>1.833</v>
+        <v>1.65</v>
       </c>
       <c r="O347">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P347">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q347">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R347">
         <v>1.85</v>
@@ -31402,16 +31402,16 @@
         <v>1.95</v>
       </c>
       <c r="T347">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U347">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V347">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W347">
-        <v>0.833</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X347">
         <v>-1</v>
@@ -31426,10 +31426,10 @@
         <v>-1</v>
       </c>
       <c r="AB347">
-        <v>0.8</v>
+        <v>0.475</v>
       </c>
       <c r="AC347">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="348" spans="1:29">
@@ -31437,7 +31437,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>6893595</v>
+        <v>6893154</v>
       </c>
       <c r="C348" t="s">
         <v>28</v>
@@ -31449,40 +31449,40 @@
         <v>45319.52083333334</v>
       </c>
       <c r="F348" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G348" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="H348">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I348">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J348" t="s">
         <v>55</v>
       </c>
       <c r="K348">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="L348">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M348">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="N348">
-        <v>1.65</v>
+        <v>1.833</v>
       </c>
       <c r="O348">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P348">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q348">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R348">
         <v>1.85</v>
@@ -31491,16 +31491,16 @@
         <v>1.95</v>
       </c>
       <c r="T348">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U348">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V348">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W348">
-        <v>0.6499999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X348">
         <v>-1</v>
@@ -31515,10 +31515,10 @@
         <v>-1</v>
       </c>
       <c r="AB348">
-        <v>0.475</v>
+        <v>0.8</v>
       </c>
       <c r="AC348">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="349" spans="1:29">
@@ -31983,7 +31983,7 @@
         <v>45324.73958333334</v>
       </c>
       <c r="F354" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G354" t="s">
         <v>53</v>
@@ -32161,7 +32161,7 @@
         <v>45325.45833333334</v>
       </c>
       <c r="F356" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G356" t="s">
         <v>48</v>
@@ -32520,7 +32520,7 @@
         <v>45</v>
       </c>
       <c r="G360" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H360">
         <v>1</v>
@@ -33039,7 +33039,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>6893598</v>
+        <v>6893600</v>
       </c>
       <c r="C366" t="s">
         <v>28</v>
@@ -33051,76 +33051,76 @@
         <v>45333.52083333334</v>
       </c>
       <c r="F366" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G366" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H366">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I366">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J366" t="s">
         <v>56</v>
       </c>
       <c r="K366">
+        <v>3.8</v>
+      </c>
+      <c r="L366">
+        <v>3.3</v>
+      </c>
+      <c r="M366">
+        <v>1.95</v>
+      </c>
+      <c r="N366">
+        <v>3.5</v>
+      </c>
+      <c r="O366">
+        <v>3.3</v>
+      </c>
+      <c r="P366">
         <v>2.05</v>
       </c>
-      <c r="L366">
-        <v>3.4</v>
-      </c>
-      <c r="M366">
-        <v>3.4</v>
-      </c>
-      <c r="N366">
-        <v>1.909</v>
-      </c>
-      <c r="O366">
-        <v>3.5</v>
-      </c>
-      <c r="P366">
-        <v>3.75</v>
-      </c>
       <c r="Q366">
+        <v>0.25</v>
+      </c>
+      <c r="R366">
+        <v>2.05</v>
+      </c>
+      <c r="S366">
+        <v>1.8</v>
+      </c>
+      <c r="T366">
+        <v>2.25</v>
+      </c>
+      <c r="U366">
+        <v>1.95</v>
+      </c>
+      <c r="V366">
+        <v>1.9</v>
+      </c>
+      <c r="W366">
+        <v>-1</v>
+      </c>
+      <c r="X366">
+        <v>2.3</v>
+      </c>
+      <c r="Y366">
+        <v>-1</v>
+      </c>
+      <c r="Z366">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="AA366">
         <v>-0.5</v>
       </c>
-      <c r="R366">
-        <v>1.9</v>
-      </c>
-      <c r="S366">
-        <v>1.9</v>
-      </c>
-      <c r="T366">
-        <v>2.5</v>
-      </c>
-      <c r="U366">
-        <v>1.85</v>
-      </c>
-      <c r="V366">
-        <v>1.95</v>
-      </c>
-      <c r="W366">
-        <v>-1</v>
-      </c>
-      <c r="X366">
-        <v>2.5</v>
-      </c>
-      <c r="Y366">
-        <v>-1</v>
-      </c>
-      <c r="Z366">
-        <v>-1</v>
-      </c>
-      <c r="AA366">
+      <c r="AB366">
+        <v>-1</v>
+      </c>
+      <c r="AC366">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB366">
-        <v>-1</v>
-      </c>
-      <c r="AC366">
-        <v>0.95</v>
       </c>
     </row>
     <row r="367" spans="1:29">
@@ -33128,7 +33128,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>6893600</v>
+        <v>6893598</v>
       </c>
       <c r="C367" t="s">
         <v>28</v>
@@ -33140,76 +33140,76 @@
         <v>45333.52083333334</v>
       </c>
       <c r="F367" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G367" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I367">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J367" t="s">
         <v>56</v>
       </c>
       <c r="K367">
-        <v>3.8</v>
+        <v>2.05</v>
       </c>
       <c r="L367">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M367">
+        <v>3.4</v>
+      </c>
+      <c r="N367">
+        <v>1.909</v>
+      </c>
+      <c r="O367">
+        <v>3.5</v>
+      </c>
+      <c r="P367">
+        <v>3.75</v>
+      </c>
+      <c r="Q367">
+        <v>-0.5</v>
+      </c>
+      <c r="R367">
+        <v>1.9</v>
+      </c>
+      <c r="S367">
+        <v>1.9</v>
+      </c>
+      <c r="T367">
+        <v>2.5</v>
+      </c>
+      <c r="U367">
+        <v>1.85</v>
+      </c>
+      <c r="V367">
         <v>1.95</v>
       </c>
-      <c r="N367">
-        <v>3.5</v>
-      </c>
-      <c r="O367">
-        <v>3.3</v>
-      </c>
-      <c r="P367">
-        <v>2.05</v>
-      </c>
-      <c r="Q367">
-        <v>0.25</v>
-      </c>
-      <c r="R367">
-        <v>2.05</v>
-      </c>
-      <c r="S367">
-        <v>1.8</v>
-      </c>
-      <c r="T367">
-        <v>2.25</v>
-      </c>
-      <c r="U367">
-        <v>1.95</v>
-      </c>
-      <c r="V367">
-        <v>1.9</v>
-      </c>
       <c r="W367">
         <v>-1</v>
       </c>
       <c r="X367">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Y367">
         <v>-1</v>
       </c>
       <c r="Z367">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA367">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB367">
         <v>-1</v>
       </c>
       <c r="AC367">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="368" spans="1:29">
@@ -33407,7 +33407,7 @@
         <v>45339.33333333334</v>
       </c>
       <c r="F370" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G370" t="s">
         <v>37</v>
@@ -33496,7 +33496,7 @@
         <v>45339.45833333334</v>
       </c>
       <c r="F371" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G371" t="s">
         <v>36</v>
@@ -34196,7 +34196,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>6893167</v>
+        <v>6899169</v>
       </c>
       <c r="C379" t="s">
         <v>28</v>
@@ -34205,64 +34205,79 @@
         <v>28</v>
       </c>
       <c r="E379" s="2">
-        <v>45346.52083333334</v>
+        <v>45346.33333333334</v>
       </c>
       <c r="F379" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G379" t="s">
-        <v>29</v>
+        <v>51</v>
+      </c>
+      <c r="H379">
+        <v>1</v>
+      </c>
+      <c r="I379">
+        <v>1</v>
+      </c>
+      <c r="J379" t="s">
+        <v>56</v>
       </c>
       <c r="K379">
-        <v>1.833</v>
+        <v>2.2</v>
       </c>
       <c r="L379">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M379">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="N379">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="O379">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P379">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q379">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R379">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S379">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T379">
         <v>2.25</v>
       </c>
       <c r="U379">
+        <v>2.025</v>
+      </c>
+      <c r="V379">
         <v>1.825</v>
       </c>
-      <c r="V379">
-        <v>2.025</v>
-      </c>
       <c r="W379">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X379">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y379">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z379">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA379">
-        <v>0</v>
+        <v>0.4375</v>
+      </c>
+      <c r="AB379">
+        <v>-0.5</v>
+      </c>
+      <c r="AC379">
+        <v>0.4125</v>
       </c>
     </row>
     <row r="380" spans="1:29">
@@ -34270,7 +34285,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>6893169</v>
+        <v>6893168</v>
       </c>
       <c r="C380" t="s">
         <v>28</v>
@@ -34279,64 +34294,79 @@
         <v>28</v>
       </c>
       <c r="E380" s="2">
-        <v>45346.52083333334</v>
+        <v>45346.45833333334</v>
       </c>
       <c r="F380" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G380" t="s">
-        <v>39</v>
+        <v>45</v>
+      </c>
+      <c r="H380">
+        <v>3</v>
+      </c>
+      <c r="I380">
+        <v>0</v>
+      </c>
+      <c r="J380" t="s">
+        <v>55</v>
       </c>
       <c r="K380">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="L380">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M380">
+        <v>7</v>
+      </c>
+      <c r="N380">
+        <v>1.363</v>
+      </c>
+      <c r="O380">
         <v>4.5</v>
       </c>
-      <c r="N380">
-        <v>1.666</v>
-      </c>
-      <c r="O380">
-        <v>3.5</v>
-      </c>
       <c r="P380">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="Q380">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R380">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S380">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T380">
         <v>2.5</v>
       </c>
       <c r="U380">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V380">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W380">
-        <v>0</v>
+        <v>0.363</v>
       </c>
       <c r="X380">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y380">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z380">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA380">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB380">
+        <v>0.95</v>
+      </c>
+      <c r="AC380">
+        <v>-1</v>
       </c>
     </row>
     <row r="381" spans="1:29">
@@ -34344,7 +34374,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>6893603</v>
+        <v>6893167</v>
       </c>
       <c r="C381" t="s">
         <v>28</v>
@@ -34353,64 +34383,79 @@
         <v>28</v>
       </c>
       <c r="E381" s="2">
-        <v>45346.625</v>
+        <v>45346.52083333334</v>
       </c>
       <c r="F381" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G381" t="s">
-        <v>52</v>
+        <v>29</v>
+      </c>
+      <c r="H381">
+        <v>0</v>
+      </c>
+      <c r="I381">
+        <v>2</v>
+      </c>
+      <c r="J381" t="s">
+        <v>54</v>
       </c>
       <c r="K381">
-        <v>1.666</v>
+        <v>1.833</v>
       </c>
       <c r="L381">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M381">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="N381">
-        <v>1.666</v>
+        <v>1.75</v>
       </c>
       <c r="O381">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P381">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q381">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R381">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S381">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T381">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U381">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V381">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W381">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X381">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y381">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="Z381">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA381">
-        <v>0</v>
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB381">
+        <v>-0.5</v>
+      </c>
+      <c r="AC381">
+        <v>0.5</v>
       </c>
     </row>
     <row r="382" spans="1:29">
@@ -34418,7 +34463,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>6893603</v>
+        <v>6893169</v>
       </c>
       <c r="C382" t="s">
         <v>28</v>
@@ -34427,64 +34472,79 @@
         <v>28</v>
       </c>
       <c r="E382" s="2">
-        <v>45346.625</v>
+        <v>45346.52083333334</v>
       </c>
       <c r="F382" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G382" t="s">
-        <v>52</v>
+        <v>39</v>
+      </c>
+      <c r="H382">
+        <v>3</v>
+      </c>
+      <c r="I382">
+        <v>2</v>
+      </c>
+      <c r="J382" t="s">
+        <v>55</v>
       </c>
       <c r="K382">
-        <v>1.666</v>
+        <v>1.75</v>
       </c>
       <c r="L382">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M382">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="N382">
         <v>1.666</v>
       </c>
       <c r="O382">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P382">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Q382">
         <v>-0.75</v>
       </c>
       <c r="R382">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S382">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T382">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U382">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V382">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W382">
-        <v>0</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X382">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y382">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z382">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="AA382">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB382">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AC382">
+        <v>-1</v>
       </c>
     </row>
     <row r="383" spans="1:29">
@@ -34492,7 +34552,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>6899168</v>
+        <v>6893603</v>
       </c>
       <c r="C383" t="s">
         <v>28</v>
@@ -34501,64 +34561,79 @@
         <v>28</v>
       </c>
       <c r="E383" s="2">
-        <v>45347.33333333334</v>
+        <v>45346.625</v>
       </c>
       <c r="F383" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G383" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="H383">
+        <v>2</v>
+      </c>
+      <c r="I383">
+        <v>0</v>
+      </c>
+      <c r="J383" t="s">
+        <v>55</v>
       </c>
       <c r="K383">
-        <v>2.8</v>
+        <v>1.666</v>
       </c>
       <c r="L383">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M383">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="N383">
-        <v>2.75</v>
+        <v>1.666</v>
       </c>
       <c r="O383">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P383">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="Q383">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R383">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="S383">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T383">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U383">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V383">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W383">
-        <v>0</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X383">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y383">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z383">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA383">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB383">
+        <v>-1</v>
+      </c>
+      <c r="AC383">
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="384" spans="1:29">
@@ -34566,7 +34641,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>6893604</v>
+        <v>6899168</v>
       </c>
       <c r="C384" t="s">
         <v>28</v>
@@ -34575,49 +34650,49 @@
         <v>28</v>
       </c>
       <c r="E384" s="2">
-        <v>45347.45833333334</v>
+        <v>45347.33333333334</v>
       </c>
       <c r="F384" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="G384" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="K384">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="L384">
         <v>3.2</v>
       </c>
       <c r="M384">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="N384">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="O384">
         <v>3.2</v>
       </c>
       <c r="P384">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="Q384">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R384">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="S384">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="T384">
         <v>2.25</v>
       </c>
       <c r="U384">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V384">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W384">
         <v>0</v>
@@ -34640,7 +34715,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>6893166</v>
+        <v>6893604</v>
       </c>
       <c r="C385" t="s">
         <v>28</v>
@@ -34649,49 +34724,49 @@
         <v>28</v>
       </c>
       <c r="E385" s="2">
-        <v>45348.625</v>
+        <v>45347.45833333334</v>
       </c>
       <c r="F385" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G385" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="K385">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="L385">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M385">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="N385">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="O385">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P385">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="Q385">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R385">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S385">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T385">
         <v>2.25</v>
       </c>
       <c r="U385">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V385">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W385">
         <v>0</v>
@@ -34714,7 +34789,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>6899275</v>
+        <v>6893166</v>
       </c>
       <c r="C386" t="s">
         <v>28</v>
@@ -34723,49 +34798,49 @@
         <v>28</v>
       </c>
       <c r="E386" s="2">
-        <v>45349.71875</v>
+        <v>45348.625</v>
       </c>
       <c r="F386" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G386" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="K386">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L386">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M386">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="N386">
-        <v>1.95</v>
+        <v>1.727</v>
       </c>
       <c r="O386">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P386">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="Q386">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R386">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S386">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T386">
         <v>2.25</v>
       </c>
       <c r="U386">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V386">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W386">
         <v>0</v>
@@ -34780,6 +34855,80 @@
         <v>0</v>
       </c>
       <c r="AA386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:27">
+      <c r="A387" s="1">
+        <v>385</v>
+      </c>
+      <c r="B387">
+        <v>6899275</v>
+      </c>
+      <c r="C387" t="s">
+        <v>28</v>
+      </c>
+      <c r="D387" t="s">
+        <v>28</v>
+      </c>
+      <c r="E387" s="2">
+        <v>45349.71875</v>
+      </c>
+      <c r="F387" t="s">
+        <v>48</v>
+      </c>
+      <c r="G387" t="s">
+        <v>30</v>
+      </c>
+      <c r="K387">
+        <v>2</v>
+      </c>
+      <c r="L387">
+        <v>3.25</v>
+      </c>
+      <c r="M387">
+        <v>3.6</v>
+      </c>
+      <c r="N387">
+        <v>1.95</v>
+      </c>
+      <c r="O387">
+        <v>3.3</v>
+      </c>
+      <c r="P387">
+        <v>3.6</v>
+      </c>
+      <c r="Q387">
+        <v>-0.5</v>
+      </c>
+      <c r="R387">
+        <v>2.025</v>
+      </c>
+      <c r="S387">
+        <v>1.825</v>
+      </c>
+      <c r="T387">
+        <v>2.25</v>
+      </c>
+      <c r="U387">
+        <v>1.875</v>
+      </c>
+      <c r="V387">
+        <v>1.975</v>
+      </c>
+      <c r="W387">
+        <v>0</v>
+      </c>
+      <c r="X387">
+        <v>0</v>
+      </c>
+      <c r="Y387">
+        <v>0</v>
+      </c>
+      <c r="Z387">
+        <v>0</v>
+      </c>
+      <c r="AA387">
         <v>0</v>
       </c>
     </row>

--- a/Portugal Segunda Liga/Portugal Segunda Liga.xlsx
+++ b/Portugal Segunda Liga/Portugal Segunda Liga.xlsx
@@ -34668,22 +34668,22 @@
         <v>2.375</v>
       </c>
       <c r="N384">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="O384">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P384">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="Q384">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R384">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="S384">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T384">
         <v>2.25</v>
@@ -34828,10 +34828,10 @@
         <v>-0.75</v>
       </c>
       <c r="R386">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S386">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T386">
         <v>2.25</v>

--- a/Portugal Segunda Liga/Portugal Segunda Liga.xlsx
+++ b/Portugal Segunda Liga/Portugal Segunda Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -3292,7 +3292,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>7140182</v>
+        <v>6893107</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3304,76 +3304,76 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F32" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K32">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="L32">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M32">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="N32">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="O32">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="P32">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q32">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R32">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S32">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T32">
         <v>2.25</v>
       </c>
       <c r="U32">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V32">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W32">
         <v>-1</v>
       </c>
       <c r="X32">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y32">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA32">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB32">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3381,7 +3381,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6893107</v>
+        <v>7140182</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3393,76 +3393,76 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F33" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K33">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="L33">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M33">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="N33">
+        <v>2.3</v>
+      </c>
+      <c r="O33">
         <v>2.9</v>
       </c>
-      <c r="O33">
-        <v>3.5</v>
-      </c>
       <c r="P33">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q33">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R33">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S33">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T33">
         <v>2.25</v>
       </c>
       <c r="U33">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V33">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W33">
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z33">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB33">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC33">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -7030,7 +7030,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6893126</v>
+        <v>6893574</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7042,34 +7042,34 @@
         <v>45234.33333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H74">
+        <v>2</v>
+      </c>
+      <c r="I74">
         <v>0</v>
       </c>
-      <c r="I74">
-        <v>1</v>
-      </c>
       <c r="J74" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K74">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L74">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M74">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="N74">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="O74">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P74">
         <v>3.8</v>
@@ -7078,40 +7078,40 @@
         <v>-0.5</v>
       </c>
       <c r="R74">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S74">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T74">
         <v>2.5</v>
       </c>
       <c r="U74">
+        <v>1.825</v>
+      </c>
+      <c r="V74">
         <v>1.975</v>
       </c>
-      <c r="V74">
-        <v>1.825</v>
-      </c>
       <c r="W74">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA74">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
         <v>-1</v>
       </c>
       <c r="AC74">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7119,7 +7119,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6893574</v>
+        <v>6893126</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7131,34 +7131,34 @@
         <v>45234.33333333334</v>
       </c>
       <c r="F75" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G75" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K75">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L75">
+        <v>3.4</v>
+      </c>
+      <c r="M75">
+        <v>3.8</v>
+      </c>
+      <c r="N75">
+        <v>1.8</v>
+      </c>
+      <c r="O75">
         <v>3.3</v>
-      </c>
-      <c r="M75">
-        <v>3.2</v>
-      </c>
-      <c r="N75">
-        <v>1.727</v>
-      </c>
-      <c r="O75">
-        <v>3.6</v>
       </c>
       <c r="P75">
         <v>3.8</v>
@@ -7167,40 +7167,40 @@
         <v>-0.5</v>
       </c>
       <c r="R75">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S75">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T75">
         <v>2.5</v>
       </c>
       <c r="U75">
+        <v>1.975</v>
+      </c>
+      <c r="V75">
         <v>1.825</v>
       </c>
-      <c r="V75">
-        <v>1.975</v>
-      </c>
       <c r="W75">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z75">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB75">
         <v>-1</v>
       </c>
       <c r="AC75">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7297,7 +7297,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6893125</v>
+        <v>6893124</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7309,76 +7309,76 @@
         <v>45234.625</v>
       </c>
       <c r="F77" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G77" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H77">
         <v>1</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K77">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="L77">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M77">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="N77">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="O77">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P77">
+        <v>2.9</v>
+      </c>
+      <c r="Q77">
+        <v>-0.25</v>
+      </c>
+      <c r="R77">
+        <v>1.95</v>
+      </c>
+      <c r="S77">
+        <v>1.85</v>
+      </c>
+      <c r="T77">
         <v>2.5</v>
       </c>
-      <c r="Q77">
-        <v>0</v>
-      </c>
-      <c r="R77">
+      <c r="U77">
         <v>1.9</v>
       </c>
-      <c r="S77">
+      <c r="V77">
         <v>1.9</v>
       </c>
-      <c r="T77">
-        <v>2.25</v>
-      </c>
-      <c r="U77">
-        <v>1.875</v>
-      </c>
-      <c r="V77">
-        <v>1.925</v>
-      </c>
       <c r="W77">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X77">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA77">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC77">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7386,7 +7386,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6893124</v>
+        <v>6893125</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7398,76 +7398,76 @@
         <v>45234.625</v>
       </c>
       <c r="F78" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G78" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H78">
         <v>1</v>
       </c>
       <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78" t="s">
+        <v>47</v>
+      </c>
+      <c r="K78">
+        <v>2.8</v>
+      </c>
+      <c r="L78">
+        <v>3.1</v>
+      </c>
+      <c r="M78">
+        <v>2.3</v>
+      </c>
+      <c r="N78">
+        <v>2.6</v>
+      </c>
+      <c r="O78">
+        <v>3</v>
+      </c>
+      <c r="P78">
+        <v>2.5</v>
+      </c>
+      <c r="Q78">
         <v>0</v>
       </c>
-      <c r="J78" t="s">
-        <v>49</v>
-      </c>
-      <c r="K78">
-        <v>2.05</v>
-      </c>
-      <c r="L78">
-        <v>3.3</v>
-      </c>
-      <c r="M78">
-        <v>3</v>
-      </c>
-      <c r="N78">
-        <v>2.15</v>
-      </c>
-      <c r="O78">
-        <v>3.25</v>
-      </c>
-      <c r="P78">
-        <v>2.9</v>
-      </c>
-      <c r="Q78">
-        <v>-0.25</v>
-      </c>
       <c r="R78">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S78">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T78">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U78">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V78">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W78">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X78">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y78">
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA78">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC78">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6893587</v>
+        <v>6893141</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,76 +12382,76 @@
         <v>45290.45833333334</v>
       </c>
       <c r="F134" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G134" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J134" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K134">
-        <v>1.65</v>
+        <v>1.909</v>
       </c>
       <c r="L134">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M134">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N134">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="O134">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P134">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q134">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R134">
+        <v>1.825</v>
+      </c>
+      <c r="S134">
+        <v>2.025</v>
+      </c>
+      <c r="T134">
+        <v>2.25</v>
+      </c>
+      <c r="U134">
+        <v>1.975</v>
+      </c>
+      <c r="V134">
         <v>1.875</v>
       </c>
-      <c r="S134">
-        <v>1.925</v>
-      </c>
-      <c r="T134">
-        <v>2.5</v>
-      </c>
-      <c r="U134">
-        <v>1.85</v>
-      </c>
-      <c r="V134">
-        <v>1.95</v>
-      </c>
       <c r="W134">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X134">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>0.4375</v>
+        <v>-0.5</v>
       </c>
       <c r="AA134">
-        <v>-0.5</v>
+        <v>0.5125</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC134">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12459,7 +12459,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6893141</v>
+        <v>6893587</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12471,76 +12471,76 @@
         <v>45290.45833333334</v>
       </c>
       <c r="F135" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G135" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K135">
-        <v>1.909</v>
+        <v>1.65</v>
       </c>
       <c r="L135">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M135">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N135">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="O135">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P135">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q135">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R135">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S135">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T135">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U135">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V135">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W135">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X135">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
+        <v>0.4375</v>
+      </c>
+      <c r="AA135">
         <v>-0.5</v>
       </c>
-      <c r="AA135">
-        <v>0.5125</v>
-      </c>
       <c r="AB135">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC135">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12904,7 +12904,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6893143</v>
+        <v>6893589</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12916,76 +12916,76 @@
         <v>45297.52083333334</v>
       </c>
       <c r="F140" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G140" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140">
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K140">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L140">
         <v>3.5</v>
       </c>
       <c r="M140">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="N140">
-        <v>1.6</v>
+        <v>1.571</v>
       </c>
       <c r="O140">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P140">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q140">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R140">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S140">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T140">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U140">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V140">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA140">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC140">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12993,7 +12993,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6893589</v>
+        <v>6893143</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13005,76 +13005,76 @@
         <v>45297.52083333334</v>
       </c>
       <c r="F141" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G141" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141">
         <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K141">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="L141">
         <v>3.5</v>
       </c>
       <c r="M141">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="N141">
-        <v>1.571</v>
+        <v>1.6</v>
       </c>
       <c r="O141">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P141">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q141">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R141">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S141">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T141">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U141">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V141">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W141">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z141">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB141">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13883,7 +13883,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6893591</v>
+        <v>6899180</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13895,76 +13895,76 @@
         <v>45305.52083333334</v>
       </c>
       <c r="F151" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G151" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I151">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K151">
-        <v>1.75</v>
+        <v>1.833</v>
       </c>
       <c r="L151">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M151">
         <v>4.333</v>
       </c>
       <c r="N151">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="O151">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P151">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q151">
         <v>-0.5</v>
       </c>
       <c r="R151">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S151">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T151">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U151">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V151">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="W151">
         <v>-1</v>
       </c>
       <c r="X151">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y151">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z151">
         <v>-1</v>
       </c>
       <c r="AA151">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB151">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AC151">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13972,7 +13972,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6899180</v>
+        <v>6893591</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13984,76 +13984,76 @@
         <v>45305.52083333334</v>
       </c>
       <c r="F152" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G152" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J152" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K152">
-        <v>1.833</v>
+        <v>1.75</v>
       </c>
       <c r="L152">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M152">
         <v>4.333</v>
       </c>
       <c r="N152">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="O152">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P152">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q152">
         <v>-0.5</v>
       </c>
       <c r="R152">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S152">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T152">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U152">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V152">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="W152">
         <v>-1</v>
       </c>
       <c r="X152">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y152">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z152">
         <v>-1</v>
       </c>
       <c r="AA152">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB152">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AC152">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -18795,6 +18795,15 @@
       <c r="G206" t="s">
         <v>44</v>
       </c>
+      <c r="H206">
+        <v>1</v>
+      </c>
+      <c r="I206">
+        <v>0</v>
+      </c>
+      <c r="J206" t="s">
+        <v>49</v>
+      </c>
       <c r="K206">
         <v>1.8</v>
       </c>
@@ -18805,7 +18814,7 @@
         <v>4.5</v>
       </c>
       <c r="N206">
-        <v>1.727</v>
+        <v>1.7</v>
       </c>
       <c r="O206">
         <v>3.4</v>
@@ -18817,7 +18826,7 @@
         <v>-0.75</v>
       </c>
       <c r="R206">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S206">
         <v>1.85</v>
@@ -18826,25 +18835,31 @@
         <v>2.25</v>
       </c>
       <c r="U206">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V206">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W206">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="X206">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y206">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z206">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="AA206">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB206">
+        <v>-1</v>
+      </c>
+      <c r="AC206">
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18891,10 +18906,10 @@
         <v>-0.5</v>
       </c>
       <c r="R207">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S207">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T207">
         <v>2.25</v>
@@ -18953,22 +18968,22 @@
         <v>2.3</v>
       </c>
       <c r="N208">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="O208">
         <v>3.2</v>
       </c>
       <c r="P208">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Q208">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R208">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="S208">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="T208">
         <v>2.5</v>

--- a/Portugal Segunda Liga/Portugal Segunda Liga.xlsx
+++ b/Portugal Segunda Liga/Portugal Segunda Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC208"/>
+  <dimension ref="A1:AC217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2491,7 +2491,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6893102</v>
+        <v>6899210</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2503,13 +2503,13 @@
         <v>45165.29166666666</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G23" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -2518,31 +2518,31 @@
         <v>49</v>
       </c>
       <c r="K23">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L23">
         <v>3.25</v>
       </c>
       <c r="M23">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N23">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="O23">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P23">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q23">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R23">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S23">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T23">
         <v>2.5</v>
@@ -2551,10 +2551,10 @@
         <v>2.025</v>
       </c>
       <c r="V23">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W23">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="X23">
         <v>-1</v>
@@ -2563,7 +2563,7 @@
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA23">
         <v>-1</v>
@@ -2580,7 +2580,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6899210</v>
+        <v>6893102</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2592,13 +2592,13 @@
         <v>45165.29166666666</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -2607,31 +2607,31 @@
         <v>49</v>
       </c>
       <c r="K24">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L24">
         <v>3.25</v>
       </c>
       <c r="M24">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N24">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="O24">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P24">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R24">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S24">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T24">
         <v>2.5</v>
@@ -2640,10 +2640,10 @@
         <v>2.025</v>
       </c>
       <c r="V24">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W24">
-        <v>1.45</v>
+        <v>1.25</v>
       </c>
       <c r="X24">
         <v>-1</v>
@@ -2652,7 +2652,7 @@
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AA24">
         <v>-1</v>
@@ -3915,7 +3915,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6899208</v>
+        <v>6899293</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3927,76 +3927,76 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F39" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G39" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K39">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="L39">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M39">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="N39">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="O39">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P39">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="Q39">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R39">
         <v>2.05</v>
       </c>
       <c r="S39">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T39">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U39">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V39">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA39">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>0.5125</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4004,7 +4004,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6899293</v>
+        <v>6899208</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4016,76 +4016,76 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F40" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G40" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K40">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="L40">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M40">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="N40">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="O40">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P40">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q40">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R40">
         <v>2.05</v>
       </c>
       <c r="S40">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T40">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U40">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V40">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W40">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z40">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC40">
-        <v>0.8500000000000001</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -7030,7 +7030,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6893574</v>
+        <v>6893126</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7042,34 +7042,34 @@
         <v>45234.33333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G74" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K74">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L74">
+        <v>3.4</v>
+      </c>
+      <c r="M74">
+        <v>3.8</v>
+      </c>
+      <c r="N74">
+        <v>1.8</v>
+      </c>
+      <c r="O74">
         <v>3.3</v>
-      </c>
-      <c r="M74">
-        <v>3.2</v>
-      </c>
-      <c r="N74">
-        <v>1.727</v>
-      </c>
-      <c r="O74">
-        <v>3.6</v>
       </c>
       <c r="P74">
         <v>3.8</v>
@@ -7078,40 +7078,40 @@
         <v>-0.5</v>
       </c>
       <c r="R74">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S74">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T74">
         <v>2.5</v>
       </c>
       <c r="U74">
+        <v>1.975</v>
+      </c>
+      <c r="V74">
         <v>1.825</v>
       </c>
-      <c r="V74">
-        <v>1.975</v>
-      </c>
       <c r="W74">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z74">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB74">
         <v>-1</v>
       </c>
       <c r="AC74">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7119,7 +7119,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6893126</v>
+        <v>6893574</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7131,34 +7131,34 @@
         <v>45234.33333333334</v>
       </c>
       <c r="F75" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K75">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L75">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M75">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="N75">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="O75">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P75">
         <v>3.8</v>
@@ -7167,40 +7167,40 @@
         <v>-0.5</v>
       </c>
       <c r="R75">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S75">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T75">
         <v>2.5</v>
       </c>
       <c r="U75">
+        <v>1.825</v>
+      </c>
+      <c r="V75">
         <v>1.975</v>
       </c>
-      <c r="V75">
-        <v>1.825</v>
-      </c>
       <c r="W75">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA75">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
         <v>-1</v>
       </c>
       <c r="AC75">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7297,7 +7297,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6893124</v>
+        <v>6893125</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7309,76 +7309,76 @@
         <v>45234.625</v>
       </c>
       <c r="F77" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G77" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H77">
         <v>1</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K77">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="L77">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M77">
+        <v>2.3</v>
+      </c>
+      <c r="N77">
+        <v>2.6</v>
+      </c>
+      <c r="O77">
         <v>3</v>
       </c>
-      <c r="N77">
-        <v>2.15</v>
-      </c>
-      <c r="O77">
-        <v>3.25</v>
-      </c>
       <c r="P77">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="Q77">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R77">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S77">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T77">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U77">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V77">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W77">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X77">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC77">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7386,7 +7386,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6893125</v>
+        <v>6893124</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7398,76 +7398,76 @@
         <v>45234.625</v>
       </c>
       <c r="F78" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H78">
         <v>1</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K78">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="L78">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M78">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="N78">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="O78">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P78">
+        <v>2.9</v>
+      </c>
+      <c r="Q78">
+        <v>-0.25</v>
+      </c>
+      <c r="R78">
+        <v>1.95</v>
+      </c>
+      <c r="S78">
+        <v>1.85</v>
+      </c>
+      <c r="T78">
         <v>2.5</v>
       </c>
-      <c r="Q78">
-        <v>0</v>
-      </c>
-      <c r="R78">
+      <c r="U78">
         <v>1.9</v>
       </c>
-      <c r="S78">
+      <c r="V78">
         <v>1.9</v>
       </c>
-      <c r="T78">
-        <v>2.25</v>
-      </c>
-      <c r="U78">
-        <v>1.875</v>
-      </c>
-      <c r="V78">
-        <v>1.925</v>
-      </c>
       <c r="W78">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X78">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y78">
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA78">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB78">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC78">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -10323,7 +10323,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7559095</v>
+        <v>6893133</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10335,73 +10335,73 @@
         <v>45269.33333333334</v>
       </c>
       <c r="F111" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G111" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H111">
         <v>2</v>
       </c>
       <c r="I111">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K111">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="L111">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M111">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="N111">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O111">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P111">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="Q111">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R111">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S111">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T111">
         <v>2.25</v>
       </c>
       <c r="U111">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="V111">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W111">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA111">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB111">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AC111">
         <v>-1</v>
@@ -10412,7 +10412,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6893133</v>
+        <v>7559095</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10424,73 +10424,73 @@
         <v>45269.33333333334</v>
       </c>
       <c r="F112" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G112" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H112">
         <v>2</v>
       </c>
       <c r="I112">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J112" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K112">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="L112">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M112">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="N112">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="O112">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P112">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="Q112">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R112">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S112">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T112">
         <v>2.25</v>
       </c>
       <c r="U112">
+        <v>1.775</v>
+      </c>
+      <c r="V112">
         <v>2.025</v>
       </c>
-      <c r="V112">
-        <v>1.825</v>
-      </c>
       <c r="W112">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z112">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA112">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB112">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC112">
         <v>-1</v>
@@ -12192,7 +12192,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6893140</v>
+        <v>6893139</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12204,55 +12204,55 @@
         <v>45290.33333333334</v>
       </c>
       <c r="F132" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G132" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J132" t="s">
         <v>48</v>
       </c>
       <c r="K132">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="L132">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M132">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="N132">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="O132">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P132">
-        <v>3.25</v>
+        <v>2.45</v>
       </c>
       <c r="Q132">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R132">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S132">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T132">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U132">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V132">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W132">
         <v>-1</v>
@@ -12261,16 +12261,16 @@
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>2.25</v>
+        <v>1.45</v>
       </c>
       <c r="Z132">
         <v>-1</v>
       </c>
       <c r="AA132">
-        <v>1.025</v>
+        <v>0.75</v>
       </c>
       <c r="AB132">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC132">
         <v>-1</v>
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6893139</v>
+        <v>6893140</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,55 +12293,55 @@
         <v>45290.33333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G133" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J133" t="s">
         <v>48</v>
       </c>
       <c r="K133">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="L133">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M133">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="N133">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="O133">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P133">
-        <v>2.45</v>
+        <v>3.25</v>
       </c>
       <c r="Q133">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R133">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S133">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U133">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V133">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W133">
         <v>-1</v>
@@ -12350,16 +12350,16 @@
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>1.45</v>
+        <v>2.25</v>
       </c>
       <c r="Z133">
         <v>-1</v>
       </c>
       <c r="AA133">
-        <v>0.75</v>
+        <v>1.025</v>
       </c>
       <c r="AB133">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC133">
         <v>-1</v>
@@ -12904,7 +12904,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6893589</v>
+        <v>6893143</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12916,76 +12916,76 @@
         <v>45297.52083333334</v>
       </c>
       <c r="F140" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G140" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140">
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K140">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="L140">
         <v>3.5</v>
       </c>
       <c r="M140">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="N140">
-        <v>1.571</v>
+        <v>1.6</v>
       </c>
       <c r="O140">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P140">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q140">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R140">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S140">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T140">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U140">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V140">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W140">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z140">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB140">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC140">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12993,7 +12993,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6893143</v>
+        <v>6893589</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13005,76 +13005,76 @@
         <v>45297.52083333334</v>
       </c>
       <c r="F141" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G141" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141">
         <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K141">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L141">
         <v>3.5</v>
       </c>
       <c r="M141">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="N141">
-        <v>1.6</v>
+        <v>1.571</v>
       </c>
       <c r="O141">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P141">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q141">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R141">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S141">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T141">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U141">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V141">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W141">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA141">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB141">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC141">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -18884,6 +18884,15 @@
       <c r="G207" t="s">
         <v>32</v>
       </c>
+      <c r="H207">
+        <v>2</v>
+      </c>
+      <c r="I207">
+        <v>0</v>
+      </c>
+      <c r="J207" t="s">
+        <v>49</v>
+      </c>
       <c r="K207">
         <v>2</v>
       </c>
@@ -18900,40 +18909,46 @@
         <v>3.3</v>
       </c>
       <c r="P207">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q207">
         <v>-0.5</v>
       </c>
       <c r="R207">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S207">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T207">
         <v>2.25</v>
       </c>
       <c r="U207">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V207">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W207">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="X207">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y207">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA207">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB207">
+        <v>-0.5</v>
+      </c>
+      <c r="AC207">
+        <v>0.5125</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18958,6 +18973,15 @@
       <c r="G208" t="s">
         <v>30</v>
       </c>
+      <c r="H208">
+        <v>1</v>
+      </c>
+      <c r="I208">
+        <v>1</v>
+      </c>
+      <c r="J208" t="s">
+        <v>47</v>
+      </c>
       <c r="K208">
         <v>2.8</v>
       </c>
@@ -18968,13 +18992,13 @@
         <v>2.3</v>
       </c>
       <c r="N208">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="O208">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P208">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q208">
         <v>0</v>
@@ -18983,30 +19007,702 @@
         <v>2.025</v>
       </c>
       <c r="S208">
+        <v>1.775</v>
+      </c>
+      <c r="T208">
+        <v>2.25</v>
+      </c>
+      <c r="U208">
+        <v>1.875</v>
+      </c>
+      <c r="V208">
+        <v>1.925</v>
+      </c>
+      <c r="W208">
+        <v>-1</v>
+      </c>
+      <c r="X208">
+        <v>2.1</v>
+      </c>
+      <c r="Y208">
+        <v>-1</v>
+      </c>
+      <c r="Z208">
+        <v>0</v>
+      </c>
+      <c r="AA208">
+        <v>-0</v>
+      </c>
+      <c r="AB208">
+        <v>-0.5</v>
+      </c>
+      <c r="AC208">
+        <v>0.4625</v>
+      </c>
+    </row>
+    <row r="209" spans="1:27">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209">
+        <v>6899166</v>
+      </c>
+      <c r="C209" t="s">
+        <v>28</v>
+      </c>
+      <c r="D209" t="s">
+        <v>28</v>
+      </c>
+      <c r="E209" s="2">
+        <v>45353.33333333334</v>
+      </c>
+      <c r="F209" t="s">
+        <v>40</v>
+      </c>
+      <c r="G209" t="s">
+        <v>39</v>
+      </c>
+      <c r="K209">
+        <v>1.95</v>
+      </c>
+      <c r="L209">
+        <v>3.2</v>
+      </c>
+      <c r="M209">
+        <v>3.6</v>
+      </c>
+      <c r="N209">
+        <v>2</v>
+      </c>
+      <c r="O209">
+        <v>3.2</v>
+      </c>
+      <c r="P209">
+        <v>3.6</v>
+      </c>
+      <c r="Q209">
+        <v>-0.5</v>
+      </c>
+      <c r="R209">
+        <v>2.05</v>
+      </c>
+      <c r="S209">
+        <v>1.8</v>
+      </c>
+      <c r="T209">
+        <v>2.25</v>
+      </c>
+      <c r="U209">
+        <v>1.925</v>
+      </c>
+      <c r="V209">
+        <v>1.925</v>
+      </c>
+      <c r="W209">
+        <v>0</v>
+      </c>
+      <c r="X209">
+        <v>0</v>
+      </c>
+      <c r="Y209">
+        <v>0</v>
+      </c>
+      <c r="Z209">
+        <v>0</v>
+      </c>
+      <c r="AA209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:27">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210">
+        <v>6893606</v>
+      </c>
+      <c r="C210" t="s">
+        <v>28</v>
+      </c>
+      <c r="D210" t="s">
+        <v>28</v>
+      </c>
+      <c r="E210" s="2">
+        <v>45353.45833333334</v>
+      </c>
+      <c r="F210" t="s">
+        <v>44</v>
+      </c>
+      <c r="G210" t="s">
+        <v>35</v>
+      </c>
+      <c r="K210">
+        <v>2.375</v>
+      </c>
+      <c r="L210">
+        <v>3.2</v>
+      </c>
+      <c r="M210">
+        <v>2.8</v>
+      </c>
+      <c r="N210">
+        <v>2.6</v>
+      </c>
+      <c r="O210">
+        <v>3.2</v>
+      </c>
+      <c r="P210">
+        <v>2.55</v>
+      </c>
+      <c r="Q210">
+        <v>0</v>
+      </c>
+      <c r="R210">
+        <v>1.975</v>
+      </c>
+      <c r="S210">
+        <v>1.875</v>
+      </c>
+      <c r="T210">
+        <v>2.5</v>
+      </c>
+      <c r="U210">
+        <v>1.975</v>
+      </c>
+      <c r="V210">
+        <v>1.875</v>
+      </c>
+      <c r="W210">
+        <v>0</v>
+      </c>
+      <c r="X210">
+        <v>0</v>
+      </c>
+      <c r="Y210">
+        <v>0</v>
+      </c>
+      <c r="Z210">
+        <v>0</v>
+      </c>
+      <c r="AA210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:27">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211">
+        <v>6893172</v>
+      </c>
+      <c r="C211" t="s">
+        <v>28</v>
+      </c>
+      <c r="D211" t="s">
+        <v>28</v>
+      </c>
+      <c r="E211" s="2">
+        <v>45354.33333333334</v>
+      </c>
+      <c r="F211" t="s">
+        <v>36</v>
+      </c>
+      <c r="G211" t="s">
+        <v>30</v>
+      </c>
+      <c r="K211">
+        <v>2.75</v>
+      </c>
+      <c r="L211">
+        <v>3.25</v>
+      </c>
+      <c r="M211">
+        <v>2.25</v>
+      </c>
+      <c r="N211">
+        <v>3.5</v>
+      </c>
+      <c r="O211">
+        <v>3.4</v>
+      </c>
+      <c r="P211">
+        <v>1.909</v>
+      </c>
+      <c r="Q211">
+        <v>0.5</v>
+      </c>
+      <c r="R211">
+        <v>1.875</v>
+      </c>
+      <c r="S211">
+        <v>1.975</v>
+      </c>
+      <c r="T211">
+        <v>2.75</v>
+      </c>
+      <c r="U211">
+        <v>2.025</v>
+      </c>
+      <c r="V211">
         <v>1.825</v>
       </c>
-      <c r="T208">
+      <c r="W211">
+        <v>0</v>
+      </c>
+      <c r="X211">
+        <v>0</v>
+      </c>
+      <c r="Y211">
+        <v>0</v>
+      </c>
+      <c r="Z211">
+        <v>0</v>
+      </c>
+      <c r="AA211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:27">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212">
+        <v>6893605</v>
+      </c>
+      <c r="C212" t="s">
+        <v>28</v>
+      </c>
+      <c r="D212" t="s">
+        <v>28</v>
+      </c>
+      <c r="E212" s="2">
+        <v>45354.40625</v>
+      </c>
+      <c r="F212" t="s">
+        <v>45</v>
+      </c>
+      <c r="G212" t="s">
+        <v>33</v>
+      </c>
+      <c r="K212">
+        <v>2.3</v>
+      </c>
+      <c r="L212">
+        <v>3.1</v>
+      </c>
+      <c r="M212">
+        <v>2.875</v>
+      </c>
+      <c r="N212">
+        <v>2.3</v>
+      </c>
+      <c r="O212">
+        <v>3.1</v>
+      </c>
+      <c r="P212">
+        <v>2.875</v>
+      </c>
+      <c r="Q212">
+        <v>-0.25</v>
+      </c>
+      <c r="R212">
+        <v>2.1</v>
+      </c>
+      <c r="S212">
+        <v>1.775</v>
+      </c>
+      <c r="T212">
         <v>2.5</v>
       </c>
-      <c r="U208">
+      <c r="U212">
+        <v>2.05</v>
+      </c>
+      <c r="V212">
+        <v>1.8</v>
+      </c>
+      <c r="W212">
+        <v>0</v>
+      </c>
+      <c r="X212">
+        <v>0</v>
+      </c>
+      <c r="Y212">
+        <v>0</v>
+      </c>
+      <c r="Z212">
+        <v>0</v>
+      </c>
+      <c r="AA212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:27">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213">
+        <v>6899274</v>
+      </c>
+      <c r="C213" t="s">
+        <v>28</v>
+      </c>
+      <c r="D213" t="s">
+        <v>28</v>
+      </c>
+      <c r="E213" s="2">
+        <v>45354.45833333334</v>
+      </c>
+      <c r="F213" t="s">
+        <v>34</v>
+      </c>
+      <c r="G213" t="s">
+        <v>31</v>
+      </c>
+      <c r="K213">
+        <v>3.3</v>
+      </c>
+      <c r="L213">
+        <v>2.9</v>
+      </c>
+      <c r="M213">
+        <v>2.2</v>
+      </c>
+      <c r="N213">
+        <v>3.25</v>
+      </c>
+      <c r="O213">
+        <v>2.8</v>
+      </c>
+      <c r="P213">
+        <v>2.25</v>
+      </c>
+      <c r="Q213">
+        <v>0.25</v>
+      </c>
+      <c r="R213">
+        <v>1.825</v>
+      </c>
+      <c r="S213">
         <v>2.025</v>
       </c>
-      <c r="V208">
-        <v>1.825</v>
-      </c>
-      <c r="W208">
-        <v>0</v>
-      </c>
-      <c r="X208">
-        <v>0</v>
-      </c>
-      <c r="Y208">
-        <v>0</v>
-      </c>
-      <c r="Z208">
-        <v>0</v>
-      </c>
-      <c r="AA208">
+      <c r="T213">
+        <v>2.25</v>
+      </c>
+      <c r="U213">
+        <v>2.05</v>
+      </c>
+      <c r="V213">
+        <v>1.8</v>
+      </c>
+      <c r="W213">
+        <v>0</v>
+      </c>
+      <c r="X213">
+        <v>0</v>
+      </c>
+      <c r="Y213">
+        <v>0</v>
+      </c>
+      <c r="Z213">
+        <v>0</v>
+      </c>
+      <c r="AA213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:27">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214">
+        <v>6893173</v>
+      </c>
+      <c r="C214" t="s">
+        <v>28</v>
+      </c>
+      <c r="D214" t="s">
+        <v>28</v>
+      </c>
+      <c r="E214" s="2">
+        <v>45354.52083333334</v>
+      </c>
+      <c r="F214" t="s">
+        <v>46</v>
+      </c>
+      <c r="G214" t="s">
+        <v>41</v>
+      </c>
+      <c r="K214">
+        <v>3</v>
+      </c>
+      <c r="L214">
+        <v>2.875</v>
+      </c>
+      <c r="M214">
+        <v>2.4</v>
+      </c>
+      <c r="N214">
+        <v>2.8</v>
+      </c>
+      <c r="O214">
+        <v>2.8</v>
+      </c>
+      <c r="P214">
+        <v>2.55</v>
+      </c>
+      <c r="Q214">
+        <v>0</v>
+      </c>
+      <c r="R214">
+        <v>2.05</v>
+      </c>
+      <c r="S214">
+        <v>1.8</v>
+      </c>
+      <c r="T214">
+        <v>2</v>
+      </c>
+      <c r="U214">
+        <v>1.9</v>
+      </c>
+      <c r="V214">
+        <v>1.95</v>
+      </c>
+      <c r="W214">
+        <v>0</v>
+      </c>
+      <c r="X214">
+        <v>0</v>
+      </c>
+      <c r="Y214">
+        <v>0</v>
+      </c>
+      <c r="Z214">
+        <v>0</v>
+      </c>
+      <c r="AA214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:27">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <v>6893171</v>
+      </c>
+      <c r="C215" t="s">
+        <v>28</v>
+      </c>
+      <c r="D215" t="s">
+        <v>28</v>
+      </c>
+      <c r="E215" s="2">
+        <v>45355.625</v>
+      </c>
+      <c r="F215" t="s">
+        <v>32</v>
+      </c>
+      <c r="G215" t="s">
+        <v>37</v>
+      </c>
+      <c r="K215">
+        <v>2.875</v>
+      </c>
+      <c r="L215">
+        <v>2.8</v>
+      </c>
+      <c r="M215">
+        <v>2.55</v>
+      </c>
+      <c r="N215">
+        <v>3</v>
+      </c>
+      <c r="O215">
+        <v>2.8</v>
+      </c>
+      <c r="P215">
+        <v>2.4</v>
+      </c>
+      <c r="Q215">
+        <v>0.25</v>
+      </c>
+      <c r="R215">
+        <v>1.75</v>
+      </c>
+      <c r="S215">
+        <v>2.125</v>
+      </c>
+      <c r="T215">
+        <v>2</v>
+      </c>
+      <c r="U215">
+        <v>1.9</v>
+      </c>
+      <c r="V215">
+        <v>1.95</v>
+      </c>
+      <c r="W215">
+        <v>0</v>
+      </c>
+      <c r="X215">
+        <v>0</v>
+      </c>
+      <c r="Y215">
+        <v>0</v>
+      </c>
+      <c r="Z215">
+        <v>0</v>
+      </c>
+      <c r="AA215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:27">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216">
+        <v>6893170</v>
+      </c>
+      <c r="C216" t="s">
+        <v>28</v>
+      </c>
+      <c r="D216" t="s">
+        <v>28</v>
+      </c>
+      <c r="E216" s="2">
+        <v>45355.71875</v>
+      </c>
+      <c r="F216" t="s">
+        <v>42</v>
+      </c>
+      <c r="G216" t="s">
+        <v>29</v>
+      </c>
+      <c r="K216">
+        <v>3.6</v>
+      </c>
+      <c r="L216">
+        <v>3.3</v>
+      </c>
+      <c r="M216">
+        <v>1.909</v>
+      </c>
+      <c r="N216">
+        <v>3.6</v>
+      </c>
+      <c r="O216">
+        <v>3.3</v>
+      </c>
+      <c r="P216">
+        <v>1.909</v>
+      </c>
+      <c r="Q216">
+        <v>0.5</v>
+      </c>
+      <c r="R216">
+        <v>1.85</v>
+      </c>
+      <c r="S216">
+        <v>2</v>
+      </c>
+      <c r="T216">
+        <v>2.5</v>
+      </c>
+      <c r="U216">
+        <v>2.05</v>
+      </c>
+      <c r="V216">
+        <v>1.8</v>
+      </c>
+      <c r="W216">
+        <v>0</v>
+      </c>
+      <c r="X216">
+        <v>0</v>
+      </c>
+      <c r="Y216">
+        <v>0</v>
+      </c>
+      <c r="Z216">
+        <v>0</v>
+      </c>
+      <c r="AA216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:27">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217">
+        <v>6899167</v>
+      </c>
+      <c r="C217" t="s">
+        <v>28</v>
+      </c>
+      <c r="D217" t="s">
+        <v>28</v>
+      </c>
+      <c r="E217" s="2">
+        <v>45356.625</v>
+      </c>
+      <c r="F217" t="s">
+        <v>38</v>
+      </c>
+      <c r="G217" t="s">
+        <v>43</v>
+      </c>
+      <c r="K217">
+        <v>1.4</v>
+      </c>
+      <c r="L217">
+        <v>4.333</v>
+      </c>
+      <c r="M217">
+        <v>7</v>
+      </c>
+      <c r="N217">
+        <v>1.4</v>
+      </c>
+      <c r="O217">
+        <v>4.333</v>
+      </c>
+      <c r="P217">
+        <v>7</v>
+      </c>
+      <c r="Q217">
+        <v>-1.25</v>
+      </c>
+      <c r="R217">
+        <v>1.9</v>
+      </c>
+      <c r="S217">
+        <v>1.95</v>
+      </c>
+      <c r="T217">
+        <v>2.5</v>
+      </c>
+      <c r="U217">
+        <v>1.875</v>
+      </c>
+      <c r="V217">
+        <v>1.975</v>
+      </c>
+      <c r="W217">
+        <v>0</v>
+      </c>
+      <c r="X217">
+        <v>0</v>
+      </c>
+      <c r="Y217">
+        <v>0</v>
+      </c>
+      <c r="Z217">
+        <v>0</v>
+      </c>
+      <c r="AA217">
         <v>0</v>
       </c>
     </row>

--- a/Portugal Segunda Liga/Portugal Segunda Liga.xlsx
+++ b/Portugal Segunda Liga/Portugal Segunda Liga.xlsx
@@ -2491,7 +2491,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6899210</v>
+        <v>6893102</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2503,13 +2503,13 @@
         <v>45165.29166666666</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G23" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -2518,31 +2518,31 @@
         <v>49</v>
       </c>
       <c r="K23">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L23">
         <v>3.25</v>
       </c>
       <c r="M23">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N23">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="O23">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P23">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R23">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S23">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T23">
         <v>2.5</v>
@@ -2551,10 +2551,10 @@
         <v>2.025</v>
       </c>
       <c r="V23">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W23">
-        <v>1.45</v>
+        <v>1.25</v>
       </c>
       <c r="X23">
         <v>-1</v>
@@ -2563,7 +2563,7 @@
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AA23">
         <v>-1</v>
@@ -2580,7 +2580,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6893102</v>
+        <v>6899210</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2592,13 +2592,13 @@
         <v>45165.29166666666</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G24" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -2607,31 +2607,31 @@
         <v>49</v>
       </c>
       <c r="K24">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L24">
         <v>3.25</v>
       </c>
       <c r="M24">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N24">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="O24">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P24">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q24">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S24">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T24">
         <v>2.5</v>
@@ -2640,10 +2640,10 @@
         <v>2.025</v>
       </c>
       <c r="V24">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W24">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="X24">
         <v>-1</v>
@@ -2652,7 +2652,7 @@
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA24">
         <v>-1</v>
@@ -5784,7 +5784,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6893569</v>
+        <v>6899203</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5796,46 +5796,46 @@
         <v>45207.29166666666</v>
       </c>
       <c r="F60" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G60" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K60">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L60">
         <v>3.3</v>
       </c>
       <c r="M60">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="N60">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="O60">
         <v>3.3</v>
       </c>
       <c r="P60">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="Q60">
         <v>0</v>
       </c>
       <c r="R60">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S60">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T60">
         <v>2.5</v>
@@ -5847,19 +5847,19 @@
         <v>1.85</v>
       </c>
       <c r="W60">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X60">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y60">
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA60">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
         <v>0.95</v>
@@ -5873,7 +5873,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6899203</v>
+        <v>6893569</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5885,46 +5885,46 @@
         <v>45207.29166666666</v>
       </c>
       <c r="F61" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G61" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K61">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L61">
         <v>3.3</v>
       </c>
       <c r="M61">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="N61">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="O61">
         <v>3.3</v>
       </c>
       <c r="P61">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q61">
         <v>0</v>
       </c>
       <c r="R61">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S61">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T61">
         <v>2.5</v>
@@ -5936,19 +5936,19 @@
         <v>1.85</v>
       </c>
       <c r="W61">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X61">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA61">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB61">
         <v>0.95</v>
@@ -7297,7 +7297,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6893125</v>
+        <v>6893124</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7309,76 +7309,76 @@
         <v>45234.625</v>
       </c>
       <c r="F77" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G77" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H77">
         <v>1</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K77">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="L77">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M77">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="N77">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="O77">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P77">
+        <v>2.9</v>
+      </c>
+      <c r="Q77">
+        <v>-0.25</v>
+      </c>
+      <c r="R77">
+        <v>1.95</v>
+      </c>
+      <c r="S77">
+        <v>1.85</v>
+      </c>
+      <c r="T77">
         <v>2.5</v>
       </c>
-      <c r="Q77">
-        <v>0</v>
-      </c>
-      <c r="R77">
+      <c r="U77">
         <v>1.9</v>
       </c>
-      <c r="S77">
+      <c r="V77">
         <v>1.9</v>
       </c>
-      <c r="T77">
-        <v>2.25</v>
-      </c>
-      <c r="U77">
-        <v>1.875</v>
-      </c>
-      <c r="V77">
-        <v>1.925</v>
-      </c>
       <c r="W77">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X77">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA77">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC77">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7386,7 +7386,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6893124</v>
+        <v>6893125</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7398,76 +7398,76 @@
         <v>45234.625</v>
       </c>
       <c r="F78" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G78" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H78">
         <v>1</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K78">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="L78">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M78">
+        <v>2.3</v>
+      </c>
+      <c r="N78">
+        <v>2.6</v>
+      </c>
+      <c r="O78">
         <v>3</v>
       </c>
-      <c r="N78">
-        <v>2.15</v>
-      </c>
-      <c r="O78">
-        <v>3.25</v>
-      </c>
       <c r="P78">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="Q78">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R78">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S78">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T78">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U78">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V78">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W78">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X78">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y78">
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA78">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC78">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -8276,7 +8276,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6893576</v>
+        <v>6893577</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8288,49 +8288,49 @@
         <v>45242.33333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G88" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K88">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="L88">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M88">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="N88">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="O88">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P88">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="Q88">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R88">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S88">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T88">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U88">
         <v>1.95</v>
@@ -8342,22 +8342,22 @@
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z88">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC88">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8365,7 +8365,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6893577</v>
+        <v>6893576</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8377,49 +8377,49 @@
         <v>45242.33333333334</v>
       </c>
       <c r="F89" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G89" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K89">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="L89">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M89">
+        <v>3</v>
+      </c>
+      <c r="N89">
         <v>2.375</v>
       </c>
-      <c r="N89">
-        <v>3.4</v>
-      </c>
       <c r="O89">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P89">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="Q89">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R89">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S89">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T89">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U89">
         <v>1.95</v>
@@ -8431,22 +8431,22 @@
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y89">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA89">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB89">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6893141</v>
+        <v>6893587</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,76 +12382,76 @@
         <v>45290.45833333334</v>
       </c>
       <c r="F134" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G134" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I134">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J134" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K134">
-        <v>1.909</v>
+        <v>1.65</v>
       </c>
       <c r="L134">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M134">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N134">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="O134">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P134">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q134">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R134">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S134">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T134">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U134">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V134">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W134">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X134">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
+        <v>0.4375</v>
+      </c>
+      <c r="AA134">
         <v>-0.5</v>
       </c>
-      <c r="AA134">
-        <v>0.5125</v>
-      </c>
       <c r="AB134">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC134">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12459,7 +12459,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6893587</v>
+        <v>6893141</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12471,76 +12471,76 @@
         <v>45290.45833333334</v>
       </c>
       <c r="F135" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G135" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J135" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K135">
-        <v>1.65</v>
+        <v>1.909</v>
       </c>
       <c r="L135">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M135">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N135">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="O135">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P135">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q135">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R135">
+        <v>1.825</v>
+      </c>
+      <c r="S135">
+        <v>2.025</v>
+      </c>
+      <c r="T135">
+        <v>2.25</v>
+      </c>
+      <c r="U135">
+        <v>1.975</v>
+      </c>
+      <c r="V135">
         <v>1.875</v>
       </c>
-      <c r="S135">
-        <v>1.925</v>
-      </c>
-      <c r="T135">
-        <v>2.5</v>
-      </c>
-      <c r="U135">
-        <v>1.85</v>
-      </c>
-      <c r="V135">
-        <v>1.95</v>
-      </c>
       <c r="W135">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>0.4375</v>
+        <v>-0.5</v>
       </c>
       <c r="AA135">
-        <v>-0.5</v>
+        <v>0.5125</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC135">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -13883,7 +13883,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6899180</v>
+        <v>6893591</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13895,76 +13895,76 @@
         <v>45305.52083333334</v>
       </c>
       <c r="F151" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G151" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J151" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K151">
-        <v>1.833</v>
+        <v>1.75</v>
       </c>
       <c r="L151">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M151">
         <v>4.333</v>
       </c>
       <c r="N151">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="O151">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P151">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q151">
         <v>-0.5</v>
       </c>
       <c r="R151">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S151">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T151">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U151">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V151">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="W151">
         <v>-1</v>
       </c>
       <c r="X151">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y151">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z151">
         <v>-1</v>
       </c>
       <c r="AA151">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB151">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AC151">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13972,7 +13972,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6893591</v>
+        <v>6899180</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13984,76 +13984,76 @@
         <v>45305.52083333334</v>
       </c>
       <c r="F152" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G152" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I152">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J152" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K152">
-        <v>1.75</v>
+        <v>1.833</v>
       </c>
       <c r="L152">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M152">
         <v>4.333</v>
       </c>
       <c r="N152">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="O152">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P152">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q152">
         <v>-0.5</v>
       </c>
       <c r="R152">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S152">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T152">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U152">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V152">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="W152">
         <v>-1</v>
       </c>
       <c r="X152">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y152">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z152">
         <v>-1</v>
       </c>
       <c r="AA152">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB152">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AC152">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -15307,7 +15307,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6893595</v>
+        <v>6893154</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15319,40 +15319,40 @@
         <v>45319.52083333334</v>
       </c>
       <c r="F167" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G167" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H167">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J167" t="s">
         <v>49</v>
       </c>
       <c r="K167">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="L167">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M167">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="N167">
-        <v>1.65</v>
+        <v>1.833</v>
       </c>
       <c r="O167">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P167">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q167">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R167">
         <v>1.85</v>
@@ -15361,16 +15361,16 @@
         <v>1.95</v>
       </c>
       <c r="T167">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U167">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V167">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W167">
-        <v>0.6499999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15385,10 +15385,10 @@
         <v>-1</v>
       </c>
       <c r="AB167">
-        <v>0.475</v>
+        <v>0.8</v>
       </c>
       <c r="AC167">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15396,7 +15396,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6893154</v>
+        <v>6893595</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15408,40 +15408,40 @@
         <v>45319.52083333334</v>
       </c>
       <c r="F168" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G168" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J168" t="s">
         <v>49</v>
       </c>
       <c r="K168">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="L168">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M168">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="N168">
-        <v>1.833</v>
+        <v>1.65</v>
       </c>
       <c r="O168">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P168">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q168">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R168">
         <v>1.85</v>
@@ -15450,16 +15450,16 @@
         <v>1.95</v>
       </c>
       <c r="T168">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U168">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V168">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W168">
-        <v>0.833</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X168">
         <v>-1</v>
@@ -15474,10 +15474,10 @@
         <v>-1</v>
       </c>
       <c r="AB168">
-        <v>0.8</v>
+        <v>0.475</v>
       </c>
       <c r="AC168">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -16998,7 +16998,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6893598</v>
+        <v>6893600</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17010,76 +17010,76 @@
         <v>45333.52083333334</v>
       </c>
       <c r="F186" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G186" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J186" t="s">
         <v>47</v>
       </c>
       <c r="K186">
+        <v>3.8</v>
+      </c>
+      <c r="L186">
+        <v>3.3</v>
+      </c>
+      <c r="M186">
+        <v>1.95</v>
+      </c>
+      <c r="N186">
+        <v>3.5</v>
+      </c>
+      <c r="O186">
+        <v>3.3</v>
+      </c>
+      <c r="P186">
         <v>2.05</v>
       </c>
-      <c r="L186">
-        <v>3.4</v>
-      </c>
-      <c r="M186">
-        <v>3.4</v>
-      </c>
-      <c r="N186">
-        <v>1.909</v>
-      </c>
-      <c r="O186">
-        <v>3.5</v>
-      </c>
-      <c r="P186">
-        <v>3.75</v>
-      </c>
       <c r="Q186">
+        <v>0.25</v>
+      </c>
+      <c r="R186">
+        <v>2.05</v>
+      </c>
+      <c r="S186">
+        <v>1.8</v>
+      </c>
+      <c r="T186">
+        <v>2.25</v>
+      </c>
+      <c r="U186">
+        <v>1.95</v>
+      </c>
+      <c r="V186">
+        <v>1.9</v>
+      </c>
+      <c r="W186">
+        <v>-1</v>
+      </c>
+      <c r="X186">
+        <v>2.3</v>
+      </c>
+      <c r="Y186">
+        <v>-1</v>
+      </c>
+      <c r="Z186">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="AA186">
         <v>-0.5</v>
       </c>
-      <c r="R186">
-        <v>1.9</v>
-      </c>
-      <c r="S186">
-        <v>1.9</v>
-      </c>
-      <c r="T186">
-        <v>2.5</v>
-      </c>
-      <c r="U186">
-        <v>1.85</v>
-      </c>
-      <c r="V186">
-        <v>1.95</v>
-      </c>
-      <c r="W186">
-        <v>-1</v>
-      </c>
-      <c r="X186">
-        <v>2.5</v>
-      </c>
-      <c r="Y186">
-        <v>-1</v>
-      </c>
-      <c r="Z186">
-        <v>-1</v>
-      </c>
-      <c r="AA186">
+      <c r="AB186">
+        <v>-1</v>
+      </c>
+      <c r="AC186">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB186">
-        <v>-1</v>
-      </c>
-      <c r="AC186">
-        <v>0.95</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17087,7 +17087,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6893600</v>
+        <v>6893598</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17099,76 +17099,76 @@
         <v>45333.52083333334</v>
       </c>
       <c r="F187" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G187" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J187" t="s">
         <v>47</v>
       </c>
       <c r="K187">
-        <v>3.8</v>
+        <v>2.05</v>
       </c>
       <c r="L187">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M187">
+        <v>3.4</v>
+      </c>
+      <c r="N187">
+        <v>1.909</v>
+      </c>
+      <c r="O187">
+        <v>3.5</v>
+      </c>
+      <c r="P187">
+        <v>3.75</v>
+      </c>
+      <c r="Q187">
+        <v>-0.5</v>
+      </c>
+      <c r="R187">
+        <v>1.9</v>
+      </c>
+      <c r="S187">
+        <v>1.9</v>
+      </c>
+      <c r="T187">
+        <v>2.5</v>
+      </c>
+      <c r="U187">
+        <v>1.85</v>
+      </c>
+      <c r="V187">
         <v>1.95</v>
       </c>
-      <c r="N187">
-        <v>3.5</v>
-      </c>
-      <c r="O187">
-        <v>3.3</v>
-      </c>
-      <c r="P187">
-        <v>2.05</v>
-      </c>
-      <c r="Q187">
-        <v>0.25</v>
-      </c>
-      <c r="R187">
-        <v>2.05</v>
-      </c>
-      <c r="S187">
-        <v>1.8</v>
-      </c>
-      <c r="T187">
-        <v>2.25</v>
-      </c>
-      <c r="U187">
-        <v>1.95</v>
-      </c>
-      <c r="V187">
-        <v>1.9</v>
-      </c>
       <c r="W187">
         <v>-1</v>
       </c>
       <c r="X187">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Y187">
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA187">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB187">
         <v>-1</v>
       </c>
       <c r="AC187">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -19072,7 +19072,7 @@
         <v>3.6</v>
       </c>
       <c r="N209">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O209">
         <v>3.2</v>
@@ -19084,10 +19084,10 @@
         <v>-0.5</v>
       </c>
       <c r="R209">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S209">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T209">
         <v>2.25</v>
@@ -19149,10 +19149,10 @@
         <v>2.6</v>
       </c>
       <c r="O210">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P210">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="Q210">
         <v>0</v>
@@ -19167,10 +19167,10 @@
         <v>2.5</v>
       </c>
       <c r="U210">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V210">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W210">
         <v>0</v>
@@ -19241,10 +19241,10 @@
         <v>2.75</v>
       </c>
       <c r="U211">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V211">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W211">
         <v>0</v>
@@ -19294,22 +19294,22 @@
         <v>2.875</v>
       </c>
       <c r="N212">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O212">
         <v>3.1</v>
       </c>
       <c r="P212">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="Q212">
         <v>-0.25</v>
       </c>
       <c r="R212">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="S212">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T212">
         <v>2.5</v>
@@ -19368,31 +19368,31 @@
         <v>2.2</v>
       </c>
       <c r="N213">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="O213">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="P213">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q213">
         <v>0.25</v>
       </c>
       <c r="R213">
+        <v>2.025</v>
+      </c>
+      <c r="S213">
         <v>1.825</v>
-      </c>
-      <c r="S213">
-        <v>2.025</v>
       </c>
       <c r="T213">
         <v>2.25</v>
       </c>
       <c r="U213">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V213">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W213">
         <v>0</v>
@@ -19454,10 +19454,10 @@
         <v>0</v>
       </c>
       <c r="R214">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S214">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T214">
         <v>2</v>
@@ -19537,10 +19537,10 @@
         <v>2</v>
       </c>
       <c r="U215">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V215">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W215">
         <v>0</v>

--- a/Portugal Segunda Liga/Portugal Segunda Liga.xlsx
+++ b/Portugal Segunda Liga/Portugal Segunda Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -112,10 +112,10 @@
     <t>AVS</t>
   </si>
   <si>
-    <t>Academico Viseu</t>
+    <t>FC Porto B</t>
   </si>
   <si>
-    <t>FC Porto B</t>
+    <t>Academico Viseu</t>
   </si>
   <si>
     <t>Penafiel</t>
@@ -889,7 +889,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6893191</v>
+        <v>6893285</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -904,7 +904,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -916,61 +916,61 @@
         <v>47</v>
       </c>
       <c r="K5">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="L5">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M5">
         <v>3.6</v>
       </c>
       <c r="N5">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="O5">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P5">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q5">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R5">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S5">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T5">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U5">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V5">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA5">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC5">
-        <v>0.825</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -978,7 +978,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6893285</v>
+        <v>6893191</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -993,7 +993,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1005,61 +1005,61 @@
         <v>47</v>
       </c>
       <c r="K6">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="L6">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M6">
         <v>3.6</v>
       </c>
       <c r="N6">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="O6">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P6">
+        <v>4.2</v>
+      </c>
+      <c r="Q6">
+        <v>-0.75</v>
+      </c>
+      <c r="R6">
+        <v>1.95</v>
+      </c>
+      <c r="S6">
+        <v>1.85</v>
+      </c>
+      <c r="T6">
+        <v>2.5</v>
+      </c>
+      <c r="U6">
+        <v>1.975</v>
+      </c>
+      <c r="V6">
+        <v>1.825</v>
+      </c>
+      <c r="W6">
+        <v>-1</v>
+      </c>
+      <c r="X6">
         <v>2.75</v>
       </c>
-      <c r="Q6">
-        <v>-0.25</v>
-      </c>
-      <c r="R6">
-        <v>2</v>
-      </c>
-      <c r="S6">
-        <v>1.8</v>
-      </c>
-      <c r="T6">
-        <v>2.25</v>
-      </c>
-      <c r="U6">
-        <v>1.8</v>
-      </c>
-      <c r="V6">
-        <v>2</v>
-      </c>
-      <c r="W6">
-        <v>-1</v>
-      </c>
-      <c r="X6">
-        <v>2.3</v>
-      </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB6">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1705,7 +1705,7 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1883,7 +1883,7 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -2236,7 +2236,7 @@
         <v>45164.29166666666</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G20" t="s">
         <v>44</v>
@@ -2491,7 +2491,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6893102</v>
+        <v>6899210</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2503,13 +2503,13 @@
         <v>45165.29166666666</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G23" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -2518,31 +2518,31 @@
         <v>49</v>
       </c>
       <c r="K23">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L23">
         <v>3.25</v>
       </c>
       <c r="M23">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N23">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="O23">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P23">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q23">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R23">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S23">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T23">
         <v>2.5</v>
@@ -2551,10 +2551,10 @@
         <v>2.025</v>
       </c>
       <c r="V23">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W23">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="X23">
         <v>-1</v>
@@ -2563,7 +2563,7 @@
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA23">
         <v>-1</v>
@@ -2580,7 +2580,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6899210</v>
+        <v>6893102</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2592,13 +2592,13 @@
         <v>45165.29166666666</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -2607,31 +2607,31 @@
         <v>49</v>
       </c>
       <c r="K24">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L24">
         <v>3.25</v>
       </c>
       <c r="M24">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N24">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="O24">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P24">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R24">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S24">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T24">
         <v>2.5</v>
@@ -2640,10 +2640,10 @@
         <v>2.025</v>
       </c>
       <c r="V24">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W24">
-        <v>1.45</v>
+        <v>1.25</v>
       </c>
       <c r="X24">
         <v>-1</v>
@@ -2652,7 +2652,7 @@
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AA24">
         <v>-1</v>
@@ -3129,7 +3129,7 @@
         <v>39</v>
       </c>
       <c r="G30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H30">
         <v>2</v>
@@ -3292,7 +3292,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6893107</v>
+        <v>7140182</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3304,76 +3304,76 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K32">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="L32">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M32">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="N32">
+        <v>2.3</v>
+      </c>
+      <c r="O32">
         <v>2.9</v>
       </c>
-      <c r="O32">
-        <v>3.5</v>
-      </c>
       <c r="P32">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q32">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R32">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S32">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T32">
         <v>2.25</v>
       </c>
       <c r="U32">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V32">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W32">
         <v>-1</v>
       </c>
       <c r="X32">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z32">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC32">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3381,7 +3381,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>7140182</v>
+        <v>6893107</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3393,76 +3393,76 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F33" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G33" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K33">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="L33">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M33">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="N33">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="O33">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="P33">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q33">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R33">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S33">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T33">
         <v>2.25</v>
       </c>
       <c r="U33">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V33">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W33">
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y33">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA33">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB33">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC33">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3915,7 +3915,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6899293</v>
+        <v>6899208</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3927,76 +3927,76 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K39">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="L39">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M39">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="N39">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="O39">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P39">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q39">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R39">
         <v>2.05</v>
       </c>
       <c r="S39">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T39">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U39">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V39">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W39">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z39">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC39">
-        <v>0.8500000000000001</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4004,7 +4004,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6899208</v>
+        <v>6899293</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4016,76 +4016,76 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F40" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G40" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K40">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="L40">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M40">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="N40">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="O40">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P40">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="Q40">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R40">
         <v>2.05</v>
       </c>
       <c r="S40">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T40">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U40">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V40">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA40">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC40">
-        <v>0.5125</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4375,7 +4375,7 @@
         <v>36</v>
       </c>
       <c r="G44" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H44">
         <v>2</v>
@@ -4906,7 +4906,7 @@
         <v>45200.29166666666</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G50" t="s">
         <v>31</v>
@@ -4998,7 +4998,7 @@
         <v>46</v>
       </c>
       <c r="G51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5443,7 +5443,7 @@
         <v>37</v>
       </c>
       <c r="G56" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -5784,7 +5784,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6899203</v>
+        <v>6893569</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5796,46 +5796,46 @@
         <v>45207.29166666666</v>
       </c>
       <c r="F60" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G60" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K60">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L60">
         <v>3.3</v>
       </c>
       <c r="M60">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="N60">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="O60">
         <v>3.3</v>
       </c>
       <c r="P60">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q60">
         <v>0</v>
       </c>
       <c r="R60">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S60">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T60">
         <v>2.5</v>
@@ -5847,19 +5847,19 @@
         <v>1.85</v>
       </c>
       <c r="W60">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X60">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y60">
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA60">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB60">
         <v>0.95</v>
@@ -5873,7 +5873,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6893569</v>
+        <v>6899203</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5885,46 +5885,46 @@
         <v>45207.29166666666</v>
       </c>
       <c r="F61" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G61" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K61">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L61">
         <v>3.3</v>
       </c>
       <c r="M61">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="N61">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="O61">
         <v>3.3</v>
       </c>
       <c r="P61">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="Q61">
         <v>0</v>
       </c>
       <c r="R61">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S61">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T61">
         <v>2.5</v>
@@ -5936,19 +5936,19 @@
         <v>1.85</v>
       </c>
       <c r="W61">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X61">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA61">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB61">
         <v>0.95</v>
@@ -6597,7 +6597,7 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G69" t="s">
         <v>30</v>
@@ -6956,7 +6956,7 @@
         <v>42</v>
       </c>
       <c r="G73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7131,7 +7131,7 @@
         <v>45234.33333333334</v>
       </c>
       <c r="F75" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G75" t="s">
         <v>44</v>
@@ -7757,7 +7757,7 @@
         <v>29</v>
       </c>
       <c r="G82" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -8024,7 +8024,7 @@
         <v>34</v>
       </c>
       <c r="G85" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H85">
         <v>3</v>
@@ -8555,7 +8555,7 @@
         <v>45242.625</v>
       </c>
       <c r="F91" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G91" t="s">
         <v>35</v>
@@ -9267,10 +9267,10 @@
         <v>45255.33333333334</v>
       </c>
       <c r="F99" t="s">
+        <v>32</v>
+      </c>
+      <c r="G99" t="s">
         <v>33</v>
-      </c>
-      <c r="G99" t="s">
-        <v>32</v>
       </c>
       <c r="H99">
         <v>3</v>
@@ -9534,7 +9534,7 @@
         <v>45261.625</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G102" t="s">
         <v>43</v>
@@ -9626,7 +9626,7 @@
         <v>36</v>
       </c>
       <c r="G103" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -10424,7 +10424,7 @@
         <v>45269.33333333334</v>
       </c>
       <c r="F112" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G112" t="s">
         <v>31</v>
@@ -10783,7 +10783,7 @@
         <v>39</v>
       </c>
       <c r="G116" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -11047,7 +11047,7 @@
         <v>45276.33333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G119" t="s">
         <v>45</v>
@@ -11495,7 +11495,7 @@
         <v>37</v>
       </c>
       <c r="G124" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -12207,7 +12207,7 @@
         <v>46</v>
       </c>
       <c r="G132" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H132">
         <v>1</v>
@@ -12293,7 +12293,7 @@
         <v>45290.33333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G133" t="s">
         <v>30</v>
@@ -13082,7 +13082,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6899181</v>
+        <v>6893145</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13094,76 +13094,76 @@
         <v>45297.625</v>
       </c>
       <c r="F142" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G142" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H142">
         <v>1</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K142">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="L142">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M142">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="N142">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O142">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P142">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q142">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R142">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S142">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T142">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U142">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V142">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W142">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X142">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB142">
         <v>-1</v>
       </c>
       <c r="AC142">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13171,7 +13171,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6893145</v>
+        <v>6899181</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13183,76 +13183,76 @@
         <v>45297.625</v>
       </c>
       <c r="F143" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G143" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H143">
         <v>1</v>
       </c>
       <c r="I143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K143">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="L143">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M143">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N143">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O143">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P143">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q143">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R143">
+        <v>2.025</v>
+      </c>
+      <c r="S143">
+        <v>1.775</v>
+      </c>
+      <c r="T143">
+        <v>2.25</v>
+      </c>
+      <c r="U143">
+        <v>1.975</v>
+      </c>
+      <c r="V143">
         <v>1.825</v>
       </c>
-      <c r="S143">
-        <v>1.975</v>
-      </c>
-      <c r="T143">
-        <v>2.5</v>
-      </c>
-      <c r="U143">
-        <v>1.875</v>
-      </c>
-      <c r="V143">
-        <v>1.925</v>
-      </c>
       <c r="W143">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X143">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y143">
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA143">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
         <v>-1</v>
       </c>
       <c r="AC143">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13364,7 +13364,7 @@
         <v>29</v>
       </c>
       <c r="G145" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H145">
         <v>3</v>
@@ -13895,7 +13895,7 @@
         <v>45305.52083333334</v>
       </c>
       <c r="F151" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G151" t="s">
         <v>35</v>
@@ -13987,7 +13987,7 @@
         <v>38</v>
       </c>
       <c r="G152" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -14343,7 +14343,7 @@
         <v>42</v>
       </c>
       <c r="G156" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -14699,7 +14699,7 @@
         <v>41</v>
       </c>
       <c r="G160" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H160">
         <v>0</v>
@@ -15307,7 +15307,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6893154</v>
+        <v>6893595</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15319,40 +15319,40 @@
         <v>45319.52083333334</v>
       </c>
       <c r="F167" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G167" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J167" t="s">
         <v>49</v>
       </c>
       <c r="K167">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="L167">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M167">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="N167">
-        <v>1.833</v>
+        <v>1.65</v>
       </c>
       <c r="O167">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P167">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q167">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R167">
         <v>1.85</v>
@@ -15361,16 +15361,16 @@
         <v>1.95</v>
       </c>
       <c r="T167">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U167">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V167">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W167">
-        <v>0.833</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15385,10 +15385,10 @@
         <v>-1</v>
       </c>
       <c r="AB167">
-        <v>0.8</v>
+        <v>0.475</v>
       </c>
       <c r="AC167">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15396,7 +15396,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6893595</v>
+        <v>6893154</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15408,40 +15408,40 @@
         <v>45319.52083333334</v>
       </c>
       <c r="F168" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G168" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H168">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J168" t="s">
         <v>49</v>
       </c>
       <c r="K168">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="L168">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M168">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="N168">
-        <v>1.65</v>
+        <v>1.833</v>
       </c>
       <c r="O168">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P168">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q168">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R168">
         <v>1.85</v>
@@ -15450,16 +15450,16 @@
         <v>1.95</v>
       </c>
       <c r="T168">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U168">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V168">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W168">
-        <v>0.6499999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X168">
         <v>-1</v>
@@ -15474,10 +15474,10 @@
         <v>-1</v>
       </c>
       <c r="AB168">
-        <v>0.475</v>
+        <v>0.8</v>
       </c>
       <c r="AC168">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15764,7 +15764,7 @@
         <v>45321.71875</v>
       </c>
       <c r="F172" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G172" t="s">
         <v>41</v>
@@ -16034,7 +16034,7 @@
         <v>40</v>
       </c>
       <c r="G175" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H175">
         <v>1</v>
@@ -16565,7 +16565,7 @@
         <v>45332.33333333334</v>
       </c>
       <c r="F181" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G181" t="s">
         <v>34</v>
@@ -17099,7 +17099,7 @@
         <v>45333.52083333334</v>
       </c>
       <c r="F187" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G187" t="s">
         <v>39</v>
@@ -17547,7 +17547,7 @@
         <v>38</v>
       </c>
       <c r="G192" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H192">
         <v>1</v>
@@ -17722,7 +17722,7 @@
         <v>45340.33333333334</v>
       </c>
       <c r="F194" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G194" t="s">
         <v>36</v>
@@ -18081,7 +18081,7 @@
         <v>44</v>
       </c>
       <c r="G198" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H198">
         <v>0</v>
@@ -18434,7 +18434,7 @@
         <v>45346.52083333334</v>
       </c>
       <c r="F202" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G202" t="s">
         <v>46</v>
@@ -18882,7 +18882,7 @@
         <v>31</v>
       </c>
       <c r="G207" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H207">
         <v>2</v>
@@ -19040,7 +19040,7 @@
         <v>0.4625</v>
       </c>
     </row>
-    <row r="209" spans="1:27">
+    <row r="209" spans="1:29">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -19062,6 +19062,15 @@
       <c r="G209" t="s">
         <v>39</v>
       </c>
+      <c r="H209">
+        <v>2</v>
+      </c>
+      <c r="I209">
+        <v>3</v>
+      </c>
+      <c r="J209" t="s">
+        <v>48</v>
+      </c>
       <c r="K209">
         <v>1.95</v>
       </c>
@@ -19072,19 +19081,19 @@
         <v>3.6</v>
       </c>
       <c r="N209">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="O209">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P209">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q209">
         <v>-0.5</v>
       </c>
       <c r="R209">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S209">
         <v>1.875</v>
@@ -19093,28 +19102,34 @@
         <v>2.25</v>
       </c>
       <c r="U209">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V209">
         <v>1.925</v>
       </c>
       <c r="W209">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X209">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y209">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="Z209">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:27">
+        <v>0.875</v>
+      </c>
+      <c r="AB209">
+        <v>0.875</v>
+      </c>
+      <c r="AC209">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:29">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -19136,6 +19151,15 @@
       <c r="G210" t="s">
         <v>35</v>
       </c>
+      <c r="H210">
+        <v>1</v>
+      </c>
+      <c r="I210">
+        <v>2</v>
+      </c>
+      <c r="J210" t="s">
+        <v>48</v>
+      </c>
       <c r="K210">
         <v>2.375</v>
       </c>
@@ -19158,10 +19182,10 @@
         <v>0</v>
       </c>
       <c r="R210">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S210">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T210">
         <v>2.5</v>
@@ -19170,25 +19194,31 @@
         <v>2</v>
       </c>
       <c r="V210">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W210">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X210">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y210">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="Z210">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA210">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:27">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB210">
+        <v>1</v>
+      </c>
+      <c r="AC210">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:29">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -19232,10 +19262,10 @@
         <v>0.5</v>
       </c>
       <c r="R211">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S211">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T211">
         <v>2.75</v>
@@ -19262,7 +19292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:27">
+    <row r="212" spans="1:29">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -19282,7 +19312,7 @@
         <v>45</v>
       </c>
       <c r="G212" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K212">
         <v>2.3</v>
@@ -19306,10 +19336,10 @@
         <v>-0.25</v>
       </c>
       <c r="R212">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S212">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T212">
         <v>2.5</v>
@@ -19336,7 +19366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:27">
+    <row r="213" spans="1:29">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -19368,31 +19398,31 @@
         <v>2.2</v>
       </c>
       <c r="N213">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O213">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="P213">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q213">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R213">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S213">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T213">
         <v>2.25</v>
       </c>
       <c r="U213">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V213">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W213">
         <v>0</v>
@@ -19410,7 +19440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:27">
+    <row r="214" spans="1:29">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -19484,7 +19514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:27">
+    <row r="215" spans="1:29">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -19501,7 +19531,7 @@
         <v>45355.625</v>
       </c>
       <c r="F215" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G215" t="s">
         <v>37</v>
@@ -19516,31 +19546,31 @@
         <v>2.55</v>
       </c>
       <c r="N215">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O215">
         <v>2.8</v>
       </c>
       <c r="P215">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="Q215">
         <v>0.25</v>
       </c>
       <c r="R215">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S215">
-        <v>2.125</v>
+        <v>2</v>
       </c>
       <c r="T215">
         <v>2</v>
       </c>
       <c r="U215">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V215">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W215">
         <v>0</v>
@@ -19558,7 +19588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:27">
+    <row r="216" spans="1:29">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -19590,22 +19620,22 @@
         <v>1.909</v>
       </c>
       <c r="N216">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O216">
         <v>3.3</v>
       </c>
       <c r="P216">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="Q216">
         <v>0.5</v>
       </c>
       <c r="R216">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S216">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T216">
         <v>2.5</v>
@@ -19632,7 +19662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:27">
+    <row r="217" spans="1:29">
       <c r="A217" s="1">
         <v>215</v>
       </c>

--- a/Portugal Segunda Liga/Portugal Segunda Liga.xlsx
+++ b/Portugal Segunda Liga/Portugal Segunda Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC217"/>
+  <dimension ref="A1:AC226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3292,7 +3292,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>7140182</v>
+        <v>6893107</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3304,76 +3304,76 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F32" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G32" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K32">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="L32">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M32">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="N32">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="O32">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="P32">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q32">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R32">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S32">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T32">
         <v>2.25</v>
       </c>
       <c r="U32">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V32">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W32">
         <v>-1</v>
       </c>
       <c r="X32">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y32">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA32">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB32">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3381,7 +3381,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6893107</v>
+        <v>7140182</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3393,76 +3393,76 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F33" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K33">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="L33">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M33">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="N33">
+        <v>2.3</v>
+      </c>
+      <c r="O33">
         <v>2.9</v>
       </c>
-      <c r="O33">
-        <v>3.5</v>
-      </c>
       <c r="P33">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q33">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R33">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S33">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T33">
         <v>2.25</v>
       </c>
       <c r="U33">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V33">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W33">
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z33">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB33">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC33">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3915,7 +3915,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6899208</v>
+        <v>6899293</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3927,76 +3927,76 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G39" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K39">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="L39">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M39">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="N39">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="O39">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P39">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="Q39">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R39">
         <v>2.05</v>
       </c>
       <c r="S39">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T39">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U39">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V39">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA39">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>0.5125</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4004,7 +4004,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6899293</v>
+        <v>6899208</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4016,76 +4016,76 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F40" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G40" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K40">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="L40">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M40">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="N40">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="O40">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P40">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q40">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R40">
         <v>2.05</v>
       </c>
       <c r="S40">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T40">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U40">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V40">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W40">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z40">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC40">
-        <v>0.8500000000000001</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -7030,7 +7030,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6893126</v>
+        <v>6893574</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7042,34 +7042,34 @@
         <v>45234.33333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K74">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L74">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M74">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="N74">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="O74">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P74">
         <v>3.8</v>
@@ -7078,40 +7078,40 @@
         <v>-0.5</v>
       </c>
       <c r="R74">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S74">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T74">
         <v>2.5</v>
       </c>
       <c r="U74">
+        <v>1.825</v>
+      </c>
+      <c r="V74">
         <v>1.975</v>
       </c>
-      <c r="V74">
-        <v>1.825</v>
-      </c>
       <c r="W74">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA74">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
         <v>-1</v>
       </c>
       <c r="AC74">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7119,7 +7119,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6893574</v>
+        <v>6893126</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7131,34 +7131,34 @@
         <v>45234.33333333334</v>
       </c>
       <c r="F75" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G75" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K75">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L75">
+        <v>3.4</v>
+      </c>
+      <c r="M75">
+        <v>3.8</v>
+      </c>
+      <c r="N75">
+        <v>1.8</v>
+      </c>
+      <c r="O75">
         <v>3.3</v>
-      </c>
-      <c r="M75">
-        <v>3.2</v>
-      </c>
-      <c r="N75">
-        <v>1.727</v>
-      </c>
-      <c r="O75">
-        <v>3.6</v>
       </c>
       <c r="P75">
         <v>3.8</v>
@@ -7167,40 +7167,40 @@
         <v>-0.5</v>
       </c>
       <c r="R75">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S75">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T75">
         <v>2.5</v>
       </c>
       <c r="U75">
+        <v>1.975</v>
+      </c>
+      <c r="V75">
         <v>1.825</v>
       </c>
-      <c r="V75">
-        <v>1.975</v>
-      </c>
       <c r="W75">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z75">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB75">
         <v>-1</v>
       </c>
       <c r="AC75">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -12904,7 +12904,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6893143</v>
+        <v>6893589</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12916,76 +12916,76 @@
         <v>45297.52083333334</v>
       </c>
       <c r="F140" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G140" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140">
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K140">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L140">
         <v>3.5</v>
       </c>
       <c r="M140">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="N140">
-        <v>1.6</v>
+        <v>1.571</v>
       </c>
       <c r="O140">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P140">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q140">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R140">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S140">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T140">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U140">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V140">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA140">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC140">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12993,7 +12993,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6893589</v>
+        <v>6893143</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13005,76 +13005,76 @@
         <v>45297.52083333334</v>
       </c>
       <c r="F141" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G141" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141">
         <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K141">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="L141">
         <v>3.5</v>
       </c>
       <c r="M141">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="N141">
-        <v>1.571</v>
+        <v>1.6</v>
       </c>
       <c r="O141">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P141">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q141">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R141">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S141">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T141">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U141">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V141">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W141">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z141">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB141">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13883,7 +13883,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6893591</v>
+        <v>6899180</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13895,76 +13895,76 @@
         <v>45305.52083333334</v>
       </c>
       <c r="F151" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G151" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I151">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K151">
-        <v>1.75</v>
+        <v>1.833</v>
       </c>
       <c r="L151">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M151">
         <v>4.333</v>
       </c>
       <c r="N151">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="O151">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P151">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q151">
         <v>-0.5</v>
       </c>
       <c r="R151">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S151">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T151">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U151">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V151">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="W151">
         <v>-1</v>
       </c>
       <c r="X151">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y151">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z151">
         <v>-1</v>
       </c>
       <c r="AA151">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB151">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AC151">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13972,7 +13972,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6899180</v>
+        <v>6893591</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13984,76 +13984,76 @@
         <v>45305.52083333334</v>
       </c>
       <c r="F152" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G152" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J152" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K152">
-        <v>1.833</v>
+        <v>1.75</v>
       </c>
       <c r="L152">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M152">
         <v>4.333</v>
       </c>
       <c r="N152">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="O152">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P152">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q152">
         <v>-0.5</v>
       </c>
       <c r="R152">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S152">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T152">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U152">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V152">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="W152">
         <v>-1</v>
       </c>
       <c r="X152">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y152">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z152">
         <v>-1</v>
       </c>
       <c r="AA152">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB152">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AC152">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -16998,7 +16998,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6893600</v>
+        <v>6893598</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17010,76 +17010,76 @@
         <v>45333.52083333334</v>
       </c>
       <c r="F186" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G186" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J186" t="s">
         <v>47</v>
       </c>
       <c r="K186">
-        <v>3.8</v>
+        <v>2.05</v>
       </c>
       <c r="L186">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M186">
+        <v>3.4</v>
+      </c>
+      <c r="N186">
+        <v>1.909</v>
+      </c>
+      <c r="O186">
+        <v>3.5</v>
+      </c>
+      <c r="P186">
+        <v>3.75</v>
+      </c>
+      <c r="Q186">
+        <v>-0.5</v>
+      </c>
+      <c r="R186">
+        <v>1.9</v>
+      </c>
+      <c r="S186">
+        <v>1.9</v>
+      </c>
+      <c r="T186">
+        <v>2.5</v>
+      </c>
+      <c r="U186">
+        <v>1.85</v>
+      </c>
+      <c r="V186">
         <v>1.95</v>
       </c>
-      <c r="N186">
-        <v>3.5</v>
-      </c>
-      <c r="O186">
-        <v>3.3</v>
-      </c>
-      <c r="P186">
-        <v>2.05</v>
-      </c>
-      <c r="Q186">
-        <v>0.25</v>
-      </c>
-      <c r="R186">
-        <v>2.05</v>
-      </c>
-      <c r="S186">
-        <v>1.8</v>
-      </c>
-      <c r="T186">
-        <v>2.25</v>
-      </c>
-      <c r="U186">
-        <v>1.95</v>
-      </c>
-      <c r="V186">
-        <v>1.9</v>
-      </c>
       <c r="W186">
         <v>-1</v>
       </c>
       <c r="X186">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Y186">
         <v>-1</v>
       </c>
       <c r="Z186">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA186">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB186">
         <v>-1</v>
       </c>
       <c r="AC186">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17087,7 +17087,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6893598</v>
+        <v>6893600</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17099,76 +17099,76 @@
         <v>45333.52083333334</v>
       </c>
       <c r="F187" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G187" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J187" t="s">
         <v>47</v>
       </c>
       <c r="K187">
+        <v>3.8</v>
+      </c>
+      <c r="L187">
+        <v>3.3</v>
+      </c>
+      <c r="M187">
+        <v>1.95</v>
+      </c>
+      <c r="N187">
+        <v>3.5</v>
+      </c>
+      <c r="O187">
+        <v>3.3</v>
+      </c>
+      <c r="P187">
         <v>2.05</v>
       </c>
-      <c r="L187">
-        <v>3.4</v>
-      </c>
-      <c r="M187">
-        <v>3.4</v>
-      </c>
-      <c r="N187">
-        <v>1.909</v>
-      </c>
-      <c r="O187">
-        <v>3.5</v>
-      </c>
-      <c r="P187">
-        <v>3.75</v>
-      </c>
       <c r="Q187">
+        <v>0.25</v>
+      </c>
+      <c r="R187">
+        <v>2.05</v>
+      </c>
+      <c r="S187">
+        <v>1.8</v>
+      </c>
+      <c r="T187">
+        <v>2.25</v>
+      </c>
+      <c r="U187">
+        <v>1.95</v>
+      </c>
+      <c r="V187">
+        <v>1.9</v>
+      </c>
+      <c r="W187">
+        <v>-1</v>
+      </c>
+      <c r="X187">
+        <v>2.3</v>
+      </c>
+      <c r="Y187">
+        <v>-1</v>
+      </c>
+      <c r="Z187">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="AA187">
         <v>-0.5</v>
       </c>
-      <c r="R187">
-        <v>1.9</v>
-      </c>
-      <c r="S187">
-        <v>1.9</v>
-      </c>
-      <c r="T187">
-        <v>2.5</v>
-      </c>
-      <c r="U187">
-        <v>1.85</v>
-      </c>
-      <c r="V187">
-        <v>1.95</v>
-      </c>
-      <c r="W187">
-        <v>-1</v>
-      </c>
-      <c r="X187">
-        <v>2.5</v>
-      </c>
-      <c r="Y187">
-        <v>-1</v>
-      </c>
-      <c r="Z187">
-        <v>-1</v>
-      </c>
-      <c r="AA187">
+      <c r="AB187">
+        <v>-1</v>
+      </c>
+      <c r="AC187">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB187">
-        <v>-1</v>
-      </c>
-      <c r="AC187">
-        <v>0.95</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -18333,7 +18333,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6893169</v>
+        <v>6893167</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18345,76 +18345,76 @@
         <v>45346.52083333334</v>
       </c>
       <c r="F201" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G201" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H201">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I201">
         <v>2</v>
       </c>
       <c r="J201" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K201">
-        <v>1.75</v>
+        <v>1.833</v>
       </c>
       <c r="L201">
         <v>3.4</v>
       </c>
       <c r="M201">
+        <v>4.333</v>
+      </c>
+      <c r="N201">
+        <v>1.75</v>
+      </c>
+      <c r="O201">
+        <v>3.4</v>
+      </c>
+      <c r="P201">
         <v>4.5</v>
       </c>
-      <c r="N201">
-        <v>1.666</v>
-      </c>
-      <c r="O201">
-        <v>3.5</v>
-      </c>
-      <c r="P201">
-        <v>5</v>
-      </c>
       <c r="Q201">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R201">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S201">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T201">
         <v>2.25</v>
       </c>
       <c r="U201">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V201">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W201">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X201">
         <v>-1</v>
       </c>
       <c r="Y201">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z201">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA201">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB201">
         <v>-0.5</v>
       </c>
-      <c r="AB201">
-        <v>0.7749999999999999</v>
-      </c>
       <c r="AC201">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18422,7 +18422,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6893167</v>
+        <v>6893169</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18434,76 +18434,76 @@
         <v>45346.52083333334</v>
       </c>
       <c r="F202" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G202" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I202">
         <v>2</v>
       </c>
       <c r="J202" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K202">
-        <v>1.833</v>
+        <v>1.75</v>
       </c>
       <c r="L202">
         <v>3.4</v>
       </c>
       <c r="M202">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="N202">
-        <v>1.75</v>
+        <v>1.666</v>
       </c>
       <c r="O202">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P202">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q202">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R202">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S202">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T202">
         <v>2.25</v>
       </c>
       <c r="U202">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V202">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W202">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X202">
         <v>-1</v>
       </c>
       <c r="Y202">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z202">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA202">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB202">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC202">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -19240,6 +19240,15 @@
       <c r="G211" t="s">
         <v>30</v>
       </c>
+      <c r="H211">
+        <v>0</v>
+      </c>
+      <c r="I211">
+        <v>1</v>
+      </c>
+      <c r="J211" t="s">
+        <v>48</v>
+      </c>
       <c r="K211">
         <v>2.75</v>
       </c>
@@ -19250,46 +19259,52 @@
         <v>2.25</v>
       </c>
       <c r="N211">
+        <v>3.2</v>
+      </c>
+      <c r="O211">
         <v>3.5</v>
       </c>
-      <c r="O211">
-        <v>3.4</v>
-      </c>
       <c r="P211">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="Q211">
         <v>0.5</v>
       </c>
       <c r="R211">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S211">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T211">
         <v>2.75</v>
       </c>
       <c r="U211">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V211">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W211">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X211">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y211">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="Z211">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA211">
-        <v>0</v>
+        <v>1.025</v>
+      </c>
+      <c r="AB211">
+        <v>-1</v>
+      </c>
+      <c r="AC211">
+        <v>0.875</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19314,6 +19329,15 @@
       <c r="G212" t="s">
         <v>32</v>
       </c>
+      <c r="H212">
+        <v>0</v>
+      </c>
+      <c r="I212">
+        <v>1</v>
+      </c>
+      <c r="J212" t="s">
+        <v>48</v>
+      </c>
       <c r="K212">
         <v>2.3</v>
       </c>
@@ -19336,34 +19360,40 @@
         <v>-0.25</v>
       </c>
       <c r="R212">
+        <v>2</v>
+      </c>
+      <c r="S212">
+        <v>1.8</v>
+      </c>
+      <c r="T212">
+        <v>2.25</v>
+      </c>
+      <c r="U212">
+        <v>1.825</v>
+      </c>
+      <c r="V212">
         <v>1.975</v>
       </c>
-      <c r="S212">
-        <v>1.875</v>
-      </c>
-      <c r="T212">
-        <v>2.5</v>
-      </c>
-      <c r="U212">
-        <v>2.05</v>
-      </c>
-      <c r="V212">
-        <v>1.8</v>
-      </c>
       <c r="W212">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X212">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y212">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="Z212">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA212">
-        <v>0</v>
+        <v>0.8</v>
+      </c>
+      <c r="AB212">
+        <v>-1</v>
+      </c>
+      <c r="AC212">
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19388,6 +19418,15 @@
       <c r="G213" t="s">
         <v>31</v>
       </c>
+      <c r="H213">
+        <v>0</v>
+      </c>
+      <c r="I213">
+        <v>1</v>
+      </c>
+      <c r="J213" t="s">
+        <v>48</v>
+      </c>
       <c r="K213">
         <v>3.3</v>
       </c>
@@ -19398,46 +19437,52 @@
         <v>2.2</v>
       </c>
       <c r="N213">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="O213">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P213">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="Q213">
         <v>0.5</v>
       </c>
       <c r="R213">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S213">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T213">
         <v>2.25</v>
       </c>
       <c r="U213">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V213">
         <v>1.85</v>
       </c>
       <c r="W213">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X213">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y213">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="Z213">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA213">
-        <v>0</v>
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB213">
+        <v>-1</v>
+      </c>
+      <c r="AC213">
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19462,6 +19507,15 @@
       <c r="G214" t="s">
         <v>41</v>
       </c>
+      <c r="H214">
+        <v>1</v>
+      </c>
+      <c r="I214">
+        <v>1</v>
+      </c>
+      <c r="J214" t="s">
+        <v>47</v>
+      </c>
       <c r="K214">
         <v>3</v>
       </c>
@@ -19472,46 +19526,52 @@
         <v>2.4</v>
       </c>
       <c r="N214">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="O214">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="P214">
-        <v>2.55</v>
+        <v>2.875</v>
       </c>
       <c r="Q214">
         <v>0</v>
       </c>
       <c r="R214">
+        <v>1.775</v>
+      </c>
+      <c r="S214">
         <v>2.025</v>
       </c>
-      <c r="S214">
-        <v>1.825</v>
-      </c>
       <c r="T214">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U214">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V214">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W214">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X214">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="Y214">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z214">
         <v>0</v>
       </c>
       <c r="AA214">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AB214">
+        <v>0.375</v>
+      </c>
+      <c r="AC214">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19536,6 +19596,15 @@
       <c r="G215" t="s">
         <v>37</v>
       </c>
+      <c r="H215">
+        <v>1</v>
+      </c>
+      <c r="I215">
+        <v>1</v>
+      </c>
+      <c r="J215" t="s">
+        <v>47</v>
+      </c>
       <c r="K215">
         <v>2.875</v>
       </c>
@@ -19546,46 +19615,52 @@
         <v>2.55</v>
       </c>
       <c r="N215">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="O215">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="P215">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="Q215">
         <v>0.25</v>
       </c>
       <c r="R215">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S215">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T215">
         <v>2</v>
       </c>
       <c r="U215">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V215">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W215">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X215">
-        <v>0</v>
+        <v>1.875</v>
       </c>
       <c r="Y215">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z215">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
       <c r="AA215">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB215">
+        <v>0</v>
+      </c>
+      <c r="AC215">
+        <v>-0</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19610,6 +19685,15 @@
       <c r="G216" t="s">
         <v>29</v>
       </c>
+      <c r="H216">
+        <v>0</v>
+      </c>
+      <c r="I216">
+        <v>1</v>
+      </c>
+      <c r="J216" t="s">
+        <v>48</v>
+      </c>
       <c r="K216">
         <v>3.6</v>
       </c>
@@ -19620,13 +19704,13 @@
         <v>1.909</v>
       </c>
       <c r="N216">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O216">
         <v>3.3</v>
       </c>
       <c r="P216">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="Q216">
         <v>0.5</v>
@@ -19635,31 +19719,37 @@
         <v>1.825</v>
       </c>
       <c r="S216">
+        <v>1.975</v>
+      </c>
+      <c r="T216">
+        <v>2.25</v>
+      </c>
+      <c r="U216">
+        <v>1.775</v>
+      </c>
+      <c r="V216">
         <v>2.025</v>
       </c>
-      <c r="T216">
-        <v>2.5</v>
-      </c>
-      <c r="U216">
-        <v>2.05</v>
-      </c>
-      <c r="V216">
-        <v>1.8</v>
-      </c>
       <c r="W216">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X216">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y216">
-        <v>0</v>
+        <v>0.909</v>
       </c>
       <c r="Z216">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA216">
-        <v>0</v>
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB216">
+        <v>-1</v>
+      </c>
+      <c r="AC216">
+        <v>1.025</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19684,6 +19774,15 @@
       <c r="G217" t="s">
         <v>43</v>
       </c>
+      <c r="H217">
+        <v>1</v>
+      </c>
+      <c r="I217">
+        <v>1</v>
+      </c>
+      <c r="J217" t="s">
+        <v>47</v>
+      </c>
       <c r="K217">
         <v>1.4</v>
       </c>
@@ -19694,10 +19793,10 @@
         <v>7</v>
       </c>
       <c r="N217">
-        <v>1.4</v>
+        <v>1.363</v>
       </c>
       <c r="O217">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P217">
         <v>7</v>
@@ -19706,33 +19805,705 @@
         <v>-1.25</v>
       </c>
       <c r="R217">
+        <v>1.875</v>
+      </c>
+      <c r="S217">
+        <v>1.925</v>
+      </c>
+      <c r="T217">
+        <v>2.75</v>
+      </c>
+      <c r="U217">
+        <v>2</v>
+      </c>
+      <c r="V217">
+        <v>1.8</v>
+      </c>
+      <c r="W217">
+        <v>-1</v>
+      </c>
+      <c r="X217">
+        <v>3.5</v>
+      </c>
+      <c r="Y217">
+        <v>-1</v>
+      </c>
+      <c r="Z217">
+        <v>-1</v>
+      </c>
+      <c r="AA217">
+        <v>0.925</v>
+      </c>
+      <c r="AB217">
+        <v>-1</v>
+      </c>
+      <c r="AC217">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="218" spans="1:29">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218">
+        <v>6899163</v>
+      </c>
+      <c r="C218" t="s">
+        <v>28</v>
+      </c>
+      <c r="D218" t="s">
+        <v>28</v>
+      </c>
+      <c r="E218" s="2">
+        <v>45359.73958333334</v>
+      </c>
+      <c r="F218" t="s">
+        <v>40</v>
+      </c>
+      <c r="G218" t="s">
+        <v>36</v>
+      </c>
+      <c r="K218">
+        <v>1.6</v>
+      </c>
+      <c r="L218">
+        <v>3.75</v>
+      </c>
+      <c r="M218">
+        <v>5.25</v>
+      </c>
+      <c r="N218">
+        <v>1.6</v>
+      </c>
+      <c r="O218">
+        <v>3.75</v>
+      </c>
+      <c r="P218">
+        <v>5.25</v>
+      </c>
+      <c r="Q218">
+        <v>-0.75</v>
+      </c>
+      <c r="R218">
+        <v>1.825</v>
+      </c>
+      <c r="S218">
+        <v>2.025</v>
+      </c>
+      <c r="T218">
+        <v>2.5</v>
+      </c>
+      <c r="U218">
+        <v>1.925</v>
+      </c>
+      <c r="V218">
+        <v>1.925</v>
+      </c>
+      <c r="W218">
+        <v>0</v>
+      </c>
+      <c r="X218">
+        <v>0</v>
+      </c>
+      <c r="Y218">
+        <v>0</v>
+      </c>
+      <c r="Z218">
+        <v>0</v>
+      </c>
+      <c r="AA218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:29">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219">
+        <v>6893177</v>
+      </c>
+      <c r="C219" t="s">
+        <v>28</v>
+      </c>
+      <c r="D219" t="s">
+        <v>28</v>
+      </c>
+      <c r="E219" s="2">
+        <v>45360.33333333334</v>
+      </c>
+      <c r="F219" t="s">
+        <v>39</v>
+      </c>
+      <c r="G219" t="s">
+        <v>34</v>
+      </c>
+      <c r="K219">
+        <v>2</v>
+      </c>
+      <c r="L219">
+        <v>3.25</v>
+      </c>
+      <c r="M219">
+        <v>3.8</v>
+      </c>
+      <c r="N219">
+        <v>2.05</v>
+      </c>
+      <c r="O219">
+        <v>3.2</v>
+      </c>
+      <c r="P219">
+        <v>3.6</v>
+      </c>
+      <c r="Q219">
+        <v>-0.25</v>
+      </c>
+      <c r="R219">
+        <v>1.8</v>
+      </c>
+      <c r="S219">
+        <v>2.05</v>
+      </c>
+      <c r="T219">
+        <v>2.25</v>
+      </c>
+      <c r="U219">
+        <v>2</v>
+      </c>
+      <c r="V219">
+        <v>1.85</v>
+      </c>
+      <c r="W219">
+        <v>0</v>
+      </c>
+      <c r="X219">
+        <v>0</v>
+      </c>
+      <c r="Y219">
+        <v>0</v>
+      </c>
+      <c r="Z219">
+        <v>0</v>
+      </c>
+      <c r="AA219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:29">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220">
+        <v>6893178</v>
+      </c>
+      <c r="C220" t="s">
+        <v>28</v>
+      </c>
+      <c r="D220" t="s">
+        <v>28</v>
+      </c>
+      <c r="E220" s="2">
+        <v>45360.45833333334</v>
+      </c>
+      <c r="F220" t="s">
+        <v>30</v>
+      </c>
+      <c r="G220" t="s">
+        <v>33</v>
+      </c>
+      <c r="K220">
+        <v>1.85</v>
+      </c>
+      <c r="L220">
+        <v>3.4</v>
+      </c>
+      <c r="M220">
+        <v>4</v>
+      </c>
+      <c r="N220">
+        <v>1.85</v>
+      </c>
+      <c r="O220">
+        <v>3.4</v>
+      </c>
+      <c r="P220">
+        <v>4</v>
+      </c>
+      <c r="Q220">
+        <v>-0.5</v>
+      </c>
+      <c r="R220">
         <v>1.9</v>
       </c>
-      <c r="S217">
+      <c r="S220">
         <v>1.95</v>
       </c>
-      <c r="T217">
+      <c r="T220">
         <v>2.5</v>
       </c>
-      <c r="U217">
+      <c r="U220">
+        <v>2.025</v>
+      </c>
+      <c r="V220">
+        <v>1.825</v>
+      </c>
+      <c r="W220">
+        <v>0</v>
+      </c>
+      <c r="X220">
+        <v>0</v>
+      </c>
+      <c r="Y220">
+        <v>0</v>
+      </c>
+      <c r="Z220">
+        <v>0</v>
+      </c>
+      <c r="AA220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:29">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221">
+        <v>6893176</v>
+      </c>
+      <c r="C221" t="s">
+        <v>28</v>
+      </c>
+      <c r="D221" t="s">
+        <v>28</v>
+      </c>
+      <c r="E221" s="2">
+        <v>45360.52083333334</v>
+      </c>
+      <c r="F221" t="s">
+        <v>29</v>
+      </c>
+      <c r="G221" t="s">
+        <v>45</v>
+      </c>
+      <c r="K221">
+        <v>1.909</v>
+      </c>
+      <c r="L221">
+        <v>3.2</v>
+      </c>
+      <c r="M221">
+        <v>4</v>
+      </c>
+      <c r="N221">
+        <v>2.05</v>
+      </c>
+      <c r="O221">
+        <v>3.1</v>
+      </c>
+      <c r="P221">
+        <v>3.75</v>
+      </c>
+      <c r="Q221">
+        <v>-0.25</v>
+      </c>
+      <c r="R221">
+        <v>1.8</v>
+      </c>
+      <c r="S221">
+        <v>2.05</v>
+      </c>
+      <c r="T221">
+        <v>2</v>
+      </c>
+      <c r="U221">
+        <v>1.775</v>
+      </c>
+      <c r="V221">
+        <v>2.1</v>
+      </c>
+      <c r="W221">
+        <v>0</v>
+      </c>
+      <c r="X221">
+        <v>0</v>
+      </c>
+      <c r="Y221">
+        <v>0</v>
+      </c>
+      <c r="Z221">
+        <v>0</v>
+      </c>
+      <c r="AA221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:29">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222">
+        <v>6893179</v>
+      </c>
+      <c r="C222" t="s">
+        <v>28</v>
+      </c>
+      <c r="D222" t="s">
+        <v>28</v>
+      </c>
+      <c r="E222" s="2">
+        <v>45360.52083333334</v>
+      </c>
+      <c r="F222" t="s">
+        <v>35</v>
+      </c>
+      <c r="G222" t="s">
+        <v>37</v>
+      </c>
+      <c r="K222">
+        <v>3.2</v>
+      </c>
+      <c r="L222">
+        <v>3.1</v>
+      </c>
+      <c r="M222">
+        <v>2.2</v>
+      </c>
+      <c r="N222">
+        <v>3.4</v>
+      </c>
+      <c r="O222">
+        <v>3.2</v>
+      </c>
+      <c r="P222">
+        <v>2.1</v>
+      </c>
+      <c r="Q222">
+        <v>0.25</v>
+      </c>
+      <c r="R222">
+        <v>1.975</v>
+      </c>
+      <c r="S222">
         <v>1.875</v>
       </c>
-      <c r="V217">
+      <c r="T222">
+        <v>2.25</v>
+      </c>
+      <c r="U222">
+        <v>2</v>
+      </c>
+      <c r="V222">
+        <v>1.85</v>
+      </c>
+      <c r="W222">
+        <v>0</v>
+      </c>
+      <c r="X222">
+        <v>0</v>
+      </c>
+      <c r="Y222">
+        <v>0</v>
+      </c>
+      <c r="Z222">
+        <v>0</v>
+      </c>
+      <c r="AA222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:29">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223">
+        <v>6893607</v>
+      </c>
+      <c r="C223" t="s">
+        <v>28</v>
+      </c>
+      <c r="D223" t="s">
+        <v>28</v>
+      </c>
+      <c r="E223" s="2">
+        <v>45360.52083333334</v>
+      </c>
+      <c r="F223" t="s">
+        <v>32</v>
+      </c>
+      <c r="G223" t="s">
+        <v>42</v>
+      </c>
+      <c r="K223">
+        <v>1.5</v>
+      </c>
+      <c r="L223">
+        <v>4</v>
+      </c>
+      <c r="M223">
+        <v>5.5</v>
+      </c>
+      <c r="N223">
+        <v>1.5</v>
+      </c>
+      <c r="O223">
+        <v>4</v>
+      </c>
+      <c r="P223">
+        <v>5.5</v>
+      </c>
+      <c r="Q223">
+        <v>-1</v>
+      </c>
+      <c r="R223">
+        <v>1.875</v>
+      </c>
+      <c r="S223">
         <v>1.975</v>
       </c>
-      <c r="W217">
-        <v>0</v>
-      </c>
-      <c r="X217">
-        <v>0</v>
-      </c>
-      <c r="Y217">
-        <v>0</v>
-      </c>
-      <c r="Z217">
-        <v>0</v>
-      </c>
-      <c r="AA217">
+      <c r="T223">
+        <v>2.75</v>
+      </c>
+      <c r="U223">
+        <v>1.975</v>
+      </c>
+      <c r="V223">
+        <v>1.875</v>
+      </c>
+      <c r="W223">
+        <v>0</v>
+      </c>
+      <c r="X223">
+        <v>0</v>
+      </c>
+      <c r="Y223">
+        <v>0</v>
+      </c>
+      <c r="Z223">
+        <v>0</v>
+      </c>
+      <c r="AA223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:29">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224">
+        <v>6899165</v>
+      </c>
+      <c r="C224" t="s">
+        <v>28</v>
+      </c>
+      <c r="D224" t="s">
+        <v>28</v>
+      </c>
+      <c r="E224" s="2">
+        <v>45361.33333333334</v>
+      </c>
+      <c r="F224" t="s">
+        <v>41</v>
+      </c>
+      <c r="G224" t="s">
+        <v>38</v>
+      </c>
+      <c r="K224">
+        <v>2.6</v>
+      </c>
+      <c r="L224">
+        <v>3.25</v>
+      </c>
+      <c r="M224">
+        <v>2.45</v>
+      </c>
+      <c r="N224">
+        <v>2.6</v>
+      </c>
+      <c r="O224">
+        <v>3.25</v>
+      </c>
+      <c r="P224">
+        <v>2.45</v>
+      </c>
+      <c r="Q224">
+        <v>0</v>
+      </c>
+      <c r="R224">
+        <v>2</v>
+      </c>
+      <c r="S224">
+        <v>1.85</v>
+      </c>
+      <c r="T224">
+        <v>2.25</v>
+      </c>
+      <c r="U224">
+        <v>1.95</v>
+      </c>
+      <c r="V224">
+        <v>1.9</v>
+      </c>
+      <c r="W224">
+        <v>0</v>
+      </c>
+      <c r="X224">
+        <v>0</v>
+      </c>
+      <c r="Y224">
+        <v>0</v>
+      </c>
+      <c r="Z224">
+        <v>0</v>
+      </c>
+      <c r="AA224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:27">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225">
+        <v>6899164</v>
+      </c>
+      <c r="C225" t="s">
+        <v>28</v>
+      </c>
+      <c r="D225" t="s">
+        <v>28</v>
+      </c>
+      <c r="E225" s="2">
+        <v>45362.625</v>
+      </c>
+      <c r="F225" t="s">
+        <v>43</v>
+      </c>
+      <c r="G225" t="s">
+        <v>46</v>
+      </c>
+      <c r="K225">
+        <v>2.625</v>
+      </c>
+      <c r="L225">
+        <v>2.875</v>
+      </c>
+      <c r="M225">
+        <v>2.75</v>
+      </c>
+      <c r="N225">
+        <v>2.9</v>
+      </c>
+      <c r="O225">
+        <v>2.9</v>
+      </c>
+      <c r="P225">
+        <v>2.4</v>
+      </c>
+      <c r="Q225">
+        <v>0.25</v>
+      </c>
+      <c r="R225">
+        <v>1.75</v>
+      </c>
+      <c r="S225">
+        <v>2.125</v>
+      </c>
+      <c r="T225">
+        <v>2.25</v>
+      </c>
+      <c r="U225">
+        <v>2.025</v>
+      </c>
+      <c r="V225">
+        <v>1.825</v>
+      </c>
+      <c r="W225">
+        <v>0</v>
+      </c>
+      <c r="X225">
+        <v>0</v>
+      </c>
+      <c r="Y225">
+        <v>0</v>
+      </c>
+      <c r="Z225">
+        <v>0</v>
+      </c>
+      <c r="AA225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:27">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226">
+        <v>6899273</v>
+      </c>
+      <c r="C226" t="s">
+        <v>28</v>
+      </c>
+      <c r="D226" t="s">
+        <v>28</v>
+      </c>
+      <c r="E226" s="2">
+        <v>45362.71875</v>
+      </c>
+      <c r="F226" t="s">
+        <v>31</v>
+      </c>
+      <c r="G226" t="s">
+        <v>44</v>
+      </c>
+      <c r="K226">
+        <v>1.55</v>
+      </c>
+      <c r="L226">
+        <v>3.75</v>
+      </c>
+      <c r="M226">
+        <v>5.75</v>
+      </c>
+      <c r="N226">
+        <v>1.55</v>
+      </c>
+      <c r="O226">
+        <v>3.6</v>
+      </c>
+      <c r="P226">
+        <v>6</v>
+      </c>
+      <c r="Q226">
+        <v>-1</v>
+      </c>
+      <c r="R226">
+        <v>1.975</v>
+      </c>
+      <c r="S226">
+        <v>1.875</v>
+      </c>
+      <c r="T226">
+        <v>2.5</v>
+      </c>
+      <c r="U226">
+        <v>2.05</v>
+      </c>
+      <c r="V226">
+        <v>1.8</v>
+      </c>
+      <c r="W226">
+        <v>0</v>
+      </c>
+      <c r="X226">
+        <v>0</v>
+      </c>
+      <c r="Y226">
+        <v>0</v>
+      </c>
+      <c r="Z226">
+        <v>0</v>
+      </c>
+      <c r="AA226">
         <v>0</v>
       </c>
     </row>

--- a/Portugal Segunda Liga/Portugal Segunda Liga.xlsx
+++ b/Portugal Segunda Liga/Portugal Segunda Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -112,10 +112,10 @@
     <t>AVS</t>
   </si>
   <si>
-    <t>FC Porto B</t>
+    <t>Academico Viseu</t>
   </si>
   <si>
-    <t>Academico Viseu</t>
+    <t>FC Porto B</t>
   </si>
   <si>
     <t>Penafiel</t>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC226"/>
+  <dimension ref="A1:AC224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -889,7 +889,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6893285</v>
+        <v>6893191</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -904,7 +904,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -916,61 +916,61 @@
         <v>47</v>
       </c>
       <c r="K5">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="L5">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M5">
         <v>3.6</v>
       </c>
       <c r="N5">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="O5">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P5">
+        <v>4.2</v>
+      </c>
+      <c r="Q5">
+        <v>-0.75</v>
+      </c>
+      <c r="R5">
+        <v>1.95</v>
+      </c>
+      <c r="S5">
+        <v>1.85</v>
+      </c>
+      <c r="T5">
+        <v>2.5</v>
+      </c>
+      <c r="U5">
+        <v>1.975</v>
+      </c>
+      <c r="V5">
+        <v>1.825</v>
+      </c>
+      <c r="W5">
+        <v>-1</v>
+      </c>
+      <c r="X5">
         <v>2.75</v>
       </c>
-      <c r="Q5">
-        <v>-0.25</v>
-      </c>
-      <c r="R5">
-        <v>2</v>
-      </c>
-      <c r="S5">
-        <v>1.8</v>
-      </c>
-      <c r="T5">
-        <v>2.25</v>
-      </c>
-      <c r="U5">
-        <v>1.8</v>
-      </c>
-      <c r="V5">
-        <v>2</v>
-      </c>
-      <c r="W5">
-        <v>-1</v>
-      </c>
-      <c r="X5">
-        <v>2.3</v>
-      </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB5">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -978,7 +978,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6893191</v>
+        <v>6893285</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -993,7 +993,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1005,61 +1005,61 @@
         <v>47</v>
       </c>
       <c r="K6">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="L6">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M6">
         <v>3.6</v>
       </c>
       <c r="N6">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="O6">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P6">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q6">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R6">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S6">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T6">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U6">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V6">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA6">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC6">
-        <v>0.825</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1705,7 +1705,7 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1883,7 +1883,7 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -2236,7 +2236,7 @@
         <v>45164.29166666666</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s">
         <v>44</v>
@@ -2491,7 +2491,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6899210</v>
+        <v>6893102</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2503,13 +2503,13 @@
         <v>45165.29166666666</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G23" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -2518,31 +2518,31 @@
         <v>49</v>
       </c>
       <c r="K23">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L23">
         <v>3.25</v>
       </c>
       <c r="M23">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N23">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="O23">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P23">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R23">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S23">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T23">
         <v>2.5</v>
@@ -2551,10 +2551,10 @@
         <v>2.025</v>
       </c>
       <c r="V23">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W23">
-        <v>1.45</v>
+        <v>1.25</v>
       </c>
       <c r="X23">
         <v>-1</v>
@@ -2563,7 +2563,7 @@
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AA23">
         <v>-1</v>
@@ -2580,7 +2580,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6893102</v>
+        <v>6899210</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2592,13 +2592,13 @@
         <v>45165.29166666666</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G24" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -2607,31 +2607,31 @@
         <v>49</v>
       </c>
       <c r="K24">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L24">
         <v>3.25</v>
       </c>
       <c r="M24">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N24">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="O24">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P24">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q24">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S24">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T24">
         <v>2.5</v>
@@ -2640,10 +2640,10 @@
         <v>2.025</v>
       </c>
       <c r="V24">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W24">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="X24">
         <v>-1</v>
@@ -2652,7 +2652,7 @@
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA24">
         <v>-1</v>
@@ -3129,7 +3129,7 @@
         <v>39</v>
       </c>
       <c r="G30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H30">
         <v>2</v>
@@ -3307,7 +3307,7 @@
         <v>34</v>
       </c>
       <c r="G32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6899293</v>
+        <v>6899208</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3927,76 +3927,76 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F39" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G39" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K39">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="L39">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M39">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="N39">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="O39">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P39">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q39">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R39">
         <v>2.05</v>
       </c>
       <c r="S39">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T39">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U39">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V39">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W39">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z39">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC39">
-        <v>0.8500000000000001</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4004,7 +4004,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6899208</v>
+        <v>6899293</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4016,76 +4016,76 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G40" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K40">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="L40">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M40">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="N40">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="O40">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P40">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="Q40">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R40">
         <v>2.05</v>
       </c>
       <c r="S40">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T40">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U40">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V40">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA40">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC40">
-        <v>0.5125</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4375,7 +4375,7 @@
         <v>36</v>
       </c>
       <c r="G44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H44">
         <v>2</v>
@@ -4906,7 +4906,7 @@
         <v>45200.29166666666</v>
       </c>
       <c r="F50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G50" t="s">
         <v>31</v>
@@ -4998,7 +4998,7 @@
         <v>46</v>
       </c>
       <c r="G51" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5443,7 +5443,7 @@
         <v>37</v>
       </c>
       <c r="G56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -5784,7 +5784,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6893569</v>
+        <v>6899203</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5796,46 +5796,46 @@
         <v>45207.29166666666</v>
       </c>
       <c r="F60" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G60" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K60">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L60">
         <v>3.3</v>
       </c>
       <c r="M60">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="N60">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="O60">
         <v>3.3</v>
       </c>
       <c r="P60">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="Q60">
         <v>0</v>
       </c>
       <c r="R60">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S60">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T60">
         <v>2.5</v>
@@ -5847,19 +5847,19 @@
         <v>1.85</v>
       </c>
       <c r="W60">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X60">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y60">
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA60">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
         <v>0.95</v>
@@ -5873,7 +5873,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6899203</v>
+        <v>6893569</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5885,46 +5885,46 @@
         <v>45207.29166666666</v>
       </c>
       <c r="F61" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G61" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K61">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L61">
         <v>3.3</v>
       </c>
       <c r="M61">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="N61">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="O61">
         <v>3.3</v>
       </c>
       <c r="P61">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q61">
         <v>0</v>
       </c>
       <c r="R61">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S61">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T61">
         <v>2.5</v>
@@ -5936,19 +5936,19 @@
         <v>1.85</v>
       </c>
       <c r="W61">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X61">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA61">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB61">
         <v>0.95</v>
@@ -6597,7 +6597,7 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G69" t="s">
         <v>30</v>
@@ -6956,7 +6956,7 @@
         <v>42</v>
       </c>
       <c r="G73" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7030,7 +7030,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6893574</v>
+        <v>6893126</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7042,34 +7042,34 @@
         <v>45234.33333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G74" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K74">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L74">
+        <v>3.4</v>
+      </c>
+      <c r="M74">
+        <v>3.8</v>
+      </c>
+      <c r="N74">
+        <v>1.8</v>
+      </c>
+      <c r="O74">
         <v>3.3</v>
-      </c>
-      <c r="M74">
-        <v>3.2</v>
-      </c>
-      <c r="N74">
-        <v>1.727</v>
-      </c>
-      <c r="O74">
-        <v>3.6</v>
       </c>
       <c r="P74">
         <v>3.8</v>
@@ -7078,40 +7078,40 @@
         <v>-0.5</v>
       </c>
       <c r="R74">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S74">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T74">
         <v>2.5</v>
       </c>
       <c r="U74">
+        <v>1.975</v>
+      </c>
+      <c r="V74">
         <v>1.825</v>
       </c>
-      <c r="V74">
-        <v>1.975</v>
-      </c>
       <c r="W74">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z74">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB74">
         <v>-1</v>
       </c>
       <c r="AC74">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7119,7 +7119,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6893126</v>
+        <v>6893574</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7131,34 +7131,34 @@
         <v>45234.33333333334</v>
       </c>
       <c r="F75" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K75">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L75">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M75">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="N75">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="O75">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P75">
         <v>3.8</v>
@@ -7167,40 +7167,40 @@
         <v>-0.5</v>
       </c>
       <c r="R75">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S75">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T75">
         <v>2.5</v>
       </c>
       <c r="U75">
+        <v>1.825</v>
+      </c>
+      <c r="V75">
         <v>1.975</v>
       </c>
-      <c r="V75">
-        <v>1.825</v>
-      </c>
       <c r="W75">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA75">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
         <v>-1</v>
       </c>
       <c r="AC75">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7757,7 +7757,7 @@
         <v>29</v>
       </c>
       <c r="G82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -8024,7 +8024,7 @@
         <v>34</v>
       </c>
       <c r="G85" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H85">
         <v>3</v>
@@ -8555,7 +8555,7 @@
         <v>45242.625</v>
       </c>
       <c r="F91" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G91" t="s">
         <v>35</v>
@@ -9267,10 +9267,10 @@
         <v>45255.33333333334</v>
       </c>
       <c r="F99" t="s">
+        <v>33</v>
+      </c>
+      <c r="G99" t="s">
         <v>32</v>
-      </c>
-      <c r="G99" t="s">
-        <v>33</v>
       </c>
       <c r="H99">
         <v>3</v>
@@ -9534,7 +9534,7 @@
         <v>45261.625</v>
       </c>
       <c r="F102" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G102" t="s">
         <v>43</v>
@@ -9626,7 +9626,7 @@
         <v>36</v>
       </c>
       <c r="G103" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -10323,7 +10323,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6893133</v>
+        <v>7559095</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10335,73 +10335,73 @@
         <v>45269.33333333334</v>
       </c>
       <c r="F111" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G111" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H111">
         <v>2</v>
       </c>
       <c r="I111">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J111" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K111">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="L111">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M111">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="N111">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="O111">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P111">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="Q111">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R111">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S111">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T111">
         <v>2.25</v>
       </c>
       <c r="U111">
+        <v>1.775</v>
+      </c>
+      <c r="V111">
         <v>2.025</v>
       </c>
-      <c r="V111">
-        <v>1.825</v>
-      </c>
       <c r="W111">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z111">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB111">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC111">
         <v>-1</v>
@@ -10412,7 +10412,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7559095</v>
+        <v>6893133</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10424,73 +10424,73 @@
         <v>45269.33333333334</v>
       </c>
       <c r="F112" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G112" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H112">
         <v>2</v>
       </c>
       <c r="I112">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K112">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="L112">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M112">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="N112">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O112">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P112">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="Q112">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R112">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S112">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T112">
         <v>2.25</v>
       </c>
       <c r="U112">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="V112">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W112">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA112">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB112">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AC112">
         <v>-1</v>
@@ -10783,7 +10783,7 @@
         <v>39</v>
       </c>
       <c r="G116" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -11047,7 +11047,7 @@
         <v>45276.33333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G119" t="s">
         <v>45</v>
@@ -11495,7 +11495,7 @@
         <v>37</v>
       </c>
       <c r="G124" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -12192,7 +12192,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6893139</v>
+        <v>6893140</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12204,55 +12204,55 @@
         <v>45290.33333333334</v>
       </c>
       <c r="F132" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G132" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J132" t="s">
         <v>48</v>
       </c>
       <c r="K132">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="L132">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M132">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="N132">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="O132">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P132">
-        <v>2.45</v>
+        <v>3.25</v>
       </c>
       <c r="Q132">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R132">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S132">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U132">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V132">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W132">
         <v>-1</v>
@@ -12261,16 +12261,16 @@
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>1.45</v>
+        <v>2.25</v>
       </c>
       <c r="Z132">
         <v>-1</v>
       </c>
       <c r="AA132">
-        <v>0.75</v>
+        <v>1.025</v>
       </c>
       <c r="AB132">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC132">
         <v>-1</v>
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6893140</v>
+        <v>6893139</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,55 +12293,55 @@
         <v>45290.33333333334</v>
       </c>
       <c r="F133" t="s">
+        <v>46</v>
+      </c>
+      <c r="G133" t="s">
         <v>32</v>
       </c>
-      <c r="G133" t="s">
-        <v>30</v>
-      </c>
       <c r="H133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J133" t="s">
         <v>48</v>
       </c>
       <c r="K133">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="L133">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M133">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="N133">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="O133">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P133">
-        <v>3.25</v>
+        <v>2.45</v>
       </c>
       <c r="Q133">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R133">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S133">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U133">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V133">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W133">
         <v>-1</v>
@@ -12350,16 +12350,16 @@
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>2.25</v>
+        <v>1.45</v>
       </c>
       <c r="Z133">
         <v>-1</v>
       </c>
       <c r="AA133">
-        <v>1.025</v>
+        <v>0.75</v>
       </c>
       <c r="AB133">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC133">
         <v>-1</v>
@@ -13183,7 +13183,7 @@
         <v>45297.625</v>
       </c>
       <c r="F143" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G143" t="s">
         <v>40</v>
@@ -13364,7 +13364,7 @@
         <v>29</v>
       </c>
       <c r="G145" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H145">
         <v>3</v>
@@ -13898,7 +13898,7 @@
         <v>38</v>
       </c>
       <c r="G151" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H151">
         <v>1</v>
@@ -13984,7 +13984,7 @@
         <v>45305.52083333334</v>
       </c>
       <c r="F152" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G152" t="s">
         <v>35</v>
@@ -14343,7 +14343,7 @@
         <v>42</v>
       </c>
       <c r="G156" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -14699,7 +14699,7 @@
         <v>41</v>
       </c>
       <c r="G160" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H160">
         <v>0</v>
@@ -15319,7 +15319,7 @@
         <v>45319.52083333334</v>
       </c>
       <c r="F167" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G167" t="s">
         <v>43</v>
@@ -15764,7 +15764,7 @@
         <v>45321.71875</v>
       </c>
       <c r="F172" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G172" t="s">
         <v>41</v>
@@ -16034,7 +16034,7 @@
         <v>40</v>
       </c>
       <c r="G175" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H175">
         <v>1</v>
@@ -16565,7 +16565,7 @@
         <v>45332.33333333334</v>
       </c>
       <c r="F181" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G181" t="s">
         <v>34</v>
@@ -17010,7 +17010,7 @@
         <v>45333.52083333334</v>
       </c>
       <c r="F186" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G186" t="s">
         <v>39</v>
@@ -17547,7 +17547,7 @@
         <v>38</v>
       </c>
       <c r="G192" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H192">
         <v>1</v>
@@ -17722,7 +17722,7 @@
         <v>45340.33333333334</v>
       </c>
       <c r="F194" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G194" t="s">
         <v>36</v>
@@ -18081,7 +18081,7 @@
         <v>44</v>
       </c>
       <c r="G198" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H198">
         <v>0</v>
@@ -18345,7 +18345,7 @@
         <v>45346.52083333334</v>
       </c>
       <c r="F201" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G201" t="s">
         <v>46</v>
@@ -18882,7 +18882,7 @@
         <v>31</v>
       </c>
       <c r="G207" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H207">
         <v>2</v>
@@ -19327,7 +19327,7 @@
         <v>45</v>
       </c>
       <c r="G212" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H212">
         <v>0</v>
@@ -19591,7 +19591,7 @@
         <v>45355.625</v>
       </c>
       <c r="F215" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G215" t="s">
         <v>37</v>
@@ -19863,6 +19863,15 @@
       <c r="G218" t="s">
         <v>36</v>
       </c>
+      <c r="H218">
+        <v>1</v>
+      </c>
+      <c r="I218">
+        <v>0</v>
+      </c>
+      <c r="J218" t="s">
+        <v>49</v>
+      </c>
       <c r="K218">
         <v>1.6</v>
       </c>
@@ -19873,46 +19882,52 @@
         <v>5.25</v>
       </c>
       <c r="N218">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="O218">
         <v>3.75</v>
       </c>
       <c r="P218">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="Q218">
         <v>-0.75</v>
       </c>
       <c r="R218">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S218">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T218">
         <v>2.5</v>
       </c>
       <c r="U218">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V218">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W218">
-        <v>0</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X218">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y218">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z218">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="AA218">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB218">
+        <v>-1</v>
+      </c>
+      <c r="AC218">
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -19920,7 +19935,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6893177</v>
+        <v>6893176</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19929,49 +19944,49 @@
         <v>28</v>
       </c>
       <c r="E219" s="2">
-        <v>45360.33333333334</v>
+        <v>45360.52083333334</v>
       </c>
       <c r="F219" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G219" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="K219">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L219">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M219">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="N219">
         <v>2.05</v>
       </c>
       <c r="O219">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P219">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q219">
         <v>-0.25</v>
       </c>
       <c r="R219">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S219">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T219">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U219">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V219">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W219">
         <v>0</v>
@@ -19994,7 +20009,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6893178</v>
+        <v>6893179</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20003,49 +20018,49 @@
         <v>28</v>
       </c>
       <c r="E220" s="2">
-        <v>45360.45833333334</v>
+        <v>45360.52083333334</v>
       </c>
       <c r="F220" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G220" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K220">
+        <v>3.2</v>
+      </c>
+      <c r="L220">
+        <v>3.1</v>
+      </c>
+      <c r="M220">
+        <v>2.2</v>
+      </c>
+      <c r="N220">
+        <v>3.3</v>
+      </c>
+      <c r="O220">
+        <v>3.1</v>
+      </c>
+      <c r="P220">
+        <v>2.15</v>
+      </c>
+      <c r="Q220">
+        <v>0.25</v>
+      </c>
+      <c r="R220">
+        <v>1.925</v>
+      </c>
+      <c r="S220">
+        <v>1.925</v>
+      </c>
+      <c r="T220">
+        <v>2.25</v>
+      </c>
+      <c r="U220">
+        <v>2</v>
+      </c>
+      <c r="V220">
         <v>1.85</v>
-      </c>
-      <c r="L220">
-        <v>3.4</v>
-      </c>
-      <c r="M220">
-        <v>4</v>
-      </c>
-      <c r="N220">
-        <v>1.85</v>
-      </c>
-      <c r="O220">
-        <v>3.4</v>
-      </c>
-      <c r="P220">
-        <v>4</v>
-      </c>
-      <c r="Q220">
-        <v>-0.5</v>
-      </c>
-      <c r="R220">
-        <v>1.9</v>
-      </c>
-      <c r="S220">
-        <v>1.95</v>
-      </c>
-      <c r="T220">
-        <v>2.5</v>
-      </c>
-      <c r="U220">
-        <v>2.025</v>
-      </c>
-      <c r="V220">
-        <v>1.825</v>
       </c>
       <c r="W220">
         <v>0</v>
@@ -20068,7 +20083,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6893176</v>
+        <v>6893607</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20080,46 +20095,46 @@
         <v>45360.52083333334</v>
       </c>
       <c r="F221" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G221" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K221">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="L221">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M221">
+        <v>5.5</v>
+      </c>
+      <c r="N221">
+        <v>1.533</v>
+      </c>
+      <c r="O221">
         <v>4</v>
       </c>
-      <c r="N221">
-        <v>2.05</v>
-      </c>
-      <c r="O221">
-        <v>3.1</v>
-      </c>
       <c r="P221">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q221">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R221">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S221">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T221">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U221">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V221">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="W221">
         <v>0</v>
@@ -20142,7 +20157,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6893179</v>
+        <v>6899165</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20151,34 +20166,34 @@
         <v>28</v>
       </c>
       <c r="E222" s="2">
-        <v>45360.52083333334</v>
+        <v>45361.33333333334</v>
       </c>
       <c r="F222" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G222" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K222">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="L222">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M222">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="N222">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="O222">
         <v>3.2</v>
       </c>
       <c r="P222">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="Q222">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R222">
         <v>1.975</v>
@@ -20190,10 +20205,10 @@
         <v>2.25</v>
       </c>
       <c r="U222">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V222">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W222">
         <v>0</v>
@@ -20216,7 +20231,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6893607</v>
+        <v>6899164</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20225,49 +20240,49 @@
         <v>28</v>
       </c>
       <c r="E223" s="2">
-        <v>45360.52083333334</v>
+        <v>45362.625</v>
       </c>
       <c r="F223" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G223" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K223">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="L223">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="M223">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="N223">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="O223">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="P223">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q223">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R223">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S223">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T223">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U223">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V223">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W223">
         <v>0</v>
@@ -20290,7 +20305,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6899165</v>
+        <v>6899273</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20299,49 +20314,49 @@
         <v>28</v>
       </c>
       <c r="E224" s="2">
-        <v>45361.33333333334</v>
+        <v>45362.71875</v>
       </c>
       <c r="F224" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G224" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="K224">
-        <v>2.6</v>
+        <v>1.55</v>
       </c>
       <c r="L224">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M224">
-        <v>2.45</v>
+        <v>5.75</v>
       </c>
       <c r="N224">
-        <v>2.6</v>
+        <v>1.55</v>
       </c>
       <c r="O224">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P224">
-        <v>2.45</v>
+        <v>6</v>
       </c>
       <c r="Q224">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R224">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S224">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T224">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U224">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V224">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W224">
         <v>0</v>
@@ -20356,154 +20371,6 @@
         <v>0</v>
       </c>
       <c r="AA224">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:27">
-      <c r="A225" s="1">
-        <v>223</v>
-      </c>
-      <c r="B225">
-        <v>6899164</v>
-      </c>
-      <c r="C225" t="s">
-        <v>28</v>
-      </c>
-      <c r="D225" t="s">
-        <v>28</v>
-      </c>
-      <c r="E225" s="2">
-        <v>45362.625</v>
-      </c>
-      <c r="F225" t="s">
-        <v>43</v>
-      </c>
-      <c r="G225" t="s">
-        <v>46</v>
-      </c>
-      <c r="K225">
-        <v>2.625</v>
-      </c>
-      <c r="L225">
-        <v>2.875</v>
-      </c>
-      <c r="M225">
-        <v>2.75</v>
-      </c>
-      <c r="N225">
-        <v>2.9</v>
-      </c>
-      <c r="O225">
-        <v>2.9</v>
-      </c>
-      <c r="P225">
-        <v>2.4</v>
-      </c>
-      <c r="Q225">
-        <v>0.25</v>
-      </c>
-      <c r="R225">
-        <v>1.75</v>
-      </c>
-      <c r="S225">
-        <v>2.125</v>
-      </c>
-      <c r="T225">
-        <v>2.25</v>
-      </c>
-      <c r="U225">
-        <v>2.025</v>
-      </c>
-      <c r="V225">
-        <v>1.825</v>
-      </c>
-      <c r="W225">
-        <v>0</v>
-      </c>
-      <c r="X225">
-        <v>0</v>
-      </c>
-      <c r="Y225">
-        <v>0</v>
-      </c>
-      <c r="Z225">
-        <v>0</v>
-      </c>
-      <c r="AA225">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:27">
-      <c r="A226" s="1">
-        <v>224</v>
-      </c>
-      <c r="B226">
-        <v>6899273</v>
-      </c>
-      <c r="C226" t="s">
-        <v>28</v>
-      </c>
-      <c r="D226" t="s">
-        <v>28</v>
-      </c>
-      <c r="E226" s="2">
-        <v>45362.71875</v>
-      </c>
-      <c r="F226" t="s">
-        <v>31</v>
-      </c>
-      <c r="G226" t="s">
-        <v>44</v>
-      </c>
-      <c r="K226">
-        <v>1.55</v>
-      </c>
-      <c r="L226">
-        <v>3.75</v>
-      </c>
-      <c r="M226">
-        <v>5.75</v>
-      </c>
-      <c r="N226">
-        <v>1.55</v>
-      </c>
-      <c r="O226">
-        <v>3.6</v>
-      </c>
-      <c r="P226">
-        <v>6</v>
-      </c>
-      <c r="Q226">
-        <v>-1</v>
-      </c>
-      <c r="R226">
-        <v>1.975</v>
-      </c>
-      <c r="S226">
-        <v>1.875</v>
-      </c>
-      <c r="T226">
-        <v>2.5</v>
-      </c>
-      <c r="U226">
-        <v>2.05</v>
-      </c>
-      <c r="V226">
-        <v>1.8</v>
-      </c>
-      <c r="W226">
-        <v>0</v>
-      </c>
-      <c r="X226">
-        <v>0</v>
-      </c>
-      <c r="Y226">
-        <v>0</v>
-      </c>
-      <c r="Z226">
-        <v>0</v>
-      </c>
-      <c r="AA226">
         <v>0</v>
       </c>
     </row>

--- a/Portugal Segunda Liga/Portugal Segunda Liga.xlsx
+++ b/Portugal Segunda Liga/Portugal Segunda Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -112,10 +112,10 @@
     <t>AVS</t>
   </si>
   <si>
-    <t>Academico Viseu</t>
+    <t>FC Porto B</t>
   </si>
   <si>
-    <t>FC Porto B</t>
+    <t>Academico Viseu</t>
   </si>
   <si>
     <t>Penafiel</t>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC224"/>
+  <dimension ref="A1:AC231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -889,7 +889,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6893191</v>
+        <v>6893285</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -904,7 +904,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -916,61 +916,61 @@
         <v>47</v>
       </c>
       <c r="K5">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="L5">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M5">
         <v>3.6</v>
       </c>
       <c r="N5">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="O5">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P5">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q5">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R5">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S5">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T5">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U5">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V5">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA5">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC5">
-        <v>0.825</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -978,7 +978,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6893285</v>
+        <v>6893191</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -993,7 +993,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1005,61 +1005,61 @@
         <v>47</v>
       </c>
       <c r="K6">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="L6">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M6">
         <v>3.6</v>
       </c>
       <c r="N6">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="O6">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P6">
+        <v>4.2</v>
+      </c>
+      <c r="Q6">
+        <v>-0.75</v>
+      </c>
+      <c r="R6">
+        <v>1.95</v>
+      </c>
+      <c r="S6">
+        <v>1.85</v>
+      </c>
+      <c r="T6">
+        <v>2.5</v>
+      </c>
+      <c r="U6">
+        <v>1.975</v>
+      </c>
+      <c r="V6">
+        <v>1.825</v>
+      </c>
+      <c r="W6">
+        <v>-1</v>
+      </c>
+      <c r="X6">
         <v>2.75</v>
       </c>
-      <c r="Q6">
-        <v>-0.25</v>
-      </c>
-      <c r="R6">
-        <v>2</v>
-      </c>
-      <c r="S6">
-        <v>1.8</v>
-      </c>
-      <c r="T6">
-        <v>2.25</v>
-      </c>
-      <c r="U6">
-        <v>1.8</v>
-      </c>
-      <c r="V6">
-        <v>2</v>
-      </c>
-      <c r="W6">
-        <v>-1</v>
-      </c>
-      <c r="X6">
-        <v>2.3</v>
-      </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB6">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1705,7 +1705,7 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1883,7 +1883,7 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -2236,7 +2236,7 @@
         <v>45164.29166666666</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G20" t="s">
         <v>44</v>
@@ -2491,7 +2491,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6893102</v>
+        <v>6899210</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2503,13 +2503,13 @@
         <v>45165.29166666666</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G23" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -2518,31 +2518,31 @@
         <v>49</v>
       </c>
       <c r="K23">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L23">
         <v>3.25</v>
       </c>
       <c r="M23">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N23">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="O23">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P23">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q23">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R23">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S23">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T23">
         <v>2.5</v>
@@ -2551,10 +2551,10 @@
         <v>2.025</v>
       </c>
       <c r="V23">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W23">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="X23">
         <v>-1</v>
@@ -2563,7 +2563,7 @@
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA23">
         <v>-1</v>
@@ -2580,7 +2580,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6899210</v>
+        <v>6893102</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2592,13 +2592,13 @@
         <v>45165.29166666666</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -2607,31 +2607,31 @@
         <v>49</v>
       </c>
       <c r="K24">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L24">
         <v>3.25</v>
       </c>
       <c r="M24">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N24">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="O24">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P24">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R24">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S24">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T24">
         <v>2.5</v>
@@ -2640,10 +2640,10 @@
         <v>2.025</v>
       </c>
       <c r="V24">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W24">
-        <v>1.45</v>
+        <v>1.25</v>
       </c>
       <c r="X24">
         <v>-1</v>
@@ -2652,7 +2652,7 @@
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AA24">
         <v>-1</v>
@@ -3129,7 +3129,7 @@
         <v>39</v>
       </c>
       <c r="G30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H30">
         <v>2</v>
@@ -3292,7 +3292,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6893107</v>
+        <v>7140182</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3304,76 +3304,76 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K32">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="L32">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M32">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="N32">
+        <v>2.3</v>
+      </c>
+      <c r="O32">
         <v>2.9</v>
       </c>
-      <c r="O32">
-        <v>3.5</v>
-      </c>
       <c r="P32">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q32">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R32">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S32">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T32">
         <v>2.25</v>
       </c>
       <c r="U32">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V32">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W32">
         <v>-1</v>
       </c>
       <c r="X32">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z32">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC32">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3381,7 +3381,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>7140182</v>
+        <v>6893107</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3393,76 +3393,76 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F33" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G33" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K33">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="L33">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M33">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="N33">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="O33">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="P33">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q33">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R33">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S33">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T33">
         <v>2.25</v>
       </c>
       <c r="U33">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V33">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W33">
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y33">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA33">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB33">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC33">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3927,7 +3927,7 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G39" t="s">
         <v>38</v>
@@ -4375,7 +4375,7 @@
         <v>36</v>
       </c>
       <c r="G44" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H44">
         <v>2</v>
@@ -4906,7 +4906,7 @@
         <v>45200.29166666666</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G50" t="s">
         <v>31</v>
@@ -4998,7 +4998,7 @@
         <v>46</v>
       </c>
       <c r="G51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5443,7 +5443,7 @@
         <v>37</v>
       </c>
       <c r="G56" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -5885,7 +5885,7 @@
         <v>45207.29166666666</v>
       </c>
       <c r="F61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G61" t="s">
         <v>45</v>
@@ -6597,7 +6597,7 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G69" t="s">
         <v>30</v>
@@ -6956,7 +6956,7 @@
         <v>42</v>
       </c>
       <c r="G73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7131,7 +7131,7 @@
         <v>45234.33333333334</v>
       </c>
       <c r="F75" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G75" t="s">
         <v>44</v>
@@ -7757,7 +7757,7 @@
         <v>29</v>
       </c>
       <c r="G82" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -8024,7 +8024,7 @@
         <v>34</v>
       </c>
       <c r="G85" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H85">
         <v>3</v>
@@ -8555,7 +8555,7 @@
         <v>45242.625</v>
       </c>
       <c r="F91" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G91" t="s">
         <v>35</v>
@@ -9267,10 +9267,10 @@
         <v>45255.33333333334</v>
       </c>
       <c r="F99" t="s">
+        <v>32</v>
+      </c>
+      <c r="G99" t="s">
         <v>33</v>
-      </c>
-      <c r="G99" t="s">
-        <v>32</v>
       </c>
       <c r="H99">
         <v>3</v>
@@ -9534,7 +9534,7 @@
         <v>45261.625</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G102" t="s">
         <v>43</v>
@@ -9626,7 +9626,7 @@
         <v>36</v>
       </c>
       <c r="G103" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -10323,7 +10323,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7559095</v>
+        <v>6893133</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10335,73 +10335,73 @@
         <v>45269.33333333334</v>
       </c>
       <c r="F111" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G111" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H111">
         <v>2</v>
       </c>
       <c r="I111">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K111">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="L111">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M111">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="N111">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O111">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P111">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="Q111">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R111">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S111">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T111">
         <v>2.25</v>
       </c>
       <c r="U111">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="V111">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W111">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA111">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB111">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AC111">
         <v>-1</v>
@@ -10412,7 +10412,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6893133</v>
+        <v>7559095</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10424,73 +10424,73 @@
         <v>45269.33333333334</v>
       </c>
       <c r="F112" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G112" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H112">
         <v>2</v>
       </c>
       <c r="I112">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J112" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K112">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="L112">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M112">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="N112">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="O112">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P112">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="Q112">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R112">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S112">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T112">
         <v>2.25</v>
       </c>
       <c r="U112">
+        <v>1.775</v>
+      </c>
+      <c r="V112">
         <v>2.025</v>
       </c>
-      <c r="V112">
-        <v>1.825</v>
-      </c>
       <c r="W112">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z112">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA112">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB112">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC112">
         <v>-1</v>
@@ -10783,7 +10783,7 @@
         <v>39</v>
       </c>
       <c r="G116" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -11047,7 +11047,7 @@
         <v>45276.33333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G119" t="s">
         <v>45</v>
@@ -11495,7 +11495,7 @@
         <v>37</v>
       </c>
       <c r="G124" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -12192,7 +12192,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6893140</v>
+        <v>6893139</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12204,55 +12204,55 @@
         <v>45290.33333333334</v>
       </c>
       <c r="F132" t="s">
+        <v>46</v>
+      </c>
+      <c r="G132" t="s">
         <v>33</v>
       </c>
-      <c r="G132" t="s">
-        <v>30</v>
-      </c>
       <c r="H132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J132" t="s">
         <v>48</v>
       </c>
       <c r="K132">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="L132">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M132">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="N132">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="O132">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P132">
-        <v>3.25</v>
+        <v>2.45</v>
       </c>
       <c r="Q132">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R132">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S132">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T132">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U132">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V132">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W132">
         <v>-1</v>
@@ -12261,16 +12261,16 @@
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>2.25</v>
+        <v>1.45</v>
       </c>
       <c r="Z132">
         <v>-1</v>
       </c>
       <c r="AA132">
-        <v>1.025</v>
+        <v>0.75</v>
       </c>
       <c r="AB132">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC132">
         <v>-1</v>
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6893139</v>
+        <v>6893140</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,55 +12293,55 @@
         <v>45290.33333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G133" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J133" t="s">
         <v>48</v>
       </c>
       <c r="K133">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="L133">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M133">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="N133">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="O133">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P133">
-        <v>2.45</v>
+        <v>3.25</v>
       </c>
       <c r="Q133">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R133">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S133">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U133">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V133">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W133">
         <v>-1</v>
@@ -12350,16 +12350,16 @@
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>1.45</v>
+        <v>2.25</v>
       </c>
       <c r="Z133">
         <v>-1</v>
       </c>
       <c r="AA133">
-        <v>0.75</v>
+        <v>1.025</v>
       </c>
       <c r="AB133">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC133">
         <v>-1</v>
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6893587</v>
+        <v>6893141</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,76 +12382,76 @@
         <v>45290.45833333334</v>
       </c>
       <c r="F134" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G134" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J134" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K134">
-        <v>1.65</v>
+        <v>1.909</v>
       </c>
       <c r="L134">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M134">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N134">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="O134">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P134">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q134">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R134">
+        <v>1.825</v>
+      </c>
+      <c r="S134">
+        <v>2.025</v>
+      </c>
+      <c r="T134">
+        <v>2.25</v>
+      </c>
+      <c r="U134">
+        <v>1.975</v>
+      </c>
+      <c r="V134">
         <v>1.875</v>
       </c>
-      <c r="S134">
-        <v>1.925</v>
-      </c>
-      <c r="T134">
-        <v>2.5</v>
-      </c>
-      <c r="U134">
-        <v>1.85</v>
-      </c>
-      <c r="V134">
-        <v>1.95</v>
-      </c>
       <c r="W134">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X134">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>0.4375</v>
+        <v>-0.5</v>
       </c>
       <c r="AA134">
-        <v>-0.5</v>
+        <v>0.5125</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC134">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12459,7 +12459,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6893141</v>
+        <v>6893587</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12471,76 +12471,76 @@
         <v>45290.45833333334</v>
       </c>
       <c r="F135" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G135" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K135">
-        <v>1.909</v>
+        <v>1.65</v>
       </c>
       <c r="L135">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M135">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N135">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="O135">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P135">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q135">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R135">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S135">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T135">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U135">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V135">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W135">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X135">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
+        <v>0.4375</v>
+      </c>
+      <c r="AA135">
         <v>-0.5</v>
       </c>
-      <c r="AA135">
-        <v>0.5125</v>
-      </c>
       <c r="AB135">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC135">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12904,7 +12904,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6893589</v>
+        <v>6893143</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12916,76 +12916,76 @@
         <v>45297.52083333334</v>
       </c>
       <c r="F140" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G140" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140">
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K140">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="L140">
         <v>3.5</v>
       </c>
       <c r="M140">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="N140">
-        <v>1.571</v>
+        <v>1.6</v>
       </c>
       <c r="O140">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P140">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q140">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R140">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S140">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T140">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U140">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V140">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W140">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z140">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB140">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC140">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12993,7 +12993,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6893143</v>
+        <v>6893589</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13005,76 +13005,76 @@
         <v>45297.52083333334</v>
       </c>
       <c r="F141" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G141" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141">
         <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K141">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L141">
         <v>3.5</v>
       </c>
       <c r="M141">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="N141">
-        <v>1.6</v>
+        <v>1.571</v>
       </c>
       <c r="O141">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P141">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q141">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R141">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S141">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T141">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U141">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V141">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W141">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA141">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB141">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC141">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13082,7 +13082,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6893145</v>
+        <v>6899181</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13094,76 +13094,76 @@
         <v>45297.625</v>
       </c>
       <c r="F142" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G142" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H142">
         <v>1</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J142" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K142">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="L142">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M142">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N142">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O142">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P142">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q142">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R142">
+        <v>2.025</v>
+      </c>
+      <c r="S142">
+        <v>1.775</v>
+      </c>
+      <c r="T142">
+        <v>2.25</v>
+      </c>
+      <c r="U142">
+        <v>1.975</v>
+      </c>
+      <c r="V142">
         <v>1.825</v>
       </c>
-      <c r="S142">
-        <v>1.975</v>
-      </c>
-      <c r="T142">
-        <v>2.5</v>
-      </c>
-      <c r="U142">
-        <v>1.875</v>
-      </c>
-      <c r="V142">
-        <v>1.925</v>
-      </c>
       <c r="W142">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X142">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA142">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
         <v>-1</v>
       </c>
       <c r="AC142">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13171,7 +13171,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6899181</v>
+        <v>6893145</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13183,76 +13183,76 @@
         <v>45297.625</v>
       </c>
       <c r="F143" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G143" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H143">
         <v>1</v>
       </c>
       <c r="I143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K143">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="L143">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M143">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="N143">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O143">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P143">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q143">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R143">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S143">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T143">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U143">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V143">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W143">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X143">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y143">
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB143">
         <v>-1</v>
       </c>
       <c r="AC143">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13364,7 +13364,7 @@
         <v>29</v>
       </c>
       <c r="G145" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H145">
         <v>3</v>
@@ -13883,7 +13883,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6899180</v>
+        <v>6893591</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13895,76 +13895,76 @@
         <v>45305.52083333334</v>
       </c>
       <c r="F151" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G151" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J151" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K151">
-        <v>1.833</v>
+        <v>1.75</v>
       </c>
       <c r="L151">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M151">
         <v>4.333</v>
       </c>
       <c r="N151">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="O151">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P151">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q151">
         <v>-0.5</v>
       </c>
       <c r="R151">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S151">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T151">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U151">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V151">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="W151">
         <v>-1</v>
       </c>
       <c r="X151">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y151">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z151">
         <v>-1</v>
       </c>
       <c r="AA151">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB151">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AC151">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13972,7 +13972,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6893591</v>
+        <v>6899180</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13984,76 +13984,76 @@
         <v>45305.52083333334</v>
       </c>
       <c r="F152" t="s">
+        <v>38</v>
+      </c>
+      <c r="G152" t="s">
         <v>33</v>
       </c>
-      <c r="G152" t="s">
-        <v>35</v>
-      </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I152">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J152" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K152">
-        <v>1.75</v>
+        <v>1.833</v>
       </c>
       <c r="L152">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M152">
         <v>4.333</v>
       </c>
       <c r="N152">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="O152">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P152">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q152">
         <v>-0.5</v>
       </c>
       <c r="R152">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S152">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T152">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U152">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V152">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="W152">
         <v>-1</v>
       </c>
       <c r="X152">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y152">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z152">
         <v>-1</v>
       </c>
       <c r="AA152">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB152">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AC152">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14343,7 +14343,7 @@
         <v>42</v>
       </c>
       <c r="G156" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -14699,7 +14699,7 @@
         <v>41</v>
       </c>
       <c r="G160" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H160">
         <v>0</v>
@@ -15319,7 +15319,7 @@
         <v>45319.52083333334</v>
       </c>
       <c r="F167" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G167" t="s">
         <v>43</v>
@@ -15764,7 +15764,7 @@
         <v>45321.71875</v>
       </c>
       <c r="F172" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G172" t="s">
         <v>41</v>
@@ -16034,7 +16034,7 @@
         <v>40</v>
       </c>
       <c r="G175" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H175">
         <v>1</v>
@@ -16565,7 +16565,7 @@
         <v>45332.33333333334</v>
       </c>
       <c r="F181" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G181" t="s">
         <v>34</v>
@@ -16998,7 +16998,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6893598</v>
+        <v>6893600</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17010,76 +17010,76 @@
         <v>45333.52083333334</v>
       </c>
       <c r="F186" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G186" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J186" t="s">
         <v>47</v>
       </c>
       <c r="K186">
+        <v>3.8</v>
+      </c>
+      <c r="L186">
+        <v>3.3</v>
+      </c>
+      <c r="M186">
+        <v>1.95</v>
+      </c>
+      <c r="N186">
+        <v>3.5</v>
+      </c>
+      <c r="O186">
+        <v>3.3</v>
+      </c>
+      <c r="P186">
         <v>2.05</v>
       </c>
-      <c r="L186">
-        <v>3.4</v>
-      </c>
-      <c r="M186">
-        <v>3.4</v>
-      </c>
-      <c r="N186">
-        <v>1.909</v>
-      </c>
-      <c r="O186">
-        <v>3.5</v>
-      </c>
-      <c r="P186">
-        <v>3.75</v>
-      </c>
       <c r="Q186">
+        <v>0.25</v>
+      </c>
+      <c r="R186">
+        <v>2.05</v>
+      </c>
+      <c r="S186">
+        <v>1.8</v>
+      </c>
+      <c r="T186">
+        <v>2.25</v>
+      </c>
+      <c r="U186">
+        <v>1.95</v>
+      </c>
+      <c r="V186">
+        <v>1.9</v>
+      </c>
+      <c r="W186">
+        <v>-1</v>
+      </c>
+      <c r="X186">
+        <v>2.3</v>
+      </c>
+      <c r="Y186">
+        <v>-1</v>
+      </c>
+      <c r="Z186">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="AA186">
         <v>-0.5</v>
       </c>
-      <c r="R186">
-        <v>1.9</v>
-      </c>
-      <c r="S186">
-        <v>1.9</v>
-      </c>
-      <c r="T186">
-        <v>2.5</v>
-      </c>
-      <c r="U186">
-        <v>1.85</v>
-      </c>
-      <c r="V186">
-        <v>1.95</v>
-      </c>
-      <c r="W186">
-        <v>-1</v>
-      </c>
-      <c r="X186">
-        <v>2.5</v>
-      </c>
-      <c r="Y186">
-        <v>-1</v>
-      </c>
-      <c r="Z186">
-        <v>-1</v>
-      </c>
-      <c r="AA186">
+      <c r="AB186">
+        <v>-1</v>
+      </c>
+      <c r="AC186">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB186">
-        <v>-1</v>
-      </c>
-      <c r="AC186">
-        <v>0.95</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17087,7 +17087,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6893600</v>
+        <v>6893598</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17099,76 +17099,76 @@
         <v>45333.52083333334</v>
       </c>
       <c r="F187" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G187" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J187" t="s">
         <v>47</v>
       </c>
       <c r="K187">
-        <v>3.8</v>
+        <v>2.05</v>
       </c>
       <c r="L187">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M187">
+        <v>3.4</v>
+      </c>
+      <c r="N187">
+        <v>1.909</v>
+      </c>
+      <c r="O187">
+        <v>3.5</v>
+      </c>
+      <c r="P187">
+        <v>3.75</v>
+      </c>
+      <c r="Q187">
+        <v>-0.5</v>
+      </c>
+      <c r="R187">
+        <v>1.9</v>
+      </c>
+      <c r="S187">
+        <v>1.9</v>
+      </c>
+      <c r="T187">
+        <v>2.5</v>
+      </c>
+      <c r="U187">
+        <v>1.85</v>
+      </c>
+      <c r="V187">
         <v>1.95</v>
       </c>
-      <c r="N187">
-        <v>3.5</v>
-      </c>
-      <c r="O187">
-        <v>3.3</v>
-      </c>
-      <c r="P187">
-        <v>2.05</v>
-      </c>
-      <c r="Q187">
-        <v>0.25</v>
-      </c>
-      <c r="R187">
-        <v>2.05</v>
-      </c>
-      <c r="S187">
-        <v>1.8</v>
-      </c>
-      <c r="T187">
-        <v>2.25</v>
-      </c>
-      <c r="U187">
-        <v>1.95</v>
-      </c>
-      <c r="V187">
-        <v>1.9</v>
-      </c>
       <c r="W187">
         <v>-1</v>
       </c>
       <c r="X187">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Y187">
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA187">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB187">
         <v>-1</v>
       </c>
       <c r="AC187">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17547,7 +17547,7 @@
         <v>38</v>
       </c>
       <c r="G192" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H192">
         <v>1</v>
@@ -17722,7 +17722,7 @@
         <v>45340.33333333334</v>
       </c>
       <c r="F194" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G194" t="s">
         <v>36</v>
@@ -18081,7 +18081,7 @@
         <v>44</v>
       </c>
       <c r="G198" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H198">
         <v>0</v>
@@ -18333,7 +18333,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6893167</v>
+        <v>6893169</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18345,76 +18345,76 @@
         <v>45346.52083333334</v>
       </c>
       <c r="F201" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G201" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I201">
         <v>2</v>
       </c>
       <c r="J201" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K201">
-        <v>1.833</v>
+        <v>1.75</v>
       </c>
       <c r="L201">
         <v>3.4</v>
       </c>
       <c r="M201">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="N201">
-        <v>1.75</v>
+        <v>1.666</v>
       </c>
       <c r="O201">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P201">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q201">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R201">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S201">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T201">
         <v>2.25</v>
       </c>
       <c r="U201">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V201">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W201">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X201">
         <v>-1</v>
       </c>
       <c r="Y201">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z201">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA201">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB201">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC201">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18422,7 +18422,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6893169</v>
+        <v>6893167</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18434,76 +18434,76 @@
         <v>45346.52083333334</v>
       </c>
       <c r="F202" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G202" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H202">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I202">
         <v>2</v>
       </c>
       <c r="J202" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K202">
-        <v>1.75</v>
+        <v>1.833</v>
       </c>
       <c r="L202">
         <v>3.4</v>
       </c>
       <c r="M202">
+        <v>4.333</v>
+      </c>
+      <c r="N202">
+        <v>1.75</v>
+      </c>
+      <c r="O202">
+        <v>3.4</v>
+      </c>
+      <c r="P202">
         <v>4.5</v>
       </c>
-      <c r="N202">
-        <v>1.666</v>
-      </c>
-      <c r="O202">
-        <v>3.5</v>
-      </c>
-      <c r="P202">
-        <v>5</v>
-      </c>
       <c r="Q202">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R202">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S202">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T202">
         <v>2.25</v>
       </c>
       <c r="U202">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V202">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W202">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X202">
         <v>-1</v>
       </c>
       <c r="Y202">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z202">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA202">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB202">
         <v>-0.5</v>
       </c>
-      <c r="AB202">
-        <v>0.7749999999999999</v>
-      </c>
       <c r="AC202">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18882,7 +18882,7 @@
         <v>31</v>
       </c>
       <c r="G207" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H207">
         <v>2</v>
@@ -19327,7 +19327,7 @@
         <v>45</v>
       </c>
       <c r="G212" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H212">
         <v>0</v>
@@ -19591,7 +19591,7 @@
         <v>45355.625</v>
       </c>
       <c r="F215" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G215" t="s">
         <v>37</v>
@@ -19935,7 +19935,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6893176</v>
+        <v>6893177</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19944,43 +19944,52 @@
         <v>28</v>
       </c>
       <c r="E219" s="2">
-        <v>45360.52083333334</v>
+        <v>45360.33333333334</v>
       </c>
       <c r="F219" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G219" t="s">
-        <v>45</v>
+        <v>34</v>
+      </c>
+      <c r="H219">
+        <v>0</v>
+      </c>
+      <c r="I219">
+        <v>1</v>
+      </c>
+      <c r="J219" t="s">
+        <v>48</v>
       </c>
       <c r="K219">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L219">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M219">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="N219">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O219">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P219">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q219">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R219">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S219">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="T219">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U219">
         <v>1.825</v>
@@ -19989,19 +19998,25 @@
         <v>2.025</v>
       </c>
       <c r="W219">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X219">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y219">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="Z219">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA219">
-        <v>0</v>
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB219">
+        <v>-1</v>
+      </c>
+      <c r="AC219">
+        <v>1.025</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20009,7 +20024,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6893179</v>
+        <v>6893178</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20018,64 +20033,79 @@
         <v>28</v>
       </c>
       <c r="E220" s="2">
-        <v>45360.52083333334</v>
+        <v>45360.45833333334</v>
       </c>
       <c r="F220" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G220" t="s">
-        <v>37</v>
+        <v>33</v>
+      </c>
+      <c r="H220">
+        <v>1</v>
+      </c>
+      <c r="I220">
+        <v>1</v>
+      </c>
+      <c r="J220" t="s">
+        <v>47</v>
       </c>
       <c r="K220">
-        <v>3.2</v>
+        <v>1.85</v>
       </c>
       <c r="L220">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M220">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="N220">
-        <v>3.3</v>
+        <v>1.666</v>
       </c>
       <c r="O220">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P220">
-        <v>2.15</v>
+        <v>4.75</v>
       </c>
       <c r="Q220">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R220">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S220">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T220">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U220">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V220">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W220">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X220">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="Y220">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z220">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA220">
-        <v>0</v>
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB220">
+        <v>-1</v>
+      </c>
+      <c r="AC220">
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20095,11 +20125,20 @@
         <v>45360.52083333334</v>
       </c>
       <c r="F221" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G221" t="s">
         <v>42</v>
       </c>
+      <c r="H221">
+        <v>2</v>
+      </c>
+      <c r="I221">
+        <v>1</v>
+      </c>
+      <c r="J221" t="s">
+        <v>49</v>
+      </c>
       <c r="K221">
         <v>1.5</v>
       </c>
@@ -20110,13 +20149,13 @@
         <v>5.5</v>
       </c>
       <c r="N221">
-        <v>1.533</v>
+        <v>1.571</v>
       </c>
       <c r="O221">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P221">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="Q221">
         <v>-1</v>
@@ -20125,7 +20164,7 @@
         <v>1.975</v>
       </c>
       <c r="S221">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T221">
         <v>2.75</v>
@@ -20134,22 +20173,28 @@
         <v>2</v>
       </c>
       <c r="V221">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W221">
-        <v>0</v>
+        <v>0.571</v>
       </c>
       <c r="X221">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y221">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z221">
         <v>0</v>
       </c>
       <c r="AA221">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AB221">
+        <v>0.5</v>
+      </c>
+      <c r="AC221">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20157,7 +20202,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6899165</v>
+        <v>6893179</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20166,64 +20211,79 @@
         <v>28</v>
       </c>
       <c r="E222" s="2">
-        <v>45361.33333333334</v>
+        <v>45360.52083333334</v>
       </c>
       <c r="F222" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G222" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
+        <v>1</v>
+      </c>
+      <c r="J222" t="s">
+        <v>48</v>
       </c>
       <c r="K222">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="L222">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M222">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="N222">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="O222">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P222">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q222">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R222">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S222">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T222">
         <v>2.25</v>
       </c>
       <c r="U222">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V222">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W222">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X222">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y222">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="Z222">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA222">
-        <v>0</v>
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB222">
+        <v>-1</v>
+      </c>
+      <c r="AC222">
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20231,7 +20291,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6899164</v>
+        <v>6893176</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20240,64 +20300,79 @@
         <v>28</v>
       </c>
       <c r="E223" s="2">
-        <v>45362.625</v>
+        <v>45360.52083333334</v>
       </c>
       <c r="F223" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G223" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="H223">
+        <v>2</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223" t="s">
+        <v>49</v>
       </c>
       <c r="K223">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="L223">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="M223">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="N223">
+        <v>2.05</v>
+      </c>
+      <c r="O223">
         <v>3.1</v>
       </c>
-      <c r="O223">
-        <v>2.9</v>
-      </c>
       <c r="P223">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="Q223">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R223">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S223">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="T223">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U223">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="V223">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="W223">
+        <v>1.05</v>
+      </c>
+      <c r="X223">
+        <v>-1</v>
+      </c>
+      <c r="Y223">
+        <v>-1</v>
+      </c>
+      <c r="Z223">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA223">
+        <v>-1</v>
+      </c>
+      <c r="AB223">
         <v>0</v>
       </c>
-      <c r="X223">
-        <v>0</v>
-      </c>
-      <c r="Y223">
-        <v>0</v>
-      </c>
-      <c r="Z223">
-        <v>0</v>
-      </c>
-      <c r="AA223">
-        <v>0</v>
+      <c r="AC223">
+        <v>-0</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20305,72 +20380,635 @@
         <v>222</v>
       </c>
       <c r="B224">
+        <v>6899165</v>
+      </c>
+      <c r="C224" t="s">
+        <v>28</v>
+      </c>
+      <c r="D224" t="s">
+        <v>28</v>
+      </c>
+      <c r="E224" s="2">
+        <v>45361.33333333334</v>
+      </c>
+      <c r="F224" t="s">
+        <v>41</v>
+      </c>
+      <c r="G224" t="s">
+        <v>38</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224">
+        <v>3</v>
+      </c>
+      <c r="J224" t="s">
+        <v>48</v>
+      </c>
+      <c r="K224">
+        <v>2.6</v>
+      </c>
+      <c r="L224">
+        <v>3.25</v>
+      </c>
+      <c r="M224">
+        <v>2.45</v>
+      </c>
+      <c r="N224">
+        <v>2.55</v>
+      </c>
+      <c r="O224">
+        <v>3.1</v>
+      </c>
+      <c r="P224">
+        <v>2.6</v>
+      </c>
+      <c r="Q224">
+        <v>0</v>
+      </c>
+      <c r="R224">
+        <v>1.875</v>
+      </c>
+      <c r="S224">
+        <v>1.925</v>
+      </c>
+      <c r="T224">
+        <v>2.25</v>
+      </c>
+      <c r="U224">
+        <v>2.025</v>
+      </c>
+      <c r="V224">
+        <v>1.775</v>
+      </c>
+      <c r="W224">
+        <v>-1</v>
+      </c>
+      <c r="X224">
+        <v>-1</v>
+      </c>
+      <c r="Y224">
+        <v>1.6</v>
+      </c>
+      <c r="Z224">
+        <v>-1</v>
+      </c>
+      <c r="AA224">
+        <v>0.925</v>
+      </c>
+      <c r="AB224">
+        <v>1.025</v>
+      </c>
+      <c r="AC224">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:29">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225">
+        <v>6899164</v>
+      </c>
+      <c r="C225" t="s">
+        <v>28</v>
+      </c>
+      <c r="D225" t="s">
+        <v>28</v>
+      </c>
+      <c r="E225" s="2">
+        <v>45362.625</v>
+      </c>
+      <c r="F225" t="s">
+        <v>43</v>
+      </c>
+      <c r="G225" t="s">
+        <v>46</v>
+      </c>
+      <c r="H225">
+        <v>1</v>
+      </c>
+      <c r="I225">
+        <v>2</v>
+      </c>
+      <c r="J225" t="s">
+        <v>48</v>
+      </c>
+      <c r="K225">
+        <v>2.625</v>
+      </c>
+      <c r="L225">
+        <v>2.875</v>
+      </c>
+      <c r="M225">
+        <v>2.75</v>
+      </c>
+      <c r="N225">
+        <v>3.4</v>
+      </c>
+      <c r="O225">
+        <v>2.9</v>
+      </c>
+      <c r="P225">
+        <v>2.2</v>
+      </c>
+      <c r="Q225">
+        <v>0.25</v>
+      </c>
+      <c r="R225">
+        <v>1.9</v>
+      </c>
+      <c r="S225">
+        <v>1.9</v>
+      </c>
+      <c r="T225">
+        <v>2</v>
+      </c>
+      <c r="U225">
+        <v>1.75</v>
+      </c>
+      <c r="V225">
+        <v>2.05</v>
+      </c>
+      <c r="W225">
+        <v>-1</v>
+      </c>
+      <c r="X225">
+        <v>-1</v>
+      </c>
+      <c r="Y225">
+        <v>1.2</v>
+      </c>
+      <c r="Z225">
+        <v>-1</v>
+      </c>
+      <c r="AA225">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB225">
+        <v>0.75</v>
+      </c>
+      <c r="AC225">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:29">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226">
         <v>6899273</v>
       </c>
-      <c r="C224" t="s">
-        <v>28</v>
-      </c>
-      <c r="D224" t="s">
-        <v>28</v>
-      </c>
-      <c r="E224" s="2">
+      <c r="C226" t="s">
+        <v>28</v>
+      </c>
+      <c r="D226" t="s">
+        <v>28</v>
+      </c>
+      <c r="E226" s="2">
         <v>45362.71875</v>
       </c>
-      <c r="F224" t="s">
+      <c r="F226" t="s">
         <v>31</v>
       </c>
-      <c r="G224" t="s">
+      <c r="G226" t="s">
         <v>44</v>
       </c>
-      <c r="K224">
+      <c r="H226">
+        <v>1</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226" t="s">
+        <v>49</v>
+      </c>
+      <c r="K226">
         <v>1.55</v>
       </c>
-      <c r="L224">
+      <c r="L226">
         <v>3.75</v>
       </c>
-      <c r="M224">
+      <c r="M226">
         <v>5.75</v>
       </c>
-      <c r="N224">
-        <v>1.55</v>
-      </c>
-      <c r="O224">
-        <v>3.6</v>
-      </c>
-      <c r="P224">
-        <v>6</v>
-      </c>
-      <c r="Q224">
-        <v>-1</v>
-      </c>
-      <c r="R224">
+      <c r="N226">
+        <v>1.4</v>
+      </c>
+      <c r="O226">
+        <v>4.2</v>
+      </c>
+      <c r="P226">
+        <v>8</v>
+      </c>
+      <c r="Q226">
+        <v>-1.25</v>
+      </c>
+      <c r="R226">
+        <v>1.925</v>
+      </c>
+      <c r="S226">
+        <v>1.875</v>
+      </c>
+      <c r="T226">
+        <v>2.5</v>
+      </c>
+      <c r="U226">
+        <v>1.9</v>
+      </c>
+      <c r="V226">
+        <v>1.9</v>
+      </c>
+      <c r="W226">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="X226">
+        <v>-1</v>
+      </c>
+      <c r="Y226">
+        <v>-1</v>
+      </c>
+      <c r="Z226">
+        <v>-0.5</v>
+      </c>
+      <c r="AA226">
+        <v>0.4375</v>
+      </c>
+      <c r="AB226">
+        <v>-1</v>
+      </c>
+      <c r="AC226">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="227" spans="1:29">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227">
+        <v>6893608</v>
+      </c>
+      <c r="C227" t="s">
+        <v>28</v>
+      </c>
+      <c r="D227" t="s">
+        <v>28</v>
+      </c>
+      <c r="E227" s="2">
+        <v>45366.625</v>
+      </c>
+      <c r="F227" t="s">
+        <v>45</v>
+      </c>
+      <c r="G227" t="s">
+        <v>41</v>
+      </c>
+      <c r="K227">
+        <v>2.45</v>
+      </c>
+      <c r="L227">
+        <v>3</v>
+      </c>
+      <c r="M227">
+        <v>2.8</v>
+      </c>
+      <c r="N227">
+        <v>2.3</v>
+      </c>
+      <c r="O227">
+        <v>3</v>
+      </c>
+      <c r="P227">
+        <v>3</v>
+      </c>
+      <c r="Q227">
+        <v>-0.25</v>
+      </c>
+      <c r="R227">
+        <v>2.05</v>
+      </c>
+      <c r="S227">
+        <v>1.8</v>
+      </c>
+      <c r="T227">
+        <v>2</v>
+      </c>
+      <c r="U227">
+        <v>1.775</v>
+      </c>
+      <c r="V227">
+        <v>2.1</v>
+      </c>
+      <c r="W227">
+        <v>0</v>
+      </c>
+      <c r="X227">
+        <v>0</v>
+      </c>
+      <c r="Y227">
+        <v>0</v>
+      </c>
+      <c r="Z227">
+        <v>0</v>
+      </c>
+      <c r="AA227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:29">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228">
+        <v>6893181</v>
+      </c>
+      <c r="C228" t="s">
+        <v>28</v>
+      </c>
+      <c r="D228" t="s">
+        <v>28</v>
+      </c>
+      <c r="E228" s="2">
+        <v>45367.45833333334</v>
+      </c>
+      <c r="F228" t="s">
+        <v>34</v>
+      </c>
+      <c r="G228" t="s">
+        <v>35</v>
+      </c>
+      <c r="K228">
+        <v>2.7</v>
+      </c>
+      <c r="L228">
+        <v>3</v>
+      </c>
+      <c r="M228">
+        <v>2.55</v>
+      </c>
+      <c r="N228">
+        <v>2.7</v>
+      </c>
+      <c r="O228">
+        <v>3</v>
+      </c>
+      <c r="P228">
+        <v>2.55</v>
+      </c>
+      <c r="Q228">
+        <v>0</v>
+      </c>
+      <c r="R228">
+        <v>2</v>
+      </c>
+      <c r="S228">
+        <v>1.85</v>
+      </c>
+      <c r="T228">
+        <v>2.25</v>
+      </c>
+      <c r="U228">
+        <v>1.925</v>
+      </c>
+      <c r="V228">
+        <v>1.925</v>
+      </c>
+      <c r="W228">
+        <v>0</v>
+      </c>
+      <c r="X228">
+        <v>0</v>
+      </c>
+      <c r="Y228">
+        <v>0</v>
+      </c>
+      <c r="Z228">
+        <v>0</v>
+      </c>
+      <c r="AA228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:29">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229">
+        <v>6893180</v>
+      </c>
+      <c r="C229" t="s">
+        <v>28</v>
+      </c>
+      <c r="D229" t="s">
+        <v>28</v>
+      </c>
+      <c r="E229" s="2">
+        <v>45367.52083333334</v>
+      </c>
+      <c r="F229" t="s">
+        <v>33</v>
+      </c>
+      <c r="G229" t="s">
+        <v>29</v>
+      </c>
+      <c r="K229">
+        <v>2.375</v>
+      </c>
+      <c r="L229">
+        <v>3</v>
+      </c>
+      <c r="M229">
+        <v>2.8</v>
+      </c>
+      <c r="N229">
+        <v>2.6</v>
+      </c>
+      <c r="O229">
+        <v>2.9</v>
+      </c>
+      <c r="P229">
+        <v>2.6</v>
+      </c>
+      <c r="Q229">
+        <v>0</v>
+      </c>
+      <c r="R229">
+        <v>1.95</v>
+      </c>
+      <c r="S229">
+        <v>1.9</v>
+      </c>
+      <c r="T229">
+        <v>2.25</v>
+      </c>
+      <c r="U229">
+        <v>2.025</v>
+      </c>
+      <c r="V229">
+        <v>1.825</v>
+      </c>
+      <c r="W229">
+        <v>0</v>
+      </c>
+      <c r="X229">
+        <v>0</v>
+      </c>
+      <c r="Y229">
+        <v>0</v>
+      </c>
+      <c r="Z229">
+        <v>0</v>
+      </c>
+      <c r="AA229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:29">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230">
+        <v>6899162</v>
+      </c>
+      <c r="C230" t="s">
+        <v>28</v>
+      </c>
+      <c r="D230" t="s">
+        <v>28</v>
+      </c>
+      <c r="E230" s="2">
+        <v>45367.52083333334</v>
+      </c>
+      <c r="F230" t="s">
+        <v>38</v>
+      </c>
+      <c r="G230" t="s">
+        <v>40</v>
+      </c>
+      <c r="K230">
+        <v>1.8</v>
+      </c>
+      <c r="L230">
+        <v>3.25</v>
+      </c>
+      <c r="M230">
+        <v>4</v>
+      </c>
+      <c r="N230">
+        <v>1.8</v>
+      </c>
+      <c r="O230">
+        <v>3.25</v>
+      </c>
+      <c r="P230">
+        <v>4</v>
+      </c>
+      <c r="Q230">
+        <v>-0.5</v>
+      </c>
+      <c r="R230">
+        <v>1.85</v>
+      </c>
+      <c r="S230">
+        <v>2</v>
+      </c>
+      <c r="T230">
+        <v>2.25</v>
+      </c>
+      <c r="U230">
+        <v>1.825</v>
+      </c>
+      <c r="V230">
+        <v>2.025</v>
+      </c>
+      <c r="W230">
+        <v>0</v>
+      </c>
+      <c r="X230">
+        <v>0</v>
+      </c>
+      <c r="Y230">
+        <v>0</v>
+      </c>
+      <c r="Z230">
+        <v>0</v>
+      </c>
+      <c r="AA230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:29">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231">
+        <v>6893182</v>
+      </c>
+      <c r="C231" t="s">
+        <v>28</v>
+      </c>
+      <c r="D231" t="s">
+        <v>28</v>
+      </c>
+      <c r="E231" s="2">
+        <v>45368.45833333334</v>
+      </c>
+      <c r="F231" t="s">
+        <v>37</v>
+      </c>
+      <c r="G231" t="s">
+        <v>30</v>
+      </c>
+      <c r="K231">
+        <v>1.727</v>
+      </c>
+      <c r="L231">
+        <v>3.5</v>
+      </c>
+      <c r="M231">
+        <v>4.2</v>
+      </c>
+      <c r="N231">
+        <v>1.75</v>
+      </c>
+      <c r="O231">
+        <v>3.4</v>
+      </c>
+      <c r="P231">
+        <v>4</v>
+      </c>
+      <c r="Q231">
+        <v>-0.5</v>
+      </c>
+      <c r="R231">
+        <v>1.875</v>
+      </c>
+      <c r="S231">
         <v>1.975</v>
       </c>
-      <c r="S224">
-        <v>1.875</v>
-      </c>
-      <c r="T224">
+      <c r="T231">
         <v>2.5</v>
       </c>
-      <c r="U224">
-        <v>2.05</v>
-      </c>
-      <c r="V224">
-        <v>1.8</v>
-      </c>
-      <c r="W224">
+      <c r="U231">
+        <v>2.025</v>
+      </c>
+      <c r="V231">
+        <v>1.825</v>
+      </c>
+      <c r="W231">
         <v>0</v>
       </c>
-      <c r="X224">
+      <c r="X231">
         <v>0</v>
       </c>
-      <c r="Y224">
+      <c r="Y231">
         <v>0</v>
       </c>
-      <c r="Z224">
+      <c r="Z231">
         <v>0</v>
       </c>
-      <c r="AA224">
+      <c r="AA231">
         <v>0</v>
       </c>
     </row>

--- a/Portugal Segunda Liga/Portugal Segunda Liga.xlsx
+++ b/Portugal Segunda Liga/Portugal Segunda Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -112,10 +112,10 @@
     <t>AVS</t>
   </si>
   <si>
-    <t>FC Porto B</t>
+    <t>Academico Viseu</t>
   </si>
   <si>
-    <t>Academico Viseu</t>
+    <t>FC Porto B</t>
   </si>
   <si>
     <t>Penafiel</t>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC231"/>
+  <dimension ref="A1:AC234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -889,7 +889,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6893285</v>
+        <v>6893191</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -904,7 +904,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -916,61 +916,61 @@
         <v>47</v>
       </c>
       <c r="K5">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="L5">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M5">
         <v>3.6</v>
       </c>
       <c r="N5">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="O5">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P5">
+        <v>4.2</v>
+      </c>
+      <c r="Q5">
+        <v>-0.75</v>
+      </c>
+      <c r="R5">
+        <v>1.95</v>
+      </c>
+      <c r="S5">
+        <v>1.85</v>
+      </c>
+      <c r="T5">
+        <v>2.5</v>
+      </c>
+      <c r="U5">
+        <v>1.975</v>
+      </c>
+      <c r="V5">
+        <v>1.825</v>
+      </c>
+      <c r="W5">
+        <v>-1</v>
+      </c>
+      <c r="X5">
         <v>2.75</v>
       </c>
-      <c r="Q5">
-        <v>-0.25</v>
-      </c>
-      <c r="R5">
-        <v>2</v>
-      </c>
-      <c r="S5">
-        <v>1.8</v>
-      </c>
-      <c r="T5">
-        <v>2.25</v>
-      </c>
-      <c r="U5">
-        <v>1.8</v>
-      </c>
-      <c r="V5">
-        <v>2</v>
-      </c>
-      <c r="W5">
-        <v>-1</v>
-      </c>
-      <c r="X5">
-        <v>2.3</v>
-      </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB5">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -978,7 +978,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6893191</v>
+        <v>6893285</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -993,7 +993,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1005,61 +1005,61 @@
         <v>47</v>
       </c>
       <c r="K6">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="L6">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M6">
         <v>3.6</v>
       </c>
       <c r="N6">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="O6">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P6">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q6">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R6">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S6">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T6">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U6">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V6">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA6">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC6">
-        <v>0.825</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1705,7 +1705,7 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1883,7 +1883,7 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -2236,7 +2236,7 @@
         <v>45164.29166666666</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s">
         <v>44</v>
@@ -2491,7 +2491,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6899210</v>
+        <v>6893102</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2503,13 +2503,13 @@
         <v>45165.29166666666</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G23" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -2518,31 +2518,31 @@
         <v>49</v>
       </c>
       <c r="K23">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L23">
         <v>3.25</v>
       </c>
       <c r="M23">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N23">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="O23">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P23">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R23">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S23">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T23">
         <v>2.5</v>
@@ -2551,10 +2551,10 @@
         <v>2.025</v>
       </c>
       <c r="V23">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W23">
-        <v>1.45</v>
+        <v>1.25</v>
       </c>
       <c r="X23">
         <v>-1</v>
@@ -2563,7 +2563,7 @@
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AA23">
         <v>-1</v>
@@ -2580,7 +2580,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6893102</v>
+        <v>6899210</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2592,13 +2592,13 @@
         <v>45165.29166666666</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G24" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -2607,31 +2607,31 @@
         <v>49</v>
       </c>
       <c r="K24">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L24">
         <v>3.25</v>
       </c>
       <c r="M24">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N24">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="O24">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P24">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q24">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S24">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T24">
         <v>2.5</v>
@@ -2640,10 +2640,10 @@
         <v>2.025</v>
       </c>
       <c r="V24">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W24">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="X24">
         <v>-1</v>
@@ -2652,7 +2652,7 @@
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA24">
         <v>-1</v>
@@ -3129,7 +3129,7 @@
         <v>39</v>
       </c>
       <c r="G30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H30">
         <v>2</v>
@@ -3292,7 +3292,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>7140182</v>
+        <v>6893107</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3304,76 +3304,76 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F32" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K32">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="L32">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M32">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="N32">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="O32">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="P32">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q32">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R32">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S32">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T32">
         <v>2.25</v>
       </c>
       <c r="U32">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V32">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W32">
         <v>-1</v>
       </c>
       <c r="X32">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y32">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA32">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB32">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3381,7 +3381,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6893107</v>
+        <v>7140182</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3393,76 +3393,76 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F33" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K33">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="L33">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M33">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="N33">
+        <v>2.3</v>
+      </c>
+      <c r="O33">
         <v>2.9</v>
       </c>
-      <c r="O33">
-        <v>3.5</v>
-      </c>
       <c r="P33">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q33">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R33">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S33">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T33">
         <v>2.25</v>
       </c>
       <c r="U33">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V33">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W33">
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z33">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB33">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC33">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3915,7 +3915,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6899208</v>
+        <v>6899293</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3927,76 +3927,76 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G39" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H39">
+        <v>2</v>
+      </c>
+      <c r="I39">
         <v>0</v>
       </c>
-      <c r="I39">
-        <v>2</v>
-      </c>
       <c r="J39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K39">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="L39">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M39">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="N39">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="O39">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P39">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="Q39">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R39">
         <v>2.05</v>
       </c>
       <c r="S39">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T39">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U39">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V39">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA39">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>0.5125</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4004,7 +4004,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6899293</v>
+        <v>6899208</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4016,76 +4016,76 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F40" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G40" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K40">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="L40">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M40">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="N40">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="O40">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P40">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q40">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R40">
         <v>2.05</v>
       </c>
       <c r="S40">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T40">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U40">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V40">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W40">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z40">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC40">
-        <v>0.8500000000000001</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4375,7 +4375,7 @@
         <v>36</v>
       </c>
       <c r="G44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H44">
         <v>2</v>
@@ -4906,7 +4906,7 @@
         <v>45200.29166666666</v>
       </c>
       <c r="F50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G50" t="s">
         <v>31</v>
@@ -4998,7 +4998,7 @@
         <v>46</v>
       </c>
       <c r="G51" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5443,7 +5443,7 @@
         <v>37</v>
       </c>
       <c r="G56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -5784,7 +5784,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6899203</v>
+        <v>6893569</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5796,46 +5796,46 @@
         <v>45207.29166666666</v>
       </c>
       <c r="F60" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G60" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K60">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L60">
         <v>3.3</v>
       </c>
       <c r="M60">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="N60">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="O60">
         <v>3.3</v>
       </c>
       <c r="P60">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q60">
         <v>0</v>
       </c>
       <c r="R60">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S60">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T60">
         <v>2.5</v>
@@ -5847,19 +5847,19 @@
         <v>1.85</v>
       </c>
       <c r="W60">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X60">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y60">
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA60">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB60">
         <v>0.95</v>
@@ -5873,7 +5873,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6893569</v>
+        <v>6899203</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5885,46 +5885,46 @@
         <v>45207.29166666666</v>
       </c>
       <c r="F61" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G61" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K61">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L61">
         <v>3.3</v>
       </c>
       <c r="M61">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="N61">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="O61">
         <v>3.3</v>
       </c>
       <c r="P61">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="Q61">
         <v>0</v>
       </c>
       <c r="R61">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S61">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T61">
         <v>2.5</v>
@@ -5936,19 +5936,19 @@
         <v>1.85</v>
       </c>
       <c r="W61">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X61">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA61">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB61">
         <v>0.95</v>
@@ -6597,7 +6597,7 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G69" t="s">
         <v>30</v>
@@ -6956,7 +6956,7 @@
         <v>42</v>
       </c>
       <c r="G73" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7131,7 +7131,7 @@
         <v>45234.33333333334</v>
       </c>
       <c r="F75" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G75" t="s">
         <v>44</v>
@@ -7757,7 +7757,7 @@
         <v>29</v>
       </c>
       <c r="G82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -8024,7 +8024,7 @@
         <v>34</v>
       </c>
       <c r="G85" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H85">
         <v>3</v>
@@ -8555,7 +8555,7 @@
         <v>45242.625</v>
       </c>
       <c r="F91" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G91" t="s">
         <v>35</v>
@@ -9267,10 +9267,10 @@
         <v>45255.33333333334</v>
       </c>
       <c r="F99" t="s">
+        <v>33</v>
+      </c>
+      <c r="G99" t="s">
         <v>32</v>
-      </c>
-      <c r="G99" t="s">
-        <v>33</v>
       </c>
       <c r="H99">
         <v>3</v>
@@ -9534,7 +9534,7 @@
         <v>45261.625</v>
       </c>
       <c r="F102" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G102" t="s">
         <v>43</v>
@@ -9626,7 +9626,7 @@
         <v>36</v>
       </c>
       <c r="G103" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -10323,7 +10323,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6893133</v>
+        <v>7559095</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10335,73 +10335,73 @@
         <v>45269.33333333334</v>
       </c>
       <c r="F111" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G111" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H111">
         <v>2</v>
       </c>
       <c r="I111">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J111" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K111">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="L111">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M111">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="N111">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="O111">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P111">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="Q111">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R111">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S111">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T111">
         <v>2.25</v>
       </c>
       <c r="U111">
+        <v>1.775</v>
+      </c>
+      <c r="V111">
         <v>2.025</v>
       </c>
-      <c r="V111">
-        <v>1.825</v>
-      </c>
       <c r="W111">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z111">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB111">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC111">
         <v>-1</v>
@@ -10412,7 +10412,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7559095</v>
+        <v>6893133</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10424,73 +10424,73 @@
         <v>45269.33333333334</v>
       </c>
       <c r="F112" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G112" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H112">
         <v>2</v>
       </c>
       <c r="I112">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K112">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="L112">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M112">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="N112">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O112">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P112">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="Q112">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R112">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S112">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T112">
         <v>2.25</v>
       </c>
       <c r="U112">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="V112">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W112">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA112">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB112">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AC112">
         <v>-1</v>
@@ -10783,7 +10783,7 @@
         <v>39</v>
       </c>
       <c r="G116" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -11047,7 +11047,7 @@
         <v>45276.33333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G119" t="s">
         <v>45</v>
@@ -11495,7 +11495,7 @@
         <v>37</v>
       </c>
       <c r="G124" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -12207,7 +12207,7 @@
         <v>46</v>
       </c>
       <c r="G132" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H132">
         <v>1</v>
@@ -12293,7 +12293,7 @@
         <v>45290.33333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G133" t="s">
         <v>30</v>
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6893141</v>
+        <v>6893587</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,76 +12382,76 @@
         <v>45290.45833333334</v>
       </c>
       <c r="F134" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G134" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I134">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J134" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K134">
-        <v>1.909</v>
+        <v>1.65</v>
       </c>
       <c r="L134">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M134">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N134">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="O134">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P134">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q134">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R134">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S134">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T134">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U134">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V134">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W134">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X134">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
+        <v>0.4375</v>
+      </c>
+      <c r="AA134">
         <v>-0.5</v>
       </c>
-      <c r="AA134">
-        <v>0.5125</v>
-      </c>
       <c r="AB134">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC134">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12459,7 +12459,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6893587</v>
+        <v>6893141</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12471,76 +12471,76 @@
         <v>45290.45833333334</v>
       </c>
       <c r="F135" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G135" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J135" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K135">
-        <v>1.65</v>
+        <v>1.909</v>
       </c>
       <c r="L135">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M135">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N135">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="O135">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P135">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q135">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R135">
+        <v>1.825</v>
+      </c>
+      <c r="S135">
+        <v>2.025</v>
+      </c>
+      <c r="T135">
+        <v>2.25</v>
+      </c>
+      <c r="U135">
+        <v>1.975</v>
+      </c>
+      <c r="V135">
         <v>1.875</v>
       </c>
-      <c r="S135">
-        <v>1.925</v>
-      </c>
-      <c r="T135">
-        <v>2.5</v>
-      </c>
-      <c r="U135">
-        <v>1.85</v>
-      </c>
-      <c r="V135">
-        <v>1.95</v>
-      </c>
       <c r="W135">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>0.4375</v>
+        <v>-0.5</v>
       </c>
       <c r="AA135">
-        <v>-0.5</v>
+        <v>0.5125</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC135">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12904,7 +12904,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6893143</v>
+        <v>6893589</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12916,76 +12916,76 @@
         <v>45297.52083333334</v>
       </c>
       <c r="F140" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G140" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140">
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K140">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L140">
         <v>3.5</v>
       </c>
       <c r="M140">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="N140">
-        <v>1.6</v>
+        <v>1.571</v>
       </c>
       <c r="O140">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P140">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q140">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R140">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S140">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T140">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U140">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V140">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA140">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC140">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12993,7 +12993,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6893589</v>
+        <v>6893143</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13005,76 +13005,76 @@
         <v>45297.52083333334</v>
       </c>
       <c r="F141" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G141" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141">
         <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K141">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="L141">
         <v>3.5</v>
       </c>
       <c r="M141">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="N141">
-        <v>1.571</v>
+        <v>1.6</v>
       </c>
       <c r="O141">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P141">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q141">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R141">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S141">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T141">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U141">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V141">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W141">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z141">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB141">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13094,7 +13094,7 @@
         <v>45297.625</v>
       </c>
       <c r="F142" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G142" t="s">
         <v>40</v>
@@ -13364,7 +13364,7 @@
         <v>29</v>
       </c>
       <c r="G145" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H145">
         <v>3</v>
@@ -13895,7 +13895,7 @@
         <v>45305.52083333334</v>
       </c>
       <c r="F151" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G151" t="s">
         <v>35</v>
@@ -13987,7 +13987,7 @@
         <v>38</v>
       </c>
       <c r="G152" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -14343,7 +14343,7 @@
         <v>42</v>
       </c>
       <c r="G156" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -14699,7 +14699,7 @@
         <v>41</v>
       </c>
       <c r="G160" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H160">
         <v>0</v>
@@ -15319,7 +15319,7 @@
         <v>45319.52083333334</v>
       </c>
       <c r="F167" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G167" t="s">
         <v>43</v>
@@ -15764,7 +15764,7 @@
         <v>45321.71875</v>
       </c>
       <c r="F172" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G172" t="s">
         <v>41</v>
@@ -16034,7 +16034,7 @@
         <v>40</v>
       </c>
       <c r="G175" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H175">
         <v>1</v>
@@ -16565,7 +16565,7 @@
         <v>45332.33333333334</v>
       </c>
       <c r="F181" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G181" t="s">
         <v>34</v>
@@ -17099,7 +17099,7 @@
         <v>45333.52083333334</v>
       </c>
       <c r="F187" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G187" t="s">
         <v>39</v>
@@ -17547,7 +17547,7 @@
         <v>38</v>
       </c>
       <c r="G192" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H192">
         <v>1</v>
@@ -17722,7 +17722,7 @@
         <v>45340.33333333334</v>
       </c>
       <c r="F194" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G194" t="s">
         <v>36</v>
@@ -18081,7 +18081,7 @@
         <v>44</v>
       </c>
       <c r="G198" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H198">
         <v>0</v>
@@ -18434,7 +18434,7 @@
         <v>45346.52083333334</v>
       </c>
       <c r="F202" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G202" t="s">
         <v>46</v>
@@ -18882,7 +18882,7 @@
         <v>31</v>
       </c>
       <c r="G207" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H207">
         <v>2</v>
@@ -19327,7 +19327,7 @@
         <v>45</v>
       </c>
       <c r="G212" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H212">
         <v>0</v>
@@ -19591,7 +19591,7 @@
         <v>45355.625</v>
       </c>
       <c r="F215" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G215" t="s">
         <v>37</v>
@@ -20039,7 +20039,7 @@
         <v>30</v>
       </c>
       <c r="G220" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H220">
         <v>1</v>
@@ -20125,7 +20125,7 @@
         <v>45360.52083333334</v>
       </c>
       <c r="F221" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G221" t="s">
         <v>42</v>
@@ -20202,7 +20202,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6893179</v>
+        <v>6893176</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20214,76 +20214,76 @@
         <v>45360.52083333334</v>
       </c>
       <c r="F222" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G222" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H222">
+        <v>2</v>
+      </c>
+      <c r="I222">
         <v>0</v>
       </c>
-      <c r="I222">
-        <v>1</v>
-      </c>
       <c r="J222" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K222">
+        <v>1.909</v>
+      </c>
+      <c r="L222">
         <v>3.2</v>
       </c>
-      <c r="L222">
-        <v>3.1</v>
-      </c>
       <c r="M222">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="N222">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="O222">
         <v>3.1</v>
       </c>
       <c r="P222">
+        <v>3.75</v>
+      </c>
+      <c r="Q222">
+        <v>-0.25</v>
+      </c>
+      <c r="R222">
+        <v>1.775</v>
+      </c>
+      <c r="S222">
         <v>2.1</v>
       </c>
-      <c r="Q222">
-        <v>0.25</v>
-      </c>
-      <c r="R222">
-        <v>2.025</v>
-      </c>
-      <c r="S222">
+      <c r="T222">
+        <v>2</v>
+      </c>
+      <c r="U222">
         <v>1.775</v>
       </c>
-      <c r="T222">
-        <v>2.25</v>
-      </c>
-      <c r="U222">
-        <v>2.025</v>
-      </c>
       <c r="V222">
-        <v>1.775</v>
+        <v>2.1</v>
       </c>
       <c r="W222">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X222">
         <v>-1</v>
       </c>
       <c r="Y222">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z222">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA222">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB222">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC222">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20291,7 +20291,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6893176</v>
+        <v>6893179</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20303,76 +20303,76 @@
         <v>45360.52083333334</v>
       </c>
       <c r="F223" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G223" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J223" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K223">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="L223">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M223">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="N223">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="O223">
         <v>3.1</v>
       </c>
       <c r="P223">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q223">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R223">
+        <v>2.025</v>
+      </c>
+      <c r="S223">
         <v>1.775</v>
       </c>
-      <c r="S223">
-        <v>2.1</v>
-      </c>
       <c r="T223">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U223">
+        <v>2.025</v>
+      </c>
+      <c r="V223">
         <v>1.775</v>
       </c>
-      <c r="V223">
-        <v>2.1</v>
-      </c>
       <c r="W223">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X223">
         <v>-1</v>
       </c>
       <c r="Y223">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z223">
+        <v>-1</v>
+      </c>
+      <c r="AA223">
         <v>0.7749999999999999</v>
       </c>
-      <c r="AA223">
-        <v>-1</v>
-      </c>
       <c r="AB223">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC223">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20664,6 +20664,15 @@
       <c r="G227" t="s">
         <v>41</v>
       </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
+      <c r="I227">
+        <v>1</v>
+      </c>
+      <c r="J227" t="s">
+        <v>48</v>
+      </c>
       <c r="K227">
         <v>2.45</v>
       </c>
@@ -20674,46 +20683,52 @@
         <v>2.8</v>
       </c>
       <c r="N227">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="O227">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P227">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q227">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R227">
-        <v>2.05</v>
+        <v>1.725</v>
       </c>
       <c r="S227">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="T227">
         <v>2</v>
       </c>
       <c r="U227">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V227">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="W227">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X227">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y227">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="Z227">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA227">
-        <v>0</v>
+        <v>1.075</v>
+      </c>
+      <c r="AB227">
+        <v>-1</v>
+      </c>
+      <c r="AC227">
+        <v>0.95</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20721,7 +20736,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6893181</v>
+        <v>6899272</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20730,64 +20745,79 @@
         <v>28</v>
       </c>
       <c r="E228" s="2">
-        <v>45367.45833333334</v>
+        <v>45367.33333333334</v>
       </c>
       <c r="F228" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G228" t="s">
-        <v>35</v>
+        <v>31</v>
+      </c>
+      <c r="H228">
+        <v>1</v>
+      </c>
+      <c r="I228">
+        <v>1</v>
+      </c>
+      <c r="J228" t="s">
+        <v>47</v>
       </c>
       <c r="K228">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="L228">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M228">
-        <v>2.55</v>
+        <v>1.65</v>
       </c>
       <c r="N228">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="O228">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P228">
-        <v>2.55</v>
+        <v>1.615</v>
       </c>
       <c r="Q228">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R228">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S228">
         <v>1.85</v>
       </c>
       <c r="T228">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U228">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V228">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W228">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X228">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="Y228">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z228">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA228">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB228">
+        <v>-1</v>
+      </c>
+      <c r="AC228">
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20795,7 +20825,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6893180</v>
+        <v>6893181</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20804,31 +20834,40 @@
         <v>28</v>
       </c>
       <c r="E229" s="2">
-        <v>45367.52083333334</v>
+        <v>45367.45833333334</v>
       </c>
       <c r="F229" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G229" t="s">
-        <v>29</v>
+        <v>35</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="I229">
+        <v>1</v>
+      </c>
+      <c r="J229" t="s">
+        <v>48</v>
       </c>
       <c r="K229">
-        <v>2.375</v>
+        <v>2.7</v>
       </c>
       <c r="L229">
         <v>3</v>
       </c>
       <c r="M229">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="N229">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="O229">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P229">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="Q229">
         <v>0</v>
@@ -20837,31 +20876,37 @@
         <v>1.95</v>
       </c>
       <c r="S229">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T229">
         <v>2.25</v>
       </c>
       <c r="U229">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V229">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W229">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X229">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y229">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="Z229">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA229">
-        <v>0</v>
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB229">
+        <v>-1</v>
+      </c>
+      <c r="AC229">
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20886,6 +20931,15 @@
       <c r="G230" t="s">
         <v>40</v>
       </c>
+      <c r="H230">
+        <v>2</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230" t="s">
+        <v>49</v>
+      </c>
       <c r="K230">
         <v>1.8</v>
       </c>
@@ -20896,46 +20950,52 @@
         <v>4</v>
       </c>
       <c r="N230">
+        <v>1.727</v>
+      </c>
+      <c r="O230">
+        <v>3.3</v>
+      </c>
+      <c r="P230">
+        <v>4.333</v>
+      </c>
+      <c r="Q230">
+        <v>-0.75</v>
+      </c>
+      <c r="R230">
+        <v>2</v>
+      </c>
+      <c r="S230">
         <v>1.8</v>
-      </c>
-      <c r="O230">
-        <v>3.25</v>
-      </c>
-      <c r="P230">
-        <v>4</v>
-      </c>
-      <c r="Q230">
-        <v>-0.5</v>
-      </c>
-      <c r="R230">
-        <v>1.85</v>
-      </c>
-      <c r="S230">
-        <v>2</v>
       </c>
       <c r="T230">
         <v>2.25</v>
       </c>
       <c r="U230">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V230">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W230">
-        <v>0</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X230">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y230">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA230">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB230">
+        <v>-0.5</v>
+      </c>
+      <c r="AC230">
+        <v>0.5</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -20943,7 +21003,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6893182</v>
+        <v>6893180</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -20952,63 +21012,300 @@
         <v>28</v>
       </c>
       <c r="E231" s="2">
-        <v>45368.45833333334</v>
+        <v>45367.52083333334</v>
       </c>
       <c r="F231" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G231" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="H231">
+        <v>1</v>
+      </c>
+      <c r="I231">
+        <v>1</v>
+      </c>
+      <c r="J231" t="s">
+        <v>47</v>
       </c>
       <c r="K231">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="L231">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M231">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="N231">
-        <v>1.75</v>
+        <v>2.7</v>
       </c>
       <c r="O231">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P231">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="Q231">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R231">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S231">
+        <v>1.8</v>
+      </c>
+      <c r="T231">
+        <v>2.25</v>
+      </c>
+      <c r="U231">
         <v>1.975</v>
-      </c>
-      <c r="T231">
-        <v>2.5</v>
-      </c>
-      <c r="U231">
-        <v>2.025</v>
       </c>
       <c r="V231">
         <v>1.825</v>
       </c>
       <c r="W231">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X231">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="Y231">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z231">
         <v>0</v>
       </c>
       <c r="AA231">
+        <v>-0</v>
+      </c>
+      <c r="AB231">
+        <v>-0.5</v>
+      </c>
+      <c r="AC231">
+        <v>0.4125</v>
+      </c>
+    </row>
+    <row r="232" spans="1:29">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232">
+        <v>6893182</v>
+      </c>
+      <c r="C232" t="s">
+        <v>28</v>
+      </c>
+      <c r="D232" t="s">
+        <v>28</v>
+      </c>
+      <c r="E232" s="2">
+        <v>45368.45833333334</v>
+      </c>
+      <c r="F232" t="s">
+        <v>37</v>
+      </c>
+      <c r="G232" t="s">
+        <v>30</v>
+      </c>
+      <c r="K232">
+        <v>1.727</v>
+      </c>
+      <c r="L232">
+        <v>3.5</v>
+      </c>
+      <c r="M232">
+        <v>4.2</v>
+      </c>
+      <c r="N232">
+        <v>1.75</v>
+      </c>
+      <c r="O232">
+        <v>3.4</v>
+      </c>
+      <c r="P232">
+        <v>4</v>
+      </c>
+      <c r="Q232">
+        <v>-0.5</v>
+      </c>
+      <c r="R232">
+        <v>1.825</v>
+      </c>
+      <c r="S232">
+        <v>2.025</v>
+      </c>
+      <c r="T232">
+        <v>2.5</v>
+      </c>
+      <c r="U232">
+        <v>2.05</v>
+      </c>
+      <c r="V232">
+        <v>1.8</v>
+      </c>
+      <c r="W232">
+        <v>0</v>
+      </c>
+      <c r="X232">
+        <v>0</v>
+      </c>
+      <c r="Y232">
+        <v>0</v>
+      </c>
+      <c r="Z232">
+        <v>0</v>
+      </c>
+      <c r="AA232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:29">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233">
+        <v>6893183</v>
+      </c>
+      <c r="C233" t="s">
+        <v>28</v>
+      </c>
+      <c r="D233" t="s">
+        <v>28</v>
+      </c>
+      <c r="E233" s="2">
+        <v>45368.52083333334</v>
+      </c>
+      <c r="F233" t="s">
+        <v>46</v>
+      </c>
+      <c r="G233" t="s">
+        <v>39</v>
+      </c>
+      <c r="K233">
+        <v>2.25</v>
+      </c>
+      <c r="L233">
+        <v>3</v>
+      </c>
+      <c r="M233">
+        <v>3.2</v>
+      </c>
+      <c r="N233">
+        <v>2.25</v>
+      </c>
+      <c r="O233">
+        <v>3</v>
+      </c>
+      <c r="P233">
+        <v>3.3</v>
+      </c>
+      <c r="Q233">
+        <v>-0.25</v>
+      </c>
+      <c r="R233">
+        <v>2</v>
+      </c>
+      <c r="S233">
+        <v>1.85</v>
+      </c>
+      <c r="T233">
+        <v>2</v>
+      </c>
+      <c r="U233">
+        <v>1.825</v>
+      </c>
+      <c r="V233">
+        <v>2.025</v>
+      </c>
+      <c r="W233">
+        <v>0</v>
+      </c>
+      <c r="X233">
+        <v>0</v>
+      </c>
+      <c r="Y233">
+        <v>0</v>
+      </c>
+      <c r="Z233">
+        <v>0</v>
+      </c>
+      <c r="AA233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:29">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234">
+        <v>6893609</v>
+      </c>
+      <c r="C234" t="s">
+        <v>28</v>
+      </c>
+      <c r="D234" t="s">
+        <v>28</v>
+      </c>
+      <c r="E234" s="2">
+        <v>45369.71875</v>
+      </c>
+      <c r="F234" t="s">
+        <v>42</v>
+      </c>
+      <c r="G234" t="s">
+        <v>43</v>
+      </c>
+      <c r="K234">
+        <v>2.4</v>
+      </c>
+      <c r="L234">
+        <v>3.1</v>
+      </c>
+      <c r="M234">
+        <v>2.8</v>
+      </c>
+      <c r="N234">
+        <v>2.375</v>
+      </c>
+      <c r="O234">
+        <v>3.1</v>
+      </c>
+      <c r="P234">
+        <v>2.875</v>
+      </c>
+      <c r="Q234">
+        <v>-0.25</v>
+      </c>
+      <c r="R234">
+        <v>2.05</v>
+      </c>
+      <c r="S234">
+        <v>1.8</v>
+      </c>
+      <c r="T234">
+        <v>2.5</v>
+      </c>
+      <c r="U234">
+        <v>2.05</v>
+      </c>
+      <c r="V234">
+        <v>1.8</v>
+      </c>
+      <c r="W234">
+        <v>0</v>
+      </c>
+      <c r="X234">
+        <v>0</v>
+      </c>
+      <c r="Y234">
+        <v>0</v>
+      </c>
+      <c r="Z234">
+        <v>0</v>
+      </c>
+      <c r="AA234">
         <v>0</v>
       </c>
     </row>

--- a/Portugal Segunda Liga/Portugal Segunda Liga.xlsx
+++ b/Portugal Segunda Liga/Portugal Segunda Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC234"/>
+  <dimension ref="A1:AC244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7030,7 +7030,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6893126</v>
+        <v>6893574</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7042,34 +7042,34 @@
         <v>45234.33333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K74">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L74">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M74">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="N74">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="O74">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P74">
         <v>3.8</v>
@@ -7078,40 +7078,40 @@
         <v>-0.5</v>
       </c>
       <c r="R74">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S74">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T74">
         <v>2.5</v>
       </c>
       <c r="U74">
+        <v>1.825</v>
+      </c>
+      <c r="V74">
         <v>1.975</v>
       </c>
-      <c r="V74">
-        <v>1.825</v>
-      </c>
       <c r="W74">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA74">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
         <v>-1</v>
       </c>
       <c r="AC74">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7119,7 +7119,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6893574</v>
+        <v>6893126</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7131,34 +7131,34 @@
         <v>45234.33333333334</v>
       </c>
       <c r="F75" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G75" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K75">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L75">
+        <v>3.4</v>
+      </c>
+      <c r="M75">
+        <v>3.8</v>
+      </c>
+      <c r="N75">
+        <v>1.8</v>
+      </c>
+      <c r="O75">
         <v>3.3</v>
-      </c>
-      <c r="M75">
-        <v>3.2</v>
-      </c>
-      <c r="N75">
-        <v>1.727</v>
-      </c>
-      <c r="O75">
-        <v>3.6</v>
       </c>
       <c r="P75">
         <v>3.8</v>
@@ -7167,40 +7167,40 @@
         <v>-0.5</v>
       </c>
       <c r="R75">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S75">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T75">
         <v>2.5</v>
       </c>
       <c r="U75">
+        <v>1.975</v>
+      </c>
+      <c r="V75">
         <v>1.825</v>
       </c>
-      <c r="V75">
-        <v>1.975</v>
-      </c>
       <c r="W75">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z75">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB75">
         <v>-1</v>
       </c>
       <c r="AC75">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7297,7 +7297,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6893124</v>
+        <v>6893125</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7309,76 +7309,76 @@
         <v>45234.625</v>
       </c>
       <c r="F77" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G77" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H77">
         <v>1</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K77">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="L77">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M77">
+        <v>2.3</v>
+      </c>
+      <c r="N77">
+        <v>2.6</v>
+      </c>
+      <c r="O77">
         <v>3</v>
       </c>
-      <c r="N77">
-        <v>2.15</v>
-      </c>
-      <c r="O77">
-        <v>3.25</v>
-      </c>
       <c r="P77">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="Q77">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R77">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S77">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T77">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U77">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V77">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W77">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X77">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC77">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7386,7 +7386,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6893125</v>
+        <v>6893124</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7398,76 +7398,76 @@
         <v>45234.625</v>
       </c>
       <c r="F78" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H78">
         <v>1</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K78">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="L78">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M78">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="N78">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="O78">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P78">
+        <v>2.9</v>
+      </c>
+      <c r="Q78">
+        <v>-0.25</v>
+      </c>
+      <c r="R78">
+        <v>1.95</v>
+      </c>
+      <c r="S78">
+        <v>1.85</v>
+      </c>
+      <c r="T78">
         <v>2.5</v>
       </c>
-      <c r="Q78">
-        <v>0</v>
-      </c>
-      <c r="R78">
+      <c r="U78">
         <v>1.9</v>
       </c>
-      <c r="S78">
+      <c r="V78">
         <v>1.9</v>
       </c>
-      <c r="T78">
-        <v>2.25</v>
-      </c>
-      <c r="U78">
-        <v>1.875</v>
-      </c>
-      <c r="V78">
-        <v>1.925</v>
-      </c>
       <c r="W78">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X78">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y78">
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA78">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB78">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC78">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -8276,7 +8276,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6893577</v>
+        <v>6893576</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8288,49 +8288,49 @@
         <v>45242.33333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G88" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K88">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="L88">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M88">
+        <v>3</v>
+      </c>
+      <c r="N88">
         <v>2.375</v>
       </c>
-      <c r="N88">
-        <v>3.4</v>
-      </c>
       <c r="O88">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P88">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="Q88">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R88">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S88">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T88">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U88">
         <v>1.95</v>
@@ -8342,22 +8342,22 @@
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y88">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA88">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB88">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8365,7 +8365,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6893576</v>
+        <v>6893577</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8377,49 +8377,49 @@
         <v>45242.33333333334</v>
       </c>
       <c r="F89" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G89" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K89">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="L89">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M89">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="N89">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="O89">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P89">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="Q89">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R89">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S89">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T89">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U89">
         <v>1.95</v>
@@ -8431,22 +8431,22 @@
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z89">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC89">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -13082,7 +13082,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6899181</v>
+        <v>6893145</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13094,76 +13094,76 @@
         <v>45297.625</v>
       </c>
       <c r="F142" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G142" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H142">
         <v>1</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K142">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="L142">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M142">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="N142">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O142">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P142">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q142">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R142">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S142">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T142">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U142">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V142">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W142">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X142">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB142">
         <v>-1</v>
       </c>
       <c r="AC142">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13171,7 +13171,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6893145</v>
+        <v>6899181</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13183,76 +13183,76 @@
         <v>45297.625</v>
       </c>
       <c r="F143" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G143" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H143">
         <v>1</v>
       </c>
       <c r="I143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K143">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="L143">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M143">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N143">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O143">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P143">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q143">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R143">
+        <v>2.025</v>
+      </c>
+      <c r="S143">
+        <v>1.775</v>
+      </c>
+      <c r="T143">
+        <v>2.25</v>
+      </c>
+      <c r="U143">
+        <v>1.975</v>
+      </c>
+      <c r="V143">
         <v>1.825</v>
       </c>
-      <c r="S143">
-        <v>1.975</v>
-      </c>
-      <c r="T143">
-        <v>2.5</v>
-      </c>
-      <c r="U143">
-        <v>1.875</v>
-      </c>
-      <c r="V143">
-        <v>1.925</v>
-      </c>
       <c r="W143">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X143">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y143">
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA143">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
         <v>-1</v>
       </c>
       <c r="AC143">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13883,7 +13883,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6893591</v>
+        <v>6899180</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13895,76 +13895,76 @@
         <v>45305.52083333334</v>
       </c>
       <c r="F151" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G151" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I151">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K151">
-        <v>1.75</v>
+        <v>1.833</v>
       </c>
       <c r="L151">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M151">
         <v>4.333</v>
       </c>
       <c r="N151">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="O151">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P151">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q151">
         <v>-0.5</v>
       </c>
       <c r="R151">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S151">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T151">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U151">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V151">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="W151">
         <v>-1</v>
       </c>
       <c r="X151">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y151">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z151">
         <v>-1</v>
       </c>
       <c r="AA151">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB151">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AC151">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13972,7 +13972,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6899180</v>
+        <v>6893591</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13984,76 +13984,76 @@
         <v>45305.52083333334</v>
       </c>
       <c r="F152" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G152" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J152" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K152">
-        <v>1.833</v>
+        <v>1.75</v>
       </c>
       <c r="L152">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M152">
         <v>4.333</v>
       </c>
       <c r="N152">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="O152">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P152">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q152">
         <v>-0.5</v>
       </c>
       <c r="R152">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S152">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T152">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U152">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V152">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="W152">
         <v>-1</v>
       </c>
       <c r="X152">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y152">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z152">
         <v>-1</v>
       </c>
       <c r="AA152">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB152">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AC152">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -15307,7 +15307,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6893595</v>
+        <v>6893154</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15319,40 +15319,40 @@
         <v>45319.52083333334</v>
       </c>
       <c r="F167" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G167" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H167">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J167" t="s">
         <v>49</v>
       </c>
       <c r="K167">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="L167">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M167">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="N167">
-        <v>1.65</v>
+        <v>1.833</v>
       </c>
       <c r="O167">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P167">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q167">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R167">
         <v>1.85</v>
@@ -15361,16 +15361,16 @@
         <v>1.95</v>
       </c>
       <c r="T167">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U167">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V167">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W167">
-        <v>0.6499999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15385,10 +15385,10 @@
         <v>-1</v>
       </c>
       <c r="AB167">
-        <v>0.475</v>
+        <v>0.8</v>
       </c>
       <c r="AC167">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15396,7 +15396,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6893154</v>
+        <v>6893595</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15408,40 +15408,40 @@
         <v>45319.52083333334</v>
       </c>
       <c r="F168" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G168" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J168" t="s">
         <v>49</v>
       </c>
       <c r="K168">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="L168">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M168">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="N168">
-        <v>1.833</v>
+        <v>1.65</v>
       </c>
       <c r="O168">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P168">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q168">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R168">
         <v>1.85</v>
@@ -15450,16 +15450,16 @@
         <v>1.95</v>
       </c>
       <c r="T168">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U168">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V168">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W168">
-        <v>0.833</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X168">
         <v>-1</v>
@@ -15474,10 +15474,10 @@
         <v>-1</v>
       </c>
       <c r="AB168">
-        <v>0.8</v>
+        <v>0.475</v>
       </c>
       <c r="AC168">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -16998,7 +16998,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6893600</v>
+        <v>6893598</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17010,76 +17010,76 @@
         <v>45333.52083333334</v>
       </c>
       <c r="F186" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G186" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J186" t="s">
         <v>47</v>
       </c>
       <c r="K186">
-        <v>3.8</v>
+        <v>2.05</v>
       </c>
       <c r="L186">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M186">
+        <v>3.4</v>
+      </c>
+      <c r="N186">
+        <v>1.909</v>
+      </c>
+      <c r="O186">
+        <v>3.5</v>
+      </c>
+      <c r="P186">
+        <v>3.75</v>
+      </c>
+      <c r="Q186">
+        <v>-0.5</v>
+      </c>
+      <c r="R186">
+        <v>1.9</v>
+      </c>
+      <c r="S186">
+        <v>1.9</v>
+      </c>
+      <c r="T186">
+        <v>2.5</v>
+      </c>
+      <c r="U186">
+        <v>1.85</v>
+      </c>
+      <c r="V186">
         <v>1.95</v>
       </c>
-      <c r="N186">
-        <v>3.5</v>
-      </c>
-      <c r="O186">
-        <v>3.3</v>
-      </c>
-      <c r="P186">
-        <v>2.05</v>
-      </c>
-      <c r="Q186">
-        <v>0.25</v>
-      </c>
-      <c r="R186">
-        <v>2.05</v>
-      </c>
-      <c r="S186">
-        <v>1.8</v>
-      </c>
-      <c r="T186">
-        <v>2.25</v>
-      </c>
-      <c r="U186">
-        <v>1.95</v>
-      </c>
-      <c r="V186">
-        <v>1.9</v>
-      </c>
       <c r="W186">
         <v>-1</v>
       </c>
       <c r="X186">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Y186">
         <v>-1</v>
       </c>
       <c r="Z186">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA186">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB186">
         <v>-1</v>
       </c>
       <c r="AC186">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17087,7 +17087,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6893598</v>
+        <v>6893600</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17099,76 +17099,76 @@
         <v>45333.52083333334</v>
       </c>
       <c r="F187" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G187" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J187" t="s">
         <v>47</v>
       </c>
       <c r="K187">
+        <v>3.8</v>
+      </c>
+      <c r="L187">
+        <v>3.3</v>
+      </c>
+      <c r="M187">
+        <v>1.95</v>
+      </c>
+      <c r="N187">
+        <v>3.5</v>
+      </c>
+      <c r="O187">
+        <v>3.3</v>
+      </c>
+      <c r="P187">
         <v>2.05</v>
       </c>
-      <c r="L187">
-        <v>3.4</v>
-      </c>
-      <c r="M187">
-        <v>3.4</v>
-      </c>
-      <c r="N187">
-        <v>1.909</v>
-      </c>
-      <c r="O187">
-        <v>3.5</v>
-      </c>
-      <c r="P187">
-        <v>3.75</v>
-      </c>
       <c r="Q187">
+        <v>0.25</v>
+      </c>
+      <c r="R187">
+        <v>2.05</v>
+      </c>
+      <c r="S187">
+        <v>1.8</v>
+      </c>
+      <c r="T187">
+        <v>2.25</v>
+      </c>
+      <c r="U187">
+        <v>1.95</v>
+      </c>
+      <c r="V187">
+        <v>1.9</v>
+      </c>
+      <c r="W187">
+        <v>-1</v>
+      </c>
+      <c r="X187">
+        <v>2.3</v>
+      </c>
+      <c r="Y187">
+        <v>-1</v>
+      </c>
+      <c r="Z187">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="AA187">
         <v>-0.5</v>
       </c>
-      <c r="R187">
-        <v>1.9</v>
-      </c>
-      <c r="S187">
-        <v>1.9</v>
-      </c>
-      <c r="T187">
-        <v>2.5</v>
-      </c>
-      <c r="U187">
-        <v>1.85</v>
-      </c>
-      <c r="V187">
-        <v>1.95</v>
-      </c>
-      <c r="W187">
-        <v>-1</v>
-      </c>
-      <c r="X187">
-        <v>2.5</v>
-      </c>
-      <c r="Y187">
-        <v>-1</v>
-      </c>
-      <c r="Z187">
-        <v>-1</v>
-      </c>
-      <c r="AA187">
+      <c r="AB187">
+        <v>-1</v>
+      </c>
+      <c r="AC187">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB187">
-        <v>-1</v>
-      </c>
-      <c r="AC187">
-        <v>0.95</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -18333,7 +18333,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6893169</v>
+        <v>6893167</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18345,76 +18345,76 @@
         <v>45346.52083333334</v>
       </c>
       <c r="F201" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G201" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H201">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I201">
         <v>2</v>
       </c>
       <c r="J201" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K201">
-        <v>1.75</v>
+        <v>1.833</v>
       </c>
       <c r="L201">
         <v>3.4</v>
       </c>
       <c r="M201">
+        <v>4.333</v>
+      </c>
+      <c r="N201">
+        <v>1.75</v>
+      </c>
+      <c r="O201">
+        <v>3.4</v>
+      </c>
+      <c r="P201">
         <v>4.5</v>
       </c>
-      <c r="N201">
-        <v>1.666</v>
-      </c>
-      <c r="O201">
-        <v>3.5</v>
-      </c>
-      <c r="P201">
-        <v>5</v>
-      </c>
       <c r="Q201">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R201">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S201">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T201">
         <v>2.25</v>
       </c>
       <c r="U201">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V201">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W201">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X201">
         <v>-1</v>
       </c>
       <c r="Y201">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z201">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA201">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB201">
         <v>-0.5</v>
       </c>
-      <c r="AB201">
-        <v>0.7749999999999999</v>
-      </c>
       <c r="AC201">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18422,7 +18422,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6893167</v>
+        <v>6893169</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18434,76 +18434,76 @@
         <v>45346.52083333334</v>
       </c>
       <c r="F202" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G202" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I202">
         <v>2</v>
       </c>
       <c r="J202" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K202">
-        <v>1.833</v>
+        <v>1.75</v>
       </c>
       <c r="L202">
         <v>3.4</v>
       </c>
       <c r="M202">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="N202">
-        <v>1.75</v>
+        <v>1.666</v>
       </c>
       <c r="O202">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P202">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q202">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R202">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S202">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T202">
         <v>2.25</v>
       </c>
       <c r="U202">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V202">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W202">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X202">
         <v>-1</v>
       </c>
       <c r="Y202">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z202">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA202">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB202">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC202">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -21092,7 +21092,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6893182</v>
+        <v>6893610</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21101,37 +21101,46 @@
         <v>28</v>
       </c>
       <c r="E232" s="2">
-        <v>45368.45833333334</v>
+        <v>45368.33333333334</v>
       </c>
       <c r="F232" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G232" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="H232">
+        <v>1</v>
+      </c>
+      <c r="I232">
+        <v>1</v>
+      </c>
+      <c r="J232" t="s">
+        <v>47</v>
       </c>
       <c r="K232">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="L232">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M232">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="N232">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="O232">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P232">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="Q232">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R232">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S232">
         <v>2.025</v>
@@ -21140,25 +21149,31 @@
         <v>2.5</v>
       </c>
       <c r="U232">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V232">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W232">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X232">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="Y232">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z232">
-        <v>0</v>
+        <v>0.3875</v>
       </c>
       <c r="AA232">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB232">
+        <v>-1</v>
+      </c>
+      <c r="AC232">
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21166,7 +21181,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6893183</v>
+        <v>6893182</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21175,64 +21190,79 @@
         <v>28</v>
       </c>
       <c r="E233" s="2">
-        <v>45368.52083333334</v>
+        <v>45368.45833333334</v>
       </c>
       <c r="F233" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G233" t="s">
-        <v>39</v>
+        <v>30</v>
+      </c>
+      <c r="H233">
+        <v>0</v>
+      </c>
+      <c r="I233">
+        <v>1</v>
+      </c>
+      <c r="J233" t="s">
+        <v>48</v>
       </c>
       <c r="K233">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="L233">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M233">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="N233">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="O233">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P233">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="Q233">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R233">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S233">
         <v>1.85</v>
       </c>
       <c r="T233">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U233">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V233">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W233">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X233">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y233">
-        <v>0</v>
+        <v>3.333</v>
       </c>
       <c r="Z233">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA233">
-        <v>0</v>
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB233">
+        <v>-1</v>
+      </c>
+      <c r="AC233">
+        <v>0.8</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21240,7 +21270,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6893609</v>
+        <v>6893183</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21249,63 +21279,833 @@
         <v>28</v>
       </c>
       <c r="E234" s="2">
-        <v>45369.71875</v>
+        <v>45368.52083333334</v>
       </c>
       <c r="F234" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G234" t="s">
-        <v>43</v>
+        <v>39</v>
+      </c>
+      <c r="H234">
+        <v>1</v>
+      </c>
+      <c r="I234">
+        <v>1</v>
+      </c>
+      <c r="J234" t="s">
+        <v>47</v>
       </c>
       <c r="K234">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L234">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M234">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="N234">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="O234">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P234">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="Q234">
         <v>-0.25</v>
       </c>
       <c r="R234">
+        <v>1.85</v>
+      </c>
+      <c r="S234">
+        <v>2</v>
+      </c>
+      <c r="T234">
+        <v>2</v>
+      </c>
+      <c r="U234">
+        <v>1.825</v>
+      </c>
+      <c r="V234">
+        <v>2.025</v>
+      </c>
+      <c r="W234">
+        <v>-1</v>
+      </c>
+      <c r="X234">
+        <v>1.9</v>
+      </c>
+      <c r="Y234">
+        <v>-1</v>
+      </c>
+      <c r="Z234">
+        <v>-0.5</v>
+      </c>
+      <c r="AA234">
+        <v>0.5</v>
+      </c>
+      <c r="AB234">
+        <v>0</v>
+      </c>
+      <c r="AC234">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:29">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235">
+        <v>6893609</v>
+      </c>
+      <c r="C235" t="s">
+        <v>28</v>
+      </c>
+      <c r="D235" t="s">
+        <v>28</v>
+      </c>
+      <c r="E235" s="2">
+        <v>45369.71875</v>
+      </c>
+      <c r="F235" t="s">
+        <v>42</v>
+      </c>
+      <c r="G235" t="s">
+        <v>43</v>
+      </c>
+      <c r="H235">
+        <v>1</v>
+      </c>
+      <c r="I235">
+        <v>1</v>
+      </c>
+      <c r="J235" t="s">
+        <v>47</v>
+      </c>
+      <c r="K235">
+        <v>2.4</v>
+      </c>
+      <c r="L235">
+        <v>3.1</v>
+      </c>
+      <c r="M235">
+        <v>2.8</v>
+      </c>
+      <c r="N235">
+        <v>2.15</v>
+      </c>
+      <c r="O235">
+        <v>3.2</v>
+      </c>
+      <c r="P235">
+        <v>3.2</v>
+      </c>
+      <c r="Q235">
+        <v>-0.25</v>
+      </c>
+      <c r="R235">
+        <v>1.825</v>
+      </c>
+      <c r="S235">
+        <v>1.975</v>
+      </c>
+      <c r="T235">
+        <v>2.5</v>
+      </c>
+      <c r="U235">
+        <v>1.95</v>
+      </c>
+      <c r="V235">
+        <v>1.85</v>
+      </c>
+      <c r="W235">
+        <v>-1</v>
+      </c>
+      <c r="X235">
+        <v>2.2</v>
+      </c>
+      <c r="Y235">
+        <v>-1</v>
+      </c>
+      <c r="Z235">
+        <v>-0.5</v>
+      </c>
+      <c r="AA235">
+        <v>0.4875</v>
+      </c>
+      <c r="AB235">
+        <v>-1</v>
+      </c>
+      <c r="AC235">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="236" spans="1:29">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236">
+        <v>6893611</v>
+      </c>
+      <c r="C236" t="s">
+        <v>28</v>
+      </c>
+      <c r="D236" t="s">
+        <v>28</v>
+      </c>
+      <c r="E236" s="2">
+        <v>45380.33333333334</v>
+      </c>
+      <c r="F236" t="s">
+        <v>43</v>
+      </c>
+      <c r="G236" t="s">
+        <v>44</v>
+      </c>
+      <c r="K236">
+        <v>2.625</v>
+      </c>
+      <c r="L236">
+        <v>3.2</v>
+      </c>
+      <c r="M236">
+        <v>2.75</v>
+      </c>
+      <c r="N236">
+        <v>2.625</v>
+      </c>
+      <c r="O236">
+        <v>3.2</v>
+      </c>
+      <c r="P236">
+        <v>2.75</v>
+      </c>
+      <c r="Q236">
+        <v>0</v>
+      </c>
+      <c r="R236">
+        <v>1.9</v>
+      </c>
+      <c r="S236">
+        <v>1.95</v>
+      </c>
+      <c r="T236">
+        <v>2.25</v>
+      </c>
+      <c r="U236">
+        <v>1.9</v>
+      </c>
+      <c r="V236">
+        <v>1.95</v>
+      </c>
+      <c r="W236">
+        <v>0</v>
+      </c>
+      <c r="X236">
+        <v>0</v>
+      </c>
+      <c r="Y236">
+        <v>0</v>
+      </c>
+      <c r="Z236">
+        <v>0</v>
+      </c>
+      <c r="AA236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:29">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237">
+        <v>6893185</v>
+      </c>
+      <c r="C237" t="s">
+        <v>28</v>
+      </c>
+      <c r="D237" t="s">
+        <v>28</v>
+      </c>
+      <c r="E237" s="2">
+        <v>45380.45833333334</v>
+      </c>
+      <c r="F237" t="s">
+        <v>29</v>
+      </c>
+      <c r="G237" t="s">
+        <v>36</v>
+      </c>
+      <c r="K237">
+        <v>1.55</v>
+      </c>
+      <c r="L237">
+        <v>4</v>
+      </c>
+      <c r="M237">
+        <v>6</v>
+      </c>
+      <c r="N237">
+        <v>1.55</v>
+      </c>
+      <c r="O237">
+        <v>4</v>
+      </c>
+      <c r="P237">
+        <v>6</v>
+      </c>
+      <c r="Q237">
+        <v>-1</v>
+      </c>
+      <c r="R237">
+        <v>1.975</v>
+      </c>
+      <c r="S237">
+        <v>1.875</v>
+      </c>
+      <c r="T237">
+        <v>2.5</v>
+      </c>
+      <c r="U237">
+        <v>1.975</v>
+      </c>
+      <c r="V237">
+        <v>1.875</v>
+      </c>
+      <c r="W237">
+        <v>0</v>
+      </c>
+      <c r="X237">
+        <v>0</v>
+      </c>
+      <c r="Y237">
+        <v>0</v>
+      </c>
+      <c r="Z237">
+        <v>0</v>
+      </c>
+      <c r="AA237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:29">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238">
+        <v>6893613</v>
+      </c>
+      <c r="C238" t="s">
+        <v>28</v>
+      </c>
+      <c r="D238" t="s">
+        <v>28</v>
+      </c>
+      <c r="E238" s="2">
+        <v>45380.52083333334</v>
+      </c>
+      <c r="F238" t="s">
+        <v>41</v>
+      </c>
+      <c r="G238" t="s">
+        <v>42</v>
+      </c>
+      <c r="K238">
+        <v>1.571</v>
+      </c>
+      <c r="L238">
+        <v>4</v>
+      </c>
+      <c r="M238">
+        <v>5.5</v>
+      </c>
+      <c r="N238">
+        <v>1.615</v>
+      </c>
+      <c r="O238">
+        <v>4</v>
+      </c>
+      <c r="P238">
+        <v>5.25</v>
+      </c>
+      <c r="Q238">
+        <v>-0.75</v>
+      </c>
+      <c r="R238">
+        <v>1.825</v>
+      </c>
+      <c r="S238">
+        <v>2.025</v>
+      </c>
+      <c r="T238">
+        <v>2.5</v>
+      </c>
+      <c r="U238">
+        <v>2.025</v>
+      </c>
+      <c r="V238">
+        <v>1.825</v>
+      </c>
+      <c r="W238">
+        <v>0</v>
+      </c>
+      <c r="X238">
+        <v>0</v>
+      </c>
+      <c r="Y238">
+        <v>0</v>
+      </c>
+      <c r="Z238">
+        <v>0</v>
+      </c>
+      <c r="AA238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:29">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239">
+        <v>6899160</v>
+      </c>
+      <c r="C239" t="s">
+        <v>28</v>
+      </c>
+      <c r="D239" t="s">
+        <v>28</v>
+      </c>
+      <c r="E239" s="2">
+        <v>45381.33333333334</v>
+      </c>
+      <c r="F239" t="s">
+        <v>40</v>
+      </c>
+      <c r="G239" t="s">
+        <v>30</v>
+      </c>
+      <c r="K239">
+        <v>2.5</v>
+      </c>
+      <c r="L239">
+        <v>3.6</v>
+      </c>
+      <c r="M239">
+        <v>2.55</v>
+      </c>
+      <c r="N239">
+        <v>2.5</v>
+      </c>
+      <c r="O239">
+        <v>3.6</v>
+      </c>
+      <c r="P239">
+        <v>2.55</v>
+      </c>
+      <c r="Q239">
+        <v>0</v>
+      </c>
+      <c r="R239">
+        <v>1.925</v>
+      </c>
+      <c r="S239">
+        <v>1.925</v>
+      </c>
+      <c r="T239">
+        <v>2.75</v>
+      </c>
+      <c r="U239">
+        <v>2</v>
+      </c>
+      <c r="V239">
+        <v>1.85</v>
+      </c>
+      <c r="W239">
+        <v>0</v>
+      </c>
+      <c r="X239">
+        <v>0</v>
+      </c>
+      <c r="Y239">
+        <v>0</v>
+      </c>
+      <c r="Z239">
+        <v>0</v>
+      </c>
+      <c r="AA239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:29">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240">
+        <v>6899161</v>
+      </c>
+      <c r="C240" t="s">
+        <v>28</v>
+      </c>
+      <c r="D240" t="s">
+        <v>28</v>
+      </c>
+      <c r="E240" s="2">
+        <v>45381.45833333334</v>
+      </c>
+      <c r="F240" t="s">
+        <v>38</v>
+      </c>
+      <c r="G240" t="s">
+        <v>46</v>
+      </c>
+      <c r="K240">
+        <v>1.7</v>
+      </c>
+      <c r="L240">
+        <v>3.5</v>
+      </c>
+      <c r="M240">
+        <v>5.25</v>
+      </c>
+      <c r="N240">
+        <v>1.7</v>
+      </c>
+      <c r="O240">
+        <v>3.5</v>
+      </c>
+      <c r="P240">
+        <v>5.25</v>
+      </c>
+      <c r="Q240">
+        <v>-0.75</v>
+      </c>
+      <c r="R240">
+        <v>1.925</v>
+      </c>
+      <c r="S240">
+        <v>1.925</v>
+      </c>
+      <c r="T240">
+        <v>2.25</v>
+      </c>
+      <c r="U240">
+        <v>1.875</v>
+      </c>
+      <c r="V240">
+        <v>1.975</v>
+      </c>
+      <c r="W240">
+        <v>0</v>
+      </c>
+      <c r="X240">
+        <v>0</v>
+      </c>
+      <c r="Y240">
+        <v>0</v>
+      </c>
+      <c r="Z240">
+        <v>0</v>
+      </c>
+      <c r="AA240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:27">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241">
+        <v>6899271</v>
+      </c>
+      <c r="C241" t="s">
+        <v>28</v>
+      </c>
+      <c r="D241" t="s">
+        <v>28</v>
+      </c>
+      <c r="E241" s="2">
+        <v>45381.52083333334</v>
+      </c>
+      <c r="F241" t="s">
+        <v>31</v>
+      </c>
+      <c r="G241" t="s">
+        <v>37</v>
+      </c>
+      <c r="K241">
+        <v>2.75</v>
+      </c>
+      <c r="L241">
+        <v>3.1</v>
+      </c>
+      <c r="M241">
+        <v>2.7</v>
+      </c>
+      <c r="N241">
+        <v>2.75</v>
+      </c>
+      <c r="O241">
+        <v>3.1</v>
+      </c>
+      <c r="P241">
+        <v>2.7</v>
+      </c>
+      <c r="Q241">
+        <v>0</v>
+      </c>
+      <c r="R241">
+        <v>1.925</v>
+      </c>
+      <c r="S241">
+        <v>1.925</v>
+      </c>
+      <c r="T241">
+        <v>2</v>
+      </c>
+      <c r="U241">
+        <v>1.875</v>
+      </c>
+      <c r="V241">
+        <v>1.975</v>
+      </c>
+      <c r="W241">
+        <v>0</v>
+      </c>
+      <c r="X241">
+        <v>0</v>
+      </c>
+      <c r="Y241">
+        <v>0</v>
+      </c>
+      <c r="Z241">
+        <v>0</v>
+      </c>
+      <c r="AA241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:27">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242">
+        <v>6893184</v>
+      </c>
+      <c r="C242" t="s">
+        <v>28</v>
+      </c>
+      <c r="D242" t="s">
+        <v>28</v>
+      </c>
+      <c r="E242" s="2">
+        <v>45381.52083333334</v>
+      </c>
+      <c r="F242" t="s">
+        <v>33</v>
+      </c>
+      <c r="G242" t="s">
+        <v>34</v>
+      </c>
+      <c r="K242">
+        <v>1.85</v>
+      </c>
+      <c r="L242">
+        <v>3.75</v>
+      </c>
+      <c r="M242">
+        <v>4</v>
+      </c>
+      <c r="N242">
+        <v>1.85</v>
+      </c>
+      <c r="O242">
+        <v>3.75</v>
+      </c>
+      <c r="P242">
+        <v>4</v>
+      </c>
+      <c r="Q242">
+        <v>-0.5</v>
+      </c>
+      <c r="R242">
+        <v>1.875</v>
+      </c>
+      <c r="S242">
+        <v>1.975</v>
+      </c>
+      <c r="T242">
+        <v>2.5</v>
+      </c>
+      <c r="U242">
+        <v>1.9</v>
+      </c>
+      <c r="V242">
+        <v>1.95</v>
+      </c>
+      <c r="W242">
+        <v>0</v>
+      </c>
+      <c r="X242">
+        <v>0</v>
+      </c>
+      <c r="Y242">
+        <v>0</v>
+      </c>
+      <c r="Z242">
+        <v>0</v>
+      </c>
+      <c r="AA242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:27">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243">
+        <v>6893612</v>
+      </c>
+      <c r="C243" t="s">
+        <v>28</v>
+      </c>
+      <c r="D243" t="s">
+        <v>28</v>
+      </c>
+      <c r="E243" s="2">
+        <v>45383.58333333334</v>
+      </c>
+      <c r="F243" t="s">
+        <v>39</v>
+      </c>
+      <c r="G243" t="s">
+        <v>45</v>
+      </c>
+      <c r="K243">
+        <v>2.375</v>
+      </c>
+      <c r="L243">
+        <v>3.2</v>
+      </c>
+      <c r="M243">
+        <v>3</v>
+      </c>
+      <c r="N243">
+        <v>2.375</v>
+      </c>
+      <c r="O243">
+        <v>3.2</v>
+      </c>
+      <c r="P243">
+        <v>3</v>
+      </c>
+      <c r="Q243">
+        <v>-0.25</v>
+      </c>
+      <c r="R243">
         <v>2.05</v>
       </c>
-      <c r="S234">
+      <c r="S243">
         <v>1.8</v>
       </c>
-      <c r="T234">
-        <v>2.5</v>
-      </c>
-      <c r="U234">
-        <v>2.05</v>
-      </c>
-      <c r="V234">
-        <v>1.8</v>
-      </c>
-      <c r="W234">
-        <v>0</v>
-      </c>
-      <c r="X234">
-        <v>0</v>
-      </c>
-      <c r="Y234">
-        <v>0</v>
-      </c>
-      <c r="Z234">
-        <v>0</v>
-      </c>
-      <c r="AA234">
+      <c r="T243">
+        <v>2.25</v>
+      </c>
+      <c r="U243">
+        <v>1.975</v>
+      </c>
+      <c r="V243">
+        <v>1.875</v>
+      </c>
+      <c r="W243">
+        <v>0</v>
+      </c>
+      <c r="X243">
+        <v>0</v>
+      </c>
+      <c r="Y243">
+        <v>0</v>
+      </c>
+      <c r="Z243">
+        <v>0</v>
+      </c>
+      <c r="AA243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:27">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244">
+        <v>6893203</v>
+      </c>
+      <c r="C244" t="s">
+        <v>28</v>
+      </c>
+      <c r="D244" t="s">
+        <v>28</v>
+      </c>
+      <c r="E244" s="2">
+        <v>45383.58333333334</v>
+      </c>
+      <c r="F244" t="s">
+        <v>35</v>
+      </c>
+      <c r="G244" t="s">
+        <v>32</v>
+      </c>
+      <c r="K244">
+        <v>2.2</v>
+      </c>
+      <c r="L244">
+        <v>3.2</v>
+      </c>
+      <c r="M244">
+        <v>3.3</v>
+      </c>
+      <c r="N244">
+        <v>2.2</v>
+      </c>
+      <c r="O244">
+        <v>3.2</v>
+      </c>
+      <c r="P244">
+        <v>3.3</v>
+      </c>
+      <c r="Q244">
+        <v>-0.25</v>
+      </c>
+      <c r="R244">
+        <v>1.925</v>
+      </c>
+      <c r="S244">
+        <v>1.925</v>
+      </c>
+      <c r="T244">
+        <v>2.25</v>
+      </c>
+      <c r="U244">
+        <v>1.825</v>
+      </c>
+      <c r="V244">
+        <v>2.025</v>
+      </c>
+      <c r="W244">
+        <v>0</v>
+      </c>
+      <c r="X244">
+        <v>0</v>
+      </c>
+      <c r="Y244">
+        <v>0</v>
+      </c>
+      <c r="Z244">
+        <v>0</v>
+      </c>
+      <c r="AA244">
         <v>0</v>
       </c>
     </row>

--- a/Portugal Segunda Liga/Portugal Segunda Liga.xlsx
+++ b/Portugal Segunda Liga/Portugal Segunda Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC244"/>
+  <dimension ref="A1:AC241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2491,7 +2491,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6893102</v>
+        <v>6899210</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2503,13 +2503,13 @@
         <v>45165.29166666666</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G23" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -2518,31 +2518,31 @@
         <v>49</v>
       </c>
       <c r="K23">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L23">
         <v>3.25</v>
       </c>
       <c r="M23">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N23">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="O23">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P23">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q23">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R23">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S23">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T23">
         <v>2.5</v>
@@ -2551,10 +2551,10 @@
         <v>2.025</v>
       </c>
       <c r="V23">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W23">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="X23">
         <v>-1</v>
@@ -2563,7 +2563,7 @@
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA23">
         <v>-1</v>
@@ -2580,7 +2580,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6899210</v>
+        <v>6893102</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2592,13 +2592,13 @@
         <v>45165.29166666666</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -2607,31 +2607,31 @@
         <v>49</v>
       </c>
       <c r="K24">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L24">
         <v>3.25</v>
       </c>
       <c r="M24">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N24">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="O24">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P24">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R24">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S24">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T24">
         <v>2.5</v>
@@ -2640,10 +2640,10 @@
         <v>2.025</v>
       </c>
       <c r="V24">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W24">
-        <v>1.45</v>
+        <v>1.25</v>
       </c>
       <c r="X24">
         <v>-1</v>
@@ -2652,7 +2652,7 @@
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AA24">
         <v>-1</v>
@@ -3292,7 +3292,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6893107</v>
+        <v>7140182</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3304,76 +3304,76 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K32">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="L32">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M32">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="N32">
+        <v>2.3</v>
+      </c>
+      <c r="O32">
         <v>2.9</v>
       </c>
-      <c r="O32">
-        <v>3.5</v>
-      </c>
       <c r="P32">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q32">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R32">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S32">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T32">
         <v>2.25</v>
       </c>
       <c r="U32">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V32">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W32">
         <v>-1</v>
       </c>
       <c r="X32">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z32">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC32">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3381,7 +3381,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>7140182</v>
+        <v>6893107</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3393,76 +3393,76 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F33" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K33">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="L33">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M33">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="N33">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="O33">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="P33">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q33">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R33">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S33">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T33">
         <v>2.25</v>
       </c>
       <c r="U33">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V33">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W33">
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y33">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA33">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB33">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC33">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3915,7 +3915,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6899293</v>
+        <v>6899208</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3927,76 +3927,76 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F39" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G39" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K39">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="L39">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M39">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="N39">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="O39">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P39">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q39">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R39">
         <v>2.05</v>
       </c>
       <c r="S39">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T39">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U39">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V39">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W39">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z39">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC39">
-        <v>0.8500000000000001</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4004,7 +4004,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6899208</v>
+        <v>6899293</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4016,76 +4016,76 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F40" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G40" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K40">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="L40">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M40">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="N40">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="O40">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P40">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="Q40">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R40">
         <v>2.05</v>
       </c>
       <c r="S40">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T40">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U40">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V40">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA40">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC40">
-        <v>0.5125</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -5784,7 +5784,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6893569</v>
+        <v>6899203</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5796,46 +5796,46 @@
         <v>45207.29166666666</v>
       </c>
       <c r="F60" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G60" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K60">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L60">
         <v>3.3</v>
       </c>
       <c r="M60">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="N60">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="O60">
         <v>3.3</v>
       </c>
       <c r="P60">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="Q60">
         <v>0</v>
       </c>
       <c r="R60">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S60">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T60">
         <v>2.5</v>
@@ -5847,19 +5847,19 @@
         <v>1.85</v>
       </c>
       <c r="W60">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X60">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y60">
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA60">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
         <v>0.95</v>
@@ -5873,7 +5873,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6899203</v>
+        <v>6893569</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5885,46 +5885,46 @@
         <v>45207.29166666666</v>
       </c>
       <c r="F61" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G61" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K61">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L61">
         <v>3.3</v>
       </c>
       <c r="M61">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="N61">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="O61">
         <v>3.3</v>
       </c>
       <c r="P61">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q61">
         <v>0</v>
       </c>
       <c r="R61">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S61">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T61">
         <v>2.5</v>
@@ -5936,19 +5936,19 @@
         <v>1.85</v>
       </c>
       <c r="W61">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X61">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA61">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB61">
         <v>0.95</v>
@@ -7297,7 +7297,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6893125</v>
+        <v>6893124</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7309,76 +7309,76 @@
         <v>45234.625</v>
       </c>
       <c r="F77" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G77" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H77">
         <v>1</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K77">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="L77">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M77">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="N77">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="O77">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P77">
+        <v>2.9</v>
+      </c>
+      <c r="Q77">
+        <v>-0.25</v>
+      </c>
+      <c r="R77">
+        <v>1.95</v>
+      </c>
+      <c r="S77">
+        <v>1.85</v>
+      </c>
+      <c r="T77">
         <v>2.5</v>
       </c>
-      <c r="Q77">
-        <v>0</v>
-      </c>
-      <c r="R77">
+      <c r="U77">
         <v>1.9</v>
       </c>
-      <c r="S77">
+      <c r="V77">
         <v>1.9</v>
       </c>
-      <c r="T77">
-        <v>2.25</v>
-      </c>
-      <c r="U77">
-        <v>1.875</v>
-      </c>
-      <c r="V77">
-        <v>1.925</v>
-      </c>
       <c r="W77">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X77">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA77">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC77">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7386,7 +7386,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6893124</v>
+        <v>6893125</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7398,76 +7398,76 @@
         <v>45234.625</v>
       </c>
       <c r="F78" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G78" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H78">
         <v>1</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K78">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="L78">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M78">
+        <v>2.3</v>
+      </c>
+      <c r="N78">
+        <v>2.6</v>
+      </c>
+      <c r="O78">
         <v>3</v>
       </c>
-      <c r="N78">
-        <v>2.15</v>
-      </c>
-      <c r="O78">
-        <v>3.25</v>
-      </c>
       <c r="P78">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="Q78">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R78">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S78">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T78">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U78">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V78">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W78">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X78">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y78">
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA78">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC78">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -8276,7 +8276,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6893576</v>
+        <v>6893577</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8288,49 +8288,49 @@
         <v>45242.33333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G88" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K88">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="L88">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M88">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="N88">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="O88">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P88">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="Q88">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R88">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S88">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T88">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U88">
         <v>1.95</v>
@@ -8342,22 +8342,22 @@
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z88">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC88">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8365,7 +8365,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6893577</v>
+        <v>6893576</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8377,49 +8377,49 @@
         <v>45242.33333333334</v>
       </c>
       <c r="F89" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G89" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K89">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="L89">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M89">
+        <v>3</v>
+      </c>
+      <c r="N89">
         <v>2.375</v>
       </c>
-      <c r="N89">
-        <v>3.4</v>
-      </c>
       <c r="O89">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P89">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="Q89">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R89">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S89">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T89">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U89">
         <v>1.95</v>
@@ -8431,22 +8431,22 @@
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y89">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA89">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB89">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6893587</v>
+        <v>6893141</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,76 +12382,76 @@
         <v>45290.45833333334</v>
       </c>
       <c r="F134" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G134" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J134" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K134">
-        <v>1.65</v>
+        <v>1.909</v>
       </c>
       <c r="L134">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M134">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N134">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="O134">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P134">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q134">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R134">
+        <v>1.825</v>
+      </c>
+      <c r="S134">
+        <v>2.025</v>
+      </c>
+      <c r="T134">
+        <v>2.25</v>
+      </c>
+      <c r="U134">
+        <v>1.975</v>
+      </c>
+      <c r="V134">
         <v>1.875</v>
       </c>
-      <c r="S134">
-        <v>1.925</v>
-      </c>
-      <c r="T134">
-        <v>2.5</v>
-      </c>
-      <c r="U134">
-        <v>1.85</v>
-      </c>
-      <c r="V134">
-        <v>1.95</v>
-      </c>
       <c r="W134">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X134">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>0.4375</v>
+        <v>-0.5</v>
       </c>
       <c r="AA134">
-        <v>-0.5</v>
+        <v>0.5125</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC134">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12459,7 +12459,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6893141</v>
+        <v>6893587</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12471,76 +12471,76 @@
         <v>45290.45833333334</v>
       </c>
       <c r="F135" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G135" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K135">
-        <v>1.909</v>
+        <v>1.65</v>
       </c>
       <c r="L135">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M135">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N135">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="O135">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P135">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q135">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R135">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S135">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T135">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U135">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V135">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W135">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X135">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
+        <v>0.4375</v>
+      </c>
+      <c r="AA135">
         <v>-0.5</v>
       </c>
-      <c r="AA135">
-        <v>0.5125</v>
-      </c>
       <c r="AB135">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC135">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -13883,7 +13883,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6899180</v>
+        <v>6893591</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13895,76 +13895,76 @@
         <v>45305.52083333334</v>
       </c>
       <c r="F151" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G151" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J151" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K151">
-        <v>1.833</v>
+        <v>1.75</v>
       </c>
       <c r="L151">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M151">
         <v>4.333</v>
       </c>
       <c r="N151">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="O151">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P151">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q151">
         <v>-0.5</v>
       </c>
       <c r="R151">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S151">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T151">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U151">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V151">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="W151">
         <v>-1</v>
       </c>
       <c r="X151">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y151">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z151">
         <v>-1</v>
       </c>
       <c r="AA151">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB151">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AC151">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13972,7 +13972,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6893591</v>
+        <v>6899180</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13984,76 +13984,76 @@
         <v>45305.52083333334</v>
       </c>
       <c r="F152" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G152" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I152">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J152" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K152">
-        <v>1.75</v>
+        <v>1.833</v>
       </c>
       <c r="L152">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M152">
         <v>4.333</v>
       </c>
       <c r="N152">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="O152">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P152">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q152">
         <v>-0.5</v>
       </c>
       <c r="R152">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S152">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T152">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U152">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V152">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="W152">
         <v>-1</v>
       </c>
       <c r="X152">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y152">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z152">
         <v>-1</v>
       </c>
       <c r="AA152">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB152">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AC152">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -15307,7 +15307,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6893154</v>
+        <v>6893595</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15319,40 +15319,40 @@
         <v>45319.52083333334</v>
       </c>
       <c r="F167" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G167" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J167" t="s">
         <v>49</v>
       </c>
       <c r="K167">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="L167">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M167">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="N167">
-        <v>1.833</v>
+        <v>1.65</v>
       </c>
       <c r="O167">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P167">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q167">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R167">
         <v>1.85</v>
@@ -15361,16 +15361,16 @@
         <v>1.95</v>
       </c>
       <c r="T167">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U167">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V167">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W167">
-        <v>0.833</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15385,10 +15385,10 @@
         <v>-1</v>
       </c>
       <c r="AB167">
-        <v>0.8</v>
+        <v>0.475</v>
       </c>
       <c r="AC167">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15396,7 +15396,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6893595</v>
+        <v>6893154</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15408,40 +15408,40 @@
         <v>45319.52083333334</v>
       </c>
       <c r="F168" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G168" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H168">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J168" t="s">
         <v>49</v>
       </c>
       <c r="K168">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="L168">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M168">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="N168">
-        <v>1.65</v>
+        <v>1.833</v>
       </c>
       <c r="O168">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P168">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q168">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R168">
         <v>1.85</v>
@@ -15450,16 +15450,16 @@
         <v>1.95</v>
       </c>
       <c r="T168">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U168">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V168">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W168">
-        <v>0.6499999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X168">
         <v>-1</v>
@@ -15474,10 +15474,10 @@
         <v>-1</v>
       </c>
       <c r="AB168">
-        <v>0.475</v>
+        <v>0.8</v>
       </c>
       <c r="AC168">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -16998,7 +16998,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6893598</v>
+        <v>6893600</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17010,76 +17010,76 @@
         <v>45333.52083333334</v>
       </c>
       <c r="F186" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G186" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J186" t="s">
         <v>47</v>
       </c>
       <c r="K186">
+        <v>3.8</v>
+      </c>
+      <c r="L186">
+        <v>3.3</v>
+      </c>
+      <c r="M186">
+        <v>1.95</v>
+      </c>
+      <c r="N186">
+        <v>3.5</v>
+      </c>
+      <c r="O186">
+        <v>3.3</v>
+      </c>
+      <c r="P186">
         <v>2.05</v>
       </c>
-      <c r="L186">
-        <v>3.4</v>
-      </c>
-      <c r="M186">
-        <v>3.4</v>
-      </c>
-      <c r="N186">
-        <v>1.909</v>
-      </c>
-      <c r="O186">
-        <v>3.5</v>
-      </c>
-      <c r="P186">
-        <v>3.75</v>
-      </c>
       <c r="Q186">
+        <v>0.25</v>
+      </c>
+      <c r="R186">
+        <v>2.05</v>
+      </c>
+      <c r="S186">
+        <v>1.8</v>
+      </c>
+      <c r="T186">
+        <v>2.25</v>
+      </c>
+      <c r="U186">
+        <v>1.95</v>
+      </c>
+      <c r="V186">
+        <v>1.9</v>
+      </c>
+      <c r="W186">
+        <v>-1</v>
+      </c>
+      <c r="X186">
+        <v>2.3</v>
+      </c>
+      <c r="Y186">
+        <v>-1</v>
+      </c>
+      <c r="Z186">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="AA186">
         <v>-0.5</v>
       </c>
-      <c r="R186">
-        <v>1.9</v>
-      </c>
-      <c r="S186">
-        <v>1.9</v>
-      </c>
-      <c r="T186">
-        <v>2.5</v>
-      </c>
-      <c r="U186">
-        <v>1.85</v>
-      </c>
-      <c r="V186">
-        <v>1.95</v>
-      </c>
-      <c r="W186">
-        <v>-1</v>
-      </c>
-      <c r="X186">
-        <v>2.5</v>
-      </c>
-      <c r="Y186">
-        <v>-1</v>
-      </c>
-      <c r="Z186">
-        <v>-1</v>
-      </c>
-      <c r="AA186">
+      <c r="AB186">
+        <v>-1</v>
+      </c>
+      <c r="AC186">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB186">
-        <v>-1</v>
-      </c>
-      <c r="AC186">
-        <v>0.95</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17087,7 +17087,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6893600</v>
+        <v>6893598</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17099,76 +17099,76 @@
         <v>45333.52083333334</v>
       </c>
       <c r="F187" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G187" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J187" t="s">
         <v>47</v>
       </c>
       <c r="K187">
-        <v>3.8</v>
+        <v>2.05</v>
       </c>
       <c r="L187">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M187">
+        <v>3.4</v>
+      </c>
+      <c r="N187">
+        <v>1.909</v>
+      </c>
+      <c r="O187">
+        <v>3.5</v>
+      </c>
+      <c r="P187">
+        <v>3.75</v>
+      </c>
+      <c r="Q187">
+        <v>-0.5</v>
+      </c>
+      <c r="R187">
+        <v>1.9</v>
+      </c>
+      <c r="S187">
+        <v>1.9</v>
+      </c>
+      <c r="T187">
+        <v>2.5</v>
+      </c>
+      <c r="U187">
+        <v>1.85</v>
+      </c>
+      <c r="V187">
         <v>1.95</v>
       </c>
-      <c r="N187">
-        <v>3.5</v>
-      </c>
-      <c r="O187">
-        <v>3.3</v>
-      </c>
-      <c r="P187">
-        <v>2.05</v>
-      </c>
-      <c r="Q187">
-        <v>0.25</v>
-      </c>
-      <c r="R187">
-        <v>2.05</v>
-      </c>
-      <c r="S187">
-        <v>1.8</v>
-      </c>
-      <c r="T187">
-        <v>2.25</v>
-      </c>
-      <c r="U187">
-        <v>1.95</v>
-      </c>
-      <c r="V187">
-        <v>1.9</v>
-      </c>
       <c r="W187">
         <v>-1</v>
       </c>
       <c r="X187">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Y187">
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA187">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB187">
         <v>-1</v>
       </c>
       <c r="AC187">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -18333,7 +18333,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6893167</v>
+        <v>6893169</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18345,76 +18345,76 @@
         <v>45346.52083333334</v>
       </c>
       <c r="F201" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G201" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I201">
         <v>2</v>
       </c>
       <c r="J201" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K201">
-        <v>1.833</v>
+        <v>1.75</v>
       </c>
       <c r="L201">
         <v>3.4</v>
       </c>
       <c r="M201">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="N201">
-        <v>1.75</v>
+        <v>1.666</v>
       </c>
       <c r="O201">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P201">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q201">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R201">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S201">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T201">
         <v>2.25</v>
       </c>
       <c r="U201">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V201">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W201">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X201">
         <v>-1</v>
       </c>
       <c r="Y201">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z201">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA201">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB201">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC201">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18422,7 +18422,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6893169</v>
+        <v>6893167</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18434,76 +18434,76 @@
         <v>45346.52083333334</v>
       </c>
       <c r="F202" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G202" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H202">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I202">
         <v>2</v>
       </c>
       <c r="J202" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K202">
-        <v>1.75</v>
+        <v>1.833</v>
       </c>
       <c r="L202">
         <v>3.4</v>
       </c>
       <c r="M202">
+        <v>4.333</v>
+      </c>
+      <c r="N202">
+        <v>1.75</v>
+      </c>
+      <c r="O202">
+        <v>3.4</v>
+      </c>
+      <c r="P202">
         <v>4.5</v>
       </c>
-      <c r="N202">
-        <v>1.666</v>
-      </c>
-      <c r="O202">
-        <v>3.5</v>
-      </c>
-      <c r="P202">
-        <v>5</v>
-      </c>
       <c r="Q202">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R202">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S202">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T202">
         <v>2.25</v>
       </c>
       <c r="U202">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V202">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W202">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X202">
         <v>-1</v>
       </c>
       <c r="Y202">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z202">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA202">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB202">
         <v>-0.5</v>
       </c>
-      <c r="AB202">
-        <v>0.7749999999999999</v>
-      </c>
       <c r="AC202">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -20202,7 +20202,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6893176</v>
+        <v>6893179</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20214,76 +20214,76 @@
         <v>45360.52083333334</v>
       </c>
       <c r="F222" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G222" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J222" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K222">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="L222">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M222">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="N222">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="O222">
         <v>3.1</v>
       </c>
       <c r="P222">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q222">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R222">
+        <v>2.025</v>
+      </c>
+      <c r="S222">
         <v>1.775</v>
       </c>
-      <c r="S222">
-        <v>2.1</v>
-      </c>
       <c r="T222">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U222">
+        <v>2.025</v>
+      </c>
+      <c r="V222">
         <v>1.775</v>
       </c>
-      <c r="V222">
-        <v>2.1</v>
-      </c>
       <c r="W222">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X222">
         <v>-1</v>
       </c>
       <c r="Y222">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z222">
+        <v>-1</v>
+      </c>
+      <c r="AA222">
         <v>0.7749999999999999</v>
       </c>
-      <c r="AA222">
-        <v>-1</v>
-      </c>
       <c r="AB222">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC222">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20291,7 +20291,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6893179</v>
+        <v>6893176</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20303,76 +20303,76 @@
         <v>45360.52083333334</v>
       </c>
       <c r="F223" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G223" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J223" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K223">
+        <v>1.909</v>
+      </c>
+      <c r="L223">
         <v>3.2</v>
       </c>
-      <c r="L223">
-        <v>3.1</v>
-      </c>
       <c r="M223">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="N223">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="O223">
         <v>3.1</v>
       </c>
       <c r="P223">
+        <v>3.75</v>
+      </c>
+      <c r="Q223">
+        <v>-0.25</v>
+      </c>
+      <c r="R223">
+        <v>1.775</v>
+      </c>
+      <c r="S223">
         <v>2.1</v>
       </c>
-      <c r="Q223">
-        <v>0.25</v>
-      </c>
-      <c r="R223">
-        <v>2.025</v>
-      </c>
-      <c r="S223">
+      <c r="T223">
+        <v>2</v>
+      </c>
+      <c r="U223">
         <v>1.775</v>
       </c>
-      <c r="T223">
-        <v>2.25</v>
-      </c>
-      <c r="U223">
-        <v>2.025</v>
-      </c>
       <c r="V223">
-        <v>1.775</v>
+        <v>2.1</v>
       </c>
       <c r="W223">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X223">
         <v>-1</v>
       </c>
       <c r="Y223">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z223">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA223">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB223">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC223">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -21448,7 +21448,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6893611</v>
+        <v>6899160</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21457,49 +21457,49 @@
         <v>28</v>
       </c>
       <c r="E236" s="2">
-        <v>45380.33333333334</v>
+        <v>45381.33333333334</v>
       </c>
       <c r="F236" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G236" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="K236">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="L236">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M236">
+        <v>2.55</v>
+      </c>
+      <c r="N236">
+        <v>2.6</v>
+      </c>
+      <c r="O236">
+        <v>3.6</v>
+      </c>
+      <c r="P236">
+        <v>2.45</v>
+      </c>
+      <c r="Q236">
+        <v>0</v>
+      </c>
+      <c r="R236">
+        <v>1.975</v>
+      </c>
+      <c r="S236">
+        <v>1.875</v>
+      </c>
+      <c r="T236">
         <v>2.75</v>
       </c>
-      <c r="N236">
-        <v>2.625</v>
-      </c>
-      <c r="O236">
-        <v>3.2</v>
-      </c>
-      <c r="P236">
-        <v>2.75</v>
-      </c>
-      <c r="Q236">
-        <v>0</v>
-      </c>
-      <c r="R236">
-        <v>1.9</v>
-      </c>
-      <c r="S236">
-        <v>1.95</v>
-      </c>
-      <c r="T236">
-        <v>2.25</v>
-      </c>
       <c r="U236">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V236">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W236">
         <v>0</v>
@@ -21522,7 +21522,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6893185</v>
+        <v>6899161</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21531,49 +21531,49 @@
         <v>28</v>
       </c>
       <c r="E237" s="2">
-        <v>45380.45833333334</v>
+        <v>45381.45833333334</v>
       </c>
       <c r="F237" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G237" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="K237">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="L237">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M237">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="N237">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="O237">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P237">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="Q237">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R237">
+        <v>1.925</v>
+      </c>
+      <c r="S237">
+        <v>1.925</v>
+      </c>
+      <c r="T237">
+        <v>2.25</v>
+      </c>
+      <c r="U237">
+        <v>1.875</v>
+      </c>
+      <c r="V237">
         <v>1.975</v>
-      </c>
-      <c r="S237">
-        <v>1.875</v>
-      </c>
-      <c r="T237">
-        <v>2.5</v>
-      </c>
-      <c r="U237">
-        <v>1.975</v>
-      </c>
-      <c r="V237">
-        <v>1.875</v>
       </c>
       <c r="W237">
         <v>0</v>
@@ -21596,7 +21596,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6893613</v>
+        <v>6893184</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21605,34 +21605,34 @@
         <v>28</v>
       </c>
       <c r="E238" s="2">
-        <v>45380.52083333334</v>
+        <v>45381.52083333334</v>
       </c>
       <c r="F238" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G238" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="K238">
-        <v>1.571</v>
+        <v>1.85</v>
       </c>
       <c r="L238">
+        <v>3.75</v>
+      </c>
+      <c r="M238">
         <v>4</v>
       </c>
-      <c r="M238">
-        <v>5.5</v>
-      </c>
       <c r="N238">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="O238">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P238">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q238">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R238">
         <v>1.825</v>
@@ -21644,10 +21644,10 @@
         <v>2.5</v>
       </c>
       <c r="U238">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V238">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W238">
         <v>0</v>
@@ -21670,7 +21670,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6899160</v>
+        <v>6899271</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21679,49 +21679,49 @@
         <v>28</v>
       </c>
       <c r="E239" s="2">
-        <v>45381.33333333334</v>
+        <v>45381.52083333334</v>
       </c>
       <c r="F239" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G239" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="K239">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="L239">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M239">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="N239">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="O239">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P239">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="Q239">
         <v>0</v>
       </c>
       <c r="R239">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S239">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T239">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U239">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V239">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W239">
         <v>0</v>
@@ -21744,7 +21744,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>6899161</v>
+        <v>6893203</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21753,49 +21753,49 @@
         <v>28</v>
       </c>
       <c r="E240" s="2">
-        <v>45381.45833333334</v>
+        <v>45383.58333333334</v>
       </c>
       <c r="F240" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G240" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="K240">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="L240">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M240">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="N240">
-        <v>1.7</v>
+        <v>2.45</v>
       </c>
       <c r="O240">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P240">
-        <v>5.25</v>
+        <v>2.9</v>
       </c>
       <c r="Q240">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R240">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S240">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="T240">
         <v>2.25</v>
       </c>
       <c r="U240">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V240">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W240">
         <v>0</v>
@@ -21818,7 +21818,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6899271</v>
+        <v>6893612</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21827,50 +21827,50 @@
         <v>28</v>
       </c>
       <c r="E241" s="2">
-        <v>45381.52083333334</v>
+        <v>45383.58333333334</v>
       </c>
       <c r="F241" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G241" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="K241">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="L241">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M241">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="N241">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="O241">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P241">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="Q241">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R241">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S241">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T241">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U241">
+        <v>1.975</v>
+      </c>
+      <c r="V241">
         <v>1.875</v>
       </c>
-      <c r="V241">
-        <v>1.975</v>
-      </c>
       <c r="W241">
         <v>0</v>
       </c>
@@ -21884,228 +21884,6 @@
         <v>0</v>
       </c>
       <c r="AA241">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:27">
-      <c r="A242" s="1">
-        <v>240</v>
-      </c>
-      <c r="B242">
-        <v>6893184</v>
-      </c>
-      <c r="C242" t="s">
-        <v>28</v>
-      </c>
-      <c r="D242" t="s">
-        <v>28</v>
-      </c>
-      <c r="E242" s="2">
-        <v>45381.52083333334</v>
-      </c>
-      <c r="F242" t="s">
-        <v>33</v>
-      </c>
-      <c r="G242" t="s">
-        <v>34</v>
-      </c>
-      <c r="K242">
-        <v>1.85</v>
-      </c>
-      <c r="L242">
-        <v>3.75</v>
-      </c>
-      <c r="M242">
-        <v>4</v>
-      </c>
-      <c r="N242">
-        <v>1.85</v>
-      </c>
-      <c r="O242">
-        <v>3.75</v>
-      </c>
-      <c r="P242">
-        <v>4</v>
-      </c>
-      <c r="Q242">
-        <v>-0.5</v>
-      </c>
-      <c r="R242">
-        <v>1.875</v>
-      </c>
-      <c r="S242">
-        <v>1.975</v>
-      </c>
-      <c r="T242">
-        <v>2.5</v>
-      </c>
-      <c r="U242">
-        <v>1.9</v>
-      </c>
-      <c r="V242">
-        <v>1.95</v>
-      </c>
-      <c r="W242">
-        <v>0</v>
-      </c>
-      <c r="X242">
-        <v>0</v>
-      </c>
-      <c r="Y242">
-        <v>0</v>
-      </c>
-      <c r="Z242">
-        <v>0</v>
-      </c>
-      <c r="AA242">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:27">
-      <c r="A243" s="1">
-        <v>241</v>
-      </c>
-      <c r="B243">
-        <v>6893612</v>
-      </c>
-      <c r="C243" t="s">
-        <v>28</v>
-      </c>
-      <c r="D243" t="s">
-        <v>28</v>
-      </c>
-      <c r="E243" s="2">
-        <v>45383.58333333334</v>
-      </c>
-      <c r="F243" t="s">
-        <v>39</v>
-      </c>
-      <c r="G243" t="s">
-        <v>45</v>
-      </c>
-      <c r="K243">
-        <v>2.375</v>
-      </c>
-      <c r="L243">
-        <v>3.2</v>
-      </c>
-      <c r="M243">
-        <v>3</v>
-      </c>
-      <c r="N243">
-        <v>2.375</v>
-      </c>
-      <c r="O243">
-        <v>3.2</v>
-      </c>
-      <c r="P243">
-        <v>3</v>
-      </c>
-      <c r="Q243">
-        <v>-0.25</v>
-      </c>
-      <c r="R243">
-        <v>2.05</v>
-      </c>
-      <c r="S243">
-        <v>1.8</v>
-      </c>
-      <c r="T243">
-        <v>2.25</v>
-      </c>
-      <c r="U243">
-        <v>1.975</v>
-      </c>
-      <c r="V243">
-        <v>1.875</v>
-      </c>
-      <c r="W243">
-        <v>0</v>
-      </c>
-      <c r="X243">
-        <v>0</v>
-      </c>
-      <c r="Y243">
-        <v>0</v>
-      </c>
-      <c r="Z243">
-        <v>0</v>
-      </c>
-      <c r="AA243">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:27">
-      <c r="A244" s="1">
-        <v>242</v>
-      </c>
-      <c r="B244">
-        <v>6893203</v>
-      </c>
-      <c r="C244" t="s">
-        <v>28</v>
-      </c>
-      <c r="D244" t="s">
-        <v>28</v>
-      </c>
-      <c r="E244" s="2">
-        <v>45383.58333333334</v>
-      </c>
-      <c r="F244" t="s">
-        <v>35</v>
-      </c>
-      <c r="G244" t="s">
-        <v>32</v>
-      </c>
-      <c r="K244">
-        <v>2.2</v>
-      </c>
-      <c r="L244">
-        <v>3.2</v>
-      </c>
-      <c r="M244">
-        <v>3.3</v>
-      </c>
-      <c r="N244">
-        <v>2.2</v>
-      </c>
-      <c r="O244">
-        <v>3.2</v>
-      </c>
-      <c r="P244">
-        <v>3.3</v>
-      </c>
-      <c r="Q244">
-        <v>-0.25</v>
-      </c>
-      <c r="R244">
-        <v>1.925</v>
-      </c>
-      <c r="S244">
-        <v>1.925</v>
-      </c>
-      <c r="T244">
-        <v>2.25</v>
-      </c>
-      <c r="U244">
-        <v>1.825</v>
-      </c>
-      <c r="V244">
-        <v>2.025</v>
-      </c>
-      <c r="W244">
-        <v>0</v>
-      </c>
-      <c r="X244">
-        <v>0</v>
-      </c>
-      <c r="Y244">
-        <v>0</v>
-      </c>
-      <c r="Z244">
-        <v>0</v>
-      </c>
-      <c r="AA244">
         <v>0</v>
       </c>
     </row>

--- a/Portugal Segunda Liga/Portugal Segunda Liga.xlsx
+++ b/Portugal Segunda Liga/Portugal Segunda Liga.xlsx
@@ -2491,7 +2491,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6899210</v>
+        <v>6893102</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2503,13 +2503,13 @@
         <v>45165.29166666666</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G23" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -2518,31 +2518,31 @@
         <v>49</v>
       </c>
       <c r="K23">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L23">
         <v>3.25</v>
       </c>
       <c r="M23">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N23">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="O23">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P23">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R23">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S23">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T23">
         <v>2.5</v>
@@ -2551,10 +2551,10 @@
         <v>2.025</v>
       </c>
       <c r="V23">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W23">
-        <v>1.45</v>
+        <v>1.25</v>
       </c>
       <c r="X23">
         <v>-1</v>
@@ -2563,7 +2563,7 @@
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AA23">
         <v>-1</v>
@@ -2580,7 +2580,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6893102</v>
+        <v>6899210</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2592,13 +2592,13 @@
         <v>45165.29166666666</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G24" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -2607,31 +2607,31 @@
         <v>49</v>
       </c>
       <c r="K24">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L24">
         <v>3.25</v>
       </c>
       <c r="M24">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N24">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="O24">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P24">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q24">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S24">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T24">
         <v>2.5</v>
@@ -2640,10 +2640,10 @@
         <v>2.025</v>
       </c>
       <c r="V24">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W24">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="X24">
         <v>-1</v>
@@ -2652,7 +2652,7 @@
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA24">
         <v>-1</v>
@@ -3915,7 +3915,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6899208</v>
+        <v>6899293</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3927,76 +3927,76 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F39" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G39" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K39">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="L39">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M39">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="N39">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="O39">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P39">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="Q39">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R39">
         <v>2.05</v>
       </c>
       <c r="S39">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T39">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U39">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V39">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA39">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>0.5125</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4004,7 +4004,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6899293</v>
+        <v>6899208</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4016,76 +4016,76 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F40" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G40" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K40">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="L40">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M40">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="N40">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="O40">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P40">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q40">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R40">
         <v>2.05</v>
       </c>
       <c r="S40">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T40">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U40">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V40">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W40">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z40">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC40">
-        <v>0.8500000000000001</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -16998,7 +16998,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6893600</v>
+        <v>6893598</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17010,76 +17010,76 @@
         <v>45333.52083333334</v>
       </c>
       <c r="F186" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G186" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J186" t="s">
         <v>47</v>
       </c>
       <c r="K186">
-        <v>3.8</v>
+        <v>2.05</v>
       </c>
       <c r="L186">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M186">
+        <v>3.4</v>
+      </c>
+      <c r="N186">
+        <v>1.909</v>
+      </c>
+      <c r="O186">
+        <v>3.5</v>
+      </c>
+      <c r="P186">
+        <v>3.75</v>
+      </c>
+      <c r="Q186">
+        <v>-0.5</v>
+      </c>
+      <c r="R186">
+        <v>1.9</v>
+      </c>
+      <c r="S186">
+        <v>1.9</v>
+      </c>
+      <c r="T186">
+        <v>2.5</v>
+      </c>
+      <c r="U186">
+        <v>1.85</v>
+      </c>
+      <c r="V186">
         <v>1.95</v>
       </c>
-      <c r="N186">
-        <v>3.5</v>
-      </c>
-      <c r="O186">
-        <v>3.3</v>
-      </c>
-      <c r="P186">
-        <v>2.05</v>
-      </c>
-      <c r="Q186">
-        <v>0.25</v>
-      </c>
-      <c r="R186">
-        <v>2.05</v>
-      </c>
-      <c r="S186">
-        <v>1.8</v>
-      </c>
-      <c r="T186">
-        <v>2.25</v>
-      </c>
-      <c r="U186">
-        <v>1.95</v>
-      </c>
-      <c r="V186">
-        <v>1.9</v>
-      </c>
       <c r="W186">
         <v>-1</v>
       </c>
       <c r="X186">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Y186">
         <v>-1</v>
       </c>
       <c r="Z186">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA186">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB186">
         <v>-1</v>
       </c>
       <c r="AC186">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17087,7 +17087,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6893598</v>
+        <v>6893600</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17099,76 +17099,76 @@
         <v>45333.52083333334</v>
       </c>
       <c r="F187" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G187" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J187" t="s">
         <v>47</v>
       </c>
       <c r="K187">
+        <v>3.8</v>
+      </c>
+      <c r="L187">
+        <v>3.3</v>
+      </c>
+      <c r="M187">
+        <v>1.95</v>
+      </c>
+      <c r="N187">
+        <v>3.5</v>
+      </c>
+      <c r="O187">
+        <v>3.3</v>
+      </c>
+      <c r="P187">
         <v>2.05</v>
       </c>
-      <c r="L187">
-        <v>3.4</v>
-      </c>
-      <c r="M187">
-        <v>3.4</v>
-      </c>
-      <c r="N187">
-        <v>1.909</v>
-      </c>
-      <c r="O187">
-        <v>3.5</v>
-      </c>
-      <c r="P187">
-        <v>3.75</v>
-      </c>
       <c r="Q187">
+        <v>0.25</v>
+      </c>
+      <c r="R187">
+        <v>2.05</v>
+      </c>
+      <c r="S187">
+        <v>1.8</v>
+      </c>
+      <c r="T187">
+        <v>2.25</v>
+      </c>
+      <c r="U187">
+        <v>1.95</v>
+      </c>
+      <c r="V187">
+        <v>1.9</v>
+      </c>
+      <c r="W187">
+        <v>-1</v>
+      </c>
+      <c r="X187">
+        <v>2.3</v>
+      </c>
+      <c r="Y187">
+        <v>-1</v>
+      </c>
+      <c r="Z187">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="AA187">
         <v>-0.5</v>
       </c>
-      <c r="R187">
-        <v>1.9</v>
-      </c>
-      <c r="S187">
-        <v>1.9</v>
-      </c>
-      <c r="T187">
-        <v>2.5</v>
-      </c>
-      <c r="U187">
-        <v>1.85</v>
-      </c>
-      <c r="V187">
-        <v>1.95</v>
-      </c>
-      <c r="W187">
-        <v>-1</v>
-      </c>
-      <c r="X187">
-        <v>2.5</v>
-      </c>
-      <c r="Y187">
-        <v>-1</v>
-      </c>
-      <c r="Z187">
-        <v>-1</v>
-      </c>
-      <c r="AA187">
+      <c r="AB187">
+        <v>-1</v>
+      </c>
+      <c r="AC187">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB187">
-        <v>-1</v>
-      </c>
-      <c r="AC187">
-        <v>0.95</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -20914,7 +20914,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6899162</v>
+        <v>6893180</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20926,40 +20926,40 @@
         <v>45367.52083333334</v>
       </c>
       <c r="F230" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G230" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J230" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K230">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="L230">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M230">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="N230">
-        <v>1.727</v>
+        <v>2.7</v>
       </c>
       <c r="O230">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="P230">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="Q230">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R230">
         <v>2</v>
@@ -20971,31 +20971,31 @@
         <v>2.25</v>
       </c>
       <c r="U230">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V230">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W230">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X230">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y230">
         <v>-1</v>
       </c>
       <c r="Z230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA230">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB230">
         <v>-0.5</v>
       </c>
       <c r="AC230">
-        <v>0.5</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -21003,7 +21003,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6893180</v>
+        <v>6899162</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21015,40 +21015,40 @@
         <v>45367.52083333334</v>
       </c>
       <c r="F231" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G231" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J231" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K231">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="L231">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M231">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="N231">
-        <v>2.7</v>
+        <v>1.727</v>
       </c>
       <c r="O231">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P231">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q231">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R231">
         <v>2</v>
@@ -21060,31 +21060,31 @@
         <v>2.25</v>
       </c>
       <c r="U231">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V231">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W231">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X231">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y231">
         <v>-1</v>
       </c>
       <c r="Z231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA231">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB231">
         <v>-0.5</v>
       </c>
       <c r="AC231">
-        <v>0.4125</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21496,10 +21496,10 @@
         <v>2.75</v>
       </c>
       <c r="U236">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V236">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W236">
         <v>0</v>
@@ -21570,10 +21570,10 @@
         <v>2.25</v>
       </c>
       <c r="U237">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V237">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W237">
         <v>0</v>
@@ -21635,10 +21635,10 @@
         <v>-0.5</v>
       </c>
       <c r="R238">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S238">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T238">
         <v>2.5</v>

--- a/Portugal Segunda Liga/Portugal Segunda Liga.xlsx
+++ b/Portugal Segunda Liga/Portugal Segunda Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC241"/>
+  <dimension ref="A1:AC237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3915,7 +3915,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6899293</v>
+        <v>6899208</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3927,76 +3927,76 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F39" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G39" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K39">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="L39">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M39">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="N39">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="O39">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P39">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q39">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R39">
         <v>2.05</v>
       </c>
       <c r="S39">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T39">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U39">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V39">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W39">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z39">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC39">
-        <v>0.8500000000000001</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4004,7 +4004,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6899208</v>
+        <v>6899293</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4016,76 +4016,76 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F40" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G40" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H40">
+        <v>2</v>
+      </c>
+      <c r="I40">
         <v>0</v>
       </c>
-      <c r="I40">
-        <v>2</v>
-      </c>
       <c r="J40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K40">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="L40">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M40">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="N40">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="O40">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P40">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="Q40">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R40">
         <v>2.05</v>
       </c>
       <c r="S40">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T40">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U40">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V40">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA40">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC40">
-        <v>0.5125</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -7030,7 +7030,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6893574</v>
+        <v>6893126</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7042,34 +7042,34 @@
         <v>45234.33333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G74" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K74">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L74">
+        <v>3.4</v>
+      </c>
+      <c r="M74">
+        <v>3.8</v>
+      </c>
+      <c r="N74">
+        <v>1.8</v>
+      </c>
+      <c r="O74">
         <v>3.3</v>
-      </c>
-      <c r="M74">
-        <v>3.2</v>
-      </c>
-      <c r="N74">
-        <v>1.727</v>
-      </c>
-      <c r="O74">
-        <v>3.6</v>
       </c>
       <c r="P74">
         <v>3.8</v>
@@ -7078,40 +7078,40 @@
         <v>-0.5</v>
       </c>
       <c r="R74">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S74">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T74">
         <v>2.5</v>
       </c>
       <c r="U74">
+        <v>1.975</v>
+      </c>
+      <c r="V74">
         <v>1.825</v>
       </c>
-      <c r="V74">
-        <v>1.975</v>
-      </c>
       <c r="W74">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z74">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB74">
         <v>-1</v>
       </c>
       <c r="AC74">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7119,7 +7119,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6893126</v>
+        <v>6893574</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7131,34 +7131,34 @@
         <v>45234.33333333334</v>
       </c>
       <c r="F75" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H75">
+        <v>2</v>
+      </c>
+      <c r="I75">
         <v>0</v>
       </c>
-      <c r="I75">
-        <v>1</v>
-      </c>
       <c r="J75" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K75">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L75">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M75">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="N75">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="O75">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P75">
         <v>3.8</v>
@@ -7167,40 +7167,40 @@
         <v>-0.5</v>
       </c>
       <c r="R75">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S75">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T75">
         <v>2.5</v>
       </c>
       <c r="U75">
+        <v>1.825</v>
+      </c>
+      <c r="V75">
         <v>1.975</v>
       </c>
-      <c r="V75">
-        <v>1.825</v>
-      </c>
       <c r="W75">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA75">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
         <v>-1</v>
       </c>
       <c r="AC75">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -12192,7 +12192,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6893139</v>
+        <v>6893140</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12204,55 +12204,55 @@
         <v>45290.33333333334</v>
       </c>
       <c r="F132" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G132" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J132" t="s">
         <v>48</v>
       </c>
       <c r="K132">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="L132">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M132">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="N132">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="O132">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P132">
-        <v>2.45</v>
+        <v>3.25</v>
       </c>
       <c r="Q132">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R132">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S132">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U132">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V132">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W132">
         <v>-1</v>
@@ -12261,16 +12261,16 @@
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>1.45</v>
+        <v>2.25</v>
       </c>
       <c r="Z132">
         <v>-1</v>
       </c>
       <c r="AA132">
-        <v>0.75</v>
+        <v>1.025</v>
       </c>
       <c r="AB132">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC132">
         <v>-1</v>
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6893140</v>
+        <v>6893139</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,55 +12293,55 @@
         <v>45290.33333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G133" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J133" t="s">
         <v>48</v>
       </c>
       <c r="K133">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="L133">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M133">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="N133">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="O133">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P133">
-        <v>3.25</v>
+        <v>2.45</v>
       </c>
       <c r="Q133">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R133">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S133">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U133">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V133">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W133">
         <v>-1</v>
@@ -12350,16 +12350,16 @@
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>2.25</v>
+        <v>1.45</v>
       </c>
       <c r="Z133">
         <v>-1</v>
       </c>
       <c r="AA133">
-        <v>1.025</v>
+        <v>0.75</v>
       </c>
       <c r="AB133">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC133">
         <v>-1</v>
@@ -12904,7 +12904,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6893589</v>
+        <v>6893143</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12916,76 +12916,76 @@
         <v>45297.52083333334</v>
       </c>
       <c r="F140" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G140" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140">
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K140">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="L140">
         <v>3.5</v>
       </c>
       <c r="M140">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="N140">
-        <v>1.571</v>
+        <v>1.6</v>
       </c>
       <c r="O140">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P140">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q140">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R140">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S140">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T140">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U140">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V140">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W140">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z140">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB140">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC140">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12993,7 +12993,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6893143</v>
+        <v>6893589</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13005,76 +13005,76 @@
         <v>45297.52083333334</v>
       </c>
       <c r="F141" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G141" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141">
         <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K141">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L141">
         <v>3.5</v>
       </c>
       <c r="M141">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="N141">
-        <v>1.6</v>
+        <v>1.571</v>
       </c>
       <c r="O141">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P141">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q141">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R141">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S141">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T141">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U141">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V141">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W141">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA141">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB141">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC141">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13082,7 +13082,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6893145</v>
+        <v>6899181</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13094,76 +13094,76 @@
         <v>45297.625</v>
       </c>
       <c r="F142" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G142" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H142">
         <v>1</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J142" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K142">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="L142">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M142">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N142">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O142">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P142">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q142">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R142">
+        <v>2.025</v>
+      </c>
+      <c r="S142">
+        <v>1.775</v>
+      </c>
+      <c r="T142">
+        <v>2.25</v>
+      </c>
+      <c r="U142">
+        <v>1.975</v>
+      </c>
+      <c r="V142">
         <v>1.825</v>
       </c>
-      <c r="S142">
-        <v>1.975</v>
-      </c>
-      <c r="T142">
-        <v>2.5</v>
-      </c>
-      <c r="U142">
-        <v>1.875</v>
-      </c>
-      <c r="V142">
-        <v>1.925</v>
-      </c>
       <c r="W142">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X142">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA142">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
         <v>-1</v>
       </c>
       <c r="AC142">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13171,7 +13171,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6899181</v>
+        <v>6893145</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13183,76 +13183,76 @@
         <v>45297.625</v>
       </c>
       <c r="F143" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G143" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H143">
         <v>1</v>
       </c>
       <c r="I143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K143">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="L143">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M143">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="N143">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O143">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P143">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q143">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R143">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S143">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T143">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U143">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V143">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W143">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X143">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y143">
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB143">
         <v>-1</v>
       </c>
       <c r="AC143">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -21448,7 +21448,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6899160</v>
+        <v>6893612</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21457,43 +21457,43 @@
         <v>28</v>
       </c>
       <c r="E236" s="2">
-        <v>45381.33333333334</v>
+        <v>45383.58333333334</v>
       </c>
       <c r="F236" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G236" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="K236">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L236">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M236">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="N236">
-        <v>2.6</v>
+        <v>2.375</v>
       </c>
       <c r="O236">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P236">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="Q236">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R236">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S236">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T236">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U236">
         <v>1.975</v>
@@ -21522,7 +21522,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6899161</v>
+        <v>6893203</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21531,49 +21531,49 @@
         <v>28</v>
       </c>
       <c r="E237" s="2">
-        <v>45381.45833333334</v>
+        <v>45383.58333333334</v>
       </c>
       <c r="F237" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G237" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="K237">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="L237">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M237">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="N237">
-        <v>1.7</v>
+        <v>2.375</v>
       </c>
       <c r="O237">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P237">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="Q237">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R237">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S237">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T237">
         <v>2.25</v>
       </c>
       <c r="U237">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V237">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W237">
         <v>0</v>
@@ -21588,302 +21588,6 @@
         <v>0</v>
       </c>
       <c r="AA237">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:29">
-      <c r="A238" s="1">
-        <v>236</v>
-      </c>
-      <c r="B238">
-        <v>6893184</v>
-      </c>
-      <c r="C238" t="s">
-        <v>28</v>
-      </c>
-      <c r="D238" t="s">
-        <v>28</v>
-      </c>
-      <c r="E238" s="2">
-        <v>45381.52083333334</v>
-      </c>
-      <c r="F238" t="s">
-        <v>33</v>
-      </c>
-      <c r="G238" t="s">
-        <v>34</v>
-      </c>
-      <c r="K238">
-        <v>1.85</v>
-      </c>
-      <c r="L238">
-        <v>3.75</v>
-      </c>
-      <c r="M238">
-        <v>4</v>
-      </c>
-      <c r="N238">
-        <v>1.8</v>
-      </c>
-      <c r="O238">
-        <v>3.75</v>
-      </c>
-      <c r="P238">
-        <v>4.2</v>
-      </c>
-      <c r="Q238">
-        <v>-0.5</v>
-      </c>
-      <c r="R238">
-        <v>1.8</v>
-      </c>
-      <c r="S238">
-        <v>2.05</v>
-      </c>
-      <c r="T238">
-        <v>2.5</v>
-      </c>
-      <c r="U238">
-        <v>1.925</v>
-      </c>
-      <c r="V238">
-        <v>1.925</v>
-      </c>
-      <c r="W238">
-        <v>0</v>
-      </c>
-      <c r="X238">
-        <v>0</v>
-      </c>
-      <c r="Y238">
-        <v>0</v>
-      </c>
-      <c r="Z238">
-        <v>0</v>
-      </c>
-      <c r="AA238">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:29">
-      <c r="A239" s="1">
-        <v>237</v>
-      </c>
-      <c r="B239">
-        <v>6899271</v>
-      </c>
-      <c r="C239" t="s">
-        <v>28</v>
-      </c>
-      <c r="D239" t="s">
-        <v>28</v>
-      </c>
-      <c r="E239" s="2">
-        <v>45381.52083333334</v>
-      </c>
-      <c r="F239" t="s">
-        <v>31</v>
-      </c>
-      <c r="G239" t="s">
-        <v>37</v>
-      </c>
-      <c r="K239">
-        <v>2.75</v>
-      </c>
-      <c r="L239">
-        <v>3.1</v>
-      </c>
-      <c r="M239">
-        <v>2.7</v>
-      </c>
-      <c r="N239">
-        <v>2.8</v>
-      </c>
-      <c r="O239">
-        <v>3.1</v>
-      </c>
-      <c r="P239">
-        <v>2.625</v>
-      </c>
-      <c r="Q239">
-        <v>0</v>
-      </c>
-      <c r="R239">
-        <v>2</v>
-      </c>
-      <c r="S239">
-        <v>1.85</v>
-      </c>
-      <c r="T239">
-        <v>2</v>
-      </c>
-      <c r="U239">
-        <v>1.875</v>
-      </c>
-      <c r="V239">
-        <v>1.975</v>
-      </c>
-      <c r="W239">
-        <v>0</v>
-      </c>
-      <c r="X239">
-        <v>0</v>
-      </c>
-      <c r="Y239">
-        <v>0</v>
-      </c>
-      <c r="Z239">
-        <v>0</v>
-      </c>
-      <c r="AA239">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:29">
-      <c r="A240" s="1">
-        <v>238</v>
-      </c>
-      <c r="B240">
-        <v>6893203</v>
-      </c>
-      <c r="C240" t="s">
-        <v>28</v>
-      </c>
-      <c r="D240" t="s">
-        <v>28</v>
-      </c>
-      <c r="E240" s="2">
-        <v>45383.58333333334</v>
-      </c>
-      <c r="F240" t="s">
-        <v>35</v>
-      </c>
-      <c r="G240" t="s">
-        <v>32</v>
-      </c>
-      <c r="K240">
-        <v>2.2</v>
-      </c>
-      <c r="L240">
-        <v>3.2</v>
-      </c>
-      <c r="M240">
-        <v>3.3</v>
-      </c>
-      <c r="N240">
-        <v>2.45</v>
-      </c>
-      <c r="O240">
-        <v>3.2</v>
-      </c>
-      <c r="P240">
-        <v>2.9</v>
-      </c>
-      <c r="Q240">
-        <v>0</v>
-      </c>
-      <c r="R240">
-        <v>1.775</v>
-      </c>
-      <c r="S240">
-        <v>2.1</v>
-      </c>
-      <c r="T240">
-        <v>2.25</v>
-      </c>
-      <c r="U240">
-        <v>1.825</v>
-      </c>
-      <c r="V240">
-        <v>2.025</v>
-      </c>
-      <c r="W240">
-        <v>0</v>
-      </c>
-      <c r="X240">
-        <v>0</v>
-      </c>
-      <c r="Y240">
-        <v>0</v>
-      </c>
-      <c r="Z240">
-        <v>0</v>
-      </c>
-      <c r="AA240">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:27">
-      <c r="A241" s="1">
-        <v>239</v>
-      </c>
-      <c r="B241">
-        <v>6893612</v>
-      </c>
-      <c r="C241" t="s">
-        <v>28</v>
-      </c>
-      <c r="D241" t="s">
-        <v>28</v>
-      </c>
-      <c r="E241" s="2">
-        <v>45383.58333333334</v>
-      </c>
-      <c r="F241" t="s">
-        <v>39</v>
-      </c>
-      <c r="G241" t="s">
-        <v>45</v>
-      </c>
-      <c r="K241">
-        <v>2.375</v>
-      </c>
-      <c r="L241">
-        <v>3.2</v>
-      </c>
-      <c r="M241">
-        <v>3</v>
-      </c>
-      <c r="N241">
-        <v>2.375</v>
-      </c>
-      <c r="O241">
-        <v>3.2</v>
-      </c>
-      <c r="P241">
-        <v>3</v>
-      </c>
-      <c r="Q241">
-        <v>-0.25</v>
-      </c>
-      <c r="R241">
-        <v>2.05</v>
-      </c>
-      <c r="S241">
-        <v>1.8</v>
-      </c>
-      <c r="T241">
-        <v>2.25</v>
-      </c>
-      <c r="U241">
-        <v>1.975</v>
-      </c>
-      <c r="V241">
-        <v>1.875</v>
-      </c>
-      <c r="W241">
-        <v>0</v>
-      </c>
-      <c r="X241">
-        <v>0</v>
-      </c>
-      <c r="Y241">
-        <v>0</v>
-      </c>
-      <c r="Z241">
-        <v>0</v>
-      </c>
-      <c r="AA241">
         <v>0</v>
       </c>
     </row>

--- a/Portugal Segunda Liga/Portugal Segunda Liga.xlsx
+++ b/Portugal Segunda Liga/Portugal Segunda Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -112,10 +112,10 @@
     <t>AVS</t>
   </si>
   <si>
-    <t>Academico Viseu</t>
+    <t>FC Porto B</t>
   </si>
   <si>
-    <t>FC Porto B</t>
+    <t>Academico Viseu</t>
   </si>
   <si>
     <t>Penafiel</t>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC237"/>
+  <dimension ref="A1:AC246"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -889,7 +889,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6893191</v>
+        <v>6893285</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -904,7 +904,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -916,61 +916,61 @@
         <v>47</v>
       </c>
       <c r="K5">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="L5">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M5">
         <v>3.6</v>
       </c>
       <c r="N5">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="O5">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P5">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q5">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R5">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S5">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T5">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U5">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V5">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA5">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC5">
-        <v>0.825</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -978,7 +978,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6893285</v>
+        <v>6893191</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -993,7 +993,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1005,61 +1005,61 @@
         <v>47</v>
       </c>
       <c r="K6">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="L6">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M6">
         <v>3.6</v>
       </c>
       <c r="N6">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="O6">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P6">
+        <v>4.2</v>
+      </c>
+      <c r="Q6">
+        <v>-0.75</v>
+      </c>
+      <c r="R6">
+        <v>1.95</v>
+      </c>
+      <c r="S6">
+        <v>1.85</v>
+      </c>
+      <c r="T6">
+        <v>2.5</v>
+      </c>
+      <c r="U6">
+        <v>1.975</v>
+      </c>
+      <c r="V6">
+        <v>1.825</v>
+      </c>
+      <c r="W6">
+        <v>-1</v>
+      </c>
+      <c r="X6">
         <v>2.75</v>
       </c>
-      <c r="Q6">
-        <v>-0.25</v>
-      </c>
-      <c r="R6">
-        <v>2</v>
-      </c>
-      <c r="S6">
-        <v>1.8</v>
-      </c>
-      <c r="T6">
-        <v>2.25</v>
-      </c>
-      <c r="U6">
-        <v>1.8</v>
-      </c>
-      <c r="V6">
-        <v>2</v>
-      </c>
-      <c r="W6">
-        <v>-1</v>
-      </c>
-      <c r="X6">
-        <v>2.3</v>
-      </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB6">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1705,7 +1705,7 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1883,7 +1883,7 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -2236,7 +2236,7 @@
         <v>45164.29166666666</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G20" t="s">
         <v>44</v>
@@ -2491,7 +2491,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6893102</v>
+        <v>6899210</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2503,13 +2503,13 @@
         <v>45165.29166666666</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G23" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -2518,31 +2518,31 @@
         <v>49</v>
       </c>
       <c r="K23">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L23">
         <v>3.25</v>
       </c>
       <c r="M23">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N23">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="O23">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P23">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q23">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R23">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S23">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T23">
         <v>2.5</v>
@@ -2551,10 +2551,10 @@
         <v>2.025</v>
       </c>
       <c r="V23">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W23">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="X23">
         <v>-1</v>
@@ -2563,7 +2563,7 @@
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA23">
         <v>-1</v>
@@ -2580,7 +2580,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6899210</v>
+        <v>6893102</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2592,13 +2592,13 @@
         <v>45165.29166666666</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -2607,31 +2607,31 @@
         <v>49</v>
       </c>
       <c r="K24">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L24">
         <v>3.25</v>
       </c>
       <c r="M24">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N24">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="O24">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P24">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R24">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S24">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T24">
         <v>2.5</v>
@@ -2640,10 +2640,10 @@
         <v>2.025</v>
       </c>
       <c r="V24">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W24">
-        <v>1.45</v>
+        <v>1.25</v>
       </c>
       <c r="X24">
         <v>-1</v>
@@ -2652,7 +2652,7 @@
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AA24">
         <v>-1</v>
@@ -3129,7 +3129,7 @@
         <v>39</v>
       </c>
       <c r="G30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H30">
         <v>2</v>
@@ -3292,7 +3292,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>7140182</v>
+        <v>6893107</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3304,76 +3304,76 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F32" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G32" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K32">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="L32">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M32">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="N32">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="O32">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="P32">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q32">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R32">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S32">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T32">
         <v>2.25</v>
       </c>
       <c r="U32">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V32">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W32">
         <v>-1</v>
       </c>
       <c r="X32">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y32">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA32">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB32">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3381,7 +3381,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6893107</v>
+        <v>7140182</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3393,76 +3393,76 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F33" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K33">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="L33">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M33">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="N33">
+        <v>2.3</v>
+      </c>
+      <c r="O33">
         <v>2.9</v>
       </c>
-      <c r="O33">
-        <v>3.5</v>
-      </c>
       <c r="P33">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q33">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R33">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S33">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T33">
         <v>2.25</v>
       </c>
       <c r="U33">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V33">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W33">
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z33">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB33">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC33">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3915,7 +3915,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6899208</v>
+        <v>6899293</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3927,76 +3927,76 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F39" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G39" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H39">
+        <v>2</v>
+      </c>
+      <c r="I39">
         <v>0</v>
       </c>
-      <c r="I39">
-        <v>2</v>
-      </c>
       <c r="J39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K39">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="L39">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M39">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="N39">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="O39">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P39">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="Q39">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R39">
         <v>2.05</v>
       </c>
       <c r="S39">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T39">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U39">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V39">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA39">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>0.5125</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4004,7 +4004,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6899293</v>
+        <v>6899208</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4016,76 +4016,76 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F40" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G40" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K40">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="L40">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M40">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="N40">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="O40">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P40">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q40">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R40">
         <v>2.05</v>
       </c>
       <c r="S40">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T40">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U40">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V40">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W40">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z40">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC40">
-        <v>0.8500000000000001</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4375,7 +4375,7 @@
         <v>36</v>
       </c>
       <c r="G44" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H44">
         <v>2</v>
@@ -4906,7 +4906,7 @@
         <v>45200.29166666666</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G50" t="s">
         <v>31</v>
@@ -4998,7 +4998,7 @@
         <v>46</v>
       </c>
       <c r="G51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5443,7 +5443,7 @@
         <v>37</v>
       </c>
       <c r="G56" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -5885,7 +5885,7 @@
         <v>45207.29166666666</v>
       </c>
       <c r="F61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G61" t="s">
         <v>45</v>
@@ -6597,7 +6597,7 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G69" t="s">
         <v>30</v>
@@ -6956,7 +6956,7 @@
         <v>42</v>
       </c>
       <c r="G73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7131,7 +7131,7 @@
         <v>45234.33333333334</v>
       </c>
       <c r="F75" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G75" t="s">
         <v>44</v>
@@ -7297,7 +7297,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6893124</v>
+        <v>6893125</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7309,76 +7309,76 @@
         <v>45234.625</v>
       </c>
       <c r="F77" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G77" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H77">
         <v>1</v>
       </c>
       <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77" t="s">
+        <v>47</v>
+      </c>
+      <c r="K77">
+        <v>2.8</v>
+      </c>
+      <c r="L77">
+        <v>3.1</v>
+      </c>
+      <c r="M77">
+        <v>2.3</v>
+      </c>
+      <c r="N77">
+        <v>2.6</v>
+      </c>
+      <c r="O77">
+        <v>3</v>
+      </c>
+      <c r="P77">
+        <v>2.5</v>
+      </c>
+      <c r="Q77">
         <v>0</v>
       </c>
-      <c r="J77" t="s">
-        <v>49</v>
-      </c>
-      <c r="K77">
-        <v>2.05</v>
-      </c>
-      <c r="L77">
-        <v>3.3</v>
-      </c>
-      <c r="M77">
-        <v>3</v>
-      </c>
-      <c r="N77">
-        <v>2.15</v>
-      </c>
-      <c r="O77">
-        <v>3.25</v>
-      </c>
-      <c r="P77">
-        <v>2.9</v>
-      </c>
-      <c r="Q77">
-        <v>-0.25</v>
-      </c>
       <c r="R77">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S77">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T77">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U77">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V77">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W77">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X77">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC77">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7386,7 +7386,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6893125</v>
+        <v>6893124</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7398,76 +7398,76 @@
         <v>45234.625</v>
       </c>
       <c r="F78" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H78">
         <v>1</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K78">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="L78">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M78">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="N78">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="O78">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P78">
+        <v>2.9</v>
+      </c>
+      <c r="Q78">
+        <v>-0.25</v>
+      </c>
+      <c r="R78">
+        <v>1.95</v>
+      </c>
+      <c r="S78">
+        <v>1.85</v>
+      </c>
+      <c r="T78">
         <v>2.5</v>
       </c>
-      <c r="Q78">
-        <v>0</v>
-      </c>
-      <c r="R78">
+      <c r="U78">
         <v>1.9</v>
       </c>
-      <c r="S78">
+      <c r="V78">
         <v>1.9</v>
       </c>
-      <c r="T78">
-        <v>2.25</v>
-      </c>
-      <c r="U78">
-        <v>1.875</v>
-      </c>
-      <c r="V78">
-        <v>1.925</v>
-      </c>
       <c r="W78">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X78">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y78">
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA78">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB78">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC78">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7757,7 +7757,7 @@
         <v>29</v>
       </c>
       <c r="G82" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -8024,7 +8024,7 @@
         <v>34</v>
       </c>
       <c r="G85" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H85">
         <v>3</v>
@@ -8276,7 +8276,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6893577</v>
+        <v>6893576</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8288,49 +8288,49 @@
         <v>45242.33333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G88" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K88">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="L88">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M88">
+        <v>3</v>
+      </c>
+      <c r="N88">
         <v>2.375</v>
       </c>
-      <c r="N88">
-        <v>3.4</v>
-      </c>
       <c r="O88">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P88">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="Q88">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R88">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S88">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T88">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U88">
         <v>1.95</v>
@@ -8342,22 +8342,22 @@
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y88">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA88">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB88">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8365,7 +8365,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6893576</v>
+        <v>6893577</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8377,49 +8377,49 @@
         <v>45242.33333333334</v>
       </c>
       <c r="F89" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G89" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K89">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="L89">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M89">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="N89">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="O89">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P89">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="Q89">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R89">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S89">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T89">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U89">
         <v>1.95</v>
@@ -8431,22 +8431,22 @@
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z89">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC89">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8555,7 +8555,7 @@
         <v>45242.625</v>
       </c>
       <c r="F91" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G91" t="s">
         <v>35</v>
@@ -9267,10 +9267,10 @@
         <v>45255.33333333334</v>
       </c>
       <c r="F99" t="s">
+        <v>32</v>
+      </c>
+      <c r="G99" t="s">
         <v>33</v>
-      </c>
-      <c r="G99" t="s">
-        <v>32</v>
       </c>
       <c r="H99">
         <v>3</v>
@@ -9534,7 +9534,7 @@
         <v>45261.625</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G102" t="s">
         <v>43</v>
@@ -9626,7 +9626,7 @@
         <v>36</v>
       </c>
       <c r="G103" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -10323,7 +10323,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7559095</v>
+        <v>6893133</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10335,73 +10335,73 @@
         <v>45269.33333333334</v>
       </c>
       <c r="F111" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G111" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H111">
         <v>2</v>
       </c>
       <c r="I111">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K111">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="L111">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M111">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="N111">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O111">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P111">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="Q111">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R111">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S111">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T111">
         <v>2.25</v>
       </c>
       <c r="U111">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="V111">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W111">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA111">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB111">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AC111">
         <v>-1</v>
@@ -10412,7 +10412,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6893133</v>
+        <v>7559095</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10424,73 +10424,73 @@
         <v>45269.33333333334</v>
       </c>
       <c r="F112" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G112" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H112">
         <v>2</v>
       </c>
       <c r="I112">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J112" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K112">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="L112">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M112">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="N112">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="O112">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P112">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="Q112">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R112">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S112">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T112">
         <v>2.25</v>
       </c>
       <c r="U112">
+        <v>1.775</v>
+      </c>
+      <c r="V112">
         <v>2.025</v>
       </c>
-      <c r="V112">
-        <v>1.825</v>
-      </c>
       <c r="W112">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z112">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA112">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB112">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC112">
         <v>-1</v>
@@ -10783,7 +10783,7 @@
         <v>39</v>
       </c>
       <c r="G116" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -11047,7 +11047,7 @@
         <v>45276.33333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G119" t="s">
         <v>45</v>
@@ -11495,7 +11495,7 @@
         <v>37</v>
       </c>
       <c r="G124" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -12192,7 +12192,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6893140</v>
+        <v>6893139</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12204,55 +12204,55 @@
         <v>45290.33333333334</v>
       </c>
       <c r="F132" t="s">
+        <v>46</v>
+      </c>
+      <c r="G132" t="s">
         <v>33</v>
       </c>
-      <c r="G132" t="s">
-        <v>30</v>
-      </c>
       <c r="H132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J132" t="s">
         <v>48</v>
       </c>
       <c r="K132">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="L132">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M132">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="N132">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="O132">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P132">
-        <v>3.25</v>
+        <v>2.45</v>
       </c>
       <c r="Q132">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R132">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S132">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T132">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U132">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V132">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W132">
         <v>-1</v>
@@ -12261,16 +12261,16 @@
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>2.25</v>
+        <v>1.45</v>
       </c>
       <c r="Z132">
         <v>-1</v>
       </c>
       <c r="AA132">
-        <v>1.025</v>
+        <v>0.75</v>
       </c>
       <c r="AB132">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC132">
         <v>-1</v>
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6893139</v>
+        <v>6893140</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,55 +12293,55 @@
         <v>45290.33333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G133" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J133" t="s">
         <v>48</v>
       </c>
       <c r="K133">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="L133">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M133">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="N133">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="O133">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P133">
-        <v>2.45</v>
+        <v>3.25</v>
       </c>
       <c r="Q133">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R133">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S133">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U133">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V133">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W133">
         <v>-1</v>
@@ -12350,16 +12350,16 @@
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>1.45</v>
+        <v>2.25</v>
       </c>
       <c r="Z133">
         <v>-1</v>
       </c>
       <c r="AA133">
-        <v>0.75</v>
+        <v>1.025</v>
       </c>
       <c r="AB133">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC133">
         <v>-1</v>
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6893141</v>
+        <v>6893587</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,76 +12382,76 @@
         <v>45290.45833333334</v>
       </c>
       <c r="F134" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G134" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I134">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J134" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K134">
-        <v>1.909</v>
+        <v>1.65</v>
       </c>
       <c r="L134">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M134">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N134">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="O134">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P134">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q134">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R134">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S134">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T134">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U134">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V134">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W134">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X134">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
+        <v>0.4375</v>
+      </c>
+      <c r="AA134">
         <v>-0.5</v>
       </c>
-      <c r="AA134">
-        <v>0.5125</v>
-      </c>
       <c r="AB134">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC134">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12459,7 +12459,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6893587</v>
+        <v>6893141</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12471,76 +12471,76 @@
         <v>45290.45833333334</v>
       </c>
       <c r="F135" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G135" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J135" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K135">
-        <v>1.65</v>
+        <v>1.909</v>
       </c>
       <c r="L135">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M135">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N135">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="O135">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P135">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q135">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R135">
+        <v>1.825</v>
+      </c>
+      <c r="S135">
+        <v>2.025</v>
+      </c>
+      <c r="T135">
+        <v>2.25</v>
+      </c>
+      <c r="U135">
+        <v>1.975</v>
+      </c>
+      <c r="V135">
         <v>1.875</v>
       </c>
-      <c r="S135">
-        <v>1.925</v>
-      </c>
-      <c r="T135">
-        <v>2.5</v>
-      </c>
-      <c r="U135">
-        <v>1.85</v>
-      </c>
-      <c r="V135">
-        <v>1.95</v>
-      </c>
       <c r="W135">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>0.4375</v>
+        <v>-0.5</v>
       </c>
       <c r="AA135">
-        <v>-0.5</v>
+        <v>0.5125</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC135">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -13094,7 +13094,7 @@
         <v>45297.625</v>
       </c>
       <c r="F142" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G142" t="s">
         <v>40</v>
@@ -13364,7 +13364,7 @@
         <v>29</v>
       </c>
       <c r="G145" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H145">
         <v>3</v>
@@ -13895,7 +13895,7 @@
         <v>45305.52083333334</v>
       </c>
       <c r="F151" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G151" t="s">
         <v>35</v>
@@ -13987,7 +13987,7 @@
         <v>38</v>
       </c>
       <c r="G152" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -14343,7 +14343,7 @@
         <v>42</v>
       </c>
       <c r="G156" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -14699,7 +14699,7 @@
         <v>41</v>
       </c>
       <c r="G160" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H160">
         <v>0</v>
@@ -15307,7 +15307,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6893595</v>
+        <v>6893154</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15319,40 +15319,40 @@
         <v>45319.52083333334</v>
       </c>
       <c r="F167" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G167" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H167">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J167" t="s">
         <v>49</v>
       </c>
       <c r="K167">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="L167">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M167">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="N167">
-        <v>1.65</v>
+        <v>1.833</v>
       </c>
       <c r="O167">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P167">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q167">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R167">
         <v>1.85</v>
@@ -15361,16 +15361,16 @@
         <v>1.95</v>
       </c>
       <c r="T167">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U167">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V167">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W167">
-        <v>0.6499999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15385,10 +15385,10 @@
         <v>-1</v>
       </c>
       <c r="AB167">
-        <v>0.475</v>
+        <v>0.8</v>
       </c>
       <c r="AC167">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15396,7 +15396,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6893154</v>
+        <v>6893595</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15408,40 +15408,40 @@
         <v>45319.52083333334</v>
       </c>
       <c r="F168" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G168" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J168" t="s">
         <v>49</v>
       </c>
       <c r="K168">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="L168">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M168">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="N168">
-        <v>1.833</v>
+        <v>1.65</v>
       </c>
       <c r="O168">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P168">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q168">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R168">
         <v>1.85</v>
@@ -15450,16 +15450,16 @@
         <v>1.95</v>
       </c>
       <c r="T168">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U168">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V168">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W168">
-        <v>0.833</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X168">
         <v>-1</v>
@@ -15474,10 +15474,10 @@
         <v>-1</v>
       </c>
       <c r="AB168">
-        <v>0.8</v>
+        <v>0.475</v>
       </c>
       <c r="AC168">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15764,7 +15764,7 @@
         <v>45321.71875</v>
       </c>
       <c r="F172" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G172" t="s">
         <v>41</v>
@@ -16034,7 +16034,7 @@
         <v>40</v>
       </c>
       <c r="G175" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H175">
         <v>1</v>
@@ -16565,7 +16565,7 @@
         <v>45332.33333333334</v>
       </c>
       <c r="F181" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G181" t="s">
         <v>34</v>
@@ -17010,7 +17010,7 @@
         <v>45333.52083333334</v>
       </c>
       <c r="F186" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G186" t="s">
         <v>39</v>
@@ -17547,7 +17547,7 @@
         <v>38</v>
       </c>
       <c r="G192" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H192">
         <v>1</v>
@@ -17722,7 +17722,7 @@
         <v>45340.33333333334</v>
       </c>
       <c r="F194" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G194" t="s">
         <v>36</v>
@@ -18081,7 +18081,7 @@
         <v>44</v>
       </c>
       <c r="G198" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H198">
         <v>0</v>
@@ -18434,7 +18434,7 @@
         <v>45346.52083333334</v>
       </c>
       <c r="F202" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G202" t="s">
         <v>46</v>
@@ -18882,7 +18882,7 @@
         <v>31</v>
       </c>
       <c r="G207" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H207">
         <v>2</v>
@@ -19327,7 +19327,7 @@
         <v>45</v>
       </c>
       <c r="G212" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H212">
         <v>0</v>
@@ -19591,7 +19591,7 @@
         <v>45355.625</v>
       </c>
       <c r="F215" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G215" t="s">
         <v>37</v>
@@ -20039,7 +20039,7 @@
         <v>30</v>
       </c>
       <c r="G220" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H220">
         <v>1</v>
@@ -20113,7 +20113,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6893607</v>
+        <v>6893179</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20125,76 +20125,76 @@
         <v>45360.52083333334</v>
       </c>
       <c r="F221" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G221" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221">
         <v>1</v>
       </c>
       <c r="J221" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K221">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="L221">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M221">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="N221">
-        <v>1.571</v>
+        <v>3.5</v>
       </c>
       <c r="O221">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P221">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="Q221">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R221">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S221">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T221">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U221">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V221">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W221">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X221">
         <v>-1</v>
       </c>
       <c r="Y221">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z221">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA221">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB221">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC221">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20202,7 +20202,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6893179</v>
+        <v>6893607</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20214,76 +20214,76 @@
         <v>45360.52083333334</v>
       </c>
       <c r="F222" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G222" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H222">
+        <v>2</v>
+      </c>
+      <c r="I222">
+        <v>1</v>
+      </c>
+      <c r="J222" t="s">
+        <v>49</v>
+      </c>
+      <c r="K222">
+        <v>1.5</v>
+      </c>
+      <c r="L222">
+        <v>4</v>
+      </c>
+      <c r="M222">
+        <v>5.5</v>
+      </c>
+      <c r="N222">
+        <v>1.571</v>
+      </c>
+      <c r="O222">
+        <v>3.8</v>
+      </c>
+      <c r="P222">
+        <v>5</v>
+      </c>
+      <c r="Q222">
+        <v>-1</v>
+      </c>
+      <c r="R222">
+        <v>1.975</v>
+      </c>
+      <c r="S222">
+        <v>1.825</v>
+      </c>
+      <c r="T222">
+        <v>2.75</v>
+      </c>
+      <c r="U222">
+        <v>2</v>
+      </c>
+      <c r="V222">
+        <v>1.8</v>
+      </c>
+      <c r="W222">
+        <v>0.571</v>
+      </c>
+      <c r="X222">
+        <v>-1</v>
+      </c>
+      <c r="Y222">
+        <v>-1</v>
+      </c>
+      <c r="Z222">
         <v>0</v>
       </c>
-      <c r="I222">
-        <v>1</v>
-      </c>
-      <c r="J222" t="s">
-        <v>48</v>
-      </c>
-      <c r="K222">
-        <v>3.2</v>
-      </c>
-      <c r="L222">
-        <v>3.1</v>
-      </c>
-      <c r="M222">
-        <v>2.2</v>
-      </c>
-      <c r="N222">
-        <v>3.5</v>
-      </c>
-      <c r="O222">
-        <v>3.1</v>
-      </c>
-      <c r="P222">
-        <v>2.1</v>
-      </c>
-      <c r="Q222">
-        <v>0.25</v>
-      </c>
-      <c r="R222">
-        <v>2.025</v>
-      </c>
-      <c r="S222">
-        <v>1.775</v>
-      </c>
-      <c r="T222">
-        <v>2.25</v>
-      </c>
-      <c r="U222">
-        <v>2.025</v>
-      </c>
-      <c r="V222">
-        <v>1.775</v>
-      </c>
-      <c r="W222">
-        <v>-1</v>
-      </c>
-      <c r="X222">
-        <v>-1</v>
-      </c>
-      <c r="Y222">
-        <v>1.1</v>
-      </c>
-      <c r="Z222">
-        <v>-1</v>
-      </c>
       <c r="AA222">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB222">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC222">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20914,7 +20914,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6893180</v>
+        <v>6899162</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20926,40 +20926,40 @@
         <v>45367.52083333334</v>
       </c>
       <c r="F230" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G230" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J230" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K230">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="L230">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M230">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="N230">
-        <v>2.7</v>
+        <v>1.727</v>
       </c>
       <c r="O230">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P230">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q230">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R230">
         <v>2</v>
@@ -20971,31 +20971,31 @@
         <v>2.25</v>
       </c>
       <c r="U230">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V230">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W230">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X230">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y230">
         <v>-1</v>
       </c>
       <c r="Z230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA230">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB230">
         <v>-0.5</v>
       </c>
       <c r="AC230">
-        <v>0.4125</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -21003,7 +21003,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6899162</v>
+        <v>6893180</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21015,40 +21015,40 @@
         <v>45367.52083333334</v>
       </c>
       <c r="F231" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G231" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I231">
+        <v>1</v>
+      </c>
+      <c r="J231" t="s">
+        <v>47</v>
+      </c>
+      <c r="K231">
+        <v>2.375</v>
+      </c>
+      <c r="L231">
+        <v>3</v>
+      </c>
+      <c r="M231">
+        <v>2.8</v>
+      </c>
+      <c r="N231">
+        <v>2.7</v>
+      </c>
+      <c r="O231">
+        <v>2.9</v>
+      </c>
+      <c r="P231">
+        <v>2.5</v>
+      </c>
+      <c r="Q231">
         <v>0</v>
-      </c>
-      <c r="J231" t="s">
-        <v>49</v>
-      </c>
-      <c r="K231">
-        <v>1.8</v>
-      </c>
-      <c r="L231">
-        <v>3.25</v>
-      </c>
-      <c r="M231">
-        <v>4</v>
-      </c>
-      <c r="N231">
-        <v>1.727</v>
-      </c>
-      <c r="O231">
-        <v>3.3</v>
-      </c>
-      <c r="P231">
-        <v>4.333</v>
-      </c>
-      <c r="Q231">
-        <v>-0.75</v>
       </c>
       <c r="R231">
         <v>2</v>
@@ -21060,31 +21060,31 @@
         <v>2.25</v>
       </c>
       <c r="U231">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V231">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W231">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X231">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y231">
         <v>-1</v>
       </c>
       <c r="Z231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA231">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB231">
         <v>-0.5</v>
       </c>
       <c r="AC231">
-        <v>0.5</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21107,7 +21107,7 @@
         <v>44</v>
       </c>
       <c r="G232" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H232">
         <v>1</v>
@@ -21448,7 +21448,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6893612</v>
+        <v>6893611</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21457,64 +21457,79 @@
         <v>28</v>
       </c>
       <c r="E236" s="2">
-        <v>45383.58333333334</v>
+        <v>45380.33333333334</v>
       </c>
       <c r="F236" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G236" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="H236">
+        <v>3</v>
+      </c>
+      <c r="I236">
+        <v>1</v>
+      </c>
+      <c r="J236" t="s">
+        <v>49</v>
       </c>
       <c r="K236">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="L236">
         <v>3.2</v>
       </c>
       <c r="M236">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N236">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="O236">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P236">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="Q236">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R236">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S236">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T236">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U236">
         <v>1.975</v>
       </c>
       <c r="V236">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W236">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="X236">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y236">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z236">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA236">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB236">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC236">
+        <v>-1</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21522,72 +21537,828 @@
         <v>235</v>
       </c>
       <c r="B237">
+        <v>6893185</v>
+      </c>
+      <c r="C237" t="s">
+        <v>28</v>
+      </c>
+      <c r="D237" t="s">
+        <v>28</v>
+      </c>
+      <c r="E237" s="2">
+        <v>45380.45833333334</v>
+      </c>
+      <c r="F237" t="s">
+        <v>29</v>
+      </c>
+      <c r="G237" t="s">
+        <v>36</v>
+      </c>
+      <c r="H237">
+        <v>2</v>
+      </c>
+      <c r="I237">
+        <v>0</v>
+      </c>
+      <c r="J237" t="s">
+        <v>49</v>
+      </c>
+      <c r="K237">
+        <v>1.55</v>
+      </c>
+      <c r="L237">
+        <v>4</v>
+      </c>
+      <c r="M237">
+        <v>6</v>
+      </c>
+      <c r="N237">
+        <v>1.615</v>
+      </c>
+      <c r="O237">
+        <v>3.8</v>
+      </c>
+      <c r="P237">
+        <v>5.25</v>
+      </c>
+      <c r="Q237">
+        <v>-0.75</v>
+      </c>
+      <c r="R237">
+        <v>1.825</v>
+      </c>
+      <c r="S237">
+        <v>1.975</v>
+      </c>
+      <c r="T237">
+        <v>2.5</v>
+      </c>
+      <c r="U237">
+        <v>1.925</v>
+      </c>
+      <c r="V237">
+        <v>1.875</v>
+      </c>
+      <c r="W237">
+        <v>0.615</v>
+      </c>
+      <c r="X237">
+        <v>-1</v>
+      </c>
+      <c r="Y237">
+        <v>-1</v>
+      </c>
+      <c r="Z237">
+        <v>0.825</v>
+      </c>
+      <c r="AA237">
+        <v>-1</v>
+      </c>
+      <c r="AB237">
+        <v>-1</v>
+      </c>
+      <c r="AC237">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="238" spans="1:29">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238">
+        <v>6893613</v>
+      </c>
+      <c r="C238" t="s">
+        <v>28</v>
+      </c>
+      <c r="D238" t="s">
+        <v>28</v>
+      </c>
+      <c r="E238" s="2">
+        <v>45380.52083333334</v>
+      </c>
+      <c r="F238" t="s">
+        <v>41</v>
+      </c>
+      <c r="G238" t="s">
+        <v>42</v>
+      </c>
+      <c r="H238">
+        <v>1</v>
+      </c>
+      <c r="I238">
+        <v>0</v>
+      </c>
+      <c r="J238" t="s">
+        <v>49</v>
+      </c>
+      <c r="K238">
+        <v>1.571</v>
+      </c>
+      <c r="L238">
+        <v>4</v>
+      </c>
+      <c r="M238">
+        <v>5.5</v>
+      </c>
+      <c r="N238">
+        <v>1.727</v>
+      </c>
+      <c r="O238">
+        <v>3.75</v>
+      </c>
+      <c r="P238">
+        <v>4.5</v>
+      </c>
+      <c r="Q238">
+        <v>-0.75</v>
+      </c>
+      <c r="R238">
+        <v>1.975</v>
+      </c>
+      <c r="S238">
+        <v>1.825</v>
+      </c>
+      <c r="T238">
+        <v>2.25</v>
+      </c>
+      <c r="U238">
+        <v>1.825</v>
+      </c>
+      <c r="V238">
+        <v>1.975</v>
+      </c>
+      <c r="W238">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X238">
+        <v>-1</v>
+      </c>
+      <c r="Y238">
+        <v>-1</v>
+      </c>
+      <c r="Z238">
+        <v>0.4875</v>
+      </c>
+      <c r="AA238">
+        <v>-0.5</v>
+      </c>
+      <c r="AB238">
+        <v>-1</v>
+      </c>
+      <c r="AC238">
+        <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="239" spans="1:29">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239">
+        <v>6899160</v>
+      </c>
+      <c r="C239" t="s">
+        <v>28</v>
+      </c>
+      <c r="D239" t="s">
+        <v>28</v>
+      </c>
+      <c r="E239" s="2">
+        <v>45381.33333333334</v>
+      </c>
+      <c r="F239" t="s">
+        <v>40</v>
+      </c>
+      <c r="G239" t="s">
+        <v>30</v>
+      </c>
+      <c r="H239">
+        <v>1</v>
+      </c>
+      <c r="I239">
+        <v>1</v>
+      </c>
+      <c r="J239" t="s">
+        <v>47</v>
+      </c>
+      <c r="K239">
+        <v>2.5</v>
+      </c>
+      <c r="L239">
+        <v>3.6</v>
+      </c>
+      <c r="M239">
+        <v>2.55</v>
+      </c>
+      <c r="N239">
+        <v>2.75</v>
+      </c>
+      <c r="O239">
+        <v>3.6</v>
+      </c>
+      <c r="P239">
+        <v>2.375</v>
+      </c>
+      <c r="Q239">
+        <v>0.25</v>
+      </c>
+      <c r="R239">
+        <v>1.775</v>
+      </c>
+      <c r="S239">
+        <v>2.025</v>
+      </c>
+      <c r="T239">
+        <v>2.5</v>
+      </c>
+      <c r="U239">
+        <v>1.8</v>
+      </c>
+      <c r="V239">
+        <v>2</v>
+      </c>
+      <c r="W239">
+        <v>-1</v>
+      </c>
+      <c r="X239">
+        <v>2.6</v>
+      </c>
+      <c r="Y239">
+        <v>-1</v>
+      </c>
+      <c r="Z239">
+        <v>0.3875</v>
+      </c>
+      <c r="AA239">
+        <v>-0.5</v>
+      </c>
+      <c r="AB239">
+        <v>-1</v>
+      </c>
+      <c r="AC239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:29">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240">
+        <v>6899161</v>
+      </c>
+      <c r="C240" t="s">
+        <v>28</v>
+      </c>
+      <c r="D240" t="s">
+        <v>28</v>
+      </c>
+      <c r="E240" s="2">
+        <v>45381.45833333334</v>
+      </c>
+      <c r="F240" t="s">
+        <v>38</v>
+      </c>
+      <c r="G240" t="s">
+        <v>46</v>
+      </c>
+      <c r="H240">
+        <v>0</v>
+      </c>
+      <c r="I240">
+        <v>0</v>
+      </c>
+      <c r="J240" t="s">
+        <v>47</v>
+      </c>
+      <c r="K240">
+        <v>1.7</v>
+      </c>
+      <c r="L240">
+        <v>3.5</v>
+      </c>
+      <c r="M240">
+        <v>5.25</v>
+      </c>
+      <c r="N240">
+        <v>1.571</v>
+      </c>
+      <c r="O240">
+        <v>3.6</v>
+      </c>
+      <c r="P240">
+        <v>6.5</v>
+      </c>
+      <c r="Q240">
+        <v>-0.75</v>
+      </c>
+      <c r="R240">
+        <v>1.775</v>
+      </c>
+      <c r="S240">
+        <v>2.025</v>
+      </c>
+      <c r="T240">
+        <v>2.25</v>
+      </c>
+      <c r="U240">
+        <v>1.925</v>
+      </c>
+      <c r="V240">
+        <v>1.875</v>
+      </c>
+      <c r="W240">
+        <v>-1</v>
+      </c>
+      <c r="X240">
+        <v>2.6</v>
+      </c>
+      <c r="Y240">
+        <v>-1</v>
+      </c>
+      <c r="Z240">
+        <v>-1</v>
+      </c>
+      <c r="AA240">
+        <v>1.025</v>
+      </c>
+      <c r="AB240">
+        <v>-1</v>
+      </c>
+      <c r="AC240">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="241" spans="1:29">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241">
+        <v>6893184</v>
+      </c>
+      <c r="C241" t="s">
+        <v>28</v>
+      </c>
+      <c r="D241" t="s">
+        <v>28</v>
+      </c>
+      <c r="E241" s="2">
+        <v>45381.52083333334</v>
+      </c>
+      <c r="F241" t="s">
+        <v>32</v>
+      </c>
+      <c r="G241" t="s">
+        <v>34</v>
+      </c>
+      <c r="H241">
+        <v>3</v>
+      </c>
+      <c r="I241">
+        <v>1</v>
+      </c>
+      <c r="J241" t="s">
+        <v>49</v>
+      </c>
+      <c r="K241">
+        <v>1.85</v>
+      </c>
+      <c r="L241">
+        <v>3.75</v>
+      </c>
+      <c r="M241">
+        <v>4</v>
+      </c>
+      <c r="N241">
+        <v>1.833</v>
+      </c>
+      <c r="O241">
+        <v>3.75</v>
+      </c>
+      <c r="P241">
+        <v>4</v>
+      </c>
+      <c r="Q241">
+        <v>-0.5</v>
+      </c>
+      <c r="R241">
+        <v>1.875</v>
+      </c>
+      <c r="S241">
+        <v>1.925</v>
+      </c>
+      <c r="T241">
+        <v>2.5</v>
+      </c>
+      <c r="U241">
+        <v>1.975</v>
+      </c>
+      <c r="V241">
+        <v>1.825</v>
+      </c>
+      <c r="W241">
+        <v>0.833</v>
+      </c>
+      <c r="X241">
+        <v>-1</v>
+      </c>
+      <c r="Y241">
+        <v>-1</v>
+      </c>
+      <c r="Z241">
+        <v>0.875</v>
+      </c>
+      <c r="AA241">
+        <v>-1</v>
+      </c>
+      <c r="AB241">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC241">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:29">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242">
+        <v>6899271</v>
+      </c>
+      <c r="C242" t="s">
+        <v>28</v>
+      </c>
+      <c r="D242" t="s">
+        <v>28</v>
+      </c>
+      <c r="E242" s="2">
+        <v>45381.52083333334</v>
+      </c>
+      <c r="F242" t="s">
+        <v>31</v>
+      </c>
+      <c r="G242" t="s">
+        <v>37</v>
+      </c>
+      <c r="H242">
+        <v>1</v>
+      </c>
+      <c r="I242">
+        <v>2</v>
+      </c>
+      <c r="J242" t="s">
+        <v>48</v>
+      </c>
+      <c r="K242">
+        <v>2.75</v>
+      </c>
+      <c r="L242">
+        <v>3.1</v>
+      </c>
+      <c r="M242">
+        <v>2.7</v>
+      </c>
+      <c r="N242">
+        <v>3.1</v>
+      </c>
+      <c r="O242">
+        <v>3.1</v>
+      </c>
+      <c r="P242">
+        <v>2.4</v>
+      </c>
+      <c r="Q242">
+        <v>0.25</v>
+      </c>
+      <c r="R242">
+        <v>1.75</v>
+      </c>
+      <c r="S242">
+        <v>2.05</v>
+      </c>
+      <c r="T242">
+        <v>2</v>
+      </c>
+      <c r="U242">
+        <v>1.9</v>
+      </c>
+      <c r="V242">
+        <v>1.9</v>
+      </c>
+      <c r="W242">
+        <v>-1</v>
+      </c>
+      <c r="X242">
+        <v>-1</v>
+      </c>
+      <c r="Y242">
+        <v>1.4</v>
+      </c>
+      <c r="Z242">
+        <v>-1</v>
+      </c>
+      <c r="AA242">
+        <v>1.05</v>
+      </c>
+      <c r="AB242">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC242">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:29">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243">
+        <v>6893612</v>
+      </c>
+      <c r="C243" t="s">
+        <v>28</v>
+      </c>
+      <c r="D243" t="s">
+        <v>28</v>
+      </c>
+      <c r="E243" s="2">
+        <v>45383.58333333334</v>
+      </c>
+      <c r="F243" t="s">
+        <v>39</v>
+      </c>
+      <c r="G243" t="s">
+        <v>45</v>
+      </c>
+      <c r="K243">
+        <v>2.375</v>
+      </c>
+      <c r="L243">
+        <v>3.2</v>
+      </c>
+      <c r="M243">
+        <v>3</v>
+      </c>
+      <c r="N243">
+        <v>2.375</v>
+      </c>
+      <c r="O243">
+        <v>3.2</v>
+      </c>
+      <c r="P243">
+        <v>3</v>
+      </c>
+      <c r="Q243">
+        <v>-0.25</v>
+      </c>
+      <c r="R243">
+        <v>2.05</v>
+      </c>
+      <c r="S243">
+        <v>1.8</v>
+      </c>
+      <c r="T243">
+        <v>2.25</v>
+      </c>
+      <c r="U243">
+        <v>2</v>
+      </c>
+      <c r="V243">
+        <v>1.85</v>
+      </c>
+      <c r="W243">
+        <v>0</v>
+      </c>
+      <c r="X243">
+        <v>0</v>
+      </c>
+      <c r="Y243">
+        <v>0</v>
+      </c>
+      <c r="Z243">
+        <v>0</v>
+      </c>
+      <c r="AA243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:29">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244">
         <v>6893203</v>
       </c>
-      <c r="C237" t="s">
-        <v>28</v>
-      </c>
-      <c r="D237" t="s">
-        <v>28</v>
-      </c>
-      <c r="E237" s="2">
+      <c r="C244" t="s">
+        <v>28</v>
+      </c>
+      <c r="D244" t="s">
+        <v>28</v>
+      </c>
+      <c r="E244" s="2">
         <v>45383.58333333334</v>
       </c>
-      <c r="F237" t="s">
+      <c r="F244" t="s">
         <v>35</v>
       </c>
-      <c r="G237" t="s">
-        <v>32</v>
-      </c>
-      <c r="K237">
+      <c r="G244" t="s">
+        <v>33</v>
+      </c>
+      <c r="K244">
         <v>2.2</v>
       </c>
-      <c r="L237">
+      <c r="L244">
         <v>3.2</v>
       </c>
-      <c r="M237">
+      <c r="M244">
         <v>3.3</v>
       </c>
-      <c r="N237">
+      <c r="N244">
         <v>2.375</v>
       </c>
-      <c r="O237">
+      <c r="O244">
         <v>3.2</v>
       </c>
-      <c r="P237">
+      <c r="P244">
         <v>3</v>
       </c>
-      <c r="Q237">
+      <c r="Q244">
         <v>-0.25</v>
       </c>
-      <c r="R237">
+      <c r="R244">
         <v>2.05</v>
       </c>
-      <c r="S237">
+      <c r="S244">
         <v>1.8</v>
       </c>
-      <c r="T237">
+      <c r="T244">
         <v>2.25</v>
       </c>
-      <c r="U237">
+      <c r="U244">
         <v>1.825</v>
       </c>
-      <c r="V237">
+      <c r="V244">
         <v>2.025</v>
       </c>
-      <c r="W237">
+      <c r="W244">
         <v>0</v>
       </c>
-      <c r="X237">
+      <c r="X244">
         <v>0</v>
       </c>
-      <c r="Y237">
+      <c r="Y244">
         <v>0</v>
       </c>
-      <c r="Z237">
+      <c r="Z244">
         <v>0</v>
       </c>
-      <c r="AA237">
+      <c r="AA244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:29">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245">
+        <v>6899158</v>
+      </c>
+      <c r="C245" t="s">
+        <v>28</v>
+      </c>
+      <c r="D245" t="s">
+        <v>28</v>
+      </c>
+      <c r="E245" s="2">
+        <v>45388.41666666666</v>
+      </c>
+      <c r="F245" t="s">
+        <v>46</v>
+      </c>
+      <c r="G245" t="s">
+        <v>40</v>
+      </c>
+      <c r="K245">
+        <v>2.375</v>
+      </c>
+      <c r="L245">
+        <v>3</v>
+      </c>
+      <c r="M245">
+        <v>3</v>
+      </c>
+      <c r="N245">
+        <v>2.375</v>
+      </c>
+      <c r="O245">
+        <v>3</v>
+      </c>
+      <c r="P245">
+        <v>3</v>
+      </c>
+      <c r="Q245">
+        <v>-0.25</v>
+      </c>
+      <c r="R245">
+        <v>2.1</v>
+      </c>
+      <c r="S245">
+        <v>1.775</v>
+      </c>
+      <c r="T245">
+        <v>2.25</v>
+      </c>
+      <c r="U245">
+        <v>1.975</v>
+      </c>
+      <c r="V245">
+        <v>1.875</v>
+      </c>
+      <c r="W245">
+        <v>0</v>
+      </c>
+      <c r="X245">
+        <v>0</v>
+      </c>
+      <c r="Y245">
+        <v>0</v>
+      </c>
+      <c r="Z245">
+        <v>0</v>
+      </c>
+      <c r="AA245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:29">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246">
+        <v>6893616</v>
+      </c>
+      <c r="C246" t="s">
+        <v>28</v>
+      </c>
+      <c r="D246" t="s">
+        <v>28</v>
+      </c>
+      <c r="E246" s="2">
+        <v>45388.47916666666</v>
+      </c>
+      <c r="F246" t="s">
+        <v>44</v>
+      </c>
+      <c r="G246" t="s">
+        <v>41</v>
+      </c>
+      <c r="K246">
+        <v>3.1</v>
+      </c>
+      <c r="L246">
+        <v>3</v>
+      </c>
+      <c r="M246">
+        <v>2.375</v>
+      </c>
+      <c r="N246">
+        <v>3.1</v>
+      </c>
+      <c r="O246">
+        <v>3</v>
+      </c>
+      <c r="P246">
+        <v>2.375</v>
+      </c>
+      <c r="Q246">
+        <v>0.25</v>
+      </c>
+      <c r="R246">
+        <v>1.8</v>
+      </c>
+      <c r="S246">
+        <v>2.05</v>
+      </c>
+      <c r="T246">
+        <v>2.25</v>
+      </c>
+      <c r="U246">
+        <v>1.95</v>
+      </c>
+      <c r="V246">
+        <v>1.9</v>
+      </c>
+      <c r="W246">
+        <v>0</v>
+      </c>
+      <c r="X246">
+        <v>0</v>
+      </c>
+      <c r="Y246">
+        <v>0</v>
+      </c>
+      <c r="Z246">
+        <v>0</v>
+      </c>
+      <c r="AA246">
         <v>0</v>
       </c>
     </row>

--- a/Portugal Segunda Liga/Portugal Segunda Liga.xlsx
+++ b/Portugal Segunda Liga/Portugal Segunda Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -112,10 +112,10 @@
     <t>AVS</t>
   </si>
   <si>
-    <t>FC Porto B</t>
+    <t>Academico Viseu</t>
   </si>
   <si>
-    <t>Academico Viseu</t>
+    <t>FC Porto B</t>
   </si>
   <si>
     <t>Penafiel</t>
@@ -889,7 +889,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6893285</v>
+        <v>6893191</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -904,7 +904,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -916,61 +916,61 @@
         <v>47</v>
       </c>
       <c r="K5">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="L5">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M5">
         <v>3.6</v>
       </c>
       <c r="N5">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="O5">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P5">
+        <v>4.2</v>
+      </c>
+      <c r="Q5">
+        <v>-0.75</v>
+      </c>
+      <c r="R5">
+        <v>1.95</v>
+      </c>
+      <c r="S5">
+        <v>1.85</v>
+      </c>
+      <c r="T5">
+        <v>2.5</v>
+      </c>
+      <c r="U5">
+        <v>1.975</v>
+      </c>
+      <c r="V5">
+        <v>1.825</v>
+      </c>
+      <c r="W5">
+        <v>-1</v>
+      </c>
+      <c r="X5">
         <v>2.75</v>
       </c>
-      <c r="Q5">
-        <v>-0.25</v>
-      </c>
-      <c r="R5">
-        <v>2</v>
-      </c>
-      <c r="S5">
-        <v>1.8</v>
-      </c>
-      <c r="T5">
-        <v>2.25</v>
-      </c>
-      <c r="U5">
-        <v>1.8</v>
-      </c>
-      <c r="V5">
-        <v>2</v>
-      </c>
-      <c r="W5">
-        <v>-1</v>
-      </c>
-      <c r="X5">
-        <v>2.3</v>
-      </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB5">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -978,7 +978,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6893191</v>
+        <v>6893285</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -993,7 +993,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1005,61 +1005,61 @@
         <v>47</v>
       </c>
       <c r="K6">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="L6">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M6">
         <v>3.6</v>
       </c>
       <c r="N6">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="O6">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P6">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q6">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R6">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S6">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T6">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U6">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V6">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA6">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC6">
-        <v>0.825</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1705,7 +1705,7 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1883,7 +1883,7 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -2236,7 +2236,7 @@
         <v>45164.29166666666</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s">
         <v>44</v>
@@ -2503,7 +2503,7 @@
         <v>45165.29166666666</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G23" t="s">
         <v>40</v>
@@ -3129,7 +3129,7 @@
         <v>39</v>
       </c>
       <c r="G30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H30">
         <v>2</v>
@@ -3307,7 +3307,7 @@
         <v>34</v>
       </c>
       <c r="G32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6899293</v>
+        <v>6899208</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3927,76 +3927,76 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F39" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G39" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K39">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="L39">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M39">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="N39">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="O39">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P39">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q39">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R39">
         <v>2.05</v>
       </c>
       <c r="S39">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T39">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U39">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V39">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W39">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z39">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC39">
-        <v>0.8500000000000001</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4004,7 +4004,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6899208</v>
+        <v>6899293</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4016,76 +4016,76 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G40" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H40">
+        <v>2</v>
+      </c>
+      <c r="I40">
         <v>0</v>
       </c>
-      <c r="I40">
-        <v>2</v>
-      </c>
       <c r="J40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K40">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="L40">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M40">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="N40">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="O40">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P40">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="Q40">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R40">
         <v>2.05</v>
       </c>
       <c r="S40">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T40">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U40">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V40">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA40">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC40">
-        <v>0.5125</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4375,7 +4375,7 @@
         <v>36</v>
       </c>
       <c r="G44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H44">
         <v>2</v>
@@ -4906,7 +4906,7 @@
         <v>45200.29166666666</v>
       </c>
       <c r="F50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G50" t="s">
         <v>31</v>
@@ -4998,7 +4998,7 @@
         <v>46</v>
       </c>
       <c r="G51" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5443,7 +5443,7 @@
         <v>37</v>
       </c>
       <c r="G56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -5885,7 +5885,7 @@
         <v>45207.29166666666</v>
       </c>
       <c r="F61" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G61" t="s">
         <v>45</v>
@@ -6597,7 +6597,7 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G69" t="s">
         <v>30</v>
@@ -6956,7 +6956,7 @@
         <v>42</v>
       </c>
       <c r="G73" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7030,7 +7030,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6893126</v>
+        <v>6893574</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7042,34 +7042,34 @@
         <v>45234.33333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H74">
+        <v>2</v>
+      </c>
+      <c r="I74">
         <v>0</v>
       </c>
-      <c r="I74">
-        <v>1</v>
-      </c>
       <c r="J74" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K74">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L74">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M74">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="N74">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="O74">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P74">
         <v>3.8</v>
@@ -7078,40 +7078,40 @@
         <v>-0.5</v>
       </c>
       <c r="R74">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S74">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T74">
         <v>2.5</v>
       </c>
       <c r="U74">
+        <v>1.825</v>
+      </c>
+      <c r="V74">
         <v>1.975</v>
       </c>
-      <c r="V74">
-        <v>1.825</v>
-      </c>
       <c r="W74">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA74">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
         <v>-1</v>
       </c>
       <c r="AC74">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7119,7 +7119,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6893574</v>
+        <v>6893126</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7131,34 +7131,34 @@
         <v>45234.33333333334</v>
       </c>
       <c r="F75" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G75" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K75">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L75">
+        <v>3.4</v>
+      </c>
+      <c r="M75">
+        <v>3.8</v>
+      </c>
+      <c r="N75">
+        <v>1.8</v>
+      </c>
+      <c r="O75">
         <v>3.3</v>
-      </c>
-      <c r="M75">
-        <v>3.2</v>
-      </c>
-      <c r="N75">
-        <v>1.727</v>
-      </c>
-      <c r="O75">
-        <v>3.6</v>
       </c>
       <c r="P75">
         <v>3.8</v>
@@ -7167,40 +7167,40 @@
         <v>-0.5</v>
       </c>
       <c r="R75">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S75">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T75">
         <v>2.5</v>
       </c>
       <c r="U75">
+        <v>1.975</v>
+      </c>
+      <c r="V75">
         <v>1.825</v>
       </c>
-      <c r="V75">
-        <v>1.975</v>
-      </c>
       <c r="W75">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z75">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB75">
         <v>-1</v>
       </c>
       <c r="AC75">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7297,7 +7297,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6893125</v>
+        <v>6893124</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7309,76 +7309,76 @@
         <v>45234.625</v>
       </c>
       <c r="F77" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G77" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H77">
         <v>1</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K77">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="L77">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M77">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="N77">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="O77">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P77">
+        <v>2.9</v>
+      </c>
+      <c r="Q77">
+        <v>-0.25</v>
+      </c>
+      <c r="R77">
+        <v>1.95</v>
+      </c>
+      <c r="S77">
+        <v>1.85</v>
+      </c>
+      <c r="T77">
         <v>2.5</v>
       </c>
-      <c r="Q77">
-        <v>0</v>
-      </c>
-      <c r="R77">
+      <c r="U77">
         <v>1.9</v>
       </c>
-      <c r="S77">
+      <c r="V77">
         <v>1.9</v>
       </c>
-      <c r="T77">
-        <v>2.25</v>
-      </c>
-      <c r="U77">
-        <v>1.875</v>
-      </c>
-      <c r="V77">
-        <v>1.925</v>
-      </c>
       <c r="W77">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X77">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA77">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC77">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7386,7 +7386,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6893124</v>
+        <v>6893125</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7398,76 +7398,76 @@
         <v>45234.625</v>
       </c>
       <c r="F78" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G78" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H78">
         <v>1</v>
       </c>
       <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78" t="s">
+        <v>47</v>
+      </c>
+      <c r="K78">
+        <v>2.8</v>
+      </c>
+      <c r="L78">
+        <v>3.1</v>
+      </c>
+      <c r="M78">
+        <v>2.3</v>
+      </c>
+      <c r="N78">
+        <v>2.6</v>
+      </c>
+      <c r="O78">
+        <v>3</v>
+      </c>
+      <c r="P78">
+        <v>2.5</v>
+      </c>
+      <c r="Q78">
         <v>0</v>
       </c>
-      <c r="J78" t="s">
-        <v>49</v>
-      </c>
-      <c r="K78">
-        <v>2.05</v>
-      </c>
-      <c r="L78">
-        <v>3.3</v>
-      </c>
-      <c r="M78">
-        <v>3</v>
-      </c>
-      <c r="N78">
-        <v>2.15</v>
-      </c>
-      <c r="O78">
-        <v>3.25</v>
-      </c>
-      <c r="P78">
-        <v>2.9</v>
-      </c>
-      <c r="Q78">
-        <v>-0.25</v>
-      </c>
       <c r="R78">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S78">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T78">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U78">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V78">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W78">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X78">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y78">
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA78">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC78">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7757,7 +7757,7 @@
         <v>29</v>
       </c>
       <c r="G82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -8024,7 +8024,7 @@
         <v>34</v>
       </c>
       <c r="G85" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H85">
         <v>3</v>
@@ -8276,7 +8276,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6893576</v>
+        <v>6893577</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8288,49 +8288,49 @@
         <v>45242.33333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G88" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K88">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="L88">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M88">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="N88">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="O88">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P88">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="Q88">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R88">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S88">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T88">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U88">
         <v>1.95</v>
@@ -8342,22 +8342,22 @@
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z88">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC88">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8365,7 +8365,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6893577</v>
+        <v>6893576</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8377,49 +8377,49 @@
         <v>45242.33333333334</v>
       </c>
       <c r="F89" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G89" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K89">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="L89">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M89">
+        <v>3</v>
+      </c>
+      <c r="N89">
         <v>2.375</v>
       </c>
-      <c r="N89">
-        <v>3.4</v>
-      </c>
       <c r="O89">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P89">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="Q89">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R89">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S89">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T89">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U89">
         <v>1.95</v>
@@ -8431,22 +8431,22 @@
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y89">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA89">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB89">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8555,7 +8555,7 @@
         <v>45242.625</v>
       </c>
       <c r="F91" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G91" t="s">
         <v>35</v>
@@ -9267,10 +9267,10 @@
         <v>45255.33333333334</v>
       </c>
       <c r="F99" t="s">
+        <v>33</v>
+      </c>
+      <c r="G99" t="s">
         <v>32</v>
-      </c>
-      <c r="G99" t="s">
-        <v>33</v>
       </c>
       <c r="H99">
         <v>3</v>
@@ -9534,7 +9534,7 @@
         <v>45261.625</v>
       </c>
       <c r="F102" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G102" t="s">
         <v>43</v>
@@ -9626,7 +9626,7 @@
         <v>36</v>
       </c>
       <c r="G103" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -10323,7 +10323,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6893133</v>
+        <v>7559095</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10335,73 +10335,73 @@
         <v>45269.33333333334</v>
       </c>
       <c r="F111" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G111" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H111">
         <v>2</v>
       </c>
       <c r="I111">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J111" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K111">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="L111">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M111">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="N111">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="O111">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P111">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="Q111">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R111">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S111">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T111">
         <v>2.25</v>
       </c>
       <c r="U111">
+        <v>1.775</v>
+      </c>
+      <c r="V111">
         <v>2.025</v>
       </c>
-      <c r="V111">
-        <v>1.825</v>
-      </c>
       <c r="W111">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z111">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB111">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC111">
         <v>-1</v>
@@ -10412,7 +10412,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7559095</v>
+        <v>6893133</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10424,73 +10424,73 @@
         <v>45269.33333333334</v>
       </c>
       <c r="F112" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G112" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H112">
         <v>2</v>
       </c>
       <c r="I112">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K112">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="L112">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M112">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="N112">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O112">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P112">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="Q112">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R112">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S112">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T112">
         <v>2.25</v>
       </c>
       <c r="U112">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="V112">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W112">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA112">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB112">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AC112">
         <v>-1</v>
@@ -10783,7 +10783,7 @@
         <v>39</v>
       </c>
       <c r="G116" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -11047,7 +11047,7 @@
         <v>45276.33333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G119" t="s">
         <v>45</v>
@@ -11495,7 +11495,7 @@
         <v>37</v>
       </c>
       <c r="G124" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -12207,7 +12207,7 @@
         <v>46</v>
       </c>
       <c r="G132" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H132">
         <v>1</v>
@@ -12293,7 +12293,7 @@
         <v>45290.33333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G133" t="s">
         <v>30</v>
@@ -13094,7 +13094,7 @@
         <v>45297.625</v>
       </c>
       <c r="F142" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G142" t="s">
         <v>40</v>
@@ -13364,7 +13364,7 @@
         <v>29</v>
       </c>
       <c r="G145" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H145">
         <v>3</v>
@@ -13883,7 +13883,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6893591</v>
+        <v>6899180</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13895,76 +13895,76 @@
         <v>45305.52083333334</v>
       </c>
       <c r="F151" t="s">
+        <v>38</v>
+      </c>
+      <c r="G151" t="s">
         <v>32</v>
       </c>
-      <c r="G151" t="s">
-        <v>35</v>
-      </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I151">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K151">
-        <v>1.75</v>
+        <v>1.833</v>
       </c>
       <c r="L151">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M151">
         <v>4.333</v>
       </c>
       <c r="N151">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="O151">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P151">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q151">
         <v>-0.5</v>
       </c>
       <c r="R151">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S151">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T151">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U151">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V151">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="W151">
         <v>-1</v>
       </c>
       <c r="X151">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y151">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z151">
         <v>-1</v>
       </c>
       <c r="AA151">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB151">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AC151">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13972,7 +13972,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6899180</v>
+        <v>6893591</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13984,76 +13984,76 @@
         <v>45305.52083333334</v>
       </c>
       <c r="F152" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G152" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J152" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K152">
-        <v>1.833</v>
+        <v>1.75</v>
       </c>
       <c r="L152">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M152">
         <v>4.333</v>
       </c>
       <c r="N152">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="O152">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P152">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q152">
         <v>-0.5</v>
       </c>
       <c r="R152">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S152">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T152">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U152">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V152">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="W152">
         <v>-1</v>
       </c>
       <c r="X152">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y152">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z152">
         <v>-1</v>
       </c>
       <c r="AA152">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB152">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AC152">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14343,7 +14343,7 @@
         <v>42</v>
       </c>
       <c r="G156" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -14699,7 +14699,7 @@
         <v>41</v>
       </c>
       <c r="G160" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H160">
         <v>0</v>
@@ -15307,7 +15307,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6893154</v>
+        <v>6893595</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15319,40 +15319,40 @@
         <v>45319.52083333334</v>
       </c>
       <c r="F167" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G167" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J167" t="s">
         <v>49</v>
       </c>
       <c r="K167">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="L167">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M167">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="N167">
-        <v>1.833</v>
+        <v>1.65</v>
       </c>
       <c r="O167">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P167">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q167">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R167">
         <v>1.85</v>
@@ -15361,16 +15361,16 @@
         <v>1.95</v>
       </c>
       <c r="T167">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U167">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V167">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W167">
-        <v>0.833</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15385,10 +15385,10 @@
         <v>-1</v>
       </c>
       <c r="AB167">
-        <v>0.8</v>
+        <v>0.475</v>
       </c>
       <c r="AC167">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15396,7 +15396,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6893595</v>
+        <v>6893154</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15408,40 +15408,40 @@
         <v>45319.52083333334</v>
       </c>
       <c r="F168" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G168" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H168">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J168" t="s">
         <v>49</v>
       </c>
       <c r="K168">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="L168">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M168">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="N168">
-        <v>1.65</v>
+        <v>1.833</v>
       </c>
       <c r="O168">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P168">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q168">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R168">
         <v>1.85</v>
@@ -15450,16 +15450,16 @@
         <v>1.95</v>
       </c>
       <c r="T168">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U168">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V168">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W168">
-        <v>0.6499999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X168">
         <v>-1</v>
@@ -15474,10 +15474,10 @@
         <v>-1</v>
       </c>
       <c r="AB168">
-        <v>0.475</v>
+        <v>0.8</v>
       </c>
       <c r="AC168">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15764,7 +15764,7 @@
         <v>45321.71875</v>
       </c>
       <c r="F172" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G172" t="s">
         <v>41</v>
@@ -16034,7 +16034,7 @@
         <v>40</v>
       </c>
       <c r="G175" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H175">
         <v>1</v>
@@ -16565,7 +16565,7 @@
         <v>45332.33333333334</v>
       </c>
       <c r="F181" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G181" t="s">
         <v>34</v>
@@ -16998,7 +16998,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6893598</v>
+        <v>6893600</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17010,76 +17010,76 @@
         <v>45333.52083333334</v>
       </c>
       <c r="F186" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G186" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J186" t="s">
         <v>47</v>
       </c>
       <c r="K186">
+        <v>3.8</v>
+      </c>
+      <c r="L186">
+        <v>3.3</v>
+      </c>
+      <c r="M186">
+        <v>1.95</v>
+      </c>
+      <c r="N186">
+        <v>3.5</v>
+      </c>
+      <c r="O186">
+        <v>3.3</v>
+      </c>
+      <c r="P186">
         <v>2.05</v>
       </c>
-      <c r="L186">
-        <v>3.4</v>
-      </c>
-      <c r="M186">
-        <v>3.4</v>
-      </c>
-      <c r="N186">
-        <v>1.909</v>
-      </c>
-      <c r="O186">
-        <v>3.5</v>
-      </c>
-      <c r="P186">
-        <v>3.75</v>
-      </c>
       <c r="Q186">
+        <v>0.25</v>
+      </c>
+      <c r="R186">
+        <v>2.05</v>
+      </c>
+      <c r="S186">
+        <v>1.8</v>
+      </c>
+      <c r="T186">
+        <v>2.25</v>
+      </c>
+      <c r="U186">
+        <v>1.95</v>
+      </c>
+      <c r="V186">
+        <v>1.9</v>
+      </c>
+      <c r="W186">
+        <v>-1</v>
+      </c>
+      <c r="X186">
+        <v>2.3</v>
+      </c>
+      <c r="Y186">
+        <v>-1</v>
+      </c>
+      <c r="Z186">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="AA186">
         <v>-0.5</v>
       </c>
-      <c r="R186">
-        <v>1.9</v>
-      </c>
-      <c r="S186">
-        <v>1.9</v>
-      </c>
-      <c r="T186">
-        <v>2.5</v>
-      </c>
-      <c r="U186">
-        <v>1.85</v>
-      </c>
-      <c r="V186">
-        <v>1.95</v>
-      </c>
-      <c r="W186">
-        <v>-1</v>
-      </c>
-      <c r="X186">
-        <v>2.5</v>
-      </c>
-      <c r="Y186">
-        <v>-1</v>
-      </c>
-      <c r="Z186">
-        <v>-1</v>
-      </c>
-      <c r="AA186">
+      <c r="AB186">
+        <v>-1</v>
+      </c>
+      <c r="AC186">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB186">
-        <v>-1</v>
-      </c>
-      <c r="AC186">
-        <v>0.95</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17087,7 +17087,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6893600</v>
+        <v>6893598</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17099,76 +17099,76 @@
         <v>45333.52083333334</v>
       </c>
       <c r="F187" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G187" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J187" t="s">
         <v>47</v>
       </c>
       <c r="K187">
-        <v>3.8</v>
+        <v>2.05</v>
       </c>
       <c r="L187">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M187">
+        <v>3.4</v>
+      </c>
+      <c r="N187">
+        <v>1.909</v>
+      </c>
+      <c r="O187">
+        <v>3.5</v>
+      </c>
+      <c r="P187">
+        <v>3.75</v>
+      </c>
+      <c r="Q187">
+        <v>-0.5</v>
+      </c>
+      <c r="R187">
+        <v>1.9</v>
+      </c>
+      <c r="S187">
+        <v>1.9</v>
+      </c>
+      <c r="T187">
+        <v>2.5</v>
+      </c>
+      <c r="U187">
+        <v>1.85</v>
+      </c>
+      <c r="V187">
         <v>1.95</v>
       </c>
-      <c r="N187">
-        <v>3.5</v>
-      </c>
-      <c r="O187">
-        <v>3.3</v>
-      </c>
-      <c r="P187">
-        <v>2.05</v>
-      </c>
-      <c r="Q187">
-        <v>0.25</v>
-      </c>
-      <c r="R187">
-        <v>2.05</v>
-      </c>
-      <c r="S187">
-        <v>1.8</v>
-      </c>
-      <c r="T187">
-        <v>2.25</v>
-      </c>
-      <c r="U187">
-        <v>1.95</v>
-      </c>
-      <c r="V187">
-        <v>1.9</v>
-      </c>
       <c r="W187">
         <v>-1</v>
       </c>
       <c r="X187">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Y187">
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA187">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB187">
         <v>-1</v>
       </c>
       <c r="AC187">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17547,7 +17547,7 @@
         <v>38</v>
       </c>
       <c r="G192" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H192">
         <v>1</v>
@@ -17722,7 +17722,7 @@
         <v>45340.33333333334</v>
       </c>
       <c r="F194" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G194" t="s">
         <v>36</v>
@@ -18081,7 +18081,7 @@
         <v>44</v>
       </c>
       <c r="G198" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H198">
         <v>0</v>
@@ -18434,7 +18434,7 @@
         <v>45346.52083333334</v>
       </c>
       <c r="F202" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G202" t="s">
         <v>46</v>
@@ -18882,7 +18882,7 @@
         <v>31</v>
       </c>
       <c r="G207" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H207">
         <v>2</v>
@@ -19327,7 +19327,7 @@
         <v>45</v>
       </c>
       <c r="G212" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H212">
         <v>0</v>
@@ -19591,7 +19591,7 @@
         <v>45355.625</v>
       </c>
       <c r="F215" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G215" t="s">
         <v>37</v>
@@ -20039,7 +20039,7 @@
         <v>30</v>
       </c>
       <c r="G220" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H220">
         <v>1</v>
@@ -20113,7 +20113,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6893179</v>
+        <v>6893176</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20125,76 +20125,76 @@
         <v>45360.52083333334</v>
       </c>
       <c r="F221" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G221" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H221">
+        <v>2</v>
+      </c>
+      <c r="I221">
         <v>0</v>
       </c>
-      <c r="I221">
-        <v>1</v>
-      </c>
       <c r="J221" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K221">
+        <v>1.909</v>
+      </c>
+      <c r="L221">
         <v>3.2</v>
       </c>
-      <c r="L221">
-        <v>3.1</v>
-      </c>
       <c r="M221">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="N221">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="O221">
         <v>3.1</v>
       </c>
       <c r="P221">
+        <v>3.75</v>
+      </c>
+      <c r="Q221">
+        <v>-0.25</v>
+      </c>
+      <c r="R221">
+        <v>1.775</v>
+      </c>
+      <c r="S221">
         <v>2.1</v>
       </c>
-      <c r="Q221">
-        <v>0.25</v>
-      </c>
-      <c r="R221">
-        <v>2.025</v>
-      </c>
-      <c r="S221">
+      <c r="T221">
+        <v>2</v>
+      </c>
+      <c r="U221">
         <v>1.775</v>
       </c>
-      <c r="T221">
-        <v>2.25</v>
-      </c>
-      <c r="U221">
-        <v>2.025</v>
-      </c>
       <c r="V221">
-        <v>1.775</v>
+        <v>2.1</v>
       </c>
       <c r="W221">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X221">
         <v>-1</v>
       </c>
       <c r="Y221">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z221">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA221">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB221">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC221">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20202,7 +20202,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6893607</v>
+        <v>6893179</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20214,76 +20214,76 @@
         <v>45360.52083333334</v>
       </c>
       <c r="F222" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G222" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222">
         <v>1</v>
       </c>
       <c r="J222" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K222">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="L222">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M222">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="N222">
-        <v>1.571</v>
+        <v>3.5</v>
       </c>
       <c r="O222">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P222">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="Q222">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R222">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S222">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T222">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U222">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V222">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W222">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X222">
         <v>-1</v>
       </c>
       <c r="Y222">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z222">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA222">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB222">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC222">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20291,7 +20291,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6893176</v>
+        <v>6893607</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20303,58 +20303,58 @@
         <v>45360.52083333334</v>
       </c>
       <c r="F223" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G223" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H223">
         <v>2</v>
       </c>
       <c r="I223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J223" t="s">
         <v>49</v>
       </c>
       <c r="K223">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="L223">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M223">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="N223">
-        <v>2.05</v>
+        <v>1.571</v>
       </c>
       <c r="O223">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P223">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="Q223">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R223">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S223">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="T223">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U223">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V223">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="W223">
-        <v>1.05</v>
+        <v>0.571</v>
       </c>
       <c r="X223">
         <v>-1</v>
@@ -20363,16 +20363,16 @@
         <v>-1</v>
       </c>
       <c r="Z223">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA223">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB223">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AC223">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20914,7 +20914,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6899162</v>
+        <v>6893180</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20926,40 +20926,40 @@
         <v>45367.52083333334</v>
       </c>
       <c r="F230" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G230" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I230">
+        <v>1</v>
+      </c>
+      <c r="J230" t="s">
+        <v>47</v>
+      </c>
+      <c r="K230">
+        <v>2.375</v>
+      </c>
+      <c r="L230">
+        <v>3</v>
+      </c>
+      <c r="M230">
+        <v>2.8</v>
+      </c>
+      <c r="N230">
+        <v>2.7</v>
+      </c>
+      <c r="O230">
+        <v>2.9</v>
+      </c>
+      <c r="P230">
+        <v>2.5</v>
+      </c>
+      <c r="Q230">
         <v>0</v>
-      </c>
-      <c r="J230" t="s">
-        <v>49</v>
-      </c>
-      <c r="K230">
-        <v>1.8</v>
-      </c>
-      <c r="L230">
-        <v>3.25</v>
-      </c>
-      <c r="M230">
-        <v>4</v>
-      </c>
-      <c r="N230">
-        <v>1.727</v>
-      </c>
-      <c r="O230">
-        <v>3.3</v>
-      </c>
-      <c r="P230">
-        <v>4.333</v>
-      </c>
-      <c r="Q230">
-        <v>-0.75</v>
       </c>
       <c r="R230">
         <v>2</v>
@@ -20971,31 +20971,31 @@
         <v>2.25</v>
       </c>
       <c r="U230">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V230">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W230">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X230">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y230">
         <v>-1</v>
       </c>
       <c r="Z230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA230">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB230">
         <v>-0.5</v>
       </c>
       <c r="AC230">
-        <v>0.5</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -21003,7 +21003,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6893180</v>
+        <v>6899162</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21015,40 +21015,40 @@
         <v>45367.52083333334</v>
       </c>
       <c r="F231" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G231" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J231" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K231">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="L231">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M231">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="N231">
-        <v>2.7</v>
+        <v>1.727</v>
       </c>
       <c r="O231">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P231">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q231">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R231">
         <v>2</v>
@@ -21060,31 +21060,31 @@
         <v>2.25</v>
       </c>
       <c r="U231">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V231">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W231">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X231">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y231">
         <v>-1</v>
       </c>
       <c r="Z231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA231">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB231">
         <v>-0.5</v>
       </c>
       <c r="AC231">
-        <v>0.4125</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21107,7 +21107,7 @@
         <v>44</v>
       </c>
       <c r="G232" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H232">
         <v>1</v>
@@ -21893,7 +21893,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6893184</v>
+        <v>6899271</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21905,73 +21905,73 @@
         <v>45381.52083333334</v>
       </c>
       <c r="F241" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G241" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H241">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I241">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J241" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K241">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="L241">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M241">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="N241">
-        <v>1.833</v>
+        <v>3.1</v>
       </c>
       <c r="O241">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P241">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="Q241">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R241">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S241">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T241">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U241">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V241">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W241">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X241">
         <v>-1</v>
       </c>
       <c r="Y241">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z241">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA241">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB241">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC241">
         <v>-1</v>
@@ -21982,7 +21982,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>6899271</v>
+        <v>6893184</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -21994,73 +21994,73 @@
         <v>45381.52083333334</v>
       </c>
       <c r="F242" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G242" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H242">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I242">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J242" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K242">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="L242">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M242">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="N242">
-        <v>3.1</v>
+        <v>1.833</v>
       </c>
       <c r="O242">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P242">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="Q242">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R242">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S242">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T242">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U242">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V242">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W242">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X242">
         <v>-1</v>
       </c>
       <c r="Y242">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z242">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA242">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB242">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC242">
         <v>-1</v>
@@ -22071,7 +22071,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>6893612</v>
+        <v>6893203</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22083,25 +22083,34 @@
         <v>45383.58333333334</v>
       </c>
       <c r="F243" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G243" t="s">
-        <v>45</v>
+        <v>32</v>
+      </c>
+      <c r="H243">
+        <v>1</v>
+      </c>
+      <c r="I243">
+        <v>1</v>
+      </c>
+      <c r="J243" t="s">
+        <v>47</v>
       </c>
       <c r="K243">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="L243">
         <v>3.2</v>
       </c>
       <c r="M243">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="N243">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="O243">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P243">
         <v>3</v>
@@ -22113,31 +22122,37 @@
         <v>2.05</v>
       </c>
       <c r="S243">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T243">
         <v>2.25</v>
       </c>
       <c r="U243">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V243">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W243">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X243">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="Y243">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z243">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA243">
-        <v>0</v>
+        <v>0.375</v>
+      </c>
+      <c r="AB243">
+        <v>-0.5</v>
+      </c>
+      <c r="AC243">
+        <v>0.45</v>
       </c>
     </row>
     <row r="244" spans="1:29">
@@ -22145,7 +22160,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>6893203</v>
+        <v>6893612</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22157,28 +22172,37 @@
         <v>45383.58333333334</v>
       </c>
       <c r="F244" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G244" t="s">
-        <v>33</v>
+        <v>45</v>
+      </c>
+      <c r="H244">
+        <v>2</v>
+      </c>
+      <c r="I244">
+        <v>1</v>
+      </c>
+      <c r="J244" t="s">
+        <v>49</v>
       </c>
       <c r="K244">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="L244">
         <v>3.2</v>
       </c>
       <c r="M244">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="N244">
         <v>2.375</v>
       </c>
       <c r="O244">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P244">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q244">
         <v>-0.25</v>
@@ -22187,31 +22211,37 @@
         <v>2.05</v>
       </c>
       <c r="S244">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T244">
         <v>2.25</v>
       </c>
       <c r="U244">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V244">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="W244">
-        <v>0</v>
+        <v>1.375</v>
       </c>
       <c r="X244">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y244">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z244">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA244">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB244">
+        <v>1.025</v>
+      </c>
+      <c r="AC244">
+        <v>-1</v>
       </c>
     </row>
     <row r="245" spans="1:29">
@@ -22320,22 +22350,22 @@
         <v>2.375</v>
       </c>
       <c r="N246">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="O246">
         <v>3</v>
       </c>
       <c r="P246">
-        <v>2.375</v>
+        <v>2.55</v>
       </c>
       <c r="Q246">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R246">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S246">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T246">
         <v>2.25</v>

--- a/Portugal Segunda Liga/Portugal Segunda Liga.xlsx
+++ b/Portugal Segunda Liga/Portugal Segunda Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -112,10 +112,10 @@
     <t>AVS</t>
   </si>
   <si>
-    <t>Academico Viseu</t>
+    <t>FC Porto B</t>
   </si>
   <si>
-    <t>FC Porto B</t>
+    <t>Academico Viseu</t>
   </si>
   <si>
     <t>Penafiel</t>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC246"/>
+  <dimension ref="A1:AC252"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -889,7 +889,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6893191</v>
+        <v>6893285</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -904,7 +904,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -916,61 +916,61 @@
         <v>47</v>
       </c>
       <c r="K5">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="L5">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M5">
         <v>3.6</v>
       </c>
       <c r="N5">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="O5">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P5">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q5">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R5">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S5">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T5">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U5">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V5">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA5">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC5">
-        <v>0.825</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -978,7 +978,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6893285</v>
+        <v>6893191</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -993,7 +993,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1005,61 +1005,61 @@
         <v>47</v>
       </c>
       <c r="K6">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="L6">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M6">
         <v>3.6</v>
       </c>
       <c r="N6">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="O6">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P6">
+        <v>4.2</v>
+      </c>
+      <c r="Q6">
+        <v>-0.75</v>
+      </c>
+      <c r="R6">
+        <v>1.95</v>
+      </c>
+      <c r="S6">
+        <v>1.85</v>
+      </c>
+      <c r="T6">
+        <v>2.5</v>
+      </c>
+      <c r="U6">
+        <v>1.975</v>
+      </c>
+      <c r="V6">
+        <v>1.825</v>
+      </c>
+      <c r="W6">
+        <v>-1</v>
+      </c>
+      <c r="X6">
         <v>2.75</v>
       </c>
-      <c r="Q6">
-        <v>-0.25</v>
-      </c>
-      <c r="R6">
-        <v>2</v>
-      </c>
-      <c r="S6">
-        <v>1.8</v>
-      </c>
-      <c r="T6">
-        <v>2.25</v>
-      </c>
-      <c r="U6">
-        <v>1.8</v>
-      </c>
-      <c r="V6">
-        <v>2</v>
-      </c>
-      <c r="W6">
-        <v>-1</v>
-      </c>
-      <c r="X6">
-        <v>2.3</v>
-      </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB6">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1705,7 +1705,7 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1883,7 +1883,7 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -2236,7 +2236,7 @@
         <v>45164.29166666666</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G20" t="s">
         <v>44</v>
@@ -2491,7 +2491,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6899210</v>
+        <v>6893102</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2503,13 +2503,13 @@
         <v>45165.29166666666</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G23" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -2518,31 +2518,31 @@
         <v>49</v>
       </c>
       <c r="K23">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L23">
         <v>3.25</v>
       </c>
       <c r="M23">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N23">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="O23">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P23">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R23">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S23">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T23">
         <v>2.5</v>
@@ -2551,10 +2551,10 @@
         <v>2.025</v>
       </c>
       <c r="V23">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W23">
-        <v>1.45</v>
+        <v>1.25</v>
       </c>
       <c r="X23">
         <v>-1</v>
@@ -2563,7 +2563,7 @@
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AA23">
         <v>-1</v>
@@ -2580,7 +2580,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6893102</v>
+        <v>6899210</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2592,13 +2592,13 @@
         <v>45165.29166666666</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -2607,31 +2607,31 @@
         <v>49</v>
       </c>
       <c r="K24">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L24">
         <v>3.25</v>
       </c>
       <c r="M24">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N24">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="O24">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P24">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q24">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S24">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T24">
         <v>2.5</v>
@@ -2640,10 +2640,10 @@
         <v>2.025</v>
       </c>
       <c r="V24">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W24">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="X24">
         <v>-1</v>
@@ -2652,7 +2652,7 @@
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA24">
         <v>-1</v>
@@ -3129,7 +3129,7 @@
         <v>39</v>
       </c>
       <c r="G30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H30">
         <v>2</v>
@@ -3292,7 +3292,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6893107</v>
+        <v>7140182</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3304,76 +3304,76 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K32">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="L32">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M32">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="N32">
+        <v>2.3</v>
+      </c>
+      <c r="O32">
         <v>2.9</v>
       </c>
-      <c r="O32">
-        <v>3.5</v>
-      </c>
       <c r="P32">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q32">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R32">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S32">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T32">
         <v>2.25</v>
       </c>
       <c r="U32">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V32">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W32">
         <v>-1</v>
       </c>
       <c r="X32">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z32">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC32">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3381,7 +3381,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>7140182</v>
+        <v>6893107</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3393,76 +3393,76 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F33" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G33" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K33">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="L33">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M33">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="N33">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="O33">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="P33">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q33">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R33">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S33">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T33">
         <v>2.25</v>
       </c>
       <c r="U33">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V33">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W33">
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y33">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA33">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB33">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC33">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3915,7 +3915,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6899208</v>
+        <v>6899293</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3927,76 +3927,76 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F39" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G39" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K39">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="L39">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M39">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="N39">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="O39">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P39">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="Q39">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R39">
         <v>2.05</v>
       </c>
       <c r="S39">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T39">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U39">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V39">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA39">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>0.5125</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4004,7 +4004,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6899293</v>
+        <v>6899208</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4016,76 +4016,76 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F40" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G40" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K40">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="L40">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M40">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="N40">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="O40">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P40">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q40">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R40">
         <v>2.05</v>
       </c>
       <c r="S40">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T40">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U40">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V40">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W40">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z40">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC40">
-        <v>0.8500000000000001</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4375,7 +4375,7 @@
         <v>36</v>
       </c>
       <c r="G44" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H44">
         <v>2</v>
@@ -4906,7 +4906,7 @@
         <v>45200.29166666666</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G50" t="s">
         <v>31</v>
@@ -4998,7 +4998,7 @@
         <v>46</v>
       </c>
       <c r="G51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5443,7 +5443,7 @@
         <v>37</v>
       </c>
       <c r="G56" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -5885,7 +5885,7 @@
         <v>45207.29166666666</v>
       </c>
       <c r="F61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G61" t="s">
         <v>45</v>
@@ -6597,7 +6597,7 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G69" t="s">
         <v>30</v>
@@ -6956,7 +6956,7 @@
         <v>42</v>
       </c>
       <c r="G73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7030,7 +7030,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6893574</v>
+        <v>6893126</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7042,34 +7042,34 @@
         <v>45234.33333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G74" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K74">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L74">
+        <v>3.4</v>
+      </c>
+      <c r="M74">
+        <v>3.8</v>
+      </c>
+      <c r="N74">
+        <v>1.8</v>
+      </c>
+      <c r="O74">
         <v>3.3</v>
-      </c>
-      <c r="M74">
-        <v>3.2</v>
-      </c>
-      <c r="N74">
-        <v>1.727</v>
-      </c>
-      <c r="O74">
-        <v>3.6</v>
       </c>
       <c r="P74">
         <v>3.8</v>
@@ -7078,40 +7078,40 @@
         <v>-0.5</v>
       </c>
       <c r="R74">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S74">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T74">
         <v>2.5</v>
       </c>
       <c r="U74">
+        <v>1.975</v>
+      </c>
+      <c r="V74">
         <v>1.825</v>
       </c>
-      <c r="V74">
-        <v>1.975</v>
-      </c>
       <c r="W74">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z74">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB74">
         <v>-1</v>
       </c>
       <c r="AC74">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7119,7 +7119,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6893126</v>
+        <v>6893574</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7131,34 +7131,34 @@
         <v>45234.33333333334</v>
       </c>
       <c r="F75" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K75">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L75">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M75">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="N75">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="O75">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P75">
         <v>3.8</v>
@@ -7167,40 +7167,40 @@
         <v>-0.5</v>
       </c>
       <c r="R75">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S75">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T75">
         <v>2.5</v>
       </c>
       <c r="U75">
+        <v>1.825</v>
+      </c>
+      <c r="V75">
         <v>1.975</v>
       </c>
-      <c r="V75">
-        <v>1.825</v>
-      </c>
       <c r="W75">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA75">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
         <v>-1</v>
       </c>
       <c r="AC75">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7297,7 +7297,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6893124</v>
+        <v>6893125</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7309,76 +7309,76 @@
         <v>45234.625</v>
       </c>
       <c r="F77" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G77" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H77">
         <v>1</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K77">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="L77">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M77">
+        <v>2.3</v>
+      </c>
+      <c r="N77">
+        <v>2.6</v>
+      </c>
+      <c r="O77">
         <v>3</v>
       </c>
-      <c r="N77">
-        <v>2.15</v>
-      </c>
-      <c r="O77">
-        <v>3.25</v>
-      </c>
       <c r="P77">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="Q77">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R77">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S77">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T77">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U77">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V77">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W77">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X77">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC77">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7386,7 +7386,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6893125</v>
+        <v>6893124</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7398,76 +7398,76 @@
         <v>45234.625</v>
       </c>
       <c r="F78" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H78">
         <v>1</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K78">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="L78">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M78">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="N78">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="O78">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P78">
+        <v>2.9</v>
+      </c>
+      <c r="Q78">
+        <v>-0.25</v>
+      </c>
+      <c r="R78">
+        <v>1.95</v>
+      </c>
+      <c r="S78">
+        <v>1.85</v>
+      </c>
+      <c r="T78">
         <v>2.5</v>
       </c>
-      <c r="Q78">
-        <v>0</v>
-      </c>
-      <c r="R78">
+      <c r="U78">
         <v>1.9</v>
       </c>
-      <c r="S78">
+      <c r="V78">
         <v>1.9</v>
       </c>
-      <c r="T78">
-        <v>2.25</v>
-      </c>
-      <c r="U78">
-        <v>1.875</v>
-      </c>
-      <c r="V78">
-        <v>1.925</v>
-      </c>
       <c r="W78">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X78">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y78">
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA78">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB78">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC78">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7757,7 +7757,7 @@
         <v>29</v>
       </c>
       <c r="G82" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -8024,7 +8024,7 @@
         <v>34</v>
       </c>
       <c r="G85" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H85">
         <v>3</v>
@@ -8276,7 +8276,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6893577</v>
+        <v>6893576</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8288,49 +8288,49 @@
         <v>45242.33333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G88" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K88">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="L88">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M88">
+        <v>3</v>
+      </c>
+      <c r="N88">
         <v>2.375</v>
       </c>
-      <c r="N88">
-        <v>3.4</v>
-      </c>
       <c r="O88">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P88">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="Q88">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R88">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S88">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T88">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U88">
         <v>1.95</v>
@@ -8342,22 +8342,22 @@
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y88">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA88">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB88">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8365,7 +8365,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6893576</v>
+        <v>6893577</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8377,49 +8377,49 @@
         <v>45242.33333333334</v>
       </c>
       <c r="F89" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G89" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K89">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="L89">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M89">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="N89">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="O89">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P89">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="Q89">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R89">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S89">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T89">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U89">
         <v>1.95</v>
@@ -8431,22 +8431,22 @@
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z89">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC89">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8555,7 +8555,7 @@
         <v>45242.625</v>
       </c>
       <c r="F91" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G91" t="s">
         <v>35</v>
@@ -9267,10 +9267,10 @@
         <v>45255.33333333334</v>
       </c>
       <c r="F99" t="s">
+        <v>32</v>
+      </c>
+      <c r="G99" t="s">
         <v>33</v>
-      </c>
-      <c r="G99" t="s">
-        <v>32</v>
       </c>
       <c r="H99">
         <v>3</v>
@@ -9534,7 +9534,7 @@
         <v>45261.625</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G102" t="s">
         <v>43</v>
@@ -9626,7 +9626,7 @@
         <v>36</v>
       </c>
       <c r="G103" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -10323,7 +10323,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7559095</v>
+        <v>6893133</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10335,73 +10335,73 @@
         <v>45269.33333333334</v>
       </c>
       <c r="F111" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G111" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H111">
         <v>2</v>
       </c>
       <c r="I111">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K111">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="L111">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M111">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="N111">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O111">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P111">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="Q111">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R111">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S111">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T111">
         <v>2.25</v>
       </c>
       <c r="U111">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="V111">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W111">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA111">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB111">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AC111">
         <v>-1</v>
@@ -10412,7 +10412,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6893133</v>
+        <v>7559095</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10424,73 +10424,73 @@
         <v>45269.33333333334</v>
       </c>
       <c r="F112" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G112" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H112">
         <v>2</v>
       </c>
       <c r="I112">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J112" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K112">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="L112">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M112">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="N112">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="O112">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P112">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="Q112">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R112">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S112">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T112">
         <v>2.25</v>
       </c>
       <c r="U112">
+        <v>1.775</v>
+      </c>
+      <c r="V112">
         <v>2.025</v>
       </c>
-      <c r="V112">
-        <v>1.825</v>
-      </c>
       <c r="W112">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z112">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA112">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB112">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC112">
         <v>-1</v>
@@ -10783,7 +10783,7 @@
         <v>39</v>
       </c>
       <c r="G116" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -11047,7 +11047,7 @@
         <v>45276.33333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G119" t="s">
         <v>45</v>
@@ -11495,7 +11495,7 @@
         <v>37</v>
       </c>
       <c r="G124" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -12207,7 +12207,7 @@
         <v>46</v>
       </c>
       <c r="G132" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H132">
         <v>1</v>
@@ -12293,7 +12293,7 @@
         <v>45290.33333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G133" t="s">
         <v>30</v>
@@ -13082,7 +13082,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6899181</v>
+        <v>6893145</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13094,76 +13094,76 @@
         <v>45297.625</v>
       </c>
       <c r="F142" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G142" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H142">
         <v>1</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K142">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="L142">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M142">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="N142">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O142">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P142">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q142">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R142">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S142">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T142">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U142">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V142">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W142">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X142">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB142">
         <v>-1</v>
       </c>
       <c r="AC142">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13171,7 +13171,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6893145</v>
+        <v>6899181</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13183,76 +13183,76 @@
         <v>45297.625</v>
       </c>
       <c r="F143" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G143" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H143">
         <v>1</v>
       </c>
       <c r="I143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K143">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="L143">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M143">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N143">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O143">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P143">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q143">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R143">
+        <v>2.025</v>
+      </c>
+      <c r="S143">
+        <v>1.775</v>
+      </c>
+      <c r="T143">
+        <v>2.25</v>
+      </c>
+      <c r="U143">
+        <v>1.975</v>
+      </c>
+      <c r="V143">
         <v>1.825</v>
       </c>
-      <c r="S143">
-        <v>1.975</v>
-      </c>
-      <c r="T143">
-        <v>2.5</v>
-      </c>
-      <c r="U143">
-        <v>1.875</v>
-      </c>
-      <c r="V143">
-        <v>1.925</v>
-      </c>
       <c r="W143">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X143">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y143">
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA143">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
         <v>-1</v>
       </c>
       <c r="AC143">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13364,7 +13364,7 @@
         <v>29</v>
       </c>
       <c r="G145" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H145">
         <v>3</v>
@@ -13898,7 +13898,7 @@
         <v>38</v>
       </c>
       <c r="G151" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H151">
         <v>1</v>
@@ -13984,7 +13984,7 @@
         <v>45305.52083333334</v>
       </c>
       <c r="F152" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G152" t="s">
         <v>35</v>
@@ -14343,7 +14343,7 @@
         <v>42</v>
       </c>
       <c r="G156" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -14699,7 +14699,7 @@
         <v>41</v>
       </c>
       <c r="G160" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H160">
         <v>0</v>
@@ -15307,7 +15307,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6893595</v>
+        <v>6893154</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15319,40 +15319,40 @@
         <v>45319.52083333334</v>
       </c>
       <c r="F167" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G167" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H167">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J167" t="s">
         <v>49</v>
       </c>
       <c r="K167">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="L167">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M167">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="N167">
-        <v>1.65</v>
+        <v>1.833</v>
       </c>
       <c r="O167">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P167">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q167">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R167">
         <v>1.85</v>
@@ -15361,16 +15361,16 @@
         <v>1.95</v>
       </c>
       <c r="T167">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U167">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V167">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W167">
-        <v>0.6499999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15385,10 +15385,10 @@
         <v>-1</v>
       </c>
       <c r="AB167">
-        <v>0.475</v>
+        <v>0.8</v>
       </c>
       <c r="AC167">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15396,7 +15396,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6893154</v>
+        <v>6893595</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15408,40 +15408,40 @@
         <v>45319.52083333334</v>
       </c>
       <c r="F168" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G168" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J168" t="s">
         <v>49</v>
       </c>
       <c r="K168">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="L168">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M168">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="N168">
-        <v>1.833</v>
+        <v>1.65</v>
       </c>
       <c r="O168">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P168">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q168">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R168">
         <v>1.85</v>
@@ -15450,16 +15450,16 @@
         <v>1.95</v>
       </c>
       <c r="T168">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U168">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V168">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W168">
-        <v>0.833</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X168">
         <v>-1</v>
@@ -15474,10 +15474,10 @@
         <v>-1</v>
       </c>
       <c r="AB168">
-        <v>0.8</v>
+        <v>0.475</v>
       </c>
       <c r="AC168">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15764,7 +15764,7 @@
         <v>45321.71875</v>
       </c>
       <c r="F172" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G172" t="s">
         <v>41</v>
@@ -16034,7 +16034,7 @@
         <v>40</v>
       </c>
       <c r="G175" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H175">
         <v>1</v>
@@ -16565,7 +16565,7 @@
         <v>45332.33333333334</v>
       </c>
       <c r="F181" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G181" t="s">
         <v>34</v>
@@ -16998,7 +16998,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6893600</v>
+        <v>6893598</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17010,76 +17010,76 @@
         <v>45333.52083333334</v>
       </c>
       <c r="F186" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G186" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J186" t="s">
         <v>47</v>
       </c>
       <c r="K186">
-        <v>3.8</v>
+        <v>2.05</v>
       </c>
       <c r="L186">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M186">
+        <v>3.4</v>
+      </c>
+      <c r="N186">
+        <v>1.909</v>
+      </c>
+      <c r="O186">
+        <v>3.5</v>
+      </c>
+      <c r="P186">
+        <v>3.75</v>
+      </c>
+      <c r="Q186">
+        <v>-0.5</v>
+      </c>
+      <c r="R186">
+        <v>1.9</v>
+      </c>
+      <c r="S186">
+        <v>1.9</v>
+      </c>
+      <c r="T186">
+        <v>2.5</v>
+      </c>
+      <c r="U186">
+        <v>1.85</v>
+      </c>
+      <c r="V186">
         <v>1.95</v>
       </c>
-      <c r="N186">
-        <v>3.5</v>
-      </c>
-      <c r="O186">
-        <v>3.3</v>
-      </c>
-      <c r="P186">
-        <v>2.05</v>
-      </c>
-      <c r="Q186">
-        <v>0.25</v>
-      </c>
-      <c r="R186">
-        <v>2.05</v>
-      </c>
-      <c r="S186">
-        <v>1.8</v>
-      </c>
-      <c r="T186">
-        <v>2.25</v>
-      </c>
-      <c r="U186">
-        <v>1.95</v>
-      </c>
-      <c r="V186">
-        <v>1.9</v>
-      </c>
       <c r="W186">
         <v>-1</v>
       </c>
       <c r="X186">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Y186">
         <v>-1</v>
       </c>
       <c r="Z186">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA186">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB186">
         <v>-1</v>
       </c>
       <c r="AC186">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17087,7 +17087,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6893598</v>
+        <v>6893600</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17099,76 +17099,76 @@
         <v>45333.52083333334</v>
       </c>
       <c r="F187" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G187" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J187" t="s">
         <v>47</v>
       </c>
       <c r="K187">
+        <v>3.8</v>
+      </c>
+      <c r="L187">
+        <v>3.3</v>
+      </c>
+      <c r="M187">
+        <v>1.95</v>
+      </c>
+      <c r="N187">
+        <v>3.5</v>
+      </c>
+      <c r="O187">
+        <v>3.3</v>
+      </c>
+      <c r="P187">
         <v>2.05</v>
       </c>
-      <c r="L187">
-        <v>3.4</v>
-      </c>
-      <c r="M187">
-        <v>3.4</v>
-      </c>
-      <c r="N187">
-        <v>1.909</v>
-      </c>
-      <c r="O187">
-        <v>3.5</v>
-      </c>
-      <c r="P187">
-        <v>3.75</v>
-      </c>
       <c r="Q187">
+        <v>0.25</v>
+      </c>
+      <c r="R187">
+        <v>2.05</v>
+      </c>
+      <c r="S187">
+        <v>1.8</v>
+      </c>
+      <c r="T187">
+        <v>2.25</v>
+      </c>
+      <c r="U187">
+        <v>1.95</v>
+      </c>
+      <c r="V187">
+        <v>1.9</v>
+      </c>
+      <c r="W187">
+        <v>-1</v>
+      </c>
+      <c r="X187">
+        <v>2.3</v>
+      </c>
+      <c r="Y187">
+        <v>-1</v>
+      </c>
+      <c r="Z187">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="AA187">
         <v>-0.5</v>
       </c>
-      <c r="R187">
-        <v>1.9</v>
-      </c>
-      <c r="S187">
-        <v>1.9</v>
-      </c>
-      <c r="T187">
-        <v>2.5</v>
-      </c>
-      <c r="U187">
-        <v>1.85</v>
-      </c>
-      <c r="V187">
-        <v>1.95</v>
-      </c>
-      <c r="W187">
-        <v>-1</v>
-      </c>
-      <c r="X187">
-        <v>2.5</v>
-      </c>
-      <c r="Y187">
-        <v>-1</v>
-      </c>
-      <c r="Z187">
-        <v>-1</v>
-      </c>
-      <c r="AA187">
+      <c r="AB187">
+        <v>-1</v>
+      </c>
+      <c r="AC187">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB187">
-        <v>-1</v>
-      </c>
-      <c r="AC187">
-        <v>0.95</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17547,7 +17547,7 @@
         <v>38</v>
       </c>
       <c r="G192" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H192">
         <v>1</v>
@@ -17722,7 +17722,7 @@
         <v>45340.33333333334</v>
       </c>
       <c r="F194" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G194" t="s">
         <v>36</v>
@@ -18081,7 +18081,7 @@
         <v>44</v>
       </c>
       <c r="G198" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H198">
         <v>0</v>
@@ -18434,7 +18434,7 @@
         <v>45346.52083333334</v>
       </c>
       <c r="F202" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G202" t="s">
         <v>46</v>
@@ -18882,7 +18882,7 @@
         <v>31</v>
       </c>
       <c r="G207" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H207">
         <v>2</v>
@@ -19327,7 +19327,7 @@
         <v>45</v>
       </c>
       <c r="G212" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H212">
         <v>0</v>
@@ -19591,7 +19591,7 @@
         <v>45355.625</v>
       </c>
       <c r="F215" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G215" t="s">
         <v>37</v>
@@ -20039,7 +20039,7 @@
         <v>30</v>
       </c>
       <c r="G220" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H220">
         <v>1</v>
@@ -20202,7 +20202,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6893179</v>
+        <v>6893607</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20214,76 +20214,76 @@
         <v>45360.52083333334</v>
       </c>
       <c r="F222" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G222" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222">
         <v>1</v>
       </c>
       <c r="J222" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K222">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="L222">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M222">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="N222">
-        <v>3.5</v>
+        <v>1.571</v>
       </c>
       <c r="O222">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P222">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="Q222">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R222">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S222">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T222">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U222">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V222">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W222">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X222">
         <v>-1</v>
       </c>
       <c r="Y222">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z222">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA222">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB222">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC222">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20291,7 +20291,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6893607</v>
+        <v>6893179</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20303,76 +20303,76 @@
         <v>45360.52083333334</v>
       </c>
       <c r="F223" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G223" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223">
         <v>1</v>
       </c>
       <c r="J223" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K223">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="L223">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M223">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="N223">
-        <v>1.571</v>
+        <v>3.5</v>
       </c>
       <c r="O223">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P223">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="Q223">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R223">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S223">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T223">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U223">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V223">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W223">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X223">
         <v>-1</v>
       </c>
       <c r="Y223">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z223">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA223">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB223">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC223">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20926,7 +20926,7 @@
         <v>45367.52083333334</v>
       </c>
       <c r="F230" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G230" t="s">
         <v>29</v>
@@ -21107,7 +21107,7 @@
         <v>44</v>
       </c>
       <c r="G232" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H232">
         <v>1</v>
@@ -21994,7 +21994,7 @@
         <v>45381.52083333334</v>
       </c>
       <c r="F242" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G242" t="s">
         <v>34</v>
@@ -22086,7 +22086,7 @@
         <v>35</v>
       </c>
       <c r="G243" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H243">
         <v>1</v>
@@ -22249,7 +22249,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>6899158</v>
+        <v>6899270</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22258,49 +22258,49 @@
         <v>28</v>
       </c>
       <c r="E245" s="2">
-        <v>45388.41666666666</v>
+        <v>45387.58333333334</v>
       </c>
       <c r="F245" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G245" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="K245">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="L245">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M245">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="N245">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="O245">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P245">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q245">
         <v>-0.25</v>
       </c>
       <c r="R245">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="S245">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="T245">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U245">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V245">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W245">
         <v>0</v>
@@ -22323,7 +22323,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>6893616</v>
+        <v>6899158</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22332,63 +22332,507 @@
         <v>28</v>
       </c>
       <c r="E246" s="2">
-        <v>45388.47916666666</v>
+        <v>45388.41666666666</v>
       </c>
       <c r="F246" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G246" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K246">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="L246">
         <v>3</v>
       </c>
       <c r="M246">
+        <v>3</v>
+      </c>
+      <c r="N246">
         <v>2.375</v>
-      </c>
-      <c r="N246">
-        <v>2.875</v>
       </c>
       <c r="O246">
         <v>3</v>
       </c>
       <c r="P246">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="Q246">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R246">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="S246">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T246">
         <v>2.25</v>
       </c>
       <c r="U246">
+        <v>2</v>
+      </c>
+      <c r="V246">
+        <v>1.85</v>
+      </c>
+      <c r="W246">
+        <v>0</v>
+      </c>
+      <c r="X246">
+        <v>0</v>
+      </c>
+      <c r="Y246">
+        <v>0</v>
+      </c>
+      <c r="Z246">
+        <v>0</v>
+      </c>
+      <c r="AA246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:29">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="B247">
+        <v>6893616</v>
+      </c>
+      <c r="C247" t="s">
+        <v>28</v>
+      </c>
+      <c r="D247" t="s">
+        <v>28</v>
+      </c>
+      <c r="E247" s="2">
+        <v>45388.47916666666</v>
+      </c>
+      <c r="F247" t="s">
+        <v>44</v>
+      </c>
+      <c r="G247" t="s">
+        <v>41</v>
+      </c>
+      <c r="K247">
+        <v>3.1</v>
+      </c>
+      <c r="L247">
+        <v>3</v>
+      </c>
+      <c r="M247">
+        <v>2.375</v>
+      </c>
+      <c r="N247">
+        <v>2.875</v>
+      </c>
+      <c r="O247">
+        <v>3</v>
+      </c>
+      <c r="P247">
+        <v>2.55</v>
+      </c>
+      <c r="Q247">
+        <v>0</v>
+      </c>
+      <c r="R247">
+        <v>2.025</v>
+      </c>
+      <c r="S247">
+        <v>1.825</v>
+      </c>
+      <c r="T247">
+        <v>2.25</v>
+      </c>
+      <c r="U247">
         <v>1.95</v>
       </c>
-      <c r="V246">
+      <c r="V247">
         <v>1.9</v>
       </c>
-      <c r="W246">
-        <v>0</v>
-      </c>
-      <c r="X246">
-        <v>0</v>
-      </c>
-      <c r="Y246">
-        <v>0</v>
-      </c>
-      <c r="Z246">
-        <v>0</v>
-      </c>
-      <c r="AA246">
+      <c r="W247">
+        <v>0</v>
+      </c>
+      <c r="X247">
+        <v>0</v>
+      </c>
+      <c r="Y247">
+        <v>0</v>
+      </c>
+      <c r="Z247">
+        <v>0</v>
+      </c>
+      <c r="AA247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:29">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="B248">
+        <v>6893614</v>
+      </c>
+      <c r="C248" t="s">
+        <v>28</v>
+      </c>
+      <c r="D248" t="s">
+        <v>28</v>
+      </c>
+      <c r="E248" s="2">
+        <v>45389.29166666666</v>
+      </c>
+      <c r="F248" t="s">
+        <v>42</v>
+      </c>
+      <c r="G248" t="s">
+        <v>39</v>
+      </c>
+      <c r="K248">
+        <v>2.5</v>
+      </c>
+      <c r="L248">
+        <v>3.2</v>
+      </c>
+      <c r="M248">
+        <v>2.5</v>
+      </c>
+      <c r="N248">
+        <v>2.55</v>
+      </c>
+      <c r="O248">
+        <v>3.2</v>
+      </c>
+      <c r="P248">
+        <v>2.45</v>
+      </c>
+      <c r="Q248">
+        <v>0</v>
+      </c>
+      <c r="R248">
+        <v>2</v>
+      </c>
+      <c r="S248">
+        <v>1.85</v>
+      </c>
+      <c r="T248">
+        <v>2.5</v>
+      </c>
+      <c r="U248">
+        <v>1.975</v>
+      </c>
+      <c r="V248">
+        <v>1.875</v>
+      </c>
+      <c r="W248">
+        <v>0</v>
+      </c>
+      <c r="X248">
+        <v>0</v>
+      </c>
+      <c r="Y248">
+        <v>0</v>
+      </c>
+      <c r="Z248">
+        <v>0</v>
+      </c>
+      <c r="AA248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:29">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249">
+        <v>6893186</v>
+      </c>
+      <c r="C249" t="s">
+        <v>28</v>
+      </c>
+      <c r="D249" t="s">
+        <v>28</v>
+      </c>
+      <c r="E249" s="2">
+        <v>45389.41666666666</v>
+      </c>
+      <c r="F249" t="s">
+        <v>37</v>
+      </c>
+      <c r="G249" t="s">
+        <v>29</v>
+      </c>
+      <c r="K249">
+        <v>1.8</v>
+      </c>
+      <c r="L249">
+        <v>3.25</v>
+      </c>
+      <c r="M249">
+        <v>4</v>
+      </c>
+      <c r="N249">
+        <v>1.727</v>
+      </c>
+      <c r="O249">
+        <v>3.3</v>
+      </c>
+      <c r="P249">
+        <v>4.333</v>
+      </c>
+      <c r="Q249">
+        <v>-0.75</v>
+      </c>
+      <c r="R249">
+        <v>2.05</v>
+      </c>
+      <c r="S249">
+        <v>1.8</v>
+      </c>
+      <c r="T249">
+        <v>2.25</v>
+      </c>
+      <c r="U249">
+        <v>2.05</v>
+      </c>
+      <c r="V249">
+        <v>1.8</v>
+      </c>
+      <c r="W249">
+        <v>0</v>
+      </c>
+      <c r="X249">
+        <v>0</v>
+      </c>
+      <c r="Y249">
+        <v>0</v>
+      </c>
+      <c r="Z249">
+        <v>0</v>
+      </c>
+      <c r="AA249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:29">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250">
+        <v>6899159</v>
+      </c>
+      <c r="C250" t="s">
+        <v>28</v>
+      </c>
+      <c r="D250" t="s">
+        <v>28</v>
+      </c>
+      <c r="E250" s="2">
+        <v>45389.47916666666</v>
+      </c>
+      <c r="F250" t="s">
+        <v>45</v>
+      </c>
+      <c r="G250" t="s">
+        <v>38</v>
+      </c>
+      <c r="K250">
+        <v>2.625</v>
+      </c>
+      <c r="L250">
+        <v>3.2</v>
+      </c>
+      <c r="M250">
+        <v>2.375</v>
+      </c>
+      <c r="N250">
+        <v>2.9</v>
+      </c>
+      <c r="O250">
+        <v>3.2</v>
+      </c>
+      <c r="P250">
+        <v>2.2</v>
+      </c>
+      <c r="Q250">
+        <v>0.25</v>
+      </c>
+      <c r="R250">
+        <v>1.85</v>
+      </c>
+      <c r="S250">
+        <v>2</v>
+      </c>
+      <c r="T250">
+        <v>2.25</v>
+      </c>
+      <c r="U250">
+        <v>1.95</v>
+      </c>
+      <c r="V250">
+        <v>1.9</v>
+      </c>
+      <c r="W250">
+        <v>0</v>
+      </c>
+      <c r="X250">
+        <v>0</v>
+      </c>
+      <c r="Y250">
+        <v>0</v>
+      </c>
+      <c r="Z250">
+        <v>0</v>
+      </c>
+      <c r="AA250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:29">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251">
+        <v>6893615</v>
+      </c>
+      <c r="C251" t="s">
+        <v>28</v>
+      </c>
+      <c r="D251" t="s">
+        <v>28</v>
+      </c>
+      <c r="E251" s="2">
+        <v>45389.58333333334</v>
+      </c>
+      <c r="F251" t="s">
+        <v>36</v>
+      </c>
+      <c r="G251" t="s">
+        <v>35</v>
+      </c>
+      <c r="K251">
+        <v>2.6</v>
+      </c>
+      <c r="L251">
+        <v>3.25</v>
+      </c>
+      <c r="M251">
+        <v>2.375</v>
+      </c>
+      <c r="N251">
+        <v>2.7</v>
+      </c>
+      <c r="O251">
+        <v>3.25</v>
+      </c>
+      <c r="P251">
+        <v>2.3</v>
+      </c>
+      <c r="Q251">
+        <v>0.25</v>
+      </c>
+      <c r="R251">
+        <v>1.8</v>
+      </c>
+      <c r="S251">
+        <v>2.05</v>
+      </c>
+      <c r="T251">
+        <v>2.5</v>
+      </c>
+      <c r="U251">
+        <v>1.875</v>
+      </c>
+      <c r="V251">
+        <v>1.975</v>
+      </c>
+      <c r="W251">
+        <v>0</v>
+      </c>
+      <c r="X251">
+        <v>0</v>
+      </c>
+      <c r="Y251">
+        <v>0</v>
+      </c>
+      <c r="Z251">
+        <v>0</v>
+      </c>
+      <c r="AA251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:29">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252">
+        <v>6893204</v>
+      </c>
+      <c r="C252" t="s">
+        <v>28</v>
+      </c>
+      <c r="D252" t="s">
+        <v>28</v>
+      </c>
+      <c r="E252" s="2">
+        <v>45390.58333333334</v>
+      </c>
+      <c r="F252" t="s">
+        <v>33</v>
+      </c>
+      <c r="G252" t="s">
+        <v>32</v>
+      </c>
+      <c r="K252">
+        <v>2.3</v>
+      </c>
+      <c r="L252">
+        <v>3.25</v>
+      </c>
+      <c r="M252">
+        <v>2.7</v>
+      </c>
+      <c r="N252">
+        <v>2.25</v>
+      </c>
+      <c r="O252">
+        <v>3.25</v>
+      </c>
+      <c r="P252">
+        <v>2.75</v>
+      </c>
+      <c r="Q252">
+        <v>-0.25</v>
+      </c>
+      <c r="R252">
+        <v>2.05</v>
+      </c>
+      <c r="S252">
+        <v>1.8</v>
+      </c>
+      <c r="T252">
+        <v>2.5</v>
+      </c>
+      <c r="U252">
+        <v>1.925</v>
+      </c>
+      <c r="V252">
+        <v>1.925</v>
+      </c>
+      <c r="W252">
+        <v>0</v>
+      </c>
+      <c r="X252">
+        <v>0</v>
+      </c>
+      <c r="Y252">
+        <v>0</v>
+      </c>
+      <c r="Z252">
+        <v>0</v>
+      </c>
+      <c r="AA252">
         <v>0</v>
       </c>
     </row>

--- a/Portugal Segunda Liga/Portugal Segunda Liga.xlsx
+++ b/Portugal Segunda Liga/Portugal Segunda Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC252"/>
+  <dimension ref="A1:AC253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13082,7 +13082,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6893145</v>
+        <v>6899181</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13094,76 +13094,76 @@
         <v>45297.625</v>
       </c>
       <c r="F142" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G142" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H142">
         <v>1</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J142" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K142">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="L142">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M142">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N142">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O142">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P142">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q142">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R142">
+        <v>2.025</v>
+      </c>
+      <c r="S142">
+        <v>1.775</v>
+      </c>
+      <c r="T142">
+        <v>2.25</v>
+      </c>
+      <c r="U142">
+        <v>1.975</v>
+      </c>
+      <c r="V142">
         <v>1.825</v>
       </c>
-      <c r="S142">
-        <v>1.975</v>
-      </c>
-      <c r="T142">
-        <v>2.5</v>
-      </c>
-      <c r="U142">
-        <v>1.875</v>
-      </c>
-      <c r="V142">
-        <v>1.925</v>
-      </c>
       <c r="W142">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X142">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA142">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
         <v>-1</v>
       </c>
       <c r="AC142">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13171,7 +13171,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6899181</v>
+        <v>6893145</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13183,76 +13183,76 @@
         <v>45297.625</v>
       </c>
       <c r="F143" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G143" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H143">
         <v>1</v>
       </c>
       <c r="I143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K143">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="L143">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M143">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="N143">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O143">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P143">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q143">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R143">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S143">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T143">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U143">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V143">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W143">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X143">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y143">
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB143">
         <v>-1</v>
       </c>
       <c r="AC143">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -15307,7 +15307,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6893154</v>
+        <v>6893595</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15319,40 +15319,40 @@
         <v>45319.52083333334</v>
       </c>
       <c r="F167" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G167" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J167" t="s">
         <v>49</v>
       </c>
       <c r="K167">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="L167">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M167">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="N167">
-        <v>1.833</v>
+        <v>1.65</v>
       </c>
       <c r="O167">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P167">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q167">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R167">
         <v>1.85</v>
@@ -15361,16 +15361,16 @@
         <v>1.95</v>
       </c>
       <c r="T167">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U167">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V167">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W167">
-        <v>0.833</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15385,10 +15385,10 @@
         <v>-1</v>
       </c>
       <c r="AB167">
-        <v>0.8</v>
+        <v>0.475</v>
       </c>
       <c r="AC167">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15396,7 +15396,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6893595</v>
+        <v>6893154</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15408,40 +15408,40 @@
         <v>45319.52083333334</v>
       </c>
       <c r="F168" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G168" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H168">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J168" t="s">
         <v>49</v>
       </c>
       <c r="K168">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="L168">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M168">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="N168">
-        <v>1.65</v>
+        <v>1.833</v>
       </c>
       <c r="O168">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P168">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q168">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R168">
         <v>1.85</v>
@@ -15450,16 +15450,16 @@
         <v>1.95</v>
       </c>
       <c r="T168">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U168">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V168">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W168">
-        <v>0.6499999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X168">
         <v>-1</v>
@@ -15474,10 +15474,10 @@
         <v>-1</v>
       </c>
       <c r="AB168">
-        <v>0.475</v>
+        <v>0.8</v>
       </c>
       <c r="AC168">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -18333,7 +18333,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6893169</v>
+        <v>6893167</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18345,76 +18345,76 @@
         <v>45346.52083333334</v>
       </c>
       <c r="F201" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G201" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H201">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I201">
         <v>2</v>
       </c>
       <c r="J201" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K201">
-        <v>1.75</v>
+        <v>1.833</v>
       </c>
       <c r="L201">
         <v>3.4</v>
       </c>
       <c r="M201">
+        <v>4.333</v>
+      </c>
+      <c r="N201">
+        <v>1.75</v>
+      </c>
+      <c r="O201">
+        <v>3.4</v>
+      </c>
+      <c r="P201">
         <v>4.5</v>
       </c>
-      <c r="N201">
-        <v>1.666</v>
-      </c>
-      <c r="O201">
-        <v>3.5</v>
-      </c>
-      <c r="P201">
-        <v>5</v>
-      </c>
       <c r="Q201">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R201">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S201">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T201">
         <v>2.25</v>
       </c>
       <c r="U201">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V201">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W201">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X201">
         <v>-1</v>
       </c>
       <c r="Y201">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z201">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA201">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB201">
         <v>-0.5</v>
       </c>
-      <c r="AB201">
-        <v>0.7749999999999999</v>
-      </c>
       <c r="AC201">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18422,7 +18422,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6893167</v>
+        <v>6893169</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18434,76 +18434,76 @@
         <v>45346.52083333334</v>
       </c>
       <c r="F202" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G202" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I202">
         <v>2</v>
       </c>
       <c r="J202" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K202">
-        <v>1.833</v>
+        <v>1.75</v>
       </c>
       <c r="L202">
         <v>3.4</v>
       </c>
       <c r="M202">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="N202">
-        <v>1.75</v>
+        <v>1.666</v>
       </c>
       <c r="O202">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P202">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q202">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R202">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S202">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T202">
         <v>2.25</v>
       </c>
       <c r="U202">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V202">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W202">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X202">
         <v>-1</v>
       </c>
       <c r="Y202">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z202">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA202">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB202">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC202">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -20202,7 +20202,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6893607</v>
+        <v>6893179</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20214,76 +20214,76 @@
         <v>45360.52083333334</v>
       </c>
       <c r="F222" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G222" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222">
         <v>1</v>
       </c>
       <c r="J222" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K222">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="L222">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M222">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="N222">
-        <v>1.571</v>
+        <v>3.5</v>
       </c>
       <c r="O222">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P222">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="Q222">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R222">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S222">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T222">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U222">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V222">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W222">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X222">
         <v>-1</v>
       </c>
       <c r="Y222">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z222">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA222">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB222">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC222">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20291,7 +20291,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6893179</v>
+        <v>6893607</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20303,76 +20303,76 @@
         <v>45360.52083333334</v>
       </c>
       <c r="F223" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G223" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223">
         <v>1</v>
       </c>
       <c r="J223" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K223">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="L223">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M223">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="N223">
-        <v>3.5</v>
+        <v>1.571</v>
       </c>
       <c r="O223">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P223">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="Q223">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R223">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S223">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T223">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U223">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V223">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W223">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X223">
         <v>-1</v>
       </c>
       <c r="Y223">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z223">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA223">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB223">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC223">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -21893,7 +21893,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6899271</v>
+        <v>6893184</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21905,73 +21905,73 @@
         <v>45381.52083333334</v>
       </c>
       <c r="F241" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G241" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I241">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J241" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K241">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="L241">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M241">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="N241">
-        <v>3.1</v>
+        <v>1.833</v>
       </c>
       <c r="O241">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P241">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="Q241">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R241">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S241">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T241">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U241">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V241">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W241">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X241">
         <v>-1</v>
       </c>
       <c r="Y241">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z241">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA241">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB241">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC241">
         <v>-1</v>
@@ -21982,7 +21982,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>6893184</v>
+        <v>6899271</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -21994,73 +21994,73 @@
         <v>45381.52083333334</v>
       </c>
       <c r="F242" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G242" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H242">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I242">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J242" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K242">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="L242">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M242">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="N242">
-        <v>1.833</v>
+        <v>3.1</v>
       </c>
       <c r="O242">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P242">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="Q242">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R242">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S242">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T242">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U242">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V242">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W242">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X242">
         <v>-1</v>
       </c>
       <c r="Y242">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z242">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA242">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB242">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC242">
         <v>-1</v>
@@ -22276,31 +22276,31 @@
         <v>2.8</v>
       </c>
       <c r="N245">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O245">
         <v>3.4</v>
       </c>
       <c r="P245">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q245">
         <v>-0.25</v>
       </c>
       <c r="R245">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S245">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T245">
         <v>2.5</v>
       </c>
       <c r="U245">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V245">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W245">
         <v>0</v>
@@ -22323,7 +22323,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>6899158</v>
+        <v>6899157</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22332,49 +22332,49 @@
         <v>28</v>
       </c>
       <c r="E246" s="2">
-        <v>45388.41666666666</v>
+        <v>45388.29166666666</v>
       </c>
       <c r="F246" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G246" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K246">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="L246">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M246">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="N246">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O246">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P246">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="Q246">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R246">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="S246">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T246">
         <v>2.25</v>
       </c>
       <c r="U246">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V246">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W246">
         <v>0</v>
@@ -22397,7 +22397,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6893616</v>
+        <v>6899158</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22406,49 +22406,49 @@
         <v>28</v>
       </c>
       <c r="E247" s="2">
-        <v>45388.47916666666</v>
+        <v>45388.41666666666</v>
       </c>
       <c r="F247" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G247" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K247">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="L247">
         <v>3</v>
       </c>
       <c r="M247">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="N247">
-        <v>2.875</v>
+        <v>2.4</v>
       </c>
       <c r="O247">
         <v>3</v>
       </c>
       <c r="P247">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="Q247">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R247">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="S247">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T247">
         <v>2.25</v>
       </c>
       <c r="U247">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V247">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W247">
         <v>0</v>
@@ -22471,7 +22471,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6893614</v>
+        <v>6893616</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22480,49 +22480,49 @@
         <v>28</v>
       </c>
       <c r="E248" s="2">
-        <v>45389.29166666666</v>
+        <v>45388.47916666666</v>
       </c>
       <c r="F248" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G248" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K248">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="L248">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M248">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="N248">
+        <v>2.875</v>
+      </c>
+      <c r="O248">
+        <v>3</v>
+      </c>
+      <c r="P248">
         <v>2.55</v>
       </c>
-      <c r="O248">
-        <v>3.2</v>
-      </c>
-      <c r="P248">
-        <v>2.45</v>
-      </c>
       <c r="Q248">
         <v>0</v>
       </c>
       <c r="R248">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S248">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T248">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U248">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V248">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W248">
         <v>0</v>
@@ -22545,7 +22545,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>6893186</v>
+        <v>6893614</v>
       </c>
       <c r="C249" t="s">
         <v>28</v>
@@ -22554,34 +22554,34 @@
         <v>28</v>
       </c>
       <c r="E249" s="2">
-        <v>45389.41666666666</v>
+        <v>45389.29166666666</v>
       </c>
       <c r="F249" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G249" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K249">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="L249">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M249">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N249">
-        <v>1.727</v>
+        <v>2.625</v>
       </c>
       <c r="O249">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P249">
-        <v>4.333</v>
+        <v>2.375</v>
       </c>
       <c r="Q249">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R249">
         <v>2.05</v>
@@ -22590,13 +22590,13 @@
         <v>1.8</v>
       </c>
       <c r="T249">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U249">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V249">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W249">
         <v>0</v>
@@ -22619,7 +22619,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>6899159</v>
+        <v>6893186</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -22628,49 +22628,49 @@
         <v>28</v>
       </c>
       <c r="E250" s="2">
-        <v>45389.47916666666</v>
+        <v>45389.41666666666</v>
       </c>
       <c r="F250" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G250" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="K250">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="L250">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M250">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="N250">
-        <v>2.9</v>
+        <v>1.727</v>
       </c>
       <c r="O250">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P250">
-        <v>2.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q250">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R250">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S250">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T250">
         <v>2.25</v>
       </c>
       <c r="U250">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V250">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W250">
         <v>0</v>
@@ -22693,7 +22693,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>6893615</v>
+        <v>6899159</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22702,49 +22702,49 @@
         <v>28</v>
       </c>
       <c r="E251" s="2">
-        <v>45389.58333333334</v>
+        <v>45389.47916666666</v>
       </c>
       <c r="F251" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G251" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K251">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="L251">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M251">
         <v>2.375</v>
       </c>
       <c r="N251">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="O251">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P251">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Q251">
         <v>0.25</v>
       </c>
       <c r="R251">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S251">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T251">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U251">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V251">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W251">
         <v>0</v>
@@ -22767,7 +22767,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>6893204</v>
+        <v>6893615</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22776,63 +22776,137 @@
         <v>28</v>
       </c>
       <c r="E252" s="2">
-        <v>45390.58333333334</v>
+        <v>45389.58333333334</v>
       </c>
       <c r="F252" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G252" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K252">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="L252">
         <v>3.25</v>
       </c>
       <c r="M252">
+        <v>2.375</v>
+      </c>
+      <c r="N252">
         <v>2.7</v>
-      </c>
-      <c r="N252">
-        <v>2.25</v>
       </c>
       <c r="O252">
         <v>3.25</v>
       </c>
       <c r="P252">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q252">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R252">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S252">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="T252">
         <v>2.5</v>
       </c>
       <c r="U252">
+        <v>1.9</v>
+      </c>
+      <c r="V252">
+        <v>1.95</v>
+      </c>
+      <c r="W252">
+        <v>0</v>
+      </c>
+      <c r="X252">
+        <v>0</v>
+      </c>
+      <c r="Y252">
+        <v>0</v>
+      </c>
+      <c r="Z252">
+        <v>0</v>
+      </c>
+      <c r="AA252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:29">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253">
+        <v>6893204</v>
+      </c>
+      <c r="C253" t="s">
+        <v>28</v>
+      </c>
+      <c r="D253" t="s">
+        <v>28</v>
+      </c>
+      <c r="E253" s="2">
+        <v>45390.58333333334</v>
+      </c>
+      <c r="F253" t="s">
+        <v>33</v>
+      </c>
+      <c r="G253" t="s">
+        <v>32</v>
+      </c>
+      <c r="K253">
+        <v>2.3</v>
+      </c>
+      <c r="L253">
+        <v>3.25</v>
+      </c>
+      <c r="M253">
+        <v>2.7</v>
+      </c>
+      <c r="N253">
+        <v>2.25</v>
+      </c>
+      <c r="O253">
+        <v>3.25</v>
+      </c>
+      <c r="P253">
+        <v>2.75</v>
+      </c>
+      <c r="Q253">
+        <v>-0.25</v>
+      </c>
+      <c r="R253">
+        <v>2.05</v>
+      </c>
+      <c r="S253">
+        <v>1.8</v>
+      </c>
+      <c r="T253">
+        <v>2.5</v>
+      </c>
+      <c r="U253">
         <v>1.925</v>
       </c>
-      <c r="V252">
+      <c r="V253">
         <v>1.925</v>
       </c>
-      <c r="W252">
-        <v>0</v>
-      </c>
-      <c r="X252">
-        <v>0</v>
-      </c>
-      <c r="Y252">
-        <v>0</v>
-      </c>
-      <c r="Z252">
-        <v>0</v>
-      </c>
-      <c r="AA252">
+      <c r="W253">
+        <v>0</v>
+      </c>
+      <c r="X253">
+        <v>0</v>
+      </c>
+      <c r="Y253">
+        <v>0</v>
+      </c>
+      <c r="Z253">
+        <v>0</v>
+      </c>
+      <c r="AA253">
         <v>0</v>
       </c>
     </row>

--- a/Portugal Segunda Liga/Portugal Segunda Liga.xlsx
+++ b/Portugal Segunda Liga/Portugal Segunda Liga.xlsx
@@ -13082,7 +13082,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6899181</v>
+        <v>6893145</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13094,76 +13094,76 @@
         <v>45297.625</v>
       </c>
       <c r="F142" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G142" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H142">
         <v>1</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K142">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="L142">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M142">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="N142">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O142">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P142">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q142">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R142">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S142">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T142">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U142">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V142">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W142">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X142">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB142">
         <v>-1</v>
       </c>
       <c r="AC142">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13171,7 +13171,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6893145</v>
+        <v>6899181</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13183,76 +13183,76 @@
         <v>45297.625</v>
       </c>
       <c r="F143" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G143" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H143">
         <v>1</v>
       </c>
       <c r="I143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K143">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="L143">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M143">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N143">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O143">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P143">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q143">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R143">
+        <v>2.025</v>
+      </c>
+      <c r="S143">
+        <v>1.775</v>
+      </c>
+      <c r="T143">
+        <v>2.25</v>
+      </c>
+      <c r="U143">
+        <v>1.975</v>
+      </c>
+      <c r="V143">
         <v>1.825</v>
       </c>
-      <c r="S143">
-        <v>1.975</v>
-      </c>
-      <c r="T143">
-        <v>2.5</v>
-      </c>
-      <c r="U143">
-        <v>1.875</v>
-      </c>
-      <c r="V143">
-        <v>1.925</v>
-      </c>
       <c r="W143">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X143">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y143">
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA143">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
         <v>-1</v>
       </c>
       <c r="AC143">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -15307,7 +15307,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6893595</v>
+        <v>6893154</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15319,40 +15319,40 @@
         <v>45319.52083333334</v>
       </c>
       <c r="F167" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G167" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H167">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J167" t="s">
         <v>49</v>
       </c>
       <c r="K167">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="L167">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M167">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="N167">
-        <v>1.65</v>
+        <v>1.833</v>
       </c>
       <c r="O167">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P167">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q167">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R167">
         <v>1.85</v>
@@ -15361,16 +15361,16 @@
         <v>1.95</v>
       </c>
       <c r="T167">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U167">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V167">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W167">
-        <v>0.6499999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15385,10 +15385,10 @@
         <v>-1</v>
       </c>
       <c r="AB167">
-        <v>0.475</v>
+        <v>0.8</v>
       </c>
       <c r="AC167">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15396,7 +15396,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6893154</v>
+        <v>6893595</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15408,40 +15408,40 @@
         <v>45319.52083333334</v>
       </c>
       <c r="F168" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G168" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J168" t="s">
         <v>49</v>
       </c>
       <c r="K168">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="L168">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M168">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="N168">
-        <v>1.833</v>
+        <v>1.65</v>
       </c>
       <c r="O168">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P168">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q168">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R168">
         <v>1.85</v>
@@ -15450,16 +15450,16 @@
         <v>1.95</v>
       </c>
       <c r="T168">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U168">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V168">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W168">
-        <v>0.833</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X168">
         <v>-1</v>
@@ -15474,10 +15474,10 @@
         <v>-1</v>
       </c>
       <c r="AB168">
-        <v>0.8</v>
+        <v>0.475</v>
       </c>
       <c r="AC168">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -20202,7 +20202,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6893179</v>
+        <v>6893607</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20214,76 +20214,76 @@
         <v>45360.52083333334</v>
       </c>
       <c r="F222" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G222" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222">
         <v>1</v>
       </c>
       <c r="J222" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K222">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="L222">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M222">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="N222">
-        <v>3.5</v>
+        <v>1.571</v>
       </c>
       <c r="O222">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P222">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="Q222">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R222">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S222">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T222">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U222">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V222">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W222">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X222">
         <v>-1</v>
       </c>
       <c r="Y222">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z222">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA222">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB222">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC222">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20291,7 +20291,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6893607</v>
+        <v>6893179</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20303,76 +20303,76 @@
         <v>45360.52083333334</v>
       </c>
       <c r="F223" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G223" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223">
         <v>1</v>
       </c>
       <c r="J223" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K223">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="L223">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M223">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="N223">
-        <v>1.571</v>
+        <v>3.5</v>
       </c>
       <c r="O223">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P223">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="Q223">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R223">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S223">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T223">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U223">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V223">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W223">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X223">
         <v>-1</v>
       </c>
       <c r="Y223">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z223">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA223">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB223">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC223">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -21893,7 +21893,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6893184</v>
+        <v>6899271</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21905,73 +21905,73 @@
         <v>45381.52083333334</v>
       </c>
       <c r="F241" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G241" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H241">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I241">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J241" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K241">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="L241">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M241">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="N241">
-        <v>1.833</v>
+        <v>3.1</v>
       </c>
       <c r="O241">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P241">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="Q241">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R241">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S241">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T241">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U241">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V241">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W241">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X241">
         <v>-1</v>
       </c>
       <c r="Y241">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z241">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA241">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB241">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC241">
         <v>-1</v>
@@ -21982,7 +21982,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>6899271</v>
+        <v>6893184</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -21994,73 +21994,73 @@
         <v>45381.52083333334</v>
       </c>
       <c r="F242" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G242" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H242">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I242">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J242" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K242">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="L242">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M242">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="N242">
-        <v>3.1</v>
+        <v>1.833</v>
       </c>
       <c r="O242">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P242">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="Q242">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R242">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S242">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T242">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U242">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V242">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W242">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X242">
         <v>-1</v>
       </c>
       <c r="Y242">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z242">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA242">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB242">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC242">
         <v>-1</v>
@@ -22279,10 +22279,10 @@
         <v>2.1</v>
       </c>
       <c r="O245">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P245">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Q245">
         <v>-0.25</v>
@@ -22297,10 +22297,10 @@
         <v>2.5</v>
       </c>
       <c r="U245">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V245">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W245">
         <v>0</v>
@@ -22794,22 +22794,22 @@
         <v>2.375</v>
       </c>
       <c r="N252">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="O252">
         <v>3.25</v>
       </c>
       <c r="P252">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Q252">
         <v>0.25</v>
       </c>
       <c r="R252">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S252">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="T252">
         <v>2.5</v>
@@ -22868,31 +22868,31 @@
         <v>2.7</v>
       </c>
       <c r="N253">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="O253">
         <v>3.25</v>
       </c>
       <c r="P253">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q253">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R253">
+        <v>1.8</v>
+      </c>
+      <c r="S253">
         <v>2.05</v>
-      </c>
-      <c r="S253">
-        <v>1.8</v>
       </c>
       <c r="T253">
         <v>2.5</v>
       </c>
       <c r="U253">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V253">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W253">
         <v>0</v>

--- a/Portugal Segunda Liga/Portugal Segunda Liga.xlsx
+++ b/Portugal Segunda Liga/Portugal Segunda Liga.xlsx
@@ -3915,7 +3915,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6899293</v>
+        <v>6899208</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3927,76 +3927,76 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K39">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="L39">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M39">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="N39">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="O39">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P39">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q39">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R39">
         <v>2.05</v>
       </c>
       <c r="S39">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T39">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U39">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V39">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W39">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z39">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC39">
-        <v>0.8500000000000001</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4004,7 +4004,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6899208</v>
+        <v>6899293</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4016,76 +4016,76 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G40" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K40">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="L40">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M40">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="N40">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="O40">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P40">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="Q40">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R40">
         <v>2.05</v>
       </c>
       <c r="S40">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T40">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U40">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V40">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA40">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC40">
-        <v>0.5125</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -5784,7 +5784,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6899203</v>
+        <v>6893569</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5796,46 +5796,46 @@
         <v>45207.29166666666</v>
       </c>
       <c r="F60" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G60" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K60">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L60">
         <v>3.3</v>
       </c>
       <c r="M60">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="N60">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="O60">
         <v>3.3</v>
       </c>
       <c r="P60">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q60">
         <v>0</v>
       </c>
       <c r="R60">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S60">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T60">
         <v>2.5</v>
@@ -5847,19 +5847,19 @@
         <v>1.85</v>
       </c>
       <c r="W60">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X60">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y60">
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA60">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB60">
         <v>0.95</v>
@@ -5873,7 +5873,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6893569</v>
+        <v>6899203</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5885,46 +5885,46 @@
         <v>45207.29166666666</v>
       </c>
       <c r="F61" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G61" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K61">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L61">
         <v>3.3</v>
       </c>
       <c r="M61">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="N61">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="O61">
         <v>3.3</v>
       </c>
       <c r="P61">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="Q61">
         <v>0</v>
       </c>
       <c r="R61">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S61">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T61">
         <v>2.5</v>
@@ -5936,19 +5936,19 @@
         <v>1.85</v>
       </c>
       <c r="W61">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X61">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA61">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB61">
         <v>0.95</v>
@@ -7297,7 +7297,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6893125</v>
+        <v>6893124</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7309,76 +7309,76 @@
         <v>45234.625</v>
       </c>
       <c r="F77" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G77" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H77">
         <v>1</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K77">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="L77">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M77">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="N77">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="O77">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P77">
+        <v>2.9</v>
+      </c>
+      <c r="Q77">
+        <v>-0.25</v>
+      </c>
+      <c r="R77">
+        <v>1.95</v>
+      </c>
+      <c r="S77">
+        <v>1.85</v>
+      </c>
+      <c r="T77">
         <v>2.5</v>
       </c>
-      <c r="Q77">
-        <v>0</v>
-      </c>
-      <c r="R77">
+      <c r="U77">
         <v>1.9</v>
       </c>
-      <c r="S77">
+      <c r="V77">
         <v>1.9</v>
       </c>
-      <c r="T77">
-        <v>2.25</v>
-      </c>
-      <c r="U77">
-        <v>1.875</v>
-      </c>
-      <c r="V77">
-        <v>1.925</v>
-      </c>
       <c r="W77">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X77">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA77">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC77">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7386,7 +7386,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6893124</v>
+        <v>6893125</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7398,76 +7398,76 @@
         <v>45234.625</v>
       </c>
       <c r="F78" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G78" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H78">
         <v>1</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K78">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="L78">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M78">
+        <v>2.3</v>
+      </c>
+      <c r="N78">
+        <v>2.6</v>
+      </c>
+      <c r="O78">
         <v>3</v>
       </c>
-      <c r="N78">
-        <v>2.15</v>
-      </c>
-      <c r="O78">
-        <v>3.25</v>
-      </c>
       <c r="P78">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="Q78">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R78">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S78">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T78">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U78">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V78">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W78">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X78">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y78">
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA78">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC78">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -20202,7 +20202,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6893607</v>
+        <v>6893179</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20214,76 +20214,76 @@
         <v>45360.52083333334</v>
       </c>
       <c r="F222" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G222" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222">
         <v>1</v>
       </c>
       <c r="J222" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K222">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="L222">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M222">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="N222">
-        <v>1.571</v>
+        <v>3.5</v>
       </c>
       <c r="O222">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P222">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="Q222">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R222">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S222">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T222">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U222">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V222">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W222">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X222">
         <v>-1</v>
       </c>
       <c r="Y222">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z222">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA222">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB222">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC222">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20291,7 +20291,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6893179</v>
+        <v>6893607</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20303,76 +20303,76 @@
         <v>45360.52083333334</v>
       </c>
       <c r="F223" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G223" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223">
         <v>1</v>
       </c>
       <c r="J223" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K223">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="L223">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M223">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="N223">
-        <v>3.5</v>
+        <v>1.571</v>
       </c>
       <c r="O223">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P223">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="Q223">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R223">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S223">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T223">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U223">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V223">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W223">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X223">
         <v>-1</v>
       </c>
       <c r="Y223">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z223">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA223">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB223">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC223">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20914,7 +20914,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6893180</v>
+        <v>6899162</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20926,40 +20926,40 @@
         <v>45367.52083333334</v>
       </c>
       <c r="F230" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G230" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J230" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K230">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="L230">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M230">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="N230">
-        <v>2.7</v>
+        <v>1.727</v>
       </c>
       <c r="O230">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P230">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q230">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R230">
         <v>2</v>
@@ -20971,31 +20971,31 @@
         <v>2.25</v>
       </c>
       <c r="U230">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V230">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W230">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X230">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y230">
         <v>-1</v>
       </c>
       <c r="Z230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA230">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB230">
         <v>-0.5</v>
       </c>
       <c r="AC230">
-        <v>0.4125</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -21003,7 +21003,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6899162</v>
+        <v>6893180</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21015,40 +21015,40 @@
         <v>45367.52083333334</v>
       </c>
       <c r="F231" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G231" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J231" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K231">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="L231">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M231">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="N231">
-        <v>1.727</v>
+        <v>2.7</v>
       </c>
       <c r="O231">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="P231">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="Q231">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R231">
         <v>2</v>
@@ -21060,31 +21060,31 @@
         <v>2.25</v>
       </c>
       <c r="U231">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V231">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W231">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X231">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y231">
         <v>-1</v>
       </c>
       <c r="Z231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA231">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB231">
         <v>-0.5</v>
       </c>
       <c r="AC231">
-        <v>0.5</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21893,7 +21893,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6899271</v>
+        <v>6893184</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21905,73 +21905,73 @@
         <v>45381.52083333334</v>
       </c>
       <c r="F241" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G241" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I241">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J241" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K241">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="L241">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M241">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="N241">
-        <v>3.1</v>
+        <v>1.833</v>
       </c>
       <c r="O241">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P241">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="Q241">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R241">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S241">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T241">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U241">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V241">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W241">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X241">
         <v>-1</v>
       </c>
       <c r="Y241">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z241">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA241">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB241">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC241">
         <v>-1</v>
@@ -21982,7 +21982,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>6893184</v>
+        <v>6899271</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -21994,73 +21994,73 @@
         <v>45381.52083333334</v>
       </c>
       <c r="F242" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G242" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H242">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I242">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J242" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K242">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="L242">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M242">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="N242">
-        <v>1.833</v>
+        <v>3.1</v>
       </c>
       <c r="O242">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P242">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="Q242">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R242">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S242">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T242">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U242">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V242">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W242">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X242">
         <v>-1</v>
       </c>
       <c r="Y242">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z242">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA242">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB242">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC242">
         <v>-1</v>
@@ -22071,7 +22071,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>6893203</v>
+        <v>6893612</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22083,37 +22083,37 @@
         <v>45383.58333333334</v>
       </c>
       <c r="F243" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G243" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I243">
         <v>1</v>
       </c>
       <c r="J243" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K243">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="L243">
         <v>3.2</v>
       </c>
       <c r="M243">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="N243">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="O243">
         <v>3.1</v>
       </c>
       <c r="P243">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q243">
         <v>-0.25</v>
@@ -22128,31 +22128,31 @@
         <v>2.25</v>
       </c>
       <c r="U243">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V243">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W243">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X243">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y243">
         <v>-1</v>
       </c>
       <c r="Z243">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA243">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB243">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AC243">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="244" spans="1:29">
@@ -22160,7 +22160,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>6893612</v>
+        <v>6893203</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22172,37 +22172,37 @@
         <v>45383.58333333334</v>
       </c>
       <c r="F244" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G244" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I244">
         <v>1</v>
       </c>
       <c r="J244" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K244">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="L244">
         <v>3.2</v>
       </c>
       <c r="M244">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="N244">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="O244">
         <v>3.1</v>
       </c>
       <c r="P244">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q244">
         <v>-0.25</v>
@@ -22217,31 +22217,31 @@
         <v>2.25</v>
       </c>
       <c r="U244">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V244">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W244">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X244">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y244">
         <v>-1</v>
       </c>
       <c r="Z244">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA244">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB244">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AC244">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="245" spans="1:29">
@@ -22249,7 +22249,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>6899270</v>
+        <v>6899157</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22258,49 +22258,49 @@
         <v>28</v>
       </c>
       <c r="E245" s="2">
-        <v>45387.58333333334</v>
+        <v>45388.29166666666</v>
       </c>
       <c r="F245" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G245" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="K245">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L245">
+        <v>3.2</v>
+      </c>
+      <c r="M245">
+        <v>3.3</v>
+      </c>
+      <c r="N245">
+        <v>1.909</v>
+      </c>
+      <c r="O245">
         <v>3.25</v>
       </c>
-      <c r="M245">
-        <v>2.8</v>
-      </c>
-      <c r="N245">
-        <v>2.1</v>
-      </c>
-      <c r="O245">
-        <v>3.3</v>
-      </c>
       <c r="P245">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="Q245">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R245">
+        <v>1.975</v>
+      </c>
+      <c r="S245">
+        <v>1.875</v>
+      </c>
+      <c r="T245">
+        <v>2.25</v>
+      </c>
+      <c r="U245">
         <v>1.925</v>
       </c>
-      <c r="S245">
+      <c r="V245">
         <v>1.925</v>
-      </c>
-      <c r="T245">
-        <v>2.5</v>
-      </c>
-      <c r="U245">
-        <v>2.05</v>
-      </c>
-      <c r="V245">
-        <v>1.8</v>
       </c>
       <c r="W245">
         <v>0</v>
@@ -22323,7 +22323,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>6899157</v>
+        <v>6899158</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22332,40 +22332,40 @@
         <v>28</v>
       </c>
       <c r="E246" s="2">
-        <v>45388.29166666666</v>
+        <v>45388.41666666666</v>
       </c>
       <c r="F246" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G246" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K246">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="L246">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M246">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="N246">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O246">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P246">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="Q246">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R246">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="S246">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T246">
         <v>2.25</v>
@@ -22397,7 +22397,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6899158</v>
+        <v>6893616</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22406,49 +22406,49 @@
         <v>28</v>
       </c>
       <c r="E247" s="2">
-        <v>45388.41666666666</v>
+        <v>45388.47916666666</v>
       </c>
       <c r="F247" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G247" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K247">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="L247">
         <v>3</v>
       </c>
       <c r="M247">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="N247">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="O247">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P247">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Q247">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R247">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S247">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T247">
         <v>2.25</v>
       </c>
       <c r="U247">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V247">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W247">
         <v>0</v>
@@ -22471,7 +22471,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6893616</v>
+        <v>6899270</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22483,46 +22483,46 @@
         <v>45388.47916666666</v>
       </c>
       <c r="F248" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G248" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="K248">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="L248">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M248">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="N248">
+        <v>2.1</v>
+      </c>
+      <c r="O248">
+        <v>3.5</v>
+      </c>
+      <c r="P248">
         <v>2.875</v>
       </c>
-      <c r="O248">
-        <v>3</v>
-      </c>
-      <c r="P248">
-        <v>2.55</v>
-      </c>
       <c r="Q248">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R248">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S248">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T248">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U248">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V248">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W248">
         <v>0</v>
@@ -22572,22 +22572,22 @@
         <v>2.5</v>
       </c>
       <c r="N249">
-        <v>2.625</v>
+        <v>2.55</v>
       </c>
       <c r="O249">
         <v>3.2</v>
       </c>
       <c r="P249">
-        <v>2.375</v>
+        <v>2.45</v>
       </c>
       <c r="Q249">
         <v>0</v>
       </c>
       <c r="R249">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S249">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T249">
         <v>2.5</v>
@@ -22646,22 +22646,22 @@
         <v>4</v>
       </c>
       <c r="N250">
-        <v>1.727</v>
+        <v>1.666</v>
       </c>
       <c r="O250">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P250">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="Q250">
         <v>-0.75</v>
       </c>
       <c r="R250">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S250">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T250">
         <v>2.25</v>
@@ -22732,10 +22732,10 @@
         <v>0.25</v>
       </c>
       <c r="R251">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S251">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T251">
         <v>2.25</v>
@@ -22806,10 +22806,10 @@
         <v>0.25</v>
       </c>
       <c r="R252">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S252">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T252">
         <v>2.5</v>
@@ -22868,22 +22868,22 @@
         <v>2.7</v>
       </c>
       <c r="N253">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="O253">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P253">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="Q253">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R253">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="S253">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T253">
         <v>2.5</v>

--- a/Portugal Segunda Liga/Portugal Segunda Liga.xlsx
+++ b/Portugal Segunda Liga/Portugal Segunda Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -112,10 +112,10 @@
     <t>AVS</t>
   </si>
   <si>
-    <t>FC Porto B</t>
+    <t>Academico Viseu</t>
   </si>
   <si>
-    <t>Academico Viseu</t>
+    <t>FC Porto B</t>
   </si>
   <si>
     <t>Penafiel</t>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC253"/>
+  <dimension ref="A1:AC249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -889,7 +889,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6893285</v>
+        <v>6893191</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -904,7 +904,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -916,61 +916,61 @@
         <v>47</v>
       </c>
       <c r="K5">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="L5">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M5">
         <v>3.6</v>
       </c>
       <c r="N5">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="O5">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P5">
+        <v>4.2</v>
+      </c>
+      <c r="Q5">
+        <v>-0.75</v>
+      </c>
+      <c r="R5">
+        <v>1.95</v>
+      </c>
+      <c r="S5">
+        <v>1.85</v>
+      </c>
+      <c r="T5">
+        <v>2.5</v>
+      </c>
+      <c r="U5">
+        <v>1.975</v>
+      </c>
+      <c r="V5">
+        <v>1.825</v>
+      </c>
+      <c r="W5">
+        <v>-1</v>
+      </c>
+      <c r="X5">
         <v>2.75</v>
       </c>
-      <c r="Q5">
-        <v>-0.25</v>
-      </c>
-      <c r="R5">
-        <v>2</v>
-      </c>
-      <c r="S5">
-        <v>1.8</v>
-      </c>
-      <c r="T5">
-        <v>2.25</v>
-      </c>
-      <c r="U5">
-        <v>1.8</v>
-      </c>
-      <c r="V5">
-        <v>2</v>
-      </c>
-      <c r="W5">
-        <v>-1</v>
-      </c>
-      <c r="X5">
-        <v>2.3</v>
-      </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB5">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -978,7 +978,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6893191</v>
+        <v>6893285</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -993,7 +993,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1005,61 +1005,61 @@
         <v>47</v>
       </c>
       <c r="K6">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="L6">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M6">
         <v>3.6</v>
       </c>
       <c r="N6">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="O6">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P6">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q6">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R6">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S6">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T6">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U6">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V6">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA6">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC6">
-        <v>0.825</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1705,7 +1705,7 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1883,7 +1883,7 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -2236,7 +2236,7 @@
         <v>45164.29166666666</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s">
         <v>44</v>
@@ -2592,7 +2592,7 @@
         <v>45165.29166666666</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G24" t="s">
         <v>40</v>
@@ -3129,7 +3129,7 @@
         <v>39</v>
       </c>
       <c r="G30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H30">
         <v>2</v>
@@ -3292,7 +3292,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>7140182</v>
+        <v>6893107</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3304,76 +3304,76 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F32" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K32">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="L32">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M32">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="N32">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="O32">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="P32">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q32">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R32">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S32">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T32">
         <v>2.25</v>
       </c>
       <c r="U32">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V32">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W32">
         <v>-1</v>
       </c>
       <c r="X32">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y32">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA32">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB32">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3381,7 +3381,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6893107</v>
+        <v>7140182</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3393,76 +3393,76 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F33" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K33">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="L33">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M33">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="N33">
+        <v>2.3</v>
+      </c>
+      <c r="O33">
         <v>2.9</v>
       </c>
-      <c r="O33">
-        <v>3.5</v>
-      </c>
       <c r="P33">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q33">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R33">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S33">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T33">
         <v>2.25</v>
       </c>
       <c r="U33">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V33">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W33">
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z33">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB33">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC33">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3927,7 +3927,7 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G39" t="s">
         <v>38</v>
@@ -4375,7 +4375,7 @@
         <v>36</v>
       </c>
       <c r="G44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H44">
         <v>2</v>
@@ -4906,7 +4906,7 @@
         <v>45200.29166666666</v>
       </c>
       <c r="F50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G50" t="s">
         <v>31</v>
@@ -4998,7 +4998,7 @@
         <v>46</v>
       </c>
       <c r="G51" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5443,7 +5443,7 @@
         <v>37</v>
       </c>
       <c r="G56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -5796,7 +5796,7 @@
         <v>45207.29166666666</v>
       </c>
       <c r="F60" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G60" t="s">
         <v>45</v>
@@ -6597,7 +6597,7 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G69" t="s">
         <v>30</v>
@@ -6956,7 +6956,7 @@
         <v>42</v>
       </c>
       <c r="G73" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7131,7 +7131,7 @@
         <v>45234.33333333334</v>
       </c>
       <c r="F75" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G75" t="s">
         <v>44</v>
@@ -7757,7 +7757,7 @@
         <v>29</v>
       </c>
       <c r="G82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -8024,7 +8024,7 @@
         <v>34</v>
       </c>
       <c r="G85" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H85">
         <v>3</v>
@@ -8555,7 +8555,7 @@
         <v>45242.625</v>
       </c>
       <c r="F91" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G91" t="s">
         <v>35</v>
@@ -9267,10 +9267,10 @@
         <v>45255.33333333334</v>
       </c>
       <c r="F99" t="s">
+        <v>33</v>
+      </c>
+      <c r="G99" t="s">
         <v>32</v>
-      </c>
-      <c r="G99" t="s">
-        <v>33</v>
       </c>
       <c r="H99">
         <v>3</v>
@@ -9534,7 +9534,7 @@
         <v>45261.625</v>
       </c>
       <c r="F102" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G102" t="s">
         <v>43</v>
@@ -9626,7 +9626,7 @@
         <v>36</v>
       </c>
       <c r="G103" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -10424,7 +10424,7 @@
         <v>45269.33333333334</v>
       </c>
       <c r="F112" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G112" t="s">
         <v>31</v>
@@ -10783,7 +10783,7 @@
         <v>39</v>
       </c>
       <c r="G116" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -11047,7 +11047,7 @@
         <v>45276.33333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G119" t="s">
         <v>45</v>
@@ -11495,7 +11495,7 @@
         <v>37</v>
       </c>
       <c r="G124" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -12192,7 +12192,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6893139</v>
+        <v>6893140</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12204,55 +12204,55 @@
         <v>45290.33333333334</v>
       </c>
       <c r="F132" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G132" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J132" t="s">
         <v>48</v>
       </c>
       <c r="K132">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="L132">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M132">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="N132">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="O132">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P132">
-        <v>2.45</v>
+        <v>3.25</v>
       </c>
       <c r="Q132">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R132">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S132">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U132">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V132">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W132">
         <v>-1</v>
@@ -12261,16 +12261,16 @@
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>1.45</v>
+        <v>2.25</v>
       </c>
       <c r="Z132">
         <v>-1</v>
       </c>
       <c r="AA132">
-        <v>0.75</v>
+        <v>1.025</v>
       </c>
       <c r="AB132">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC132">
         <v>-1</v>
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6893140</v>
+        <v>6893139</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,55 +12293,55 @@
         <v>45290.33333333334</v>
       </c>
       <c r="F133" t="s">
+        <v>46</v>
+      </c>
+      <c r="G133" t="s">
         <v>32</v>
       </c>
-      <c r="G133" t="s">
-        <v>30</v>
-      </c>
       <c r="H133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J133" t="s">
         <v>48</v>
       </c>
       <c r="K133">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="L133">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M133">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="N133">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="O133">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P133">
-        <v>3.25</v>
+        <v>2.45</v>
       </c>
       <c r="Q133">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R133">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S133">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U133">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V133">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W133">
         <v>-1</v>
@@ -12350,16 +12350,16 @@
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>2.25</v>
+        <v>1.45</v>
       </c>
       <c r="Z133">
         <v>-1</v>
       </c>
       <c r="AA133">
-        <v>1.025</v>
+        <v>0.75</v>
       </c>
       <c r="AB133">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC133">
         <v>-1</v>
@@ -13183,7 +13183,7 @@
         <v>45297.625</v>
       </c>
       <c r="F143" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G143" t="s">
         <v>40</v>
@@ -13364,7 +13364,7 @@
         <v>29</v>
       </c>
       <c r="G145" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H145">
         <v>3</v>
@@ -13898,7 +13898,7 @@
         <v>38</v>
       </c>
       <c r="G151" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H151">
         <v>1</v>
@@ -13984,7 +13984,7 @@
         <v>45305.52083333334</v>
       </c>
       <c r="F152" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G152" t="s">
         <v>35</v>
@@ -14343,7 +14343,7 @@
         <v>42</v>
       </c>
       <c r="G156" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -14699,7 +14699,7 @@
         <v>41</v>
       </c>
       <c r="G160" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H160">
         <v>0</v>
@@ -15307,7 +15307,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6893154</v>
+        <v>6893595</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15319,40 +15319,40 @@
         <v>45319.52083333334</v>
       </c>
       <c r="F167" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G167" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J167" t="s">
         <v>49</v>
       </c>
       <c r="K167">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="L167">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M167">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="N167">
-        <v>1.833</v>
+        <v>1.65</v>
       </c>
       <c r="O167">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P167">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q167">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R167">
         <v>1.85</v>
@@ -15361,16 +15361,16 @@
         <v>1.95</v>
       </c>
       <c r="T167">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U167">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V167">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W167">
-        <v>0.833</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15385,10 +15385,10 @@
         <v>-1</v>
       </c>
       <c r="AB167">
-        <v>0.8</v>
+        <v>0.475</v>
       </c>
       <c r="AC167">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15396,7 +15396,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6893595</v>
+        <v>6893154</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15408,40 +15408,40 @@
         <v>45319.52083333334</v>
       </c>
       <c r="F168" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G168" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H168">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J168" t="s">
         <v>49</v>
       </c>
       <c r="K168">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="L168">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M168">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="N168">
-        <v>1.65</v>
+        <v>1.833</v>
       </c>
       <c r="O168">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P168">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q168">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R168">
         <v>1.85</v>
@@ -15450,16 +15450,16 @@
         <v>1.95</v>
       </c>
       <c r="T168">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U168">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V168">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W168">
-        <v>0.6499999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X168">
         <v>-1</v>
@@ -15474,10 +15474,10 @@
         <v>-1</v>
       </c>
       <c r="AB168">
-        <v>0.475</v>
+        <v>0.8</v>
       </c>
       <c r="AC168">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15764,7 +15764,7 @@
         <v>45321.71875</v>
       </c>
       <c r="F172" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G172" t="s">
         <v>41</v>
@@ -16034,7 +16034,7 @@
         <v>40</v>
       </c>
       <c r="G175" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H175">
         <v>1</v>
@@ -16565,7 +16565,7 @@
         <v>45332.33333333334</v>
       </c>
       <c r="F181" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G181" t="s">
         <v>34</v>
@@ -17010,7 +17010,7 @@
         <v>45333.52083333334</v>
       </c>
       <c r="F186" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G186" t="s">
         <v>39</v>
@@ -17547,7 +17547,7 @@
         <v>38</v>
       </c>
       <c r="G192" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H192">
         <v>1</v>
@@ -17722,7 +17722,7 @@
         <v>45340.33333333334</v>
       </c>
       <c r="F194" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G194" t="s">
         <v>36</v>
@@ -18081,7 +18081,7 @@
         <v>44</v>
       </c>
       <c r="G198" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H198">
         <v>0</v>
@@ -18345,7 +18345,7 @@
         <v>45346.52083333334</v>
       </c>
       <c r="F201" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G201" t="s">
         <v>46</v>
@@ -18882,7 +18882,7 @@
         <v>31</v>
       </c>
       <c r="G207" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H207">
         <v>2</v>
@@ -19327,7 +19327,7 @@
         <v>45</v>
       </c>
       <c r="G212" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H212">
         <v>0</v>
@@ -19591,7 +19591,7 @@
         <v>45355.625</v>
       </c>
       <c r="F215" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G215" t="s">
         <v>37</v>
@@ -20039,7 +20039,7 @@
         <v>30</v>
       </c>
       <c r="G220" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H220">
         <v>1</v>
@@ -20303,7 +20303,7 @@
         <v>45360.52083333334</v>
       </c>
       <c r="F223" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G223" t="s">
         <v>42</v>
@@ -21015,7 +21015,7 @@
         <v>45367.52083333334</v>
       </c>
       <c r="F231" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G231" t="s">
         <v>29</v>
@@ -21107,7 +21107,7 @@
         <v>44</v>
       </c>
       <c r="G232" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H232">
         <v>1</v>
@@ -21905,7 +21905,7 @@
         <v>45381.52083333334</v>
       </c>
       <c r="F241" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G241" t="s">
         <v>34</v>
@@ -22175,7 +22175,7 @@
         <v>35</v>
       </c>
       <c r="G244" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H244">
         <v>1</v>
@@ -22249,7 +22249,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>6899157</v>
+        <v>6893614</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22258,49 +22258,49 @@
         <v>28</v>
       </c>
       <c r="E245" s="2">
-        <v>45388.29166666666</v>
+        <v>45389.29166666666</v>
       </c>
       <c r="F245" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G245" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K245">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L245">
         <v>3.2</v>
       </c>
       <c r="M245">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="N245">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="O245">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P245">
-        <v>3.6</v>
+        <v>2.45</v>
       </c>
       <c r="Q245">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R245">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S245">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T245">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U245">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V245">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W245">
         <v>0</v>
@@ -22323,7 +22323,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>6899158</v>
+        <v>6893186</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22332,49 +22332,49 @@
         <v>28</v>
       </c>
       <c r="E246" s="2">
-        <v>45388.41666666666</v>
+        <v>45389.41666666666</v>
       </c>
       <c r="F246" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G246" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="K246">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="L246">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M246">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N246">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="O246">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P246">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q246">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R246">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="S246">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T246">
         <v>2.25</v>
       </c>
       <c r="U246">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V246">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W246">
         <v>0</v>
@@ -22397,7 +22397,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6893616</v>
+        <v>6899159</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22406,49 +22406,49 @@
         <v>28</v>
       </c>
       <c r="E247" s="2">
-        <v>45388.47916666666</v>
+        <v>45389.47916666666</v>
       </c>
       <c r="F247" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G247" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K247">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="L247">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M247">
         <v>2.375</v>
       </c>
       <c r="N247">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="O247">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P247">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q247">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R247">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S247">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T247">
         <v>2.25</v>
       </c>
       <c r="U247">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V247">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W247">
         <v>0</v>
@@ -22471,7 +22471,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6899270</v>
+        <v>6893615</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22480,49 +22480,49 @@
         <v>28</v>
       </c>
       <c r="E248" s="2">
-        <v>45388.47916666666</v>
+        <v>45389.58333333334</v>
       </c>
       <c r="F248" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G248" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K248">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="L248">
         <v>3.25</v>
       </c>
       <c r="M248">
+        <v>2.375</v>
+      </c>
+      <c r="N248">
         <v>2.8</v>
       </c>
-      <c r="N248">
-        <v>2.1</v>
-      </c>
       <c r="O248">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P248">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="Q248">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R248">
+        <v>1.8</v>
+      </c>
+      <c r="S248">
+        <v>2.05</v>
+      </c>
+      <c r="T248">
+        <v>2.5</v>
+      </c>
+      <c r="U248">
         <v>1.9</v>
       </c>
-      <c r="S248">
+      <c r="V248">
         <v>1.95</v>
-      </c>
-      <c r="T248">
-        <v>2.75</v>
-      </c>
-      <c r="U248">
-        <v>2.025</v>
-      </c>
-      <c r="V248">
-        <v>1.825</v>
       </c>
       <c r="W248">
         <v>0</v>
@@ -22545,7 +22545,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>6893614</v>
+        <v>6893204</v>
       </c>
       <c r="C249" t="s">
         <v>28</v>
@@ -22554,49 +22554,49 @@
         <v>28</v>
       </c>
       <c r="E249" s="2">
-        <v>45389.29166666666</v>
+        <v>45390.58333333334</v>
       </c>
       <c r="F249" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G249" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="K249">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L249">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M249">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="N249">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="O249">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P249">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="Q249">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R249">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="S249">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T249">
         <v>2.5</v>
       </c>
       <c r="U249">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V249">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W249">
         <v>0</v>
@@ -22611,302 +22611,6 @@
         <v>0</v>
       </c>
       <c r="AA249">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:29">
-      <c r="A250" s="1">
-        <v>248</v>
-      </c>
-      <c r="B250">
-        <v>6893186</v>
-      </c>
-      <c r="C250" t="s">
-        <v>28</v>
-      </c>
-      <c r="D250" t="s">
-        <v>28</v>
-      </c>
-      <c r="E250" s="2">
-        <v>45389.41666666666</v>
-      </c>
-      <c r="F250" t="s">
-        <v>37</v>
-      </c>
-      <c r="G250" t="s">
-        <v>29</v>
-      </c>
-      <c r="K250">
-        <v>1.8</v>
-      </c>
-      <c r="L250">
-        <v>3.25</v>
-      </c>
-      <c r="M250">
-        <v>4</v>
-      </c>
-      <c r="N250">
-        <v>1.666</v>
-      </c>
-      <c r="O250">
-        <v>3.4</v>
-      </c>
-      <c r="P250">
-        <v>4.5</v>
-      </c>
-      <c r="Q250">
-        <v>-0.75</v>
-      </c>
-      <c r="R250">
-        <v>1.975</v>
-      </c>
-      <c r="S250">
-        <v>1.875</v>
-      </c>
-      <c r="T250">
-        <v>2.25</v>
-      </c>
-      <c r="U250">
-        <v>2.025</v>
-      </c>
-      <c r="V250">
-        <v>1.825</v>
-      </c>
-      <c r="W250">
-        <v>0</v>
-      </c>
-      <c r="X250">
-        <v>0</v>
-      </c>
-      <c r="Y250">
-        <v>0</v>
-      </c>
-      <c r="Z250">
-        <v>0</v>
-      </c>
-      <c r="AA250">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:29">
-      <c r="A251" s="1">
-        <v>249</v>
-      </c>
-      <c r="B251">
-        <v>6899159</v>
-      </c>
-      <c r="C251" t="s">
-        <v>28</v>
-      </c>
-      <c r="D251" t="s">
-        <v>28</v>
-      </c>
-      <c r="E251" s="2">
-        <v>45389.47916666666</v>
-      </c>
-      <c r="F251" t="s">
-        <v>45</v>
-      </c>
-      <c r="G251" t="s">
-        <v>38</v>
-      </c>
-      <c r="K251">
-        <v>2.625</v>
-      </c>
-      <c r="L251">
-        <v>3.2</v>
-      </c>
-      <c r="M251">
-        <v>2.375</v>
-      </c>
-      <c r="N251">
-        <v>2.9</v>
-      </c>
-      <c r="O251">
-        <v>3.2</v>
-      </c>
-      <c r="P251">
-        <v>2.2</v>
-      </c>
-      <c r="Q251">
-        <v>0.25</v>
-      </c>
-      <c r="R251">
-        <v>1.875</v>
-      </c>
-      <c r="S251">
-        <v>1.975</v>
-      </c>
-      <c r="T251">
-        <v>2.25</v>
-      </c>
-      <c r="U251">
-        <v>1.95</v>
-      </c>
-      <c r="V251">
-        <v>1.9</v>
-      </c>
-      <c r="W251">
-        <v>0</v>
-      </c>
-      <c r="X251">
-        <v>0</v>
-      </c>
-      <c r="Y251">
-        <v>0</v>
-      </c>
-      <c r="Z251">
-        <v>0</v>
-      </c>
-      <c r="AA251">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:29">
-      <c r="A252" s="1">
-        <v>250</v>
-      </c>
-      <c r="B252">
-        <v>6893615</v>
-      </c>
-      <c r="C252" t="s">
-        <v>28</v>
-      </c>
-      <c r="D252" t="s">
-        <v>28</v>
-      </c>
-      <c r="E252" s="2">
-        <v>45389.58333333334</v>
-      </c>
-      <c r="F252" t="s">
-        <v>36</v>
-      </c>
-      <c r="G252" t="s">
-        <v>35</v>
-      </c>
-      <c r="K252">
-        <v>2.6</v>
-      </c>
-      <c r="L252">
-        <v>3.25</v>
-      </c>
-      <c r="M252">
-        <v>2.375</v>
-      </c>
-      <c r="N252">
-        <v>2.8</v>
-      </c>
-      <c r="O252">
-        <v>3.25</v>
-      </c>
-      <c r="P252">
-        <v>2.2</v>
-      </c>
-      <c r="Q252">
-        <v>0.25</v>
-      </c>
-      <c r="R252">
-        <v>1.8</v>
-      </c>
-      <c r="S252">
-        <v>2.05</v>
-      </c>
-      <c r="T252">
-        <v>2.5</v>
-      </c>
-      <c r="U252">
-        <v>1.9</v>
-      </c>
-      <c r="V252">
-        <v>1.95</v>
-      </c>
-      <c r="W252">
-        <v>0</v>
-      </c>
-      <c r="X252">
-        <v>0</v>
-      </c>
-      <c r="Y252">
-        <v>0</v>
-      </c>
-      <c r="Z252">
-        <v>0</v>
-      </c>
-      <c r="AA252">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:29">
-      <c r="A253" s="1">
-        <v>251</v>
-      </c>
-      <c r="B253">
-        <v>6893204</v>
-      </c>
-      <c r="C253" t="s">
-        <v>28</v>
-      </c>
-      <c r="D253" t="s">
-        <v>28</v>
-      </c>
-      <c r="E253" s="2">
-        <v>45390.58333333334</v>
-      </c>
-      <c r="F253" t="s">
-        <v>33</v>
-      </c>
-      <c r="G253" t="s">
-        <v>32</v>
-      </c>
-      <c r="K253">
-        <v>2.3</v>
-      </c>
-      <c r="L253">
-        <v>3.25</v>
-      </c>
-      <c r="M253">
-        <v>2.7</v>
-      </c>
-      <c r="N253">
-        <v>2.3</v>
-      </c>
-      <c r="O253">
-        <v>3.3</v>
-      </c>
-      <c r="P253">
-        <v>2.7</v>
-      </c>
-      <c r="Q253">
-        <v>-0.25</v>
-      </c>
-      <c r="R253">
-        <v>2.1</v>
-      </c>
-      <c r="S253">
-        <v>1.775</v>
-      </c>
-      <c r="T253">
-        <v>2.5</v>
-      </c>
-      <c r="U253">
-        <v>1.95</v>
-      </c>
-      <c r="V253">
-        <v>1.9</v>
-      </c>
-      <c r="W253">
-        <v>0</v>
-      </c>
-      <c r="X253">
-        <v>0</v>
-      </c>
-      <c r="Y253">
-        <v>0</v>
-      </c>
-      <c r="Z253">
-        <v>0</v>
-      </c>
-      <c r="AA253">
         <v>0</v>
       </c>
     </row>

--- a/Portugal Segunda Liga/Portugal Segunda Liga.xlsx
+++ b/Portugal Segunda Liga/Portugal Segunda Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC249"/>
+  <dimension ref="A1:AC253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3292,7 +3292,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6893107</v>
+        <v>7140182</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3304,76 +3304,76 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K32">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="L32">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M32">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="N32">
+        <v>2.3</v>
+      </c>
+      <c r="O32">
         <v>2.9</v>
       </c>
-      <c r="O32">
-        <v>3.5</v>
-      </c>
       <c r="P32">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q32">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R32">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S32">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T32">
         <v>2.25</v>
       </c>
       <c r="U32">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V32">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W32">
         <v>-1</v>
       </c>
       <c r="X32">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z32">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC32">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3381,7 +3381,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>7140182</v>
+        <v>6893107</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3393,76 +3393,76 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F33" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K33">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="L33">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M33">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="N33">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="O33">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="P33">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q33">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R33">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S33">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T33">
         <v>2.25</v>
       </c>
       <c r="U33">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V33">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W33">
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y33">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA33">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB33">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC33">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -5784,7 +5784,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6893569</v>
+        <v>6899203</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5796,46 +5796,46 @@
         <v>45207.29166666666</v>
       </c>
       <c r="F60" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G60" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K60">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L60">
         <v>3.3</v>
       </c>
       <c r="M60">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="N60">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="O60">
         <v>3.3</v>
       </c>
       <c r="P60">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="Q60">
         <v>0</v>
       </c>
       <c r="R60">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S60">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T60">
         <v>2.5</v>
@@ -5847,19 +5847,19 @@
         <v>1.85</v>
       </c>
       <c r="W60">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X60">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y60">
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA60">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
         <v>0.95</v>
@@ -5873,7 +5873,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6899203</v>
+        <v>6893569</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5885,46 +5885,46 @@
         <v>45207.29166666666</v>
       </c>
       <c r="F61" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G61" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K61">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L61">
         <v>3.3</v>
       </c>
       <c r="M61">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="N61">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="O61">
         <v>3.3</v>
       </c>
       <c r="P61">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q61">
         <v>0</v>
       </c>
       <c r="R61">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S61">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T61">
         <v>2.5</v>
@@ -5936,19 +5936,19 @@
         <v>1.85</v>
       </c>
       <c r="W61">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X61">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA61">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB61">
         <v>0.95</v>
@@ -7030,7 +7030,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6893126</v>
+        <v>6893574</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7042,34 +7042,34 @@
         <v>45234.33333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H74">
+        <v>2</v>
+      </c>
+      <c r="I74">
         <v>0</v>
       </c>
-      <c r="I74">
-        <v>1</v>
-      </c>
       <c r="J74" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K74">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L74">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M74">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="N74">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="O74">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P74">
         <v>3.8</v>
@@ -7078,40 +7078,40 @@
         <v>-0.5</v>
       </c>
       <c r="R74">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S74">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T74">
         <v>2.5</v>
       </c>
       <c r="U74">
+        <v>1.825</v>
+      </c>
+      <c r="V74">
         <v>1.975</v>
       </c>
-      <c r="V74">
-        <v>1.825</v>
-      </c>
       <c r="W74">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA74">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
         <v>-1</v>
       </c>
       <c r="AC74">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7119,7 +7119,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6893574</v>
+        <v>6893126</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7131,34 +7131,34 @@
         <v>45234.33333333334</v>
       </c>
       <c r="F75" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G75" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K75">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L75">
+        <v>3.4</v>
+      </c>
+      <c r="M75">
+        <v>3.8</v>
+      </c>
+      <c r="N75">
+        <v>1.8</v>
+      </c>
+      <c r="O75">
         <v>3.3</v>
-      </c>
-      <c r="M75">
-        <v>3.2</v>
-      </c>
-      <c r="N75">
-        <v>1.727</v>
-      </c>
-      <c r="O75">
-        <v>3.6</v>
       </c>
       <c r="P75">
         <v>3.8</v>
@@ -7167,40 +7167,40 @@
         <v>-0.5</v>
       </c>
       <c r="R75">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S75">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T75">
         <v>2.5</v>
       </c>
       <c r="U75">
+        <v>1.975</v>
+      </c>
+      <c r="V75">
         <v>1.825</v>
       </c>
-      <c r="V75">
-        <v>1.975</v>
-      </c>
       <c r="W75">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z75">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB75">
         <v>-1</v>
       </c>
       <c r="AC75">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -8276,7 +8276,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6893576</v>
+        <v>6893577</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8288,49 +8288,49 @@
         <v>45242.33333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G88" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K88">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="L88">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M88">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="N88">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="O88">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P88">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="Q88">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R88">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S88">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T88">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U88">
         <v>1.95</v>
@@ -8342,22 +8342,22 @@
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z88">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC88">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8365,7 +8365,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6893577</v>
+        <v>6893576</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8377,49 +8377,49 @@
         <v>45242.33333333334</v>
       </c>
       <c r="F89" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G89" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K89">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="L89">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M89">
+        <v>3</v>
+      </c>
+      <c r="N89">
         <v>2.375</v>
       </c>
-      <c r="N89">
-        <v>3.4</v>
-      </c>
       <c r="O89">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P89">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="Q89">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R89">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S89">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T89">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U89">
         <v>1.95</v>
@@ -8431,22 +8431,22 @@
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y89">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA89">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB89">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -12192,7 +12192,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6893140</v>
+        <v>6893139</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12204,55 +12204,55 @@
         <v>45290.33333333334</v>
       </c>
       <c r="F132" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G132" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J132" t="s">
         <v>48</v>
       </c>
       <c r="K132">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="L132">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M132">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="N132">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="O132">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P132">
-        <v>3.25</v>
+        <v>2.45</v>
       </c>
       <c r="Q132">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R132">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S132">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T132">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U132">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V132">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W132">
         <v>-1</v>
@@ -12261,16 +12261,16 @@
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>2.25</v>
+        <v>1.45</v>
       </c>
       <c r="Z132">
         <v>-1</v>
       </c>
       <c r="AA132">
-        <v>1.025</v>
+        <v>0.75</v>
       </c>
       <c r="AB132">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC132">
         <v>-1</v>
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6893139</v>
+        <v>6893140</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,55 +12293,55 @@
         <v>45290.33333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G133" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J133" t="s">
         <v>48</v>
       </c>
       <c r="K133">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="L133">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M133">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="N133">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="O133">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P133">
-        <v>2.45</v>
+        <v>3.25</v>
       </c>
       <c r="Q133">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R133">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S133">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U133">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V133">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W133">
         <v>-1</v>
@@ -12350,16 +12350,16 @@
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>1.45</v>
+        <v>2.25</v>
       </c>
       <c r="Z133">
         <v>-1</v>
       </c>
       <c r="AA133">
-        <v>0.75</v>
+        <v>1.025</v>
       </c>
       <c r="AB133">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC133">
         <v>-1</v>
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6893587</v>
+        <v>6893141</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,76 +12382,76 @@
         <v>45290.45833333334</v>
       </c>
       <c r="F134" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G134" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J134" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K134">
-        <v>1.65</v>
+        <v>1.909</v>
       </c>
       <c r="L134">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M134">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N134">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="O134">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P134">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q134">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R134">
+        <v>1.825</v>
+      </c>
+      <c r="S134">
+        <v>2.025</v>
+      </c>
+      <c r="T134">
+        <v>2.25</v>
+      </c>
+      <c r="U134">
+        <v>1.975</v>
+      </c>
+      <c r="V134">
         <v>1.875</v>
       </c>
-      <c r="S134">
-        <v>1.925</v>
-      </c>
-      <c r="T134">
-        <v>2.5</v>
-      </c>
-      <c r="U134">
-        <v>1.85</v>
-      </c>
-      <c r="V134">
-        <v>1.95</v>
-      </c>
       <c r="W134">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X134">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>0.4375</v>
+        <v>-0.5</v>
       </c>
       <c r="AA134">
-        <v>-0.5</v>
+        <v>0.5125</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC134">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12459,7 +12459,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6893141</v>
+        <v>6893587</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12471,76 +12471,76 @@
         <v>45290.45833333334</v>
       </c>
       <c r="F135" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G135" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K135">
-        <v>1.909</v>
+        <v>1.65</v>
       </c>
       <c r="L135">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M135">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N135">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="O135">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P135">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q135">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R135">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S135">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T135">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U135">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V135">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W135">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X135">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
+        <v>0.4375</v>
+      </c>
+      <c r="AA135">
         <v>-0.5</v>
       </c>
-      <c r="AA135">
-        <v>0.5125</v>
-      </c>
       <c r="AB135">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC135">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -13082,7 +13082,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6893145</v>
+        <v>6899181</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13094,76 +13094,76 @@
         <v>45297.625</v>
       </c>
       <c r="F142" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G142" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H142">
         <v>1</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J142" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K142">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="L142">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M142">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N142">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O142">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P142">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q142">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R142">
+        <v>2.025</v>
+      </c>
+      <c r="S142">
+        <v>1.775</v>
+      </c>
+      <c r="T142">
+        <v>2.25</v>
+      </c>
+      <c r="U142">
+        <v>1.975</v>
+      </c>
+      <c r="V142">
         <v>1.825</v>
       </c>
-      <c r="S142">
-        <v>1.975</v>
-      </c>
-      <c r="T142">
-        <v>2.5</v>
-      </c>
-      <c r="U142">
-        <v>1.875</v>
-      </c>
-      <c r="V142">
-        <v>1.925</v>
-      </c>
       <c r="W142">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X142">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA142">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
         <v>-1</v>
       </c>
       <c r="AC142">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13171,7 +13171,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6899181</v>
+        <v>6893145</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13183,76 +13183,76 @@
         <v>45297.625</v>
       </c>
       <c r="F143" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G143" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H143">
         <v>1</v>
       </c>
       <c r="I143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K143">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="L143">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M143">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="N143">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O143">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P143">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q143">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R143">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S143">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T143">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U143">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V143">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W143">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X143">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y143">
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB143">
         <v>-1</v>
       </c>
       <c r="AC143">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13883,7 +13883,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6899180</v>
+        <v>6893591</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13895,76 +13895,76 @@
         <v>45305.52083333334</v>
       </c>
       <c r="F151" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G151" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J151" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K151">
-        <v>1.833</v>
+        <v>1.75</v>
       </c>
       <c r="L151">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M151">
         <v>4.333</v>
       </c>
       <c r="N151">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="O151">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P151">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q151">
         <v>-0.5</v>
       </c>
       <c r="R151">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S151">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T151">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U151">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V151">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="W151">
         <v>-1</v>
       </c>
       <c r="X151">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y151">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z151">
         <v>-1</v>
       </c>
       <c r="AA151">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB151">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AC151">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13972,7 +13972,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6893591</v>
+        <v>6899180</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13984,76 +13984,76 @@
         <v>45305.52083333334</v>
       </c>
       <c r="F152" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G152" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I152">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J152" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K152">
-        <v>1.75</v>
+        <v>1.833</v>
       </c>
       <c r="L152">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M152">
         <v>4.333</v>
       </c>
       <c r="N152">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="O152">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P152">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q152">
         <v>-0.5</v>
       </c>
       <c r="R152">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S152">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T152">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U152">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V152">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="W152">
         <v>-1</v>
       </c>
       <c r="X152">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y152">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z152">
         <v>-1</v>
       </c>
       <c r="AA152">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB152">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AC152">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -15307,7 +15307,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6893595</v>
+        <v>6893154</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15319,40 +15319,40 @@
         <v>45319.52083333334</v>
       </c>
       <c r="F167" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G167" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H167">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J167" t="s">
         <v>49</v>
       </c>
       <c r="K167">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="L167">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M167">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="N167">
-        <v>1.65</v>
+        <v>1.833</v>
       </c>
       <c r="O167">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P167">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q167">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R167">
         <v>1.85</v>
@@ -15361,16 +15361,16 @@
         <v>1.95</v>
       </c>
       <c r="T167">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U167">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V167">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W167">
-        <v>0.6499999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15385,10 +15385,10 @@
         <v>-1</v>
       </c>
       <c r="AB167">
-        <v>0.475</v>
+        <v>0.8</v>
       </c>
       <c r="AC167">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15396,7 +15396,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6893154</v>
+        <v>6893595</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15408,40 +15408,40 @@
         <v>45319.52083333334</v>
       </c>
       <c r="F168" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G168" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J168" t="s">
         <v>49</v>
       </c>
       <c r="K168">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="L168">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M168">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="N168">
-        <v>1.833</v>
+        <v>1.65</v>
       </c>
       <c r="O168">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P168">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q168">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R168">
         <v>1.85</v>
@@ -15450,16 +15450,16 @@
         <v>1.95</v>
       </c>
       <c r="T168">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U168">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V168">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W168">
-        <v>0.833</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X168">
         <v>-1</v>
@@ -15474,10 +15474,10 @@
         <v>-1</v>
       </c>
       <c r="AB168">
-        <v>0.8</v>
+        <v>0.475</v>
       </c>
       <c r="AC168">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -16998,7 +16998,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6893598</v>
+        <v>6893600</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17010,76 +17010,76 @@
         <v>45333.52083333334</v>
       </c>
       <c r="F186" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G186" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J186" t="s">
         <v>47</v>
       </c>
       <c r="K186">
+        <v>3.8</v>
+      </c>
+      <c r="L186">
+        <v>3.3</v>
+      </c>
+      <c r="M186">
+        <v>1.95</v>
+      </c>
+      <c r="N186">
+        <v>3.5</v>
+      </c>
+      <c r="O186">
+        <v>3.3</v>
+      </c>
+      <c r="P186">
         <v>2.05</v>
       </c>
-      <c r="L186">
-        <v>3.4</v>
-      </c>
-      <c r="M186">
-        <v>3.4</v>
-      </c>
-      <c r="N186">
-        <v>1.909</v>
-      </c>
-      <c r="O186">
-        <v>3.5</v>
-      </c>
-      <c r="P186">
-        <v>3.75</v>
-      </c>
       <c r="Q186">
+        <v>0.25</v>
+      </c>
+      <c r="R186">
+        <v>2.05</v>
+      </c>
+      <c r="S186">
+        <v>1.8</v>
+      </c>
+      <c r="T186">
+        <v>2.25</v>
+      </c>
+      <c r="U186">
+        <v>1.95</v>
+      </c>
+      <c r="V186">
+        <v>1.9</v>
+      </c>
+      <c r="W186">
+        <v>-1</v>
+      </c>
+      <c r="X186">
+        <v>2.3</v>
+      </c>
+      <c r="Y186">
+        <v>-1</v>
+      </c>
+      <c r="Z186">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="AA186">
         <v>-0.5</v>
       </c>
-      <c r="R186">
-        <v>1.9</v>
-      </c>
-      <c r="S186">
-        <v>1.9</v>
-      </c>
-      <c r="T186">
-        <v>2.5</v>
-      </c>
-      <c r="U186">
-        <v>1.85</v>
-      </c>
-      <c r="V186">
-        <v>1.95</v>
-      </c>
-      <c r="W186">
-        <v>-1</v>
-      </c>
-      <c r="X186">
-        <v>2.5</v>
-      </c>
-      <c r="Y186">
-        <v>-1</v>
-      </c>
-      <c r="Z186">
-        <v>-1</v>
-      </c>
-      <c r="AA186">
+      <c r="AB186">
+        <v>-1</v>
+      </c>
+      <c r="AC186">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB186">
-        <v>-1</v>
-      </c>
-      <c r="AC186">
-        <v>0.95</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17087,7 +17087,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6893600</v>
+        <v>6893598</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17099,76 +17099,76 @@
         <v>45333.52083333334</v>
       </c>
       <c r="F187" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G187" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J187" t="s">
         <v>47</v>
       </c>
       <c r="K187">
-        <v>3.8</v>
+        <v>2.05</v>
       </c>
       <c r="L187">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M187">
+        <v>3.4</v>
+      </c>
+      <c r="N187">
+        <v>1.909</v>
+      </c>
+      <c r="O187">
+        <v>3.5</v>
+      </c>
+      <c r="P187">
+        <v>3.75</v>
+      </c>
+      <c r="Q187">
+        <v>-0.5</v>
+      </c>
+      <c r="R187">
+        <v>1.9</v>
+      </c>
+      <c r="S187">
+        <v>1.9</v>
+      </c>
+      <c r="T187">
+        <v>2.5</v>
+      </c>
+      <c r="U187">
+        <v>1.85</v>
+      </c>
+      <c r="V187">
         <v>1.95</v>
       </c>
-      <c r="N187">
-        <v>3.5</v>
-      </c>
-      <c r="O187">
-        <v>3.3</v>
-      </c>
-      <c r="P187">
-        <v>2.05</v>
-      </c>
-      <c r="Q187">
-        <v>0.25</v>
-      </c>
-      <c r="R187">
-        <v>2.05</v>
-      </c>
-      <c r="S187">
-        <v>1.8</v>
-      </c>
-      <c r="T187">
-        <v>2.25</v>
-      </c>
-      <c r="U187">
-        <v>1.95</v>
-      </c>
-      <c r="V187">
-        <v>1.9</v>
-      </c>
       <c r="W187">
         <v>-1</v>
       </c>
       <c r="X187">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Y187">
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA187">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB187">
         <v>-1</v>
       </c>
       <c r="AC187">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -18333,7 +18333,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6893167</v>
+        <v>6893169</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18345,76 +18345,76 @@
         <v>45346.52083333334</v>
       </c>
       <c r="F201" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G201" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I201">
         <v>2</v>
       </c>
       <c r="J201" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K201">
-        <v>1.833</v>
+        <v>1.75</v>
       </c>
       <c r="L201">
         <v>3.4</v>
       </c>
       <c r="M201">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="N201">
-        <v>1.75</v>
+        <v>1.666</v>
       </c>
       <c r="O201">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P201">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q201">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R201">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S201">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T201">
         <v>2.25</v>
       </c>
       <c r="U201">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V201">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W201">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X201">
         <v>-1</v>
       </c>
       <c r="Y201">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z201">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA201">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB201">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC201">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18422,7 +18422,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6893169</v>
+        <v>6893167</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18434,76 +18434,76 @@
         <v>45346.52083333334</v>
       </c>
       <c r="F202" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G202" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H202">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I202">
         <v>2</v>
       </c>
       <c r="J202" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K202">
-        <v>1.75</v>
+        <v>1.833</v>
       </c>
       <c r="L202">
         <v>3.4</v>
       </c>
       <c r="M202">
+        <v>4.333</v>
+      </c>
+      <c r="N202">
+        <v>1.75</v>
+      </c>
+      <c r="O202">
+        <v>3.4</v>
+      </c>
+      <c r="P202">
         <v>4.5</v>
       </c>
-      <c r="N202">
-        <v>1.666</v>
-      </c>
-      <c r="O202">
-        <v>3.5</v>
-      </c>
-      <c r="P202">
-        <v>5</v>
-      </c>
       <c r="Q202">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R202">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S202">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T202">
         <v>2.25</v>
       </c>
       <c r="U202">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V202">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W202">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X202">
         <v>-1</v>
       </c>
       <c r="Y202">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z202">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA202">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB202">
         <v>-0.5</v>
       </c>
-      <c r="AB202">
-        <v>0.7749999999999999</v>
-      </c>
       <c r="AC202">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -20914,7 +20914,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6899162</v>
+        <v>6893180</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20926,40 +20926,40 @@
         <v>45367.52083333334</v>
       </c>
       <c r="F230" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G230" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I230">
+        <v>1</v>
+      </c>
+      <c r="J230" t="s">
+        <v>47</v>
+      </c>
+      <c r="K230">
+        <v>2.375</v>
+      </c>
+      <c r="L230">
+        <v>3</v>
+      </c>
+      <c r="M230">
+        <v>2.8</v>
+      </c>
+      <c r="N230">
+        <v>2.7</v>
+      </c>
+      <c r="O230">
+        <v>2.9</v>
+      </c>
+      <c r="P230">
+        <v>2.5</v>
+      </c>
+      <c r="Q230">
         <v>0</v>
-      </c>
-      <c r="J230" t="s">
-        <v>49</v>
-      </c>
-      <c r="K230">
-        <v>1.8</v>
-      </c>
-      <c r="L230">
-        <v>3.25</v>
-      </c>
-      <c r="M230">
-        <v>4</v>
-      </c>
-      <c r="N230">
-        <v>1.727</v>
-      </c>
-      <c r="O230">
-        <v>3.3</v>
-      </c>
-      <c r="P230">
-        <v>4.333</v>
-      </c>
-      <c r="Q230">
-        <v>-0.75</v>
       </c>
       <c r="R230">
         <v>2</v>
@@ -20971,31 +20971,31 @@
         <v>2.25</v>
       </c>
       <c r="U230">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V230">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W230">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X230">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y230">
         <v>-1</v>
       </c>
       <c r="Z230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA230">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB230">
         <v>-0.5</v>
       </c>
       <c r="AC230">
-        <v>0.5</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -21003,7 +21003,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6893180</v>
+        <v>6899162</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21015,40 +21015,40 @@
         <v>45367.52083333334</v>
       </c>
       <c r="F231" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G231" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J231" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K231">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="L231">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M231">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="N231">
-        <v>2.7</v>
+        <v>1.727</v>
       </c>
       <c r="O231">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P231">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q231">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R231">
         <v>2</v>
@@ -21060,31 +21060,31 @@
         <v>2.25</v>
       </c>
       <c r="U231">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V231">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W231">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X231">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y231">
         <v>-1</v>
       </c>
       <c r="Z231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA231">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB231">
         <v>-0.5</v>
       </c>
       <c r="AC231">
-        <v>0.4125</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -22071,7 +22071,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>6893612</v>
+        <v>6893203</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22083,37 +22083,37 @@
         <v>45383.58333333334</v>
       </c>
       <c r="F243" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G243" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I243">
         <v>1</v>
       </c>
       <c r="J243" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K243">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="L243">
         <v>3.2</v>
       </c>
       <c r="M243">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="N243">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="O243">
         <v>3.1</v>
       </c>
       <c r="P243">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q243">
         <v>-0.25</v>
@@ -22128,31 +22128,31 @@
         <v>2.25</v>
       </c>
       <c r="U243">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V243">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W243">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X243">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y243">
         <v>-1</v>
       </c>
       <c r="Z243">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA243">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB243">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AC243">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="244" spans="1:29">
@@ -22160,7 +22160,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>6893203</v>
+        <v>6893612</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22172,37 +22172,37 @@
         <v>45383.58333333334</v>
       </c>
       <c r="F244" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G244" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I244">
         <v>1</v>
       </c>
       <c r="J244" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K244">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="L244">
         <v>3.2</v>
       </c>
       <c r="M244">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="N244">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="O244">
         <v>3.1</v>
       </c>
       <c r="P244">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q244">
         <v>-0.25</v>
@@ -22217,31 +22217,31 @@
         <v>2.25</v>
       </c>
       <c r="U244">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V244">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W244">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X244">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y244">
         <v>-1</v>
       </c>
       <c r="Z244">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA244">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB244">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AC244">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="245" spans="1:29">
@@ -22249,7 +22249,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>6893614</v>
+        <v>6899157</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22258,64 +22258,79 @@
         <v>28</v>
       </c>
       <c r="E245" s="2">
-        <v>45389.29166666666</v>
+        <v>45388.29166666666</v>
       </c>
       <c r="F245" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G245" t="s">
-        <v>39</v>
+        <v>43</v>
+      </c>
+      <c r="H245">
+        <v>3</v>
+      </c>
+      <c r="I245">
+        <v>0</v>
+      </c>
+      <c r="J245" t="s">
+        <v>49</v>
       </c>
       <c r="K245">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L245">
         <v>3.2</v>
       </c>
       <c r="M245">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="N245">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="O245">
         <v>3.2</v>
       </c>
       <c r="P245">
-        <v>2.45</v>
+        <v>3.4</v>
       </c>
       <c r="Q245">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R245">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S245">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T245">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U245">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V245">
         <v>1.85</v>
       </c>
       <c r="W245">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="X245">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y245">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA245">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB245">
+        <v>0.95</v>
+      </c>
+      <c r="AC245">
+        <v>-1</v>
       </c>
     </row>
     <row r="246" spans="1:29">
@@ -22323,7 +22338,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>6893186</v>
+        <v>6899158</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22332,64 +22347,79 @@
         <v>28</v>
       </c>
       <c r="E246" s="2">
-        <v>45389.41666666666</v>
+        <v>45388.41666666666</v>
       </c>
       <c r="F246" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G246" t="s">
-        <v>29</v>
+        <v>40</v>
+      </c>
+      <c r="H246">
+        <v>0</v>
+      </c>
+      <c r="I246">
+        <v>0</v>
+      </c>
+      <c r="J246" t="s">
+        <v>47</v>
       </c>
       <c r="K246">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="L246">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M246">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N246">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="O246">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P246">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="Q246">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R246">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S246">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T246">
         <v>2.25</v>
       </c>
       <c r="U246">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V246">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W246">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X246">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y246">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z246">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA246">
-        <v>0</v>
+        <v>0.375</v>
+      </c>
+      <c r="AB246">
+        <v>-1</v>
+      </c>
+      <c r="AC246">
+        <v>0.8</v>
       </c>
     </row>
     <row r="247" spans="1:29">
@@ -22397,7 +22427,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6899159</v>
+        <v>6899270</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22406,64 +22436,79 @@
         <v>28</v>
       </c>
       <c r="E247" s="2">
-        <v>45389.47916666666</v>
+        <v>45388.47916666666</v>
       </c>
       <c r="F247" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G247" t="s">
-        <v>38</v>
+        <v>31</v>
+      </c>
+      <c r="H247">
+        <v>2</v>
+      </c>
+      <c r="I247">
+        <v>1</v>
+      </c>
+      <c r="J247" t="s">
+        <v>49</v>
       </c>
       <c r="K247">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="L247">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M247">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="N247">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="O247">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P247">
-        <v>2.05</v>
+        <v>2.9</v>
       </c>
       <c r="Q247">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R247">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S247">
+        <v>1.9</v>
+      </c>
+      <c r="T247">
+        <v>2.75</v>
+      </c>
+      <c r="U247">
+        <v>2</v>
+      </c>
+      <c r="V247">
         <v>1.8</v>
       </c>
-      <c r="T247">
-        <v>2.25</v>
-      </c>
-      <c r="U247">
-        <v>1.925</v>
-      </c>
-      <c r="V247">
-        <v>1.925</v>
-      </c>
       <c r="W247">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="X247">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y247">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z247">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA247">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB247">
+        <v>0.5</v>
+      </c>
+      <c r="AC247">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="248" spans="1:29">
@@ -22471,7 +22516,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6893615</v>
+        <v>6893616</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22480,19 +22525,28 @@
         <v>28</v>
       </c>
       <c r="E248" s="2">
-        <v>45389.58333333334</v>
+        <v>45388.47916666666</v>
       </c>
       <c r="F248" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G248" t="s">
-        <v>35</v>
+        <v>41</v>
+      </c>
+      <c r="H248">
+        <v>1</v>
+      </c>
+      <c r="I248">
+        <v>3</v>
+      </c>
+      <c r="J248" t="s">
+        <v>48</v>
       </c>
       <c r="K248">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="L248">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M248">
         <v>2.375</v>
@@ -22501,43 +22555,49 @@
         <v>2.8</v>
       </c>
       <c r="O248">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P248">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q248">
         <v>0.25</v>
       </c>
       <c r="R248">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S248">
         <v>2.05</v>
       </c>
       <c r="T248">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U248">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V248">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W248">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X248">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y248">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="Z248">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA248">
-        <v>0</v>
+        <v>1.05</v>
+      </c>
+      <c r="AB248">
+        <v>0.925</v>
+      </c>
+      <c r="AC248">
+        <v>-1</v>
       </c>
     </row>
     <row r="249" spans="1:29">
@@ -22545,7 +22605,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>6893204</v>
+        <v>6893614</v>
       </c>
       <c r="C249" t="s">
         <v>28</v>
@@ -22554,63 +22614,419 @@
         <v>28</v>
       </c>
       <c r="E249" s="2">
-        <v>45390.58333333334</v>
+        <v>45389.29166666666</v>
       </c>
       <c r="F249" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G249" t="s">
-        <v>33</v>
+        <v>39</v>
+      </c>
+      <c r="H249">
+        <v>2</v>
+      </c>
+      <c r="I249">
+        <v>1</v>
+      </c>
+      <c r="J249" t="s">
+        <v>49</v>
       </c>
       <c r="K249">
+        <v>2.5</v>
+      </c>
+      <c r="L249">
+        <v>3.2</v>
+      </c>
+      <c r="M249">
+        <v>2.5</v>
+      </c>
+      <c r="N249">
+        <v>2.7</v>
+      </c>
+      <c r="O249">
+        <v>3.2</v>
+      </c>
+      <c r="P249">
         <v>2.3</v>
       </c>
-      <c r="L249">
-        <v>3.25</v>
-      </c>
-      <c r="M249">
-        <v>2.7</v>
-      </c>
-      <c r="N249">
-        <v>2.3</v>
-      </c>
-      <c r="O249">
-        <v>3.3</v>
-      </c>
-      <c r="P249">
-        <v>2.7</v>
-      </c>
       <c r="Q249">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R249">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S249">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="T249">
         <v>2.5</v>
       </c>
       <c r="U249">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V249">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W249">
+        <v>1.7</v>
+      </c>
+      <c r="X249">
+        <v>-1</v>
+      </c>
+      <c r="Y249">
+        <v>-1</v>
+      </c>
+      <c r="Z249">
+        <v>1.05</v>
+      </c>
+      <c r="AA249">
+        <v>-1</v>
+      </c>
+      <c r="AB249">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC249">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:29">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250">
+        <v>6893186</v>
+      </c>
+      <c r="C250" t="s">
+        <v>28</v>
+      </c>
+      <c r="D250" t="s">
+        <v>28</v>
+      </c>
+      <c r="E250" s="2">
+        <v>45389.41666666666</v>
+      </c>
+      <c r="F250" t="s">
+        <v>37</v>
+      </c>
+      <c r="G250" t="s">
+        <v>29</v>
+      </c>
+      <c r="H250">
         <v>0</v>
       </c>
-      <c r="X249">
+      <c r="I250">
+        <v>1</v>
+      </c>
+      <c r="J250" t="s">
+        <v>48</v>
+      </c>
+      <c r="K250">
+        <v>1.8</v>
+      </c>
+      <c r="L250">
+        <v>3.25</v>
+      </c>
+      <c r="M250">
+        <v>4</v>
+      </c>
+      <c r="N250">
+        <v>1.55</v>
+      </c>
+      <c r="O250">
+        <v>3.6</v>
+      </c>
+      <c r="P250">
+        <v>5</v>
+      </c>
+      <c r="Q250">
+        <v>-0.75</v>
+      </c>
+      <c r="R250">
+        <v>1.75</v>
+      </c>
+      <c r="S250">
+        <v>2.05</v>
+      </c>
+      <c r="T250">
+        <v>2.25</v>
+      </c>
+      <c r="U250">
+        <v>1.875</v>
+      </c>
+      <c r="V250">
+        <v>1.925</v>
+      </c>
+      <c r="W250">
+        <v>-1</v>
+      </c>
+      <c r="X250">
+        <v>-1</v>
+      </c>
+      <c r="Y250">
+        <v>4</v>
+      </c>
+      <c r="Z250">
+        <v>-1</v>
+      </c>
+      <c r="AA250">
+        <v>1.05</v>
+      </c>
+      <c r="AB250">
+        <v>-1</v>
+      </c>
+      <c r="AC250">
+        <v>0.925</v>
+      </c>
+    </row>
+    <row r="251" spans="1:29">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251">
+        <v>6899159</v>
+      </c>
+      <c r="C251" t="s">
+        <v>28</v>
+      </c>
+      <c r="D251" t="s">
+        <v>28</v>
+      </c>
+      <c r="E251" s="2">
+        <v>45389.47916666666</v>
+      </c>
+      <c r="F251" t="s">
+        <v>45</v>
+      </c>
+      <c r="G251" t="s">
+        <v>38</v>
+      </c>
+      <c r="H251">
         <v>0</v>
       </c>
-      <c r="Y249">
+      <c r="I251">
         <v>0</v>
       </c>
-      <c r="Z249">
+      <c r="J251" t="s">
+        <v>47</v>
+      </c>
+      <c r="K251">
+        <v>2.625</v>
+      </c>
+      <c r="L251">
+        <v>3.2</v>
+      </c>
+      <c r="M251">
+        <v>2.375</v>
+      </c>
+      <c r="N251">
+        <v>3.3</v>
+      </c>
+      <c r="O251">
+        <v>3.3</v>
+      </c>
+      <c r="P251">
+        <v>2</v>
+      </c>
+      <c r="Q251">
+        <v>0.25</v>
+      </c>
+      <c r="R251">
+        <v>2</v>
+      </c>
+      <c r="S251">
+        <v>1.8</v>
+      </c>
+      <c r="T251">
+        <v>2.25</v>
+      </c>
+      <c r="U251">
+        <v>1.925</v>
+      </c>
+      <c r="V251">
+        <v>1.875</v>
+      </c>
+      <c r="W251">
+        <v>-1</v>
+      </c>
+      <c r="X251">
+        <v>2.3</v>
+      </c>
+      <c r="Y251">
+        <v>-1</v>
+      </c>
+      <c r="Z251">
+        <v>0.5</v>
+      </c>
+      <c r="AA251">
+        <v>-0.5</v>
+      </c>
+      <c r="AB251">
+        <v>-1</v>
+      </c>
+      <c r="AC251">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="252" spans="1:29">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252">
+        <v>6893615</v>
+      </c>
+      <c r="C252" t="s">
+        <v>28</v>
+      </c>
+      <c r="D252" t="s">
+        <v>28</v>
+      </c>
+      <c r="E252" s="2">
+        <v>45389.58333333334</v>
+      </c>
+      <c r="F252" t="s">
+        <v>36</v>
+      </c>
+      <c r="G252" t="s">
+        <v>35</v>
+      </c>
+      <c r="H252">
+        <v>3</v>
+      </c>
+      <c r="I252">
+        <v>1</v>
+      </c>
+      <c r="J252" t="s">
+        <v>49</v>
+      </c>
+      <c r="K252">
+        <v>2.6</v>
+      </c>
+      <c r="L252">
+        <v>3.25</v>
+      </c>
+      <c r="M252">
+        <v>2.375</v>
+      </c>
+      <c r="N252">
+        <v>2.7</v>
+      </c>
+      <c r="O252">
+        <v>3.3</v>
+      </c>
+      <c r="P252">
+        <v>2.3</v>
+      </c>
+      <c r="Q252">
+        <v>0.25</v>
+      </c>
+      <c r="R252">
+        <v>1.75</v>
+      </c>
+      <c r="S252">
+        <v>2.05</v>
+      </c>
+      <c r="T252">
+        <v>2.5</v>
+      </c>
+      <c r="U252">
+        <v>1.825</v>
+      </c>
+      <c r="V252">
+        <v>1.975</v>
+      </c>
+      <c r="W252">
+        <v>1.7</v>
+      </c>
+      <c r="X252">
+        <v>-1</v>
+      </c>
+      <c r="Y252">
+        <v>-1</v>
+      </c>
+      <c r="Z252">
+        <v>0.75</v>
+      </c>
+      <c r="AA252">
+        <v>-1</v>
+      </c>
+      <c r="AB252">
+        <v>0.825</v>
+      </c>
+      <c r="AC252">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:29">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253">
+        <v>6893204</v>
+      </c>
+      <c r="C253" t="s">
+        <v>28</v>
+      </c>
+      <c r="D253" t="s">
+        <v>28</v>
+      </c>
+      <c r="E253" s="2">
+        <v>45390.58333333334</v>
+      </c>
+      <c r="F253" t="s">
+        <v>32</v>
+      </c>
+      <c r="G253" t="s">
+        <v>33</v>
+      </c>
+      <c r="K253">
+        <v>2.3</v>
+      </c>
+      <c r="L253">
+        <v>3.25</v>
+      </c>
+      <c r="M253">
+        <v>2.7</v>
+      </c>
+      <c r="N253">
+        <v>2.2</v>
+      </c>
+      <c r="O253">
+        <v>3.3</v>
+      </c>
+      <c r="P253">
+        <v>2.8</v>
+      </c>
+      <c r="Q253">
+        <v>-0.25</v>
+      </c>
+      <c r="R253">
+        <v>2.025</v>
+      </c>
+      <c r="S253">
+        <v>1.825</v>
+      </c>
+      <c r="T253">
+        <v>2.5</v>
+      </c>
+      <c r="U253">
+        <v>1.925</v>
+      </c>
+      <c r="V253">
+        <v>1.925</v>
+      </c>
+      <c r="W253">
         <v>0</v>
       </c>
-      <c r="AA249">
+      <c r="X253">
+        <v>0</v>
+      </c>
+      <c r="Y253">
+        <v>0</v>
+      </c>
+      <c r="Z253">
+        <v>0</v>
+      </c>
+      <c r="AA253">
         <v>0</v>
       </c>
     </row>

--- a/Portugal Segunda Liga/Portugal Segunda Liga.xlsx
+++ b/Portugal Segunda Liga/Portugal Segunda Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -112,10 +112,10 @@
     <t>AVS</t>
   </si>
   <si>
-    <t>Academico Viseu</t>
+    <t>FC Porto B</t>
   </si>
   <si>
-    <t>FC Porto B</t>
+    <t>Academico Viseu</t>
   </si>
   <si>
     <t>Penafiel</t>
@@ -889,7 +889,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6893191</v>
+        <v>6893285</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -904,7 +904,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -916,61 +916,61 @@
         <v>47</v>
       </c>
       <c r="K5">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="L5">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M5">
         <v>3.6</v>
       </c>
       <c r="N5">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="O5">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P5">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q5">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R5">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S5">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T5">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U5">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V5">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA5">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC5">
-        <v>0.825</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -978,7 +978,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6893285</v>
+        <v>6893191</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -993,7 +993,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1005,61 +1005,61 @@
         <v>47</v>
       </c>
       <c r="K6">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="L6">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M6">
         <v>3.6</v>
       </c>
       <c r="N6">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="O6">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P6">
+        <v>4.2</v>
+      </c>
+      <c r="Q6">
+        <v>-0.75</v>
+      </c>
+      <c r="R6">
+        <v>1.95</v>
+      </c>
+      <c r="S6">
+        <v>1.85</v>
+      </c>
+      <c r="T6">
+        <v>2.5</v>
+      </c>
+      <c r="U6">
+        <v>1.975</v>
+      </c>
+      <c r="V6">
+        <v>1.825</v>
+      </c>
+      <c r="W6">
+        <v>-1</v>
+      </c>
+      <c r="X6">
         <v>2.75</v>
       </c>
-      <c r="Q6">
-        <v>-0.25</v>
-      </c>
-      <c r="R6">
-        <v>2</v>
-      </c>
-      <c r="S6">
-        <v>1.8</v>
-      </c>
-      <c r="T6">
-        <v>2.25</v>
-      </c>
-      <c r="U6">
-        <v>1.8</v>
-      </c>
-      <c r="V6">
-        <v>2</v>
-      </c>
-      <c r="W6">
-        <v>-1</v>
-      </c>
-      <c r="X6">
-        <v>2.3</v>
-      </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB6">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1705,7 +1705,7 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1883,7 +1883,7 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -2236,7 +2236,7 @@
         <v>45164.29166666666</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G20" t="s">
         <v>44</v>
@@ -2491,7 +2491,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6893102</v>
+        <v>6899210</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2503,13 +2503,13 @@
         <v>45165.29166666666</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G23" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -2518,31 +2518,31 @@
         <v>49</v>
       </c>
       <c r="K23">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L23">
         <v>3.25</v>
       </c>
       <c r="M23">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N23">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="O23">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P23">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q23">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R23">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S23">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T23">
         <v>2.5</v>
@@ -2551,10 +2551,10 @@
         <v>2.025</v>
       </c>
       <c r="V23">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W23">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="X23">
         <v>-1</v>
@@ -2563,7 +2563,7 @@
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA23">
         <v>-1</v>
@@ -2580,7 +2580,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6899210</v>
+        <v>6893102</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2592,13 +2592,13 @@
         <v>45165.29166666666</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -2607,31 +2607,31 @@
         <v>49</v>
       </c>
       <c r="K24">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L24">
         <v>3.25</v>
       </c>
       <c r="M24">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N24">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="O24">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P24">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R24">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S24">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T24">
         <v>2.5</v>
@@ -2640,10 +2640,10 @@
         <v>2.025</v>
       </c>
       <c r="V24">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W24">
-        <v>1.45</v>
+        <v>1.25</v>
       </c>
       <c r="X24">
         <v>-1</v>
@@ -2652,7 +2652,7 @@
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AA24">
         <v>-1</v>
@@ -3129,7 +3129,7 @@
         <v>39</v>
       </c>
       <c r="G30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H30">
         <v>2</v>
@@ -3396,7 +3396,7 @@
         <v>34</v>
       </c>
       <c r="G33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -3927,7 +3927,7 @@
         <v>45185.29166666666</v>
       </c>
       <c r="F39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G39" t="s">
         <v>38</v>
@@ -4375,7 +4375,7 @@
         <v>36</v>
       </c>
       <c r="G44" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H44">
         <v>2</v>
@@ -4906,7 +4906,7 @@
         <v>45200.29166666666</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G50" t="s">
         <v>31</v>
@@ -4998,7 +4998,7 @@
         <v>46</v>
       </c>
       <c r="G51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5443,7 +5443,7 @@
         <v>37</v>
       </c>
       <c r="G56" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -5885,7 +5885,7 @@
         <v>45207.29166666666</v>
       </c>
       <c r="F61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G61" t="s">
         <v>45</v>
@@ -6597,7 +6597,7 @@
         <v>45228.33333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G69" t="s">
         <v>30</v>
@@ -6956,7 +6956,7 @@
         <v>42</v>
       </c>
       <c r="G73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7042,7 +7042,7 @@
         <v>45234.33333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G74" t="s">
         <v>44</v>
@@ -7757,7 +7757,7 @@
         <v>29</v>
       </c>
       <c r="G82" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -8024,7 +8024,7 @@
         <v>34</v>
       </c>
       <c r="G85" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H85">
         <v>3</v>
@@ -8555,7 +8555,7 @@
         <v>45242.625</v>
       </c>
       <c r="F91" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G91" t="s">
         <v>35</v>
@@ -9267,10 +9267,10 @@
         <v>45255.33333333334</v>
       </c>
       <c r="F99" t="s">
+        <v>32</v>
+      </c>
+      <c r="G99" t="s">
         <v>33</v>
-      </c>
-      <c r="G99" t="s">
-        <v>32</v>
       </c>
       <c r="H99">
         <v>3</v>
@@ -9534,7 +9534,7 @@
         <v>45261.625</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G102" t="s">
         <v>43</v>
@@ -9626,7 +9626,7 @@
         <v>36</v>
       </c>
       <c r="G103" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -10424,7 +10424,7 @@
         <v>45269.33333333334</v>
       </c>
       <c r="F112" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G112" t="s">
         <v>31</v>
@@ -10783,7 +10783,7 @@
         <v>39</v>
       </c>
       <c r="G116" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -11047,7 +11047,7 @@
         <v>45276.33333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G119" t="s">
         <v>45</v>
@@ -11495,7 +11495,7 @@
         <v>37</v>
       </c>
       <c r="G124" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -12207,7 +12207,7 @@
         <v>46</v>
       </c>
       <c r="G132" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H132">
         <v>1</v>
@@ -12293,7 +12293,7 @@
         <v>45290.33333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G133" t="s">
         <v>30</v>
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6893141</v>
+        <v>6893587</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,76 +12382,76 @@
         <v>45290.45833333334</v>
       </c>
       <c r="F134" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G134" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I134">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J134" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K134">
-        <v>1.909</v>
+        <v>1.65</v>
       </c>
       <c r="L134">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M134">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N134">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="O134">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P134">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q134">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R134">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S134">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T134">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U134">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V134">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W134">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X134">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
+        <v>0.4375</v>
+      </c>
+      <c r="AA134">
         <v>-0.5</v>
       </c>
-      <c r="AA134">
-        <v>0.5125</v>
-      </c>
       <c r="AB134">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC134">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12459,7 +12459,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6893587</v>
+        <v>6893141</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12471,76 +12471,76 @@
         <v>45290.45833333334</v>
       </c>
       <c r="F135" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G135" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J135" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K135">
-        <v>1.65</v>
+        <v>1.909</v>
       </c>
       <c r="L135">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M135">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N135">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="O135">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P135">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q135">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R135">
+        <v>1.825</v>
+      </c>
+      <c r="S135">
+        <v>2.025</v>
+      </c>
+      <c r="T135">
+        <v>2.25</v>
+      </c>
+      <c r="U135">
+        <v>1.975</v>
+      </c>
+      <c r="V135">
         <v>1.875</v>
       </c>
-      <c r="S135">
-        <v>1.925</v>
-      </c>
-      <c r="T135">
-        <v>2.5</v>
-      </c>
-      <c r="U135">
-        <v>1.85</v>
-      </c>
-      <c r="V135">
-        <v>1.95</v>
-      </c>
       <c r="W135">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>0.4375</v>
+        <v>-0.5</v>
       </c>
       <c r="AA135">
-        <v>-0.5</v>
+        <v>0.5125</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC135">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12904,7 +12904,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6893143</v>
+        <v>6893589</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12916,76 +12916,76 @@
         <v>45297.52083333334</v>
       </c>
       <c r="F140" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G140" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140">
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K140">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L140">
         <v>3.5</v>
       </c>
       <c r="M140">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="N140">
-        <v>1.6</v>
+        <v>1.571</v>
       </c>
       <c r="O140">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P140">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q140">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R140">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S140">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T140">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U140">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V140">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA140">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC140">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12993,7 +12993,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6893589</v>
+        <v>6893143</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13005,76 +13005,76 @@
         <v>45297.52083333334</v>
       </c>
       <c r="F141" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G141" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141">
         <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K141">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="L141">
         <v>3.5</v>
       </c>
       <c r="M141">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="N141">
-        <v>1.571</v>
+        <v>1.6</v>
       </c>
       <c r="O141">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P141">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q141">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R141">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S141">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T141">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U141">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V141">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W141">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z141">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB141">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13094,7 +13094,7 @@
         <v>45297.625</v>
       </c>
       <c r="F142" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G142" t="s">
         <v>40</v>
@@ -13364,7 +13364,7 @@
         <v>29</v>
       </c>
       <c r="G145" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H145">
         <v>3</v>
@@ -13895,7 +13895,7 @@
         <v>45305.52083333334</v>
       </c>
       <c r="F151" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G151" t="s">
         <v>35</v>
@@ -13987,7 +13987,7 @@
         <v>38</v>
       </c>
       <c r="G152" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -14343,7 +14343,7 @@
         <v>42</v>
       </c>
       <c r="G156" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -14699,7 +14699,7 @@
         <v>41</v>
       </c>
       <c r="G160" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H160">
         <v>0</v>
@@ -15408,7 +15408,7 @@
         <v>45319.52083333334</v>
       </c>
       <c r="F168" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G168" t="s">
         <v>43</v>
@@ -15764,7 +15764,7 @@
         <v>45321.71875</v>
       </c>
       <c r="F172" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G172" t="s">
         <v>41</v>
@@ -16034,7 +16034,7 @@
         <v>40</v>
       </c>
       <c r="G175" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H175">
         <v>1</v>
@@ -16565,7 +16565,7 @@
         <v>45332.33333333334</v>
       </c>
       <c r="F181" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G181" t="s">
         <v>34</v>
@@ -16998,7 +16998,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6893600</v>
+        <v>6893598</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17010,76 +17010,76 @@
         <v>45333.52083333334</v>
       </c>
       <c r="F186" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G186" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J186" t="s">
         <v>47</v>
       </c>
       <c r="K186">
-        <v>3.8</v>
+        <v>2.05</v>
       </c>
       <c r="L186">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M186">
+        <v>3.4</v>
+      </c>
+      <c r="N186">
+        <v>1.909</v>
+      </c>
+      <c r="O186">
+        <v>3.5</v>
+      </c>
+      <c r="P186">
+        <v>3.75</v>
+      </c>
+      <c r="Q186">
+        <v>-0.5</v>
+      </c>
+      <c r="R186">
+        <v>1.9</v>
+      </c>
+      <c r="S186">
+        <v>1.9</v>
+      </c>
+      <c r="T186">
+        <v>2.5</v>
+      </c>
+      <c r="U186">
+        <v>1.85</v>
+      </c>
+      <c r="V186">
         <v>1.95</v>
       </c>
-      <c r="N186">
-        <v>3.5</v>
-      </c>
-      <c r="O186">
-        <v>3.3</v>
-      </c>
-      <c r="P186">
-        <v>2.05</v>
-      </c>
-      <c r="Q186">
-        <v>0.25</v>
-      </c>
-      <c r="R186">
-        <v>2.05</v>
-      </c>
-      <c r="S186">
-        <v>1.8</v>
-      </c>
-      <c r="T186">
-        <v>2.25</v>
-      </c>
-      <c r="U186">
-        <v>1.95</v>
-      </c>
-      <c r="V186">
-        <v>1.9</v>
-      </c>
       <c r="W186">
         <v>-1</v>
       </c>
       <c r="X186">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Y186">
         <v>-1</v>
       </c>
       <c r="Z186">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA186">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB186">
         <v>-1</v>
       </c>
       <c r="AC186">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17087,7 +17087,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6893598</v>
+        <v>6893600</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17099,76 +17099,76 @@
         <v>45333.52083333334</v>
       </c>
       <c r="F187" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G187" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J187" t="s">
         <v>47</v>
       </c>
       <c r="K187">
+        <v>3.8</v>
+      </c>
+      <c r="L187">
+        <v>3.3</v>
+      </c>
+      <c r="M187">
+        <v>1.95</v>
+      </c>
+      <c r="N187">
+        <v>3.5</v>
+      </c>
+      <c r="O187">
+        <v>3.3</v>
+      </c>
+      <c r="P187">
         <v>2.05</v>
       </c>
-      <c r="L187">
-        <v>3.4</v>
-      </c>
-      <c r="M187">
-        <v>3.4</v>
-      </c>
-      <c r="N187">
-        <v>1.909</v>
-      </c>
-      <c r="O187">
-        <v>3.5</v>
-      </c>
-      <c r="P187">
-        <v>3.75</v>
-      </c>
       <c r="Q187">
+        <v>0.25</v>
+      </c>
+      <c r="R187">
+        <v>2.05</v>
+      </c>
+      <c r="S187">
+        <v>1.8</v>
+      </c>
+      <c r="T187">
+        <v>2.25</v>
+      </c>
+      <c r="U187">
+        <v>1.95</v>
+      </c>
+      <c r="V187">
+        <v>1.9</v>
+      </c>
+      <c r="W187">
+        <v>-1</v>
+      </c>
+      <c r="X187">
+        <v>2.3</v>
+      </c>
+      <c r="Y187">
+        <v>-1</v>
+      </c>
+      <c r="Z187">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="AA187">
         <v>-0.5</v>
       </c>
-      <c r="R187">
-        <v>1.9</v>
-      </c>
-      <c r="S187">
-        <v>1.9</v>
-      </c>
-      <c r="T187">
-        <v>2.5</v>
-      </c>
-      <c r="U187">
-        <v>1.85</v>
-      </c>
-      <c r="V187">
-        <v>1.95</v>
-      </c>
-      <c r="W187">
-        <v>-1</v>
-      </c>
-      <c r="X187">
-        <v>2.5</v>
-      </c>
-      <c r="Y187">
-        <v>-1</v>
-      </c>
-      <c r="Z187">
-        <v>-1</v>
-      </c>
-      <c r="AA187">
+      <c r="AB187">
+        <v>-1</v>
+      </c>
+      <c r="AC187">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB187">
-        <v>-1</v>
-      </c>
-      <c r="AC187">
-        <v>0.95</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17547,7 +17547,7 @@
         <v>38</v>
       </c>
       <c r="G192" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H192">
         <v>1</v>
@@ -17722,7 +17722,7 @@
         <v>45340.33333333334</v>
       </c>
       <c r="F194" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G194" t="s">
         <v>36</v>
@@ -18081,7 +18081,7 @@
         <v>44</v>
       </c>
       <c r="G198" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H198">
         <v>0</v>
@@ -18434,7 +18434,7 @@
         <v>45346.52083333334</v>
       </c>
       <c r="F202" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G202" t="s">
         <v>46</v>
@@ -18882,7 +18882,7 @@
         <v>31</v>
       </c>
       <c r="G207" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H207">
         <v>2</v>
@@ -19327,7 +19327,7 @@
         <v>45</v>
       </c>
       <c r="G212" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H212">
         <v>0</v>
@@ -19591,7 +19591,7 @@
         <v>45355.625</v>
       </c>
       <c r="F215" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G215" t="s">
         <v>37</v>
@@ -20039,7 +20039,7 @@
         <v>30</v>
       </c>
       <c r="G220" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H220">
         <v>1</v>
@@ -20202,7 +20202,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6893179</v>
+        <v>6893607</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20214,76 +20214,76 @@
         <v>45360.52083333334</v>
       </c>
       <c r="F222" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G222" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H222">
+        <v>2</v>
+      </c>
+      <c r="I222">
+        <v>1</v>
+      </c>
+      <c r="J222" t="s">
+        <v>49</v>
+      </c>
+      <c r="K222">
+        <v>1.5</v>
+      </c>
+      <c r="L222">
+        <v>4</v>
+      </c>
+      <c r="M222">
+        <v>5.5</v>
+      </c>
+      <c r="N222">
+        <v>1.571</v>
+      </c>
+      <c r="O222">
+        <v>3.8</v>
+      </c>
+      <c r="P222">
+        <v>5</v>
+      </c>
+      <c r="Q222">
+        <v>-1</v>
+      </c>
+      <c r="R222">
+        <v>1.975</v>
+      </c>
+      <c r="S222">
+        <v>1.825</v>
+      </c>
+      <c r="T222">
+        <v>2.75</v>
+      </c>
+      <c r="U222">
+        <v>2</v>
+      </c>
+      <c r="V222">
+        <v>1.8</v>
+      </c>
+      <c r="W222">
+        <v>0.571</v>
+      </c>
+      <c r="X222">
+        <v>-1</v>
+      </c>
+      <c r="Y222">
+        <v>-1</v>
+      </c>
+      <c r="Z222">
         <v>0</v>
       </c>
-      <c r="I222">
-        <v>1</v>
-      </c>
-      <c r="J222" t="s">
-        <v>48</v>
-      </c>
-      <c r="K222">
-        <v>3.2</v>
-      </c>
-      <c r="L222">
-        <v>3.1</v>
-      </c>
-      <c r="M222">
-        <v>2.2</v>
-      </c>
-      <c r="N222">
-        <v>3.5</v>
-      </c>
-      <c r="O222">
-        <v>3.1</v>
-      </c>
-      <c r="P222">
-        <v>2.1</v>
-      </c>
-      <c r="Q222">
-        <v>0.25</v>
-      </c>
-      <c r="R222">
-        <v>2.025</v>
-      </c>
-      <c r="S222">
-        <v>1.775</v>
-      </c>
-      <c r="T222">
-        <v>2.25</v>
-      </c>
-      <c r="U222">
-        <v>2.025</v>
-      </c>
-      <c r="V222">
-        <v>1.775</v>
-      </c>
-      <c r="W222">
-        <v>-1</v>
-      </c>
-      <c r="X222">
-        <v>-1</v>
-      </c>
-      <c r="Y222">
-        <v>1.1</v>
-      </c>
-      <c r="Z222">
-        <v>-1</v>
-      </c>
       <c r="AA222">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB222">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC222">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20291,7 +20291,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6893607</v>
+        <v>6893179</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20303,76 +20303,76 @@
         <v>45360.52083333334</v>
       </c>
       <c r="F223" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G223" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223">
         <v>1</v>
       </c>
       <c r="J223" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K223">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="L223">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M223">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="N223">
-        <v>1.571</v>
+        <v>3.5</v>
       </c>
       <c r="O223">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P223">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="Q223">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R223">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S223">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T223">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U223">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V223">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W223">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X223">
         <v>-1</v>
       </c>
       <c r="Y223">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z223">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA223">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB223">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC223">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20914,7 +20914,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6893180</v>
+        <v>6899162</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20926,40 +20926,40 @@
         <v>45367.52083333334</v>
       </c>
       <c r="F230" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G230" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J230" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K230">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="L230">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M230">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="N230">
-        <v>2.7</v>
+        <v>1.727</v>
       </c>
       <c r="O230">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P230">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q230">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R230">
         <v>2</v>
@@ -20971,31 +20971,31 @@
         <v>2.25</v>
       </c>
       <c r="U230">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V230">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W230">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X230">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y230">
         <v>-1</v>
       </c>
       <c r="Z230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA230">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB230">
         <v>-0.5</v>
       </c>
       <c r="AC230">
-        <v>0.4125</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -21003,7 +21003,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6899162</v>
+        <v>6893180</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21015,40 +21015,40 @@
         <v>45367.52083333334</v>
       </c>
       <c r="F231" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G231" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I231">
+        <v>1</v>
+      </c>
+      <c r="J231" t="s">
+        <v>47</v>
+      </c>
+      <c r="K231">
+        <v>2.375</v>
+      </c>
+      <c r="L231">
+        <v>3</v>
+      </c>
+      <c r="M231">
+        <v>2.8</v>
+      </c>
+      <c r="N231">
+        <v>2.7</v>
+      </c>
+      <c r="O231">
+        <v>2.9</v>
+      </c>
+      <c r="P231">
+        <v>2.5</v>
+      </c>
+      <c r="Q231">
         <v>0</v>
-      </c>
-      <c r="J231" t="s">
-        <v>49</v>
-      </c>
-      <c r="K231">
-        <v>1.8</v>
-      </c>
-      <c r="L231">
-        <v>3.25</v>
-      </c>
-      <c r="M231">
-        <v>4</v>
-      </c>
-      <c r="N231">
-        <v>1.727</v>
-      </c>
-      <c r="O231">
-        <v>3.3</v>
-      </c>
-      <c r="P231">
-        <v>4.333</v>
-      </c>
-      <c r="Q231">
-        <v>-0.75</v>
       </c>
       <c r="R231">
         <v>2</v>
@@ -21060,31 +21060,31 @@
         <v>2.25</v>
       </c>
       <c r="U231">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V231">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W231">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X231">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y231">
         <v>-1</v>
       </c>
       <c r="Z231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA231">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB231">
         <v>-0.5</v>
       </c>
       <c r="AC231">
-        <v>0.5</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21107,7 +21107,7 @@
         <v>44</v>
       </c>
       <c r="G232" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H232">
         <v>1</v>
@@ -21893,7 +21893,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6893184</v>
+        <v>6899271</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21905,73 +21905,73 @@
         <v>45381.52083333334</v>
       </c>
       <c r="F241" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G241" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H241">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I241">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J241" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K241">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="L241">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M241">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="N241">
-        <v>1.833</v>
+        <v>3.1</v>
       </c>
       <c r="O241">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P241">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="Q241">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R241">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S241">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T241">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U241">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V241">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W241">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X241">
         <v>-1</v>
       </c>
       <c r="Y241">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z241">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA241">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB241">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC241">
         <v>-1</v>
@@ -21982,7 +21982,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>6899271</v>
+        <v>6893184</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -21994,73 +21994,73 @@
         <v>45381.52083333334</v>
       </c>
       <c r="F242" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G242" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H242">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I242">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J242" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K242">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="L242">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M242">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="N242">
-        <v>3.1</v>
+        <v>1.833</v>
       </c>
       <c r="O242">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P242">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="Q242">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R242">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S242">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T242">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U242">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V242">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W242">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X242">
         <v>-1</v>
       </c>
       <c r="Y242">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z242">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA242">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB242">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC242">
         <v>-1</v>
@@ -22086,7 +22086,7 @@
         <v>35</v>
       </c>
       <c r="G243" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H243">
         <v>1</v>
@@ -22973,10 +22973,19 @@
         <v>45390.58333333334</v>
       </c>
       <c r="F253" t="s">
+        <v>33</v>
+      </c>
+      <c r="G253" t="s">
         <v>32</v>
       </c>
-      <c r="G253" t="s">
-        <v>33</v>
+      <c r="H253">
+        <v>0</v>
+      </c>
+      <c r="I253">
+        <v>2</v>
+      </c>
+      <c r="J253" t="s">
+        <v>48</v>
       </c>
       <c r="K253">
         <v>2.3</v>
@@ -22988,46 +22997,52 @@
         <v>2.7</v>
       </c>
       <c r="N253">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O253">
         <v>3.3</v>
       </c>
       <c r="P253">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="Q253">
         <v>-0.25</v>
       </c>
       <c r="R253">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S253">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T253">
         <v>2.5</v>
       </c>
       <c r="U253">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V253">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W253">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X253">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y253">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="Z253">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA253">
-        <v>0</v>
+        <v>0.8</v>
+      </c>
+      <c r="AB253">
+        <v>-1</v>
+      </c>
+      <c r="AC253">
+        <v>0.8999999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Portugal Segunda Liga/Portugal Segunda Liga.xlsx
+++ b/Portugal Segunda Liga/Portugal Segunda Liga.xlsx
@@ -2491,7 +2491,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6899210</v>
+        <v>6893102</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2503,13 +2503,13 @@
         <v>45165.29166666666</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G23" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -2518,31 +2518,31 @@
         <v>49</v>
       </c>
       <c r="K23">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L23">
         <v>3.25</v>
       </c>
       <c r="M23">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N23">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="O23">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P23">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R23">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S23">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T23">
         <v>2.5</v>
@@ -2551,10 +2551,10 @@
         <v>2.025</v>
       </c>
       <c r="V23">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W23">
-        <v>1.45</v>
+        <v>1.25</v>
       </c>
       <c r="X23">
         <v>-1</v>
@@ -2563,7 +2563,7 @@
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AA23">
         <v>-1</v>
@@ -2580,7 +2580,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6893102</v>
+        <v>6899210</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2592,13 +2592,13 @@
         <v>45165.29166666666</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -2607,31 +2607,31 @@
         <v>49</v>
       </c>
       <c r="K24">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L24">
         <v>3.25</v>
       </c>
       <c r="M24">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N24">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="O24">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P24">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q24">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S24">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T24">
         <v>2.5</v>
@@ -2640,10 +2640,10 @@
         <v>2.025</v>
       </c>
       <c r="V24">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W24">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="X24">
         <v>-1</v>
@@ -2652,7 +2652,7 @@
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA24">
         <v>-1</v>
@@ -3292,7 +3292,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>7140182</v>
+        <v>6893107</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3304,76 +3304,76 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F32" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G32" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K32">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="L32">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M32">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="N32">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="O32">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="P32">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q32">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R32">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S32">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T32">
         <v>2.25</v>
       </c>
       <c r="U32">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V32">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W32">
         <v>-1</v>
       </c>
       <c r="X32">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y32">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA32">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB32">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3381,7 +3381,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6893107</v>
+        <v>7140182</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3393,76 +3393,76 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F33" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>2</